--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -682,7 +682,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>1810</x:v>
+        <x:v>1812</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
         <x:v>998</x:v>
@@ -700,7 +700,7 @@
         <x:v>355</x:v>
       </x:c>
       <x:c r="I7" s="1" t="n">
-        <x:v>3394</x:v>
+        <x:v>3396</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9">
@@ -726,10 +726,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>533</x:v>
+        <x:v>534</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -740,7 +740,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>2050</x:v>
+        <x:v>2052</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
         <x:v>1179</x:v>
@@ -755,10 +755,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
-        <x:v>428</x:v>
+        <x:v>429</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>3927</x:v>
+        <x:v>3930</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -775,7 +775,7 @@
         <x:v>137</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
         <x:v>17</x:v>
@@ -787,7 +787,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>385</x:v>
+        <x:v>386</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -833,7 +833,7 @@
         <x:v>147</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F12" s="1" t="n">
         <x:v>24</x:v>
@@ -845,7 +845,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="I12" s="1" t="n">
-        <x:v>418</x:v>
+        <x:v>419</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9">
@@ -1045,10 +1045,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H19" s="1" t="n">
-        <x:v>221</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>1952</x:v>
+        <x:v>1953</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1103,10 +1103,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H21" s="1" t="n">
-        <x:v>231</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>2022</x:v>
+        <x:v>2023</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1494,16 +1494,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C35" s="1" t="n">
-        <x:v>1785</x:v>
+        <x:v>1789</x:v>
       </x:c>
       <x:c r="D35" s="1" t="n">
-        <x:v>1099</x:v>
+        <x:v>1103</x:v>
       </x:c>
       <x:c r="E35" s="1" t="n">
         <x:v>68</x:v>
       </x:c>
       <x:c r="F35" s="1" t="n">
-        <x:v>160</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="G35" s="1" t="n">
         <x:v>8</x:v>
@@ -1512,7 +1512,7 @@
         <x:v>309</x:v>
       </x:c>
       <x:c r="I35" s="1" t="n">
-        <x:v>3429</x:v>
+        <x:v>3438</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:9">
@@ -1523,7 +1523,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="C36" s="1" t="n">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="D36" s="1" t="n">
         <x:v>119</x:v>
@@ -1541,7 +1541,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="I36" s="1" t="n">
-        <x:v>318</x:v>
+        <x:v>319</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:9">
@@ -1552,16 +1552,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C37" s="1" t="n">
-        <x:v>1936</x:v>
+        <x:v>1941</x:v>
       </x:c>
       <x:c r="D37" s="1" t="n">
-        <x:v>1218</x:v>
+        <x:v>1222</x:v>
       </x:c>
       <x:c r="E37" s="1" t="n">
         <x:v>78</x:v>
       </x:c>
       <x:c r="F37" s="1" t="n">
-        <x:v>173</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="G37" s="1" t="n">
         <x:v>8</x:v>
@@ -1570,7 +1570,7 @@
         <x:v>334</x:v>
       </x:c>
       <x:c r="I37" s="1" t="n">
-        <x:v>3747</x:v>
+        <x:v>3757</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:9">
@@ -1944,10 +1944,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H50" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="I50" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:9">
@@ -1973,10 +1973,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H51" s="1" t="n">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="I51" s="1" t="n">
-        <x:v>224</x:v>
+        <x:v>225</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:9">
@@ -2002,10 +2002,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H52" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="I52" s="1" t="n">
-        <x:v>268</x:v>
+        <x:v>269</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:9">
@@ -2060,10 +2060,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H54" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="I54" s="1" t="n">
-        <x:v>335</x:v>
+        <x:v>336</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -682,10 +682,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>1812</x:v>
+        <x:v>1814</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>998</x:v>
+        <x:v>1000</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
         <x:v>77</x:v>
@@ -697,10 +697,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
-        <x:v>355</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="I7" s="1" t="n">
-        <x:v>3396</x:v>
+        <x:v>3402</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9">
@@ -711,10 +711,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>240</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>181</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>3</x:v>
@@ -729,7 +729,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>534</x:v>
+        <x:v>532</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -740,10 +740,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>2052</x:v>
+        <x:v>2053</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>1179</x:v>
+        <x:v>1180</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
         <x:v>80</x:v>
@@ -755,10 +755,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
-        <x:v>429</x:v>
+        <x:v>431</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>3930</x:v>
+        <x:v>3934</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -1030,10 +1030,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>1043</x:v>
+        <x:v>1047</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
-        <x:v>509</x:v>
+        <x:v>510</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
         <x:v>38</x:v>
@@ -1045,10 +1045,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H19" s="1" t="n">
-        <x:v>222</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>1953</x:v>
+        <x:v>1959</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1074,10 +1074,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H20" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1088,10 +1088,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>1089</x:v>
+        <x:v>1093</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
-        <x:v>517</x:v>
+        <x:v>518</x:v>
       </x:c>
       <x:c r="E21" s="1" t="n">
         <x:v>44</x:v>
@@ -1103,10 +1103,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H21" s="1" t="n">
-        <x:v>232</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>2023</x:v>
+        <x:v>2030</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1233,7 +1233,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="C26" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D26" s="1" t="n">
         <x:v>11</x:v>
@@ -1251,7 +1251,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="I26" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:9">
@@ -1262,7 +1262,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C27" s="1" t="n">
-        <x:v>244</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="D27" s="1" t="n">
         <x:v>178</x:v>
@@ -1280,7 +1280,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="I27" s="1" t="n">
-        <x:v>526</x:v>
+        <x:v>527</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:9">
@@ -1320,7 +1320,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="C29" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D29" s="1" t="n">
         <x:v>2</x:v>
@@ -1338,7 +1338,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I29" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:9">
@@ -1349,7 +1349,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C30" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D30" s="1" t="n">
         <x:v>21</x:v>
@@ -1367,7 +1367,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="I30" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:9">
@@ -1494,10 +1494,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C35" s="1" t="n">
-        <x:v>1789</x:v>
+        <x:v>1790</x:v>
       </x:c>
       <x:c r="D35" s="1" t="n">
-        <x:v>1103</x:v>
+        <x:v>1105</x:v>
       </x:c>
       <x:c r="E35" s="1" t="n">
         <x:v>68</x:v>
@@ -1512,7 +1512,7 @@
         <x:v>309</x:v>
       </x:c>
       <x:c r="I35" s="1" t="n">
-        <x:v>3438</x:v>
+        <x:v>3441</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:9">
@@ -1523,7 +1523,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="C36" s="1" t="n">
-        <x:v>152</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="D36" s="1" t="n">
         <x:v>119</x:v>
@@ -1541,7 +1541,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="I36" s="1" t="n">
-        <x:v>319</x:v>
+        <x:v>322</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:9">
@@ -1552,10 +1552,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C37" s="1" t="n">
-        <x:v>1941</x:v>
+        <x:v>1945</x:v>
       </x:c>
       <x:c r="D37" s="1" t="n">
-        <x:v>1222</x:v>
+        <x:v>1224</x:v>
       </x:c>
       <x:c r="E37" s="1" t="n">
         <x:v>78</x:v>
@@ -1570,7 +1570,7 @@
         <x:v>334</x:v>
       </x:c>
       <x:c r="I37" s="1" t="n">
-        <x:v>3757</x:v>
+        <x:v>3763</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:9">
@@ -1668,7 +1668,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C41" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D41" s="1" t="n">
         <x:v>3</x:v>
@@ -1686,7 +1686,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="I41" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9">
@@ -1726,7 +1726,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C43" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D43" s="1" t="n">
         <x:v>4</x:v>
@@ -1744,7 +1744,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="I43" s="1" t="n">
-        <x:v>47</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:9">
@@ -1944,10 +1944,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H50" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="I50" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:9">
@@ -1973,10 +1973,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H51" s="1" t="n">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="I51" s="1" t="n">
-        <x:v>225</x:v>
+        <x:v>226</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:9">
@@ -1993,7 +1993,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E52" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F52" s="1" t="n">
         <x:v>14</x:v>
@@ -2005,7 +2005,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="I52" s="1" t="n">
-        <x:v>269</x:v>
+        <x:v>270</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:9">
@@ -2051,7 +2051,7 @@
         <x:v>162</x:v>
       </x:c>
       <x:c r="E54" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F54" s="1" t="n">
         <x:v>20</x:v>
@@ -2063,7 +2063,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="I54" s="1" t="n">
-        <x:v>336</x:v>
+        <x:v>337</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -1030,7 +1030,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>1047</x:v>
+        <x:v>1048</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
         <x:v>510</x:v>
@@ -1048,7 +1048,7 @@
         <x:v>223</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>1959</x:v>
+        <x:v>1960</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1088,7 +1088,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>1093</x:v>
+        <x:v>1094</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
         <x:v>518</x:v>
@@ -1106,7 +1106,7 @@
         <x:v>234</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>2030</x:v>
+        <x:v>2031</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -2074,7 +2074,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C55" s="1" t="n">
-        <x:v>141</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="D55" s="1" t="n">
         <x:v>215</x:v>
@@ -2092,7 +2092,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="I55" s="1" t="n">
-        <x:v>440</x:v>
+        <x:v>442</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:9">
@@ -2106,7 +2106,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D56" s="1" t="n">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E56" s="1" t="n">
         <x:v>3</x:v>
@@ -2121,7 +2121,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="I56" s="1" t="n">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:9">
@@ -2132,10 +2132,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C57" s="1" t="n">
-        <x:v>158</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="D57" s="1" t="n">
-        <x:v>255</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="E57" s="1" t="n">
         <x:v>20</x:v>
@@ -2150,7 +2150,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="I57" s="1" t="n">
-        <x:v>512</x:v>
+        <x:v>515</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -682,10 +682,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>1814</x:v>
+        <x:v>1816</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>1000</x:v>
+        <x:v>1003</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
         <x:v>77</x:v>
@@ -697,10 +697,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
-        <x:v>357</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="I7" s="1" t="n">
-        <x:v>3402</x:v>
+        <x:v>3408</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9">
@@ -711,7 +711,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>239</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
         <x:v>180</x:v>
@@ -729,7 +729,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>532</x:v>
+        <x:v>533</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -740,10 +740,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>2053</x:v>
+        <x:v>2056</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>1180</x:v>
+        <x:v>1183</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
         <x:v>80</x:v>
@@ -755,10 +755,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
-        <x:v>431</x:v>
+        <x:v>432</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>3934</x:v>
+        <x:v>3941</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -1030,7 +1030,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>1048</x:v>
+        <x:v>1049</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
         <x:v>510</x:v>
@@ -1048,7 +1048,7 @@
         <x:v>223</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>1960</x:v>
+        <x:v>1961</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1088,7 +1088,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>1094</x:v>
+        <x:v>1095</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
         <x:v>518</x:v>
@@ -1106,7 +1106,7 @@
         <x:v>234</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>2031</x:v>
+        <x:v>2032</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1207,7 +1207,7 @@
         <x:v>239</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
-        <x:v>167</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="E25" s="1" t="n">
         <x:v>10</x:v>
@@ -1222,7 +1222,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="I25" s="1" t="n">
-        <x:v>504</x:v>
+        <x:v>505</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
@@ -1265,7 +1265,7 @@
         <x:v>245</x:v>
       </x:c>
       <x:c r="D27" s="1" t="n">
-        <x:v>178</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="E27" s="1" t="n">
         <x:v>10</x:v>
@@ -1280,7 +1280,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="I27" s="1" t="n">
-        <x:v>527</x:v>
+        <x:v>528</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:9">
@@ -1494,10 +1494,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C35" s="1" t="n">
-        <x:v>1790</x:v>
+        <x:v>1791</x:v>
       </x:c>
       <x:c r="D35" s="1" t="n">
-        <x:v>1105</x:v>
+        <x:v>1107</x:v>
       </x:c>
       <x:c r="E35" s="1" t="n">
         <x:v>68</x:v>
@@ -1512,7 +1512,7 @@
         <x:v>309</x:v>
       </x:c>
       <x:c r="I35" s="1" t="n">
-        <x:v>3441</x:v>
+        <x:v>3444</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:9">
@@ -1552,10 +1552,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C37" s="1" t="n">
-        <x:v>1945</x:v>
+        <x:v>1946</x:v>
       </x:c>
       <x:c r="D37" s="1" t="n">
-        <x:v>1224</x:v>
+        <x:v>1226</x:v>
       </x:c>
       <x:c r="E37" s="1" t="n">
         <x:v>78</x:v>
@@ -1570,7 +1570,7 @@
         <x:v>334</x:v>
       </x:c>
       <x:c r="I37" s="1" t="n">
-        <x:v>3763</x:v>
+        <x:v>3766</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:9">
@@ -1987,7 +1987,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C52" s="1" t="n">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="D52" s="1" t="n">
         <x:v>114</x:v>
@@ -2005,7 +2005,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="I52" s="1" t="n">
-        <x:v>270</x:v>
+        <x:v>272</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:9">
@@ -2045,7 +2045,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C54" s="1" t="n">
-        <x:v>112</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="D54" s="1" t="n">
         <x:v>162</x:v>
@@ -2063,7 +2063,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="I54" s="1" t="n">
-        <x:v>337</x:v>
+        <x:v>339</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -682,13 +682,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>1816</x:v>
+        <x:v>1821</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>1003</x:v>
+        <x:v>1009</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
         <x:v>147</x:v>
@@ -697,10 +697,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
-        <x:v>358</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="I7" s="1" t="n">
-        <x:v>3408</x:v>
+        <x:v>3422</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9">
@@ -711,7 +711,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>240</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
         <x:v>180</x:v>
@@ -729,7 +729,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>533</x:v>
+        <x:v>536</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -740,13 +740,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>2056</x:v>
+        <x:v>2064</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>1183</x:v>
+        <x:v>1189</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
         <x:v>183</x:v>
@@ -755,10 +755,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
-        <x:v>432</x:v>
+        <x:v>434</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>3941</x:v>
+        <x:v>3958</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -772,7 +772,7 @@
         <x:v>197</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>8</x:v>
@@ -787,7 +787,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>386</x:v>
+        <x:v>387</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -813,10 +813,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H11" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -830,7 +830,7 @@
         <x:v>211</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
-        <x:v>147</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
         <x:v>9</x:v>
@@ -842,10 +842,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H12" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I12" s="1" t="n">
-        <x:v>419</x:v>
+        <x:v>421</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9">
@@ -862,7 +862,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
         <x:v>4</x:v>
@@ -874,7 +874,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -920,7 +920,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
         <x:v>4</x:v>
@@ -932,7 +932,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -1030,25 +1030,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>1049</x:v>
+        <x:v>1050</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
-        <x:v>510</x:v>
+        <x:v>511</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
         <x:v>38</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
-        <x:v>139</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="G19" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H19" s="1" t="n">
-        <x:v>223</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>1961</x:v>
+        <x:v>1967</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1088,25 +1088,25 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>1095</x:v>
+        <x:v>1096</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
-        <x:v>518</x:v>
+        <x:v>519</x:v>
       </x:c>
       <x:c r="E21" s="1" t="n">
         <x:v>44</x:v>
       </x:c>
       <x:c r="F21" s="1" t="n">
-        <x:v>139</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="G21" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H21" s="1" t="n">
-        <x:v>234</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>2032</x:v>
+        <x:v>2038</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1204,10 +1204,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C25" s="1" t="n">
-        <x:v>239</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="E25" s="1" t="n">
         <x:v>10</x:v>
@@ -1219,10 +1219,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H25" s="1" t="n">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="I25" s="1" t="n">
-        <x:v>505</x:v>
+        <x:v>508</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
@@ -1262,10 +1262,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C27" s="1" t="n">
-        <x:v>245</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="D27" s="1" t="n">
-        <x:v>179</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="E27" s="1" t="n">
         <x:v>10</x:v>
@@ -1277,10 +1277,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H27" s="1" t="n">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="I27" s="1" t="n">
-        <x:v>528</x:v>
+        <x:v>531</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:9">
@@ -1494,16 +1494,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C35" s="1" t="n">
-        <x:v>1791</x:v>
+        <x:v>1816</x:v>
       </x:c>
       <x:c r="D35" s="1" t="n">
-        <x:v>1107</x:v>
+        <x:v>1116</x:v>
       </x:c>
       <x:c r="E35" s="1" t="n">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="F35" s="1" t="n">
-        <x:v>161</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="G35" s="1" t="n">
         <x:v>8</x:v>
@@ -1512,7 +1512,7 @@
         <x:v>309</x:v>
       </x:c>
       <x:c r="I35" s="1" t="n">
-        <x:v>3444</x:v>
+        <x:v>3481</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:9">
@@ -1529,7 +1529,7 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="E36" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F36" s="1" t="n">
         <x:v>13</x:v>
@@ -1541,7 +1541,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="I36" s="1" t="n">
-        <x:v>322</x:v>
+        <x:v>325</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:9">
@@ -1552,16 +1552,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C37" s="1" t="n">
-        <x:v>1946</x:v>
+        <x:v>1971</x:v>
       </x:c>
       <x:c r="D37" s="1" t="n">
-        <x:v>1226</x:v>
+        <x:v>1235</x:v>
       </x:c>
       <x:c r="E37" s="1" t="n">
-        <x:v>78</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="F37" s="1" t="n">
-        <x:v>174</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="G37" s="1" t="n">
         <x:v>8</x:v>
@@ -1570,7 +1570,7 @@
         <x:v>334</x:v>
       </x:c>
       <x:c r="I37" s="1" t="n">
-        <x:v>3766</x:v>
+        <x:v>3806</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:9">
@@ -1816,7 +1816,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D46" s="1" t="n">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E46" s="1" t="n">
         <x:v>2</x:v>
@@ -1831,7 +1831,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="I46" s="1" t="n">
-        <x:v>100</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
@@ -1874,7 +1874,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="D48" s="1" t="n">
-        <x:v>116</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="E48" s="1" t="n">
         <x:v>3</x:v>
@@ -1889,7 +1889,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="I48" s="1" t="n">
-        <x:v>153</x:v>
+        <x:v>155</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:9">
@@ -1900,7 +1900,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C49" s="1" t="n">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="D49" s="1" t="n">
         <x:v>50</x:v>
@@ -1909,7 +1909,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="F49" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G49" s="1" t="n">
         <x:v>1</x:v>
@@ -1918,7 +1918,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="I49" s="1" t="n">
-        <x:v>190</x:v>
+        <x:v>192</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:9">
@@ -1958,7 +1958,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C51" s="1" t="n">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="D51" s="1" t="n">
         <x:v>56</x:v>
@@ -1967,7 +1967,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F51" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G51" s="1" t="n">
         <x:v>1</x:v>
@@ -1976,7 +1976,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="I51" s="1" t="n">
-        <x:v>226</x:v>
+        <x:v>228</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:9">
@@ -1987,7 +1987,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C52" s="1" t="n">
-        <x:v>107</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="D52" s="1" t="n">
         <x:v>114</x:v>
@@ -2005,7 +2005,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="I52" s="1" t="n">
-        <x:v>272</x:v>
+        <x:v>271</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:9">
@@ -2045,7 +2045,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C54" s="1" t="n">
-        <x:v>114</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="D54" s="1" t="n">
         <x:v>162</x:v>
@@ -2063,7 +2063,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="I54" s="1" t="n">
-        <x:v>339</x:v>
+        <x:v>338</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:9">
@@ -2103,7 +2103,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="C56" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D56" s="1" t="n">
         <x:v>41</x:v>
@@ -2121,7 +2121,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="I56" s="1" t="n">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:9">
@@ -2132,7 +2132,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C57" s="1" t="n">
-        <x:v>160</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="D57" s="1" t="n">
         <x:v>256</x:v>
@@ -2150,7 +2150,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="I57" s="1" t="n">
-        <x:v>515</x:v>
+        <x:v>516</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -595,7 +595,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
         <x:v>8</x:v>
@@ -613,7 +613,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -653,7 +653,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
         <x:v>8</x:v>
@@ -671,7 +671,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I6" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:9">
@@ -682,13 +682,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>1821</x:v>
+        <x:v>1825</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>1009</x:v>
+        <x:v>1010</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
         <x:v>147</x:v>
@@ -700,7 +700,7 @@
         <x:v>360</x:v>
       </x:c>
       <x:c r="I7" s="1" t="n">
-        <x:v>3422</x:v>
+        <x:v>3428</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9">
@@ -711,7 +711,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>243</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
         <x:v>180</x:v>
@@ -729,7 +729,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>536</x:v>
+        <x:v>537</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -740,13 +740,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>2064</x:v>
+        <x:v>2069</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>1189</x:v>
+        <x:v>1190</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
         <x:v>183</x:v>
@@ -758,7 +758,7 @@
         <x:v>434</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>3958</x:v>
+        <x:v>3965</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -856,10 +856,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>4</x:v>
@@ -874,7 +874,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>133</x:v>
+        <x:v>135</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -914,10 +914,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
         <x:v>4</x:v>
@@ -932,7 +932,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>135</x:v>
+        <x:v>137</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -943,7 +943,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
         <x:v>101</x:v>
@@ -958,10 +958,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H16" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>341</x:v>
+        <x:v>343</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -1001,7 +1001,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C18" s="1" t="n">
-        <x:v>207</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
         <x:v>124</x:v>
@@ -1016,10 +1016,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H18" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="I18" s="1" t="n">
-        <x:v>413</x:v>
+        <x:v>415</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
@@ -1030,7 +1030,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>1050</x:v>
+        <x:v>1054</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
         <x:v>511</x:v>
@@ -1048,7 +1048,7 @@
         <x:v>225</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>1967</x:v>
+        <x:v>1971</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1088,7 +1088,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>1096</x:v>
+        <x:v>1100</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
         <x:v>519</x:v>
@@ -1106,7 +1106,7 @@
         <x:v>236</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>2038</x:v>
+        <x:v>2042</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1494,16 +1494,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C35" s="1" t="n">
-        <x:v>1816</x:v>
+        <x:v>1823</x:v>
       </x:c>
       <x:c r="D35" s="1" t="n">
-        <x:v>1116</x:v>
+        <x:v>1119</x:v>
       </x:c>
       <x:c r="E35" s="1" t="n">
         <x:v>69</x:v>
       </x:c>
       <x:c r="F35" s="1" t="n">
-        <x:v>163</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="G35" s="1" t="n">
         <x:v>8</x:v>
@@ -1512,7 +1512,7 @@
         <x:v>309</x:v>
       </x:c>
       <x:c r="I35" s="1" t="n">
-        <x:v>3481</x:v>
+        <x:v>3493</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:9">
@@ -1523,7 +1523,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="C36" s="1" t="n">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="D36" s="1" t="n">
         <x:v>119</x:v>
@@ -1532,7 +1532,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="F36" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G36" s="1" t="n">
         <x:v>0</x:v>
@@ -1541,7 +1541,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="I36" s="1" t="n">
-        <x:v>325</x:v>
+        <x:v>327</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:9">
@@ -1552,16 +1552,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C37" s="1" t="n">
-        <x:v>1971</x:v>
+        <x:v>1979</x:v>
       </x:c>
       <x:c r="D37" s="1" t="n">
-        <x:v>1235</x:v>
+        <x:v>1238</x:v>
       </x:c>
       <x:c r="E37" s="1" t="n">
         <x:v>82</x:v>
       </x:c>
       <x:c r="F37" s="1" t="n">
-        <x:v>176</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="G37" s="1" t="n">
         <x:v>8</x:v>
@@ -1570,7 +1570,7 @@
         <x:v>334</x:v>
       </x:c>
       <x:c r="I37" s="1" t="n">
-        <x:v>3806</x:v>
+        <x:v>3820</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:9">
@@ -1581,7 +1581,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C38" s="1" t="n">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D38" s="1" t="n">
         <x:v>34</x:v>
@@ -1599,7 +1599,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="I38" s="1" t="n">
-        <x:v>133</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:9">
@@ -1639,7 +1639,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C40" s="1" t="n">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D40" s="1" t="n">
         <x:v>63</x:v>
@@ -1657,7 +1657,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="I40" s="1" t="n">
-        <x:v>177</x:v>
+        <x:v>178</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:9">
@@ -1900,7 +1900,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C49" s="1" t="n">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="D49" s="1" t="n">
         <x:v>50</x:v>
@@ -1918,7 +1918,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="I49" s="1" t="n">
-        <x:v>192</x:v>
+        <x:v>193</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:9">
@@ -1958,7 +1958,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C51" s="1" t="n">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="D51" s="1" t="n">
         <x:v>56</x:v>
@@ -1976,7 +1976,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="I51" s="1" t="n">
-        <x:v>228</x:v>
+        <x:v>229</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:9">
@@ -1987,10 +1987,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C52" s="1" t="n">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="D52" s="1" t="n">
-        <x:v>114</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="E52" s="1" t="n">
         <x:v>10</x:v>
@@ -2005,7 +2005,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="I52" s="1" t="n">
-        <x:v>271</x:v>
+        <x:v>274</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:9">
@@ -2045,10 +2045,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C54" s="1" t="n">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="D54" s="1" t="n">
-        <x:v>162</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="E54" s="1" t="n">
         <x:v>13</x:v>
@@ -2063,7 +2063,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="I54" s="1" t="n">
-        <x:v>338</x:v>
+        <x:v>341</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:9">
@@ -2074,7 +2074,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C55" s="1" t="n">
-        <x:v>143</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="D55" s="1" t="n">
         <x:v>215</x:v>
@@ -2092,7 +2092,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="I55" s="1" t="n">
-        <x:v>442</x:v>
+        <x:v>443</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:9">
@@ -2132,7 +2132,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C57" s="1" t="n">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="D57" s="1" t="n">
         <x:v>256</x:v>
@@ -2150,7 +2150,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="I57" s="1" t="n">
-        <x:v>516</x:v>
+        <x:v>517</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -682,7 +682,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>1825</x:v>
+        <x:v>1826</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
         <x:v>1010</x:v>
@@ -700,7 +700,7 @@
         <x:v>360</x:v>
       </x:c>
       <x:c r="I7" s="1" t="n">
-        <x:v>3428</x:v>
+        <x:v>3429</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9">
@@ -740,7 +740,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>2069</x:v>
+        <x:v>2070</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
         <x:v>1190</x:v>
@@ -758,7 +758,7 @@
         <x:v>434</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>3965</x:v>
+        <x:v>3966</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -862,7 +862,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
         <x:v>4</x:v>
@@ -874,7 +874,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>135</x:v>
+        <x:v>136</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -920,7 +920,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
         <x:v>4</x:v>
@@ -932,7 +932,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -1030,7 +1030,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>1054</x:v>
+        <x:v>1055</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
         <x:v>511</x:v>
@@ -1048,7 +1048,7 @@
         <x:v>225</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>1971</x:v>
+        <x:v>1972</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1088,7 +1088,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>1100</x:v>
+        <x:v>1101</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
         <x:v>519</x:v>
@@ -1106,7 +1106,7 @@
         <x:v>236</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>2042</x:v>
+        <x:v>2043</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1204,7 +1204,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C25" s="1" t="n">
-        <x:v>240</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
         <x:v>169</x:v>
@@ -1222,7 +1222,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="I25" s="1" t="n">
-        <x:v>508</x:v>
+        <x:v>509</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
@@ -1262,7 +1262,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C27" s="1" t="n">
-        <x:v>246</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="D27" s="1" t="n">
         <x:v>180</x:v>
@@ -1280,7 +1280,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="I27" s="1" t="n">
-        <x:v>531</x:v>
+        <x:v>532</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:9">
@@ -1323,7 +1323,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D29" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E29" s="1" t="n">
         <x:v>0</x:v>
@@ -1338,7 +1338,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I29" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:9">
@@ -1352,7 +1352,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D30" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E30" s="1" t="n">
         <x:v>1</x:v>
@@ -1367,7 +1367,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="I30" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:9">
@@ -1436,7 +1436,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C33" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D33" s="1" t="n">
         <x:v>9</x:v>
@@ -1454,7 +1454,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="I33" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:9">
@@ -1465,7 +1465,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C34" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D34" s="1" t="n">
         <x:v>9</x:v>
@@ -1483,7 +1483,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="I34" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:9">
@@ -1494,13 +1494,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C35" s="1" t="n">
-        <x:v>1823</x:v>
+        <x:v>1851</x:v>
       </x:c>
       <x:c r="D35" s="1" t="n">
         <x:v>1119</x:v>
       </x:c>
       <x:c r="E35" s="1" t="n">
-        <x:v>69</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="F35" s="1" t="n">
         <x:v>165</x:v>
@@ -1512,7 +1512,7 @@
         <x:v>309</x:v>
       </x:c>
       <x:c r="I35" s="1" t="n">
-        <x:v>3493</x:v>
+        <x:v>3534</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:9">
@@ -1552,13 +1552,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C37" s="1" t="n">
-        <x:v>1979</x:v>
+        <x:v>2007</x:v>
       </x:c>
       <x:c r="D37" s="1" t="n">
         <x:v>1238</x:v>
       </x:c>
       <x:c r="E37" s="1" t="n">
-        <x:v>82</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="F37" s="1" t="n">
         <x:v>179</x:v>
@@ -1570,7 +1570,7 @@
         <x:v>334</x:v>
       </x:c>
       <x:c r="I37" s="1" t="n">
-        <x:v>3820</x:v>
+        <x:v>3861</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:9">
@@ -2025,7 +2025,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="F53" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G53" s="1" t="n">
         <x:v>0</x:v>
@@ -2034,7 +2034,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="I53" s="1" t="n">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:9">
@@ -2054,7 +2054,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="F54" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G54" s="1" t="n">
         <x:v>1</x:v>
@@ -2063,7 +2063,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="I54" s="1" t="n">
-        <x:v>341</x:v>
+        <x:v>342</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:9">
@@ -2074,7 +2074,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C55" s="1" t="n">
-        <x:v>144</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="D55" s="1" t="n">
         <x:v>215</x:v>
@@ -2089,10 +2089,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H55" s="1" t="n">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="I55" s="1" t="n">
-        <x:v>443</x:v>
+        <x:v>445</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:9">
@@ -2132,7 +2132,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C57" s="1" t="n">
-        <x:v>162</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="D57" s="1" t="n">
         <x:v>256</x:v>
@@ -2147,10 +2147,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H57" s="1" t="n">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="I57" s="1" t="n">
-        <x:v>517</x:v>
+        <x:v>519</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -682,10 +682,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>1826</x:v>
+        <x:v>1828</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>1010</x:v>
+        <x:v>1013</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
         <x:v>79</x:v>
@@ -700,7 +700,7 @@
         <x:v>360</x:v>
       </x:c>
       <x:c r="I7" s="1" t="n">
-        <x:v>3429</x:v>
+        <x:v>3434</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9">
@@ -740,10 +740,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>2070</x:v>
+        <x:v>2072</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>1190</x:v>
+        <x:v>1193</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
         <x:v>82</x:v>
@@ -758,7 +758,7 @@
         <x:v>434</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>3966</x:v>
+        <x:v>3971</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -1030,13 +1030,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>1055</x:v>
+        <x:v>1057</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
         <x:v>511</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
         <x:v>141</x:v>
@@ -1048,7 +1048,7 @@
         <x:v>225</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>1972</x:v>
+        <x:v>1975</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1088,13 +1088,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>1101</x:v>
+        <x:v>1103</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
         <x:v>519</x:v>
       </x:c>
       <x:c r="E21" s="1" t="n">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="F21" s="1" t="n">
         <x:v>141</x:v>
@@ -1106,7 +1106,7 @@
         <x:v>236</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>2043</x:v>
+        <x:v>2046</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1204,13 +1204,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C25" s="1" t="n">
-        <x:v>241</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
         <x:v>169</x:v>
       </x:c>
       <x:c r="E25" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F25" s="1" t="n">
         <x:v>27</x:v>
@@ -1222,7 +1222,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="I25" s="1" t="n">
-        <x:v>509</x:v>
+        <x:v>512</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
@@ -1262,13 +1262,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C27" s="1" t="n">
-        <x:v>247</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="D27" s="1" t="n">
         <x:v>180</x:v>
       </x:c>
       <x:c r="E27" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F27" s="1" t="n">
         <x:v>29</x:v>
@@ -1280,7 +1280,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="I27" s="1" t="n">
-        <x:v>532</x:v>
+        <x:v>535</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:9">
@@ -1494,25 +1494,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C35" s="1" t="n">
-        <x:v>1851</x:v>
+        <x:v>1852</x:v>
       </x:c>
       <x:c r="D35" s="1" t="n">
-        <x:v>1119</x:v>
+        <x:v>1121</x:v>
       </x:c>
       <x:c r="E35" s="1" t="n">
         <x:v>82</x:v>
       </x:c>
       <x:c r="F35" s="1" t="n">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="G35" s="1" t="n">
         <x:v>8</x:v>
       </x:c>
       <x:c r="H35" s="1" t="n">
-        <x:v>309</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="I35" s="1" t="n">
-        <x:v>3534</x:v>
+        <x:v>3539</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:9">
@@ -1523,7 +1523,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="C36" s="1" t="n">
-        <x:v>156</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="D36" s="1" t="n">
         <x:v>119</x:v>
@@ -1541,7 +1541,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="I36" s="1" t="n">
-        <x:v>327</x:v>
+        <x:v>328</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:9">
@@ -1552,25 +1552,25 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C37" s="1" t="n">
-        <x:v>2007</x:v>
+        <x:v>2009</x:v>
       </x:c>
       <x:c r="D37" s="1" t="n">
-        <x:v>1238</x:v>
+        <x:v>1240</x:v>
       </x:c>
       <x:c r="E37" s="1" t="n">
         <x:v>95</x:v>
       </x:c>
       <x:c r="F37" s="1" t="n">
-        <x:v>179</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="G37" s="1" t="n">
         <x:v>8</x:v>
       </x:c>
       <x:c r="H37" s="1" t="n">
-        <x:v>334</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="I37" s="1" t="n">
-        <x:v>3861</x:v>
+        <x:v>3867</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -682,10 +682,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>1828</x:v>
+        <x:v>1834</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>1013</x:v>
+        <x:v>1014</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
         <x:v>79</x:v>
@@ -697,10 +697,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
-        <x:v>360</x:v>
+        <x:v>361</x:v>
       </x:c>
       <x:c r="I7" s="1" t="n">
-        <x:v>3434</x:v>
+        <x:v>3442</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9">
@@ -726,10 +726,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>537</x:v>
+        <x:v>538</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -740,10 +740,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>2072</x:v>
+        <x:v>2078</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>1193</x:v>
+        <x:v>1194</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
         <x:v>82</x:v>
@@ -755,10 +755,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
-        <x:v>434</x:v>
+        <x:v>436</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>3971</x:v>
+        <x:v>3980</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -856,7 +856,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>43</x:v>
@@ -874,7 +874,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>136</x:v>
+        <x:v>137</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -914,7 +914,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>45</x:v>
@@ -932,7 +932,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -943,7 +943,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>173</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
         <x:v>101</x:v>
@@ -961,7 +961,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>343</x:v>
+        <x:v>344</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -1001,7 +1001,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C18" s="1" t="n">
-        <x:v>208</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
         <x:v>124</x:v>
@@ -1019,7 +1019,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="I18" s="1" t="n">
-        <x:v>415</x:v>
+        <x:v>416</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
@@ -1030,16 +1030,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>1057</x:v>
+        <x:v>1060</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
-        <x:v>511</x:v>
+        <x:v>512</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
         <x:v>39</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
-        <x:v>141</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="G19" s="1" t="n">
         <x:v>2</x:v>
@@ -1048,7 +1048,7 @@
         <x:v>225</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>1975</x:v>
+        <x:v>1980</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1088,16 +1088,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>1103</x:v>
+        <x:v>1106</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
-        <x:v>519</x:v>
+        <x:v>520</x:v>
       </x:c>
       <x:c r="E21" s="1" t="n">
         <x:v>45</x:v>
       </x:c>
       <x:c r="F21" s="1" t="n">
-        <x:v>141</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="G21" s="1" t="n">
         <x:v>2</x:v>
@@ -1106,7 +1106,7 @@
         <x:v>236</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>2046</x:v>
+        <x:v>2051</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1207,7 +1207,7 @@
         <x:v>243</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="E25" s="1" t="n">
         <x:v>11</x:v>
@@ -1222,7 +1222,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="I25" s="1" t="n">
-        <x:v>512</x:v>
+        <x:v>513</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
@@ -1265,7 +1265,7 @@
         <x:v>249</x:v>
       </x:c>
       <x:c r="D27" s="1" t="n">
-        <x:v>180</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="E27" s="1" t="n">
         <x:v>11</x:v>
@@ -1280,7 +1280,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="I27" s="1" t="n">
-        <x:v>535</x:v>
+        <x:v>536</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:9">
@@ -1497,10 +1497,10 @@
         <x:v>1852</x:v>
       </x:c>
       <x:c r="D35" s="1" t="n">
-        <x:v>1121</x:v>
+        <x:v>1122</x:v>
       </x:c>
       <x:c r="E35" s="1" t="n">
-        <x:v>82</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="F35" s="1" t="n">
         <x:v>166</x:v>
@@ -1555,10 +1555,10 @@
         <x:v>2009</x:v>
       </x:c>
       <x:c r="D37" s="1" t="n">
-        <x:v>1240</x:v>
+        <x:v>1241</x:v>
       </x:c>
       <x:c r="E37" s="1" t="n">
-        <x:v>95</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="F37" s="1" t="n">
         <x:v>180</x:v>
@@ -2077,7 +2077,7 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="D55" s="1" t="n">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="E55" s="1" t="n">
         <x:v>17</x:v>
@@ -2092,7 +2092,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="I55" s="1" t="n">
-        <x:v>445</x:v>
+        <x:v>446</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:9">
@@ -2135,7 +2135,7 @@
         <x:v>163</x:v>
       </x:c>
       <x:c r="D57" s="1" t="n">
-        <x:v>256</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="E57" s="1" t="n">
         <x:v>20</x:v>
@@ -2150,7 +2150,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="I57" s="1" t="n">
-        <x:v>519</x:v>
+        <x:v>520</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <x:si>
     <x:t>Offense Category</x:t>
   </x:si>
@@ -49,15 +49,15 @@
     <x:t>Adult</x:t>
   </x:si>
   <x:si>
+    <x:t>Juvenile</x:t>
+  </x:si>
+  <x:si>
     <x:t>Total</x:t>
   </x:si>
   <x:si>
     <x:t>Arson</x:t>
   </x:si>
   <x:si>
-    <x:t>Juvenile</x:t>
-  </x:si>
-  <x:si>
     <x:t>Assault Offenses</x:t>
   </x:si>
   <x:si>
@@ -77,6 +77,9 @@
   </x:si>
   <x:si>
     <x:t>Fraud Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gambling Offenses</x:t>
   </x:si>
   <x:si>
     <x:t>Homicide Offenses</x:t>
@@ -490,7 +493,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:I57"/>
+  <x:dimension ref="A1:I61"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -537,25 +540,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E2" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F2" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G2" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H2" s="1" t="n">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="E2" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F2" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G2" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H2" s="1" t="n">
-        <x:v>4</x:v>
-      </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -566,10 +569,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E3" s="1" t="n">
         <x:v>0</x:v>
@@ -581,85 +584,85 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H3" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I3" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
       <x:c r="A4" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
         <x:v>8</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F4" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G4" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
       <x:c r="A5" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E5" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F5" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G5" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H5" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I5" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:9">
       <x:c r="A6" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F6" s="1" t="n">
         <x:v>0</x:v>
@@ -668,39 +671,39 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H6" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I6" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:9">
       <x:c r="A7" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>1834</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>1014</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>79</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>147</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
-        <x:v>361</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I7" s="1" t="n">
-        <x:v>3442</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9">
@@ -708,28 +711,28 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>244</x:v>
+        <x:v>2396</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>180</x:v>
+        <x:v>1360</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>75</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>538</x:v>
+        <x:v>4530</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -740,54 +743,54 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>2078</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>1194</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>82</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>183</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
-        <x:v>436</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>3980</x:v>
+        <x:v>710</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
       <x:c r="A10" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>197</x:v>
+        <x:v>2704</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>138</x:v>
+        <x:v>1622</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>544</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>387</x:v>
+        <x:v>5240</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -795,28 +798,28 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G11" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H11" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>511</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -827,54 +830,54 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C12" s="1" t="n">
-        <x:v>211</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
-        <x:v>148</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F12" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G12" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H12" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I12" s="1" t="n">
-        <x:v>421</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9">
       <x:c r="A13" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>76</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>43</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>137</x:v>
+        <x:v>557</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -882,28 +885,28 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C14" s="1" t="n">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="D14" s="1" t="n">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E14" s="1" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="F14" s="1" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G14" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H14" s="1" t="n">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="C14" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D14" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="E14" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F14" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G14" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H14" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
       <x:c r="I14" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>166</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
@@ -914,54 +917,54 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>76</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>45</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>139</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
       <x:c r="A16" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>174</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>101</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H16" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>344</x:v>
+        <x:v>168</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -969,28 +972,28 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G17" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H17" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>72</x:v>
+        <x:v>472</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -1001,54 +1004,54 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C18" s="1" t="n">
-        <x:v>209</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
-        <x:v>124</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E18" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F18" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G18" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H18" s="1" t="n">
-        <x:v>40</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="I18" s="1" t="n">
-        <x:v>416</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
       <x:c r="A19" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>1060</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
-        <x:v>512</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
-        <x:v>142</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G19" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H19" s="1" t="n">
-        <x:v>225</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>1980</x:v>
+        <x:v>567</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1056,28 +1059,28 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>46</x:v>
+        <x:v>1347</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>682</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="F20" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="G20" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H20" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>71</x:v>
+        <x:v>2565</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1088,54 +1091,54 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>1106</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
-        <x:v>520</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E21" s="1" t="n">
-        <x:v>45</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F21" s="1" t="n">
-        <x:v>142</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G21" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H21" s="1" t="n">
-        <x:v>236</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>2051</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
       <x:c r="A22" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>1404</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>693</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>2652</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1143,13 +1146,13 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C23" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
         <x:v>0</x:v>
@@ -1161,10 +1164,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H23" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1175,10 +1178,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>0</x:v>
@@ -1190,39 +1193,39 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H24" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
       <x:c r="A25" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C25" s="1" t="n">
-        <x:v>243</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
-        <x:v>170</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E25" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F25" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G25" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H25" s="1" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="I25" s="1" t="n">
         <x:v>27</x:v>
-      </x:c>
-      <x:c r="G25" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H25" s="1" t="n">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="I25" s="1" t="n">
-        <x:v>513</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
@@ -1230,28 +1233,28 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C26" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="D26" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="E26" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F26" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="G26" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H26" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="I26" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>664</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:9">
@@ -1262,54 +1265,54 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C27" s="1" t="n">
-        <x:v>249</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D27" s="1" t="n">
-        <x:v>181</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E27" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F27" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G27" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H27" s="1" t="n">
-        <x:v>66</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I27" s="1" t="n">
-        <x:v>536</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:9">
       <x:c r="A28" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C28" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F28" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="G28" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H28" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="I28" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>688</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:9">
@@ -1317,28 +1320,28 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C29" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="D29" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E29" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F29" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G29" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H29" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I29" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:9">
@@ -1349,39 +1352,39 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C30" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D30" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E30" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F30" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G30" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H30" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I30" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:9">
       <x:c r="A31" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C31" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
         <x:v>0</x:v>
@@ -1393,10 +1396,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H31" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I31" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
@@ -1404,16 +1407,16 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C32" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D32" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F32" s="1" t="n">
         <x:v>0</x:v>
@@ -1422,126 +1425,126 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H32" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I32" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:9">
       <x:c r="A33" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C33" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D33" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E33" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F33" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G33" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H33" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I33" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:9">
       <x:c r="A34" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C34" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D34" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E34" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="F34" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G34" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H34" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I34" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:9">
       <x:c r="A35" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C35" s="1" t="n">
-        <x:v>1852</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D35" s="1" t="n">
-        <x:v>1122</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E35" s="1" t="n">
-        <x:v>81</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F35" s="1" t="n">
-        <x:v>166</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G35" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H35" s="1" t="n">
-        <x:v>310</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I35" s="1" t="n">
-        <x:v>3539</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:9">
       <x:c r="A36" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C36" s="1" t="n">
-        <x:v>157</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D36" s="1" t="n">
-        <x:v>119</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E36" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F36" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G36" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H36" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I36" s="1" t="n">
-        <x:v>328</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:9">
@@ -1549,57 +1552,57 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C37" s="1" t="n">
-        <x:v>2009</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D37" s="1" t="n">
-        <x:v>1241</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E37" s="1" t="n">
-        <x:v>94</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F37" s="1" t="n">
-        <x:v>180</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G37" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H37" s="1" t="n">
-        <x:v>335</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I37" s="1" t="n">
-        <x:v>3867</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:9">
       <x:c r="A38" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C38" s="1" t="n">
-        <x:v>71</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D38" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E38" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F38" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G38" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H38" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I38" s="1" t="n">
-        <x:v>134</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:9">
@@ -1607,28 +1610,28 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C39" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>2377</x:v>
       </x:c>
       <x:c r="D39" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>1485</x:v>
       </x:c>
       <x:c r="E39" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="F39" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="G39" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H39" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>388</x:v>
       </x:c>
       <x:c r="I39" s="1" t="n">
-        <x:v>44</x:v>
+        <x:v>4570</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:9">
@@ -1639,54 +1642,54 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C40" s="1" t="n">
-        <x:v>76</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="D40" s="1" t="n">
-        <x:v>63</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="E40" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F40" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G40" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H40" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I40" s="1" t="n">
-        <x:v>178</x:v>
+        <x:v>417</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:9">
       <x:c r="A41" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C41" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>2583</x:v>
       </x:c>
       <x:c r="D41" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1634</x:v>
       </x:c>
       <x:c r="E41" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="F41" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="G41" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H41" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>420</x:v>
       </x:c>
       <x:c r="I41" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>4987</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9">
@@ -1694,28 +1697,28 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C42" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="D42" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E42" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F42" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G42" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H42" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="I42" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>175</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:9">
@@ -1726,54 +1729,54 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C43" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D43" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E43" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F43" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G43" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H43" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I43" s="1" t="n">
-        <x:v>50</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:9">
       <x:c r="A44" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C44" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D44" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E44" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F44" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G44" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H44" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="I44" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>229</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:9">
@@ -1781,16 +1784,16 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E45" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F45" s="1" t="n">
         <x:v>0</x:v>
@@ -1799,68 +1802,68 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H45" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
       <x:c r="A46" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C46" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D46" s="1" t="n">
-        <x:v>77</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E46" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F46" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G46" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H46" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I46" s="1" t="n">
-        <x:v>102</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
       <x:c r="A47" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E47" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="F47" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G47" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H47" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>53</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -1868,57 +1871,57 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C48" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D48" s="1" t="n">
-        <x:v>118</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E48" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F48" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G48" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H48" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I48" s="1" t="n">
-        <x:v>155</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:9">
       <x:c r="A49" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C49" s="1" t="n">
-        <x:v>92</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D49" s="1" t="n">
-        <x:v>50</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E49" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F49" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G49" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H49" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I49" s="1" t="n">
-        <x:v>193</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:9">
@@ -1926,28 +1929,28 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C50" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D50" s="1" t="n">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="E50" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="F50" s="1" t="n">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="E50" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F50" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
       <x:c r="G50" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H50" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I50" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:9">
@@ -1958,54 +1961,54 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C51" s="1" t="n">
-        <x:v>109</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D51" s="1" t="n">
-        <x:v>56</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="E51" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F51" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G51" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H51" s="1" t="n">
-        <x:v>48</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I51" s="1" t="n">
-        <x:v>229</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:9">
       <x:c r="A52" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C52" s="1" t="n">
-        <x:v>107</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D52" s="1" t="n">
-        <x:v>116</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="E52" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F52" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G52" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H52" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I52" s="1" t="n">
-        <x:v>274</x:v>
+        <x:v>195</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:9">
@@ -2013,28 +2016,28 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C53" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="D53" s="1" t="n">
-        <x:v>48</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E53" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F53" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
       <x:c r="G53" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H53" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="I53" s="1" t="n">
-        <x:v>68</x:v>
+        <x:v>249</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:9">
@@ -2045,54 +2048,54 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C54" s="1" t="n">
-        <x:v>114</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D54" s="1" t="n">
-        <x:v>164</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E54" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F54" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G54" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H54" s="1" t="n">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="F54" s="1" t="n">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="G54" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H54" s="1" t="n">
-        <x:v>29</x:v>
-      </x:c>
       <x:c r="I54" s="1" t="n">
-        <x:v>342</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:9">
       <x:c r="A55" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C55" s="1" t="n">
-        <x:v>145</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="D55" s="1" t="n">
-        <x:v>216</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="E55" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F55" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G55" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H55" s="1" t="n">
-        <x:v>53</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="I55" s="1" t="n">
-        <x:v>446</x:v>
+        <x:v>293</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:9">
@@ -2100,28 +2103,28 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C56" s="1" t="n">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="D56" s="1" t="n">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="E56" s="1" t="n">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="C56" s="1" t="n">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="D56" s="1" t="n">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="E56" s="1" t="n">
-        <x:v>3</x:v>
-      </x:c>
       <x:c r="F56" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G56" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H56" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="I56" s="1" t="n">
-        <x:v>74</x:v>
+        <x:v>366</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:9">
@@ -2132,25 +2135,141 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C57" s="1" t="n">
-        <x:v>163</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D57" s="1" t="n">
-        <x:v>257</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E57" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F57" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G57" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H57" s="1" t="n">
-        <x:v>63</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I57" s="1" t="n">
-        <x:v>520</x:v>
+        <x:v>77</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:9">
+      <x:c r="A58" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B58" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C58" s="1" t="n">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="D58" s="1" t="n">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="E58" s="1" t="n">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F58" s="1" t="n">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G58" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H58" s="1" t="n">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="I58" s="1" t="n">
+        <x:v>443</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:9">
+      <x:c r="A59" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B59" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C59" s="1" t="n">
+        <x:v>199</x:v>
+      </x:c>
+      <x:c r="D59" s="1" t="n">
+        <x:v>299</x:v>
+      </x:c>
+      <x:c r="E59" s="1" t="n">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F59" s="1" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G59" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H59" s="1" t="n">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="I59" s="1" t="n">
+        <x:v>605</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:9">
+      <x:c r="A60" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B60" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C60" s="1" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D60" s="1" t="n">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E60" s="1" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F60" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G60" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H60" s="1" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="I60" s="1" t="n">
+        <x:v>90</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:9">
+      <x:c r="A61" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B61" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C61" s="1" t="n">
+        <x:v>221</x:v>
+      </x:c>
+      <x:c r="D61" s="1" t="n">
+        <x:v>351</x:v>
+      </x:c>
+      <x:c r="E61" s="1" t="n">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="F61" s="1" t="n">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G61" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H61" s="1" t="n">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="I61" s="1" t="n">
+        <x:v>695</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -714,25 +714,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>2396</x:v>
+        <x:v>2404</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>1360</x:v>
+        <x:v>1364</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>101</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>209</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
         <x:v>10</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>454</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>4530</x:v>
+        <x:v>4549</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -743,25 +743,25 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>308</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>262</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>44</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>710</x:v>
+        <x:v>720</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -772,25 +772,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>2704</x:v>
+        <x:v>2716</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>1622</x:v>
+        <x:v>1628</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>253</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>11</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>544</x:v>
+        <x:v>550</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>5240</x:v>
+        <x:v>5269</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -801,10 +801,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>245</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>195</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
         <x:v>12</x:v>
@@ -819,7 +819,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>511</x:v>
+        <x:v>514</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -830,7 +830,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C12" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
         <x:v>10</x:v>
@@ -848,7 +848,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="I12" s="1" t="n">
-        <x:v>46</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9">
@@ -859,10 +859,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>263</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>205</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>13</x:v>
@@ -877,7 +877,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>557</x:v>
+        <x:v>563</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -888,13 +888,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>90</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
         <x:v>5</x:v>
@@ -906,7 +906,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="I14" s="1" t="n">
-        <x:v>166</x:v>
+        <x:v>170</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
@@ -946,13 +946,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>90</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
         <x:v>5</x:v>
@@ -964,7 +964,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>168</x:v>
+        <x:v>172</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -1062,10 +1062,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>1347</x:v>
+        <x:v>1354</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>682</x:v>
+        <x:v>685</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
         <x:v>50</x:v>
@@ -1077,10 +1077,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="H20" s="1" t="n">
-        <x:v>305</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>2565</x:v>
+        <x:v>2577</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1120,10 +1120,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>1404</x:v>
+        <x:v>1411</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>693</x:v>
+        <x:v>696</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>56</x:v>
@@ -1135,10 +1135,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
-        <x:v>318</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>2652</x:v>
+        <x:v>2664</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1236,10 +1236,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C26" s="1" t="n">
-        <x:v>303</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="D26" s="1" t="n">
-        <x:v>218</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="E26" s="1" t="n">
         <x:v>17</x:v>
@@ -1251,10 +1251,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H26" s="1" t="n">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I26" s="1" t="n">
-        <x:v>664</x:v>
+        <x:v>669</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:9">
@@ -1294,10 +1294,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C28" s="1" t="n">
-        <x:v>309</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
-        <x:v>230</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
         <x:v>17</x:v>
@@ -1309,10 +1309,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H28" s="1" t="n">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="I28" s="1" t="n">
-        <x:v>688</x:v>
+        <x:v>693</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:9">
@@ -1413,7 +1413,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D32" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
         <x:v>2</x:v>
@@ -1425,7 +1425,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H32" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I32" s="1" t="n">
         <x:v>38</x:v>
@@ -1471,7 +1471,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D34" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E34" s="1" t="n">
         <x:v>2</x:v>
@@ -1483,7 +1483,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H34" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I34" s="1" t="n">
         <x:v>44</x:v>
@@ -1613,25 +1613,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C39" s="1" t="n">
-        <x:v>2377</x:v>
+        <x:v>2389</x:v>
       </x:c>
       <x:c r="D39" s="1" t="n">
-        <x:v>1485</x:v>
+        <x:v>1498</x:v>
       </x:c>
       <x:c r="E39" s="1" t="n">
         <x:v>99</x:v>
       </x:c>
       <x:c r="F39" s="1" t="n">
-        <x:v>212</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="G39" s="1" t="n">
         <x:v>9</x:v>
       </x:c>
       <x:c r="H39" s="1" t="n">
-        <x:v>388</x:v>
+        <x:v>391</x:v>
       </x:c>
       <x:c r="I39" s="1" t="n">
-        <x:v>4570</x:v>
+        <x:v>4600</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:9">
@@ -1642,7 +1642,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C40" s="1" t="n">
-        <x:v>206</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="D40" s="1" t="n">
         <x:v>149</x:v>
@@ -1660,7 +1660,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="I40" s="1" t="n">
-        <x:v>417</x:v>
+        <x:v>419</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:9">
@@ -1671,25 +1671,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C41" s="1" t="n">
-        <x:v>2583</x:v>
+        <x:v>2597</x:v>
       </x:c>
       <x:c r="D41" s="1" t="n">
-        <x:v>1634</x:v>
+        <x:v>1647</x:v>
       </x:c>
       <x:c r="E41" s="1" t="n">
         <x:v>113</x:v>
       </x:c>
       <x:c r="F41" s="1" t="n">
-        <x:v>228</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="G41" s="1" t="n">
         <x:v>9</x:v>
       </x:c>
       <x:c r="H41" s="1" t="n">
-        <x:v>420</x:v>
+        <x:v>423</x:v>
       </x:c>
       <x:c r="I41" s="1" t="n">
-        <x:v>4987</x:v>
+        <x:v>5019</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9">
@@ -1787,7 +1787,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
         <x:v>4</x:v>
@@ -1805,7 +1805,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1845,7 +1845,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
         <x:v>5</x:v>
@@ -1863,7 +1863,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -1932,7 +1932,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C50" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D50" s="1" t="n">
         <x:v>99</x:v>
@@ -1941,7 +1941,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F50" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G50" s="1" t="n">
         <x:v>0</x:v>
@@ -1990,7 +1990,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C52" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D52" s="1" t="n">
         <x:v>148</x:v>
@@ -1999,7 +1999,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="F52" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G52" s="1" t="n">
         <x:v>0</x:v>
@@ -2022,7 +2022,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="D53" s="1" t="n">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E53" s="1" t="n">
         <x:v>8</x:v>
@@ -2037,7 +2037,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="I53" s="1" t="n">
-        <x:v>249</x:v>
+        <x:v>250</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:9">
@@ -2080,7 +2080,7 @@
         <x:v>144</x:v>
       </x:c>
       <x:c r="D55" s="1" t="n">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E55" s="1" t="n">
         <x:v>9</x:v>
@@ -2095,7 +2095,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="I55" s="1" t="n">
-        <x:v>293</x:v>
+        <x:v>294</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:9">
@@ -2106,10 +2106,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C56" s="1" t="n">
-        <x:v>145</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="D56" s="1" t="n">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="E56" s="1" t="n">
         <x:v>13</x:v>
@@ -2124,7 +2124,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="I56" s="1" t="n">
-        <x:v>366</x:v>
+        <x:v>368</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:9">
@@ -2164,10 +2164,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C58" s="1" t="n">
-        <x:v>152</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="D58" s="1" t="n">
-        <x:v>211</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="E58" s="1" t="n">
         <x:v>16</x:v>
@@ -2182,7 +2182,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="I58" s="1" t="n">
-        <x:v>443</x:v>
+        <x:v>445</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">
@@ -2225,7 +2225,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="D60" s="1" t="n">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E60" s="1" t="n">
         <x:v>4</x:v>
@@ -2240,7 +2240,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="I60" s="1" t="n">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">
@@ -2254,7 +2254,7 @@
         <x:v>221</x:v>
       </x:c>
       <x:c r="D61" s="1" t="n">
-        <x:v>351</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="E61" s="1" t="n">
         <x:v>28</x:v>
@@ -2269,7 +2269,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="I61" s="1" t="n">
-        <x:v>695</x:v>
+        <x:v>696</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -714,7 +714,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>2404</x:v>
+        <x:v>2405</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
         <x:v>1364</x:v>
@@ -732,7 +732,7 @@
         <x:v>459</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>4549</x:v>
+        <x:v>4550</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -743,10 +743,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>312</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>264</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
         <x:v>6</x:v>
@@ -761,7 +761,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>720</x:v>
+        <x:v>718</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -775,7 +775,7 @@
         <x:v>2716</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>1628</x:v>
+        <x:v>1627</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>107</x:v>
@@ -790,7 +790,7 @@
         <x:v>550</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>5269</x:v>
+        <x:v>5268</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -801,7 +801,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>246</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
         <x:v>197</x:v>
@@ -819,7 +819,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>514</x:v>
+        <x:v>515</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -859,7 +859,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>267</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>207</x:v>
@@ -877,7 +877,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>563</x:v>
+        <x:v>564</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -1410,7 +1410,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C32" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D32" s="1" t="n">
         <x:v>24</x:v>
@@ -1428,7 +1428,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="I32" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:9">
@@ -1468,7 +1468,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C34" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D34" s="1" t="n">
         <x:v>27</x:v>
@@ -1486,7 +1486,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="I34" s="1" t="n">
-        <x:v>44</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:9">
@@ -1613,10 +1613,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C39" s="1" t="n">
-        <x:v>2389</x:v>
+        <x:v>2391</x:v>
       </x:c>
       <x:c r="D39" s="1" t="n">
-        <x:v>1498</x:v>
+        <x:v>1502</x:v>
       </x:c>
       <x:c r="E39" s="1" t="n">
         <x:v>99</x:v>
@@ -1628,10 +1628,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="H39" s="1" t="n">
-        <x:v>391</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="I39" s="1" t="n">
-        <x:v>4600</x:v>
+        <x:v>4607</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:9">
@@ -1671,10 +1671,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C41" s="1" t="n">
-        <x:v>2597</x:v>
+        <x:v>2599</x:v>
       </x:c>
       <x:c r="D41" s="1" t="n">
-        <x:v>1647</x:v>
+        <x:v>1651</x:v>
       </x:c>
       <x:c r="E41" s="1" t="n">
         <x:v>113</x:v>
@@ -1686,10 +1686,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="H41" s="1" t="n">
-        <x:v>423</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="I41" s="1" t="n">
-        <x:v>5019</x:v>
+        <x:v>5026</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -714,7 +714,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>2405</x:v>
+        <x:v>2406</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
         <x:v>1364</x:v>
@@ -729,10 +729,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>459</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>4550</x:v>
+        <x:v>4552</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -758,10 +758,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>718</x:v>
+        <x:v>719</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -772,7 +772,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>2716</x:v>
+        <x:v>2717</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
         <x:v>1627</x:v>
@@ -787,10 +787,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>550</x:v>
+        <x:v>552</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>5268</x:v>
+        <x:v>5271</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -1236,7 +1236,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C26" s="1" t="n">
-        <x:v>305</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="D26" s="1" t="n">
         <x:v>220</x:v>
@@ -1254,7 +1254,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="I26" s="1" t="n">
-        <x:v>669</x:v>
+        <x:v>670</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:9">
@@ -1294,7 +1294,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C28" s="1" t="n">
-        <x:v>311</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
         <x:v>232</x:v>
@@ -1312,7 +1312,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="I28" s="1" t="n">
-        <x:v>693</x:v>
+        <x:v>694</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:9">
@@ -1613,10 +1613,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C39" s="1" t="n">
-        <x:v>2391</x:v>
+        <x:v>2396</x:v>
       </x:c>
       <x:c r="D39" s="1" t="n">
-        <x:v>1502</x:v>
+        <x:v>1511</x:v>
       </x:c>
       <x:c r="E39" s="1" t="n">
         <x:v>99</x:v>
@@ -1628,10 +1628,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="H39" s="1" t="n">
-        <x:v>392</x:v>
+        <x:v>393</x:v>
       </x:c>
       <x:c r="I39" s="1" t="n">
-        <x:v>4607</x:v>
+        <x:v>4622</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:9">
@@ -1642,7 +1642,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C40" s="1" t="n">
-        <x:v>208</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="D40" s="1" t="n">
         <x:v>149</x:v>
@@ -1660,7 +1660,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="I40" s="1" t="n">
-        <x:v>419</x:v>
+        <x:v>417</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:9">
@@ -1671,10 +1671,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C41" s="1" t="n">
-        <x:v>2599</x:v>
+        <x:v>2602</x:v>
       </x:c>
       <x:c r="D41" s="1" t="n">
-        <x:v>1651</x:v>
+        <x:v>1660</x:v>
       </x:c>
       <x:c r="E41" s="1" t="n">
         <x:v>113</x:v>
@@ -1686,10 +1686,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="H41" s="1" t="n">
-        <x:v>424</x:v>
+        <x:v>425</x:v>
       </x:c>
       <x:c r="I41" s="1" t="n">
-        <x:v>5026</x:v>
+        <x:v>5039</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9">
@@ -1787,7 +1787,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
         <x:v>4</x:v>
@@ -1805,7 +1805,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1845,7 +1845,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
         <x:v>5</x:v>
@@ -1863,7 +1863,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -2019,7 +2019,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C53" s="1" t="n">
-        <x:v>122</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="D53" s="1" t="n">
         <x:v>62</x:v>
@@ -2037,7 +2037,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="I53" s="1" t="n">
-        <x:v>250</x:v>
+        <x:v>252</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:9">
@@ -2077,7 +2077,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C55" s="1" t="n">
-        <x:v>144</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="D55" s="1" t="n">
         <x:v>70</x:v>
@@ -2095,7 +2095,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="I55" s="1" t="n">
-        <x:v>294</x:v>
+        <x:v>296</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:9">
@@ -2199,7 +2199,7 @@
         <x:v>299</x:v>
       </x:c>
       <x:c r="E59" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F59" s="1" t="n">
         <x:v>22</x:v>
@@ -2211,7 +2211,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="I59" s="1" t="n">
-        <x:v>605</x:v>
+        <x:v>606</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9">
@@ -2257,7 +2257,7 @@
         <x:v>352</x:v>
       </x:c>
       <x:c r="E61" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F61" s="1" t="n">
         <x:v>24</x:v>
@@ -2269,7 +2269,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="I61" s="1" t="n">
-        <x:v>696</x:v>
+        <x:v>697</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -714,7 +714,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>2406</x:v>
+        <x:v>2412</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
         <x:v>1364</x:v>
@@ -729,10 +729,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>460</x:v>
+        <x:v>462</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>4552</x:v>
+        <x:v>4560</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -746,7 +746,7 @@
         <x:v>311</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>263</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
         <x:v>6</x:v>
@@ -758,10 +758,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>719</x:v>
+        <x:v>721</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -772,10 +772,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>2717</x:v>
+        <x:v>2723</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>1627</x:v>
+        <x:v>1628</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>107</x:v>
@@ -787,10 +787,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>552</x:v>
+        <x:v>555</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>5271</x:v>
+        <x:v>5281</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -801,10 +801,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>247</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>197</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
         <x:v>12</x:v>
@@ -816,10 +816,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H11" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>515</x:v>
+        <x:v>519</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -859,10 +859,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>268</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>207</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>13</x:v>
@@ -874,10 +874,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>564</x:v>
+        <x:v>568</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -978,22 +978,22 @@
         <x:v>247</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
-        <x:v>138</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
         <x:v>18</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="G17" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H17" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>472</x:v>
+        <x:v>476</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -1036,22 +1036,22 @@
         <x:v>288</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
-        <x:v>174</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
         <x:v>19</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G19" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H19" s="1" t="n">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>567</x:v>
+        <x:v>571</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1065,22 +1065,22 @@
         <x:v>1354</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>685</x:v>
+        <x:v>686</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
         <x:v>50</x:v>
       </x:c>
       <x:c r="F20" s="1" t="n">
-        <x:v>178</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="G20" s="1" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="H20" s="1" t="n">
-        <x:v>307</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>2577</x:v>
+        <x:v>2580</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1123,22 +1123,22 @@
         <x:v>1411</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>696</x:v>
+        <x:v>697</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>56</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
-        <x:v>178</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
-        <x:v>320</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>2664</x:v>
+        <x:v>2667</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1239,7 +1239,7 @@
         <x:v>306</x:v>
       </x:c>
       <x:c r="D26" s="1" t="n">
-        <x:v>220</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="E26" s="1" t="n">
         <x:v>17</x:v>
@@ -1254,7 +1254,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="I26" s="1" t="n">
-        <x:v>670</x:v>
+        <x:v>671</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:9">
@@ -1297,7 +1297,7 @@
         <x:v>312</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
-        <x:v>232</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
         <x:v>17</x:v>
@@ -1312,7 +1312,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="I28" s="1" t="n">
-        <x:v>694</x:v>
+        <x:v>695</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:9">
@@ -1613,25 +1613,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C39" s="1" t="n">
-        <x:v>2396</x:v>
+        <x:v>2413</x:v>
       </x:c>
       <x:c r="D39" s="1" t="n">
-        <x:v>1511</x:v>
+        <x:v>1525</x:v>
       </x:c>
       <x:c r="E39" s="1" t="n">
         <x:v>99</x:v>
       </x:c>
       <x:c r="F39" s="1" t="n">
-        <x:v>214</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="G39" s="1" t="n">
         <x:v>9</x:v>
       </x:c>
       <x:c r="H39" s="1" t="n">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="I39" s="1" t="n">
-        <x:v>4622</x:v>
+        <x:v>4657</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:9">
@@ -1645,7 +1645,7 @@
         <x:v>206</x:v>
       </x:c>
       <x:c r="D40" s="1" t="n">
-        <x:v>149</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="E40" s="1" t="n">
         <x:v>14</x:v>
@@ -1660,7 +1660,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="I40" s="1" t="n">
-        <x:v>417</x:v>
+        <x:v>419</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:9">
@@ -1671,25 +1671,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C41" s="1" t="n">
-        <x:v>2602</x:v>
+        <x:v>2619</x:v>
       </x:c>
       <x:c r="D41" s="1" t="n">
-        <x:v>1660</x:v>
+        <x:v>1676</x:v>
       </x:c>
       <x:c r="E41" s="1" t="n">
         <x:v>113</x:v>
       </x:c>
       <x:c r="F41" s="1" t="n">
-        <x:v>230</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="G41" s="1" t="n">
         <x:v>9</x:v>
       </x:c>
       <x:c r="H41" s="1" t="n">
-        <x:v>425</x:v>
+        <x:v>428</x:v>
       </x:c>
       <x:c r="I41" s="1" t="n">
-        <x:v>5039</x:v>
+        <x:v>5076</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9">
@@ -1700,7 +1700,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C42" s="1" t="n">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="D42" s="1" t="n">
         <x:v>46</x:v>
@@ -1718,7 +1718,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="I42" s="1" t="n">
-        <x:v>175</x:v>
+        <x:v>176</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:9">
@@ -1732,7 +1732,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D43" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E43" s="1" t="n">
         <x:v>5</x:v>
@@ -1747,7 +1747,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="I43" s="1" t="n">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:9">
@@ -1758,10 +1758,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C44" s="1" t="n">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="D44" s="1" t="n">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E44" s="1" t="n">
         <x:v>10</x:v>
@@ -1776,7 +1776,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="I44" s="1" t="n">
-        <x:v>229</x:v>
+        <x:v>231</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:9">
@@ -1816,7 +1816,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C46" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D46" s="1" t="n">
         <x:v>1</x:v>
@@ -1834,7 +1834,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="I46" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
@@ -1845,7 +1845,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>43</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
         <x:v>5</x:v>
@@ -1863,7 +1863,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>61</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -2019,7 +2019,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C53" s="1" t="n">
-        <x:v>124</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D53" s="1" t="n">
         <x:v>62</x:v>
@@ -2037,7 +2037,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="I53" s="1" t="n">
-        <x:v>252</x:v>
+        <x:v>254</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:9">
@@ -2048,7 +2048,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C54" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D54" s="1" t="n">
         <x:v>8</x:v>
@@ -2066,7 +2066,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="I54" s="1" t="n">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:9">
@@ -2077,7 +2077,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C55" s="1" t="n">
-        <x:v>146</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="D55" s="1" t="n">
         <x:v>70</x:v>
@@ -2095,7 +2095,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="I55" s="1" t="n">
-        <x:v>296</x:v>
+        <x:v>299</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:9">
@@ -2106,7 +2106,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C56" s="1" t="n">
-        <x:v>146</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="D56" s="1" t="n">
         <x:v>156</x:v>
@@ -2124,7 +2124,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="I56" s="1" t="n">
-        <x:v>368</x:v>
+        <x:v>369</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:9">
@@ -2138,7 +2138,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D57" s="1" t="n">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E57" s="1" t="n">
         <x:v>3</x:v>
@@ -2153,7 +2153,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="I57" s="1" t="n">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:9">
@@ -2164,10 +2164,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C58" s="1" t="n">
-        <x:v>153</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="D58" s="1" t="n">
-        <x:v>212</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="E58" s="1" t="n">
         <x:v>16</x:v>
@@ -2182,7 +2182,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="I58" s="1" t="n">
-        <x:v>445</x:v>
+        <x:v>447</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">
@@ -2193,7 +2193,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C59" s="1" t="n">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="D59" s="1" t="n">
         <x:v>299</x:v>
@@ -2211,7 +2211,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="I59" s="1" t="n">
-        <x:v>606</x:v>
+        <x:v>607</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9">
@@ -2251,7 +2251,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C61" s="1" t="n">
-        <x:v>221</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="D61" s="1" t="n">
         <x:v>352</x:v>
@@ -2269,7 +2269,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="I61" s="1" t="n">
-        <x:v>697</x:v>
+        <x:v>698</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -714,10 +714,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>2412</x:v>
+        <x:v>2414</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>1364</x:v>
+        <x:v>1365</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>101</x:v>
@@ -732,7 +732,7 @@
         <x:v>462</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>4560</x:v>
+        <x:v>4563</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -746,7 +746,7 @@
         <x:v>311</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>264</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
         <x:v>6</x:v>
@@ -761,7 +761,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>721</x:v>
+        <x:v>722</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -772,10 +772,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>2723</x:v>
+        <x:v>2725</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>1628</x:v>
+        <x:v>1630</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>107</x:v>
@@ -790,7 +790,7 @@
         <x:v>555</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>5281</x:v>
+        <x:v>5285</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -804,7 +804,7 @@
         <x:v>246</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>201</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
         <x:v>12</x:v>
@@ -819,7 +819,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>519</x:v>
+        <x:v>520</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -833,13 +833,13 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="F12" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G12" s="1" t="n">
         <x:v>0</x:v>
@@ -848,7 +848,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="I12" s="1" t="n">
-        <x:v>49</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9">
@@ -862,13 +862,13 @@
         <x:v>267</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>211</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>13</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
         <x:v>1</x:v>
@@ -877,7 +877,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>568</x:v>
+        <x:v>571</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -888,7 +888,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
         <x:v>53</x:v>
@@ -906,7 +906,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="I14" s="1" t="n">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
@@ -946,7 +946,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
         <x:v>55</x:v>
@@ -964,7 +964,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -1062,7 +1062,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>1354</x:v>
+        <x:v>1356</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
         <x:v>686</x:v>
@@ -1080,7 +1080,7 @@
         <x:v>308</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>2580</x:v>
+        <x:v>2582</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1120,7 +1120,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>1411</x:v>
+        <x:v>1413</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
         <x:v>697</x:v>
@@ -1138,7 +1138,7 @@
         <x:v>321</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>2667</x:v>
+        <x:v>2669</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1236,7 +1236,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C26" s="1" t="n">
-        <x:v>306</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="D26" s="1" t="n">
         <x:v>221</x:v>
@@ -1254,7 +1254,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="I26" s="1" t="n">
-        <x:v>671</x:v>
+        <x:v>673</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:9">
@@ -1294,7 +1294,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C28" s="1" t="n">
-        <x:v>312</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
         <x:v>233</x:v>
@@ -1312,7 +1312,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="I28" s="1" t="n">
-        <x:v>695</x:v>
+        <x:v>697</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:9">
@@ -1613,16 +1613,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C39" s="1" t="n">
-        <x:v>2413</x:v>
+        <x:v>2416</x:v>
       </x:c>
       <x:c r="D39" s="1" t="n">
-        <x:v>1525</x:v>
+        <x:v>1534</x:v>
       </x:c>
       <x:c r="E39" s="1" t="n">
         <x:v>99</x:v>
       </x:c>
       <x:c r="F39" s="1" t="n">
-        <x:v>215</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="G39" s="1" t="n">
         <x:v>9</x:v>
@@ -1631,7 +1631,7 @@
         <x:v>396</x:v>
       </x:c>
       <x:c r="I39" s="1" t="n">
-        <x:v>4657</x:v>
+        <x:v>4671</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:9">
@@ -1671,16 +1671,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C41" s="1" t="n">
-        <x:v>2619</x:v>
+        <x:v>2622</x:v>
       </x:c>
       <x:c r="D41" s="1" t="n">
-        <x:v>1676</x:v>
+        <x:v>1685</x:v>
       </x:c>
       <x:c r="E41" s="1" t="n">
         <x:v>113</x:v>
       </x:c>
       <x:c r="F41" s="1" t="n">
-        <x:v>231</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="G41" s="1" t="n">
         <x:v>9</x:v>
@@ -1689,7 +1689,7 @@
         <x:v>428</x:v>
       </x:c>
       <x:c r="I41" s="1" t="n">
-        <x:v>5076</x:v>
+        <x:v>5090</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9">
@@ -2022,7 +2022,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="D53" s="1" t="n">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E53" s="1" t="n">
         <x:v>8</x:v>
@@ -2037,7 +2037,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="I53" s="1" t="n">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:9">
@@ -2080,7 +2080,7 @@
         <x:v>149</x:v>
       </x:c>
       <x:c r="D55" s="1" t="n">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E55" s="1" t="n">
         <x:v>9</x:v>
@@ -2095,7 +2095,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="I55" s="1" t="n">
-        <x:v>299</x:v>
+        <x:v>300</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:9">
@@ -2196,7 +2196,7 @@
         <x:v>200</x:v>
       </x:c>
       <x:c r="D59" s="1" t="n">
-        <x:v>299</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="E59" s="1" t="n">
         <x:v>25</x:v>
@@ -2211,7 +2211,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="I59" s="1" t="n">
-        <x:v>607</x:v>
+        <x:v>608</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9">
@@ -2222,7 +2222,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C60" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D60" s="1" t="n">
         <x:v>53</x:v>
@@ -2240,7 +2240,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="I60" s="1" t="n">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">
@@ -2251,10 +2251,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C61" s="1" t="n">
-        <x:v>222</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="D61" s="1" t="n">
-        <x:v>352</x:v>
+        <x:v>353</x:v>
       </x:c>
       <x:c r="E61" s="1" t="n">
         <x:v>29</x:v>
@@ -2269,7 +2269,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="I61" s="1" t="n">
-        <x:v>698</x:v>
+        <x:v>700</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -714,7 +714,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>2414</x:v>
+        <x:v>2417</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
         <x:v>1365</x:v>
@@ -732,7 +732,7 @@
         <x:v>462</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>4563</x:v>
+        <x:v>4566</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -752,7 +752,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
         <x:v>1</x:v>
@@ -761,7 +761,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>722</x:v>
+        <x:v>723</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -772,7 +772,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>2725</x:v>
+        <x:v>2728</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
         <x:v>1630</x:v>
@@ -781,7 +781,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>257</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>11</x:v>
@@ -790,7 +790,7 @@
         <x:v>555</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>5285</x:v>
+        <x:v>5289</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -891,7 +891,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
         <x:v>7</x:v>
@@ -903,10 +903,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H14" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="I14" s="1" t="n">
-        <x:v>171</x:v>
+        <x:v>173</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
@@ -949,7 +949,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
         <x:v>7</x:v>
@@ -961,10 +961,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H16" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>173</x:v>
+        <x:v>175</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -975,7 +975,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1" t="n">
-        <x:v>247</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
         <x:v>140</x:v>
@@ -993,7 +993,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>476</x:v>
+        <x:v>477</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -1033,7 +1033,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>288</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
         <x:v>176</x:v>
@@ -1051,7 +1051,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>571</x:v>
+        <x:v>572</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1062,7 +1062,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>1356</x:v>
+        <x:v>1357</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
         <x:v>686</x:v>
@@ -1077,7 +1077,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="H20" s="1" t="n">
-        <x:v>308</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
         <x:v>2582</x:v>
@@ -1120,7 +1120,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>1413</x:v>
+        <x:v>1414</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
         <x:v>697</x:v>
@@ -1135,7 +1135,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
-        <x:v>321</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
         <x:v>2669</x:v>
@@ -1239,7 +1239,7 @@
         <x:v>308</x:v>
       </x:c>
       <x:c r="D26" s="1" t="n">
-        <x:v>221</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="E26" s="1" t="n">
         <x:v>17</x:v>
@@ -1254,7 +1254,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="I26" s="1" t="n">
-        <x:v>673</x:v>
+        <x:v>675</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:9">
@@ -1297,7 +1297,7 @@
         <x:v>314</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
-        <x:v>233</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
         <x:v>17</x:v>
@@ -1312,7 +1312,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="I28" s="1" t="n">
-        <x:v>697</x:v>
+        <x:v>699</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:9">
@@ -1613,25 +1613,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C39" s="1" t="n">
-        <x:v>2416</x:v>
+        <x:v>2423</x:v>
       </x:c>
       <x:c r="D39" s="1" t="n">
-        <x:v>1534</x:v>
+        <x:v>1539</x:v>
       </x:c>
       <x:c r="E39" s="1" t="n">
         <x:v>99</x:v>
       </x:c>
       <x:c r="F39" s="1" t="n">
-        <x:v>217</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="G39" s="1" t="n">
         <x:v>9</x:v>
       </x:c>
       <x:c r="H39" s="1" t="n">
-        <x:v>396</x:v>
+        <x:v>397</x:v>
       </x:c>
       <x:c r="I39" s="1" t="n">
-        <x:v>4671</x:v>
+        <x:v>4685</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:9">
@@ -1671,25 +1671,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C41" s="1" t="n">
-        <x:v>2622</x:v>
+        <x:v>2629</x:v>
       </x:c>
       <x:c r="D41" s="1" t="n">
-        <x:v>1685</x:v>
+        <x:v>1690</x:v>
       </x:c>
       <x:c r="E41" s="1" t="n">
         <x:v>113</x:v>
       </x:c>
       <x:c r="F41" s="1" t="n">
-        <x:v>233</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="G41" s="1" t="n">
         <x:v>9</x:v>
       </x:c>
       <x:c r="H41" s="1" t="n">
-        <x:v>428</x:v>
+        <x:v>429</x:v>
       </x:c>
       <x:c r="I41" s="1" t="n">
-        <x:v>5090</x:v>
+        <x:v>5104</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9">
@@ -1732,7 +1732,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D43" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E43" s="1" t="n">
         <x:v>5</x:v>
@@ -1747,7 +1747,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="I43" s="1" t="n">
-        <x:v>55</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:9">
@@ -1761,7 +1761,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="D44" s="1" t="n">
-        <x:v>80</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="E44" s="1" t="n">
         <x:v>10</x:v>
@@ -1776,7 +1776,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="I44" s="1" t="n">
-        <x:v>231</x:v>
+        <x:v>237</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:9">
@@ -1935,7 +1935,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D50" s="1" t="n">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="E50" s="1" t="n">
         <x:v>2</x:v>
@@ -1950,7 +1950,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="I50" s="1" t="n">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:9">
@@ -1993,7 +1993,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="D52" s="1" t="n">
-        <x:v>148</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="E52" s="1" t="n">
         <x:v>3</x:v>
@@ -2008,7 +2008,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="I52" s="1" t="n">
-        <x:v>195</x:v>
+        <x:v>196</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:9">
@@ -2019,10 +2019,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C53" s="1" t="n">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="D53" s="1" t="n">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E53" s="1" t="n">
         <x:v>8</x:v>
@@ -2037,7 +2037,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="I53" s="1" t="n">
-        <x:v>255</x:v>
+        <x:v>257</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:9">
@@ -2077,10 +2077,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C55" s="1" t="n">
-        <x:v>149</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="D55" s="1" t="n">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E55" s="1" t="n">
         <x:v>9</x:v>
@@ -2095,7 +2095,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="I55" s="1" t="n">
-        <x:v>300</x:v>
+        <x:v>302</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -714,10 +714,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>2417</x:v>
+        <x:v>2422</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>1365</x:v>
+        <x:v>1367</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>101</x:v>
@@ -729,10 +729,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>462</x:v>
+        <x:v>461</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>4566</x:v>
+        <x:v>4572</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -743,7 +743,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>311</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
         <x:v>265</x:v>
@@ -758,7 +758,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
-        <x:v>93</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
         <x:v>723</x:v>
@@ -772,10 +772,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>2728</x:v>
+        <x:v>2734</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>1630</x:v>
+        <x:v>1632</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>107</x:v>
@@ -787,10 +787,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>555</x:v>
+        <x:v>553</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>5289</x:v>
+        <x:v>5295</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -801,7 +801,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>246</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
         <x:v>202</x:v>
@@ -819,7 +819,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>520</x:v>
+        <x:v>521</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -859,7 +859,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>267</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>213</x:v>
@@ -877,7 +877,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>571</x:v>
+        <x:v>572</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -888,7 +888,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
         <x:v>54</x:v>
@@ -906,7 +906,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="I14" s="1" t="n">
-        <x:v>173</x:v>
+        <x:v>174</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
@@ -946,7 +946,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
         <x:v>56</x:v>
@@ -964,7 +964,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>175</x:v>
+        <x:v>176</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -1062,10 +1062,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>1357</x:v>
+        <x:v>1356</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>686</x:v>
+        <x:v>687</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
         <x:v>50</x:v>
@@ -1120,10 +1120,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>1414</x:v>
+        <x:v>1413</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>697</x:v>
+        <x:v>698</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>56</x:v>
@@ -1149,7 +1149,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C23" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
         <x:v>2</x:v>
@@ -1167,7 +1167,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1207,7 +1207,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C25" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
         <x:v>6</x:v>
@@ -1225,7 +1225,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="I25" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
@@ -1251,10 +1251,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H26" s="1" t="n">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I26" s="1" t="n">
-        <x:v>675</x:v>
+        <x:v>676</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:9">
@@ -1309,10 +1309,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H28" s="1" t="n">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="I28" s="1" t="n">
-        <x:v>699</x:v>
+        <x:v>700</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:9">
@@ -1613,10 +1613,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C39" s="1" t="n">
-        <x:v>2423</x:v>
+        <x:v>2432</x:v>
       </x:c>
       <x:c r="D39" s="1" t="n">
-        <x:v>1539</x:v>
+        <x:v>1541</x:v>
       </x:c>
       <x:c r="E39" s="1" t="n">
         <x:v>99</x:v>
@@ -1631,7 +1631,7 @@
         <x:v>397</x:v>
       </x:c>
       <x:c r="I39" s="1" t="n">
-        <x:v>4685</x:v>
+        <x:v>4696</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:9">
@@ -1671,10 +1671,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C41" s="1" t="n">
-        <x:v>2629</x:v>
+        <x:v>2638</x:v>
       </x:c>
       <x:c r="D41" s="1" t="n">
-        <x:v>1690</x:v>
+        <x:v>1692</x:v>
       </x:c>
       <x:c r="E41" s="1" t="n">
         <x:v>113</x:v>
@@ -1689,7 +1689,7 @@
         <x:v>429</x:v>
       </x:c>
       <x:c r="I41" s="1" t="n">
-        <x:v>5104</x:v>
+        <x:v>5115</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9">
@@ -1700,7 +1700,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C42" s="1" t="n">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="D42" s="1" t="n">
         <x:v>46</x:v>
@@ -1718,7 +1718,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="I42" s="1" t="n">
-        <x:v>176</x:v>
+        <x:v>177</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:9">
@@ -1758,7 +1758,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C44" s="1" t="n">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="D44" s="1" t="n">
         <x:v>86</x:v>
@@ -1776,7 +1776,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="I44" s="1" t="n">
-        <x:v>237</x:v>
+        <x:v>238</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:9">
@@ -1790,7 +1790,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E45" s="1" t="n">
         <x:v>1</x:v>
@@ -1805,7 +1805,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1848,7 +1848,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E47" s="1" t="n">
         <x:v>1</x:v>
@@ -1863,7 +1863,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -2019,10 +2019,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C53" s="1" t="n">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="D53" s="1" t="n">
-        <x:v>64</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E53" s="1" t="n">
         <x:v>8</x:v>
@@ -2077,10 +2077,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C55" s="1" t="n">
-        <x:v>150</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="D55" s="1" t="n">
-        <x:v>72</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E55" s="1" t="n">
         <x:v>9</x:v>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -714,13 +714,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>2422</x:v>
+        <x:v>2426</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>1367</x:v>
+        <x:v>1370</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
         <x:v>211</x:v>
@@ -729,10 +729,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>461</x:v>
+        <x:v>462</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>4572</x:v>
+        <x:v>4581</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -743,7 +743,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>312</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
         <x:v>265</x:v>
@@ -752,7 +752,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
         <x:v>1</x:v>
@@ -761,7 +761,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>723</x:v>
+        <x:v>725</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -772,25 +772,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>2734</x:v>
+        <x:v>2739</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>1632</x:v>
+        <x:v>1635</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>258</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>11</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>553</x:v>
+        <x:v>554</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>5295</x:v>
+        <x:v>5306</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -888,7 +888,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>94</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
         <x:v>54</x:v>
@@ -906,7 +906,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="I14" s="1" t="n">
-        <x:v>174</x:v>
+        <x:v>176</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
@@ -946,7 +946,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>94</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
         <x:v>56</x:v>
@@ -964,7 +964,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>176</x:v>
+        <x:v>178</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -975,7 +975,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1" t="n">
-        <x:v>248</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
         <x:v>140</x:v>
@@ -993,7 +993,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>477</x:v>
+        <x:v>479</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -1033,7 +1033,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>289</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
         <x:v>176</x:v>
@@ -1051,7 +1051,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>572</x:v>
+        <x:v>574</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1062,10 +1062,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>1356</x:v>
+        <x:v>1359</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>687</x:v>
+        <x:v>688</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
         <x:v>50</x:v>
@@ -1080,7 +1080,7 @@
         <x:v>307</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>2582</x:v>
+        <x:v>2586</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1120,10 +1120,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>1413</x:v>
+        <x:v>1416</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>698</x:v>
+        <x:v>699</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>56</x:v>
@@ -1138,7 +1138,7 @@
         <x:v>320</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>2669</x:v>
+        <x:v>2673</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1236,7 +1236,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C26" s="1" t="n">
-        <x:v>308</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="D26" s="1" t="n">
         <x:v>223</x:v>
@@ -1254,7 +1254,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I26" s="1" t="n">
-        <x:v>676</x:v>
+        <x:v>677</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:9">
@@ -1294,7 +1294,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C28" s="1" t="n">
-        <x:v>314</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
         <x:v>235</x:v>
@@ -1312,7 +1312,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="I28" s="1" t="n">
-        <x:v>700</x:v>
+        <x:v>701</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:9">
@@ -1558,7 +1558,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D37" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E37" s="1" t="n">
         <x:v>2</x:v>
@@ -1573,7 +1573,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="I37" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:9">
@@ -1587,7 +1587,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D38" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E38" s="1" t="n">
         <x:v>2</x:v>
@@ -1602,7 +1602,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="I38" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:9">
@@ -1613,10 +1613,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C39" s="1" t="n">
-        <x:v>2432</x:v>
+        <x:v>2438</x:v>
       </x:c>
       <x:c r="D39" s="1" t="n">
-        <x:v>1541</x:v>
+        <x:v>1547</x:v>
       </x:c>
       <x:c r="E39" s="1" t="n">
         <x:v>99</x:v>
@@ -1628,10 +1628,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="H39" s="1" t="n">
-        <x:v>397</x:v>
+        <x:v>417</x:v>
       </x:c>
       <x:c r="I39" s="1" t="n">
-        <x:v>4696</x:v>
+        <x:v>4728</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:9">
@@ -1642,10 +1642,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C40" s="1" t="n">
-        <x:v>206</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="D40" s="1" t="n">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="E40" s="1" t="n">
         <x:v>14</x:v>
@@ -1657,10 +1657,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H40" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="I40" s="1" t="n">
-        <x:v>419</x:v>
+        <x:v>424</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:9">
@@ -1671,10 +1671,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C41" s="1" t="n">
-        <x:v>2638</x:v>
+        <x:v>2646</x:v>
       </x:c>
       <x:c r="D41" s="1" t="n">
-        <x:v>1692</x:v>
+        <x:v>1699</x:v>
       </x:c>
       <x:c r="E41" s="1" t="n">
         <x:v>113</x:v>
@@ -1686,10 +1686,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="H41" s="1" t="n">
-        <x:v>429</x:v>
+        <x:v>451</x:v>
       </x:c>
       <x:c r="I41" s="1" t="n">
-        <x:v>5115</x:v>
+        <x:v>5152</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9">
@@ -1732,7 +1732,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D43" s="1" t="n">
-        <x:v>40</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E43" s="1" t="n">
         <x:v>5</x:v>
@@ -1747,7 +1747,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="I43" s="1" t="n">
-        <x:v>61</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:9">
@@ -1761,7 +1761,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="D44" s="1" t="n">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E44" s="1" t="n">
         <x:v>10</x:v>
@@ -1776,7 +1776,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="I44" s="1" t="n">
-        <x:v>238</x:v>
+        <x:v>241</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:9">
@@ -1935,7 +1935,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D50" s="1" t="n">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E50" s="1" t="n">
         <x:v>2</x:v>
@@ -1950,7 +1950,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="I50" s="1" t="n">
-        <x:v>133</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:9">
@@ -1993,7 +1993,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="D52" s="1" t="n">
-        <x:v>149</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="E52" s="1" t="n">
         <x:v>3</x:v>
@@ -2008,7 +2008,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="I52" s="1" t="n">
-        <x:v>196</x:v>
+        <x:v>197</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:9">
@@ -2019,7 +2019,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C53" s="1" t="n">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="D53" s="1" t="n">
         <x:v>63</x:v>
@@ -2037,7 +2037,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="I53" s="1" t="n">
-        <x:v>257</x:v>
+        <x:v>258</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:9">
@@ -2051,7 +2051,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="D54" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E54" s="1" t="n">
         <x:v>1</x:v>
@@ -2063,10 +2063,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H54" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="I54" s="1" t="n">
-        <x:v>45</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:9">
@@ -2077,10 +2077,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C55" s="1" t="n">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="D55" s="1" t="n">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E55" s="1" t="n">
         <x:v>9</x:v>
@@ -2092,10 +2092,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H55" s="1" t="n">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="I55" s="1" t="n">
-        <x:v>302</x:v>
+        <x:v>305</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:9">
@@ -2115,7 +2115,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="F56" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G56" s="1" t="n">
         <x:v>1</x:v>
@@ -2124,7 +2124,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="I56" s="1" t="n">
-        <x:v>369</x:v>
+        <x:v>370</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:9">
@@ -2173,7 +2173,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="F58" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G58" s="1" t="n">
         <x:v>1</x:v>
@@ -2182,7 +2182,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="I58" s="1" t="n">
-        <x:v>447</x:v>
+        <x:v>448</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -714,25 +714,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>2426</x:v>
+        <x:v>2433</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>1370</x:v>
+        <x:v>1373</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>102</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>211</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
         <x:v>10</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>462</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>4581</x:v>
+        <x:v>4594</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -749,7 +749,7 @@
         <x:v>265</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
         <x:v>48</x:v>
@@ -761,7 +761,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>725</x:v>
+        <x:v>726</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -772,25 +772,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>2739</x:v>
+        <x:v>2746</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>1635</x:v>
+        <x:v>1638</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>259</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>11</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>554</x:v>
+        <x:v>556</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>5306</x:v>
+        <x:v>5320</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -801,10 +801,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>247</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>202</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
         <x:v>12</x:v>
@@ -819,7 +819,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>521</x:v>
+        <x:v>525</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -859,10 +859,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>268</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>213</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>13</x:v>
@@ -877,7 +877,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>572</x:v>
+        <x:v>576</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -975,7 +975,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1" t="n">
-        <x:v>250</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
         <x:v>140</x:v>
@@ -993,7 +993,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>479</x:v>
+        <x:v>481</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -1033,7 +1033,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>291</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
         <x:v>176</x:v>
@@ -1051,7 +1051,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>574</x:v>
+        <x:v>576</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1062,7 +1062,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>1359</x:v>
+        <x:v>1360</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
         <x:v>688</x:v>
@@ -1071,16 +1071,16 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="F20" s="1" t="n">
-        <x:v>179</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="G20" s="1" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="H20" s="1" t="n">
-        <x:v>307</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>2586</x:v>
+        <x:v>2589</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1120,7 +1120,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>1416</x:v>
+        <x:v>1417</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
         <x:v>699</x:v>
@@ -1129,16 +1129,16 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
-        <x:v>179</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
-        <x:v>320</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>2673</x:v>
+        <x:v>2676</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1236,10 +1236,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C26" s="1" t="n">
-        <x:v>309</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="D26" s="1" t="n">
-        <x:v>223</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="E26" s="1" t="n">
         <x:v>17</x:v>
@@ -1254,7 +1254,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I26" s="1" t="n">
-        <x:v>677</x:v>
+        <x:v>681</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:9">
@@ -1294,10 +1294,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C28" s="1" t="n">
-        <x:v>315</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
-        <x:v>235</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
         <x:v>17</x:v>
@@ -1312,7 +1312,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="I28" s="1" t="n">
-        <x:v>701</x:v>
+        <x:v>705</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:9">
@@ -1413,7 +1413,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D32" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
         <x:v>2</x:v>
@@ -1428,7 +1428,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="I32" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:9">
@@ -1471,7 +1471,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D34" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E34" s="1" t="n">
         <x:v>2</x:v>
@@ -1486,7 +1486,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="I34" s="1" t="n">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:9">
@@ -1613,16 +1613,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C39" s="1" t="n">
-        <x:v>2438</x:v>
+        <x:v>2446</x:v>
       </x:c>
       <x:c r="D39" s="1" t="n">
-        <x:v>1547</x:v>
+        <x:v>1558</x:v>
       </x:c>
       <x:c r="E39" s="1" t="n">
         <x:v>99</x:v>
       </x:c>
       <x:c r="F39" s="1" t="n">
-        <x:v>218</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="G39" s="1" t="n">
         <x:v>9</x:v>
@@ -1631,7 +1631,7 @@
         <x:v>417</x:v>
       </x:c>
       <x:c r="I39" s="1" t="n">
-        <x:v>4728</x:v>
+        <x:v>4746</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:9">
@@ -1671,16 +1671,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C41" s="1" t="n">
-        <x:v>2646</x:v>
+        <x:v>2654</x:v>
       </x:c>
       <x:c r="D41" s="1" t="n">
-        <x:v>1699</x:v>
+        <x:v>1710</x:v>
       </x:c>
       <x:c r="E41" s="1" t="n">
         <x:v>113</x:v>
       </x:c>
       <x:c r="F41" s="1" t="n">
-        <x:v>234</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="G41" s="1" t="n">
         <x:v>9</x:v>
@@ -1689,7 +1689,7 @@
         <x:v>451</x:v>
       </x:c>
       <x:c r="I41" s="1" t="n">
-        <x:v>5152</x:v>
+        <x:v>5170</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9">
@@ -1932,16 +1932,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C50" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D50" s="1" t="n">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E50" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="F50" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G50" s="1" t="n">
         <x:v>0</x:v>
@@ -1950,7 +1950,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="I50" s="1" t="n">
-        <x:v>134</x:v>
+        <x:v>138</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:9">
@@ -1990,16 +1990,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C52" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D52" s="1" t="n">
-        <x:v>150</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="E52" s="1" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="F52" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G52" s="1" t="n">
         <x:v>0</x:v>
@@ -2008,7 +2008,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="I52" s="1" t="n">
-        <x:v>197</x:v>
+        <x:v>201</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:9">
@@ -2106,7 +2106,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C56" s="1" t="n">
-        <x:v>147</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="D56" s="1" t="n">
         <x:v>156</x:v>
@@ -2124,7 +2124,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="I56" s="1" t="n">
-        <x:v>370</x:v>
+        <x:v>371</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:9">
@@ -2164,7 +2164,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C58" s="1" t="n">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="D58" s="1" t="n">
         <x:v>213</x:v>
@@ -2182,7 +2182,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="I58" s="1" t="n">
-        <x:v>448</x:v>
+        <x:v>449</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">
@@ -2193,7 +2193,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C59" s="1" t="n">
-        <x:v>200</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="D59" s="1" t="n">
         <x:v>300</x:v>
@@ -2202,7 +2202,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="F59" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G59" s="1" t="n">
         <x:v>1</x:v>
@@ -2211,7 +2211,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="I59" s="1" t="n">
-        <x:v>608</x:v>
+        <x:v>610</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9">
@@ -2251,7 +2251,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C61" s="1" t="n">
-        <x:v>223</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="D61" s="1" t="n">
         <x:v>353</x:v>
@@ -2260,7 +2260,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="F61" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G61" s="1" t="n">
         <x:v>1</x:v>
@@ -2269,7 +2269,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="I61" s="1" t="n">
-        <x:v>700</x:v>
+        <x:v>702</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -714,10 +714,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>2433</x:v>
+        <x:v>2449</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>1373</x:v>
+        <x:v>1378</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>102</x:v>
@@ -729,10 +729,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>464</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>4594</x:v>
+        <x:v>4619</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -743,13 +743,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>313</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
         <x:v>265</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
         <x:v>48</x:v>
@@ -758,10 +758,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>726</x:v>
+        <x:v>729</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -772,13 +772,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>2746</x:v>
+        <x:v>2763</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>1638</x:v>
+        <x:v>1643</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
         <x:v>260</x:v>
@@ -787,10 +787,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>556</x:v>
+        <x:v>561</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>5320</x:v>
+        <x:v>5348</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -801,7 +801,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>250</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
         <x:v>203</x:v>
@@ -810,7 +810,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G11" s="1" t="n">
         <x:v>1</x:v>
@@ -819,7 +819,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>525</x:v>
+        <x:v>530</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -859,7 +859,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>271</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>214</x:v>
@@ -868,7 +868,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
         <x:v>1</x:v>
@@ -877,7 +877,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>576</x:v>
+        <x:v>581</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -888,7 +888,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
         <x:v>54</x:v>
@@ -906,7 +906,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="I14" s="1" t="n">
-        <x:v>176</x:v>
+        <x:v>177</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
@@ -946,7 +946,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
         <x:v>56</x:v>
@@ -964,7 +964,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>178</x:v>
+        <x:v>179</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -975,10 +975,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1" t="n">
-        <x:v>252</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
-        <x:v>140</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
         <x:v>18</x:v>
@@ -993,7 +993,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>481</x:v>
+        <x:v>483</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -1004,7 +1004,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C18" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
         <x:v>36</x:v>
@@ -1022,7 +1022,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="I18" s="1" t="n">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
@@ -1033,10 +1033,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>293</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
-        <x:v>176</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
         <x:v>19</x:v>
@@ -1051,7 +1051,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>576</x:v>
+        <x:v>579</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1062,10 +1062,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>1360</x:v>
+        <x:v>1373</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>688</x:v>
+        <x:v>690</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
         <x:v>50</x:v>
@@ -1077,10 +1077,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="H20" s="1" t="n">
-        <x:v>308</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>2589</x:v>
+        <x:v>2605</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1120,10 +1120,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>1417</x:v>
+        <x:v>1430</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>699</x:v>
+        <x:v>701</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>56</x:v>
@@ -1135,10 +1135,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
-        <x:v>321</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>2676</x:v>
+        <x:v>2692</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1236,7 +1236,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C26" s="1" t="n">
-        <x:v>312</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="D26" s="1" t="n">
         <x:v>224</x:v>
@@ -1254,7 +1254,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I26" s="1" t="n">
-        <x:v>681</x:v>
+        <x:v>685</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:9">
@@ -1294,7 +1294,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C28" s="1" t="n">
-        <x:v>318</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
         <x:v>236</x:v>
@@ -1312,7 +1312,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="I28" s="1" t="n">
-        <x:v>705</x:v>
+        <x:v>709</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:9">
@@ -1613,25 +1613,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C39" s="1" t="n">
-        <x:v>2446</x:v>
+        <x:v>2454</x:v>
       </x:c>
       <x:c r="D39" s="1" t="n">
-        <x:v>1558</x:v>
+        <x:v>1562</x:v>
       </x:c>
       <x:c r="E39" s="1" t="n">
         <x:v>99</x:v>
       </x:c>
       <x:c r="F39" s="1" t="n">
-        <x:v>217</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="G39" s="1" t="n">
         <x:v>9</x:v>
       </x:c>
       <x:c r="H39" s="1" t="n">
-        <x:v>417</x:v>
+        <x:v>422</x:v>
       </x:c>
       <x:c r="I39" s="1" t="n">
-        <x:v>4746</x:v>
+        <x:v>4765</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:9">
@@ -1657,10 +1657,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H40" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="I40" s="1" t="n">
-        <x:v>424</x:v>
+        <x:v>425</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:9">
@@ -1671,25 +1671,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C41" s="1" t="n">
-        <x:v>2654</x:v>
+        <x:v>2662</x:v>
       </x:c>
       <x:c r="D41" s="1" t="n">
-        <x:v>1710</x:v>
+        <x:v>1714</x:v>
       </x:c>
       <x:c r="E41" s="1" t="n">
         <x:v>113</x:v>
       </x:c>
       <x:c r="F41" s="1" t="n">
-        <x:v>233</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="G41" s="1" t="n">
         <x:v>9</x:v>
       </x:c>
       <x:c r="H41" s="1" t="n">
-        <x:v>451</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="I41" s="1" t="n">
-        <x:v>5170</x:v>
+        <x:v>5190</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9">
@@ -1787,7 +1787,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
         <x:v>5</x:v>
@@ -1805,7 +1805,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>50</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1816,7 +1816,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C46" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D46" s="1" t="n">
         <x:v>1</x:v>
@@ -1834,7 +1834,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="I46" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
@@ -1845,7 +1845,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
         <x:v>6</x:v>
@@ -1863,7 +1863,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>64</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -1935,7 +1935,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="D50" s="1" t="n">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="E50" s="1" t="n">
         <x:v>2</x:v>
@@ -1950,7 +1950,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="I50" s="1" t="n">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:9">
@@ -1993,7 +1993,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="D52" s="1" t="n">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="E52" s="1" t="n">
         <x:v>3</x:v>
@@ -2008,7 +2008,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="I52" s="1" t="n">
-        <x:v>201</x:v>
+        <x:v>202</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:9">
@@ -2019,7 +2019,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C53" s="1" t="n">
-        <x:v>129</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="D53" s="1" t="n">
         <x:v>63</x:v>
@@ -2037,7 +2037,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="I53" s="1" t="n">
-        <x:v>258</x:v>
+        <x:v>261</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:9">
@@ -2048,7 +2048,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C54" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D54" s="1" t="n">
         <x:v>9</x:v>
@@ -2066,7 +2066,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="I54" s="1" t="n">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:9">
@@ -2077,7 +2077,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C55" s="1" t="n">
-        <x:v>152</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="D55" s="1" t="n">
         <x:v>72</x:v>
@@ -2095,7 +2095,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="I55" s="1" t="n">
-        <x:v>305</x:v>
+        <x:v>309</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:9">
@@ -2106,7 +2106,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C56" s="1" t="n">
-        <x:v>148</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="D56" s="1" t="n">
         <x:v>156</x:v>
@@ -2124,7 +2124,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="I56" s="1" t="n">
-        <x:v>371</x:v>
+        <x:v>372</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:9">
@@ -2164,7 +2164,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C58" s="1" t="n">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="D58" s="1" t="n">
         <x:v>213</x:v>
@@ -2182,7 +2182,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="I58" s="1" t="n">
-        <x:v>449</x:v>
+        <x:v>450</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -540,10 +540,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>0</x:v>
@@ -552,13 +552,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -569,7 +569,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
         <x:v>1</x:v>
@@ -587,7 +587,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I3" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
@@ -598,25 +598,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E4" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F4" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G4" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H4" s="1" t="n">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="E4" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F4" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G4" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H4" s="1" t="n">
-        <x:v>6</x:v>
-      </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -627,10 +627,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E5" s="1" t="n">
         <x:v>3</x:v>
@@ -642,10 +642,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H5" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I5" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:9">
@@ -685,10 +685,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
         <x:v>3</x:v>
@@ -700,10 +700,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I7" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9">
@@ -714,25 +714,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>2449</x:v>
+        <x:v>3058</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>1378</x:v>
+        <x:v>1768</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>102</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>212</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>468</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>4619</x:v>
+        <x:v>5837</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -743,25 +743,25 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>314</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>265</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>48</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
-        <x:v>93</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>729</x:v>
+        <x:v>947</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -772,25 +772,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>2763</x:v>
+        <x:v>3456</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>1643</x:v>
+        <x:v>2118</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>110</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>260</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>561</x:v>
+        <x:v>720</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>5348</x:v>
+        <x:v>6784</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -801,25 +801,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>254</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>203</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G11" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H11" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>530</x:v>
+        <x:v>638</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -830,16 +830,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C12" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="F12" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G12" s="1" t="n">
         <x:v>0</x:v>
@@ -848,7 +848,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="I12" s="1" t="n">
-        <x:v>51</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9">
@@ -859,25 +859,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>275</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>214</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>581</x:v>
+        <x:v>710</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -888,25 +888,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>97</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
-        <x:v>54</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H14" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I14" s="1" t="n">
-        <x:v>177</x:v>
+        <x:v>224</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
@@ -920,7 +920,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
         <x:v>0</x:v>
@@ -935,7 +935,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -946,25 +946,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>97</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>56</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
         <x:v>7</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H16" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>179</x:v>
+        <x:v>227</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -975,25 +975,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1" t="n">
-        <x:v>253</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
-        <x:v>141</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="G17" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H17" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>483</x:v>
+        <x:v>612</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -1004,25 +1004,25 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C18" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E18" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F18" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G18" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H18" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I18" s="1" t="n">
-        <x:v>96</x:v>
+        <x:v>135</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
@@ -1033,25 +1033,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>295</x:v>
+        <x:v>381</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
-        <x:v>177</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="G19" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H19" s="1" t="n">
-        <x:v>53</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>579</x:v>
+        <x:v>747</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1062,25 +1062,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>1373</x:v>
+        <x:v>1674</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>690</x:v>
+        <x:v>839</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
-        <x:v>50</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F20" s="1" t="n">
-        <x:v>180</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="G20" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H20" s="1" t="n">
-        <x:v>309</x:v>
+        <x:v>379</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>2605</x:v>
+        <x:v>3180</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1091,7 +1091,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>57</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
         <x:v>11</x:v>
@@ -1100,16 +1100,16 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="F21" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G21" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H21" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>87</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1120,25 +1120,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>1430</x:v>
+        <x:v>1737</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>701</x:v>
+        <x:v>850</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
-        <x:v>56</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
-        <x:v>180</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
-        <x:v>322</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>2692</x:v>
+        <x:v>3278</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1149,10 +1149,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C23" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
         <x:v>0</x:v>
@@ -1164,10 +1164,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H23" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1207,10 +1207,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C25" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E25" s="1" t="n">
         <x:v>0</x:v>
@@ -1222,10 +1222,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H25" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="I25" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
@@ -1236,25 +1236,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C26" s="1" t="n">
-        <x:v>316</x:v>
+        <x:v>405</x:v>
       </x:c>
       <x:c r="D26" s="1" t="n">
-        <x:v>224</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="E26" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F26" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G26" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H26" s="1" t="n">
-        <x:v>89</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="I26" s="1" t="n">
-        <x:v>685</x:v>
+        <x:v>869</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:9">
@@ -1265,16 +1265,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C27" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D27" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E27" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F27" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G27" s="1" t="n">
         <x:v>0</x:v>
@@ -1283,7 +1283,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="I27" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:9">
@@ -1294,25 +1294,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C28" s="1" t="n">
-        <x:v>322</x:v>
+        <x:v>413</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
-        <x:v>236</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F28" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G28" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H28" s="1" t="n">
-        <x:v>93</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="I28" s="1" t="n">
-        <x:v>709</x:v>
+        <x:v>898</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:9">
@@ -1410,10 +1410,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C32" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D32" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
         <x:v>2</x:v>
@@ -1425,10 +1425,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H32" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I32" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:9">
@@ -1468,10 +1468,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C34" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D34" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E34" s="1" t="n">
         <x:v>2</x:v>
@@ -1483,10 +1483,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H34" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I34" s="1" t="n">
-        <x:v>44</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:9">
@@ -1506,7 +1506,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F35" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G35" s="1" t="n">
         <x:v>0</x:v>
@@ -1515,7 +1515,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I35" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:9">
@@ -1535,7 +1535,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F36" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G36" s="1" t="n">
         <x:v>0</x:v>
@@ -1544,7 +1544,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I36" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:9">
@@ -1555,25 +1555,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C37" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D37" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E37" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F37" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G37" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H37" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I37" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:9">
@@ -1584,25 +1584,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C38" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D38" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E38" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F38" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G38" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H38" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I38" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:9">
@@ -1613,25 +1613,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C39" s="1" t="n">
-        <x:v>2454</x:v>
+        <x:v>2942</x:v>
       </x:c>
       <x:c r="D39" s="1" t="n">
-        <x:v>1562</x:v>
+        <x:v>1921</x:v>
       </x:c>
       <x:c r="E39" s="1" t="n">
-        <x:v>99</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F39" s="1" t="n">
-        <x:v>219</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="G39" s="1" t="n">
         <x:v>9</x:v>
       </x:c>
       <x:c r="H39" s="1" t="n">
-        <x:v>422</x:v>
+        <x:v>530</x:v>
       </x:c>
       <x:c r="I39" s="1" t="n">
-        <x:v>4765</x:v>
+        <x:v>5793</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:9">
@@ -1642,25 +1642,25 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C40" s="1" t="n">
-        <x:v>208</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="D40" s="1" t="n">
-        <x:v>152</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="E40" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F40" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G40" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H40" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="I40" s="1" t="n">
-        <x:v>425</x:v>
+        <x:v>561</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:9">
@@ -1671,25 +1671,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C41" s="1" t="n">
-        <x:v>2662</x:v>
+        <x:v>3224</x:v>
       </x:c>
       <x:c r="D41" s="1" t="n">
-        <x:v>1714</x:v>
+        <x:v>2122</x:v>
       </x:c>
       <x:c r="E41" s="1" t="n">
-        <x:v>113</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="F41" s="1" t="n">
-        <x:v>235</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="G41" s="1" t="n">
         <x:v>9</x:v>
       </x:c>
       <x:c r="H41" s="1" t="n">
-        <x:v>457</x:v>
+        <x:v>573</x:v>
       </x:c>
       <x:c r="I41" s="1" t="n">
-        <x:v>5190</x:v>
+        <x:v>6354</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9">
@@ -1700,25 +1700,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C42" s="1" t="n">
-        <x:v>93</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D42" s="1" t="n">
-        <x:v>46</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E42" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F42" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G42" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H42" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="I42" s="1" t="n">
-        <x:v>177</x:v>
+        <x:v>216</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:9">
@@ -1729,25 +1729,25 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C43" s="1" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D43" s="1" t="n">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="E43" s="1" t="n">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="D43" s="1" t="n">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="E43" s="1" t="n">
+      <x:c r="F43" s="1" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="G43" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H43" s="1" t="n">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="F43" s="1" t="n">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="G43" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H43" s="1" t="n">
-        <x:v>3</x:v>
-      </x:c>
       <x:c r="I43" s="1" t="n">
-        <x:v>64</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:9">
@@ -1758,25 +1758,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C44" s="1" t="n">
-        <x:v>99</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="D44" s="1" t="n">
-        <x:v>89</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="E44" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F44" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="G44" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H44" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="I44" s="1" t="n">
-        <x:v>241</x:v>
+        <x:v>296</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:9">
@@ -1787,25 +1787,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E45" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="F45" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G45" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H45" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>52</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1819,7 +1819,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D46" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E46" s="1" t="n">
         <x:v>0</x:v>
@@ -1834,7 +1834,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="I46" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
@@ -1845,25 +1845,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>48</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E47" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="F47" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G47" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H47" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>67</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -1932,25 +1932,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C50" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D50" s="1" t="n">
-        <x:v>103</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="E50" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="F50" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G50" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H50" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I50" s="1" t="n">
-        <x:v>139</x:v>
+        <x:v>192</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:9">
@@ -1961,25 +1961,25 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C51" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D51" s="1" t="n">
-        <x:v>49</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E51" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F51" s="1" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G51" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H51" s="1" t="n">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="G51" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H51" s="1" t="n">
-        <x:v>4</x:v>
-      </x:c>
       <x:c r="I51" s="1" t="n">
-        <x:v>63</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:9">
@@ -1990,25 +1990,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C52" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D52" s="1" t="n">
-        <x:v>152</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="E52" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F52" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G52" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H52" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="I52" s="1" t="n">
-        <x:v>202</x:v>
+        <x:v>275</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:9">
@@ -2019,25 +2019,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C53" s="1" t="n">
-        <x:v>132</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="D53" s="1" t="n">
-        <x:v>63</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E53" s="1" t="n">
         <x:v>8</x:v>
       </x:c>
       <x:c r="F53" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G53" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H53" s="1" t="n">
-        <x:v>49</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="I53" s="1" t="n">
-        <x:v>261</x:v>
+        <x:v>323</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:9">
@@ -2048,10 +2048,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C54" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D54" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E54" s="1" t="n">
         <x:v>1</x:v>
@@ -2063,10 +2063,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H54" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I54" s="1" t="n">
-        <x:v>48</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:9">
@@ -2077,25 +2077,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C55" s="1" t="n">
-        <x:v>156</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="D55" s="1" t="n">
-        <x:v>72</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E55" s="1" t="n">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F55" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G55" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H55" s="1" t="n">
-        <x:v>63</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="I55" s="1" t="n">
-        <x:v>309</x:v>
+        <x:v>385</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:9">
@@ -2106,25 +2106,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C56" s="1" t="n">
-        <x:v>149</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="D56" s="1" t="n">
-        <x:v>156</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="E56" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F56" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G56" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H56" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="I56" s="1" t="n">
-        <x:v>372</x:v>
+        <x:v>460</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:9">
@@ -2135,10 +2135,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C57" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D57" s="1" t="n">
-        <x:v>57</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="E57" s="1" t="n">
         <x:v>3</x:v>
@@ -2150,10 +2150,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H57" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I57" s="1" t="n">
-        <x:v>78</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:9">
@@ -2164,25 +2164,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C58" s="1" t="n">
-        <x:v>156</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="D58" s="1" t="n">
-        <x:v>213</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="E58" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F58" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G58" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H58" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="I58" s="1" t="n">
-        <x:v>450</x:v>
+        <x:v>558</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">
@@ -2193,25 +2193,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C59" s="1" t="n">
-        <x:v>201</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="D59" s="1" t="n">
-        <x:v>300</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="E59" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F59" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G59" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H59" s="1" t="n">
-        <x:v>60</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="I59" s="1" t="n">
-        <x:v>610</x:v>
+        <x:v>748</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9">
@@ -2222,13 +2222,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C60" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D60" s="1" t="n">
-        <x:v>53</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E60" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F60" s="1" t="n">
         <x:v>2</x:v>
@@ -2237,10 +2237,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H60" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="I60" s="1" t="n">
-        <x:v>92</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">
@@ -2251,25 +2251,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C61" s="1" t="n">
-        <x:v>224</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="D61" s="1" t="n">
-        <x:v>353</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="E61" s="1" t="n">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="F61" s="1" t="n">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="F61" s="1" t="n">
-        <x:v>25</x:v>
-      </x:c>
       <x:c r="G61" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H61" s="1" t="n">
-        <x:v>70</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="I61" s="1" t="n">
-        <x:v>702</x:v>
+        <x:v>868</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -714,25 +714,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>3058</x:v>
+        <x:v>3070</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>1768</x:v>
+        <x:v>1777</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>135</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>265</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
         <x:v>11</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>600</x:v>
+        <x:v>602</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>5837</x:v>
+        <x:v>5863</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -743,10 +743,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>398</x:v>
+        <x:v>401</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>350</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
         <x:v>14</x:v>
@@ -761,7 +761,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>947</x:v>
+        <x:v>954</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -772,25 +772,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>3456</x:v>
+        <x:v>3471</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>2118</x:v>
+        <x:v>2131</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>149</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>327</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>720</x:v>
+        <x:v>722</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>6784</x:v>
+        <x:v>6817</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -801,7 +801,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>309</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
         <x:v>240</x:v>
@@ -819,7 +819,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>638</x:v>
+        <x:v>639</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -830,7 +830,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C12" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
         <x:v>17</x:v>
@@ -848,7 +848,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="I12" s="1" t="n">
-        <x:v>72</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9">
@@ -859,7 +859,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>339</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>257</x:v>
@@ -877,7 +877,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>710</x:v>
+        <x:v>713</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -888,7 +888,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>129</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
         <x:v>61</x:v>
@@ -897,7 +897,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
         <x:v>0</x:v>
@@ -906,7 +906,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="I14" s="1" t="n">
-        <x:v>224</x:v>
+        <x:v>228</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
@@ -946,7 +946,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>129</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
         <x:v>64</x:v>
@@ -955,7 +955,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
         <x:v>0</x:v>
@@ -964,7 +964,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>227</x:v>
+        <x:v>231</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -975,13 +975,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1" t="n">
-        <x:v>320</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
-        <x:v>174</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
         <x:v>38</x:v>
@@ -993,7 +993,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>612</x:v>
+        <x:v>619</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -1004,7 +1004,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C18" s="1" t="n">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
         <x:v>50</x:v>
@@ -1022,7 +1022,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="I18" s="1" t="n">
-        <x:v>135</x:v>
+        <x:v>136</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
@@ -1033,13 +1033,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>381</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
-        <x:v>224</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
         <x:v>45</x:v>
@@ -1051,7 +1051,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>747</x:v>
+        <x:v>755</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1062,25 +1062,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>1674</x:v>
+        <x:v>1681</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>839</x:v>
+        <x:v>841</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F20" s="1" t="n">
-        <x:v>222</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="G20" s="1" t="n">
         <x:v>6</x:v>
       </x:c>
       <x:c r="H20" s="1" t="n">
-        <x:v>379</x:v>
+        <x:v>378</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>3180</x:v>
+        <x:v>3190</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1091,7 +1091,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
         <x:v>11</x:v>
@@ -1109,7 +1109,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1120,25 +1120,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>1737</x:v>
+        <x:v>1745</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>850</x:v>
+        <x:v>852</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
-        <x:v>223</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
         <x:v>6</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
-        <x:v>396</x:v>
+        <x:v>395</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>3278</x:v>
+        <x:v>3289</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1236,10 +1236,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C26" s="1" t="n">
-        <x:v>405</x:v>
+        <x:v>410</x:v>
       </x:c>
       <x:c r="D26" s="1" t="n">
-        <x:v>277</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="E26" s="1" t="n">
         <x:v>23</x:v>
@@ -1254,7 +1254,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="I26" s="1" t="n">
-        <x:v>869</x:v>
+        <x:v>880</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:9">
@@ -1268,7 +1268,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D27" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E27" s="1" t="n">
         <x:v>0</x:v>
@@ -1283,7 +1283,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="I27" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:9">
@@ -1294,10 +1294,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C28" s="1" t="n">
-        <x:v>413</x:v>
+        <x:v>418</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
-        <x:v>291</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
         <x:v>23</x:v>
@@ -1312,7 +1312,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="I28" s="1" t="n">
-        <x:v>898</x:v>
+        <x:v>910</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:9">
@@ -1613,10 +1613,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C39" s="1" t="n">
-        <x:v>2942</x:v>
+        <x:v>2971</x:v>
       </x:c>
       <x:c r="D39" s="1" t="n">
-        <x:v>1921</x:v>
+        <x:v>1942</x:v>
       </x:c>
       <x:c r="E39" s="1" t="n">
         <x:v>129</x:v>
@@ -1628,10 +1628,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="H39" s="1" t="n">
-        <x:v>530</x:v>
+        <x:v>532</x:v>
       </x:c>
       <x:c r="I39" s="1" t="n">
-        <x:v>5793</x:v>
+        <x:v>5845</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:9">
@@ -1642,7 +1642,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C40" s="1" t="n">
-        <x:v>282</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="D40" s="1" t="n">
         <x:v>201</x:v>
@@ -1660,7 +1660,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="I40" s="1" t="n">
-        <x:v>561</x:v>
+        <x:v>563</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:9">
@@ -1671,10 +1671,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C41" s="1" t="n">
-        <x:v>3224</x:v>
+        <x:v>3255</x:v>
       </x:c>
       <x:c r="D41" s="1" t="n">
-        <x:v>2122</x:v>
+        <x:v>2143</x:v>
       </x:c>
       <x:c r="E41" s="1" t="n">
         <x:v>145</x:v>
@@ -1686,10 +1686,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="H41" s="1" t="n">
-        <x:v>573</x:v>
+        <x:v>575</x:v>
       </x:c>
       <x:c r="I41" s="1" t="n">
-        <x:v>6354</x:v>
+        <x:v>6408</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9">
@@ -1700,7 +1700,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C42" s="1" t="n">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D42" s="1" t="n">
         <x:v>63</x:v>
@@ -1709,7 +1709,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="F42" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G42" s="1" t="n">
         <x:v>2</x:v>
@@ -1718,7 +1718,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="I42" s="1" t="n">
-        <x:v>216</x:v>
+        <x:v>218</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:9">
@@ -1758,7 +1758,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C44" s="1" t="n">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="D44" s="1" t="n">
         <x:v>114</x:v>
@@ -1767,7 +1767,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="F44" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G44" s="1" t="n">
         <x:v>2</x:v>
@@ -1776,7 +1776,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="I44" s="1" t="n">
-        <x:v>296</x:v>
+        <x:v>298</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:9">
@@ -1787,7 +1787,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
         <x:v>7</x:v>
@@ -1805,7 +1805,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1845,7 +1845,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
         <x:v>9</x:v>
@@ -1863,7 +1863,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -2048,7 +2048,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C54" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D54" s="1" t="n">
         <x:v>10</x:v>
@@ -2066,7 +2066,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="I54" s="1" t="n">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:9">
@@ -2077,7 +2077,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C55" s="1" t="n">
-        <x:v>202</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="D55" s="1" t="n">
         <x:v>94</x:v>
@@ -2095,7 +2095,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="I55" s="1" t="n">
-        <x:v>385</x:v>
+        <x:v>386</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:9">
@@ -2106,16 +2106,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C56" s="1" t="n">
-        <x:v>185</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="D56" s="1" t="n">
-        <x:v>188</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="E56" s="1" t="n">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F56" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G56" s="1" t="n">
         <x:v>2</x:v>
@@ -2124,7 +2124,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="I56" s="1" t="n">
-        <x:v>460</x:v>
+        <x:v>463</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:9">
@@ -2164,16 +2164,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C58" s="1" t="n">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="D58" s="1" t="n">
-        <x:v>262</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="E58" s="1" t="n">
         <x:v>17</x:v>
       </x:c>
       <x:c r="F58" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="G58" s="1" t="n">
         <x:v>2</x:v>
@@ -2182,7 +2182,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="I58" s="1" t="n">
-        <x:v>558</x:v>
+        <x:v>561</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">
@@ -2199,7 +2199,7 @@
         <x:v>365</x:v>
       </x:c>
       <x:c r="E59" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F59" s="1" t="n">
         <x:v>27</x:v>
@@ -2208,10 +2208,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H59" s="1" t="n">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="I59" s="1" t="n">
-        <x:v>748</x:v>
+        <x:v>750</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9">
@@ -2257,7 +2257,7 @@
         <x:v>433</x:v>
       </x:c>
       <x:c r="E61" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F61" s="1" t="n">
         <x:v>29</x:v>
@@ -2266,10 +2266,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H61" s="1" t="n">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="I61" s="1" t="n">
-        <x:v>868</x:v>
+        <x:v>870</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -671,10 +671,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H6" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I6" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:9">
@@ -700,10 +700,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I7" s="1" t="n">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9">
@@ -714,13 +714,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>3070</x:v>
+        <x:v>3076</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>1777</x:v>
+        <x:v>1778</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>135</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
         <x:v>268</x:v>
@@ -729,10 +729,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>602</x:v>
+        <x:v>604</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>5863</x:v>
+        <x:v>5873</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -743,10 +743,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>401</x:v>
+        <x:v>405</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>354</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
         <x:v>14</x:v>
@@ -758,10 +758,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>954</x:v>
+        <x:v>965</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -772,13 +772,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>3471</x:v>
+        <x:v>3481</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>2131</x:v>
+        <x:v>2138</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>149</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
         <x:v>330</x:v>
@@ -787,10 +787,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>722</x:v>
+        <x:v>725</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>6817</x:v>
+        <x:v>6838</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -1062,13 +1062,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>1681</x:v>
+        <x:v>1685</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>841</x:v>
+        <x:v>843</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F20" s="1" t="n">
         <x:v>223</x:v>
@@ -1077,10 +1077,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="H20" s="1" t="n">
-        <x:v>378</x:v>
+        <x:v>379</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>3190</x:v>
+        <x:v>3198</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1120,13 +1120,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>1745</x:v>
+        <x:v>1749</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>852</x:v>
+        <x:v>854</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
         <x:v>224</x:v>
@@ -1135,10 +1135,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
-        <x:v>395</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>3289</x:v>
+        <x:v>3297</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1236,10 +1236,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C26" s="1" t="n">
-        <x:v>410</x:v>
+        <x:v>411</x:v>
       </x:c>
       <x:c r="D26" s="1" t="n">
-        <x:v>283</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="E26" s="1" t="n">
         <x:v>23</x:v>
@@ -1251,10 +1251,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H26" s="1" t="n">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="I26" s="1" t="n">
-        <x:v>880</x:v>
+        <x:v>883</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:9">
@@ -1294,10 +1294,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C28" s="1" t="n">
-        <x:v>418</x:v>
+        <x:v>419</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
-        <x:v>298</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
         <x:v>23</x:v>
@@ -1309,10 +1309,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H28" s="1" t="n">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="I28" s="1" t="n">
-        <x:v>910</x:v>
+        <x:v>913</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:9">
@@ -1613,10 +1613,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C39" s="1" t="n">
-        <x:v>2971</x:v>
+        <x:v>2976</x:v>
       </x:c>
       <x:c r="D39" s="1" t="n">
-        <x:v>1942</x:v>
+        <x:v>1949</x:v>
       </x:c>
       <x:c r="E39" s="1" t="n">
         <x:v>129</x:v>
@@ -1631,7 +1631,7 @@
         <x:v>532</x:v>
       </x:c>
       <x:c r="I39" s="1" t="n">
-        <x:v>5845</x:v>
+        <x:v>5857</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:9">
@@ -1642,7 +1642,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C40" s="1" t="n">
-        <x:v>284</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="D40" s="1" t="n">
         <x:v>201</x:v>
@@ -1660,7 +1660,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="I40" s="1" t="n">
-        <x:v>563</x:v>
+        <x:v>565</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:9">
@@ -1671,10 +1671,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C41" s="1" t="n">
-        <x:v>3255</x:v>
+        <x:v>3262</x:v>
       </x:c>
       <x:c r="D41" s="1" t="n">
-        <x:v>2143</x:v>
+        <x:v>2150</x:v>
       </x:c>
       <x:c r="E41" s="1" t="n">
         <x:v>145</x:v>
@@ -1689,7 +1689,7 @@
         <x:v>575</x:v>
       </x:c>
       <x:c r="I41" s="1" t="n">
-        <x:v>6408</x:v>
+        <x:v>6422</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9">
@@ -2019,7 +2019,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C53" s="1" t="n">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="D53" s="1" t="n">
         <x:v>84</x:v>
@@ -2037,7 +2037,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="I53" s="1" t="n">
-        <x:v>323</x:v>
+        <x:v>324</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:9">
@@ -2077,7 +2077,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C55" s="1" t="n">
-        <x:v>203</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="D55" s="1" t="n">
         <x:v>94</x:v>
@@ -2095,7 +2095,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="I55" s="1" t="n">
-        <x:v>386</x:v>
+        <x:v>387</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:9">
@@ -2106,7 +2106,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C56" s="1" t="n">
-        <x:v>187</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="D56" s="1" t="n">
         <x:v>187</x:v>
@@ -2124,7 +2124,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="I56" s="1" t="n">
-        <x:v>463</x:v>
+        <x:v>464</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:9">
@@ -2164,7 +2164,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C58" s="1" t="n">
-        <x:v>195</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="D58" s="1" t="n">
         <x:v>261</x:v>
@@ -2182,7 +2182,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="I58" s="1" t="n">
-        <x:v>561</x:v>
+        <x:v>562</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">
@@ -2193,10 +2193,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C59" s="1" t="n">
-        <x:v>259</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="D59" s="1" t="n">
-        <x:v>365</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="E59" s="1" t="n">
         <x:v>30</x:v>
@@ -2208,10 +2208,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H59" s="1" t="n">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="I59" s="1" t="n">
-        <x:v>750</x:v>
+        <x:v>753</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9">
@@ -2251,10 +2251,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C61" s="1" t="n">
-        <x:v>291</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="D61" s="1" t="n">
-        <x:v>433</x:v>
+        <x:v>434</x:v>
       </x:c>
       <x:c r="E61" s="1" t="n">
         <x:v>36</x:v>
@@ -2266,10 +2266,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H61" s="1" t="n">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="I61" s="1" t="n">
-        <x:v>870</x:v>
+        <x:v>873</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -714,10 +714,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>3076</x:v>
+        <x:v>3077</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>1778</x:v>
+        <x:v>1779</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>136</x:v>
@@ -732,7 +732,7 @@
         <x:v>604</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>5873</x:v>
+        <x:v>5875</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -758,10 +758,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
-        <x:v>121</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>965</x:v>
+        <x:v>964</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -772,10 +772,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>3481</x:v>
+        <x:v>3482</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>2138</x:v>
+        <x:v>2139</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>150</x:v>
@@ -787,10 +787,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>725</x:v>
+        <x:v>724</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>6838</x:v>
+        <x:v>6839</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -810,7 +810,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="G11" s="1" t="n">
         <x:v>1</x:v>
@@ -819,7 +819,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>639</x:v>
+        <x:v>638</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -868,7 +868,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
         <x:v>1</x:v>
@@ -877,7 +877,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>713</x:v>
+        <x:v>712</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -1065,7 +1065,7 @@
         <x:v>1685</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>843</x:v>
+        <x:v>844</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
         <x:v>62</x:v>
@@ -1080,7 +1080,7 @@
         <x:v>379</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>3198</x:v>
+        <x:v>3199</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1123,7 +1123,7 @@
         <x:v>1749</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>854</x:v>
+        <x:v>855</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>68</x:v>
@@ -1138,7 +1138,7 @@
         <x:v>396</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>3297</x:v>
+        <x:v>3298</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1239,7 +1239,7 @@
         <x:v>411</x:v>
       </x:c>
       <x:c r="D26" s="1" t="n">
-        <x:v>284</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="E26" s="1" t="n">
         <x:v>23</x:v>
@@ -1254,7 +1254,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="I26" s="1" t="n">
-        <x:v>883</x:v>
+        <x:v>884</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:9">
@@ -1297,7 +1297,7 @@
         <x:v>419</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
-        <x:v>299</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
         <x:v>23</x:v>
@@ -1312,7 +1312,7 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="I28" s="1" t="n">
-        <x:v>913</x:v>
+        <x:v>914</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:9">
@@ -1413,7 +1413,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D32" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
         <x:v>2</x:v>
@@ -1428,7 +1428,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="I32" s="1" t="n">
-        <x:v>44</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:9">
@@ -1471,7 +1471,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D34" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E34" s="1" t="n">
         <x:v>2</x:v>
@@ -1486,7 +1486,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="I34" s="1" t="n">
-        <x:v>50</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:9">
@@ -1613,10 +1613,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C39" s="1" t="n">
-        <x:v>2976</x:v>
+        <x:v>2980</x:v>
       </x:c>
       <x:c r="D39" s="1" t="n">
-        <x:v>1949</x:v>
+        <x:v>1950</x:v>
       </x:c>
       <x:c r="E39" s="1" t="n">
         <x:v>129</x:v>
@@ -1631,7 +1631,7 @@
         <x:v>532</x:v>
       </x:c>
       <x:c r="I39" s="1" t="n">
-        <x:v>5857</x:v>
+        <x:v>5862</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:9">
@@ -1642,7 +1642,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C40" s="1" t="n">
-        <x:v>286</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="D40" s="1" t="n">
         <x:v>201</x:v>
@@ -1660,7 +1660,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="I40" s="1" t="n">
-        <x:v>565</x:v>
+        <x:v>567</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:9">
@@ -1671,10 +1671,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C41" s="1" t="n">
-        <x:v>3262</x:v>
+        <x:v>3268</x:v>
       </x:c>
       <x:c r="D41" s="1" t="n">
-        <x:v>2150</x:v>
+        <x:v>2151</x:v>
       </x:c>
       <x:c r="E41" s="1" t="n">
         <x:v>145</x:v>
@@ -1689,7 +1689,7 @@
         <x:v>575</x:v>
       </x:c>
       <x:c r="I41" s="1" t="n">
-        <x:v>6422</x:v>
+        <x:v>6429</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -714,10 +714,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>3077</x:v>
+        <x:v>3078</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>1779</x:v>
+        <x:v>1780</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>136</x:v>
@@ -729,10 +729,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>604</x:v>
+        <x:v>605</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>5875</x:v>
+        <x:v>5878</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -752,7 +752,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
         <x:v>3</x:v>
@@ -761,7 +761,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>964</x:v>
+        <x:v>965</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -772,25 +772,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>3482</x:v>
+        <x:v>3483</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>2139</x:v>
+        <x:v>2140</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>150</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>330</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>724</x:v>
+        <x:v>725</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>6839</x:v>
+        <x:v>6843</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -1062,7 +1062,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>1685</x:v>
+        <x:v>1688</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
         <x:v>844</x:v>
@@ -1080,7 +1080,7 @@
         <x:v>379</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>3199</x:v>
+        <x:v>3202</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1106,10 +1106,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H21" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1120,7 +1120,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>1749</x:v>
+        <x:v>1752</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
         <x:v>855</x:v>
@@ -1135,10 +1135,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
-        <x:v>396</x:v>
+        <x:v>397</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>3298</x:v>
+        <x:v>3302</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1236,7 +1236,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C26" s="1" t="n">
-        <x:v>411</x:v>
+        <x:v>412</x:v>
       </x:c>
       <x:c r="D26" s="1" t="n">
         <x:v>285</x:v>
@@ -1254,7 +1254,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="I26" s="1" t="n">
-        <x:v>884</x:v>
+        <x:v>885</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:9">
@@ -1294,7 +1294,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C28" s="1" t="n">
-        <x:v>419</x:v>
+        <x:v>420</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
         <x:v>300</x:v>
@@ -1312,7 +1312,7 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="I28" s="1" t="n">
-        <x:v>914</x:v>
+        <x:v>915</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:9">
@@ -1613,13 +1613,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C39" s="1" t="n">
-        <x:v>2980</x:v>
+        <x:v>2985</x:v>
       </x:c>
       <x:c r="D39" s="1" t="n">
-        <x:v>1950</x:v>
+        <x:v>1952</x:v>
       </x:c>
       <x:c r="E39" s="1" t="n">
-        <x:v>129</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="F39" s="1" t="n">
         <x:v>262</x:v>
@@ -1628,10 +1628,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="H39" s="1" t="n">
-        <x:v>532</x:v>
+        <x:v>533</x:v>
       </x:c>
       <x:c r="I39" s="1" t="n">
-        <x:v>5862</x:v>
+        <x:v>5871</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:9">
@@ -1645,7 +1645,7 @@
         <x:v>288</x:v>
       </x:c>
       <x:c r="D40" s="1" t="n">
-        <x:v>201</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="E40" s="1" t="n">
         <x:v>16</x:v>
@@ -1660,7 +1660,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="I40" s="1" t="n">
-        <x:v>567</x:v>
+        <x:v>568</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:9">
@@ -1671,13 +1671,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C41" s="1" t="n">
-        <x:v>3268</x:v>
+        <x:v>3273</x:v>
       </x:c>
       <x:c r="D41" s="1" t="n">
-        <x:v>2151</x:v>
+        <x:v>2154</x:v>
       </x:c>
       <x:c r="E41" s="1" t="n">
-        <x:v>145</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="F41" s="1" t="n">
         <x:v>281</x:v>
@@ -1686,10 +1686,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="H41" s="1" t="n">
-        <x:v>575</x:v>
+        <x:v>576</x:v>
       </x:c>
       <x:c r="I41" s="1" t="n">
-        <x:v>6429</x:v>
+        <x:v>6439</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9">
@@ -1715,10 +1715,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H42" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I42" s="1" t="n">
-        <x:v>218</x:v>
+        <x:v>219</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:9">
@@ -1773,10 +1773,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H44" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="I44" s="1" t="n">
-        <x:v>298</x:v>
+        <x:v>299</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:9">
@@ -2106,13 +2106,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C56" s="1" t="n">
-        <x:v>188</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="D56" s="1" t="n">
         <x:v>187</x:v>
       </x:c>
       <x:c r="E56" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F56" s="1" t="n">
         <x:v>22</x:v>
@@ -2121,10 +2121,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H56" s="1" t="n">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="I56" s="1" t="n">
-        <x:v>464</x:v>
+        <x:v>463</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:9">
@@ -2164,13 +2164,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C58" s="1" t="n">
-        <x:v>196</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="D58" s="1" t="n">
         <x:v>261</x:v>
       </x:c>
       <x:c r="E58" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F58" s="1" t="n">
         <x:v>29</x:v>
@@ -2179,10 +2179,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H58" s="1" t="n">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="I58" s="1" t="n">
-        <x:v>562</x:v>
+        <x:v>561</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -714,10 +714,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>3078</x:v>
+        <x:v>3081</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>1780</x:v>
+        <x:v>1785</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>136</x:v>
@@ -729,10 +729,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>605</x:v>
+        <x:v>607</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>5878</x:v>
+        <x:v>5888</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -772,10 +772,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>3483</x:v>
+        <x:v>3486</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>2140</x:v>
+        <x:v>2145</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>150</x:v>
@@ -787,10 +787,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>725</x:v>
+        <x:v>727</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>6843</x:v>
+        <x:v>6853</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -801,7 +801,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>310</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
         <x:v>240</x:v>
@@ -819,7 +819,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>638</x:v>
+        <x:v>641</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -859,7 +859,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>342</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>257</x:v>
@@ -877,7 +877,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>712</x:v>
+        <x:v>715</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -888,7 +888,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
         <x:v>61</x:v>
@@ -906,7 +906,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="I14" s="1" t="n">
-        <x:v>228</x:v>
+        <x:v>229</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
@@ -946,7 +946,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
         <x:v>64</x:v>
@@ -964,7 +964,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>231</x:v>
+        <x:v>232</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -975,7 +975,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1" t="n">
-        <x:v>325</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
         <x:v>175</x:v>
@@ -990,7 +990,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H17" s="1" t="n">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
         <x:v>619</x:v>
@@ -1033,7 +1033,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>387</x:v>
+        <x:v>386</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
         <x:v>225</x:v>
@@ -1048,7 +1048,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H19" s="1" t="n">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
         <x:v>755</x:v>
@@ -1062,10 +1062,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>1688</x:v>
+        <x:v>1690</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>844</x:v>
+        <x:v>845</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
         <x:v>62</x:v>
@@ -1080,7 +1080,7 @@
         <x:v>379</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>3202</x:v>
+        <x:v>3205</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1120,10 +1120,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>1752</x:v>
+        <x:v>1754</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>855</x:v>
+        <x:v>856</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>68</x:v>
@@ -1138,7 +1138,7 @@
         <x:v>397</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>3302</x:v>
+        <x:v>3305</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1236,7 +1236,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C26" s="1" t="n">
-        <x:v>412</x:v>
+        <x:v>411</x:v>
       </x:c>
       <x:c r="D26" s="1" t="n">
         <x:v>285</x:v>
@@ -1251,10 +1251,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H26" s="1" t="n">
-        <x:v>115</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="I26" s="1" t="n">
-        <x:v>885</x:v>
+        <x:v>886</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:9">
@@ -1294,7 +1294,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C28" s="1" t="n">
-        <x:v>420</x:v>
+        <x:v>419</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
         <x:v>300</x:v>
@@ -1309,10 +1309,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H28" s="1" t="n">
-        <x:v>119</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="I28" s="1" t="n">
-        <x:v>915</x:v>
+        <x:v>916</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:9">
@@ -1439,7 +1439,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C33" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D33" s="1" t="n">
         <x:v>3</x:v>
@@ -1457,7 +1457,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I33" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:9">
@@ -1468,7 +1468,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C34" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D34" s="1" t="n">
         <x:v>34</x:v>
@@ -1486,7 +1486,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="I34" s="1" t="n">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:9">
@@ -1613,13 +1613,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C39" s="1" t="n">
-        <x:v>2985</x:v>
+        <x:v>2990</x:v>
       </x:c>
       <x:c r="D39" s="1" t="n">
-        <x:v>1952</x:v>
+        <x:v>1955</x:v>
       </x:c>
       <x:c r="E39" s="1" t="n">
-        <x:v>130</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="F39" s="1" t="n">
         <x:v>262</x:v>
@@ -1628,10 +1628,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="H39" s="1" t="n">
-        <x:v>533</x:v>
+        <x:v>534</x:v>
       </x:c>
       <x:c r="I39" s="1" t="n">
-        <x:v>5871</x:v>
+        <x:v>5883</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:9">
@@ -1645,7 +1645,7 @@
         <x:v>288</x:v>
       </x:c>
       <x:c r="D40" s="1" t="n">
-        <x:v>202</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="E40" s="1" t="n">
         <x:v>16</x:v>
@@ -1660,7 +1660,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="I40" s="1" t="n">
-        <x:v>568</x:v>
+        <x:v>569</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:9">
@@ -1671,13 +1671,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C41" s="1" t="n">
-        <x:v>3273</x:v>
+        <x:v>3278</x:v>
       </x:c>
       <x:c r="D41" s="1" t="n">
-        <x:v>2154</x:v>
+        <x:v>2158</x:v>
       </x:c>
       <x:c r="E41" s="1" t="n">
-        <x:v>146</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="F41" s="1" t="n">
         <x:v>281</x:v>
@@ -1686,10 +1686,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="H41" s="1" t="n">
-        <x:v>576</x:v>
+        <x:v>577</x:v>
       </x:c>
       <x:c r="I41" s="1" t="n">
-        <x:v>6439</x:v>
+        <x:v>6452</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9">
@@ -1935,7 +1935,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="D50" s="1" t="n">
-        <x:v>141</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="E50" s="1" t="n">
         <x:v>2</x:v>
@@ -1950,7 +1950,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="I50" s="1" t="n">
-        <x:v>192</x:v>
+        <x:v>193</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:9">
@@ -1993,7 +1993,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="D52" s="1" t="n">
-        <x:v>198</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="E52" s="1" t="n">
         <x:v>9</x:v>
@@ -2008,7 +2008,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="I52" s="1" t="n">
-        <x:v>275</x:v>
+        <x:v>276</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:9">
@@ -2019,7 +2019,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C53" s="1" t="n">
-        <x:v>170</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="D53" s="1" t="n">
         <x:v>84</x:v>
@@ -2037,7 +2037,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="I53" s="1" t="n">
-        <x:v>324</x:v>
+        <x:v>323</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:9">
@@ -2077,7 +2077,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C55" s="1" t="n">
-        <x:v>204</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="D55" s="1" t="n">
         <x:v>94</x:v>
@@ -2095,7 +2095,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="I55" s="1" t="n">
-        <x:v>387</x:v>
+        <x:v>386</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:9">
@@ -2106,10 +2106,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C56" s="1" t="n">
-        <x:v>187</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="D56" s="1" t="n">
-        <x:v>187</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="E56" s="1" t="n">
         <x:v>13</x:v>
@@ -2124,7 +2124,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="I56" s="1" t="n">
-        <x:v>463</x:v>
+        <x:v>465</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:9">
@@ -2164,10 +2164,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C58" s="1" t="n">
-        <x:v>195</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="D58" s="1" t="n">
-        <x:v>261</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="E58" s="1" t="n">
         <x:v>16</x:v>
@@ -2182,7 +2182,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="I58" s="1" t="n">
-        <x:v>561</x:v>
+        <x:v>563</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -714,10 +714,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>3081</x:v>
+        <x:v>3082</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>1785</x:v>
+        <x:v>1786</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>136</x:v>
@@ -729,10 +729,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>607</x:v>
+        <x:v>608</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>5888</x:v>
+        <x:v>5891</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -772,10 +772,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>3486</x:v>
+        <x:v>3487</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>2145</x:v>
+        <x:v>2146</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>150</x:v>
@@ -787,10 +787,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>727</x:v>
+        <x:v>728</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>6853</x:v>
+        <x:v>6856</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -804,7 +804,7 @@
         <x:v>313</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>240</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
         <x:v>18</x:v>
@@ -819,7 +819,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>641</x:v>
+        <x:v>642</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -862,7 +862,7 @@
         <x:v>345</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>257</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>19</x:v>
@@ -877,7 +877,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>715</x:v>
+        <x:v>716</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -1062,7 +1062,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>1690</x:v>
+        <x:v>1691</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
         <x:v>845</x:v>
@@ -1077,10 +1077,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="H20" s="1" t="n">
-        <x:v>379</x:v>
+        <x:v>380</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>3205</x:v>
+        <x:v>3207</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1120,7 +1120,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>1754</x:v>
+        <x:v>1755</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
         <x:v>856</x:v>
@@ -1135,10 +1135,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
-        <x:v>397</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>3305</x:v>
+        <x:v>3307</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1239,7 +1239,7 @@
         <x:v>411</x:v>
       </x:c>
       <x:c r="D26" s="1" t="n">
-        <x:v>285</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="E26" s="1" t="n">
         <x:v>23</x:v>
@@ -1254,7 +1254,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="I26" s="1" t="n">
-        <x:v>886</x:v>
+        <x:v>885</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:9">
@@ -1297,7 +1297,7 @@
         <x:v>419</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
-        <x:v>300</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
         <x:v>23</x:v>
@@ -1312,7 +1312,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="I28" s="1" t="n">
-        <x:v>916</x:v>
+        <x:v>915</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:9">
@@ -1613,7 +1613,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C39" s="1" t="n">
-        <x:v>2990</x:v>
+        <x:v>2994</x:v>
       </x:c>
       <x:c r="D39" s="1" t="n">
         <x:v>1955</x:v>
@@ -1631,7 +1631,7 @@
         <x:v>534</x:v>
       </x:c>
       <x:c r="I39" s="1" t="n">
-        <x:v>5883</x:v>
+        <x:v>5887</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:9">
@@ -1671,7 +1671,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C41" s="1" t="n">
-        <x:v>3278</x:v>
+        <x:v>3282</x:v>
       </x:c>
       <x:c r="D41" s="1" t="n">
         <x:v>2158</x:v>
@@ -1689,7 +1689,7 @@
         <x:v>577</x:v>
       </x:c>
       <x:c r="I41" s="1" t="n">
-        <x:v>6452</x:v>
+        <x:v>6456</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9">
@@ -1700,7 +1700,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C42" s="1" t="n">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="D42" s="1" t="n">
         <x:v>63</x:v>
@@ -1718,7 +1718,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="I42" s="1" t="n">
-        <x:v>219</x:v>
+        <x:v>220</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:9">
@@ -1732,7 +1732,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D43" s="1" t="n">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E43" s="1" t="n">
         <x:v>6</x:v>
@@ -1747,7 +1747,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="I43" s="1" t="n">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:9">
@@ -1758,10 +1758,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C44" s="1" t="n">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="D44" s="1" t="n">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="E44" s="1" t="n">
         <x:v>13</x:v>
@@ -1776,7 +1776,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I44" s="1" t="n">
-        <x:v>299</x:v>
+        <x:v>301</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:9">
@@ -2019,7 +2019,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C53" s="1" t="n">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="D53" s="1" t="n">
         <x:v>84</x:v>
@@ -2037,7 +2037,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="I53" s="1" t="n">
-        <x:v>323</x:v>
+        <x:v>324</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:9">
@@ -2077,7 +2077,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C55" s="1" t="n">
-        <x:v>203</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="D55" s="1" t="n">
         <x:v>94</x:v>
@@ -2095,7 +2095,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="I55" s="1" t="n">
-        <x:v>386</x:v>
+        <x:v>387</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -714,7 +714,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>3082</x:v>
+        <x:v>3084</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
         <x:v>1786</x:v>
@@ -732,7 +732,7 @@
         <x:v>608</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>5891</x:v>
+        <x:v>5893</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -746,10 +746,10 @@
         <x:v>405</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>360</x:v>
+        <x:v>361</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
         <x:v>63</x:v>
@@ -761,7 +761,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>965</x:v>
+        <x:v>967</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -772,13 +772,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>3487</x:v>
+        <x:v>3489</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>2146</x:v>
+        <x:v>2147</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>150</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
         <x:v>331</x:v>
@@ -790,7 +790,7 @@
         <x:v>728</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>6856</x:v>
+        <x:v>6860</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -801,10 +801,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>313</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>241</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
         <x:v>18</x:v>
@@ -819,7 +819,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>642</x:v>
+        <x:v>644</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -859,10 +859,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>345</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>258</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>19</x:v>
@@ -877,7 +877,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>716</x:v>
+        <x:v>718</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -981,7 +981,7 @@
         <x:v>175</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
         <x:v>38</x:v>
@@ -993,7 +993,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>619</x:v>
+        <x:v>618</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -1039,7 +1039,7 @@
         <x:v>225</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
         <x:v>45</x:v>
@@ -1051,7 +1051,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>755</x:v>
+        <x:v>754</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1236,7 +1236,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C26" s="1" t="n">
-        <x:v>411</x:v>
+        <x:v>410</x:v>
       </x:c>
       <x:c r="D26" s="1" t="n">
         <x:v>284</x:v>
@@ -1254,7 +1254,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="I26" s="1" t="n">
-        <x:v>885</x:v>
+        <x:v>884</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:9">
@@ -1294,7 +1294,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C28" s="1" t="n">
-        <x:v>419</x:v>
+        <x:v>418</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
         <x:v>299</x:v>
@@ -1312,7 +1312,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="I28" s="1" t="n">
-        <x:v>915</x:v>
+        <x:v>914</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:9">
@@ -1613,13 +1613,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C39" s="1" t="n">
-        <x:v>2994</x:v>
+        <x:v>2996</x:v>
       </x:c>
       <x:c r="D39" s="1" t="n">
-        <x:v>1955</x:v>
+        <x:v>1958</x:v>
       </x:c>
       <x:c r="E39" s="1" t="n">
-        <x:v>133</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="F39" s="1" t="n">
         <x:v>262</x:v>
@@ -1631,7 +1631,7 @@
         <x:v>534</x:v>
       </x:c>
       <x:c r="I39" s="1" t="n">
-        <x:v>5887</x:v>
+        <x:v>5891</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:9">
@@ -1671,13 +1671,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C41" s="1" t="n">
-        <x:v>3282</x:v>
+        <x:v>3284</x:v>
       </x:c>
       <x:c r="D41" s="1" t="n">
-        <x:v>2158</x:v>
+        <x:v>2161</x:v>
       </x:c>
       <x:c r="E41" s="1" t="n">
-        <x:v>149</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="F41" s="1" t="n">
         <x:v>281</x:v>
@@ -1689,7 +1689,7 @@
         <x:v>577</x:v>
       </x:c>
       <x:c r="I41" s="1" t="n">
-        <x:v>6456</x:v>
+        <x:v>6460</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -717,7 +717,7 @@
         <x:v>3084</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>1786</x:v>
+        <x:v>1787</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>136</x:v>
@@ -732,7 +732,7 @@
         <x:v>608</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>5893</x:v>
+        <x:v>5894</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -775,7 +775,7 @@
         <x:v>3489</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>2147</x:v>
+        <x:v>2148</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>151</x:v>
@@ -790,7 +790,7 @@
         <x:v>728</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>6860</x:v>
+        <x:v>6861</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -888,7 +888,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>133</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
         <x:v>61</x:v>
@@ -906,7 +906,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="I14" s="1" t="n">
-        <x:v>229</x:v>
+        <x:v>230</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
@@ -946,7 +946,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>133</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
         <x:v>64</x:v>
@@ -964,7 +964,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>232</x:v>
+        <x:v>233</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -978,7 +978,7 @@
         <x:v>324</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
-        <x:v>175</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
         <x:v>21</x:v>
@@ -993,7 +993,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>618</x:v>
+        <x:v>619</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -1036,7 +1036,7 @@
         <x:v>386</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
-        <x:v>225</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
         <x:v>23</x:v>
@@ -1051,7 +1051,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>754</x:v>
+        <x:v>755</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1613,16 +1613,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C39" s="1" t="n">
-        <x:v>2996</x:v>
+        <x:v>2999</x:v>
       </x:c>
       <x:c r="D39" s="1" t="n">
-        <x:v>1958</x:v>
+        <x:v>1959</x:v>
       </x:c>
       <x:c r="E39" s="1" t="n">
         <x:v>132</x:v>
       </x:c>
       <x:c r="F39" s="1" t="n">
-        <x:v>262</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="G39" s="1" t="n">
         <x:v>9</x:v>
@@ -1631,7 +1631,7 @@
         <x:v>534</x:v>
       </x:c>
       <x:c r="I39" s="1" t="n">
-        <x:v>5891</x:v>
+        <x:v>5896</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:9">
@@ -1671,16 +1671,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C41" s="1" t="n">
-        <x:v>3284</x:v>
+        <x:v>3287</x:v>
       </x:c>
       <x:c r="D41" s="1" t="n">
-        <x:v>2161</x:v>
+        <x:v>2162</x:v>
       </x:c>
       <x:c r="E41" s="1" t="n">
         <x:v>148</x:v>
       </x:c>
       <x:c r="F41" s="1" t="n">
-        <x:v>281</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="G41" s="1" t="n">
         <x:v>9</x:v>
@@ -1689,7 +1689,7 @@
         <x:v>577</x:v>
       </x:c>
       <x:c r="I41" s="1" t="n">
-        <x:v>6460</x:v>
+        <x:v>6465</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9">
@@ -2106,7 +2106,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C56" s="1" t="n">
-        <x:v>188</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="D56" s="1" t="n">
         <x:v>188</x:v>
@@ -2124,7 +2124,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="I56" s="1" t="n">
-        <x:v>465</x:v>
+        <x:v>466</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:9">
@@ -2164,7 +2164,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C58" s="1" t="n">
-        <x:v>196</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="D58" s="1" t="n">
         <x:v>262</x:v>
@@ -2182,7 +2182,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="I58" s="1" t="n">
-        <x:v>563</x:v>
+        <x:v>564</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">
@@ -2196,7 +2196,7 @@
         <x:v>260</x:v>
       </x:c>
       <x:c r="D59" s="1" t="n">
-        <x:v>366</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="E59" s="1" t="n">
         <x:v>30</x:v>
@@ -2211,7 +2211,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="I59" s="1" t="n">
-        <x:v>753</x:v>
+        <x:v>754</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9">
@@ -2254,7 +2254,7 @@
         <x:v>292</x:v>
       </x:c>
       <x:c r="D61" s="1" t="n">
-        <x:v>434</x:v>
+        <x:v>435</x:v>
       </x:c>
       <x:c r="E61" s="1" t="n">
         <x:v>36</x:v>
@@ -2269,7 +2269,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="I61" s="1" t="n">
-        <x:v>873</x:v>
+        <x:v>874</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -714,25 +714,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>3084</x:v>
+        <x:v>3090</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>1787</x:v>
+        <x:v>1789</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>136</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>268</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
         <x:v>11</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>608</x:v>
+        <x:v>607</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>5894</x:v>
+        <x:v>5905</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -743,10 +743,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>405</x:v>
+        <x:v>409</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>361</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
         <x:v>15</x:v>
@@ -758,10 +758,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>967</x:v>
+        <x:v>977</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -772,16 +772,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>3489</x:v>
+        <x:v>3499</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>2148</x:v>
+        <x:v>2155</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>151</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>331</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>14</x:v>
@@ -790,7 +790,7 @@
         <x:v>728</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>6861</x:v>
+        <x:v>6882</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -804,7 +804,7 @@
         <x:v>314</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>242</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
         <x:v>18</x:v>
@@ -819,7 +819,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>644</x:v>
+        <x:v>645</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -862,7 +862,7 @@
         <x:v>346</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>259</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>19</x:v>
@@ -877,7 +877,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>718</x:v>
+        <x:v>719</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -891,7 +891,7 @@
         <x:v>134</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
         <x:v>7</x:v>
@@ -906,7 +906,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="I14" s="1" t="n">
-        <x:v>230</x:v>
+        <x:v>231</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
@@ -949,7 +949,7 @@
         <x:v>134</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
         <x:v>7</x:v>
@@ -964,7 +964,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>233</x:v>
+        <x:v>234</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -975,13 +975,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C17" s="1" t="n">
-        <x:v>324</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
-        <x:v>176</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
         <x:v>38</x:v>
@@ -990,10 +990,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H17" s="1" t="n">
-        <x:v>59</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>619</x:v>
+        <x:v>628</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -1033,13 +1033,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>386</x:v>
+        <x:v>390</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
-        <x:v>226</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
         <x:v>45</x:v>
@@ -1048,10 +1048,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H19" s="1" t="n">
-        <x:v>74</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>755</x:v>
+        <x:v>764</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1062,10 +1062,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>1691</x:v>
+        <x:v>1698</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>845</x:v>
+        <x:v>847</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
         <x:v>62</x:v>
@@ -1077,10 +1077,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="H20" s="1" t="n">
-        <x:v>380</x:v>
+        <x:v>381</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>3207</x:v>
+        <x:v>3217</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1120,10 +1120,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>1755</x:v>
+        <x:v>1762</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>856</x:v>
+        <x:v>858</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>68</x:v>
@@ -1135,10 +1135,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
-        <x:v>398</x:v>
+        <x:v>399</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>3307</x:v>
+        <x:v>3317</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1236,10 +1236,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C26" s="1" t="n">
-        <x:v>410</x:v>
+        <x:v>418</x:v>
       </x:c>
       <x:c r="D26" s="1" t="n">
-        <x:v>284</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="E26" s="1" t="n">
         <x:v>23</x:v>
@@ -1254,7 +1254,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="I26" s="1" t="n">
-        <x:v>884</x:v>
+        <x:v>893</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:9">
@@ -1268,7 +1268,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D27" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E27" s="1" t="n">
         <x:v>0</x:v>
@@ -1283,7 +1283,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="I27" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:9">
@@ -1294,10 +1294,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C28" s="1" t="n">
-        <x:v>418</x:v>
+        <x:v>426</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
-        <x:v>299</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
         <x:v>23</x:v>
@@ -1312,7 +1312,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="I28" s="1" t="n">
-        <x:v>914</x:v>
+        <x:v>924</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:9">
@@ -1558,7 +1558,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="D37" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E37" s="1" t="n">
         <x:v>4</x:v>
@@ -1573,7 +1573,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="I37" s="1" t="n">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:9">
@@ -1587,7 +1587,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="D38" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E38" s="1" t="n">
         <x:v>4</x:v>
@@ -1602,7 +1602,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="I38" s="1" t="n">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:9">
@@ -1613,25 +1613,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C39" s="1" t="n">
-        <x:v>2999</x:v>
+        <x:v>3018</x:v>
       </x:c>
       <x:c r="D39" s="1" t="n">
-        <x:v>1959</x:v>
+        <x:v>1971</x:v>
       </x:c>
       <x:c r="E39" s="1" t="n">
         <x:v>132</x:v>
       </x:c>
       <x:c r="F39" s="1" t="n">
-        <x:v>263</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="G39" s="1" t="n">
         <x:v>9</x:v>
       </x:c>
       <x:c r="H39" s="1" t="n">
-        <x:v>534</x:v>
+        <x:v>535</x:v>
       </x:c>
       <x:c r="I39" s="1" t="n">
-        <x:v>5896</x:v>
+        <x:v>5934</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:9">
@@ -1642,16 +1642,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C40" s="1" t="n">
-        <x:v>288</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="D40" s="1" t="n">
-        <x:v>203</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="E40" s="1" t="n">
         <x:v>16</x:v>
       </x:c>
       <x:c r="F40" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G40" s="1" t="n">
         <x:v>0</x:v>
@@ -1660,7 +1660,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="I40" s="1" t="n">
-        <x:v>569</x:v>
+        <x:v>584</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:9">
@@ -1671,25 +1671,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C41" s="1" t="n">
-        <x:v>3287</x:v>
+        <x:v>3314</x:v>
       </x:c>
       <x:c r="D41" s="1" t="n">
-        <x:v>2162</x:v>
+        <x:v>2180</x:v>
       </x:c>
       <x:c r="E41" s="1" t="n">
         <x:v>148</x:v>
       </x:c>
       <x:c r="F41" s="1" t="n">
-        <x:v>282</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="G41" s="1" t="n">
         <x:v>9</x:v>
       </x:c>
       <x:c r="H41" s="1" t="n">
-        <x:v>577</x:v>
+        <x:v>578</x:v>
       </x:c>
       <x:c r="I41" s="1" t="n">
-        <x:v>6465</x:v>
+        <x:v>6518</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9">
@@ -1961,7 +1961,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C51" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D51" s="1" t="n">
         <x:v>57</x:v>
@@ -1970,7 +1970,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="F51" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G51" s="1" t="n">
         <x:v>0</x:v>
@@ -1979,7 +1979,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="I51" s="1" t="n">
-        <x:v>83</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:9">
@@ -1990,7 +1990,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C52" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D52" s="1" t="n">
         <x:v>199</x:v>
@@ -1999,7 +1999,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F52" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G52" s="1" t="n">
         <x:v>0</x:v>
@@ -2008,7 +2008,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="I52" s="1" t="n">
-        <x:v>276</x:v>
+        <x:v>278</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:9">
@@ -2051,7 +2051,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="D54" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E54" s="1" t="n">
         <x:v>1</x:v>
@@ -2063,10 +2063,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H54" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I54" s="1" t="n">
-        <x:v>63</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:9">
@@ -2080,7 +2080,7 @@
         <x:v>204</x:v>
       </x:c>
       <x:c r="D55" s="1" t="n">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E55" s="1" t="n">
         <x:v>9</x:v>
@@ -2092,10 +2092,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H55" s="1" t="n">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="I55" s="1" t="n">
-        <x:v>387</x:v>
+        <x:v>389</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:9">
@@ -2106,7 +2106,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C56" s="1" t="n">
-        <x:v>189</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="D56" s="1" t="n">
         <x:v>188</x:v>
@@ -2124,7 +2124,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="I56" s="1" t="n">
-        <x:v>466</x:v>
+        <x:v>465</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:9">
@@ -2164,7 +2164,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C58" s="1" t="n">
-        <x:v>197</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="D58" s="1" t="n">
         <x:v>262</x:v>
@@ -2182,7 +2182,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="I58" s="1" t="n">
-        <x:v>564</x:v>
+        <x:v>563</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">
@@ -2225,7 +2225,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="D60" s="1" t="n">
-        <x:v>68</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E60" s="1" t="n">
         <x:v>6</x:v>
@@ -2240,7 +2240,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="I60" s="1" t="n">
-        <x:v>120</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">
@@ -2254,7 +2254,7 @@
         <x:v>292</x:v>
       </x:c>
       <x:c r="D61" s="1" t="n">
-        <x:v>435</x:v>
+        <x:v>437</x:v>
       </x:c>
       <x:c r="E61" s="1" t="n">
         <x:v>36</x:v>
@@ -2269,7 +2269,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="I61" s="1" t="n">
-        <x:v>874</x:v>
+        <x:v>876</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <x:si>
     <x:t>Offense Category</x:t>
   </x:si>
@@ -59,6 +59,9 @@
   </x:si>
   <x:si>
     <x:t>Assault Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bribery</x:t>
   </x:si>
   <x:si>
     <x:t>Burglary/Breaking &amp; Entering</x:t>
@@ -493,7 +496,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:I61"/>
+  <x:dimension ref="A1:I63"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -540,7 +543,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
         <x:v>9</x:v>
@@ -558,7 +561,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -598,7 +601,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
         <x:v>10</x:v>
@@ -616,7 +619,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -627,25 +630,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="1" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="F5" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G5" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H5" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I5" s="1" t="n">
-        <x:v>49</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:9">
@@ -656,10 +659,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E6" s="1" t="n">
         <x:v>0</x:v>
@@ -674,7 +677,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I6" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:9">
@@ -685,25 +688,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I7" s="1" t="n">
-        <x:v>55</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9">
@@ -714,25 +717,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>3090</x:v>
+        <x:v>3683</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>1789</x:v>
+        <x:v>2183</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>136</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>272</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>607</x:v>
+        <x:v>733</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>5905</x:v>
+        <x:v>7106</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -743,25 +746,25 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>409</x:v>
+        <x:v>462</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>366</x:v>
+        <x:v>425</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>63</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
-        <x:v>121</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>977</x:v>
+        <x:v>1114</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -772,25 +775,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>3499</x:v>
+        <x:v>4145</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>2155</x:v>
+        <x:v>2608</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>151</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>335</x:v>
+        <x:v>403</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>728</x:v>
+        <x:v>871</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>6882</x:v>
+        <x:v>8220</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -801,25 +804,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>314</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>243</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F11" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G11" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H11" s="1" t="n">
-        <x:v>40</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>645</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -827,57 +830,57 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C12" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F12" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G12" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H12" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I12" s="1" t="n">
-        <x:v>74</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9">
       <x:c r="A13" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>346</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>260</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>49</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
-        <x:v>44</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>719</x:v>
+        <x:v>763</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -885,28 +888,28 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>134</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
-        <x:v>62</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H14" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I14" s="1" t="n">
-        <x:v>231</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
@@ -914,57 +917,57 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>403</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>845</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
       <x:c r="A16" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>134</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>65</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H16" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>234</x:v>
+        <x:v>274</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -972,28 +975,28 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C17" s="1" t="n">
-        <x:v>328</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
-        <x:v>178</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F17" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G17" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H17" s="1" t="n">
-        <x:v>61</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>628</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -1001,57 +1004,57 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C18" s="1" t="n">
-        <x:v>62</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
-        <x:v>50</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E18" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F18" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G18" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H18" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="I18" s="1" t="n">
-        <x:v>136</x:v>
+        <x:v>278</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
       <x:c r="A19" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>390</x:v>
+        <x:v>393</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
-        <x:v>228</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
         <x:v>24</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
-        <x:v>45</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G19" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H19" s="1" t="n">
-        <x:v>76</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>764</x:v>
+        <x:v>754</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1059,28 +1062,28 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>1698</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>847</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
-        <x:v>62</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F20" s="1" t="n">
-        <x:v>223</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G20" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H20" s="1" t="n">
-        <x:v>381</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>3217</x:v>
+        <x:v>165</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1088,57 +1091,57 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>64</x:v>
+        <x:v>469</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="E21" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F21" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G21" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H21" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>100</x:v>
+        <x:v>919</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
       <x:c r="A22" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>1762</x:v>
+        <x:v>2033</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>858</x:v>
+        <x:v>978</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
-        <x:v>68</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
-        <x:v>224</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
-        <x:v>399</x:v>
+        <x:v>449</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>3317</x:v>
+        <x:v>3809</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1146,28 +1149,28 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C23" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F23" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G23" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H23" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1175,45 +1178,45 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>2100</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>993</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="F24" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="G24" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H24" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>469</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>3919</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
       <x:c r="A25" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C25" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E25" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F25" s="1" t="n">
         <x:v>0</x:v>
@@ -1222,10 +1225,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H25" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I25" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
@@ -1233,28 +1236,28 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C26" s="1" t="n">
-        <x:v>418</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D26" s="1" t="n">
-        <x:v>285</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E26" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F26" s="1" t="n">
-        <x:v>50</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G26" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H26" s="1" t="n">
-        <x:v>117</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I26" s="1" t="n">
-        <x:v>893</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:9">
@@ -1262,57 +1265,57 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C27" s="1" t="n">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D27" s="1" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E27" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F27" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G27" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H27" s="1" t="n">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="C27" s="1" t="n">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="D27" s="1" t="n">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E27" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F27" s="1" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="G27" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H27" s="1" t="n">
-        <x:v>4</x:v>
-      </x:c>
       <x:c r="I27" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:9">
       <x:c r="A28" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C28" s="1" t="n">
-        <x:v>426</x:v>
+        <x:v>499</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
-        <x:v>301</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F28" s="1" t="n">
-        <x:v>53</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G28" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H28" s="1" t="n">
-        <x:v>121</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="I28" s="1" t="n">
-        <x:v>924</x:v>
+        <x:v>1055</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:9">
@@ -1320,28 +1323,28 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C29" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D29" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E29" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F29" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G29" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H29" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I29" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:9">
@@ -1349,36 +1352,36 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C30" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>521</x:v>
       </x:c>
       <x:c r="D30" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="E30" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F30" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="G30" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H30" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="I30" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>1102</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:9">
       <x:c r="A31" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C31" s="1" t="n">
         <x:v>1</x:v>
@@ -1396,10 +1399,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H31" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I31" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
@@ -1407,16 +1410,16 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C32" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D32" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F32" s="1" t="n">
         <x:v>0</x:v>
@@ -1425,10 +1428,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H32" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I32" s="1" t="n">
-        <x:v>47</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:9">
@@ -1436,57 +1439,57 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C33" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D33" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E33" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F33" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G33" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H33" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I33" s="1" t="n">
         <x:v>2</x:v>
-      </x:c>
-      <x:c r="D33" s="1" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E33" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F33" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G33" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H33" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I33" s="1" t="n">
-        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:9">
       <x:c r="A34" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C34" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D34" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E34" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="F34" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G34" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H34" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I34" s="1" t="n">
-        <x:v>54</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:9">
@@ -1494,13 +1497,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C35" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D35" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E35" s="1" t="n">
         <x:v>0</x:v>
@@ -1515,7 +1518,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I35" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:9">
@@ -1526,25 +1529,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C36" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D36" s="1" t="n">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="E36" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="F36" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G36" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H36" s="1" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="E36" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F36" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G36" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H36" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
       <x:c r="I36" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:9">
@@ -1555,25 +1558,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C37" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D37" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E37" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F37" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G37" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H37" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I37" s="1" t="n">
-        <x:v>48</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:9">
@@ -1584,25 +1587,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C38" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D38" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E38" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F38" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G38" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H38" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I38" s="1" t="n">
-        <x:v>48</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:9">
@@ -1613,25 +1616,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C39" s="1" t="n">
-        <x:v>3018</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D39" s="1" t="n">
-        <x:v>1971</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E39" s="1" t="n">
-        <x:v>132</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F39" s="1" t="n">
-        <x:v>269</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G39" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H39" s="1" t="n">
-        <x:v>535</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I39" s="1" t="n">
-        <x:v>5934</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:9">
@@ -1639,57 +1642,57 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C40" s="1" t="n">
-        <x:v>296</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D40" s="1" t="n">
-        <x:v>209</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E40" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F40" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G40" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H40" s="1" t="n">
-        <x:v>43</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I40" s="1" t="n">
-        <x:v>584</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:9">
       <x:c r="A41" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C41" s="1" t="n">
-        <x:v>3314</x:v>
+        <x:v>3577</x:v>
       </x:c>
       <x:c r="D41" s="1" t="n">
-        <x:v>2180</x:v>
+        <x:v>2305</x:v>
       </x:c>
       <x:c r="E41" s="1" t="n">
-        <x:v>148</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="F41" s="1" t="n">
-        <x:v>289</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="G41" s="1" t="n">
         <x:v>9</x:v>
       </x:c>
       <x:c r="H41" s="1" t="n">
-        <x:v>578</x:v>
+        <x:v>653</x:v>
       </x:c>
       <x:c r="I41" s="1" t="n">
-        <x:v>6518</x:v>
+        <x:v>6992</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9">
@@ -1697,28 +1700,28 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C42" s="1" t="n">
-        <x:v>106</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="D42" s="1" t="n">
-        <x:v>63</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="E42" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F42" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G42" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H42" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="I42" s="1" t="n">
-        <x:v>220</x:v>
+        <x:v>706</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:9">
@@ -1726,57 +1729,57 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C43" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>3937</x:v>
       </x:c>
       <x:c r="D43" s="1" t="n">
-        <x:v>52</x:v>
+        <x:v>2549</x:v>
       </x:c>
       <x:c r="E43" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="F43" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="G43" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H43" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>708</x:v>
       </x:c>
       <x:c r="I43" s="1" t="n">
-        <x:v>81</x:v>
+        <x:v>7698</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:9">
       <x:c r="A44" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C44" s="1" t="n">
-        <x:v>115</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D44" s="1" t="n">
-        <x:v>115</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E44" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F44" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G44" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H44" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I44" s="1" t="n">
-        <x:v>301</x:v>
+        <x:v>259</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:9">
@@ -1784,28 +1787,28 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>47</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E45" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F45" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G45" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H45" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>66</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1813,42 +1816,42 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C46" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="D46" s="1" t="n">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="E46" s="1" t="n">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F46" s="1" t="n">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="G46" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="E46" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F46" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G46" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
       <x:c r="H46" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="I46" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>349</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
       <x:c r="A47" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>58</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E47" s="1" t="n">
         <x:v>1</x:v>
@@ -1860,10 +1863,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H47" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>82</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -1871,13 +1874,13 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C48" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D48" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E48" s="1" t="n">
         <x:v>0</x:v>
@@ -1889,10 +1892,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H48" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I48" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:9">
@@ -1903,25 +1906,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C49" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="D49" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E49" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F49" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G49" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H49" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I49" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:9">
@@ -1932,25 +1935,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C50" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D50" s="1" t="n">
-        <x:v>142</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E50" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F50" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G50" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H50" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I50" s="1" t="n">
-        <x:v>193</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:9">
@@ -1958,57 +1961,57 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C51" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D51" s="1" t="n">
-        <x:v>57</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E51" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F51" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G51" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H51" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I51" s="1" t="n">
-        <x:v>85</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:9">
       <x:c r="A52" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C52" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D52" s="1" t="n">
-        <x:v>199</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="E52" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="F52" s="1" t="n">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="F52" s="1" t="n">
-        <x:v>17</x:v>
-      </x:c>
       <x:c r="G52" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H52" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="I52" s="1" t="n">
-        <x:v>278</x:v>
+        <x:v>227</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:9">
@@ -2016,28 +2019,28 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C53" s="1" t="n">
-        <x:v>170</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D53" s="1" t="n">
-        <x:v>84</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E53" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F53" s="1" t="n">
         <x:v>8</x:v>
       </x:c>
       <x:c r="G53" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H53" s="1" t="n">
-        <x:v>52</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I53" s="1" t="n">
-        <x:v>324</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:9">
@@ -2045,54 +2048,54 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C54" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D54" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="E54" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F54" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G54" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H54" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="I54" s="1" t="n">
-        <x:v>65</x:v>
+        <x:v>334</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:9">
       <x:c r="A55" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C55" s="1" t="n">
-        <x:v>204</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="D55" s="1" t="n">
-        <x:v>95</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="E55" s="1" t="n">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F55" s="1" t="n">
         <x:v>9</x:v>
-      </x:c>
-      <x:c r="F55" s="1" t="n">
-        <x:v>8</x:v>
       </x:c>
       <x:c r="G55" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H55" s="1" t="n">
-        <x:v>71</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="I55" s="1" t="n">
         <x:v>389</x:v>
@@ -2103,28 +2106,28 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C56" s="1" t="n">
-        <x:v>188</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D56" s="1" t="n">
-        <x:v>188</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E56" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F56" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G56" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H56" s="1" t="n">
-        <x:v>52</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I56" s="1" t="n">
-        <x:v>465</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:9">
@@ -2132,42 +2135,42 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C57" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="D57" s="1" t="n">
-        <x:v>74</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="E57" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F57" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G57" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H57" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="I57" s="1" t="n">
-        <x:v>98</x:v>
+        <x:v>459</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:9">
       <x:c r="A58" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C58" s="1" t="n">
-        <x:v>196</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="D58" s="1" t="n">
-        <x:v>262</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="E58" s="1" t="n">
         <x:v>16</x:v>
@@ -2179,10 +2182,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H58" s="1" t="n">
-        <x:v>58</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="I58" s="1" t="n">
-        <x:v>563</x:v>
+        <x:v>554</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">
@@ -2190,28 +2193,28 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C59" s="1" t="n">
-        <x:v>260</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D59" s="1" t="n">
-        <x:v>367</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E59" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F59" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G59" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H59" s="1" t="n">
-        <x:v>69</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I59" s="1" t="n">
-        <x:v>754</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9">
@@ -2219,57 +2222,115 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C60" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="D60" s="1" t="n">
-        <x:v>70</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="E60" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F60" s="1" t="n">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="G60" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="G60" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
       <x:c r="H60" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I60" s="1" t="n">
-        <x:v>122</x:v>
+        <x:v>660</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">
       <x:c r="A61" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B61" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C61" s="1" t="n">
+        <x:v>306</x:v>
+      </x:c>
+      <x:c r="D61" s="1" t="n">
+        <x:v>435</x:v>
+      </x:c>
+      <x:c r="E61" s="1" t="n">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="F61" s="1" t="n">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="B61" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C61" s="1" t="n">
-        <x:v>292</x:v>
-      </x:c>
-      <x:c r="D61" s="1" t="n">
-        <x:v>437</x:v>
-      </x:c>
-      <x:c r="E61" s="1" t="n">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="F61" s="1" t="n">
-        <x:v>29</x:v>
-      </x:c>
       <x:c r="G61" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H61" s="1" t="n">
-        <x:v>81</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="I61" s="1" t="n">
-        <x:v>876</x:v>
+        <x:v>888</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62" spans="1:9">
+      <x:c r="A62" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B62" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C62" s="1" t="n">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D62" s="1" t="n">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="E62" s="1" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="F62" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="G62" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H62" s="1" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="I62" s="1" t="n">
+        <x:v>146</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:9">
+      <x:c r="A63" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B63" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C63" s="1" t="n">
+        <x:v>338</x:v>
+      </x:c>
+      <x:c r="D63" s="1" t="n">
+        <x:v>529</x:v>
+      </x:c>
+      <x:c r="E63" s="1" t="n">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="F63" s="1" t="n">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="G63" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H63" s="1" t="n">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="I63" s="1" t="n">
+        <x:v>1034</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -717,10 +717,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>3683</x:v>
+        <x:v>3685</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>2183</x:v>
+        <x:v>2185</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>161</x:v>
@@ -735,7 +735,7 @@
         <x:v>733</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>7106</x:v>
+        <x:v>7110</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -749,7 +749,7 @@
         <x:v>462</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>425</x:v>
+        <x:v>426</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
         <x:v>17</x:v>
@@ -761,10 +761,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>1114</x:v>
+        <x:v>1116</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -775,10 +775,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>4145</x:v>
+        <x:v>4147</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>2608</x:v>
+        <x:v>2611</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>178</x:v>
@@ -790,10 +790,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>871</x:v>
+        <x:v>872</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>8220</x:v>
+        <x:v>8226</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -862,7 +862,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>365</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>288</x:v>
@@ -880,7 +880,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>763</x:v>
+        <x:v>764</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -920,7 +920,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>403</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>306</x:v>
@@ -938,7 +938,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>845</x:v>
+        <x:v>846</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -1036,7 +1036,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>393</x:v>
+        <x:v>394</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
         <x:v>211</x:v>
@@ -1054,7 +1054,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>754</x:v>
+        <x:v>755</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1065,7 +1065,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
         <x:v>59</x:v>
@@ -1083,7 +1083,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1094,7 +1094,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>469</x:v>
+        <x:v>471</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
         <x:v>270</x:v>
@@ -1112,7 +1112,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>919</x:v>
+        <x:v>921</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1123,10 +1123,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>2033</x:v>
+        <x:v>2036</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>978</x:v>
+        <x:v>980</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>72</x:v>
@@ -1138,10 +1138,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
-        <x:v>449</x:v>
+        <x:v>453</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>3809</x:v>
+        <x:v>3818</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1181,10 +1181,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>2100</x:v>
+        <x:v>2103</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>993</x:v>
+        <x:v>995</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>78</x:v>
@@ -1196,10 +1196,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="H24" s="1" t="n">
-        <x:v>469</x:v>
+        <x:v>473</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>3919</x:v>
+        <x:v>3928</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1297,10 +1297,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C28" s="1" t="n">
-        <x:v>499</x:v>
+        <x:v>501</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
-        <x:v>336</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
         <x:v>27</x:v>
@@ -1312,10 +1312,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H28" s="1" t="n">
-        <x:v>135</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="I28" s="1" t="n">
-        <x:v>1055</x:v>
+        <x:v>1060</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:9">
@@ -1355,10 +1355,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C30" s="1" t="n">
-        <x:v>521</x:v>
+        <x:v>523</x:v>
       </x:c>
       <x:c r="D30" s="1" t="n">
-        <x:v>354</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="E30" s="1" t="n">
         <x:v>27</x:v>
@@ -1370,10 +1370,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H30" s="1" t="n">
-        <x:v>139</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="I30" s="1" t="n">
-        <x:v>1102</x:v>
+        <x:v>1107</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:9">
@@ -1674,16 +1674,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C41" s="1" t="n">
-        <x:v>3577</x:v>
+        <x:v>3582</x:v>
       </x:c>
       <x:c r="D41" s="1" t="n">
-        <x:v>2305</x:v>
+        <x:v>2314</x:v>
       </x:c>
       <x:c r="E41" s="1" t="n">
         <x:v>150</x:v>
       </x:c>
       <x:c r="F41" s="1" t="n">
-        <x:v>298</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="G41" s="1" t="n">
         <x:v>9</x:v>
@@ -1692,7 +1692,7 @@
         <x:v>653</x:v>
       </x:c>
       <x:c r="I41" s="1" t="n">
-        <x:v>6992</x:v>
+        <x:v>7007</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9">
@@ -1732,16 +1732,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C43" s="1" t="n">
-        <x:v>3937</x:v>
+        <x:v>3942</x:v>
       </x:c>
       <x:c r="D43" s="1" t="n">
-        <x:v>2549</x:v>
+        <x:v>2558</x:v>
       </x:c>
       <x:c r="E43" s="1" t="n">
         <x:v>173</x:v>
       </x:c>
       <x:c r="F43" s="1" t="n">
-        <x:v>321</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="G43" s="1" t="n">
         <x:v>10</x:v>
@@ -1750,7 +1750,7 @@
         <x:v>708</x:v>
       </x:c>
       <x:c r="I43" s="1" t="n">
-        <x:v>7698</x:v>
+        <x:v>7713</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:9">
@@ -1764,7 +1764,7 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="D44" s="1" t="n">
-        <x:v>82</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E44" s="1" t="n">
         <x:v>11</x:v>
@@ -1779,7 +1779,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="I44" s="1" t="n">
-        <x:v>259</x:v>
+        <x:v>261</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:9">
@@ -1822,7 +1822,7 @@
         <x:v>131</x:v>
       </x:c>
       <x:c r="D46" s="1" t="n">
-        <x:v>140</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="E46" s="1" t="n">
         <x:v>17</x:v>
@@ -1837,7 +1837,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="I46" s="1" t="n">
-        <x:v>349</x:v>
+        <x:v>351</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
@@ -2167,7 +2167,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C58" s="1" t="n">
-        <x:v>223</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="D58" s="1" t="n">
         <x:v>220</x:v>
@@ -2185,7 +2185,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="I58" s="1" t="n">
-        <x:v>554</x:v>
+        <x:v>555</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">
@@ -2225,7 +2225,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C60" s="1" t="n">
-        <x:v>232</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="D60" s="1" t="n">
         <x:v>299</x:v>
@@ -2243,7 +2243,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="I60" s="1" t="n">
-        <x:v>660</x:v>
+        <x:v>661</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">
@@ -2254,7 +2254,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C61" s="1" t="n">
-        <x:v>306</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="D61" s="1" t="n">
         <x:v>435</x:v>
@@ -2272,7 +2272,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="I61" s="1" t="n">
-        <x:v>888</x:v>
+        <x:v>890</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
@@ -2312,7 +2312,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C63" s="1" t="n">
-        <x:v>338</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="D63" s="1" t="n">
         <x:v>529</x:v>
@@ -2330,7 +2330,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="I63" s="1" t="n">
-        <x:v>1034</x:v>
+        <x:v>1036</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -717,10 +717,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>3685</x:v>
+        <x:v>3690</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>2185</x:v>
+        <x:v>2190</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>161</x:v>
@@ -732,10 +732,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>733</x:v>
+        <x:v>734</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>7110</x:v>
+        <x:v>7121</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -746,10 +746,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>462</x:v>
+        <x:v>463</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>426</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
         <x:v>17</x:v>
@@ -764,7 +764,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>1116</x:v>
+        <x:v>1118</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -775,10 +775,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>4147</x:v>
+        <x:v>4153</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>2611</x:v>
+        <x:v>2617</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>178</x:v>
@@ -790,10 +790,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>872</x:v>
+        <x:v>873</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>8226</x:v>
+        <x:v>8239</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -862,16 +862,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>366</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>288</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>22</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
         <x:v>2</x:v>
@@ -880,7 +880,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>764</x:v>
+        <x:v>767</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -920,16 +920,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>404</x:v>
+        <x:v>405</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>306</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
         <x:v>23</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
         <x:v>2</x:v>
@@ -938,7 +938,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>846</x:v>
+        <x:v>849</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -949,10 +949,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
         <x:v>9</x:v>
@@ -967,7 +967,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>274</x:v>
+        <x:v>276</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -1007,10 +1007,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C18" s="1" t="n">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E18" s="1" t="n">
         <x:v>9</x:v>
@@ -1025,7 +1025,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="I18" s="1" t="n">
-        <x:v>278</x:v>
+        <x:v>280</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
@@ -1123,7 +1123,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>2036</x:v>
+        <x:v>2039</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
         <x:v>980</x:v>
@@ -1138,10 +1138,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
-        <x:v>453</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>3818</x:v>
+        <x:v>3822</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1181,7 +1181,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>2103</x:v>
+        <x:v>2106</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
         <x:v>995</x:v>
@@ -1196,10 +1196,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="H24" s="1" t="n">
-        <x:v>473</x:v>
+        <x:v>474</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>3928</x:v>
+        <x:v>3932</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1309,13 +1309,13 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="G28" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H28" s="1" t="n">
         <x:v>136</x:v>
       </x:c>
       <x:c r="I28" s="1" t="n">
-        <x:v>1060</x:v>
+        <x:v>1061</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:9">
@@ -1367,13 +1367,13 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="G30" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H30" s="1" t="n">
         <x:v>140</x:v>
       </x:c>
       <x:c r="I30" s="1" t="n">
-        <x:v>1107</x:v>
+        <x:v>1108</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:9">
@@ -1674,16 +1674,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C41" s="1" t="n">
-        <x:v>3582</x:v>
+        <x:v>3590</x:v>
       </x:c>
       <x:c r="D41" s="1" t="n">
-        <x:v>2314</x:v>
+        <x:v>2321</x:v>
       </x:c>
       <x:c r="E41" s="1" t="n">
         <x:v>150</x:v>
       </x:c>
       <x:c r="F41" s="1" t="n">
-        <x:v>299</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="G41" s="1" t="n">
         <x:v>9</x:v>
@@ -1692,7 +1692,7 @@
         <x:v>653</x:v>
       </x:c>
       <x:c r="I41" s="1" t="n">
-        <x:v>7007</x:v>
+        <x:v>7023</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9">
@@ -1703,7 +1703,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C42" s="1" t="n">
-        <x:v>360</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="D42" s="1" t="n">
         <x:v>244</x:v>
@@ -1721,7 +1721,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="I42" s="1" t="n">
-        <x:v>706</x:v>
+        <x:v>708</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:9">
@@ -1732,16 +1732,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C43" s="1" t="n">
-        <x:v>3942</x:v>
+        <x:v>3952</x:v>
       </x:c>
       <x:c r="D43" s="1" t="n">
-        <x:v>2558</x:v>
+        <x:v>2565</x:v>
       </x:c>
       <x:c r="E43" s="1" t="n">
         <x:v>173</x:v>
       </x:c>
       <x:c r="F43" s="1" t="n">
-        <x:v>322</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="G43" s="1" t="n">
         <x:v>10</x:v>
@@ -1750,7 +1750,7 @@
         <x:v>708</x:v>
       </x:c>
       <x:c r="I43" s="1" t="n">
-        <x:v>7713</x:v>
+        <x:v>7731</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:9">
@@ -2025,7 +2025,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D53" s="1" t="n">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E53" s="1" t="n">
         <x:v>7</x:v>
@@ -2040,7 +2040,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="I53" s="1" t="n">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:9">
@@ -2054,7 +2054,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="D54" s="1" t="n">
-        <x:v>241</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="E54" s="1" t="n">
         <x:v>9</x:v>
@@ -2069,7 +2069,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="I54" s="1" t="n">
-        <x:v>334</x:v>
+        <x:v>335</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:9">
@@ -2080,7 +2080,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C55" s="1" t="n">
-        <x:v>211</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="D55" s="1" t="n">
         <x:v>97</x:v>
@@ -2098,7 +2098,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="I55" s="1" t="n">
-        <x:v>389</x:v>
+        <x:v>390</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:9">
@@ -2138,7 +2138,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C57" s="1" t="n">
-        <x:v>246</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="D57" s="1" t="n">
         <x:v>110</x:v>
@@ -2156,7 +2156,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="I57" s="1" t="n">
-        <x:v>459</x:v>
+        <x:v>460</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:9">
@@ -2283,7 +2283,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C62" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D62" s="1" t="n">
         <x:v>94</x:v>
@@ -2301,7 +2301,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="I62" s="1" t="n">
-        <x:v>146</x:v>
+        <x:v>147</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:9">
@@ -2312,7 +2312,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C63" s="1" t="n">
-        <x:v>340</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="D63" s="1" t="n">
         <x:v>529</x:v>
@@ -2330,7 +2330,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="I63" s="1" t="n">
-        <x:v>1036</x:v>
+        <x:v>1037</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -717,13 +717,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>3690</x:v>
+        <x:v>3694</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>2190</x:v>
+        <x:v>2191</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
         <x:v>334</x:v>
@@ -732,10 +732,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>734</x:v>
+        <x:v>735</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>7121</x:v>
+        <x:v>7128</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -746,7 +746,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>463</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
         <x:v>427</x:v>
@@ -755,7 +755,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
         <x:v>3</x:v>
@@ -764,7 +764,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>1118</x:v>
+        <x:v>1120</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -775,25 +775,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>4153</x:v>
+        <x:v>4158</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>2617</x:v>
+        <x:v>2618</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>178</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>403</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>15</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>873</x:v>
+        <x:v>874</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>8239</x:v>
+        <x:v>8248</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -862,7 +862,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>367</x:v>
+        <x:v>368</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>289</x:v>
@@ -880,7 +880,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>767</x:v>
+        <x:v>768</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -920,7 +920,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>405</x:v>
+        <x:v>406</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>307</x:v>
@@ -938,7 +938,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>849</x:v>
+        <x:v>850</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -949,10 +949,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>159</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
         <x:v>9</x:v>
@@ -967,7 +967,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>276</x:v>
+        <x:v>280</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -1007,10 +1007,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C18" s="1" t="n">
-        <x:v>159</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E18" s="1" t="n">
         <x:v>9</x:v>
@@ -1025,7 +1025,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="I18" s="1" t="n">
-        <x:v>280</x:v>
+        <x:v>284</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
@@ -1123,13 +1123,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>2039</x:v>
+        <x:v>2041</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
         <x:v>980</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
         <x:v>269</x:v>
@@ -1141,7 +1141,7 @@
         <x:v>454</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>3822</x:v>
+        <x:v>3825</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1181,13 +1181,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>2106</x:v>
+        <x:v>2108</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
         <x:v>995</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="F24" s="1" t="n">
         <x:v>271</x:v>
@@ -1199,7 +1199,7 @@
         <x:v>474</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>3932</x:v>
+        <x:v>3935</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1297,10 +1297,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C28" s="1" t="n">
-        <x:v>501</x:v>
+        <x:v>502</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
-        <x:v>338</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
         <x:v>27</x:v>
@@ -1315,7 +1315,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="I28" s="1" t="n">
-        <x:v>1061</x:v>
+        <x:v>1063</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:9">
@@ -1355,10 +1355,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C30" s="1" t="n">
-        <x:v>523</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="D30" s="1" t="n">
-        <x:v>356</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="E30" s="1" t="n">
         <x:v>27</x:v>
@@ -1373,7 +1373,7 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="I30" s="1" t="n">
-        <x:v>1108</x:v>
+        <x:v>1110</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:9">
@@ -1674,10 +1674,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C41" s="1" t="n">
-        <x:v>3590</x:v>
+        <x:v>3591</x:v>
       </x:c>
       <x:c r="D41" s="1" t="n">
-        <x:v>2321</x:v>
+        <x:v>2323</x:v>
       </x:c>
       <x:c r="E41" s="1" t="n">
         <x:v>150</x:v>
@@ -1692,7 +1692,7 @@
         <x:v>653</x:v>
       </x:c>
       <x:c r="I41" s="1" t="n">
-        <x:v>7023</x:v>
+        <x:v>7026</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9">
@@ -1706,7 +1706,7 @@
         <x:v>362</x:v>
       </x:c>
       <x:c r="D42" s="1" t="n">
-        <x:v>244</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="E42" s="1" t="n">
         <x:v>23</x:v>
@@ -1721,7 +1721,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="I42" s="1" t="n">
-        <x:v>708</x:v>
+        <x:v>709</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:9">
@@ -1732,10 +1732,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C43" s="1" t="n">
-        <x:v>3952</x:v>
+        <x:v>3953</x:v>
       </x:c>
       <x:c r="D43" s="1" t="n">
-        <x:v>2565</x:v>
+        <x:v>2568</x:v>
       </x:c>
       <x:c r="E43" s="1" t="n">
         <x:v>173</x:v>
@@ -1750,7 +1750,7 @@
         <x:v>708</x:v>
       </x:c>
       <x:c r="I43" s="1" t="n">
-        <x:v>7731</x:v>
+        <x:v>7735</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:9">
@@ -1848,7 +1848,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
         <x:v>7</x:v>
@@ -1866,7 +1866,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -1906,7 +1906,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C49" s="1" t="n">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D49" s="1" t="n">
         <x:v>9</x:v>
@@ -1924,7 +1924,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="I49" s="1" t="n">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:9">
@@ -2254,7 +2254,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C61" s="1" t="n">
-        <x:v>308</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="D61" s="1" t="n">
         <x:v>435</x:v>
@@ -2272,7 +2272,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="I61" s="1" t="n">
-        <x:v>890</x:v>
+        <x:v>889</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
@@ -2312,7 +2312,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C63" s="1" t="n">
-        <x:v>341</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="D63" s="1" t="n">
         <x:v>529</x:v>
@@ -2330,7 +2330,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="I63" s="1" t="n">
-        <x:v>1037</x:v>
+        <x:v>1036</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -543,7 +543,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
         <x:v>9</x:v>
@@ -561,7 +561,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>48</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -601,7 +601,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
         <x:v>10</x:v>
@@ -619,7 +619,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>50</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -717,10 +717,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>3694</x:v>
+        <x:v>3698</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>2191</x:v>
+        <x:v>2192</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>162</x:v>
@@ -735,7 +735,7 @@
         <x:v>735</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>7128</x:v>
+        <x:v>7133</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -775,10 +775,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>4158</x:v>
+        <x:v>4162</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>2618</x:v>
+        <x:v>2619</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>179</x:v>
@@ -793,7 +793,7 @@
         <x:v>874</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>8248</x:v>
+        <x:v>8253</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -1036,7 +1036,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>394</x:v>
+        <x:v>397</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
         <x:v>211</x:v>
@@ -1054,7 +1054,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>755</x:v>
+        <x:v>758</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1094,7 +1094,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>471</x:v>
+        <x:v>474</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
         <x:v>270</x:v>
@@ -1112,7 +1112,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>921</x:v>
+        <x:v>924</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1123,10 +1123,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>2041</x:v>
+        <x:v>2042</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>980</x:v>
+        <x:v>981</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>73</x:v>
@@ -1141,7 +1141,7 @@
         <x:v>454</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>3825</x:v>
+        <x:v>3827</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1181,10 +1181,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>2108</x:v>
+        <x:v>2109</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>995</x:v>
+        <x:v>996</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>79</x:v>
@@ -1199,7 +1199,7 @@
         <x:v>474</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>3935</x:v>
+        <x:v>3937</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1297,10 +1297,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C28" s="1" t="n">
-        <x:v>502</x:v>
+        <x:v>503</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
-        <x:v>339</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
         <x:v>27</x:v>
@@ -1315,7 +1315,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="I28" s="1" t="n">
-        <x:v>1063</x:v>
+        <x:v>1065</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:9">
@@ -1355,10 +1355,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C30" s="1" t="n">
-        <x:v>524</x:v>
+        <x:v>525</x:v>
       </x:c>
       <x:c r="D30" s="1" t="n">
-        <x:v>357</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="E30" s="1" t="n">
         <x:v>27</x:v>
@@ -1373,7 +1373,7 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="I30" s="1" t="n">
-        <x:v>1110</x:v>
+        <x:v>1112</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:9">
@@ -1486,10 +1486,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H34" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I34" s="1" t="n">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:9">
@@ -1544,10 +1544,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H36" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I36" s="1" t="n">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:9">
@@ -1674,10 +1674,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C41" s="1" t="n">
-        <x:v>3591</x:v>
+        <x:v>3589</x:v>
       </x:c>
       <x:c r="D41" s="1" t="n">
-        <x:v>2323</x:v>
+        <x:v>2327</x:v>
       </x:c>
       <x:c r="E41" s="1" t="n">
         <x:v>150</x:v>
@@ -1689,10 +1689,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="H41" s="1" t="n">
-        <x:v>653</x:v>
+        <x:v>654</x:v>
       </x:c>
       <x:c r="I41" s="1" t="n">
-        <x:v>7026</x:v>
+        <x:v>7029</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9">
@@ -1732,10 +1732,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C43" s="1" t="n">
-        <x:v>3953</x:v>
+        <x:v>3951</x:v>
       </x:c>
       <x:c r="D43" s="1" t="n">
-        <x:v>2568</x:v>
+        <x:v>2572</x:v>
       </x:c>
       <x:c r="E43" s="1" t="n">
         <x:v>173</x:v>
@@ -1747,10 +1747,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="H43" s="1" t="n">
-        <x:v>708</x:v>
+        <x:v>709</x:v>
       </x:c>
       <x:c r="I43" s="1" t="n">
-        <x:v>7735</x:v>
+        <x:v>7738</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:9">
@@ -1761,7 +1761,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C44" s="1" t="n">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D44" s="1" t="n">
         <x:v>84</x:v>
@@ -1779,7 +1779,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="I44" s="1" t="n">
-        <x:v>261</x:v>
+        <x:v>262</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:9">
@@ -1819,7 +1819,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C46" s="1" t="n">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="D46" s="1" t="n">
         <x:v>142</x:v>
@@ -1837,7 +1837,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="I46" s="1" t="n">
-        <x:v>351</x:v>
+        <x:v>352</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
@@ -1996,7 +1996,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="D52" s="1" t="n">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="E52" s="1" t="n">
         <x:v>2</x:v>
@@ -2011,7 +2011,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="I52" s="1" t="n">
-        <x:v>227</x:v>
+        <x:v>228</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:9">
@@ -2025,7 +2025,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D53" s="1" t="n">
-        <x:v>77</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E53" s="1" t="n">
         <x:v>7</x:v>
@@ -2040,7 +2040,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="I53" s="1" t="n">
-        <x:v>108</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:9">
@@ -2054,7 +2054,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="D54" s="1" t="n">
-        <x:v>242</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="E54" s="1" t="n">
         <x:v>9</x:v>
@@ -2069,7 +2069,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="I54" s="1" t="n">
-        <x:v>335</x:v>
+        <x:v>340</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:9">
@@ -2170,22 +2170,22 @@
         <x:v>224</x:v>
       </x:c>
       <x:c r="D58" s="1" t="n">
-        <x:v>220</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="E58" s="1" t="n">
         <x:v>16</x:v>
       </x:c>
       <x:c r="F58" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G58" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H58" s="1" t="n">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="I58" s="1" t="n">
-        <x:v>555</x:v>
+        <x:v>558</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">
@@ -2228,22 +2228,22 @@
         <x:v>233</x:v>
       </x:c>
       <x:c r="D60" s="1" t="n">
-        <x:v>299</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="E60" s="1" t="n">
         <x:v>19</x:v>
       </x:c>
       <x:c r="F60" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G60" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H60" s="1" t="n">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="I60" s="1" t="n">
-        <x:v>661</x:v>
+        <x:v>664</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">
@@ -2257,7 +2257,7 @@
         <x:v>307</x:v>
       </x:c>
       <x:c r="D61" s="1" t="n">
-        <x:v>435</x:v>
+        <x:v>436</x:v>
       </x:c>
       <x:c r="E61" s="1" t="n">
         <x:v>31</x:v>
@@ -2269,7 +2269,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H61" s="1" t="n">
-        <x:v>83</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="I61" s="1" t="n">
         <x:v>889</x:v>
@@ -2286,13 +2286,13 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="D62" s="1" t="n">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E62" s="1" t="n">
         <x:v>6</x:v>
       </x:c>
       <x:c r="F62" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G62" s="1" t="n">
         <x:v>0</x:v>
@@ -2301,7 +2301,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="I62" s="1" t="n">
-        <x:v>147</x:v>
+        <x:v>149</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:9">
@@ -2315,22 +2315,22 @@
         <x:v>340</x:v>
       </x:c>
       <x:c r="D63" s="1" t="n">
-        <x:v>529</x:v>
+        <x:v>531</x:v>
       </x:c>
       <x:c r="E63" s="1" t="n">
         <x:v>37</x:v>
       </x:c>
       <x:c r="F63" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G63" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H63" s="1" t="n">
-        <x:v>95</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="I63" s="1" t="n">
-        <x:v>1036</x:v>
+        <x:v>1038</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -717,10 +717,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>3698</x:v>
+        <x:v>3701</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>2192</x:v>
+        <x:v>2193</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>162</x:v>
@@ -735,7 +735,7 @@
         <x:v>735</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>7133</x:v>
+        <x:v>7137</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -746,7 +746,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>464</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
         <x:v>427</x:v>
@@ -764,7 +764,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>1120</x:v>
+        <x:v>1121</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -775,10 +775,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>4162</x:v>
+        <x:v>4166</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>2619</x:v>
+        <x:v>2620</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>179</x:v>
@@ -793,7 +793,7 @@
         <x:v>874</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>8253</x:v>
+        <x:v>8258</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -862,7 +862,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>368</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>289</x:v>
@@ -880,7 +880,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>768</x:v>
+        <x:v>769</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -920,7 +920,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>406</x:v>
+        <x:v>407</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>307</x:v>
@@ -938,7 +938,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>850</x:v>
+        <x:v>851</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -949,7 +949,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>162</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
         <x:v>74</x:v>
@@ -967,7 +967,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>280</x:v>
+        <x:v>281</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -1007,7 +1007,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C18" s="1" t="n">
-        <x:v>162</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
         <x:v>77</x:v>
@@ -1025,7 +1025,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="I18" s="1" t="n">
-        <x:v>284</x:v>
+        <x:v>285</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
@@ -1036,10 +1036,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>397</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
-        <x:v>211</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
         <x:v>24</x:v>
@@ -1054,7 +1054,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>758</x:v>
+        <x:v>760</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1065,7 +1065,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>77</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
         <x:v>59</x:v>
@@ -1083,7 +1083,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>166</x:v>
+        <x:v>168</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1094,10 +1094,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>474</x:v>
+        <x:v>477</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
-        <x:v>270</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="E21" s="1" t="n">
         <x:v>26</x:v>
@@ -1112,7 +1112,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>924</x:v>
+        <x:v>928</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1123,10 +1123,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>2042</x:v>
+        <x:v>2046</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>981</x:v>
+        <x:v>980</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>73</x:v>
@@ -1141,7 +1141,7 @@
         <x:v>454</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>3827</x:v>
+        <x:v>3830</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1155,7 +1155,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
         <x:v>6</x:v>
@@ -1170,7 +1170,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1181,7 +1181,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>2109</x:v>
+        <x:v>2113</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
         <x:v>996</x:v>
@@ -1199,7 +1199,7 @@
         <x:v>474</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>3937</x:v>
+        <x:v>3941</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1297,7 +1297,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C28" s="1" t="n">
-        <x:v>503</x:v>
+        <x:v>505</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
         <x:v>340</x:v>
@@ -1315,7 +1315,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="I28" s="1" t="n">
-        <x:v>1065</x:v>
+        <x:v>1067</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:9">
@@ -1355,7 +1355,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C30" s="1" t="n">
-        <x:v>525</x:v>
+        <x:v>527</x:v>
       </x:c>
       <x:c r="D30" s="1" t="n">
         <x:v>358</x:v>
@@ -1373,7 +1373,7 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="I30" s="1" t="n">
-        <x:v>1112</x:v>
+        <x:v>1114</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:9">
@@ -1674,10 +1674,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C41" s="1" t="n">
-        <x:v>3589</x:v>
+        <x:v>3593</x:v>
       </x:c>
       <x:c r="D41" s="1" t="n">
-        <x:v>2327</x:v>
+        <x:v>2331</x:v>
       </x:c>
       <x:c r="E41" s="1" t="n">
         <x:v>150</x:v>
@@ -1692,7 +1692,7 @@
         <x:v>654</x:v>
       </x:c>
       <x:c r="I41" s="1" t="n">
-        <x:v>7029</x:v>
+        <x:v>7037</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9">
@@ -1706,7 +1706,7 @@
         <x:v>362</x:v>
       </x:c>
       <x:c r="D42" s="1" t="n">
-        <x:v>245</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="E42" s="1" t="n">
         <x:v>23</x:v>
@@ -1721,7 +1721,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="I42" s="1" t="n">
-        <x:v>709</x:v>
+        <x:v>710</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:9">
@@ -1732,10 +1732,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C43" s="1" t="n">
-        <x:v>3951</x:v>
+        <x:v>3955</x:v>
       </x:c>
       <x:c r="D43" s="1" t="n">
-        <x:v>2572</x:v>
+        <x:v>2577</x:v>
       </x:c>
       <x:c r="E43" s="1" t="n">
         <x:v>173</x:v>
@@ -1750,7 +1750,7 @@
         <x:v>709</x:v>
       </x:c>
       <x:c r="I43" s="1" t="n">
-        <x:v>7738</x:v>
+        <x:v>7747</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:9">
@@ -2080,10 +2080,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C55" s="1" t="n">
-        <x:v>212</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="D55" s="1" t="n">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="E55" s="1" t="n">
         <x:v>11</x:v>
@@ -2098,7 +2098,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="I55" s="1" t="n">
-        <x:v>390</x:v>
+        <x:v>392</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:9">
@@ -2124,10 +2124,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H56" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="I56" s="1" t="n">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:9">
@@ -2138,10 +2138,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C57" s="1" t="n">
-        <x:v>247</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="D57" s="1" t="n">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="E57" s="1" t="n">
         <x:v>12</x:v>
@@ -2153,10 +2153,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H57" s="1" t="n">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="I57" s="1" t="n">
-        <x:v>460</x:v>
+        <x:v>463</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:9">
@@ -2167,7 +2167,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C58" s="1" t="n">
-        <x:v>224</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="D58" s="1" t="n">
         <x:v>221</x:v>
@@ -2185,7 +2185,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="I58" s="1" t="n">
-        <x:v>558</x:v>
+        <x:v>559</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">
@@ -2225,7 +2225,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C60" s="1" t="n">
-        <x:v>233</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="D60" s="1" t="n">
         <x:v>300</x:v>
@@ -2243,7 +2243,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="I60" s="1" t="n">
-        <x:v>664</x:v>
+        <x:v>665</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -717,25 +717,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>3701</x:v>
+        <x:v>3709</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>2193</x:v>
+        <x:v>2200</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>162</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>334</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
         <x:v>12</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>735</x:v>
+        <x:v>734</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>7137</x:v>
+        <x:v>7152</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -746,10 +746,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>465</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>427</x:v>
+        <x:v>428</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
         <x:v>17</x:v>
@@ -764,7 +764,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>1121</x:v>
+        <x:v>1124</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -775,25 +775,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>4166</x:v>
+        <x:v>4176</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>2620</x:v>
+        <x:v>2628</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>179</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>404</x:v>
+        <x:v>405</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>15</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>874</x:v>
+        <x:v>873</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>8258</x:v>
+        <x:v>8276</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -865,7 +865,7 @@
         <x:v>369</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>289</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>22</x:v>
@@ -880,7 +880,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>769</x:v>
+        <x:v>770</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -923,7 +923,7 @@
         <x:v>407</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>307</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
         <x:v>23</x:v>
@@ -938,7 +938,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>851</x:v>
+        <x:v>852</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -949,7 +949,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>163</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
         <x:v>74</x:v>
@@ -967,7 +967,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>281</x:v>
+        <x:v>282</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -1007,7 +1007,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C18" s="1" t="n">
-        <x:v>163</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
         <x:v>77</x:v>
@@ -1025,7 +1025,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="I18" s="1" t="n">
-        <x:v>285</x:v>
+        <x:v>286</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
@@ -1036,7 +1036,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>398</x:v>
+        <x:v>399</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
         <x:v>212</x:v>
@@ -1054,7 +1054,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>760</x:v>
+        <x:v>761</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1068,7 +1068,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
         <x:v>2</x:v>
@@ -1083,7 +1083,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1094,10 +1094,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>477</x:v>
+        <x:v>478</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
-        <x:v>271</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="E21" s="1" t="n">
         <x:v>26</x:v>
@@ -1112,7 +1112,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>928</x:v>
+        <x:v>930</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1123,7 +1123,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>2046</x:v>
+        <x:v>2047</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
         <x:v>980</x:v>
@@ -1141,7 +1141,7 @@
         <x:v>454</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>3830</x:v>
+        <x:v>3831</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1181,7 +1181,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>2113</x:v>
+        <x:v>2114</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
         <x:v>996</x:v>
@@ -1199,7 +1199,7 @@
         <x:v>474</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>3941</x:v>
+        <x:v>3942</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1297,10 +1297,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C28" s="1" t="n">
-        <x:v>505</x:v>
+        <x:v>507</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
-        <x:v>340</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
         <x:v>27</x:v>
@@ -1315,7 +1315,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="I28" s="1" t="n">
-        <x:v>1067</x:v>
+        <x:v>1070</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:9">
@@ -1355,10 +1355,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C30" s="1" t="n">
-        <x:v>527</x:v>
+        <x:v>529</x:v>
       </x:c>
       <x:c r="D30" s="1" t="n">
-        <x:v>358</x:v>
+        <x:v>359</x:v>
       </x:c>
       <x:c r="E30" s="1" t="n">
         <x:v>27</x:v>
@@ -1373,7 +1373,7 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="I30" s="1" t="n">
-        <x:v>1114</x:v>
+        <x:v>1117</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:9">
@@ -1486,10 +1486,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H34" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I34" s="1" t="n">
-        <x:v>54</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:9">
@@ -1544,10 +1544,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H36" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I36" s="1" t="n">
-        <x:v>61</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:9">
@@ -1674,7 +1674,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C41" s="1" t="n">
-        <x:v>3593</x:v>
+        <x:v>3598</x:v>
       </x:c>
       <x:c r="D41" s="1" t="n">
         <x:v>2331</x:v>
@@ -1683,16 +1683,16 @@
         <x:v>150</x:v>
       </x:c>
       <x:c r="F41" s="1" t="n">
-        <x:v>300</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="G41" s="1" t="n">
         <x:v>9</x:v>
       </x:c>
       <x:c r="H41" s="1" t="n">
-        <x:v>654</x:v>
+        <x:v>656</x:v>
       </x:c>
       <x:c r="I41" s="1" t="n">
-        <x:v>7037</x:v>
+        <x:v>7045</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9">
@@ -1703,7 +1703,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C42" s="1" t="n">
-        <x:v>362</x:v>
+        <x:v>363</x:v>
       </x:c>
       <x:c r="D42" s="1" t="n">
         <x:v>246</x:v>
@@ -1721,7 +1721,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="I42" s="1" t="n">
-        <x:v>710</x:v>
+        <x:v>711</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:9">
@@ -1732,7 +1732,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C43" s="1" t="n">
-        <x:v>3955</x:v>
+        <x:v>3961</x:v>
       </x:c>
       <x:c r="D43" s="1" t="n">
         <x:v>2577</x:v>
@@ -1741,16 +1741,16 @@
         <x:v>173</x:v>
       </x:c>
       <x:c r="F43" s="1" t="n">
-        <x:v>323</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="G43" s="1" t="n">
         <x:v>10</x:v>
       </x:c>
       <x:c r="H43" s="1" t="n">
-        <x:v>709</x:v>
+        <x:v>711</x:v>
       </x:c>
       <x:c r="I43" s="1" t="n">
-        <x:v>7747</x:v>
+        <x:v>7756</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:9">
@@ -1793,7 +1793,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E45" s="1" t="n">
         <x:v>6</x:v>
@@ -1808,7 +1808,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1822,7 +1822,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="D46" s="1" t="n">
-        <x:v>142</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="E46" s="1" t="n">
         <x:v>17</x:v>
@@ -1837,7 +1837,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="I46" s="1" t="n">
-        <x:v>352</x:v>
+        <x:v>353</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
@@ -2083,7 +2083,7 @@
         <x:v>213</x:v>
       </x:c>
       <x:c r="D55" s="1" t="n">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E55" s="1" t="n">
         <x:v>11</x:v>
@@ -2098,7 +2098,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="I55" s="1" t="n">
-        <x:v>392</x:v>
+        <x:v>393</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:9">
@@ -2141,7 +2141,7 @@
         <x:v>248</x:v>
       </x:c>
       <x:c r="D57" s="1" t="n">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="E57" s="1" t="n">
         <x:v>12</x:v>
@@ -2156,7 +2156,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="I57" s="1" t="n">
-        <x:v>463</x:v>
+        <x:v>464</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:9">
@@ -2167,10 +2167,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C58" s="1" t="n">
-        <x:v>225</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="D58" s="1" t="n">
-        <x:v>221</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="E58" s="1" t="n">
         <x:v>16</x:v>
@@ -2182,10 +2182,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H58" s="1" t="n">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="I58" s="1" t="n">
-        <x:v>559</x:v>
+        <x:v>562</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">
@@ -2225,10 +2225,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C60" s="1" t="n">
-        <x:v>234</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="D60" s="1" t="n">
-        <x:v>300</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="E60" s="1" t="n">
         <x:v>19</x:v>
@@ -2240,10 +2240,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H60" s="1" t="n">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I60" s="1" t="n">
-        <x:v>665</x:v>
+        <x:v>668</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">
@@ -2254,10 +2254,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C61" s="1" t="n">
-        <x:v>307</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="D61" s="1" t="n">
-        <x:v>436</x:v>
+        <x:v>437</x:v>
       </x:c>
       <x:c r="E61" s="1" t="n">
         <x:v>31</x:v>
@@ -2272,7 +2272,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="I61" s="1" t="n">
-        <x:v>889</x:v>
+        <x:v>892</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
@@ -2312,10 +2312,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C63" s="1" t="n">
-        <x:v>340</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="D63" s="1" t="n">
-        <x:v>531</x:v>
+        <x:v>532</x:v>
       </x:c>
       <x:c r="E63" s="1" t="n">
         <x:v>37</x:v>
@@ -2330,7 +2330,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="I63" s="1" t="n">
-        <x:v>1038</x:v>
+        <x:v>1041</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -720,22 +720,22 @@
         <x:v>3709</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>2200</x:v>
+        <x:v>2201</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>162</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>335</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
         <x:v>12</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>734</x:v>
+        <x:v>737</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>7152</x:v>
+        <x:v>7160</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -749,7 +749,7 @@
         <x:v>467</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>428</x:v>
+        <x:v>429</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
         <x:v>17</x:v>
@@ -764,7 +764,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>1124</x:v>
+        <x:v>1125</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -778,22 +778,22 @@
         <x:v>4176</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>2628</x:v>
+        <x:v>2630</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>179</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>405</x:v>
+        <x:v>408</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>15</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>873</x:v>
+        <x:v>876</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>8276</x:v>
+        <x:v>8285</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -862,7 +862,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>369</x:v>
+        <x:v>370</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>290</x:v>
@@ -880,7 +880,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>770</x:v>
+        <x:v>771</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -920,7 +920,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>407</x:v>
+        <x:v>408</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>308</x:v>
@@ -938,7 +938,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>852</x:v>
+        <x:v>853</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -952,7 +952,7 @@
         <x:v>164</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
         <x:v>9</x:v>
@@ -967,7 +967,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>282</x:v>
+        <x:v>283</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -1010,7 +1010,7 @@
         <x:v>164</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E18" s="1" t="n">
         <x:v>9</x:v>
@@ -1025,7 +1025,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="I18" s="1" t="n">
-        <x:v>286</x:v>
+        <x:v>287</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
@@ -1065,7 +1065,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
         <x:v>60</x:v>
@@ -1080,7 +1080,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H20" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
         <x:v>169</x:v>
@@ -1094,7 +1094,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>478</x:v>
+        <x:v>477</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
         <x:v>272</x:v>
@@ -1109,7 +1109,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H21" s="1" t="n">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
         <x:v>930</x:v>
@@ -1123,10 +1123,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>2047</x:v>
+        <x:v>2052</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>980</x:v>
+        <x:v>983</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>73</x:v>
@@ -1138,10 +1138,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
-        <x:v>454</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>3831</x:v>
+        <x:v>3840</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1181,10 +1181,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>2114</x:v>
+        <x:v>2119</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>996</x:v>
+        <x:v>999</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>79</x:v>
@@ -1196,10 +1196,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="H24" s="1" t="n">
-        <x:v>474</x:v>
+        <x:v>475</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>3942</x:v>
+        <x:v>3951</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1297,7 +1297,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C28" s="1" t="n">
-        <x:v>507</x:v>
+        <x:v>508</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
         <x:v>341</x:v>
@@ -1315,7 +1315,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="I28" s="1" t="n">
-        <x:v>1070</x:v>
+        <x:v>1071</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:9">
@@ -1355,7 +1355,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C30" s="1" t="n">
-        <x:v>529</x:v>
+        <x:v>530</x:v>
       </x:c>
       <x:c r="D30" s="1" t="n">
         <x:v>359</x:v>
@@ -1373,7 +1373,7 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="I30" s="1" t="n">
-        <x:v>1117</x:v>
+        <x:v>1118</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:9">
@@ -1674,13 +1674,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C41" s="1" t="n">
-        <x:v>3598</x:v>
+        <x:v>3601</x:v>
       </x:c>
       <x:c r="D41" s="1" t="n">
         <x:v>2331</x:v>
       </x:c>
       <x:c r="E41" s="1" t="n">
-        <x:v>150</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="F41" s="1" t="n">
         <x:v>301</x:v>
@@ -1689,10 +1689,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="H41" s="1" t="n">
-        <x:v>656</x:v>
+        <x:v>657</x:v>
       </x:c>
       <x:c r="I41" s="1" t="n">
-        <x:v>7045</x:v>
+        <x:v>7050</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9">
@@ -1706,7 +1706,7 @@
         <x:v>363</x:v>
       </x:c>
       <x:c r="D42" s="1" t="n">
-        <x:v>246</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="E42" s="1" t="n">
         <x:v>23</x:v>
@@ -1721,7 +1721,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="I42" s="1" t="n">
-        <x:v>711</x:v>
+        <x:v>712</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:9">
@@ -1732,13 +1732,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C43" s="1" t="n">
-        <x:v>3961</x:v>
+        <x:v>3964</x:v>
       </x:c>
       <x:c r="D43" s="1" t="n">
-        <x:v>2577</x:v>
+        <x:v>2578</x:v>
       </x:c>
       <x:c r="E43" s="1" t="n">
-        <x:v>173</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="F43" s="1" t="n">
         <x:v>324</x:v>
@@ -1747,10 +1747,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="H43" s="1" t="n">
-        <x:v>711</x:v>
+        <x:v>712</x:v>
       </x:c>
       <x:c r="I43" s="1" t="n">
-        <x:v>7756</x:v>
+        <x:v>7762</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:9">
@@ -2080,10 +2080,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C55" s="1" t="n">
-        <x:v>213</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="D55" s="1" t="n">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="E55" s="1" t="n">
         <x:v>11</x:v>
@@ -2098,7 +2098,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="I55" s="1" t="n">
-        <x:v>393</x:v>
+        <x:v>395</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:9">
@@ -2138,10 +2138,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C57" s="1" t="n">
-        <x:v>248</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="D57" s="1" t="n">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="E57" s="1" t="n">
         <x:v>12</x:v>
@@ -2156,7 +2156,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="I57" s="1" t="n">
-        <x:v>464</x:v>
+        <x:v>466</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:9">
@@ -2176,7 +2176,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="F58" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G58" s="1" t="n">
         <x:v>2</x:v>
@@ -2185,7 +2185,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="I58" s="1" t="n">
-        <x:v>562</x:v>
+        <x:v>563</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">
@@ -2205,7 +2205,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="F59" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G59" s="1" t="n">
         <x:v>0</x:v>
@@ -2214,7 +2214,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="I59" s="1" t="n">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9">
@@ -2234,7 +2234,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="F60" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="G60" s="1" t="n">
         <x:v>2</x:v>
@@ -2243,7 +2243,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="I60" s="1" t="n">
-        <x:v>668</x:v>
+        <x:v>670</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">
@@ -2257,7 +2257,7 @@
         <x:v>309</x:v>
       </x:c>
       <x:c r="D61" s="1" t="n">
-        <x:v>437</x:v>
+        <x:v>439</x:v>
       </x:c>
       <x:c r="E61" s="1" t="n">
         <x:v>31</x:v>
@@ -2272,7 +2272,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="I61" s="1" t="n">
-        <x:v>892</x:v>
+        <x:v>894</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
@@ -2315,7 +2315,7 @@
         <x:v>342</x:v>
       </x:c>
       <x:c r="D63" s="1" t="n">
-        <x:v>532</x:v>
+        <x:v>534</x:v>
       </x:c>
       <x:c r="E63" s="1" t="n">
         <x:v>37</x:v>
@@ -2330,7 +2330,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="I63" s="1" t="n">
-        <x:v>1041</x:v>
+        <x:v>1043</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -1036,10 +1036,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>399</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
-        <x:v>212</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
         <x:v>24</x:v>
@@ -1054,7 +1054,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>761</x:v>
+        <x:v>763</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1094,10 +1094,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>477</x:v>
+        <x:v>478</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
-        <x:v>272</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="E21" s="1" t="n">
         <x:v>26</x:v>
@@ -1112,7 +1112,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>930</x:v>
+        <x:v>932</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1123,10 +1123,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>2052</x:v>
+        <x:v>2053</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>983</x:v>
+        <x:v>984</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>73</x:v>
@@ -1141,7 +1141,7 @@
         <x:v>455</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>3840</x:v>
+        <x:v>3842</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1181,10 +1181,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>2119</x:v>
+        <x:v>2120</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>999</x:v>
+        <x:v>1000</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>79</x:v>
@@ -1199,7 +1199,7 @@
         <x:v>475</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>3951</x:v>
+        <x:v>3953</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1674,10 +1674,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C41" s="1" t="n">
-        <x:v>3601</x:v>
+        <x:v>3603</x:v>
       </x:c>
       <x:c r="D41" s="1" t="n">
-        <x:v>2331</x:v>
+        <x:v>2332</x:v>
       </x:c>
       <x:c r="E41" s="1" t="n">
         <x:v>151</x:v>
@@ -1692,7 +1692,7 @@
         <x:v>657</x:v>
       </x:c>
       <x:c r="I41" s="1" t="n">
-        <x:v>7050</x:v>
+        <x:v>7053</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9">
@@ -1732,10 +1732,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C43" s="1" t="n">
-        <x:v>3964</x:v>
+        <x:v>3966</x:v>
       </x:c>
       <x:c r="D43" s="1" t="n">
-        <x:v>2578</x:v>
+        <x:v>2579</x:v>
       </x:c>
       <x:c r="E43" s="1" t="n">
         <x:v>174</x:v>
@@ -1750,7 +1750,7 @@
         <x:v>712</x:v>
       </x:c>
       <x:c r="I43" s="1" t="n">
-        <x:v>7762</x:v>
+        <x:v>7765</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:9">
@@ -2109,7 +2109,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C56" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D56" s="1" t="n">
         <x:v>13</x:v>
@@ -2127,7 +2127,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="I56" s="1" t="n">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:9">
@@ -2138,7 +2138,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C57" s="1" t="n">
-        <x:v>249</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="D57" s="1" t="n">
         <x:v>113</x:v>
@@ -2156,7 +2156,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="I57" s="1" t="n">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -717,7 +717,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>3709</x:v>
+        <x:v>3711</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
         <x:v>2201</x:v>
@@ -735,7 +735,7 @@
         <x:v>737</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>7160</x:v>
+        <x:v>7162</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -775,7 +775,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>4176</x:v>
+        <x:v>4178</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
         <x:v>2630</x:v>
@@ -793,7 +793,7 @@
         <x:v>876</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>8285</x:v>
+        <x:v>8287</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -1036,7 +1036,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>400</x:v>
+        <x:v>401</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
         <x:v>213</x:v>
@@ -1054,7 +1054,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>763</x:v>
+        <x:v>764</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1094,7 +1094,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>478</x:v>
+        <x:v>479</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
         <x:v>273</x:v>
@@ -1112,7 +1112,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>932</x:v>
+        <x:v>933</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1123,7 +1123,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>2053</x:v>
+        <x:v>2055</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
         <x:v>984</x:v>
@@ -1141,7 +1141,7 @@
         <x:v>455</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>3842</x:v>
+        <x:v>3844</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1181,7 +1181,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>2120</x:v>
+        <x:v>2122</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
         <x:v>1000</x:v>
@@ -1199,7 +1199,7 @@
         <x:v>475</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>3953</x:v>
+        <x:v>3955</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1297,10 +1297,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C28" s="1" t="n">
-        <x:v>508</x:v>
+        <x:v>509</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
-        <x:v>341</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
         <x:v>27</x:v>
@@ -1315,7 +1315,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="I28" s="1" t="n">
-        <x:v>1071</x:v>
+        <x:v>1073</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:9">
@@ -1355,10 +1355,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C30" s="1" t="n">
-        <x:v>530</x:v>
+        <x:v>531</x:v>
       </x:c>
       <x:c r="D30" s="1" t="n">
-        <x:v>359</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="E30" s="1" t="n">
         <x:v>27</x:v>
@@ -1373,7 +1373,7 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="I30" s="1" t="n">
-        <x:v>1118</x:v>
+        <x:v>1120</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:9">
@@ -1674,7 +1674,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C41" s="1" t="n">
-        <x:v>3603</x:v>
+        <x:v>3608</x:v>
       </x:c>
       <x:c r="D41" s="1" t="n">
         <x:v>2332</x:v>
@@ -1692,7 +1692,7 @@
         <x:v>657</x:v>
       </x:c>
       <x:c r="I41" s="1" t="n">
-        <x:v>7053</x:v>
+        <x:v>7058</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9">
@@ -1706,7 +1706,7 @@
         <x:v>363</x:v>
       </x:c>
       <x:c r="D42" s="1" t="n">
-        <x:v>247</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="E42" s="1" t="n">
         <x:v>23</x:v>
@@ -1721,7 +1721,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="I42" s="1" t="n">
-        <x:v>712</x:v>
+        <x:v>713</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:9">
@@ -1732,10 +1732,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C43" s="1" t="n">
-        <x:v>3966</x:v>
+        <x:v>3971</x:v>
       </x:c>
       <x:c r="D43" s="1" t="n">
-        <x:v>2579</x:v>
+        <x:v>2580</x:v>
       </x:c>
       <x:c r="E43" s="1" t="n">
         <x:v>174</x:v>
@@ -1750,7 +1750,7 @@
         <x:v>712</x:v>
       </x:c>
       <x:c r="I43" s="1" t="n">
-        <x:v>7765</x:v>
+        <x:v>7771</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:9">
@@ -2083,7 +2083,7 @@
         <x:v>214</x:v>
       </x:c>
       <x:c r="D55" s="1" t="n">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E55" s="1" t="n">
         <x:v>11</x:v>
@@ -2098,7 +2098,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="I55" s="1" t="n">
-        <x:v>395</x:v>
+        <x:v>396</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:9">
@@ -2112,7 +2112,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="D56" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E56" s="1" t="n">
         <x:v>1</x:v>
@@ -2127,7 +2127,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="I56" s="1" t="n">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:9">
@@ -2141,7 +2141,7 @@
         <x:v>250</x:v>
       </x:c>
       <x:c r="D57" s="1" t="n">
-        <x:v>113</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="E57" s="1" t="n">
         <x:v>12</x:v>
@@ -2156,7 +2156,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="I57" s="1" t="n">
-        <x:v>467</x:v>
+        <x:v>469</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:9">
@@ -2263,7 +2263,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="F61" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G61" s="1" t="n">
         <x:v>1</x:v>
@@ -2272,7 +2272,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="I61" s="1" t="n">
-        <x:v>894</x:v>
+        <x:v>896</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
@@ -2321,7 +2321,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="F63" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G63" s="1" t="n">
         <x:v>1</x:v>
@@ -2330,7 +2330,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="I63" s="1" t="n">
-        <x:v>1043</x:v>
+        <x:v>1045</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -717,16 +717,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>3711</x:v>
+        <x:v>3717</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>2201</x:v>
+        <x:v>2205</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>163</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>338</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
         <x:v>12</x:v>
@@ -735,7 +735,7 @@
         <x:v>737</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>7162</x:v>
+        <x:v>7173</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -749,7 +749,7 @@
         <x:v>467</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>429</x:v>
+        <x:v>430</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
         <x:v>17</x:v>
@@ -764,7 +764,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>1125</x:v>
+        <x:v>1126</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -775,16 +775,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>4178</x:v>
+        <x:v>4184</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>2630</x:v>
+        <x:v>2635</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>180</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>408</x:v>
+        <x:v>409</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>15</x:v>
@@ -793,7 +793,7 @@
         <x:v>876</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>8287</x:v>
+        <x:v>8299</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -862,7 +862,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>370</x:v>
+        <x:v>371</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>290</x:v>
@@ -880,7 +880,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>771</x:v>
+        <x:v>772</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -920,7 +920,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>408</x:v>
+        <x:v>409</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>308</x:v>
@@ -938,7 +938,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>853</x:v>
+        <x:v>854</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -952,7 +952,7 @@
         <x:v>164</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
         <x:v>9</x:v>
@@ -967,7 +967,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>283</x:v>
+        <x:v>284</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -1010,7 +1010,7 @@
         <x:v>164</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E18" s="1" t="n">
         <x:v>9</x:v>
@@ -1025,7 +1025,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="I18" s="1" t="n">
-        <x:v>287</x:v>
+        <x:v>288</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
@@ -1036,7 +1036,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>401</x:v>
+        <x:v>403</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
         <x:v>213</x:v>
@@ -1054,7 +1054,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>764</x:v>
+        <x:v>766</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1094,7 +1094,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>479</x:v>
+        <x:v>481</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
         <x:v>273</x:v>
@@ -1112,7 +1112,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>933</x:v>
+        <x:v>935</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1123,7 +1123,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>2055</x:v>
+        <x:v>2059</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
         <x:v>984</x:v>
@@ -1141,7 +1141,7 @@
         <x:v>455</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>3844</x:v>
+        <x:v>3848</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1181,7 +1181,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>2122</x:v>
+        <x:v>2126</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
         <x:v>1000</x:v>
@@ -1199,7 +1199,7 @@
         <x:v>475</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>3955</x:v>
+        <x:v>3959</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1297,10 +1297,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C28" s="1" t="n">
-        <x:v>509</x:v>
+        <x:v>512</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
-        <x:v>342</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
         <x:v>27</x:v>
@@ -1315,7 +1315,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="I28" s="1" t="n">
-        <x:v>1073</x:v>
+        <x:v>1080</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:9">
@@ -1355,10 +1355,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C30" s="1" t="n">
-        <x:v>531</x:v>
+        <x:v>534</x:v>
       </x:c>
       <x:c r="D30" s="1" t="n">
-        <x:v>360</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="E30" s="1" t="n">
         <x:v>27</x:v>
@@ -1373,7 +1373,7 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="I30" s="1" t="n">
-        <x:v>1120</x:v>
+        <x:v>1127</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:9">
@@ -1471,7 +1471,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C34" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D34" s="1" t="n">
         <x:v>37</x:v>
@@ -1489,7 +1489,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="I34" s="1" t="n">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:9">
@@ -1529,7 +1529,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C36" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D36" s="1" t="n">
         <x:v>40</x:v>
@@ -1547,7 +1547,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="I36" s="1" t="n">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:9">
@@ -1616,7 +1616,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C39" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D39" s="1" t="n">
         <x:v>18</x:v>
@@ -1634,7 +1634,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="I39" s="1" t="n">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:9">
@@ -1645,7 +1645,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C40" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D40" s="1" t="n">
         <x:v>18</x:v>
@@ -1663,7 +1663,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="I40" s="1" t="n">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:9">
@@ -1674,10 +1674,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C41" s="1" t="n">
-        <x:v>3608</x:v>
+        <x:v>3614</x:v>
       </x:c>
       <x:c r="D41" s="1" t="n">
-        <x:v>2332</x:v>
+        <x:v>2337</x:v>
       </x:c>
       <x:c r="E41" s="1" t="n">
         <x:v>151</x:v>
@@ -1692,7 +1692,7 @@
         <x:v>657</x:v>
       </x:c>
       <x:c r="I41" s="1" t="n">
-        <x:v>7058</x:v>
+        <x:v>7069</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9">
@@ -1703,7 +1703,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C42" s="1" t="n">
-        <x:v>363</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="D42" s="1" t="n">
         <x:v>248</x:v>
@@ -1721,7 +1721,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="I42" s="1" t="n">
-        <x:v>713</x:v>
+        <x:v>717</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:9">
@@ -1732,10 +1732,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C43" s="1" t="n">
-        <x:v>3971</x:v>
+        <x:v>3981</x:v>
       </x:c>
       <x:c r="D43" s="1" t="n">
-        <x:v>2580</x:v>
+        <x:v>2585</x:v>
       </x:c>
       <x:c r="E43" s="1" t="n">
         <x:v>174</x:v>
@@ -1750,7 +1750,7 @@
         <x:v>712</x:v>
       </x:c>
       <x:c r="I43" s="1" t="n">
-        <x:v>7771</x:v>
+        <x:v>7786</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:9">
@@ -1880,7 +1880,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D48" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E48" s="1" t="n">
         <x:v>0</x:v>
@@ -1895,7 +1895,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="I48" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:9">
@@ -1909,7 +1909,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="D49" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E49" s="1" t="n">
         <x:v>1</x:v>
@@ -1924,7 +1924,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="I49" s="1" t="n">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:9">
@@ -1993,7 +1993,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C52" s="1" t="n">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D52" s="1" t="n">
         <x:v>166</x:v>
@@ -2011,7 +2011,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="I52" s="1" t="n">
-        <x:v>228</x:v>
+        <x:v>229</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:9">
@@ -2051,7 +2051,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C54" s="1" t="n">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D54" s="1" t="n">
         <x:v>247</x:v>
@@ -2069,7 +2069,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="I54" s="1" t="n">
-        <x:v>340</x:v>
+        <x:v>341</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:9">
@@ -2109,7 +2109,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C56" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D56" s="1" t="n">
         <x:v>14</x:v>
@@ -2127,7 +2127,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="I56" s="1" t="n">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:9">
@@ -2138,7 +2138,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C57" s="1" t="n">
-        <x:v>250</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="D57" s="1" t="n">
         <x:v>115</x:v>
@@ -2156,7 +2156,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="I57" s="1" t="n">
-        <x:v>469</x:v>
+        <x:v>470</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:9">
@@ -2176,7 +2176,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="F58" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="G58" s="1" t="n">
         <x:v>2</x:v>
@@ -2185,7 +2185,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="I58" s="1" t="n">
-        <x:v>563</x:v>
+        <x:v>564</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">
@@ -2234,7 +2234,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="F60" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="G60" s="1" t="n">
         <x:v>2</x:v>
@@ -2243,7 +2243,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="I60" s="1" t="n">
-        <x:v>670</x:v>
+        <x:v>671</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">
@@ -2254,7 +2254,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C61" s="1" t="n">
-        <x:v>309</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="D61" s="1" t="n">
         <x:v>439</x:v>
@@ -2272,7 +2272,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="I61" s="1" t="n">
-        <x:v>896</x:v>
+        <x:v>897</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
@@ -2312,7 +2312,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C63" s="1" t="n">
-        <x:v>342</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="D63" s="1" t="n">
         <x:v>534</x:v>
@@ -2330,7 +2330,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="I63" s="1" t="n">
-        <x:v>1045</x:v>
+        <x:v>1046</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -720,13 +720,13 @@
         <x:v>3717</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>2205</x:v>
+        <x:v>2207</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>163</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>339</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
         <x:v>12</x:v>
@@ -735,7 +735,7 @@
         <x:v>737</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>7173</x:v>
+        <x:v>7176</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -778,13 +778,13 @@
         <x:v>4184</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>2635</x:v>
+        <x:v>2637</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>180</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>409</x:v>
+        <x:v>410</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>15</x:v>
@@ -793,7 +793,7 @@
         <x:v>876</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>8299</x:v>
+        <x:v>8302</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -862,7 +862,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>371</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>290</x:v>
@@ -880,7 +880,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>772</x:v>
+        <x:v>773</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -920,7 +920,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>409</x:v>
+        <x:v>410</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>308</x:v>
@@ -938,7 +938,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>854</x:v>
+        <x:v>855</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -1036,7 +1036,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>403</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
         <x:v>213</x:v>
@@ -1054,7 +1054,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>766</x:v>
+        <x:v>767</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1094,7 +1094,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>481</x:v>
+        <x:v>482</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
         <x:v>273</x:v>
@@ -1112,7 +1112,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>935</x:v>
+        <x:v>936</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1123,10 +1123,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>2059</x:v>
+        <x:v>2058</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>984</x:v>
+        <x:v>985</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>73</x:v>
@@ -1138,10 +1138,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
-        <x:v>455</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>3848</x:v>
+        <x:v>3850</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1181,10 +1181,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>2126</x:v>
+        <x:v>2125</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>1000</x:v>
+        <x:v>1001</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>79</x:v>
@@ -1196,10 +1196,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="H24" s="1" t="n">
-        <x:v>475</x:v>
+        <x:v>477</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>3959</x:v>
+        <x:v>3961</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1297,7 +1297,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C28" s="1" t="n">
-        <x:v>512</x:v>
+        <x:v>513</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
         <x:v>346</x:v>
@@ -1312,10 +1312,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H28" s="1" t="n">
-        <x:v>136</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="I28" s="1" t="n">
-        <x:v>1080</x:v>
+        <x:v>1082</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:9">
@@ -1355,7 +1355,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C30" s="1" t="n">
-        <x:v>534</x:v>
+        <x:v>535</x:v>
       </x:c>
       <x:c r="D30" s="1" t="n">
         <x:v>364</x:v>
@@ -1370,10 +1370,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H30" s="1" t="n">
-        <x:v>140</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="I30" s="1" t="n">
-        <x:v>1127</x:v>
+        <x:v>1129</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:9">
@@ -1674,7 +1674,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C41" s="1" t="n">
-        <x:v>3614</x:v>
+        <x:v>3615</x:v>
       </x:c>
       <x:c r="D41" s="1" t="n">
         <x:v>2337</x:v>
@@ -1692,7 +1692,7 @@
         <x:v>657</x:v>
       </x:c>
       <x:c r="I41" s="1" t="n">
-        <x:v>7069</x:v>
+        <x:v>7070</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9">
@@ -1732,7 +1732,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C43" s="1" t="n">
-        <x:v>3981</x:v>
+        <x:v>3982</x:v>
       </x:c>
       <x:c r="D43" s="1" t="n">
         <x:v>2585</x:v>
@@ -1750,7 +1750,7 @@
         <x:v>712</x:v>
       </x:c>
       <x:c r="I43" s="1" t="n">
-        <x:v>7786</x:v>
+        <x:v>7787</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:9">
@@ -2167,10 +2167,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C58" s="1" t="n">
-        <x:v>226</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="D58" s="1" t="n">
-        <x:v>222</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="E58" s="1" t="n">
         <x:v>16</x:v>
@@ -2185,7 +2185,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="I58" s="1" t="n">
-        <x:v>564</x:v>
+        <x:v>566</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">
@@ -2225,10 +2225,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C60" s="1" t="n">
-        <x:v>235</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="D60" s="1" t="n">
-        <x:v>301</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="E60" s="1" t="n">
         <x:v>19</x:v>
@@ -2243,7 +2243,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="I60" s="1" t="n">
-        <x:v>671</x:v>
+        <x:v>673</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -717,10 +717,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>3717</x:v>
+        <x:v>3721</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>2207</x:v>
+        <x:v>2211</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>163</x:v>
@@ -735,7 +735,7 @@
         <x:v>737</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>7176</x:v>
+        <x:v>7184</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -746,7 +746,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>467</x:v>
+        <x:v>469</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
         <x:v>430</x:v>
@@ -761,10 +761,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
-        <x:v>139</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>1126</x:v>
+        <x:v>1129</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -775,10 +775,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>4184</x:v>
+        <x:v>4190</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>2637</x:v>
+        <x:v>2641</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>180</x:v>
@@ -790,10 +790,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>876</x:v>
+        <x:v>877</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>8302</x:v>
+        <x:v>8313</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -862,7 +862,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>372</x:v>
+        <x:v>373</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>290</x:v>
@@ -877,10 +877,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>773</x:v>
+        <x:v>775</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -920,7 +920,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>410</x:v>
+        <x:v>411</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>308</x:v>
@@ -935,10 +935,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>855</x:v>
+        <x:v>857</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -1123,7 +1123,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>2058</x:v>
+        <x:v>2060</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
         <x:v>985</x:v>
@@ -1138,10 +1138,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
-        <x:v>457</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>3850</x:v>
+        <x:v>3854</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1181,7 +1181,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>2125</x:v>
+        <x:v>2127</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
         <x:v>1001</x:v>
@@ -1196,10 +1196,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="H24" s="1" t="n">
-        <x:v>477</x:v>
+        <x:v>479</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>3961</x:v>
+        <x:v>3965</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1297,13 +1297,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C28" s="1" t="n">
-        <x:v>513</x:v>
+        <x:v>515</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
         <x:v>346</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F28" s="1" t="n">
         <x:v>58</x:v>
@@ -1315,7 +1315,7 @@
         <x:v>137</x:v>
       </x:c>
       <x:c r="I28" s="1" t="n">
-        <x:v>1082</x:v>
+        <x:v>1085</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:9">
@@ -1355,13 +1355,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C30" s="1" t="n">
-        <x:v>535</x:v>
+        <x:v>537</x:v>
       </x:c>
       <x:c r="D30" s="1" t="n">
         <x:v>364</x:v>
       </x:c>
       <x:c r="E30" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F30" s="1" t="n">
         <x:v>61</x:v>
@@ -1373,7 +1373,7 @@
         <x:v>141</x:v>
       </x:c>
       <x:c r="I30" s="1" t="n">
-        <x:v>1129</x:v>
+        <x:v>1132</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:9">
@@ -1674,16 +1674,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C41" s="1" t="n">
-        <x:v>3615</x:v>
+        <x:v>3621</x:v>
       </x:c>
       <x:c r="D41" s="1" t="n">
-        <x:v>2337</x:v>
+        <x:v>2341</x:v>
       </x:c>
       <x:c r="E41" s="1" t="n">
         <x:v>151</x:v>
       </x:c>
       <x:c r="F41" s="1" t="n">
-        <x:v>301</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="G41" s="1" t="n">
         <x:v>9</x:v>
@@ -1692,7 +1692,7 @@
         <x:v>657</x:v>
       </x:c>
       <x:c r="I41" s="1" t="n">
-        <x:v>7070</x:v>
+        <x:v>7081</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9">
@@ -1706,7 +1706,7 @@
         <x:v>367</x:v>
       </x:c>
       <x:c r="D42" s="1" t="n">
-        <x:v>248</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="E42" s="1" t="n">
         <x:v>23</x:v>
@@ -1721,7 +1721,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="I42" s="1" t="n">
-        <x:v>717</x:v>
+        <x:v>718</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:9">
@@ -1732,16 +1732,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C43" s="1" t="n">
-        <x:v>3982</x:v>
+        <x:v>3988</x:v>
       </x:c>
       <x:c r="D43" s="1" t="n">
-        <x:v>2585</x:v>
+        <x:v>2590</x:v>
       </x:c>
       <x:c r="E43" s="1" t="n">
         <x:v>174</x:v>
       </x:c>
       <x:c r="F43" s="1" t="n">
-        <x:v>324</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="G43" s="1" t="n">
         <x:v>10</x:v>
@@ -1750,7 +1750,7 @@
         <x:v>712</x:v>
       </x:c>
       <x:c r="I43" s="1" t="n">
-        <x:v>7787</x:v>
+        <x:v>7799</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:9">
@@ -1848,7 +1848,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
         <x:v>7</x:v>
@@ -1866,7 +1866,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -1906,7 +1906,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C49" s="1" t="n">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D49" s="1" t="n">
         <x:v>10</x:v>
@@ -1924,7 +1924,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="I49" s="1" t="n">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:9">
@@ -2080,7 +2080,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C55" s="1" t="n">
-        <x:v>214</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="D55" s="1" t="n">
         <x:v>101</x:v>
@@ -2095,10 +2095,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H55" s="1" t="n">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="I55" s="1" t="n">
-        <x:v>396</x:v>
+        <x:v>398</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:9">
@@ -2138,7 +2138,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C57" s="1" t="n">
-        <x:v>251</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="D57" s="1" t="n">
         <x:v>115</x:v>
@@ -2153,10 +2153,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H57" s="1" t="n">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="I57" s="1" t="n">
-        <x:v>470</x:v>
+        <x:v>472</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:9">
@@ -2254,7 +2254,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C61" s="1" t="n">
-        <x:v>310</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="D61" s="1" t="n">
         <x:v>439</x:v>
@@ -2269,10 +2269,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H61" s="1" t="n">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="I61" s="1" t="n">
-        <x:v>897</x:v>
+        <x:v>899</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
@@ -2283,7 +2283,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C62" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D62" s="1" t="n">
         <x:v>95</x:v>
@@ -2301,7 +2301,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="I62" s="1" t="n">
-        <x:v>149</x:v>
+        <x:v>150</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:9">
@@ -2312,7 +2312,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C63" s="1" t="n">
-        <x:v>343</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="D63" s="1" t="n">
         <x:v>534</x:v>
@@ -2327,10 +2327,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H63" s="1" t="n">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="I63" s="1" t="n">
-        <x:v>1046</x:v>
+        <x:v>1049</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -717,10 +717,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>3721</x:v>
+        <x:v>3727</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>2211</x:v>
+        <x:v>2216</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>163</x:v>
@@ -732,10 +732,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>737</x:v>
+        <x:v>743</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>7184</x:v>
+        <x:v>7201</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -775,10 +775,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>4190</x:v>
+        <x:v>4196</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>2641</x:v>
+        <x:v>2646</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>180</x:v>
@@ -790,10 +790,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>877</x:v>
+        <x:v>883</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>8313</x:v>
+        <x:v>8330</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -865,7 +865,7 @@
         <x:v>373</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>290</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>22</x:v>
@@ -880,7 +880,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>775</x:v>
+        <x:v>774</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -923,7 +923,7 @@
         <x:v>411</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>308</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
         <x:v>23</x:v>
@@ -938,7 +938,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>857</x:v>
+        <x:v>856</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -1039,7 +1039,7 @@
         <x:v>404</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
-        <x:v>213</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
         <x:v>24</x:v>
@@ -1054,7 +1054,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>767</x:v>
+        <x:v>768</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1068,7 +1068,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>60</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
         <x:v>2</x:v>
@@ -1083,7 +1083,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>169</x:v>
+        <x:v>168</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1123,7 +1123,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>2060</x:v>
+        <x:v>2064</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
         <x:v>985</x:v>
@@ -1132,16 +1132,16 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
-        <x:v>269</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
         <x:v>8</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
-        <x:v>459</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>3854</x:v>
+        <x:v>3860</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1181,7 +1181,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>2127</x:v>
+        <x:v>2131</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
         <x:v>1001</x:v>
@@ -1190,16 +1190,16 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="F24" s="1" t="n">
-        <x:v>271</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="G24" s="1" t="n">
         <x:v>8</x:v>
       </x:c>
       <x:c r="H24" s="1" t="n">
-        <x:v>479</x:v>
+        <x:v>480</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>3965</x:v>
+        <x:v>3971</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1297,10 +1297,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C28" s="1" t="n">
-        <x:v>515</x:v>
+        <x:v>517</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
-        <x:v>346</x:v>
+        <x:v>347</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
         <x:v>28</x:v>
@@ -1315,7 +1315,7 @@
         <x:v>137</x:v>
       </x:c>
       <x:c r="I28" s="1" t="n">
-        <x:v>1085</x:v>
+        <x:v>1088</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:9">
@@ -1355,10 +1355,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C30" s="1" t="n">
-        <x:v>537</x:v>
+        <x:v>539</x:v>
       </x:c>
       <x:c r="D30" s="1" t="n">
-        <x:v>364</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="E30" s="1" t="n">
         <x:v>28</x:v>
@@ -1373,7 +1373,7 @@
         <x:v>141</x:v>
       </x:c>
       <x:c r="I30" s="1" t="n">
-        <x:v>1132</x:v>
+        <x:v>1135</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:9">
@@ -1674,25 +1674,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C41" s="1" t="n">
-        <x:v>3621</x:v>
+        <x:v>3622</x:v>
       </x:c>
       <x:c r="D41" s="1" t="n">
-        <x:v>2341</x:v>
+        <x:v>2345</x:v>
       </x:c>
       <x:c r="E41" s="1" t="n">
         <x:v>151</x:v>
       </x:c>
       <x:c r="F41" s="1" t="n">
-        <x:v>302</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="G41" s="1" t="n">
         <x:v>9</x:v>
       </x:c>
       <x:c r="H41" s="1" t="n">
-        <x:v>657</x:v>
+        <x:v>659</x:v>
       </x:c>
       <x:c r="I41" s="1" t="n">
-        <x:v>7081</x:v>
+        <x:v>7089</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9">
@@ -1732,25 +1732,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C43" s="1" t="n">
-        <x:v>3988</x:v>
+        <x:v>3989</x:v>
       </x:c>
       <x:c r="D43" s="1" t="n">
-        <x:v>2590</x:v>
+        <x:v>2594</x:v>
       </x:c>
       <x:c r="E43" s="1" t="n">
         <x:v>174</x:v>
       </x:c>
       <x:c r="F43" s="1" t="n">
-        <x:v>325</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="G43" s="1" t="n">
         <x:v>10</x:v>
       </x:c>
       <x:c r="H43" s="1" t="n">
-        <x:v>712</x:v>
+        <x:v>714</x:v>
       </x:c>
       <x:c r="I43" s="1" t="n">
-        <x:v>7799</x:v>
+        <x:v>7807</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:9">
@@ -1761,7 +1761,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C44" s="1" t="n">
-        <x:v>120</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="D44" s="1" t="n">
         <x:v>84</x:v>
@@ -1779,7 +1779,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="I44" s="1" t="n">
-        <x:v>262</x:v>
+        <x:v>264</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:9">
@@ -1819,7 +1819,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C46" s="1" t="n">
-        <x:v>132</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="D46" s="1" t="n">
         <x:v>143</x:v>
@@ -1837,7 +1837,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="I46" s="1" t="n">
-        <x:v>353</x:v>
+        <x:v>355</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
@@ -1854,7 +1854,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E47" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F47" s="1" t="n">
         <x:v>1</x:v>
@@ -1866,7 +1866,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>74</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -1912,7 +1912,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E49" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F49" s="1" t="n">
         <x:v>1</x:v>
@@ -1924,7 +1924,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="I49" s="1" t="n">
-        <x:v>91</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:9">
@@ -2080,7 +2080,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C55" s="1" t="n">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="D55" s="1" t="n">
         <x:v>101</x:v>
@@ -2095,10 +2095,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H55" s="1" t="n">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="I55" s="1" t="n">
-        <x:v>398</x:v>
+        <x:v>400</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:9">
@@ -2138,7 +2138,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C57" s="1" t="n">
-        <x:v>252</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="D57" s="1" t="n">
         <x:v>115</x:v>
@@ -2153,10 +2153,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H57" s="1" t="n">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="I57" s="1" t="n">
-        <x:v>472</x:v>
+        <x:v>474</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:9">
@@ -2254,7 +2254,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C61" s="1" t="n">
-        <x:v>311</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="D61" s="1" t="n">
         <x:v>439</x:v>
@@ -2272,7 +2272,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="I61" s="1" t="n">
-        <x:v>899</x:v>
+        <x:v>900</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
@@ -2312,7 +2312,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C63" s="1" t="n">
-        <x:v>345</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="D63" s="1" t="n">
         <x:v>534</x:v>
@@ -2330,7 +2330,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="I63" s="1" t="n">
-        <x:v>1049</x:v>
+        <x:v>1050</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -717,10 +717,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>3727</x:v>
+        <x:v>3731</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>2216</x:v>
+        <x:v>2217</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>163</x:v>
@@ -735,7 +735,7 @@
         <x:v>743</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>7201</x:v>
+        <x:v>7206</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -746,7 +746,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>469</x:v>
+        <x:v>471</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
         <x:v>430</x:v>
@@ -764,7 +764,7 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>1129</x:v>
+        <x:v>1131</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -775,10 +775,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>4196</x:v>
+        <x:v>4202</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>2646</x:v>
+        <x:v>2647</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>180</x:v>
@@ -793,7 +793,7 @@
         <x:v>883</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>8330</x:v>
+        <x:v>8337</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -865,7 +865,7 @@
         <x:v>373</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>289</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>22</x:v>
@@ -880,7 +880,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>774</x:v>
+        <x:v>775</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -923,7 +923,7 @@
         <x:v>411</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>307</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
         <x:v>23</x:v>
@@ -938,7 +938,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>856</x:v>
+        <x:v>857</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -949,7 +949,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>164</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
         <x:v>76</x:v>
@@ -967,7 +967,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>284</x:v>
+        <x:v>285</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -1007,7 +1007,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C18" s="1" t="n">
-        <x:v>164</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
         <x:v>79</x:v>
@@ -1025,7 +1025,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="I18" s="1" t="n">
-        <x:v>288</x:v>
+        <x:v>289</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
@@ -1036,7 +1036,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>404</x:v>
+        <x:v>405</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
         <x:v>214</x:v>
@@ -1054,7 +1054,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>768</x:v>
+        <x:v>769</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1065,7 +1065,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
         <x:v>59</x:v>
@@ -1083,7 +1083,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1094,7 +1094,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>482</x:v>
+        <x:v>484</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
         <x:v>273</x:v>
@@ -1112,7 +1112,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>936</x:v>
+        <x:v>938</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1123,7 +1123,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>2064</x:v>
+        <x:v>2069</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
         <x:v>985</x:v>
@@ -1141,7 +1141,7 @@
         <x:v>460</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>3860</x:v>
+        <x:v>3865</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1152,7 +1152,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C23" s="1" t="n">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
         <x:v>16</x:v>
@@ -1170,7 +1170,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1181,7 +1181,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>2131</x:v>
+        <x:v>2137</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
         <x:v>1001</x:v>
@@ -1199,7 +1199,7 @@
         <x:v>480</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>3971</x:v>
+        <x:v>3977</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1297,7 +1297,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C28" s="1" t="n">
-        <x:v>517</x:v>
+        <x:v>516</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
         <x:v>347</x:v>
@@ -1315,7 +1315,7 @@
         <x:v>137</x:v>
       </x:c>
       <x:c r="I28" s="1" t="n">
-        <x:v>1088</x:v>
+        <x:v>1087</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:9">
@@ -1335,7 +1335,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F29" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G29" s="1" t="n">
         <x:v>0</x:v>
@@ -1344,7 +1344,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="I29" s="1" t="n">
-        <x:v>47</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:9">
@@ -1355,7 +1355,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C30" s="1" t="n">
-        <x:v>539</x:v>
+        <x:v>538</x:v>
       </x:c>
       <x:c r="D30" s="1" t="n">
         <x:v>365</x:v>
@@ -1364,7 +1364,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="F30" s="1" t="n">
-        <x:v>61</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="G30" s="1" t="n">
         <x:v>1</x:v>
@@ -1373,7 +1373,7 @@
         <x:v>141</x:v>
       </x:c>
       <x:c r="I30" s="1" t="n">
-        <x:v>1135</x:v>
+        <x:v>1136</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:9">
@@ -1471,7 +1471,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C34" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D34" s="1" t="n">
         <x:v>37</x:v>
@@ -1489,7 +1489,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="I34" s="1" t="n">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:9">
@@ -1529,7 +1529,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C36" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D36" s="1" t="n">
         <x:v>40</x:v>
@@ -1547,7 +1547,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="I36" s="1" t="n">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:9">
@@ -1674,25 +1674,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C41" s="1" t="n">
-        <x:v>3622</x:v>
+        <x:v>3636</x:v>
       </x:c>
       <x:c r="D41" s="1" t="n">
-        <x:v>2345</x:v>
+        <x:v>2349</x:v>
       </x:c>
       <x:c r="E41" s="1" t="n">
         <x:v>151</x:v>
       </x:c>
       <x:c r="F41" s="1" t="n">
-        <x:v>303</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="G41" s="1" t="n">
         <x:v>9</x:v>
       </x:c>
       <x:c r="H41" s="1" t="n">
-        <x:v>659</x:v>
+        <x:v>660</x:v>
       </x:c>
       <x:c r="I41" s="1" t="n">
-        <x:v>7089</x:v>
+        <x:v>7114</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9">
@@ -1703,7 +1703,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C42" s="1" t="n">
-        <x:v>367</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="D42" s="1" t="n">
         <x:v>249</x:v>
@@ -1721,7 +1721,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="I42" s="1" t="n">
-        <x:v>718</x:v>
+        <x:v>720</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:9">
@@ -1732,25 +1732,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C43" s="1" t="n">
-        <x:v>3989</x:v>
+        <x:v>4005</x:v>
       </x:c>
       <x:c r="D43" s="1" t="n">
-        <x:v>2594</x:v>
+        <x:v>2598</x:v>
       </x:c>
       <x:c r="E43" s="1" t="n">
         <x:v>174</x:v>
       </x:c>
       <x:c r="F43" s="1" t="n">
-        <x:v>326</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="G43" s="1" t="n">
         <x:v>10</x:v>
       </x:c>
       <x:c r="H43" s="1" t="n">
-        <x:v>714</x:v>
+        <x:v>715</x:v>
       </x:c>
       <x:c r="I43" s="1" t="n">
-        <x:v>7807</x:v>
+        <x:v>7834</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:9">
@@ -2080,10 +2080,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C55" s="1" t="n">
-        <x:v>216</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="D55" s="1" t="n">
-        <x:v>101</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="E55" s="1" t="n">
         <x:v>11</x:v>
@@ -2098,7 +2098,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="I55" s="1" t="n">
-        <x:v>400</x:v>
+        <x:v>406</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:9">
@@ -2109,13 +2109,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C56" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D56" s="1" t="n">
         <x:v>14</x:v>
       </x:c>
       <x:c r="E56" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F56" s="1" t="n">
         <x:v>0</x:v>
@@ -2127,7 +2127,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="I56" s="1" t="n">
-        <x:v>74</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:9">
@@ -2138,13 +2138,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C57" s="1" t="n">
-        <x:v>253</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="D57" s="1" t="n">
-        <x:v>115</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="E57" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F57" s="1" t="n">
         <x:v>9</x:v>
@@ -2156,7 +2156,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="I57" s="1" t="n">
-        <x:v>474</x:v>
+        <x:v>482</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:9">
@@ -2182,10 +2182,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H58" s="1" t="n">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="I58" s="1" t="n">
-        <x:v>566</x:v>
+        <x:v>567</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">
@@ -2240,10 +2240,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H60" s="1" t="n">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="I60" s="1" t="n">
-        <x:v>673</x:v>
+        <x:v>674</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">
@@ -2257,7 +2257,7 @@
         <x:v>312</x:v>
       </x:c>
       <x:c r="D61" s="1" t="n">
-        <x:v>439</x:v>
+        <x:v>440</x:v>
       </x:c>
       <x:c r="E61" s="1" t="n">
         <x:v>31</x:v>
@@ -2272,7 +2272,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="I61" s="1" t="n">
-        <x:v>900</x:v>
+        <x:v>901</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
@@ -2315,7 +2315,7 @@
         <x:v>346</x:v>
       </x:c>
       <x:c r="D63" s="1" t="n">
-        <x:v>534</x:v>
+        <x:v>535</x:v>
       </x:c>
       <x:c r="E63" s="1" t="n">
         <x:v>37</x:v>
@@ -2330,7 +2330,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="I63" s="1" t="n">
-        <x:v>1050</x:v>
+        <x:v>1051</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -543,13 +543,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
         <x:v>1</x:v>
@@ -558,10 +558,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>50</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -601,13 +601,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F4" s="1" t="n">
         <x:v>1</x:v>
@@ -616,10 +616,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>52</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -630,16 +630,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E5" s="1" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="F5" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G5" s="1" t="n">
         <x:v>0</x:v>
@@ -648,7 +648,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="I5" s="1" t="n">
-        <x:v>57</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:9">
@@ -688,16 +688,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
         <x:v>0</x:v>
@@ -706,7 +706,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="I7" s="1" t="n">
-        <x:v>66</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9">
@@ -717,25 +717,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>3731</x:v>
+        <x:v>4363</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>2217</x:v>
+        <x:v>2630</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>163</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>340</x:v>
+        <x:v>411</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>743</x:v>
+        <x:v>889</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>7206</x:v>
+        <x:v>8503</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -746,25 +746,25 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>471</x:v>
+        <x:v>516</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>430</x:v>
+        <x:v>485</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>70</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
-        <x:v>140</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>1131</x:v>
+        <x:v>1262</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -775,25 +775,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>4202</x:v>
+        <x:v>4879</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>2647</x:v>
+        <x:v>3115</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>180</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>410</x:v>
+        <x:v>493</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>883</x:v>
+        <x:v>1047</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>8337</x:v>
+        <x:v>9765</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -804,7 +804,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
         <x:v>0</x:v>
@@ -822,7 +822,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I11" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:9">
@@ -833,7 +833,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C12" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
         <x:v>0</x:v>
@@ -851,7 +851,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I12" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9">
@@ -862,25 +862,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>373</x:v>
+        <x:v>446</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>290</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>40</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
-        <x:v>48</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>775</x:v>
+        <x:v>929</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -891,25 +891,25 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H14" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I14" s="1" t="n">
-        <x:v>82</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
@@ -920,25 +920,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>411</x:v>
+        <x:v>489</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>308</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>61</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
-        <x:v>52</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>857</x:v>
+        <x:v>1031</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -949,25 +949,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>165</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>76</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H16" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>285</x:v>
+        <x:v>325</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -1007,25 +1007,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C18" s="1" t="n">
-        <x:v>165</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
-        <x:v>79</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E18" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F18" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G18" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H18" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="I18" s="1" t="n">
-        <x:v>289</x:v>
+        <x:v>329</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
@@ -1036,25 +1036,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>405</x:v>
+        <x:v>493</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
-        <x:v>214</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
-        <x:v>43</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G19" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H19" s="1" t="n">
-        <x:v>82</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>769</x:v>
+        <x:v>917</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1065,25 +1065,25 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>79</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>59</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="F20" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G20" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H20" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>169</x:v>
+        <x:v>192</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1094,25 +1094,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>484</x:v>
+        <x:v>587</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
-        <x:v>273</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="E21" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F21" s="1" t="n">
-        <x:v>51</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="G21" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H21" s="1" t="n">
-        <x:v>103</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>938</x:v>
+        <x:v>1109</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1123,25 +1123,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>2069</x:v>
+        <x:v>2375</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>985</x:v>
+        <x:v>1165</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
-        <x:v>73</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
-        <x:v>270</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
-        <x:v>460</x:v>
+        <x:v>532</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>3865</x:v>
+        <x:v>4492</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1152,13 +1152,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C23" s="1" t="n">
-        <x:v>68</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F23" s="1" t="n">
         <x:v>2</x:v>
@@ -1170,7 +1170,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>112</x:v>
+        <x:v>117</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1181,25 +1181,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>2137</x:v>
+        <x:v>2446</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>1001</x:v>
+        <x:v>1182</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
-        <x:v>79</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="F24" s="1" t="n">
-        <x:v>272</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="G24" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H24" s="1" t="n">
-        <x:v>480</x:v>
+        <x:v>552</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>3977</x:v>
+        <x:v>4609</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1210,10 +1210,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C25" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E25" s="1" t="n">
         <x:v>1</x:v>
@@ -1225,10 +1225,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H25" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="I25" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
@@ -1268,10 +1268,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C27" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D27" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E27" s="1" t="n">
         <x:v>1</x:v>
@@ -1283,10 +1283,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H27" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="I27" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:9">
@@ -1297,25 +1297,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C28" s="1" t="n">
-        <x:v>516</x:v>
+        <x:v>593</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
-        <x:v>347</x:v>
+        <x:v>406</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F28" s="1" t="n">
-        <x:v>58</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="G28" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H28" s="1" t="n">
-        <x:v>137</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="I28" s="1" t="n">
-        <x:v>1087</x:v>
+        <x:v>1261</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:9">
@@ -1329,7 +1329,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="D29" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E29" s="1" t="n">
         <x:v>0</x:v>
@@ -1341,10 +1341,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H29" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I29" s="1" t="n">
-        <x:v>49</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:9">
@@ -1355,25 +1355,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C30" s="1" t="n">
-        <x:v>538</x:v>
+        <x:v>615</x:v>
       </x:c>
       <x:c r="D30" s="1" t="n">
-        <x:v>365</x:v>
+        <x:v>426</x:v>
       </x:c>
       <x:c r="E30" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F30" s="1" t="n">
-        <x:v>63</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G30" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H30" s="1" t="n">
-        <x:v>141</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="I30" s="1" t="n">
-        <x:v>1136</x:v>
+        <x:v>1315</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:9">
@@ -1387,7 +1387,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
         <x:v>0</x:v>
@@ -1402,7 +1402,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I31" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
@@ -1445,7 +1445,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D33" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E33" s="1" t="n">
         <x:v>0</x:v>
@@ -1460,7 +1460,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I33" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:9">
@@ -1471,10 +1471,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C34" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D34" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="E34" s="1" t="n">
         <x:v>2</x:v>
@@ -1489,7 +1489,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="I34" s="1" t="n">
-        <x:v>55</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:9">
@@ -1503,7 +1503,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D35" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E35" s="1" t="n">
         <x:v>0</x:v>
@@ -1518,7 +1518,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I35" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:9">
@@ -1529,10 +1529,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C36" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D36" s="1" t="n">
-        <x:v>40</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E36" s="1" t="n">
         <x:v>2</x:v>
@@ -1547,7 +1547,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="I36" s="1" t="n">
-        <x:v>62</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:9">
@@ -1616,25 +1616,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C39" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D39" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E39" s="1" t="n">
         <x:v>6</x:v>
       </x:c>
       <x:c r="F39" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G39" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H39" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I39" s="1" t="n">
-        <x:v>59</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:9">
@@ -1645,25 +1645,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C40" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D40" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E40" s="1" t="n">
         <x:v>6</x:v>
       </x:c>
       <x:c r="F40" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G40" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H40" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I40" s="1" t="n">
-        <x:v>59</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:9">
@@ -1674,25 +1674,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C41" s="1" t="n">
-        <x:v>3636</x:v>
+        <x:v>4327</x:v>
       </x:c>
       <x:c r="D41" s="1" t="n">
-        <x:v>2349</x:v>
+        <x:v>2761</x:v>
       </x:c>
       <x:c r="E41" s="1" t="n">
-        <x:v>151</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="F41" s="1" t="n">
-        <x:v>309</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="G41" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H41" s="1" t="n">
-        <x:v>660</x:v>
+        <x:v>787</x:v>
       </x:c>
       <x:c r="I41" s="1" t="n">
-        <x:v>7114</x:v>
+        <x:v>8425</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9">
@@ -1703,25 +1703,25 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C42" s="1" t="n">
-        <x:v>369</x:v>
+        <x:v>425</x:v>
       </x:c>
       <x:c r="D42" s="1" t="n">
-        <x:v>249</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="E42" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F42" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G42" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H42" s="1" t="n">
-        <x:v>55</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="I42" s="1" t="n">
-        <x:v>720</x:v>
+        <x:v>838</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:9">
@@ -1732,25 +1732,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C43" s="1" t="n">
-        <x:v>4005</x:v>
+        <x:v>4752</x:v>
       </x:c>
       <x:c r="D43" s="1" t="n">
-        <x:v>2598</x:v>
+        <x:v>3055</x:v>
       </x:c>
       <x:c r="E43" s="1" t="n">
-        <x:v>174</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="F43" s="1" t="n">
-        <x:v>332</x:v>
+        <x:v>397</x:v>
       </x:c>
       <x:c r="G43" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H43" s="1" t="n">
-        <x:v>715</x:v>
+        <x:v>854</x:v>
       </x:c>
       <x:c r="I43" s="1" t="n">
-        <x:v>7834</x:v>
+        <x:v>9263</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:9">
@@ -1761,25 +1761,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C44" s="1" t="n">
-        <x:v>122</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="D44" s="1" t="n">
-        <x:v>84</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="E44" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F44" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G44" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H44" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I44" s="1" t="n">
-        <x:v>264</x:v>
+        <x:v>318</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:9">
@@ -1790,16 +1790,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
-        <x:v>59</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E45" s="1" t="n">
         <x:v>6</x:v>
       </x:c>
       <x:c r="F45" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G45" s="1" t="n">
         <x:v>0</x:v>
@@ -1808,7 +1808,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>91</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1819,25 +1819,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C46" s="1" t="n">
-        <x:v>134</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="D46" s="1" t="n">
-        <x:v>143</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="E46" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F46" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="G46" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H46" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="I46" s="1" t="n">
-        <x:v>355</x:v>
+        <x:v>429</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
@@ -1848,7 +1848,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>55</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
         <x:v>7</x:v>
@@ -1860,13 +1860,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G47" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H47" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>73</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -1877,7 +1877,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C48" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D48" s="1" t="n">
         <x:v>3</x:v>
@@ -1895,7 +1895,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="I48" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:9">
@@ -1906,7 +1906,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C49" s="1" t="n">
-        <x:v>66</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D49" s="1" t="n">
         <x:v>10</x:v>
@@ -1918,13 +1918,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G49" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H49" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I49" s="1" t="n">
-        <x:v>90</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:9">
@@ -1993,25 +1993,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C52" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D52" s="1" t="n">
-        <x:v>166</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="E52" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="F52" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G52" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H52" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="I52" s="1" t="n">
-        <x:v>229</x:v>
+        <x:v>290</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:9">
@@ -2022,10 +2022,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C53" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D53" s="1" t="n">
-        <x:v>81</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="E53" s="1" t="n">
         <x:v>7</x:v>
@@ -2040,7 +2040,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="I53" s="1" t="n">
-        <x:v>112</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:9">
@@ -2051,25 +2051,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C54" s="1" t="n">
-        <x:v>51</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D54" s="1" t="n">
-        <x:v>247</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="E54" s="1" t="n">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F54" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G54" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H54" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I54" s="1" t="n">
-        <x:v>341</x:v>
+        <x:v>424</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:9">
@@ -2080,13 +2080,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C55" s="1" t="n">
-        <x:v>220</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="D55" s="1" t="n">
-        <x:v>103</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="E55" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F55" s="1" t="n">
         <x:v>9</x:v>
@@ -2095,10 +2095,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H55" s="1" t="n">
-        <x:v>61</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="I55" s="1" t="n">
-        <x:v>406</x:v>
+        <x:v>478</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:9">
@@ -2109,7 +2109,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C56" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="D56" s="1" t="n">
         <x:v>14</x:v>
@@ -2124,10 +2124,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H56" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="I56" s="1" t="n">
-        <x:v>76</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:9">
@@ -2138,13 +2138,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C57" s="1" t="n">
-        <x:v>258</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="D57" s="1" t="n">
-        <x:v>117</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="E57" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F57" s="1" t="n">
         <x:v>9</x:v>
@@ -2153,10 +2153,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H57" s="1" t="n">
-        <x:v>83</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="I57" s="1" t="n">
-        <x:v>482</x:v>
+        <x:v>562</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:9">
@@ -2167,25 +2167,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C58" s="1" t="n">
-        <x:v>227</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="D58" s="1" t="n">
-        <x:v>223</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="E58" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F58" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G58" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H58" s="1" t="n">
-        <x:v>67</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="I58" s="1" t="n">
-        <x:v>567</x:v>
+        <x:v>673</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">
@@ -2196,13 +2196,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C59" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D59" s="1" t="n">
-        <x:v>79</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E59" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F59" s="1" t="n">
         <x:v>8</x:v>
@@ -2211,10 +2211,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H59" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="I59" s="1" t="n">
-        <x:v>107</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9">
@@ -2225,25 +2225,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C60" s="1" t="n">
-        <x:v>236</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="D60" s="1" t="n">
-        <x:v>302</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="E60" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F60" s="1" t="n">
-        <x:v>40</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="G60" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H60" s="1" t="n">
-        <x:v>75</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="I60" s="1" t="n">
-        <x:v>674</x:v>
+        <x:v>795</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">
@@ -2254,25 +2254,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C61" s="1" t="n">
-        <x:v>312</x:v>
+        <x:v>378</x:v>
       </x:c>
       <x:c r="D61" s="1" t="n">
-        <x:v>440</x:v>
+        <x:v>539</x:v>
       </x:c>
       <x:c r="E61" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F61" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="G61" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H61" s="1" t="n">
-        <x:v>83</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="I61" s="1" t="n">
-        <x:v>901</x:v>
+        <x:v>1099</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
@@ -2283,25 +2283,25 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C62" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D62" s="1" t="n">
-        <x:v>95</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="E62" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F62" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G62" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H62" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I62" s="1" t="n">
-        <x:v>150</x:v>
+        <x:v>175</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:9">
@@ -2312,25 +2312,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C63" s="1" t="n">
-        <x:v>346</x:v>
+        <x:v>415</x:v>
       </x:c>
       <x:c r="D63" s="1" t="n">
-        <x:v>535</x:v>
+        <x:v>651</x:v>
       </x:c>
       <x:c r="E63" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F63" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="G63" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H63" s="1" t="n">
-        <x:v>95</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="I63" s="1" t="n">
-        <x:v>1051</x:v>
+        <x:v>1274</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -543,7 +543,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
         <x:v>13</x:v>
@@ -561,7 +561,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -601,7 +601,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
         <x:v>14</x:v>
@@ -619,7 +619,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -717,10 +717,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>4363</x:v>
+        <x:v>4365</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>2630</x:v>
+        <x:v>2632</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>196</x:v>
@@ -732,10 +732,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>889</x:v>
+        <x:v>891</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>8503</x:v>
+        <x:v>8509</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -746,10 +746,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>516</x:v>
+        <x:v>518</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>485</x:v>
+        <x:v>486</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
         <x:v>18</x:v>
@@ -764,7 +764,7 @@
         <x:v>158</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>1262</x:v>
+        <x:v>1265</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -775,10 +775,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>4879</x:v>
+        <x:v>4883</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>3115</x:v>
+        <x:v>3118</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>214</x:v>
@@ -790,10 +790,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>1047</x:v>
+        <x:v>1049</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>9765</x:v>
+        <x:v>9774</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -1065,7 +1065,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
         <x:v>63</x:v>
@@ -1083,7 +1083,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>192</x:v>
+        <x:v>193</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1094,7 +1094,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>587</x:v>
+        <x:v>588</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
         <x:v>310</x:v>
@@ -1112,7 +1112,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>1109</x:v>
+        <x:v>1110</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1123,7 +1123,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>2375</x:v>
+        <x:v>2379</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
         <x:v>1165</x:v>
@@ -1141,7 +1141,7 @@
         <x:v>532</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>4492</x:v>
+        <x:v>4496</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1181,7 +1181,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>2446</x:v>
+        <x:v>2450</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
         <x:v>1182</x:v>
@@ -1199,7 +1199,7 @@
         <x:v>552</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>4609</x:v>
+        <x:v>4613</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1300,7 +1300,7 @@
         <x:v>593</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
-        <x:v>406</x:v>
+        <x:v>407</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
         <x:v>30</x:v>
@@ -1315,7 +1315,7 @@
         <x:v>158</x:v>
       </x:c>
       <x:c r="I28" s="1" t="n">
-        <x:v>1261</x:v>
+        <x:v>1262</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:9">
@@ -1358,7 +1358,7 @@
         <x:v>615</x:v>
       </x:c>
       <x:c r="D30" s="1" t="n">
-        <x:v>426</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="E30" s="1" t="n">
         <x:v>30</x:v>
@@ -1373,7 +1373,7 @@
         <x:v>165</x:v>
       </x:c>
       <x:c r="I30" s="1" t="n">
-        <x:v>1315</x:v>
+        <x:v>1316</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:9">
@@ -1674,10 +1674,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C41" s="1" t="n">
-        <x:v>4327</x:v>
+        <x:v>4330</x:v>
       </x:c>
       <x:c r="D41" s="1" t="n">
-        <x:v>2761</x:v>
+        <x:v>2766</x:v>
       </x:c>
       <x:c r="E41" s="1" t="n">
         <x:v>167</x:v>
@@ -1689,10 +1689,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="H41" s="1" t="n">
-        <x:v>787</x:v>
+        <x:v>790</x:v>
       </x:c>
       <x:c r="I41" s="1" t="n">
-        <x:v>8425</x:v>
+        <x:v>8436</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9">
@@ -1732,10 +1732,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C43" s="1" t="n">
-        <x:v>4752</x:v>
+        <x:v>4755</x:v>
       </x:c>
       <x:c r="D43" s="1" t="n">
-        <x:v>3055</x:v>
+        <x:v>3060</x:v>
       </x:c>
       <x:c r="E43" s="1" t="n">
         <x:v>193</x:v>
@@ -1747,10 +1747,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="H43" s="1" t="n">
-        <x:v>854</x:v>
+        <x:v>857</x:v>
       </x:c>
       <x:c r="I43" s="1" t="n">
-        <x:v>9263</x:v>
+        <x:v>9274</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:9">
@@ -1761,7 +1761,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C44" s="1" t="n">
-        <x:v>153</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="D44" s="1" t="n">
         <x:v>93</x:v>
@@ -1779,7 +1779,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="I44" s="1" t="n">
-        <x:v>318</x:v>
+        <x:v>317</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:9">
@@ -1819,7 +1819,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C46" s="1" t="n">
-        <x:v>170</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="D46" s="1" t="n">
         <x:v>166</x:v>
@@ -1837,7 +1837,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="I46" s="1" t="n">
-        <x:v>429</x:v>
+        <x:v>428</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
@@ -2083,7 +2083,7 @@
         <x:v>262</x:v>
       </x:c>
       <x:c r="D55" s="1" t="n">
-        <x:v>123</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="E55" s="1" t="n">
         <x:v>13</x:v>
@@ -2095,7 +2095,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H55" s="1" t="n">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="I55" s="1" t="n">
         <x:v>478</x:v>
@@ -2141,7 +2141,7 @@
         <x:v>305</x:v>
       </x:c>
       <x:c r="D57" s="1" t="n">
-        <x:v>137</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="E57" s="1" t="n">
         <x:v>15</x:v>
@@ -2153,7 +2153,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H57" s="1" t="n">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="I57" s="1" t="n">
         <x:v>562</x:v>
@@ -2167,13 +2167,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C58" s="1" t="n">
-        <x:v>277</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="D58" s="1" t="n">
         <x:v>259</x:v>
       </x:c>
       <x:c r="E58" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F58" s="1" t="n">
         <x:v>34</x:v>
@@ -2225,13 +2225,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C60" s="1" t="n">
-        <x:v>288</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="D60" s="1" t="n">
         <x:v>346</x:v>
       </x:c>
       <x:c r="E60" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F60" s="1" t="n">
         <x:v>42</x:v>
@@ -2254,7 +2254,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C61" s="1" t="n">
-        <x:v>378</x:v>
+        <x:v>379</x:v>
       </x:c>
       <x:c r="D61" s="1" t="n">
         <x:v>539</x:v>
@@ -2269,10 +2269,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H61" s="1" t="n">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I61" s="1" t="n">
-        <x:v>1099</x:v>
+        <x:v>1101</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
@@ -2312,7 +2312,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C63" s="1" t="n">
-        <x:v>415</x:v>
+        <x:v>416</x:v>
       </x:c>
       <x:c r="D63" s="1" t="n">
         <x:v>651</x:v>
@@ -2327,10 +2327,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H63" s="1" t="n">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="I63" s="1" t="n">
-        <x:v>1274</x:v>
+        <x:v>1276</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -717,25 +717,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>4365</x:v>
+        <x:v>4370</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>2632</x:v>
+        <x:v>2635</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>196</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>411</x:v>
+        <x:v>410</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>891</x:v>
+        <x:v>893</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>8509</x:v>
+        <x:v>8518</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -746,7 +746,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>518</x:v>
+        <x:v>520</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
         <x:v>486</x:v>
@@ -764,7 +764,7 @@
         <x:v>158</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>1265</x:v>
+        <x:v>1267</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -775,25 +775,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>4883</x:v>
+        <x:v>4890</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>3118</x:v>
+        <x:v>3121</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>214</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>493</x:v>
+        <x:v>492</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>17</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>1049</x:v>
+        <x:v>1051</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>9774</x:v>
+        <x:v>9785</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -865,13 +865,13 @@
         <x:v>446</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>337</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>27</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>49</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
         <x:v>2</x:v>
@@ -880,7 +880,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>929</x:v>
+        <x:v>930</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -923,13 +923,13 @@
         <x:v>489</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>366</x:v>
+        <x:v>368</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
         <x:v>28</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>71</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
         <x:v>2</x:v>
@@ -938,7 +938,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>1031</x:v>
+        <x:v>1032</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -1036,7 +1036,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>493</x:v>
+        <x:v>494</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
         <x:v>247</x:v>
@@ -1045,16 +1045,16 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
-        <x:v>51</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G19" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H19" s="1" t="n">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>917</x:v>
+        <x:v>921</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1065,7 +1065,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>95</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
         <x:v>63</x:v>
@@ -1083,7 +1083,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>193</x:v>
+        <x:v>197</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1094,7 +1094,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>588</x:v>
+        <x:v>593</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
         <x:v>310</x:v>
@@ -1103,16 +1103,16 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="F21" s="1" t="n">
-        <x:v>61</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="G21" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H21" s="1" t="n">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>1110</x:v>
+        <x:v>1118</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1123,10 +1123,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>2379</x:v>
+        <x:v>2381</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>1165</x:v>
+        <x:v>1166</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>88</x:v>
@@ -1138,10 +1138,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
-        <x:v>532</x:v>
+        <x:v>534</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>4496</x:v>
+        <x:v>4501</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1181,10 +1181,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>2450</x:v>
+        <x:v>2452</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>1182</x:v>
+        <x:v>1183</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>95</x:v>
@@ -1196,10 +1196,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="H24" s="1" t="n">
-        <x:v>552</x:v>
+        <x:v>554</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>4613</x:v>
+        <x:v>4618</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1297,10 +1297,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C28" s="1" t="n">
-        <x:v>593</x:v>
+        <x:v>595</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
-        <x:v>407</x:v>
+        <x:v>412</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
         <x:v>30</x:v>
@@ -1315,7 +1315,7 @@
         <x:v>158</x:v>
       </x:c>
       <x:c r="I28" s="1" t="n">
-        <x:v>1262</x:v>
+        <x:v>1269</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:9">
@@ -1355,10 +1355,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C30" s="1" t="n">
-        <x:v>615</x:v>
+        <x:v>617</x:v>
       </x:c>
       <x:c r="D30" s="1" t="n">
-        <x:v>427</x:v>
+        <x:v>432</x:v>
       </x:c>
       <x:c r="E30" s="1" t="n">
         <x:v>30</x:v>
@@ -1373,7 +1373,7 @@
         <x:v>165</x:v>
       </x:c>
       <x:c r="I30" s="1" t="n">
-        <x:v>1316</x:v>
+        <x:v>1323</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:9">
@@ -1674,25 +1674,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C41" s="1" t="n">
-        <x:v>4330</x:v>
+        <x:v>4347</x:v>
       </x:c>
       <x:c r="D41" s="1" t="n">
-        <x:v>2766</x:v>
+        <x:v>2770</x:v>
       </x:c>
       <x:c r="E41" s="1" t="n">
         <x:v>167</x:v>
       </x:c>
       <x:c r="F41" s="1" t="n">
-        <x:v>372</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="G41" s="1" t="n">
         <x:v>11</x:v>
       </x:c>
       <x:c r="H41" s="1" t="n">
-        <x:v>790</x:v>
+        <x:v>788</x:v>
       </x:c>
       <x:c r="I41" s="1" t="n">
-        <x:v>8436</x:v>
+        <x:v>8457</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9">
@@ -1706,7 +1706,7 @@
         <x:v>425</x:v>
       </x:c>
       <x:c r="D42" s="1" t="n">
-        <x:v>294</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="E42" s="1" t="n">
         <x:v>26</x:v>
@@ -1721,7 +1721,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="I42" s="1" t="n">
-        <x:v>838</x:v>
+        <x:v>839</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:9">
@@ -1732,25 +1732,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C43" s="1" t="n">
-        <x:v>4755</x:v>
+        <x:v>4772</x:v>
       </x:c>
       <x:c r="D43" s="1" t="n">
-        <x:v>3060</x:v>
+        <x:v>3065</x:v>
       </x:c>
       <x:c r="E43" s="1" t="n">
         <x:v>193</x:v>
       </x:c>
       <x:c r="F43" s="1" t="n">
-        <x:v>397</x:v>
+        <x:v>399</x:v>
       </x:c>
       <x:c r="G43" s="1" t="n">
         <x:v>12</x:v>
       </x:c>
       <x:c r="H43" s="1" t="n">
-        <x:v>857</x:v>
+        <x:v>855</x:v>
       </x:c>
       <x:c r="I43" s="1" t="n">
-        <x:v>9274</x:v>
+        <x:v>9296</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:9">
@@ -1863,10 +1863,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H47" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -1921,10 +1921,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H49" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="I49" s="1" t="n">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:9">
@@ -2080,7 +2080,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C55" s="1" t="n">
-        <x:v>262</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="D55" s="1" t="n">
         <x:v>122</x:v>
@@ -2098,7 +2098,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="I55" s="1" t="n">
-        <x:v>478</x:v>
+        <x:v>479</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:9">
@@ -2138,7 +2138,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C57" s="1" t="n">
-        <x:v>305</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="D57" s="1" t="n">
         <x:v>136</x:v>
@@ -2156,7 +2156,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="I57" s="1" t="n">
-        <x:v>562</x:v>
+        <x:v>563</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -717,10 +717,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>4370</x:v>
+        <x:v>4373</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>2635</x:v>
+        <x:v>2634</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>196</x:v>
@@ -735,7 +735,7 @@
         <x:v>893</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>8518</x:v>
+        <x:v>8520</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -775,10 +775,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>4890</x:v>
+        <x:v>4893</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>3121</x:v>
+        <x:v>3120</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>214</x:v>
@@ -793,7 +793,7 @@
         <x:v>1051</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>9785</x:v>
+        <x:v>9787</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -877,10 +877,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
-        <x:v>68</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>930</x:v>
+        <x:v>929</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -894,7 +894,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
         <x:v>1</x:v>
@@ -909,7 +909,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="I14" s="1" t="n">
-        <x:v>102</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
@@ -923,7 +923,7 @@
         <x:v>489</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>368</x:v>
+        <x:v>370</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
         <x:v>28</x:v>
@@ -935,10 +935,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
-        <x:v>75</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>1032</x:v>
+        <x:v>1033</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -949,7 +949,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>188</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
         <x:v>82</x:v>
@@ -967,7 +967,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>325</x:v>
+        <x:v>326</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -1007,7 +1007,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C18" s="1" t="n">
-        <x:v>188</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
         <x:v>85</x:v>
@@ -1025,7 +1025,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="I18" s="1" t="n">
-        <x:v>329</x:v>
+        <x:v>330</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
@@ -1051,10 +1051,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H19" s="1" t="n">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>921</x:v>
+        <x:v>922</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1109,10 +1109,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H21" s="1" t="n">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>1118</x:v>
+        <x:v>1119</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1123,10 +1123,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>2381</x:v>
+        <x:v>2387</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>1166</x:v>
+        <x:v>1168</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>88</x:v>
@@ -1138,10 +1138,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
-        <x:v>534</x:v>
+        <x:v>536</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>4501</x:v>
+        <x:v>4511</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1155,7 +1155,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
         <x:v>7</x:v>
@@ -1170,7 +1170,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1181,10 +1181,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>2452</x:v>
+        <x:v>2458</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>1183</x:v>
+        <x:v>1186</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>95</x:v>
@@ -1196,10 +1196,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="H24" s="1" t="n">
-        <x:v>554</x:v>
+        <x:v>556</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>4618</x:v>
+        <x:v>4629</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1210,7 +1210,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C25" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
         <x:v>5</x:v>
@@ -1228,7 +1228,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="I25" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
@@ -1268,7 +1268,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C27" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D27" s="1" t="n">
         <x:v>9</x:v>
@@ -1286,7 +1286,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="I27" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:9">
@@ -1297,16 +1297,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C28" s="1" t="n">
-        <x:v>595</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
-        <x:v>412</x:v>
+        <x:v>414</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
         <x:v>30</x:v>
       </x:c>
       <x:c r="F28" s="1" t="n">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="G28" s="1" t="n">
         <x:v>1</x:v>
@@ -1315,7 +1315,7 @@
         <x:v>158</x:v>
       </x:c>
       <x:c r="I28" s="1" t="n">
-        <x:v>1269</x:v>
+        <x:v>1273</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:9">
@@ -1355,16 +1355,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C30" s="1" t="n">
-        <x:v>617</x:v>
+        <x:v>618</x:v>
       </x:c>
       <x:c r="D30" s="1" t="n">
-        <x:v>432</x:v>
+        <x:v>434</x:v>
       </x:c>
       <x:c r="E30" s="1" t="n">
         <x:v>30</x:v>
       </x:c>
       <x:c r="F30" s="1" t="n">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="G30" s="1" t="n">
         <x:v>1</x:v>
@@ -1373,7 +1373,7 @@
         <x:v>165</x:v>
       </x:c>
       <x:c r="I30" s="1" t="n">
-        <x:v>1323</x:v>
+        <x:v>1327</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:9">
@@ -1674,25 +1674,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C41" s="1" t="n">
-        <x:v>4347</x:v>
+        <x:v>4358</x:v>
       </x:c>
       <x:c r="D41" s="1" t="n">
-        <x:v>2770</x:v>
+        <x:v>2775</x:v>
       </x:c>
       <x:c r="E41" s="1" t="n">
         <x:v>167</x:v>
       </x:c>
       <x:c r="F41" s="1" t="n">
-        <x:v>374</x:v>
+        <x:v>375</x:v>
       </x:c>
       <x:c r="G41" s="1" t="n">
         <x:v>11</x:v>
       </x:c>
       <x:c r="H41" s="1" t="n">
-        <x:v>788</x:v>
+        <x:v>790</x:v>
       </x:c>
       <x:c r="I41" s="1" t="n">
-        <x:v>8457</x:v>
+        <x:v>8476</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9">
@@ -1703,7 +1703,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C42" s="1" t="n">
-        <x:v>425</x:v>
+        <x:v>428</x:v>
       </x:c>
       <x:c r="D42" s="1" t="n">
         <x:v>295</x:v>
@@ -1721,7 +1721,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="I42" s="1" t="n">
-        <x:v>839</x:v>
+        <x:v>842</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:9">
@@ -1732,25 +1732,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C43" s="1" t="n">
-        <x:v>4772</x:v>
+        <x:v>4786</x:v>
       </x:c>
       <x:c r="D43" s="1" t="n">
-        <x:v>3065</x:v>
+        <x:v>3070</x:v>
       </x:c>
       <x:c r="E43" s="1" t="n">
         <x:v>193</x:v>
       </x:c>
       <x:c r="F43" s="1" t="n">
-        <x:v>399</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="G43" s="1" t="n">
         <x:v>12</x:v>
       </x:c>
       <x:c r="H43" s="1" t="n">
-        <x:v>855</x:v>
+        <x:v>857</x:v>
       </x:c>
       <x:c r="I43" s="1" t="n">
-        <x:v>9296</x:v>
+        <x:v>9318</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:9">
@@ -1761,10 +1761,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C44" s="1" t="n">
-        <x:v>152</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="D44" s="1" t="n">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E44" s="1" t="n">
         <x:v>14</x:v>
@@ -1779,7 +1779,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="I44" s="1" t="n">
-        <x:v>317</x:v>
+        <x:v>319</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:9">
@@ -1819,10 +1819,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C46" s="1" t="n">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="D46" s="1" t="n">
-        <x:v>166</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="E46" s="1" t="n">
         <x:v>20</x:v>
@@ -1837,7 +1837,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="I46" s="1" t="n">
-        <x:v>428</x:v>
+        <x:v>430</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
@@ -1996,7 +1996,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="D52" s="1" t="n">
-        <x:v>205</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="E52" s="1" t="n">
         <x:v>2</x:v>
@@ -2011,7 +2011,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="I52" s="1" t="n">
-        <x:v>290</x:v>
+        <x:v>292</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:9">
@@ -2054,7 +2054,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="D54" s="1" t="n">
-        <x:v>305</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="E54" s="1" t="n">
         <x:v>9</x:v>
@@ -2069,7 +2069,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="I54" s="1" t="n">
-        <x:v>424</x:v>
+        <x:v>426</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:9">
@@ -2254,10 +2254,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C61" s="1" t="n">
-        <x:v>379</x:v>
+        <x:v>380</x:v>
       </x:c>
       <x:c r="D61" s="1" t="n">
-        <x:v>539</x:v>
+        <x:v>541</x:v>
       </x:c>
       <x:c r="E61" s="1" t="n">
         <x:v>36</x:v>
@@ -2269,10 +2269,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H61" s="1" t="n">
-        <x:v>102</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="I61" s="1" t="n">
-        <x:v>1101</x:v>
+        <x:v>1103</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
@@ -2312,10 +2312,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C63" s="1" t="n">
-        <x:v>416</x:v>
+        <x:v>417</x:v>
       </x:c>
       <x:c r="D63" s="1" t="n">
-        <x:v>651</x:v>
+        <x:v>653</x:v>
       </x:c>
       <x:c r="E63" s="1" t="n">
         <x:v>43</x:v>
@@ -2327,10 +2327,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H63" s="1" t="n">
-        <x:v>117</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="I63" s="1" t="n">
-        <x:v>1276</x:v>
+        <x:v>1278</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -717,13 +717,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>4373</x:v>
+        <x:v>4375</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>2634</x:v>
+        <x:v>2642</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>196</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
         <x:v>410</x:v>
@@ -735,7 +735,7 @@
         <x:v>893</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>8520</x:v>
+        <x:v>8531</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -775,13 +775,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>4893</x:v>
+        <x:v>4895</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>3120</x:v>
+        <x:v>3128</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>214</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
         <x:v>492</x:v>
@@ -793,7 +793,7 @@
         <x:v>1051</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>9787</x:v>
+        <x:v>9798</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -862,7 +862,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>446</x:v>
+        <x:v>445</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>339</x:v>
@@ -880,7 +880,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>929</x:v>
+        <x:v>928</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -891,7 +891,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
         <x:v>31</x:v>
@@ -909,7 +909,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="I14" s="1" t="n">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
@@ -1123,7 +1123,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>2387</x:v>
+        <x:v>2391</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
         <x:v>1168</x:v>
@@ -1138,10 +1138,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
-        <x:v>536</x:v>
+        <x:v>537</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>4511</x:v>
+        <x:v>4516</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1181,7 +1181,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>2458</x:v>
+        <x:v>2462</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
         <x:v>1186</x:v>
@@ -1196,10 +1196,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="H24" s="1" t="n">
-        <x:v>556</x:v>
+        <x:v>557</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>4629</x:v>
+        <x:v>4634</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1297,13 +1297,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C28" s="1" t="n">
-        <x:v>596</x:v>
+        <x:v>598</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
-        <x:v>414</x:v>
+        <x:v>413</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F28" s="1" t="n">
         <x:v>74</x:v>
@@ -1312,10 +1312,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H28" s="1" t="n">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="I28" s="1" t="n">
-        <x:v>1273</x:v>
+        <x:v>1276</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:9">
@@ -1355,13 +1355,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C30" s="1" t="n">
-        <x:v>618</x:v>
+        <x:v>620</x:v>
       </x:c>
       <x:c r="D30" s="1" t="n">
-        <x:v>434</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="E30" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F30" s="1" t="n">
         <x:v>79</x:v>
@@ -1370,10 +1370,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H30" s="1" t="n">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="I30" s="1" t="n">
-        <x:v>1327</x:v>
+        <x:v>1330</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:9">
@@ -1471,7 +1471,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C34" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D34" s="1" t="n">
         <x:v>45</x:v>
@@ -1489,7 +1489,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="I34" s="1" t="n">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:9">
@@ -1529,7 +1529,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C36" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D36" s="1" t="n">
         <x:v>50</x:v>
@@ -1547,7 +1547,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="I36" s="1" t="n">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:9">
@@ -1674,10 +1674,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C41" s="1" t="n">
-        <x:v>4358</x:v>
+        <x:v>4371</x:v>
       </x:c>
       <x:c r="D41" s="1" t="n">
-        <x:v>2775</x:v>
+        <x:v>2787</x:v>
       </x:c>
       <x:c r="E41" s="1" t="n">
         <x:v>167</x:v>
@@ -1689,10 +1689,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="H41" s="1" t="n">
-        <x:v>790</x:v>
+        <x:v>791</x:v>
       </x:c>
       <x:c r="I41" s="1" t="n">
-        <x:v>8476</x:v>
+        <x:v>8502</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9">
@@ -1703,7 +1703,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C42" s="1" t="n">
-        <x:v>428</x:v>
+        <x:v>430</x:v>
       </x:c>
       <x:c r="D42" s="1" t="n">
         <x:v>295</x:v>
@@ -1721,7 +1721,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="I42" s="1" t="n">
-        <x:v>842</x:v>
+        <x:v>844</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:9">
@@ -1732,10 +1732,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C43" s="1" t="n">
-        <x:v>4786</x:v>
+        <x:v>4801</x:v>
       </x:c>
       <x:c r="D43" s="1" t="n">
-        <x:v>3070</x:v>
+        <x:v>3082</x:v>
       </x:c>
       <x:c r="E43" s="1" t="n">
         <x:v>193</x:v>
@@ -1747,10 +1747,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="H43" s="1" t="n">
-        <x:v>857</x:v>
+        <x:v>858</x:v>
       </x:c>
       <x:c r="I43" s="1" t="n">
-        <x:v>9318</x:v>
+        <x:v>9346</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:9">
@@ -1790,7 +1790,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
         <x:v>73</x:v>
@@ -1808,7 +1808,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>111</x:v>
+        <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1819,7 +1819,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C46" s="1" t="n">
-        <x:v>170</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="D46" s="1" t="n">
         <x:v>167</x:v>
@@ -1837,7 +1837,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="I46" s="1" t="n">
-        <x:v>430</x:v>
+        <x:v>432</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
@@ -1848,7 +1848,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
         <x:v>7</x:v>
@@ -1866,7 +1866,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -1906,7 +1906,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C49" s="1" t="n">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D49" s="1" t="n">
         <x:v>10</x:v>
@@ -1924,7 +1924,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="I49" s="1" t="n">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:9">
@@ -2109,7 +2109,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C56" s="1" t="n">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D56" s="1" t="n">
         <x:v>14</x:v>
@@ -2118,7 +2118,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F56" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G56" s="1" t="n">
         <x:v>0</x:v>
@@ -2127,7 +2127,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="I56" s="1" t="n">
-        <x:v>84</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:9">
@@ -2138,7 +2138,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C57" s="1" t="n">
-        <x:v>306</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="D57" s="1" t="n">
         <x:v>136</x:v>
@@ -2147,7 +2147,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="F57" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G57" s="1" t="n">
         <x:v>2</x:v>
@@ -2156,7 +2156,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="I57" s="1" t="n">
-        <x:v>563</x:v>
+        <x:v>565</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:9">
@@ -2167,7 +2167,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C58" s="1" t="n">
-        <x:v>276</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="D58" s="1" t="n">
         <x:v>259</x:v>
@@ -2185,7 +2185,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="I58" s="1" t="n">
-        <x:v>673</x:v>
+        <x:v>674</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">
@@ -2225,7 +2225,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C60" s="1" t="n">
-        <x:v>287</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="D60" s="1" t="n">
         <x:v>346</x:v>
@@ -2243,7 +2243,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="I60" s="1" t="n">
-        <x:v>795</x:v>
+        <x:v>796</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">
@@ -2254,7 +2254,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C61" s="1" t="n">
-        <x:v>380</x:v>
+        <x:v>381</x:v>
       </x:c>
       <x:c r="D61" s="1" t="n">
         <x:v>541</x:v>
@@ -2272,7 +2272,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="I61" s="1" t="n">
-        <x:v>1103</x:v>
+        <x:v>1104</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
@@ -2312,7 +2312,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C63" s="1" t="n">
-        <x:v>417</x:v>
+        <x:v>418</x:v>
       </x:c>
       <x:c r="D63" s="1" t="n">
         <x:v>653</x:v>
@@ -2330,7 +2330,7 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="I63" s="1" t="n">
-        <x:v>1278</x:v>
+        <x:v>1279</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -717,25 +717,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>4375</x:v>
+        <x:v>4379</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>2642</x:v>
+        <x:v>2648</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>197</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>410</x:v>
+        <x:v>411</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>893</x:v>
+        <x:v>894</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>8531</x:v>
+        <x:v>8543</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -749,7 +749,7 @@
         <x:v>520</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>486</x:v>
+        <x:v>487</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
         <x:v>18</x:v>
@@ -764,7 +764,7 @@
         <x:v>158</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>1267</x:v>
+        <x:v>1268</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -775,25 +775,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>4895</x:v>
+        <x:v>4899</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>3128</x:v>
+        <x:v>3135</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>215</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>492</x:v>
+        <x:v>493</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>17</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>1051</x:v>
+        <x:v>1052</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>9798</x:v>
+        <x:v>9811</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -949,7 +949,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>189</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
         <x:v>82</x:v>
@@ -967,7 +967,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>326</x:v>
+        <x:v>327</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -1007,7 +1007,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C18" s="1" t="n">
-        <x:v>189</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
         <x:v>85</x:v>
@@ -1025,7 +1025,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="I18" s="1" t="n">
-        <x:v>330</x:v>
+        <x:v>331</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
@@ -1065,7 +1065,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
         <x:v>63</x:v>
@@ -1083,7 +1083,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>197</x:v>
+        <x:v>198</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1094,7 +1094,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>593</x:v>
+        <x:v>594</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
         <x:v>310</x:v>
@@ -1112,7 +1112,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>1119</x:v>
+        <x:v>1120</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1123,7 +1123,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>2391</x:v>
+        <x:v>2393</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
         <x:v>1168</x:v>
@@ -1141,7 +1141,7 @@
         <x:v>537</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>4516</x:v>
+        <x:v>4518</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1181,7 +1181,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>2462</x:v>
+        <x:v>2464</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
         <x:v>1186</x:v>
@@ -1199,7 +1199,7 @@
         <x:v>557</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>4634</x:v>
+        <x:v>4636</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1297,7 +1297,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C28" s="1" t="n">
-        <x:v>598</x:v>
+        <x:v>599</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
         <x:v>413</x:v>
@@ -1306,7 +1306,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="F28" s="1" t="n">
-        <x:v>74</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="G28" s="1" t="n">
         <x:v>1</x:v>
@@ -1315,7 +1315,7 @@
         <x:v>159</x:v>
       </x:c>
       <x:c r="I28" s="1" t="n">
-        <x:v>1276</x:v>
+        <x:v>1279</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:9">
@@ -1355,7 +1355,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C30" s="1" t="n">
-        <x:v>620</x:v>
+        <x:v>621</x:v>
       </x:c>
       <x:c r="D30" s="1" t="n">
         <x:v>433</x:v>
@@ -1364,7 +1364,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="F30" s="1" t="n">
-        <x:v>79</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="G30" s="1" t="n">
         <x:v>1</x:v>
@@ -1373,7 +1373,7 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="I30" s="1" t="n">
-        <x:v>1330</x:v>
+        <x:v>1333</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:9">
@@ -1674,10 +1674,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C41" s="1" t="n">
-        <x:v>4371</x:v>
+        <x:v>4378</x:v>
       </x:c>
       <x:c r="D41" s="1" t="n">
-        <x:v>2787</x:v>
+        <x:v>2788</x:v>
       </x:c>
       <x:c r="E41" s="1" t="n">
         <x:v>167</x:v>
@@ -1689,10 +1689,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="H41" s="1" t="n">
-        <x:v>791</x:v>
+        <x:v>790</x:v>
       </x:c>
       <x:c r="I41" s="1" t="n">
-        <x:v>8502</x:v>
+        <x:v>8509</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9">
@@ -1703,10 +1703,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C42" s="1" t="n">
-        <x:v>430</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="D42" s="1" t="n">
-        <x:v>295</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="E42" s="1" t="n">
         <x:v>26</x:v>
@@ -1718,10 +1718,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H42" s="1" t="n">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="I42" s="1" t="n">
-        <x:v>844</x:v>
+        <x:v>847</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:9">
@@ -1732,7 +1732,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C43" s="1" t="n">
-        <x:v>4801</x:v>
+        <x:v>4811</x:v>
       </x:c>
       <x:c r="D43" s="1" t="n">
         <x:v>3082</x:v>
@@ -1750,7 +1750,7 @@
         <x:v>858</x:v>
       </x:c>
       <x:c r="I43" s="1" t="n">
-        <x:v>9346</x:v>
+        <x:v>9356</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:9">
@@ -1776,10 +1776,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H44" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="I44" s="1" t="n">
-        <x:v>319</x:v>
+        <x:v>320</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:9">
@@ -1834,10 +1834,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H46" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="I46" s="1" t="n">
-        <x:v>432</x:v>
+        <x:v>433</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
@@ -2167,7 +2167,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C58" s="1" t="n">
-        <x:v>277</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="D58" s="1" t="n">
         <x:v>259</x:v>
@@ -2185,7 +2185,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="I58" s="1" t="n">
-        <x:v>674</x:v>
+        <x:v>675</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">
@@ -2225,7 +2225,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C60" s="1" t="n">
-        <x:v>288</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="D60" s="1" t="n">
         <x:v>346</x:v>
@@ -2243,7 +2243,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="I60" s="1" t="n">
-        <x:v>796</x:v>
+        <x:v>797</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -717,13 +717,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>4379</x:v>
+        <x:v>4387</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>2648</x:v>
+        <x:v>2650</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>197</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
         <x:v>411</x:v>
@@ -732,10 +732,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>894</x:v>
+        <x:v>896</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>8543</x:v>
+        <x:v>8556</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -746,7 +746,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>520</x:v>
+        <x:v>521</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
         <x:v>487</x:v>
@@ -764,7 +764,7 @@
         <x:v>158</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>1268</x:v>
+        <x:v>1269</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -775,13 +775,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>4899</x:v>
+        <x:v>4908</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>3135</x:v>
+        <x:v>3137</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
         <x:v>493</x:v>
@@ -790,10 +790,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>1052</x:v>
+        <x:v>1054</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>9811</x:v>
+        <x:v>9825</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -949,7 +949,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>190</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
         <x:v>82</x:v>
@@ -967,7 +967,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>327</x:v>
+        <x:v>326</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -1007,7 +1007,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C18" s="1" t="n">
-        <x:v>190</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
         <x:v>85</x:v>
@@ -1025,7 +1025,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="I18" s="1" t="n">
-        <x:v>331</x:v>
+        <x:v>330</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
@@ -1036,10 +1036,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>494</x:v>
+        <x:v>495</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
-        <x:v>247</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
         <x:v>28</x:v>
@@ -1054,7 +1054,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>922</x:v>
+        <x:v>924</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1065,7 +1065,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
         <x:v>63</x:v>
@@ -1083,7 +1083,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>198</x:v>
+        <x:v>199</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1094,10 +1094,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>594</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
-        <x:v>310</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="E21" s="1" t="n">
         <x:v>30</x:v>
@@ -1112,7 +1112,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>1120</x:v>
+        <x:v>1123</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1123,10 +1123,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>2393</x:v>
+        <x:v>2397</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>1168</x:v>
+        <x:v>1172</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>88</x:v>
@@ -1138,10 +1138,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
-        <x:v>537</x:v>
+        <x:v>539</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>4518</x:v>
+        <x:v>4528</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1181,10 +1181,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>2464</x:v>
+        <x:v>2468</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>1186</x:v>
+        <x:v>1190</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>95</x:v>
@@ -1196,10 +1196,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="H24" s="1" t="n">
-        <x:v>557</x:v>
+        <x:v>559</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>4636</x:v>
+        <x:v>4646</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1297,13 +1297,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C28" s="1" t="n">
-        <x:v>599</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
-        <x:v>413</x:v>
+        <x:v>414</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F28" s="1" t="n">
         <x:v>76</x:v>
@@ -1315,7 +1315,7 @@
         <x:v>159</x:v>
       </x:c>
       <x:c r="I28" s="1" t="n">
-        <x:v>1279</x:v>
+        <x:v>1282</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:9">
@@ -1355,13 +1355,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C30" s="1" t="n">
-        <x:v>621</x:v>
+        <x:v>622</x:v>
       </x:c>
       <x:c r="D30" s="1" t="n">
-        <x:v>433</x:v>
+        <x:v>434</x:v>
       </x:c>
       <x:c r="E30" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F30" s="1" t="n">
         <x:v>81</x:v>
@@ -1373,7 +1373,7 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="I30" s="1" t="n">
-        <x:v>1333</x:v>
+        <x:v>1336</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:9">
@@ -1471,7 +1471,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C34" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D34" s="1" t="n">
         <x:v>45</x:v>
@@ -1486,10 +1486,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H34" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I34" s="1" t="n">
-        <x:v>68</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:9">
@@ -1529,7 +1529,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C36" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D36" s="1" t="n">
         <x:v>50</x:v>
@@ -1544,10 +1544,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H36" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I36" s="1" t="n">
-        <x:v>77</x:v>
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:9">
@@ -1616,7 +1616,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C39" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D39" s="1" t="n">
         <x:v>24</x:v>
@@ -1634,7 +1634,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="I39" s="1" t="n">
-        <x:v>73</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:9">
@@ -1645,7 +1645,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C40" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D40" s="1" t="n">
         <x:v>24</x:v>
@@ -1663,7 +1663,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="I40" s="1" t="n">
-        <x:v>73</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:9">
@@ -1674,7 +1674,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C41" s="1" t="n">
-        <x:v>4378</x:v>
+        <x:v>4382</x:v>
       </x:c>
       <x:c r="D41" s="1" t="n">
         <x:v>2788</x:v>
@@ -1683,7 +1683,7 @@
         <x:v>167</x:v>
       </x:c>
       <x:c r="F41" s="1" t="n">
-        <x:v>375</x:v>
+        <x:v>376</x:v>
       </x:c>
       <x:c r="G41" s="1" t="n">
         <x:v>11</x:v>
@@ -1692,7 +1692,7 @@
         <x:v>790</x:v>
       </x:c>
       <x:c r="I41" s="1" t="n">
-        <x:v>8509</x:v>
+        <x:v>8514</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9">
@@ -1706,7 +1706,7 @@
         <x:v>433</x:v>
       </x:c>
       <x:c r="D42" s="1" t="n">
-        <x:v>294</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="E42" s="1" t="n">
         <x:v>26</x:v>
@@ -1721,7 +1721,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="I42" s="1" t="n">
-        <x:v>847</x:v>
+        <x:v>848</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:9">
@@ -1732,16 +1732,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C43" s="1" t="n">
-        <x:v>4811</x:v>
+        <x:v>4815</x:v>
       </x:c>
       <x:c r="D43" s="1" t="n">
-        <x:v>3082</x:v>
+        <x:v>3083</x:v>
       </x:c>
       <x:c r="E43" s="1" t="n">
         <x:v>193</x:v>
       </x:c>
       <x:c r="F43" s="1" t="n">
-        <x:v>400</x:v>
+        <x:v>401</x:v>
       </x:c>
       <x:c r="G43" s="1" t="n">
         <x:v>12</x:v>
@@ -1750,7 +1750,7 @@
         <x:v>858</x:v>
       </x:c>
       <x:c r="I43" s="1" t="n">
-        <x:v>9356</x:v>
+        <x:v>9362</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:9">
@@ -1851,7 +1851,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E47" s="1" t="n">
         <x:v>0</x:v>
@@ -1866,7 +1866,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -1909,7 +1909,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="D49" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E49" s="1" t="n">
         <x:v>0</x:v>
@@ -1924,7 +1924,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="I49" s="1" t="n">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:9">
@@ -1996,7 +1996,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="D52" s="1" t="n">
-        <x:v>207</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="E52" s="1" t="n">
         <x:v>2</x:v>
@@ -2011,7 +2011,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="I52" s="1" t="n">
-        <x:v>292</x:v>
+        <x:v>293</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:9">
@@ -2054,7 +2054,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="D54" s="1" t="n">
-        <x:v>307</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="E54" s="1" t="n">
         <x:v>9</x:v>
@@ -2069,7 +2069,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="I54" s="1" t="n">
-        <x:v>426</x:v>
+        <x:v>427</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:9">
@@ -2095,10 +2095,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H55" s="1" t="n">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="I55" s="1" t="n">
-        <x:v>479</x:v>
+        <x:v>480</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:9">
@@ -2153,10 +2153,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H57" s="1" t="n">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="I57" s="1" t="n">
-        <x:v>565</x:v>
+        <x:v>566</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:9">
@@ -2254,7 +2254,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C61" s="1" t="n">
-        <x:v>381</x:v>
+        <x:v>382</x:v>
       </x:c>
       <x:c r="D61" s="1" t="n">
         <x:v>541</x:v>
@@ -2269,10 +2269,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H61" s="1" t="n">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I61" s="1" t="n">
-        <x:v>1104</x:v>
+        <x:v>1106</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
@@ -2312,7 +2312,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C63" s="1" t="n">
-        <x:v>418</x:v>
+        <x:v>419</x:v>
       </x:c>
       <x:c r="D63" s="1" t="n">
         <x:v>653</x:v>
@@ -2327,10 +2327,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H63" s="1" t="n">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="I63" s="1" t="n">
-        <x:v>1279</x:v>
+        <x:v>1281</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -546,7 +546,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>1</x:v>
@@ -561,7 +561,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -604,7 +604,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>1</x:v>
@@ -619,7 +619,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -717,7 +717,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>4387</x:v>
+        <x:v>4388</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
         <x:v>2650</x:v>
@@ -735,7 +735,7 @@
         <x:v>896</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>8556</x:v>
+        <x:v>8557</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -755,7 +755,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
         <x:v>3</x:v>
@@ -764,7 +764,7 @@
         <x:v>158</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>1269</x:v>
+        <x:v>1270</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -775,7 +775,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>4908</x:v>
+        <x:v>4909</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
         <x:v>3137</x:v>
@@ -784,7 +784,7 @@
         <x:v>216</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>493</x:v>
+        <x:v>494</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>17</x:v>
@@ -793,7 +793,7 @@
         <x:v>1054</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>9825</x:v>
+        <x:v>9827</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -949,16 +949,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>189</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
         <x:v>82</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
         <x:v>0</x:v>
@@ -967,7 +967,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>326</x:v>
+        <x:v>330</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -1007,16 +1007,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C18" s="1" t="n">
-        <x:v>189</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
         <x:v>85</x:v>
       </x:c>
       <x:c r="E18" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F18" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G18" s="1" t="n">
         <x:v>0</x:v>
@@ -1025,7 +1025,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="I18" s="1" t="n">
-        <x:v>330</x:v>
+        <x:v>334</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
@@ -1065,7 +1065,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
         <x:v>63</x:v>
@@ -1083,7 +1083,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1094,7 +1094,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>596</x:v>
+        <x:v>597</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
         <x:v>311</x:v>
@@ -1112,7 +1112,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>1123</x:v>
+        <x:v>1124</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1123,7 +1123,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>2397</x:v>
+        <x:v>2398</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
         <x:v>1172</x:v>
@@ -1141,7 +1141,7 @@
         <x:v>539</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>4528</x:v>
+        <x:v>4529</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1181,7 +1181,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>2468</x:v>
+        <x:v>2469</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
         <x:v>1190</x:v>
@@ -1199,7 +1199,7 @@
         <x:v>559</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>4646</x:v>
+        <x:v>4647</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1300,13 +1300,13 @@
         <x:v>600</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
-        <x:v>414</x:v>
+        <x:v>415</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
         <x:v>32</x:v>
       </x:c>
       <x:c r="F28" s="1" t="n">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="G28" s="1" t="n">
         <x:v>1</x:v>
@@ -1315,7 +1315,7 @@
         <x:v>159</x:v>
       </x:c>
       <x:c r="I28" s="1" t="n">
-        <x:v>1282</x:v>
+        <x:v>1284</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:9">
@@ -1358,13 +1358,13 @@
         <x:v>622</x:v>
       </x:c>
       <x:c r="D30" s="1" t="n">
-        <x:v>434</x:v>
+        <x:v>435</x:v>
       </x:c>
       <x:c r="E30" s="1" t="n">
         <x:v>32</x:v>
       </x:c>
       <x:c r="F30" s="1" t="n">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="G30" s="1" t="n">
         <x:v>1</x:v>
@@ -1373,7 +1373,7 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="I30" s="1" t="n">
-        <x:v>1336</x:v>
+        <x:v>1338</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:9">
@@ -1558,13 +1558,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C37" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D37" s="1" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="E37" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F37" s="1" t="n">
         <x:v>1</x:v>
@@ -1576,7 +1576,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I37" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:9">
@@ -1587,13 +1587,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C38" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D38" s="1" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="E38" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F38" s="1" t="n">
         <x:v>1</x:v>
@@ -1605,7 +1605,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I38" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:9">
@@ -1674,10 +1674,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C41" s="1" t="n">
-        <x:v>4382</x:v>
+        <x:v>4384</x:v>
       </x:c>
       <x:c r="D41" s="1" t="n">
-        <x:v>2788</x:v>
+        <x:v>2790</x:v>
       </x:c>
       <x:c r="E41" s="1" t="n">
         <x:v>167</x:v>
@@ -1692,7 +1692,7 @@
         <x:v>790</x:v>
       </x:c>
       <x:c r="I41" s="1" t="n">
-        <x:v>8514</x:v>
+        <x:v>8518</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9">
@@ -1703,10 +1703,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C42" s="1" t="n">
-        <x:v>433</x:v>
+        <x:v>436</x:v>
       </x:c>
       <x:c r="D42" s="1" t="n">
-        <x:v>295</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="E42" s="1" t="n">
         <x:v>26</x:v>
@@ -1718,10 +1718,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H42" s="1" t="n">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="I42" s="1" t="n">
-        <x:v>848</x:v>
+        <x:v>853</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:9">
@@ -1732,10 +1732,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C43" s="1" t="n">
-        <x:v>4815</x:v>
+        <x:v>4820</x:v>
       </x:c>
       <x:c r="D43" s="1" t="n">
-        <x:v>3083</x:v>
+        <x:v>3086</x:v>
       </x:c>
       <x:c r="E43" s="1" t="n">
         <x:v>193</x:v>
@@ -1747,10 +1747,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="H43" s="1" t="n">
-        <x:v>858</x:v>
+        <x:v>859</x:v>
       </x:c>
       <x:c r="I43" s="1" t="n">
-        <x:v>9362</x:v>
+        <x:v>9371</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:9">
@@ -2167,10 +2167,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C58" s="1" t="n">
-        <x:v>278</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="D58" s="1" t="n">
-        <x:v>259</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="E58" s="1" t="n">
         <x:v>18</x:v>
@@ -2185,7 +2185,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="I58" s="1" t="n">
-        <x:v>675</x:v>
+        <x:v>677</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">
@@ -2199,7 +2199,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D59" s="1" t="n">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E59" s="1" t="n">
         <x:v>4</x:v>
@@ -2214,7 +2214,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="I59" s="1" t="n">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9">
@@ -2225,10 +2225,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C60" s="1" t="n">
-        <x:v>289</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="D60" s="1" t="n">
-        <x:v>346</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="E60" s="1" t="n">
         <x:v>22</x:v>
@@ -2243,7 +2243,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="I60" s="1" t="n">
-        <x:v>797</x:v>
+        <x:v>800</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -949,7 +949,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>190</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
         <x:v>82</x:v>
@@ -967,7 +967,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>330</x:v>
+        <x:v>331</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -1007,7 +1007,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C18" s="1" t="n">
-        <x:v>190</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
         <x:v>85</x:v>
@@ -1025,7 +1025,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="I18" s="1" t="n">
-        <x:v>334</x:v>
+        <x:v>335</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
@@ -1300,7 +1300,7 @@
         <x:v>600</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
-        <x:v>415</x:v>
+        <x:v>418</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
         <x:v>32</x:v>
@@ -1315,7 +1315,7 @@
         <x:v>159</x:v>
       </x:c>
       <x:c r="I28" s="1" t="n">
-        <x:v>1284</x:v>
+        <x:v>1287</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:9">
@@ -1358,7 +1358,7 @@
         <x:v>622</x:v>
       </x:c>
       <x:c r="D30" s="1" t="n">
-        <x:v>435</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="E30" s="1" t="n">
         <x:v>32</x:v>
@@ -1373,7 +1373,7 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="I30" s="1" t="n">
-        <x:v>1338</x:v>
+        <x:v>1341</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:9">
@@ -1674,16 +1674,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C41" s="1" t="n">
-        <x:v>4384</x:v>
+        <x:v>4385</x:v>
       </x:c>
       <x:c r="D41" s="1" t="n">
-        <x:v>2790</x:v>
+        <x:v>2793</x:v>
       </x:c>
       <x:c r="E41" s="1" t="n">
-        <x:v>167</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="F41" s="1" t="n">
-        <x:v>376</x:v>
+        <x:v>377</x:v>
       </x:c>
       <x:c r="G41" s="1" t="n">
         <x:v>11</x:v>
@@ -1692,7 +1692,7 @@
         <x:v>790</x:v>
       </x:c>
       <x:c r="I41" s="1" t="n">
-        <x:v>8518</x:v>
+        <x:v>8524</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9">
@@ -1732,16 +1732,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C43" s="1" t="n">
-        <x:v>4820</x:v>
+        <x:v>4821</x:v>
       </x:c>
       <x:c r="D43" s="1" t="n">
-        <x:v>3086</x:v>
+        <x:v>3089</x:v>
       </x:c>
       <x:c r="E43" s="1" t="n">
-        <x:v>193</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="F43" s="1" t="n">
-        <x:v>401</x:v>
+        <x:v>402</x:v>
       </x:c>
       <x:c r="G43" s="1" t="n">
         <x:v>12</x:v>
@@ -1750,7 +1750,7 @@
         <x:v>859</x:v>
       </x:c>
       <x:c r="I43" s="1" t="n">
-        <x:v>9371</x:v>
+        <x:v>9377</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:9">
@@ -1996,7 +1996,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="D52" s="1" t="n">
-        <x:v>208</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="E52" s="1" t="n">
         <x:v>2</x:v>
@@ -2011,7 +2011,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="I52" s="1" t="n">
-        <x:v>293</x:v>
+        <x:v>292</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:9">
@@ -2054,7 +2054,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="D54" s="1" t="n">
-        <x:v>308</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="E54" s="1" t="n">
         <x:v>9</x:v>
@@ -2069,7 +2069,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="I54" s="1" t="n">
-        <x:v>427</x:v>
+        <x:v>426</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:9">
@@ -2257,7 +2257,7 @@
         <x:v>382</x:v>
       </x:c>
       <x:c r="D61" s="1" t="n">
-        <x:v>541</x:v>
+        <x:v>542</x:v>
       </x:c>
       <x:c r="E61" s="1" t="n">
         <x:v>36</x:v>
@@ -2272,7 +2272,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="I61" s="1" t="n">
-        <x:v>1106</x:v>
+        <x:v>1107</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
@@ -2315,7 +2315,7 @@
         <x:v>419</x:v>
       </x:c>
       <x:c r="D63" s="1" t="n">
-        <x:v>653</x:v>
+        <x:v>654</x:v>
       </x:c>
       <x:c r="E63" s="1" t="n">
         <x:v>43</x:v>
@@ -2330,7 +2330,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="I63" s="1" t="n">
-        <x:v>1281</x:v>
+        <x:v>1282</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -717,7 +717,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>4388</x:v>
+        <x:v>4389</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
         <x:v>2650</x:v>
@@ -726,16 +726,16 @@
         <x:v>198</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>411</x:v>
+        <x:v>414</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>896</x:v>
+        <x:v>897</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>8557</x:v>
+        <x:v>8562</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -775,7 +775,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>4909</x:v>
+        <x:v>4910</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
         <x:v>3137</x:v>
@@ -784,16 +784,16 @@
         <x:v>216</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>494</x:v>
+        <x:v>497</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>17</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>1054</x:v>
+        <x:v>1055</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>9827</x:v>
+        <x:v>9832</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -1036,7 +1036,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>495</x:v>
+        <x:v>496</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
         <x:v>248</x:v>
@@ -1054,7 +1054,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>924</x:v>
+        <x:v>925</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1094,7 +1094,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>597</x:v>
+        <x:v>598</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
         <x:v>311</x:v>
@@ -1112,7 +1112,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>1124</x:v>
+        <x:v>1125</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1126,13 +1126,13 @@
         <x:v>2398</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>1172</x:v>
+        <x:v>1173</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>88</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
-        <x:v>321</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
         <x:v>11</x:v>
@@ -1141,7 +1141,7 @@
         <x:v>539</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>4529</x:v>
+        <x:v>4532</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1184,13 +1184,13 @@
         <x:v>2469</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>1190</x:v>
+        <x:v>1191</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>95</x:v>
       </x:c>
       <x:c r="F24" s="1" t="n">
-        <x:v>323</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="G24" s="1" t="n">
         <x:v>11</x:v>
@@ -1199,7 +1199,7 @@
         <x:v>559</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>4647</x:v>
+        <x:v>4650</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1306,7 +1306,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="F28" s="1" t="n">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G28" s="1" t="n">
         <x:v>1</x:v>
@@ -1315,7 +1315,7 @@
         <x:v>159</x:v>
       </x:c>
       <x:c r="I28" s="1" t="n">
-        <x:v>1287</x:v>
+        <x:v>1288</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:9">
@@ -1364,7 +1364,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="F30" s="1" t="n">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="G30" s="1" t="n">
         <x:v>1</x:v>
@@ -1373,7 +1373,7 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="I30" s="1" t="n">
-        <x:v>1341</x:v>
+        <x:v>1342</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:9">
@@ -1474,7 +1474,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="D34" s="1" t="n">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E34" s="1" t="n">
         <x:v>2</x:v>
@@ -1486,10 +1486,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H34" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I34" s="1" t="n">
-        <x:v>70</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:9">
@@ -1532,7 +1532,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="D36" s="1" t="n">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E36" s="1" t="n">
         <x:v>2</x:v>
@@ -1544,10 +1544,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H36" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I36" s="1" t="n">
-        <x:v>79</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:9">
@@ -2167,7 +2167,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C58" s="1" t="n">
-        <x:v>279</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="D58" s="1" t="n">
         <x:v>260</x:v>
@@ -2185,7 +2185,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="I58" s="1" t="n">
-        <x:v>677</x:v>
+        <x:v>678</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">
@@ -2225,7 +2225,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C60" s="1" t="n">
-        <x:v>290</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="D60" s="1" t="n">
         <x:v>348</x:v>
@@ -2243,7 +2243,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="I60" s="1" t="n">
-        <x:v>800</x:v>
+        <x:v>801</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">
@@ -2254,16 +2254,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C61" s="1" t="n">
-        <x:v>382</x:v>
+        <x:v>381</x:v>
       </x:c>
       <x:c r="D61" s="1" t="n">
-        <x:v>542</x:v>
+        <x:v>543</x:v>
       </x:c>
       <x:c r="E61" s="1" t="n">
         <x:v>36</x:v>
       </x:c>
       <x:c r="F61" s="1" t="n">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="G61" s="1" t="n">
         <x:v>1</x:v>
@@ -2272,7 +2272,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="I61" s="1" t="n">
-        <x:v>1107</x:v>
+        <x:v>1108</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
@@ -2312,16 +2312,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C63" s="1" t="n">
-        <x:v>419</x:v>
+        <x:v>418</x:v>
       </x:c>
       <x:c r="D63" s="1" t="n">
-        <x:v>654</x:v>
+        <x:v>655</x:v>
       </x:c>
       <x:c r="E63" s="1" t="n">
         <x:v>43</x:v>
       </x:c>
       <x:c r="F63" s="1" t="n">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="G63" s="1" t="n">
         <x:v>1</x:v>
@@ -2330,7 +2330,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="I63" s="1" t="n">
-        <x:v>1282</x:v>
+        <x:v>1283</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -717,7 +717,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>4389</x:v>
+        <x:v>4395</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
         <x:v>2650</x:v>
@@ -732,10 +732,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>897</x:v>
+        <x:v>898</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>8562</x:v>
+        <x:v>8569</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -746,7 +746,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>521</x:v>
+        <x:v>522</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
         <x:v>487</x:v>
@@ -764,7 +764,7 @@
         <x:v>158</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>1270</x:v>
+        <x:v>1271</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -775,7 +775,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>4910</x:v>
+        <x:v>4917</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
         <x:v>3137</x:v>
@@ -790,10 +790,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>1055</x:v>
+        <x:v>1056</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>9832</x:v>
+        <x:v>9840</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -865,7 +865,7 @@
         <x:v>445</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>339</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>27</x:v>
@@ -880,7 +880,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>928</x:v>
+        <x:v>929</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -923,7 +923,7 @@
         <x:v>489</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>370</x:v>
+        <x:v>371</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
         <x:v>28</x:v>
@@ -938,7 +938,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>1033</x:v>
+        <x:v>1034</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -1036,10 +1036,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>496</x:v>
+        <x:v>498</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
-        <x:v>248</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
         <x:v>28</x:v>
@@ -1054,7 +1054,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>925</x:v>
+        <x:v>928</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1094,10 +1094,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>598</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
-        <x:v>311</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="E21" s="1" t="n">
         <x:v>30</x:v>
@@ -1112,7 +1112,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>1125</x:v>
+        <x:v>1128</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1123,25 +1123,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>2398</x:v>
+        <x:v>2400</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>1173</x:v>
+        <x:v>1174</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>88</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
-        <x:v>323</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
         <x:v>11</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
-        <x:v>539</x:v>
+        <x:v>541</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>4532</x:v>
+        <x:v>4538</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1181,25 +1181,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>2469</x:v>
+        <x:v>2471</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>1191</x:v>
+        <x:v>1192</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>95</x:v>
       </x:c>
       <x:c r="F24" s="1" t="n">
-        <x:v>325</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="G24" s="1" t="n">
         <x:v>11</x:v>
       </x:c>
       <x:c r="H24" s="1" t="n">
-        <x:v>559</x:v>
+        <x:v>561</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>4650</x:v>
+        <x:v>4656</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1297,16 +1297,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C28" s="1" t="n">
-        <x:v>600</x:v>
+        <x:v>603</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
-        <x:v>418</x:v>
+        <x:v>419</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
         <x:v>32</x:v>
       </x:c>
       <x:c r="F28" s="1" t="n">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="G28" s="1" t="n">
         <x:v>1</x:v>
@@ -1315,7 +1315,7 @@
         <x:v>159</x:v>
       </x:c>
       <x:c r="I28" s="1" t="n">
-        <x:v>1288</x:v>
+        <x:v>1293</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:9">
@@ -1355,16 +1355,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C30" s="1" t="n">
-        <x:v>622</x:v>
+        <x:v>625</x:v>
       </x:c>
       <x:c r="D30" s="1" t="n">
-        <x:v>438</x:v>
+        <x:v>439</x:v>
       </x:c>
       <x:c r="E30" s="1" t="n">
         <x:v>32</x:v>
       </x:c>
       <x:c r="F30" s="1" t="n">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G30" s="1" t="n">
         <x:v>1</x:v>
@@ -1373,7 +1373,7 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="I30" s="1" t="n">
-        <x:v>1342</x:v>
+        <x:v>1347</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:9">
@@ -1677,7 +1677,7 @@
         <x:v>4385</x:v>
       </x:c>
       <x:c r="D41" s="1" t="n">
-        <x:v>2793</x:v>
+        <x:v>2795</x:v>
       </x:c>
       <x:c r="E41" s="1" t="n">
         <x:v>168</x:v>
@@ -1689,10 +1689,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="H41" s="1" t="n">
-        <x:v>790</x:v>
+        <x:v>792</x:v>
       </x:c>
       <x:c r="I41" s="1" t="n">
-        <x:v>8524</x:v>
+        <x:v>8528</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9">
@@ -1735,7 +1735,7 @@
         <x:v>4821</x:v>
       </x:c>
       <x:c r="D43" s="1" t="n">
-        <x:v>3089</x:v>
+        <x:v>3091</x:v>
       </x:c>
       <x:c r="E43" s="1" t="n">
         <x:v>194</x:v>
@@ -1747,10 +1747,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="H43" s="1" t="n">
-        <x:v>859</x:v>
+        <x:v>861</x:v>
       </x:c>
       <x:c r="I43" s="1" t="n">
-        <x:v>9377</x:v>
+        <x:v>9381</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:9">
@@ -1764,7 +1764,7 @@
         <x:v>153</x:v>
       </x:c>
       <x:c r="D44" s="1" t="n">
-        <x:v>94</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="E44" s="1" t="n">
         <x:v>14</x:v>
@@ -1779,7 +1779,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="I44" s="1" t="n">
-        <x:v>320</x:v>
+        <x:v>322</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:9">
@@ -1822,7 +1822,7 @@
         <x:v>172</x:v>
       </x:c>
       <x:c r="D46" s="1" t="n">
-        <x:v>167</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="E46" s="1" t="n">
         <x:v>20</x:v>
@@ -1837,7 +1837,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="I46" s="1" t="n">
-        <x:v>433</x:v>
+        <x:v>435</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
@@ -2083,7 +2083,7 @@
         <x:v>263</x:v>
       </x:c>
       <x:c r="D55" s="1" t="n">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="E55" s="1" t="n">
         <x:v>13</x:v>
@@ -2098,7 +2098,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="I55" s="1" t="n">
-        <x:v>480</x:v>
+        <x:v>481</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:9">
@@ -2141,7 +2141,7 @@
         <x:v>307</x:v>
       </x:c>
       <x:c r="D57" s="1" t="n">
-        <x:v>136</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="E57" s="1" t="n">
         <x:v>15</x:v>
@@ -2156,7 +2156,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="I57" s="1" t="n">
-        <x:v>566</x:v>
+        <x:v>567</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:9">
@@ -2170,7 +2170,7 @@
         <x:v>280</x:v>
       </x:c>
       <x:c r="D58" s="1" t="n">
-        <x:v>260</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="E58" s="1" t="n">
         <x:v>18</x:v>
@@ -2185,7 +2185,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="I58" s="1" t="n">
-        <x:v>678</x:v>
+        <x:v>679</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">
@@ -2228,7 +2228,7 @@
         <x:v>291</x:v>
       </x:c>
       <x:c r="D60" s="1" t="n">
-        <x:v>348</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="E60" s="1" t="n">
         <x:v>22</x:v>
@@ -2243,7 +2243,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="I60" s="1" t="n">
-        <x:v>801</x:v>
+        <x:v>802</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">
@@ -2254,7 +2254,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C61" s="1" t="n">
-        <x:v>381</x:v>
+        <x:v>382</x:v>
       </x:c>
       <x:c r="D61" s="1" t="n">
         <x:v>543</x:v>
@@ -2272,7 +2272,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="I61" s="1" t="n">
-        <x:v>1108</x:v>
+        <x:v>1109</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
@@ -2312,7 +2312,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C63" s="1" t="n">
-        <x:v>418</x:v>
+        <x:v>419</x:v>
       </x:c>
       <x:c r="D63" s="1" t="n">
         <x:v>655</x:v>
@@ -2330,7 +2330,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="I63" s="1" t="n">
-        <x:v>1283</x:v>
+        <x:v>1284</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -717,7 +717,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>4395</x:v>
+        <x:v>4399</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
         <x:v>2650</x:v>
@@ -726,16 +726,16 @@
         <x:v>198</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>414</x:v>
+        <x:v>415</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>898</x:v>
+        <x:v>899</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>8569</x:v>
+        <x:v>8575</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -746,7 +746,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>522</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
         <x:v>487</x:v>
@@ -761,10 +761,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>1271</x:v>
+        <x:v>1274</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -775,7 +775,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>4917</x:v>
+        <x:v>4923</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
         <x:v>3137</x:v>
@@ -784,16 +784,16 @@
         <x:v>216</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>497</x:v>
+        <x:v>498</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>17</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>1056</x:v>
+        <x:v>1058</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>9840</x:v>
+        <x:v>9849</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -1039,7 +1039,7 @@
         <x:v>498</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
-        <x:v>249</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
         <x:v>28</x:v>
@@ -1054,7 +1054,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>928</x:v>
+        <x:v>929</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1065,7 +1065,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>102</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
         <x:v>63</x:v>
@@ -1083,7 +1083,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>200</x:v>
+        <x:v>202</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1094,10 +1094,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>600</x:v>
+        <x:v>602</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
-        <x:v>312</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="E21" s="1" t="n">
         <x:v>30</x:v>
@@ -1112,7 +1112,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>1128</x:v>
+        <x:v>1131</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1123,22 +1123,22 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>2400</x:v>
+        <x:v>2398</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>1174</x:v>
+        <x:v>1176</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>88</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
-        <x:v>324</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
         <x:v>11</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
-        <x:v>541</x:v>
+        <x:v>542</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
         <x:v>4538</x:v>
@@ -1181,22 +1181,22 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>2471</x:v>
+        <x:v>2469</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>1192</x:v>
+        <x:v>1194</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>95</x:v>
       </x:c>
       <x:c r="F24" s="1" t="n">
-        <x:v>326</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="G24" s="1" t="n">
         <x:v>11</x:v>
       </x:c>
       <x:c r="H24" s="1" t="n">
-        <x:v>561</x:v>
+        <x:v>562</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
         <x:v>4656</x:v>
@@ -1297,13 +1297,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C28" s="1" t="n">
-        <x:v>603</x:v>
+        <x:v>604</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
         <x:v>419</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F28" s="1" t="n">
         <x:v>79</x:v>
@@ -1315,7 +1315,7 @@
         <x:v>159</x:v>
       </x:c>
       <x:c r="I28" s="1" t="n">
-        <x:v>1293</x:v>
+        <x:v>1295</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:9">
@@ -1355,13 +1355,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C30" s="1" t="n">
-        <x:v>625</x:v>
+        <x:v>626</x:v>
       </x:c>
       <x:c r="D30" s="1" t="n">
         <x:v>439</x:v>
       </x:c>
       <x:c r="E30" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F30" s="1" t="n">
         <x:v>84</x:v>
@@ -1373,7 +1373,7 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="I30" s="1" t="n">
-        <x:v>1347</x:v>
+        <x:v>1349</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:9">
@@ -1471,7 +1471,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C34" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D34" s="1" t="n">
         <x:v>46</x:v>
@@ -1489,7 +1489,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="I34" s="1" t="n">
-        <x:v>73</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:9">
@@ -1529,7 +1529,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C36" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D36" s="1" t="n">
         <x:v>51</x:v>
@@ -1547,7 +1547,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="I36" s="1" t="n">
-        <x:v>82</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:9">
@@ -1674,25 +1674,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C41" s="1" t="n">
-        <x:v>4385</x:v>
+        <x:v>4391</x:v>
       </x:c>
       <x:c r="D41" s="1" t="n">
-        <x:v>2795</x:v>
+        <x:v>2800</x:v>
       </x:c>
       <x:c r="E41" s="1" t="n">
         <x:v>168</x:v>
       </x:c>
       <x:c r="F41" s="1" t="n">
-        <x:v>377</x:v>
+        <x:v>382</x:v>
       </x:c>
       <x:c r="G41" s="1" t="n">
         <x:v>11</x:v>
       </x:c>
       <x:c r="H41" s="1" t="n">
-        <x:v>792</x:v>
+        <x:v>794</x:v>
       </x:c>
       <x:c r="I41" s="1" t="n">
-        <x:v>8528</x:v>
+        <x:v>8546</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9">
@@ -1712,7 +1712,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="F42" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G42" s="1" t="n">
         <x:v>1</x:v>
@@ -1721,7 +1721,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="I42" s="1" t="n">
-        <x:v>853</x:v>
+        <x:v>854</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:9">
@@ -1732,25 +1732,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C43" s="1" t="n">
-        <x:v>4821</x:v>
+        <x:v>4827</x:v>
       </x:c>
       <x:c r="D43" s="1" t="n">
-        <x:v>3091</x:v>
+        <x:v>3096</x:v>
       </x:c>
       <x:c r="E43" s="1" t="n">
         <x:v>194</x:v>
       </x:c>
       <x:c r="F43" s="1" t="n">
-        <x:v>402</x:v>
+        <x:v>408</x:v>
       </x:c>
       <x:c r="G43" s="1" t="n">
         <x:v>12</x:v>
       </x:c>
       <x:c r="H43" s="1" t="n">
-        <x:v>861</x:v>
+        <x:v>863</x:v>
       </x:c>
       <x:c r="I43" s="1" t="n">
-        <x:v>9381</x:v>
+        <x:v>9400</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:9">
@@ -1776,10 +1776,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H44" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I44" s="1" t="n">
-        <x:v>322</x:v>
+        <x:v>323</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:9">
@@ -1834,10 +1834,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H46" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="I46" s="1" t="n">
-        <x:v>435</x:v>
+        <x:v>436</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
@@ -1996,13 +1996,13 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="D52" s="1" t="n">
-        <x:v>207</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="E52" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="F52" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G52" s="1" t="n">
         <x:v>0</x:v>
@@ -2011,7 +2011,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="I52" s="1" t="n">
-        <x:v>292</x:v>
+        <x:v>294</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:9">
@@ -2054,13 +2054,13 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="D54" s="1" t="n">
-        <x:v>307</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="E54" s="1" t="n">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F54" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G54" s="1" t="n">
         <x:v>0</x:v>
@@ -2069,7 +2069,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="I54" s="1" t="n">
-        <x:v>426</x:v>
+        <x:v>428</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:9">
@@ -2083,7 +2083,7 @@
         <x:v>263</x:v>
       </x:c>
       <x:c r="D55" s="1" t="n">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="E55" s="1" t="n">
         <x:v>13</x:v>
@@ -2098,7 +2098,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="I55" s="1" t="n">
-        <x:v>481</x:v>
+        <x:v>482</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:9">
@@ -2141,7 +2141,7 @@
         <x:v>307</x:v>
       </x:c>
       <x:c r="D57" s="1" t="n">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="E57" s="1" t="n">
         <x:v>15</x:v>
@@ -2156,7 +2156,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="I57" s="1" t="n">
-        <x:v>567</x:v>
+        <x:v>568</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -543,13 +543,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
         <x:v>1</x:v>
@@ -558,10 +558,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>64</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -601,13 +601,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F4" s="1" t="n">
         <x:v>1</x:v>
@@ -616,10 +616,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>66</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -630,13 +630,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E5" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F5" s="1" t="n">
         <x:v>4</x:v>
@@ -645,10 +645,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H5" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I5" s="1" t="n">
-        <x:v>67</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:9">
@@ -688,13 +688,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>45</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
         <x:v>4</x:v>
@@ -703,10 +703,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H7" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I7" s="1" t="n">
-        <x:v>76</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9">
@@ -717,25 +717,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>4399</x:v>
+        <x:v>5017</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>2650</x:v>
+        <x:v>3061</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>198</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>415</x:v>
+        <x:v>470</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>899</x:v>
+        <x:v>1000</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>8575</x:v>
+        <x:v>9800</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -746,25 +746,25 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>524</x:v>
+        <x:v>571</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>487</x:v>
+        <x:v>522</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>83</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
-        <x:v>159</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>1274</x:v>
+        <x:v>1390</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -775,25 +775,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>4923</x:v>
+        <x:v>5588</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>3137</x:v>
+        <x:v>3583</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>216</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>498</x:v>
+        <x:v>564</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>1058</x:v>
+        <x:v>1173</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>9849</x:v>
+        <x:v>11190</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -862,25 +862,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>445</x:v>
+        <x:v>506</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>340</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>48</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
-        <x:v>67</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>929</x:v>
+        <x:v>1061</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -891,25 +891,25 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>44</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H14" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I14" s="1" t="n">
-        <x:v>105</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
@@ -920,25 +920,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>489</x:v>
+        <x:v>554</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>371</x:v>
+        <x:v>423</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>70</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
-        <x:v>74</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>1034</x:v>
+        <x:v>1181</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -949,25 +949,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>191</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>82</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H16" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>331</x:v>
+        <x:v>361</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -981,7 +981,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
         <x:v>0</x:v>
@@ -996,7 +996,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -1007,25 +1007,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C18" s="1" t="n">
-        <x:v>191</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
-        <x:v>85</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E18" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F18" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G18" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H18" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="I18" s="1" t="n">
-        <x:v>335</x:v>
+        <x:v>367</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
@@ -1036,25 +1036,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>498</x:v>
+        <x:v>568</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
-        <x:v>250</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
-        <x:v>53</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="G19" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H19" s="1" t="n">
-        <x:v>99</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>929</x:v>
+        <x:v>1069</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1065,25 +1065,25 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>104</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>63</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="F20" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G20" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H20" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>202</x:v>
+        <x:v>241</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1094,25 +1094,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>602</x:v>
+        <x:v>693</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
-        <x:v>313</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="E21" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F21" s="1" t="n">
-        <x:v>63</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="G21" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H21" s="1" t="n">
-        <x:v>122</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>1131</x:v>
+        <x:v>1310</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1123,25 +1123,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>2398</x:v>
+        <x:v>2709</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>1176</x:v>
+        <x:v>1345</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
-        <x:v>88</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
-        <x:v>323</x:v>
+        <x:v>377</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
-        <x:v>542</x:v>
+        <x:v>604</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>4538</x:v>
+        <x:v>5143</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1152,10 +1152,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C23" s="1" t="n">
-        <x:v>71</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
         <x:v>7</x:v>
@@ -1167,10 +1167,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H23" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>118</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1181,25 +1181,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>2469</x:v>
+        <x:v>2782</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>1194</x:v>
+        <x:v>1364</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
-        <x:v>95</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="F24" s="1" t="n">
-        <x:v>325</x:v>
+        <x:v>379</x:v>
       </x:c>
       <x:c r="G24" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H24" s="1" t="n">
-        <x:v>562</x:v>
+        <x:v>625</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>4656</x:v>
+        <x:v>5265</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1210,10 +1210,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C25" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E25" s="1" t="n">
         <x:v>1</x:v>
@@ -1228,7 +1228,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="I25" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
@@ -1268,10 +1268,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C27" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D27" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E27" s="1" t="n">
         <x:v>1</x:v>
@@ -1286,7 +1286,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="I27" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:9">
@@ -1297,25 +1297,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C28" s="1" t="n">
-        <x:v>604</x:v>
+        <x:v>667</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
-        <x:v>419</x:v>
+        <x:v>472</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F28" s="1" t="n">
-        <x:v>79</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G28" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H28" s="1" t="n">
-        <x:v>159</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="I28" s="1" t="n">
-        <x:v>1295</x:v>
+        <x:v>1474</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:9">
@@ -1329,7 +1329,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="D29" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E29" s="1" t="n">
         <x:v>0</x:v>
@@ -1341,10 +1341,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H29" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I29" s="1" t="n">
-        <x:v>54</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:9">
@@ -1355,25 +1355,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C30" s="1" t="n">
-        <x:v>626</x:v>
+        <x:v>689</x:v>
       </x:c>
       <x:c r="D30" s="1" t="n">
-        <x:v>439</x:v>
+        <x:v>494</x:v>
       </x:c>
       <x:c r="E30" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F30" s="1" t="n">
-        <x:v>84</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="G30" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H30" s="1" t="n">
-        <x:v>166</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="I30" s="1" t="n">
-        <x:v>1349</x:v>
+        <x:v>1532</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:9">
@@ -1474,22 +1474,22 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="D34" s="1" t="n">
-        <x:v>46</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E34" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="F34" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G34" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H34" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I34" s="1" t="n">
-        <x:v>75</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:9">
@@ -1503,7 +1503,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D35" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E35" s="1" t="n">
         <x:v>0</x:v>
@@ -1518,7 +1518,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I35" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:9">
@@ -1532,22 +1532,22 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="D36" s="1" t="n">
-        <x:v>51</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E36" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="F36" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G36" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H36" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="I36" s="1" t="n">
-        <x:v>84</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:9">
@@ -1558,7 +1558,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C37" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D37" s="1" t="n">
         <x:v>4</x:v>
@@ -1576,7 +1576,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I37" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:9">
@@ -1587,7 +1587,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C38" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D38" s="1" t="n">
         <x:v>4</x:v>
@@ -1605,7 +1605,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I38" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:9">
@@ -1616,10 +1616,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C39" s="1" t="n">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D39" s="1" t="n">
         <x:v>28</x:v>
-      </x:c>
-      <x:c r="D39" s="1" t="n">
-        <x:v>24</x:v>
       </x:c>
       <x:c r="E39" s="1" t="n">
         <x:v>6</x:v>
@@ -1631,10 +1631,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H39" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I39" s="1" t="n">
-        <x:v>72</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:9">
@@ -1645,10 +1645,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C40" s="1" t="n">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D40" s="1" t="n">
         <x:v>28</x:v>
-      </x:c>
-      <x:c r="D40" s="1" t="n">
-        <x:v>24</x:v>
       </x:c>
       <x:c r="E40" s="1" t="n">
         <x:v>6</x:v>
@@ -1660,10 +1660,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H40" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I40" s="1" t="n">
-        <x:v>72</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:9">
@@ -1674,25 +1674,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C41" s="1" t="n">
-        <x:v>4391</x:v>
+        <x:v>5022</x:v>
       </x:c>
       <x:c r="D41" s="1" t="n">
-        <x:v>2800</x:v>
+        <x:v>3218</x:v>
       </x:c>
       <x:c r="E41" s="1" t="n">
-        <x:v>168</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="F41" s="1" t="n">
-        <x:v>382</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="G41" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H41" s="1" t="n">
-        <x:v>794</x:v>
+        <x:v>896</x:v>
       </x:c>
       <x:c r="I41" s="1" t="n">
-        <x:v>8546</x:v>
+        <x:v>9804</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9">
@@ -1703,25 +1703,25 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C42" s="1" t="n">
-        <x:v>436</x:v>
+        <x:v>501</x:v>
       </x:c>
       <x:c r="D42" s="1" t="n">
-        <x:v>296</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="E42" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F42" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="G42" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H42" s="1" t="n">
-        <x:v>69</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="I42" s="1" t="n">
-        <x:v>854</x:v>
+        <x:v>990</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:9">
@@ -1732,25 +1732,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C43" s="1" t="n">
-        <x:v>4827</x:v>
+        <x:v>5523</x:v>
       </x:c>
       <x:c r="D43" s="1" t="n">
-        <x:v>3096</x:v>
+        <x:v>3567</x:v>
       </x:c>
       <x:c r="E43" s="1" t="n">
-        <x:v>194</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="F43" s="1" t="n">
-        <x:v>408</x:v>
+        <x:v>489</x:v>
       </x:c>
       <x:c r="G43" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H43" s="1" t="n">
-        <x:v>863</x:v>
+        <x:v>975</x:v>
       </x:c>
       <x:c r="I43" s="1" t="n">
-        <x:v>9400</x:v>
+        <x:v>10794</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:9">
@@ -1761,25 +1761,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C44" s="1" t="n">
-        <x:v>153</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="D44" s="1" t="n">
-        <x:v>96</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="E44" s="1" t="n">
         <x:v>14</x:v>
       </x:c>
       <x:c r="F44" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="G44" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H44" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="I44" s="1" t="n">
-        <x:v>323</x:v>
+        <x:v>374</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:9">
@@ -1790,10 +1790,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
-        <x:v>73</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="E45" s="1" t="n">
         <x:v>6</x:v>
@@ -1802,13 +1802,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="G45" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H45" s="1" t="n">
         <x:v>5</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>113</x:v>
+        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1819,25 +1819,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C46" s="1" t="n">
-        <x:v>172</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="D46" s="1" t="n">
-        <x:v>169</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E46" s="1" t="n">
         <x:v>20</x:v>
       </x:c>
       <x:c r="F46" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="G46" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H46" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="I46" s="1" t="n">
-        <x:v>436</x:v>
+        <x:v>503</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
@@ -1848,13 +1848,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>62</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E47" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F47" s="1" t="n">
         <x:v>1</x:v>
@@ -1863,10 +1863,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H47" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>85</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -1877,7 +1877,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C48" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D48" s="1" t="n">
         <x:v>3</x:v>
@@ -1895,7 +1895,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="I48" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:9">
@@ -1906,13 +1906,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C49" s="1" t="n">
-        <x:v>74</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="D49" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E49" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F49" s="1" t="n">
         <x:v>1</x:v>
@@ -1921,10 +1921,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H49" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I49" s="1" t="n">
-        <x:v>103</x:v>
+        <x:v>116</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:9">
@@ -1938,7 +1938,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D50" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E50" s="1" t="n">
         <x:v>0</x:v>
@@ -1953,7 +1953,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I50" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:9">
@@ -1967,7 +1967,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D51" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E51" s="1" t="n">
         <x:v>0</x:v>
@@ -1982,7 +1982,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I51" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:9">
@@ -1993,25 +1993,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C52" s="1" t="n">
-        <x:v>56</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="D52" s="1" t="n">
-        <x:v>208</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="E52" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F52" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G52" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H52" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I52" s="1" t="n">
-        <x:v>294</x:v>
+        <x:v>341</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:9">
@@ -2022,13 +2022,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C53" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D53" s="1" t="n">
-        <x:v>100</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="E53" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F53" s="1" t="n">
         <x:v>8</x:v>
@@ -2040,7 +2040,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="I53" s="1" t="n">
-        <x:v>134</x:v>
+        <x:v>143</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:9">
@@ -2051,25 +2051,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C54" s="1" t="n">
-        <x:v>69</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D54" s="1" t="n">
-        <x:v>308</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="E54" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F54" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G54" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H54" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="I54" s="1" t="n">
-        <x:v>428</x:v>
+        <x:v>484</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:9">
@@ -2080,25 +2080,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C55" s="1" t="n">
-        <x:v>263</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="D55" s="1" t="n">
-        <x:v>124</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="E55" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F55" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G55" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H55" s="1" t="n">
-        <x:v>71</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="I55" s="1" t="n">
-        <x:v>482</x:v>
+        <x:v>537</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:9">
@@ -2109,7 +2109,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C56" s="1" t="n">
-        <x:v>44</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D56" s="1" t="n">
         <x:v>14</x:v>
@@ -2124,10 +2124,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H56" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I56" s="1" t="n">
-        <x:v>86</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:9">
@@ -2138,25 +2138,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C57" s="1" t="n">
-        <x:v>307</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="D57" s="1" t="n">
-        <x:v>138</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="E57" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F57" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G57" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H57" s="1" t="n">
-        <x:v>96</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="I57" s="1" t="n">
-        <x:v>568</x:v>
+        <x:v>630</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:9">
@@ -2167,25 +2167,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C58" s="1" t="n">
-        <x:v>280</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="D58" s="1" t="n">
-        <x:v>261</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="E58" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F58" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="G58" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H58" s="1" t="n">
-        <x:v>84</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="I58" s="1" t="n">
-        <x:v>679</x:v>
+        <x:v>813</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">
@@ -2196,25 +2196,25 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C59" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D59" s="1" t="n">
-        <x:v>88</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E59" s="1" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="F59" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G59" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H59" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="I59" s="1" t="n">
-        <x:v>123</x:v>
+        <x:v>142</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9">
@@ -2225,25 +2225,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C60" s="1" t="n">
-        <x:v>291</x:v>
+        <x:v>361</x:v>
       </x:c>
       <x:c r="D60" s="1" t="n">
-        <x:v>349</x:v>
+        <x:v>403</x:v>
       </x:c>
       <x:c r="E60" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F60" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="G60" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H60" s="1" t="n">
-        <x:v>96</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="I60" s="1" t="n">
-        <x:v>802</x:v>
+        <x:v>955</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">
@@ -2254,25 +2254,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C61" s="1" t="n">
-        <x:v>382</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="D61" s="1" t="n">
-        <x:v>543</x:v>
+        <x:v>625</x:v>
       </x:c>
       <x:c r="E61" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F61" s="1" t="n">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="G61" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H61" s="1" t="n">
-        <x:v>102</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="I61" s="1" t="n">
-        <x:v>1109</x:v>
+        <x:v>1262</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
@@ -2283,16 +2283,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C62" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D62" s="1" t="n">
-        <x:v>112</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="E62" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F62" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G62" s="1" t="n">
         <x:v>0</x:v>
@@ -2301,7 +2301,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="I62" s="1" t="n">
-        <x:v>175</x:v>
+        <x:v>190</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:9">
@@ -2312,25 +2312,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C63" s="1" t="n">
-        <x:v>419</x:v>
+        <x:v>479</x:v>
       </x:c>
       <x:c r="D63" s="1" t="n">
-        <x:v>655</x:v>
+        <x:v>746</x:v>
       </x:c>
       <x:c r="E63" s="1" t="n">
-        <x:v>43</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="F63" s="1" t="n">
-        <x:v>49</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G63" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H63" s="1" t="n">
-        <x:v>117</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="I63" s="1" t="n">
-        <x:v>1284</x:v>
+        <x:v>1452</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -717,25 +717,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>5017</x:v>
+        <x:v>5045</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>3061</x:v>
+        <x:v>3069</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>233</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>470</x:v>
+        <x:v>475</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
         <x:v>19</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>1000</x:v>
+        <x:v>1009</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>9800</x:v>
+        <x:v>9852</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -749,13 +749,13 @@
         <x:v>571</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>522</x:v>
+        <x:v>523</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
         <x:v>27</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
         <x:v>3</x:v>
@@ -764,7 +764,7 @@
         <x:v>173</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>1390</x:v>
+        <x:v>1392</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -775,25 +775,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>5588</x:v>
+        <x:v>5616</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>3583</x:v>
+        <x:v>3592</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>260</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>564</x:v>
+        <x:v>570</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>22</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>1173</x:v>
+        <x:v>1182</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>11190</x:v>
+        <x:v>11244</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -862,25 +862,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>506</x:v>
+        <x:v>507</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>384</x:v>
+        <x:v>386</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>34</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
-        <x:v>78</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>1061</x:v>
+        <x:v>1067</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -920,25 +920,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>554</x:v>
+        <x:v>555</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>423</x:v>
+        <x:v>425</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
         <x:v>36</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
-        <x:v>86</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>1181</x:v>
+        <x:v>1187</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -949,7 +949,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>201</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
         <x:v>94</x:v>
@@ -967,7 +967,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>361</x:v>
+        <x:v>362</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -1007,7 +1007,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C18" s="1" t="n">
-        <x:v>201</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
         <x:v>99</x:v>
@@ -1025,7 +1025,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="I18" s="1" t="n">
-        <x:v>367</x:v>
+        <x:v>368</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
@@ -1036,7 +1036,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>568</x:v>
+        <x:v>570</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
         <x:v>297</x:v>
@@ -1054,7 +1054,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>1069</x:v>
+        <x:v>1071</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1065,7 +1065,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
         <x:v>69</x:v>
@@ -1083,7 +1083,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>241</x:v>
+        <x:v>242</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1094,7 +1094,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>693</x:v>
+        <x:v>696</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
         <x:v>366</x:v>
@@ -1112,7 +1112,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>1310</x:v>
+        <x:v>1313</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1123,7 +1123,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>2709</x:v>
+        <x:v>2711</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
         <x:v>1345</x:v>
@@ -1132,16 +1132,16 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
-        <x:v>377</x:v>
+        <x:v>378</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
         <x:v>12</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
-        <x:v>604</x:v>
+        <x:v>603</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>5143</x:v>
+        <x:v>5145</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1152,7 +1152,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C23" s="1" t="n">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
         <x:v>19</x:v>
@@ -1170,7 +1170,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1181,7 +1181,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>2782</x:v>
+        <x:v>2785</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
         <x:v>1364</x:v>
@@ -1190,16 +1190,16 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="F24" s="1" t="n">
-        <x:v>379</x:v>
+        <x:v>380</x:v>
       </x:c>
       <x:c r="G24" s="1" t="n">
         <x:v>12</x:v>
       </x:c>
       <x:c r="H24" s="1" t="n">
-        <x:v>625</x:v>
+        <x:v>624</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>5265</x:v>
+        <x:v>5268</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1213,7 +1213,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E25" s="1" t="n">
         <x:v>1</x:v>
@@ -1228,7 +1228,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="I25" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
@@ -1271,7 +1271,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="D27" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E27" s="1" t="n">
         <x:v>1</x:v>
@@ -1286,7 +1286,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="I27" s="1" t="n">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:9">
@@ -1297,10 +1297,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C28" s="1" t="n">
-        <x:v>667</x:v>
+        <x:v>670</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
-        <x:v>472</x:v>
+        <x:v>473</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
         <x:v>42</x:v>
@@ -1315,7 +1315,7 @@
         <x:v>188</x:v>
       </x:c>
       <x:c r="I28" s="1" t="n">
-        <x:v>1474</x:v>
+        <x:v>1478</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:9">
@@ -1355,10 +1355,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C30" s="1" t="n">
-        <x:v>689</x:v>
+        <x:v>692</x:v>
       </x:c>
       <x:c r="D30" s="1" t="n">
-        <x:v>494</x:v>
+        <x:v>495</x:v>
       </x:c>
       <x:c r="E30" s="1" t="n">
         <x:v>42</x:v>
@@ -1373,7 +1373,7 @@
         <x:v>197</x:v>
       </x:c>
       <x:c r="I30" s="1" t="n">
-        <x:v>1532</x:v>
+        <x:v>1536</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:9">
@@ -1471,10 +1471,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C34" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D34" s="1" t="n">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E34" s="1" t="n">
         <x:v>2</x:v>
@@ -1486,10 +1486,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H34" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="I34" s="1" t="n">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:9">
@@ -1529,10 +1529,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C36" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D36" s="1" t="n">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="E36" s="1" t="n">
         <x:v>2</x:v>
@@ -1544,10 +1544,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H36" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I36" s="1" t="n">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:9">
@@ -1616,7 +1616,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C39" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D39" s="1" t="n">
         <x:v>28</x:v>
@@ -1625,7 +1625,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="F39" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G39" s="1" t="n">
         <x:v>1</x:v>
@@ -1645,7 +1645,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C40" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D40" s="1" t="n">
         <x:v>28</x:v>
@@ -1654,7 +1654,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="F40" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G40" s="1" t="n">
         <x:v>1</x:v>
@@ -1674,25 +1674,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C41" s="1" t="n">
-        <x:v>5022</x:v>
+        <x:v>5038</x:v>
       </x:c>
       <x:c r="D41" s="1" t="n">
-        <x:v>3218</x:v>
+        <x:v>3224</x:v>
       </x:c>
       <x:c r="E41" s="1" t="n">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="F41" s="1" t="n">
-        <x:v>457</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="G41" s="1" t="n">
         <x:v>12</x:v>
       </x:c>
       <x:c r="H41" s="1" t="n">
-        <x:v>896</x:v>
+        <x:v>898</x:v>
       </x:c>
       <x:c r="I41" s="1" t="n">
-        <x:v>9804</x:v>
+        <x:v>9831</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9">
@@ -1706,22 +1706,22 @@
         <x:v>501</x:v>
       </x:c>
       <x:c r="D42" s="1" t="n">
-        <x:v>349</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="E42" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F42" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G42" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H42" s="1" t="n">
-        <x:v>79</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="I42" s="1" t="n">
-        <x:v>990</x:v>
+        <x:v>997</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:9">
@@ -1732,25 +1732,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C43" s="1" t="n">
-        <x:v>5523</x:v>
+        <x:v>5539</x:v>
       </x:c>
       <x:c r="D43" s="1" t="n">
-        <x:v>3567</x:v>
+        <x:v>3576</x:v>
       </x:c>
       <x:c r="E43" s="1" t="n">
         <x:v>227</x:v>
       </x:c>
       <x:c r="F43" s="1" t="n">
-        <x:v>489</x:v>
+        <x:v>492</x:v>
       </x:c>
       <x:c r="G43" s="1" t="n">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H43" s="1" t="n">
-        <x:v>975</x:v>
+        <x:v>981</x:v>
       </x:c>
       <x:c r="I43" s="1" t="n">
-        <x:v>10794</x:v>
+        <x:v>10828</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:9">
@@ -1764,7 +1764,7 @@
         <x:v>175</x:v>
       </x:c>
       <x:c r="D44" s="1" t="n">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="E44" s="1" t="n">
         <x:v>14</x:v>
@@ -1776,7 +1776,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H44" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="I44" s="1" t="n">
         <x:v>374</x:v>
@@ -1805,10 +1805,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H45" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>129</x:v>
+        <x:v>130</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1822,7 +1822,7 @@
         <x:v>196</x:v>
       </x:c>
       <x:c r="D46" s="1" t="n">
-        <x:v>200</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="E46" s="1" t="n">
         <x:v>20</x:v>
@@ -1837,7 +1837,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="I46" s="1" t="n">
-        <x:v>503</x:v>
+        <x:v>504</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
@@ -2080,7 +2080,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C55" s="1" t="n">
-        <x:v>294</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="D55" s="1" t="n">
         <x:v>140</x:v>
@@ -2095,10 +2095,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H55" s="1" t="n">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="I55" s="1" t="n">
-        <x:v>537</x:v>
+        <x:v>539</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:9">
@@ -2138,7 +2138,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C57" s="1" t="n">
-        <x:v>342</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="D57" s="1" t="n">
         <x:v>154</x:v>
@@ -2153,10 +2153,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H57" s="1" t="n">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="I57" s="1" t="n">
-        <x:v>630</x:v>
+        <x:v>632</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:9">
@@ -2257,7 +2257,7 @@
         <x:v>438</x:v>
       </x:c>
       <x:c r="D61" s="1" t="n">
-        <x:v>625</x:v>
+        <x:v>626</x:v>
       </x:c>
       <x:c r="E61" s="1" t="n">
         <x:v>37</x:v>
@@ -2269,10 +2269,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H61" s="1" t="n">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="I61" s="1" t="n">
-        <x:v>1262</x:v>
+        <x:v>1264</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
@@ -2315,7 +2315,7 @@
         <x:v>479</x:v>
       </x:c>
       <x:c r="D63" s="1" t="n">
-        <x:v>746</x:v>
+        <x:v>747</x:v>
       </x:c>
       <x:c r="E63" s="1" t="n">
         <x:v>45</x:v>
@@ -2327,10 +2327,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H63" s="1" t="n">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="I63" s="1" t="n">
-        <x:v>1452</x:v>
+        <x:v>1454</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -659,7 +659,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
         <x:v>1</x:v>
@@ -677,7 +677,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I6" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:9">
@@ -688,7 +688,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
         <x:v>22</x:v>
@@ -706,7 +706,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="I7" s="1" t="n">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9">
@@ -717,10 +717,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>5045</x:v>
+        <x:v>5069</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>3069</x:v>
+        <x:v>3072</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>235</x:v>
@@ -732,10 +732,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>1009</x:v>
+        <x:v>1013</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>9852</x:v>
+        <x:v>9883</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -746,10 +746,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>571</x:v>
+        <x:v>573</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>523</x:v>
+        <x:v>525</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
         <x:v>27</x:v>
@@ -761,10 +761,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
-        <x:v>173</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>1392</x:v>
+        <x:v>1398</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -775,10 +775,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>5616</x:v>
+        <x:v>5642</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>3592</x:v>
+        <x:v>3597</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>262</x:v>
@@ -790,10 +790,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>1182</x:v>
+        <x:v>1188</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>11244</x:v>
+        <x:v>11281</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -862,7 +862,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>507</x:v>
+        <x:v>510</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>386</x:v>
@@ -871,7 +871,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
         <x:v>2</x:v>
@@ -880,7 +880,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>1067</x:v>
+        <x:v>1071</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -920,7 +920,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>555</x:v>
+        <x:v>558</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>425</x:v>
@@ -929,7 +929,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
         <x:v>2</x:v>
@@ -938,7 +938,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>1187</x:v>
+        <x:v>1191</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -949,13 +949,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>202</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>94</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
         <x:v>14</x:v>
@@ -964,10 +964,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H16" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>362</x:v>
+        <x:v>368</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -978,7 +978,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C17" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
         <x:v>5</x:v>
@@ -996,7 +996,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -1007,13 +1007,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C18" s="1" t="n">
-        <x:v>202</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
-        <x:v>99</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="E18" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F18" s="1" t="n">
         <x:v>14</x:v>
@@ -1022,10 +1022,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H18" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="I18" s="1" t="n">
-        <x:v>368</x:v>
+        <x:v>375</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
@@ -1036,10 +1036,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>570</x:v>
+        <x:v>572</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
-        <x:v>297</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
         <x:v>31</x:v>
@@ -1054,7 +1054,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>1071</x:v>
+        <x:v>1075</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1065,7 +1065,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>126</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
         <x:v>69</x:v>
@@ -1083,7 +1083,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>242</x:v>
+        <x:v>244</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1094,10 +1094,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>696</x:v>
+        <x:v>700</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
-        <x:v>366</x:v>
+        <x:v>368</x:v>
       </x:c>
       <x:c r="E21" s="1" t="n">
         <x:v>33</x:v>
@@ -1112,7 +1112,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>1313</x:v>
+        <x:v>1319</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1123,13 +1123,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>2711</x:v>
+        <x:v>2739</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>1345</x:v>
+        <x:v>1347</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
         <x:v>378</x:v>
@@ -1138,10 +1138,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
-        <x:v>603</x:v>
+        <x:v>614</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>5145</x:v>
+        <x:v>5187</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1181,13 +1181,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>2785</x:v>
+        <x:v>2813</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>1364</x:v>
+        <x:v>1366</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="F24" s="1" t="n">
         <x:v>380</x:v>
@@ -1196,10 +1196,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="H24" s="1" t="n">
-        <x:v>624</x:v>
+        <x:v>635</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>5268</x:v>
+        <x:v>5310</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1210,7 +1210,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C25" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
         <x:v>7</x:v>
@@ -1228,7 +1228,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="I25" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
@@ -1268,7 +1268,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C27" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D27" s="1" t="n">
         <x:v>11</x:v>
@@ -1286,7 +1286,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="I27" s="1" t="n">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:9">
@@ -1297,13 +1297,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C28" s="1" t="n">
-        <x:v>670</x:v>
+        <x:v>675</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
         <x:v>473</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F28" s="1" t="n">
         <x:v>102</x:v>
@@ -1315,7 +1315,7 @@
         <x:v>188</x:v>
       </x:c>
       <x:c r="I28" s="1" t="n">
-        <x:v>1478</x:v>
+        <x:v>1484</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:9">
@@ -1355,13 +1355,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C30" s="1" t="n">
-        <x:v>692</x:v>
+        <x:v>697</x:v>
       </x:c>
       <x:c r="D30" s="1" t="n">
         <x:v>495</x:v>
       </x:c>
       <x:c r="E30" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F30" s="1" t="n">
         <x:v>107</x:v>
@@ -1373,7 +1373,7 @@
         <x:v>197</x:v>
       </x:c>
       <x:c r="I30" s="1" t="n">
-        <x:v>1536</x:v>
+        <x:v>1542</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:9">
@@ -1616,7 +1616,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C39" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D39" s="1" t="n">
         <x:v>28</x:v>
@@ -1631,7 +1631,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H39" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I39" s="1" t="n">
         <x:v>82</x:v>
@@ -1645,7 +1645,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C40" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D40" s="1" t="n">
         <x:v>28</x:v>
@@ -1660,7 +1660,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H40" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I40" s="1" t="n">
         <x:v>82</x:v>
@@ -1674,25 +1674,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C41" s="1" t="n">
-        <x:v>5038</x:v>
+        <x:v>5058</x:v>
       </x:c>
       <x:c r="D41" s="1" t="n">
-        <x:v>3224</x:v>
+        <x:v>3238</x:v>
       </x:c>
       <x:c r="E41" s="1" t="n">
-        <x:v>200</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="F41" s="1" t="n">
-        <x:v>459</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="G41" s="1" t="n">
         <x:v>12</x:v>
       </x:c>
       <x:c r="H41" s="1" t="n">
-        <x:v>898</x:v>
+        <x:v>911</x:v>
       </x:c>
       <x:c r="I41" s="1" t="n">
-        <x:v>9831</x:v>
+        <x:v>9882</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9">
@@ -1703,10 +1703,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C42" s="1" t="n">
-        <x:v>501</x:v>
+        <x:v>506</x:v>
       </x:c>
       <x:c r="D42" s="1" t="n">
-        <x:v>352</x:v>
+        <x:v>355</x:v>
       </x:c>
       <x:c r="E42" s="1" t="n">
         <x:v>27</x:v>
@@ -1718,10 +1718,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H42" s="1" t="n">
-        <x:v>83</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="I42" s="1" t="n">
-        <x:v>997</x:v>
+        <x:v>1016</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:9">
@@ -1732,25 +1732,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C43" s="1" t="n">
-        <x:v>5539</x:v>
+        <x:v>5564</x:v>
       </x:c>
       <x:c r="D43" s="1" t="n">
-        <x:v>3576</x:v>
+        <x:v>3593</x:v>
       </x:c>
       <x:c r="E43" s="1" t="n">
-        <x:v>227</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="F43" s="1" t="n">
-        <x:v>492</x:v>
+        <x:v>493</x:v>
       </x:c>
       <x:c r="G43" s="1" t="n">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H43" s="1" t="n">
-        <x:v>981</x:v>
+        <x:v>1005</x:v>
       </x:c>
       <x:c r="I43" s="1" t="n">
-        <x:v>10828</x:v>
+        <x:v>10898</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:9">
@@ -1761,7 +1761,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C44" s="1" t="n">
-        <x:v>175</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="D44" s="1" t="n">
         <x:v>115</x:v>
@@ -1779,7 +1779,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="I44" s="1" t="n">
-        <x:v>374</x:v>
+        <x:v>376</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:9">
@@ -1790,7 +1790,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
         <x:v>86</x:v>
@@ -1808,7 +1808,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1819,7 +1819,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C46" s="1" t="n">
-        <x:v>196</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="D46" s="1" t="n">
         <x:v>201</x:v>
@@ -1837,7 +1837,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="I46" s="1" t="n">
-        <x:v>504</x:v>
+        <x:v>507</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
@@ -2025,7 +2025,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="D53" s="1" t="n">
-        <x:v>103</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E53" s="1" t="n">
         <x:v>12</x:v>
@@ -2040,7 +2040,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="I53" s="1" t="n">
-        <x:v>143</x:v>
+        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:9">
@@ -2054,7 +2054,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="D54" s="1" t="n">
-        <x:v>340</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="E54" s="1" t="n">
         <x:v>15</x:v>
@@ -2069,7 +2069,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="I54" s="1" t="n">
-        <x:v>484</x:v>
+        <x:v>486</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:9">
@@ -2080,7 +2080,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C55" s="1" t="n">
-        <x:v>295</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="D55" s="1" t="n">
         <x:v>140</x:v>
@@ -2095,10 +2095,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H55" s="1" t="n">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="I55" s="1" t="n">
-        <x:v>539</x:v>
+        <x:v>541</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:9">
@@ -2138,7 +2138,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C57" s="1" t="n">
-        <x:v>343</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="D57" s="1" t="n">
         <x:v>154</x:v>
@@ -2153,10 +2153,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H57" s="1" t="n">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="I57" s="1" t="n">
-        <x:v>632</x:v>
+        <x:v>634</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:9">
@@ -2167,7 +2167,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C58" s="1" t="n">
-        <x:v>345</x:v>
+        <x:v>347</x:v>
       </x:c>
       <x:c r="D58" s="1" t="n">
         <x:v>304</x:v>
@@ -2176,16 +2176,16 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="F58" s="1" t="n">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="G58" s="1" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="H58" s="1" t="n">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="I58" s="1" t="n">
-        <x:v>813</x:v>
+        <x:v>817</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">
@@ -2225,7 +2225,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C60" s="1" t="n">
-        <x:v>361</x:v>
+        <x:v>363</x:v>
       </x:c>
       <x:c r="D60" s="1" t="n">
         <x:v>403</x:v>
@@ -2234,16 +2234,16 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="F60" s="1" t="n">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="G60" s="1" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="H60" s="1" t="n">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="I60" s="1" t="n">
-        <x:v>955</x:v>
+        <x:v>959</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">
@@ -2254,10 +2254,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C61" s="1" t="n">
-        <x:v>438</x:v>
+        <x:v>444</x:v>
       </x:c>
       <x:c r="D61" s="1" t="n">
-        <x:v>626</x:v>
+        <x:v>628</x:v>
       </x:c>
       <x:c r="E61" s="1" t="n">
         <x:v>37</x:v>
@@ -2272,7 +2272,7 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="I61" s="1" t="n">
-        <x:v>1264</x:v>
+        <x:v>1272</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
@@ -2298,10 +2298,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H62" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="I62" s="1" t="n">
-        <x:v>190</x:v>
+        <x:v>191</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:9">
@@ -2312,10 +2312,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C63" s="1" t="n">
-        <x:v>479</x:v>
+        <x:v>485</x:v>
       </x:c>
       <x:c r="D63" s="1" t="n">
-        <x:v>747</x:v>
+        <x:v>749</x:v>
       </x:c>
       <x:c r="E63" s="1" t="n">
         <x:v>45</x:v>
@@ -2327,10 +2327,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H63" s="1" t="n">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="I63" s="1" t="n">
-        <x:v>1454</x:v>
+        <x:v>1463</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -717,16 +717,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>5069</x:v>
+        <x:v>5074</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>3072</x:v>
+        <x:v>3074</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>235</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>475</x:v>
+        <x:v>476</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
         <x:v>19</x:v>
@@ -735,7 +735,7 @@
         <x:v>1013</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>9883</x:v>
+        <x:v>9891</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -775,16 +775,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>5642</x:v>
+        <x:v>5647</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>3597</x:v>
+        <x:v>3599</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>262</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>570</x:v>
+        <x:v>571</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>22</x:v>
@@ -793,7 +793,7 @@
         <x:v>1188</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>11281</x:v>
+        <x:v>11289</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -865,7 +865,7 @@
         <x:v>510</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>386</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>34</x:v>
@@ -880,7 +880,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>1071</x:v>
+        <x:v>1072</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -923,7 +923,7 @@
         <x:v>558</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>425</x:v>
+        <x:v>426</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
         <x:v>36</x:v>
@@ -938,7 +938,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>1191</x:v>
+        <x:v>1192</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -1123,10 +1123,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>2739</x:v>
+        <x:v>2744</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>1347</x:v>
+        <x:v>1346</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>97</x:v>
@@ -1138,10 +1138,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
-        <x:v>614</x:v>
+        <x:v>615</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>5187</x:v>
+        <x:v>5192</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1181,10 +1181,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>2813</x:v>
+        <x:v>2818</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>1366</x:v>
+        <x:v>1365</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>104</x:v>
@@ -1196,10 +1196,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="H24" s="1" t="n">
-        <x:v>635</x:v>
+        <x:v>636</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>5310</x:v>
+        <x:v>5315</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1297,10 +1297,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C28" s="1" t="n">
-        <x:v>675</x:v>
+        <x:v>676</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
-        <x:v>473</x:v>
+        <x:v>474</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
         <x:v>43</x:v>
@@ -1312,10 +1312,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="H28" s="1" t="n">
-        <x:v>188</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="I28" s="1" t="n">
-        <x:v>1484</x:v>
+        <x:v>1487</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:9">
@@ -1355,10 +1355,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C30" s="1" t="n">
-        <x:v>697</x:v>
+        <x:v>698</x:v>
       </x:c>
       <x:c r="D30" s="1" t="n">
-        <x:v>495</x:v>
+        <x:v>496</x:v>
       </x:c>
       <x:c r="E30" s="1" t="n">
         <x:v>43</x:v>
@@ -1370,10 +1370,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="H30" s="1" t="n">
-        <x:v>197</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="I30" s="1" t="n">
-        <x:v>1542</x:v>
+        <x:v>1545</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:9">
@@ -1674,13 +1674,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C41" s="1" t="n">
-        <x:v>5058</x:v>
+        <x:v>5068</x:v>
       </x:c>
       <x:c r="D41" s="1" t="n">
-        <x:v>3238</x:v>
+        <x:v>3244</x:v>
       </x:c>
       <x:c r="E41" s="1" t="n">
-        <x:v>203</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="F41" s="1" t="n">
         <x:v>460</x:v>
@@ -1692,7 +1692,7 @@
         <x:v>911</x:v>
       </x:c>
       <x:c r="I41" s="1" t="n">
-        <x:v>9882</x:v>
+        <x:v>9899</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9">
@@ -1706,7 +1706,7 @@
         <x:v>506</x:v>
       </x:c>
       <x:c r="D42" s="1" t="n">
-        <x:v>355</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="E42" s="1" t="n">
         <x:v>27</x:v>
@@ -1718,10 +1718,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H42" s="1" t="n">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="I42" s="1" t="n">
-        <x:v>1016</x:v>
+        <x:v>1018</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:9">
@@ -1732,13 +1732,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C43" s="1" t="n">
-        <x:v>5564</x:v>
+        <x:v>5574</x:v>
       </x:c>
       <x:c r="D43" s="1" t="n">
-        <x:v>3593</x:v>
+        <x:v>3600</x:v>
       </x:c>
       <x:c r="E43" s="1" t="n">
-        <x:v>230</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="F43" s="1" t="n">
         <x:v>493</x:v>
@@ -1747,10 +1747,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="H43" s="1" t="n">
-        <x:v>1005</x:v>
+        <x:v>1006</x:v>
       </x:c>
       <x:c r="I43" s="1" t="n">
-        <x:v>10898</x:v>
+        <x:v>10917</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:9">
@@ -1848,7 +1848,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>69</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
         <x:v>10</x:v>
@@ -1866,7 +1866,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>97</x:v>
+        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -1906,7 +1906,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C49" s="1" t="n">
-        <x:v>82</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D49" s="1" t="n">
         <x:v>13</x:v>
@@ -1924,7 +1924,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="I49" s="1" t="n">
-        <x:v>116</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:9">
@@ -2167,7 +2167,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C58" s="1" t="n">
-        <x:v>347</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="D58" s="1" t="n">
         <x:v>304</x:v>
@@ -2185,7 +2185,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="I58" s="1" t="n">
-        <x:v>817</x:v>
+        <x:v>818</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">
@@ -2225,7 +2225,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C60" s="1" t="n">
-        <x:v>363</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="D60" s="1" t="n">
         <x:v>403</x:v>
@@ -2243,7 +2243,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="I60" s="1" t="n">
-        <x:v>959</x:v>
+        <x:v>960</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">
@@ -2257,7 +2257,7 @@
         <x:v>444</x:v>
       </x:c>
       <x:c r="D61" s="1" t="n">
-        <x:v>628</x:v>
+        <x:v>629</x:v>
       </x:c>
       <x:c r="E61" s="1" t="n">
         <x:v>37</x:v>
@@ -2272,7 +2272,7 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="I61" s="1" t="n">
-        <x:v>1272</x:v>
+        <x:v>1273</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
@@ -2315,7 +2315,7 @@
         <x:v>485</x:v>
       </x:c>
       <x:c r="D63" s="1" t="n">
-        <x:v>749</x:v>
+        <x:v>750</x:v>
       </x:c>
       <x:c r="E63" s="1" t="n">
         <x:v>45</x:v>
@@ -2330,7 +2330,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="I63" s="1" t="n">
-        <x:v>1463</x:v>
+        <x:v>1464</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -720,7 +720,7 @@
         <x:v>5074</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>3074</x:v>
+        <x:v>3077</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>235</x:v>
@@ -735,7 +735,7 @@
         <x:v>1013</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>9891</x:v>
+        <x:v>9894</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -778,7 +778,7 @@
         <x:v>5647</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>3599</x:v>
+        <x:v>3602</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>262</x:v>
@@ -793,7 +793,7 @@
         <x:v>1188</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>11289</x:v>
+        <x:v>11292</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -1123,10 +1123,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>2744</x:v>
+        <x:v>2746</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>1346</x:v>
+        <x:v>1349</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>97</x:v>
@@ -1138,10 +1138,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
-        <x:v>615</x:v>
+        <x:v>617</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>5192</x:v>
+        <x:v>5199</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1181,10 +1181,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>2818</x:v>
+        <x:v>2820</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>1365</x:v>
+        <x:v>1368</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>104</x:v>
@@ -1196,10 +1196,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="H24" s="1" t="n">
-        <x:v>636</x:v>
+        <x:v>638</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>5315</x:v>
+        <x:v>5322</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1239,7 +1239,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C26" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D26" s="1" t="n">
         <x:v>4</x:v>
@@ -1257,7 +1257,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I26" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:9">
@@ -1268,7 +1268,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C27" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D27" s="1" t="n">
         <x:v>11</x:v>
@@ -1286,7 +1286,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="I27" s="1" t="n">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:9">
@@ -1297,13 +1297,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C28" s="1" t="n">
-        <x:v>676</x:v>
+        <x:v>679</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
-        <x:v>474</x:v>
+        <x:v>477</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
-        <x:v>43</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F28" s="1" t="n">
         <x:v>102</x:v>
@@ -1312,10 +1312,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="H28" s="1" t="n">
-        <x:v>189</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="I28" s="1" t="n">
-        <x:v>1487</x:v>
+        <x:v>1497</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:9">
@@ -1355,13 +1355,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C30" s="1" t="n">
-        <x:v>698</x:v>
+        <x:v>701</x:v>
       </x:c>
       <x:c r="D30" s="1" t="n">
-        <x:v>496</x:v>
+        <x:v>499</x:v>
       </x:c>
       <x:c r="E30" s="1" t="n">
-        <x:v>43</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F30" s="1" t="n">
         <x:v>107</x:v>
@@ -1370,10 +1370,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="H30" s="1" t="n">
-        <x:v>198</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="I30" s="1" t="n">
-        <x:v>1545</x:v>
+        <x:v>1555</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:9">
@@ -1674,10 +1674,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C41" s="1" t="n">
-        <x:v>5068</x:v>
+        <x:v>5073</x:v>
       </x:c>
       <x:c r="D41" s="1" t="n">
-        <x:v>3244</x:v>
+        <x:v>3251</x:v>
       </x:c>
       <x:c r="E41" s="1" t="n">
         <x:v>204</x:v>
@@ -1692,7 +1692,7 @@
         <x:v>911</x:v>
       </x:c>
       <x:c r="I41" s="1" t="n">
-        <x:v>9899</x:v>
+        <x:v>9911</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9">
@@ -1706,7 +1706,7 @@
         <x:v>506</x:v>
       </x:c>
       <x:c r="D42" s="1" t="n">
-        <x:v>356</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="E42" s="1" t="n">
         <x:v>27</x:v>
@@ -1721,7 +1721,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="I42" s="1" t="n">
-        <x:v>1018</x:v>
+        <x:v>1019</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:9">
@@ -1732,10 +1732,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C43" s="1" t="n">
-        <x:v>5574</x:v>
+        <x:v>5579</x:v>
       </x:c>
       <x:c r="D43" s="1" t="n">
-        <x:v>3600</x:v>
+        <x:v>3608</x:v>
       </x:c>
       <x:c r="E43" s="1" t="n">
         <x:v>231</x:v>
@@ -1750,7 +1750,7 @@
         <x:v>1006</x:v>
       </x:c>
       <x:c r="I43" s="1" t="n">
-        <x:v>10917</x:v>
+        <x:v>10930</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:9">
@@ -1877,7 +1877,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C48" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D48" s="1" t="n">
         <x:v>3</x:v>
@@ -1895,7 +1895,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="I48" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:9">
@@ -1906,7 +1906,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C49" s="1" t="n">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="D49" s="1" t="n">
         <x:v>13</x:v>
@@ -1924,7 +1924,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="I49" s="1" t="n">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:9">
@@ -2025,7 +2025,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="D53" s="1" t="n">
-        <x:v>105</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E53" s="1" t="n">
         <x:v>12</x:v>
@@ -2040,7 +2040,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="I53" s="1" t="n">
-        <x:v>145</x:v>
+        <x:v>144</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:9">
@@ -2054,7 +2054,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="D54" s="1" t="n">
-        <x:v>342</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="E54" s="1" t="n">
         <x:v>15</x:v>
@@ -2069,7 +2069,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="I54" s="1" t="n">
-        <x:v>486</x:v>
+        <x:v>485</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:9">
@@ -2080,10 +2080,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C55" s="1" t="n">
-        <x:v>296</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="D55" s="1" t="n">
-        <x:v>140</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="E55" s="1" t="n">
         <x:v>16</x:v>
@@ -2095,10 +2095,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H55" s="1" t="n">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I55" s="1" t="n">
-        <x:v>541</x:v>
+        <x:v>545</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:9">
@@ -2138,10 +2138,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C57" s="1" t="n">
-        <x:v>344</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="D57" s="1" t="n">
-        <x:v>154</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="E57" s="1" t="n">
         <x:v>18</x:v>
@@ -2153,10 +2153,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H57" s="1" t="n">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="I57" s="1" t="n">
-        <x:v>634</x:v>
+        <x:v>638</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:9">
@@ -2167,7 +2167,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C58" s="1" t="n">
-        <x:v>348</x:v>
+        <x:v>347</x:v>
       </x:c>
       <x:c r="D58" s="1" t="n">
         <x:v>304</x:v>
@@ -2185,7 +2185,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="I58" s="1" t="n">
-        <x:v>818</x:v>
+        <x:v>817</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">
@@ -2225,7 +2225,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C60" s="1" t="n">
-        <x:v>364</x:v>
+        <x:v>363</x:v>
       </x:c>
       <x:c r="D60" s="1" t="n">
         <x:v>403</x:v>
@@ -2243,7 +2243,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="I60" s="1" t="n">
-        <x:v>960</x:v>
+        <x:v>959</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">
@@ -2254,10 +2254,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C61" s="1" t="n">
-        <x:v>444</x:v>
+        <x:v>445</x:v>
       </x:c>
       <x:c r="D61" s="1" t="n">
-        <x:v>629</x:v>
+        <x:v>630</x:v>
       </x:c>
       <x:c r="E61" s="1" t="n">
         <x:v>37</x:v>
@@ -2272,7 +2272,7 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="I61" s="1" t="n">
-        <x:v>1273</x:v>
+        <x:v>1275</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
@@ -2312,10 +2312,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C63" s="1" t="n">
-        <x:v>485</x:v>
+        <x:v>486</x:v>
       </x:c>
       <x:c r="D63" s="1" t="n">
-        <x:v>750</x:v>
+        <x:v>751</x:v>
       </x:c>
       <x:c r="E63" s="1" t="n">
         <x:v>45</x:v>
@@ -2330,7 +2330,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="I63" s="1" t="n">
-        <x:v>1464</x:v>
+        <x:v>1466</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -717,10 +717,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>5074</x:v>
+        <x:v>5076</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>3077</x:v>
+        <x:v>3079</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>235</x:v>
@@ -732,10 +732,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>1013</x:v>
+        <x:v>1014</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>9894</x:v>
+        <x:v>9899</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -755,7 +755,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
         <x:v>3</x:v>
@@ -764,7 +764,7 @@
         <x:v>175</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>1398</x:v>
+        <x:v>1399</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -775,25 +775,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>5647</x:v>
+        <x:v>5649</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>3602</x:v>
+        <x:v>3604</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>262</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>571</x:v>
+        <x:v>572</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>22</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>1188</x:v>
+        <x:v>1189</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>11292</x:v>
+        <x:v>11298</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -862,7 +862,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>510</x:v>
+        <x:v>511</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>387</x:v>
@@ -880,7 +880,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>1072</x:v>
+        <x:v>1073</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -920,7 +920,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>558</x:v>
+        <x:v>559</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>426</x:v>
@@ -938,7 +938,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>1192</x:v>
+        <x:v>1193</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -949,7 +949,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>204</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
         <x:v>98</x:v>
@@ -967,7 +967,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>368</x:v>
+        <x:v>370</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -1007,7 +1007,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C18" s="1" t="n">
-        <x:v>205</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
         <x:v>103</x:v>
@@ -1025,7 +1025,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="I18" s="1" t="n">
-        <x:v>375</x:v>
+        <x:v>377</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
@@ -1036,10 +1036,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>572</x:v>
+        <x:v>575</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
-        <x:v>299</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
         <x:v>31</x:v>
@@ -1054,7 +1054,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>1075</x:v>
+        <x:v>1079</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1065,10 +1065,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>128</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
         <x:v>2</x:v>
@@ -1083,7 +1083,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>244</x:v>
+        <x:v>247</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1094,10 +1094,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>700</x:v>
+        <x:v>705</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
-        <x:v>368</x:v>
+        <x:v>370</x:v>
       </x:c>
       <x:c r="E21" s="1" t="n">
         <x:v>33</x:v>
@@ -1112,7 +1112,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>1319</x:v>
+        <x:v>1326</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1123,7 +1123,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>2746</x:v>
+        <x:v>2758</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
         <x:v>1349</x:v>
@@ -1141,7 +1141,7 @@
         <x:v>617</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>5199</x:v>
+        <x:v>5211</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1181,7 +1181,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>2820</x:v>
+        <x:v>2832</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
         <x:v>1368</x:v>
@@ -1199,7 +1199,7 @@
         <x:v>638</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>5322</x:v>
+        <x:v>5334</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1300,7 +1300,7 @@
         <x:v>679</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
-        <x:v>477</x:v>
+        <x:v>478</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
         <x:v>46</x:v>
@@ -1315,7 +1315,7 @@
         <x:v>190</x:v>
       </x:c>
       <x:c r="I28" s="1" t="n">
-        <x:v>1497</x:v>
+        <x:v>1498</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:9">
@@ -1358,7 +1358,7 @@
         <x:v>701</x:v>
       </x:c>
       <x:c r="D30" s="1" t="n">
-        <x:v>499</x:v>
+        <x:v>500</x:v>
       </x:c>
       <x:c r="E30" s="1" t="n">
         <x:v>46</x:v>
@@ -1373,7 +1373,7 @@
         <x:v>199</x:v>
       </x:c>
       <x:c r="I30" s="1" t="n">
-        <x:v>1555</x:v>
+        <x:v>1556</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:9">
@@ -1674,10 +1674,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C41" s="1" t="n">
-        <x:v>5073</x:v>
+        <x:v>5081</x:v>
       </x:c>
       <x:c r="D41" s="1" t="n">
-        <x:v>3251</x:v>
+        <x:v>3253</x:v>
       </x:c>
       <x:c r="E41" s="1" t="n">
         <x:v>204</x:v>
@@ -1689,10 +1689,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="H41" s="1" t="n">
-        <x:v>911</x:v>
+        <x:v>912</x:v>
       </x:c>
       <x:c r="I41" s="1" t="n">
-        <x:v>9911</x:v>
+        <x:v>9922</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9">
@@ -1732,10 +1732,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C43" s="1" t="n">
-        <x:v>5579</x:v>
+        <x:v>5587</x:v>
       </x:c>
       <x:c r="D43" s="1" t="n">
-        <x:v>3608</x:v>
+        <x:v>3610</x:v>
       </x:c>
       <x:c r="E43" s="1" t="n">
         <x:v>231</x:v>
@@ -1747,10 +1747,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="H43" s="1" t="n">
-        <x:v>1006</x:v>
+        <x:v>1007</x:v>
       </x:c>
       <x:c r="I43" s="1" t="n">
-        <x:v>10930</x:v>
+        <x:v>10941</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:9">
@@ -2080,7 +2080,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C55" s="1" t="n">
-        <x:v>297</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="D55" s="1" t="n">
         <x:v>142</x:v>
@@ -2098,7 +2098,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="I55" s="1" t="n">
-        <x:v>545</x:v>
+        <x:v>546</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:9">
@@ -2138,7 +2138,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C57" s="1" t="n">
-        <x:v>345</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="D57" s="1" t="n">
         <x:v>156</x:v>
@@ -2156,7 +2156,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="I57" s="1" t="n">
-        <x:v>638</x:v>
+        <x:v>639</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:9">
@@ -2173,7 +2173,7 @@
         <x:v>304</x:v>
       </x:c>
       <x:c r="E58" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F58" s="1" t="n">
         <x:v>46</x:v>
@@ -2185,7 +2185,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="I58" s="1" t="n">
-        <x:v>817</x:v>
+        <x:v>818</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">
@@ -2231,7 +2231,7 @@
         <x:v>403</x:v>
       </x:c>
       <x:c r="E60" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F60" s="1" t="n">
         <x:v>55</x:v>
@@ -2243,7 +2243,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="I60" s="1" t="n">
-        <x:v>959</x:v>
+        <x:v>960</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">
@@ -2257,7 +2257,7 @@
         <x:v>445</x:v>
       </x:c>
       <x:c r="D61" s="1" t="n">
-        <x:v>630</x:v>
+        <x:v>631</x:v>
       </x:c>
       <x:c r="E61" s="1" t="n">
         <x:v>37</x:v>
@@ -2272,7 +2272,7 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="I61" s="1" t="n">
-        <x:v>1275</x:v>
+        <x:v>1276</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
@@ -2315,7 +2315,7 @@
         <x:v>486</x:v>
       </x:c>
       <x:c r="D63" s="1" t="n">
-        <x:v>751</x:v>
+        <x:v>752</x:v>
       </x:c>
       <x:c r="E63" s="1" t="n">
         <x:v>45</x:v>
@@ -2330,7 +2330,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="I63" s="1" t="n">
-        <x:v>1466</x:v>
+        <x:v>1467</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -720,7 +720,7 @@
         <x:v>5076</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>3079</x:v>
+        <x:v>3080</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>235</x:v>
@@ -735,7 +735,7 @@
         <x:v>1014</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>9899</x:v>
+        <x:v>9900</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -761,10 +761,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
-        <x:v>175</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>1399</x:v>
+        <x:v>1400</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -778,7 +778,7 @@
         <x:v>5649</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>3604</x:v>
+        <x:v>3605</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>262</x:v>
@@ -790,10 +790,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>1189</x:v>
+        <x:v>1190</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>11298</x:v>
+        <x:v>11300</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -862,7 +862,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>511</x:v>
+        <x:v>512</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>387</x:v>
@@ -877,10 +877,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>1073</x:v>
+        <x:v>1075</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -920,7 +920,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>559</x:v>
+        <x:v>560</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>426</x:v>
@@ -935,10 +935,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>1193</x:v>
+        <x:v>1195</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -964,10 +964,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H16" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>370</x:v>
+        <x:v>371</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -1022,10 +1022,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H18" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="I18" s="1" t="n">
-        <x:v>377</x:v>
+        <x:v>378</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
@@ -1123,10 +1123,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>2758</x:v>
+        <x:v>2760</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>1349</x:v>
+        <x:v>1350</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>97</x:v>
@@ -1135,13 +1135,13 @@
         <x:v>378</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
-        <x:v>617</x:v>
+        <x:v>620</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>5211</x:v>
+        <x:v>5218</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1152,7 +1152,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C23" s="1" t="n">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
         <x:v>19</x:v>
@@ -1170,7 +1170,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1181,10 +1181,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>2832</x:v>
+        <x:v>2835</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>1368</x:v>
+        <x:v>1369</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>104</x:v>
@@ -1193,13 +1193,13 @@
         <x:v>380</x:v>
       </x:c>
       <x:c r="G24" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H24" s="1" t="n">
-        <x:v>638</x:v>
+        <x:v>641</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>5334</x:v>
+        <x:v>5342</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1300,7 +1300,7 @@
         <x:v>679</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
-        <x:v>478</x:v>
+        <x:v>479</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
         <x:v>46</x:v>
@@ -1315,7 +1315,7 @@
         <x:v>190</x:v>
       </x:c>
       <x:c r="I28" s="1" t="n">
-        <x:v>1498</x:v>
+        <x:v>1499</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:9">
@@ -1358,7 +1358,7 @@
         <x:v>701</x:v>
       </x:c>
       <x:c r="D30" s="1" t="n">
-        <x:v>500</x:v>
+        <x:v>501</x:v>
       </x:c>
       <x:c r="E30" s="1" t="n">
         <x:v>46</x:v>
@@ -1373,7 +1373,7 @@
         <x:v>199</x:v>
       </x:c>
       <x:c r="I30" s="1" t="n">
-        <x:v>1556</x:v>
+        <x:v>1557</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:9">
@@ -1674,10 +1674,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C41" s="1" t="n">
-        <x:v>5081</x:v>
+        <x:v>5084</x:v>
       </x:c>
       <x:c r="D41" s="1" t="n">
-        <x:v>3253</x:v>
+        <x:v>3255</x:v>
       </x:c>
       <x:c r="E41" s="1" t="n">
         <x:v>204</x:v>
@@ -1692,7 +1692,7 @@
         <x:v>912</x:v>
       </x:c>
       <x:c r="I41" s="1" t="n">
-        <x:v>9922</x:v>
+        <x:v>9927</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9">
@@ -1706,7 +1706,7 @@
         <x:v>506</x:v>
       </x:c>
       <x:c r="D42" s="1" t="n">
-        <x:v>357</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="E42" s="1" t="n">
         <x:v>27</x:v>
@@ -1718,10 +1718,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H42" s="1" t="n">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="I42" s="1" t="n">
-        <x:v>1019</x:v>
+        <x:v>1021</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:9">
@@ -1732,10 +1732,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C43" s="1" t="n">
-        <x:v>5587</x:v>
+        <x:v>5590</x:v>
       </x:c>
       <x:c r="D43" s="1" t="n">
-        <x:v>3610</x:v>
+        <x:v>3613</x:v>
       </x:c>
       <x:c r="E43" s="1" t="n">
         <x:v>231</x:v>
@@ -1747,10 +1747,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="H43" s="1" t="n">
-        <x:v>1007</x:v>
+        <x:v>1008</x:v>
       </x:c>
       <x:c r="I43" s="1" t="n">
-        <x:v>10941</x:v>
+        <x:v>10948</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:9">
@@ -2083,7 +2083,7 @@
         <x:v>298</x:v>
       </x:c>
       <x:c r="D55" s="1" t="n">
-        <x:v>142</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="E55" s="1" t="n">
         <x:v>16</x:v>
@@ -2098,7 +2098,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="I55" s="1" t="n">
-        <x:v>546</x:v>
+        <x:v>547</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:9">
@@ -2141,7 +2141,7 @@
         <x:v>346</x:v>
       </x:c>
       <x:c r="D57" s="1" t="n">
-        <x:v>156</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="E57" s="1" t="n">
         <x:v>18</x:v>
@@ -2156,7 +2156,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="I57" s="1" t="n">
-        <x:v>639</x:v>
+        <x:v>640</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:9">
@@ -2167,7 +2167,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C58" s="1" t="n">
-        <x:v>347</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="D58" s="1" t="n">
         <x:v>304</x:v>
@@ -2185,7 +2185,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="I58" s="1" t="n">
-        <x:v>818</x:v>
+        <x:v>819</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">
@@ -2225,7 +2225,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C60" s="1" t="n">
-        <x:v>363</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="D60" s="1" t="n">
         <x:v>403</x:v>
@@ -2243,7 +2243,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="I60" s="1" t="n">
-        <x:v>960</x:v>
+        <x:v>961</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -659,7 +659,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
         <x:v>1</x:v>
@@ -677,7 +677,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I6" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:9">
@@ -688,7 +688,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>52</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
         <x:v>22</x:v>
@@ -706,7 +706,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="I7" s="1" t="n">
-        <x:v>88</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9">
@@ -717,10 +717,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>5076</x:v>
+        <x:v>5077</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>3080</x:v>
+        <x:v>3086</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>235</x:v>
@@ -732,10 +732,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>1014</x:v>
+        <x:v>1015</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>9900</x:v>
+        <x:v>9908</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -775,10 +775,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>5649</x:v>
+        <x:v>5650</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>3605</x:v>
+        <x:v>3611</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>262</x:v>
@@ -790,10 +790,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>1190</x:v>
+        <x:v>1191</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>11300</x:v>
+        <x:v>11308</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -862,7 +862,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>512</x:v>
+        <x:v>513</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>387</x:v>
@@ -880,7 +880,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>1075</x:v>
+        <x:v>1076</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -920,7 +920,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>560</x:v>
+        <x:v>561</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>426</x:v>
@@ -938,7 +938,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>1195</x:v>
+        <x:v>1196</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -949,7 +949,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>206</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
         <x:v>98</x:v>
@@ -967,7 +967,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>371</x:v>
+        <x:v>372</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -1007,7 +1007,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C18" s="1" t="n">
-        <x:v>207</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
         <x:v>103</x:v>
@@ -1025,7 +1025,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="I18" s="1" t="n">
-        <x:v>378</x:v>
+        <x:v>379</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
@@ -1039,7 +1039,7 @@
         <x:v>575</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
-        <x:v>300</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
         <x:v>31</x:v>
@@ -1054,7 +1054,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>1079</x:v>
+        <x:v>1080</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1097,7 +1097,7 @@
         <x:v>705</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
-        <x:v>370</x:v>
+        <x:v>371</x:v>
       </x:c>
       <x:c r="E21" s="1" t="n">
         <x:v>33</x:v>
@@ -1112,7 +1112,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>1326</x:v>
+        <x:v>1327</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1123,10 +1123,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>2760</x:v>
+        <x:v>2762</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>1350</x:v>
+        <x:v>1349</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>97</x:v>
@@ -1138,10 +1138,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
-        <x:v>620</x:v>
+        <x:v>621</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>5218</x:v>
+        <x:v>5220</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1181,10 +1181,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>2835</x:v>
+        <x:v>2837</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>1369</x:v>
+        <x:v>1368</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>104</x:v>
@@ -1196,10 +1196,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="H24" s="1" t="n">
-        <x:v>641</x:v>
+        <x:v>642</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>5342</x:v>
+        <x:v>5344</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1210,7 +1210,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C25" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
         <x:v>7</x:v>
@@ -1228,7 +1228,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="I25" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
@@ -1268,7 +1268,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C27" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D27" s="1" t="n">
         <x:v>11</x:v>
@@ -1286,7 +1286,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="I27" s="1" t="n">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:9">
@@ -1384,7 +1384,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C31" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
         <x:v>1</x:v>
@@ -1402,7 +1402,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I31" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
@@ -1442,7 +1442,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C33" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D33" s="1" t="n">
         <x:v>1</x:v>
@@ -1460,7 +1460,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I33" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:9">
@@ -1674,10 +1674,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C41" s="1" t="n">
-        <x:v>5084</x:v>
+        <x:v>5092</x:v>
       </x:c>
       <x:c r="D41" s="1" t="n">
-        <x:v>3255</x:v>
+        <x:v>3261</x:v>
       </x:c>
       <x:c r="E41" s="1" t="n">
         <x:v>204</x:v>
@@ -1686,13 +1686,13 @@
         <x:v>460</x:v>
       </x:c>
       <x:c r="G41" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H41" s="1" t="n">
-        <x:v>912</x:v>
+        <x:v>914</x:v>
       </x:c>
       <x:c r="I41" s="1" t="n">
-        <x:v>9927</x:v>
+        <x:v>9944</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9">
@@ -1703,10 +1703,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C42" s="1" t="n">
-        <x:v>506</x:v>
+        <x:v>509</x:v>
       </x:c>
       <x:c r="D42" s="1" t="n">
-        <x:v>358</x:v>
+        <x:v>363</x:v>
       </x:c>
       <x:c r="E42" s="1" t="n">
         <x:v>27</x:v>
@@ -1721,7 +1721,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="I42" s="1" t="n">
-        <x:v>1021</x:v>
+        <x:v>1029</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:9">
@@ -1732,10 +1732,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C43" s="1" t="n">
-        <x:v>5590</x:v>
+        <x:v>5601</x:v>
       </x:c>
       <x:c r="D43" s="1" t="n">
-        <x:v>3613</x:v>
+        <x:v>3624</x:v>
       </x:c>
       <x:c r="E43" s="1" t="n">
         <x:v>231</x:v>
@@ -1744,13 +1744,13 @@
         <x:v>493</x:v>
       </x:c>
       <x:c r="G43" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H43" s="1" t="n">
-        <x:v>1008</x:v>
+        <x:v>1010</x:v>
       </x:c>
       <x:c r="I43" s="1" t="n">
-        <x:v>10948</x:v>
+        <x:v>10973</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:9">
@@ -2167,7 +2167,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C58" s="1" t="n">
-        <x:v>348</x:v>
+        <x:v>347</x:v>
       </x:c>
       <x:c r="D58" s="1" t="n">
         <x:v>304</x:v>
@@ -2185,7 +2185,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="I58" s="1" t="n">
-        <x:v>819</x:v>
+        <x:v>818</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">
@@ -2225,7 +2225,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C60" s="1" t="n">
-        <x:v>364</x:v>
+        <x:v>363</x:v>
       </x:c>
       <x:c r="D60" s="1" t="n">
         <x:v>403</x:v>
@@ -2243,7 +2243,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="I60" s="1" t="n">
-        <x:v>961</x:v>
+        <x:v>960</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">
@@ -2257,7 +2257,7 @@
         <x:v>445</x:v>
       </x:c>
       <x:c r="D61" s="1" t="n">
-        <x:v>631</x:v>
+        <x:v>630</x:v>
       </x:c>
       <x:c r="E61" s="1" t="n">
         <x:v>37</x:v>
@@ -2272,7 +2272,7 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="I61" s="1" t="n">
-        <x:v>1276</x:v>
+        <x:v>1275</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
@@ -2315,7 +2315,7 @@
         <x:v>486</x:v>
       </x:c>
       <x:c r="D63" s="1" t="n">
-        <x:v>752</x:v>
+        <x:v>751</x:v>
       </x:c>
       <x:c r="E63" s="1" t="n">
         <x:v>45</x:v>
@@ -2330,7 +2330,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="I63" s="1" t="n">
-        <x:v>1467</x:v>
+        <x:v>1466</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -717,25 +717,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>5077</x:v>
+        <x:v>5089</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>3086</x:v>
+        <x:v>3092</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>235</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>476</x:v>
+        <x:v>475</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
         <x:v>19</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>1015</x:v>
+        <x:v>1011</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>9908</x:v>
+        <x:v>9921</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -746,25 +746,25 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>573</x:v>
+        <x:v>579</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>525</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
         <x:v>27</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>96</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
-        <x:v>176</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>1400</x:v>
+        <x:v>1406</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -775,25 +775,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>5650</x:v>
+        <x:v>5668</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>3611</x:v>
+        <x:v>3616</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>262</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>572</x:v>
+        <x:v>573</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>22</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>1191</x:v>
+        <x:v>1186</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>11308</x:v>
+        <x:v>11327</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -862,25 +862,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>513</x:v>
+        <x:v>519</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>387</x:v>
+        <x:v>388</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>34</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>59</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>1076</x:v>
+        <x:v>1083</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -920,25 +920,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>561</x:v>
+        <x:v>567</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>426</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
         <x:v>36</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>82</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>1196</x:v>
+        <x:v>1203</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -1036,10 +1036,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>575</x:v>
+        <x:v>579</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
-        <x:v>301</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
         <x:v>31</x:v>
@@ -1054,7 +1054,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>1080</x:v>
+        <x:v>1086</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1094,10 +1094,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>705</x:v>
+        <x:v>709</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
-        <x:v>371</x:v>
+        <x:v>373</x:v>
       </x:c>
       <x:c r="E21" s="1" t="n">
         <x:v>33</x:v>
@@ -1112,7 +1112,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>1327</x:v>
+        <x:v>1333</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1123,25 +1123,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>2762</x:v>
+        <x:v>2765</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>1349</x:v>
+        <x:v>1350</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>97</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
-        <x:v>378</x:v>
+        <x:v>379</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
-        <x:v>621</x:v>
+        <x:v>622</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>5220</x:v>
+        <x:v>5226</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1152,7 +1152,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C23" s="1" t="n">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
         <x:v>19</x:v>
@@ -1167,10 +1167,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H23" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>124</x:v>
+        <x:v>128</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1181,25 +1181,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>2837</x:v>
+        <x:v>2842</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>1368</x:v>
+        <x:v>1369</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>104</x:v>
       </x:c>
       <x:c r="F24" s="1" t="n">
-        <x:v>380</x:v>
+        <x:v>381</x:v>
       </x:c>
       <x:c r="G24" s="1" t="n">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H24" s="1" t="n">
-        <x:v>642</x:v>
+        <x:v>645</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>5344</x:v>
+        <x:v>5354</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1297,25 +1297,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C28" s="1" t="n">
-        <x:v>679</x:v>
+        <x:v>682</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
-        <x:v>479</x:v>
+        <x:v>480</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
         <x:v>46</x:v>
       </x:c>
       <x:c r="F28" s="1" t="n">
-        <x:v>102</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G28" s="1" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="H28" s="1" t="n">
-        <x:v>190</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="I28" s="1" t="n">
-        <x:v>1499</x:v>
+        <x:v>1503</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:9">
@@ -1355,25 +1355,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C30" s="1" t="n">
-        <x:v>701</x:v>
+        <x:v>704</x:v>
       </x:c>
       <x:c r="D30" s="1" t="n">
-        <x:v>501</x:v>
+        <x:v>502</x:v>
       </x:c>
       <x:c r="E30" s="1" t="n">
         <x:v>46</x:v>
       </x:c>
       <x:c r="F30" s="1" t="n">
-        <x:v>107</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="G30" s="1" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="H30" s="1" t="n">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="I30" s="1" t="n">
-        <x:v>1557</x:v>
+        <x:v>1561</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:9">
@@ -1674,25 +1674,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C41" s="1" t="n">
-        <x:v>5092</x:v>
+        <x:v>5125</x:v>
       </x:c>
       <x:c r="D41" s="1" t="n">
-        <x:v>3261</x:v>
+        <x:v>3282</x:v>
       </x:c>
       <x:c r="E41" s="1" t="n">
-        <x:v>204</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="F41" s="1" t="n">
-        <x:v>460</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="G41" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H41" s="1" t="n">
-        <x:v>914</x:v>
+        <x:v>923</x:v>
       </x:c>
       <x:c r="I41" s="1" t="n">
-        <x:v>9944</x:v>
+        <x:v>10013</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9">
@@ -1703,10 +1703,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C42" s="1" t="n">
-        <x:v>509</x:v>
+        <x:v>514</x:v>
       </x:c>
       <x:c r="D42" s="1" t="n">
-        <x:v>363</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="E42" s="1" t="n">
         <x:v>27</x:v>
@@ -1718,10 +1718,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H42" s="1" t="n">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="I42" s="1" t="n">
-        <x:v>1029</x:v>
+        <x:v>1036</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:9">
@@ -1732,25 +1732,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C43" s="1" t="n">
-        <x:v>5601</x:v>
+        <x:v>5639</x:v>
       </x:c>
       <x:c r="D43" s="1" t="n">
-        <x:v>3624</x:v>
+        <x:v>3646</x:v>
       </x:c>
       <x:c r="E43" s="1" t="n">
-        <x:v>231</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="F43" s="1" t="n">
-        <x:v>493</x:v>
+        <x:v>497</x:v>
       </x:c>
       <x:c r="G43" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="H43" s="1" t="n">
-        <x:v>1010</x:v>
+        <x:v>1020</x:v>
       </x:c>
       <x:c r="I43" s="1" t="n">
-        <x:v>10973</x:v>
+        <x:v>11049</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:9">
@@ -1767,10 +1767,10 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E44" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F44" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G44" s="1" t="n">
         <x:v>2</x:v>
@@ -1779,7 +1779,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="I44" s="1" t="n">
-        <x:v>376</x:v>
+        <x:v>378</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:9">
@@ -1825,10 +1825,10 @@
         <x:v>201</x:v>
       </x:c>
       <x:c r="E46" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F46" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G46" s="1" t="n">
         <x:v>3</x:v>
@@ -1837,7 +1837,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="I46" s="1" t="n">
-        <x:v>507</x:v>
+        <x:v>509</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
@@ -2002,13 +2002,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="F52" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G52" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H52" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I52" s="1" t="n">
         <x:v>341</x:v>
@@ -2060,13 +2060,13 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="F54" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G54" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H54" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I54" s="1" t="n">
         <x:v>485</x:v>
@@ -2080,7 +2080,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C55" s="1" t="n">
-        <x:v>298</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="D55" s="1" t="n">
         <x:v>143</x:v>
@@ -2095,10 +2095,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H55" s="1" t="n">
-        <x:v>78</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="I55" s="1" t="n">
-        <x:v>547</x:v>
+        <x:v>549</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:9">
@@ -2138,7 +2138,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C57" s="1" t="n">
-        <x:v>346</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="D57" s="1" t="n">
         <x:v>157</x:v>
@@ -2153,10 +2153,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H57" s="1" t="n">
-        <x:v>106</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="I57" s="1" t="n">
-        <x:v>640</x:v>
+        <x:v>642</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:9">
@@ -2182,10 +2182,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="H58" s="1" t="n">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="I58" s="1" t="n">
-        <x:v>818</x:v>
+        <x:v>819</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">
@@ -2240,10 +2240,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="H60" s="1" t="n">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="I60" s="1" t="n">
-        <x:v>960</x:v>
+        <x:v>961</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">
@@ -2257,22 +2257,22 @@
         <x:v>445</x:v>
       </x:c>
       <x:c r="D61" s="1" t="n">
-        <x:v>630</x:v>
+        <x:v>631</x:v>
       </x:c>
       <x:c r="E61" s="1" t="n">
         <x:v>37</x:v>
       </x:c>
       <x:c r="F61" s="1" t="n">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="G61" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H61" s="1" t="n">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="I61" s="1" t="n">
-        <x:v>1275</x:v>
+        <x:v>1278</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
@@ -2283,7 +2283,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C62" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="D62" s="1" t="n">
         <x:v>121</x:v>
@@ -2301,7 +2301,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="I62" s="1" t="n">
-        <x:v>191</x:v>
+        <x:v>193</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:9">
@@ -2312,25 +2312,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C63" s="1" t="n">
-        <x:v>486</x:v>
+        <x:v>488</x:v>
       </x:c>
       <x:c r="D63" s="1" t="n">
-        <x:v>751</x:v>
+        <x:v>752</x:v>
       </x:c>
       <x:c r="E63" s="1" t="n">
         <x:v>45</x:v>
       </x:c>
       <x:c r="F63" s="1" t="n">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G63" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H63" s="1" t="n">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="I63" s="1" t="n">
-        <x:v>1466</x:v>
+        <x:v>1471</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -717,25 +717,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>5089</x:v>
+        <x:v>5099</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>3092</x:v>
+        <x:v>3097</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>235</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>475</x:v>
+        <x:v>476</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
         <x:v>19</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>1011</x:v>
+        <x:v>1010</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>9921</x:v>
+        <x:v>9937</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -746,13 +746,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>579</x:v>
+        <x:v>580</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>524</x:v>
+        <x:v>527</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
         <x:v>98</x:v>
@@ -761,10 +761,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
-        <x:v>175</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>1406</x:v>
+        <x:v>1410</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -775,16 +775,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>5668</x:v>
+        <x:v>5679</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>3616</x:v>
+        <x:v>3624</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>262</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>573</x:v>
+        <x:v>574</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>22</x:v>
@@ -793,7 +793,7 @@
         <x:v>1186</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>11327</x:v>
+        <x:v>11347</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -862,10 +862,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>519</x:v>
+        <x:v>520</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>388</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>34</x:v>
@@ -920,10 +920,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>567</x:v>
+        <x:v>568</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>427</x:v>
+        <x:v>426</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
         <x:v>36</x:v>
@@ -1039,7 +1039,7 @@
         <x:v>579</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
-        <x:v>303</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
         <x:v>31</x:v>
@@ -1054,7 +1054,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>1086</x:v>
+        <x:v>1087</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1065,7 +1065,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
         <x:v>70</x:v>
@@ -1083,7 +1083,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>247</x:v>
+        <x:v>248</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1094,10 +1094,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>709</x:v>
+        <x:v>710</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
-        <x:v>373</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="E21" s="1" t="n">
         <x:v>33</x:v>
@@ -1112,7 +1112,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>1333</x:v>
+        <x:v>1335</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1123,10 +1123,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>2765</x:v>
+        <x:v>2769</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>1350</x:v>
+        <x:v>1354</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>97</x:v>
@@ -1138,10 +1138,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
-        <x:v>622</x:v>
+        <x:v>623</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>5226</x:v>
+        <x:v>5235</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1181,10 +1181,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>2842</x:v>
+        <x:v>2846</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>1369</x:v>
+        <x:v>1373</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>104</x:v>
@@ -1196,10 +1196,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="H24" s="1" t="n">
-        <x:v>645</x:v>
+        <x:v>646</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>5354</x:v>
+        <x:v>5363</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1210,7 +1210,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C25" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
         <x:v>7</x:v>
@@ -1228,7 +1228,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="I25" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
@@ -1268,7 +1268,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C27" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D27" s="1" t="n">
         <x:v>11</x:v>
@@ -1286,7 +1286,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="I27" s="1" t="n">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:9">
@@ -1297,7 +1297,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C28" s="1" t="n">
-        <x:v>682</x:v>
+        <x:v>683</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
         <x:v>480</x:v>
@@ -1315,7 +1315,7 @@
         <x:v>191</x:v>
       </x:c>
       <x:c r="I28" s="1" t="n">
-        <x:v>1503</x:v>
+        <x:v>1504</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:9">
@@ -1355,7 +1355,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C30" s="1" t="n">
-        <x:v>704</x:v>
+        <x:v>705</x:v>
       </x:c>
       <x:c r="D30" s="1" t="n">
         <x:v>502</x:v>
@@ -1373,7 +1373,7 @@
         <x:v>200</x:v>
       </x:c>
       <x:c r="I30" s="1" t="n">
-        <x:v>1561</x:v>
+        <x:v>1562</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:9">
@@ -1486,10 +1486,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H34" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I34" s="1" t="n">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:9">
@@ -1544,10 +1544,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H36" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="I36" s="1" t="n">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:9">
@@ -1573,10 +1573,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H37" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I37" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:9">
@@ -1602,10 +1602,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H38" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I38" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:9">
@@ -1674,10 +1674,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C41" s="1" t="n">
-        <x:v>5125</x:v>
+        <x:v>5135</x:v>
       </x:c>
       <x:c r="D41" s="1" t="n">
-        <x:v>3282</x:v>
+        <x:v>3285</x:v>
       </x:c>
       <x:c r="E41" s="1" t="n">
         <x:v>205</x:v>
@@ -1692,7 +1692,7 @@
         <x:v>923</x:v>
       </x:c>
       <x:c r="I41" s="1" t="n">
-        <x:v>10013</x:v>
+        <x:v>10026</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9">
@@ -1706,7 +1706,7 @@
         <x:v>514</x:v>
       </x:c>
       <x:c r="D42" s="1" t="n">
-        <x:v>364</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="E42" s="1" t="n">
         <x:v>27</x:v>
@@ -1721,7 +1721,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="I42" s="1" t="n">
-        <x:v>1036</x:v>
+        <x:v>1037</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:9">
@@ -1732,10 +1732,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C43" s="1" t="n">
-        <x:v>5639</x:v>
+        <x:v>5649</x:v>
       </x:c>
       <x:c r="D43" s="1" t="n">
-        <x:v>3646</x:v>
+        <x:v>3650</x:v>
       </x:c>
       <x:c r="E43" s="1" t="n">
         <x:v>232</x:v>
@@ -1750,7 +1750,7 @@
         <x:v>1020</x:v>
       </x:c>
       <x:c r="I43" s="1" t="n">
-        <x:v>11049</x:v>
+        <x:v>11063</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:9">
@@ -1764,7 +1764,7 @@
         <x:v>177</x:v>
       </x:c>
       <x:c r="D44" s="1" t="n">
-        <x:v>115</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="E44" s="1" t="n">
         <x:v>15</x:v>
@@ -1779,7 +1779,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="I44" s="1" t="n">
-        <x:v>378</x:v>
+        <x:v>380</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:9">
@@ -1822,7 +1822,7 @@
         <x:v>199</x:v>
       </x:c>
       <x:c r="D46" s="1" t="n">
-        <x:v>201</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="E46" s="1" t="n">
         <x:v>21</x:v>
@@ -1837,7 +1837,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="I46" s="1" t="n">
-        <x:v>509</x:v>
+        <x:v>511</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
@@ -2089,16 +2089,16 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="F55" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G55" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H55" s="1" t="n">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I55" s="1" t="n">
-        <x:v>549</x:v>
+        <x:v>551</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:9">
@@ -2147,16 +2147,16 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="F57" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G57" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H57" s="1" t="n">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="I57" s="1" t="n">
-        <x:v>642</x:v>
+        <x:v>644</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:9">
@@ -2254,10 +2254,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C61" s="1" t="n">
-        <x:v>445</x:v>
+        <x:v>447</x:v>
       </x:c>
       <x:c r="D61" s="1" t="n">
-        <x:v>631</x:v>
+        <x:v>632</x:v>
       </x:c>
       <x:c r="E61" s="1" t="n">
         <x:v>37</x:v>
@@ -2272,7 +2272,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="I61" s="1" t="n">
-        <x:v>1278</x:v>
+        <x:v>1281</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
@@ -2312,10 +2312,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C63" s="1" t="n">
-        <x:v>488</x:v>
+        <x:v>490</x:v>
       </x:c>
       <x:c r="D63" s="1" t="n">
-        <x:v>752</x:v>
+        <x:v>753</x:v>
       </x:c>
       <x:c r="E63" s="1" t="n">
         <x:v>45</x:v>
@@ -2330,7 +2330,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="I63" s="1" t="n">
-        <x:v>1471</x:v>
+        <x:v>1474</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -717,10 +717,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>5099</x:v>
+        <x:v>5103</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>3097</x:v>
+        <x:v>3105</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>236</x:v>
@@ -732,10 +732,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>1010</x:v>
+        <x:v>1011</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>9937</x:v>
+        <x:v>9950</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -746,7 +746,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>580</x:v>
+        <x:v>581</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
         <x:v>527</x:v>
@@ -755,16 +755,16 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
-        <x:v>176</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>1410</x:v>
+        <x:v>1413</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -775,25 +775,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>5679</x:v>
+        <x:v>5684</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>3624</x:v>
+        <x:v>3632</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>262</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>574</x:v>
+        <x:v>575</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>22</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>1186</x:v>
+        <x:v>1188</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>11347</x:v>
+        <x:v>11363</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -949,7 +949,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>207</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
         <x:v>98</x:v>
@@ -967,7 +967,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>372</x:v>
+        <x:v>374</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -1007,7 +1007,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C18" s="1" t="n">
-        <x:v>208</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
         <x:v>103</x:v>
@@ -1025,7 +1025,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="I18" s="1" t="n">
-        <x:v>379</x:v>
+        <x:v>381</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
@@ -1036,7 +1036,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>579</x:v>
+        <x:v>582</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
         <x:v>304</x:v>
@@ -1054,7 +1054,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>1087</x:v>
+        <x:v>1090</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1094,7 +1094,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>710</x:v>
+        <x:v>713</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
         <x:v>374</x:v>
@@ -1112,7 +1112,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>1335</x:v>
+        <x:v>1338</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1486,10 +1486,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H34" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="I34" s="1" t="n">
-        <x:v>92</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:9">
@@ -1544,10 +1544,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H36" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I36" s="1" t="n">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:9">
@@ -1674,25 +1674,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C41" s="1" t="n">
-        <x:v>5135</x:v>
+        <x:v>5143</x:v>
       </x:c>
       <x:c r="D41" s="1" t="n">
-        <x:v>3285</x:v>
+        <x:v>3289</x:v>
       </x:c>
       <x:c r="E41" s="1" t="n">
         <x:v>205</x:v>
       </x:c>
       <x:c r="F41" s="1" t="n">
-        <x:v>464</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="G41" s="1" t="n">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H41" s="1" t="n">
-        <x:v>923</x:v>
+        <x:v>926</x:v>
       </x:c>
       <x:c r="I41" s="1" t="n">
-        <x:v>10026</x:v>
+        <x:v>10042</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9">
@@ -1709,7 +1709,7 @@
         <x:v>365</x:v>
       </x:c>
       <x:c r="E42" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F42" s="1" t="n">
         <x:v>33</x:v>
@@ -1721,7 +1721,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="I42" s="1" t="n">
-        <x:v>1037</x:v>
+        <x:v>1038</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:9">
@@ -1732,25 +1732,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C43" s="1" t="n">
-        <x:v>5649</x:v>
+        <x:v>5657</x:v>
       </x:c>
       <x:c r="D43" s="1" t="n">
-        <x:v>3650</x:v>
+        <x:v>3654</x:v>
       </x:c>
       <x:c r="E43" s="1" t="n">
-        <x:v>232</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="F43" s="1" t="n">
-        <x:v>497</x:v>
+        <x:v>498</x:v>
       </x:c>
       <x:c r="G43" s="1" t="n">
         <x:v>15</x:v>
       </x:c>
       <x:c r="H43" s="1" t="n">
-        <x:v>1020</x:v>
+        <x:v>1023</x:v>
       </x:c>
       <x:c r="I43" s="1" t="n">
-        <x:v>11063</x:v>
+        <x:v>11080</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:9">
@@ -2083,7 +2083,7 @@
         <x:v>301</x:v>
       </x:c>
       <x:c r="D55" s="1" t="n">
-        <x:v>143</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="E55" s="1" t="n">
         <x:v>16</x:v>
@@ -2098,7 +2098,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="I55" s="1" t="n">
-        <x:v>551</x:v>
+        <x:v>553</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:9">
@@ -2141,7 +2141,7 @@
         <x:v>349</x:v>
       </x:c>
       <x:c r="D57" s="1" t="n">
-        <x:v>157</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="E57" s="1" t="n">
         <x:v>18</x:v>
@@ -2156,7 +2156,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="I57" s="1" t="n">
-        <x:v>644</x:v>
+        <x:v>646</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:9">
@@ -2254,10 +2254,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C61" s="1" t="n">
-        <x:v>447</x:v>
+        <x:v>448</x:v>
       </x:c>
       <x:c r="D61" s="1" t="n">
-        <x:v>632</x:v>
+        <x:v>634</x:v>
       </x:c>
       <x:c r="E61" s="1" t="n">
         <x:v>37</x:v>
@@ -2272,7 +2272,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="I61" s="1" t="n">
-        <x:v>1281</x:v>
+        <x:v>1284</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
@@ -2312,10 +2312,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C63" s="1" t="n">
-        <x:v>490</x:v>
+        <x:v>491</x:v>
       </x:c>
       <x:c r="D63" s="1" t="n">
-        <x:v>753</x:v>
+        <x:v>755</x:v>
       </x:c>
       <x:c r="E63" s="1" t="n">
         <x:v>45</x:v>
@@ -2330,7 +2330,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="I63" s="1" t="n">
-        <x:v>1474</x:v>
+        <x:v>1477</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -543,7 +543,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
         <x:v>16</x:v>
@@ -561,7 +561,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -601,7 +601,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
         <x:v>17</x:v>
@@ -619,7 +619,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -717,25 +717,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>5103</x:v>
+        <x:v>5114</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>3105</x:v>
+        <x:v>3107</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>236</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>476</x:v>
+        <x:v>478</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
         <x:v>19</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>1011</x:v>
+        <x:v>1010</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>9950</x:v>
+        <x:v>9964</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -749,7 +749,7 @@
         <x:v>581</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>527</x:v>
+        <x:v>528</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
         <x:v>26</x:v>
@@ -764,7 +764,7 @@
         <x:v>177</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>1413</x:v>
+        <x:v>1414</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -775,25 +775,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>5684</x:v>
+        <x:v>5695</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>3632</x:v>
+        <x:v>3635</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>262</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>575</x:v>
+        <x:v>577</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>22</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>1188</x:v>
+        <x:v>1187</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>11363</x:v>
+        <x:v>11378</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -891,7 +891,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
         <x:v>39</x:v>
@@ -909,7 +909,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="I14" s="1" t="n">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
@@ -920,7 +920,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>568</x:v>
+        <x:v>569</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>426</x:v>
@@ -938,7 +938,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>1203</x:v>
+        <x:v>1204</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -1051,10 +1051,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H19" s="1" t="n">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>1090</x:v>
+        <x:v>1091</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1068,7 +1068,7 @@
         <x:v>131</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
         <x:v>2</x:v>
@@ -1083,7 +1083,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>248</x:v>
+        <x:v>249</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1097,7 +1097,7 @@
         <x:v>713</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
-        <x:v>374</x:v>
+        <x:v>375</x:v>
       </x:c>
       <x:c r="E21" s="1" t="n">
         <x:v>33</x:v>
@@ -1109,10 +1109,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H21" s="1" t="n">
-        <x:v>142</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>1338</x:v>
+        <x:v>1340</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1123,7 +1123,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>2769</x:v>
+        <x:v>2770</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
         <x:v>1354</x:v>
@@ -1141,7 +1141,7 @@
         <x:v>623</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>5235</x:v>
+        <x:v>5236</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1167,10 +1167,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H23" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1181,7 +1181,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>2846</x:v>
+        <x:v>2847</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
         <x:v>1373</x:v>
@@ -1196,10 +1196,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="H24" s="1" t="n">
-        <x:v>646</x:v>
+        <x:v>647</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>5363</x:v>
+        <x:v>5365</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1312,10 +1312,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="H28" s="1" t="n">
-        <x:v>191</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="I28" s="1" t="n">
-        <x:v>1504</x:v>
+        <x:v>1505</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:9">
@@ -1370,10 +1370,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="H30" s="1" t="n">
-        <x:v>200</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="I30" s="1" t="n">
-        <x:v>1562</x:v>
+        <x:v>1563</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:9">
@@ -1674,10 +1674,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C41" s="1" t="n">
-        <x:v>5143</x:v>
+        <x:v>5151</x:v>
       </x:c>
       <x:c r="D41" s="1" t="n">
-        <x:v>3289</x:v>
+        <x:v>3290</x:v>
       </x:c>
       <x:c r="E41" s="1" t="n">
         <x:v>205</x:v>
@@ -1689,10 +1689,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H41" s="1" t="n">
-        <x:v>926</x:v>
+        <x:v>927</x:v>
       </x:c>
       <x:c r="I41" s="1" t="n">
-        <x:v>10042</x:v>
+        <x:v>10052</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9">
@@ -1732,10 +1732,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C43" s="1" t="n">
-        <x:v>5657</x:v>
+        <x:v>5665</x:v>
       </x:c>
       <x:c r="D43" s="1" t="n">
-        <x:v>3654</x:v>
+        <x:v>3655</x:v>
       </x:c>
       <x:c r="E43" s="1" t="n">
         <x:v>233</x:v>
@@ -1747,10 +1747,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="H43" s="1" t="n">
-        <x:v>1023</x:v>
+        <x:v>1024</x:v>
       </x:c>
       <x:c r="I43" s="1" t="n">
-        <x:v>11080</x:v>
+        <x:v>11090</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:9">
@@ -1764,7 +1764,7 @@
         <x:v>177</x:v>
       </x:c>
       <x:c r="D44" s="1" t="n">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="E44" s="1" t="n">
         <x:v>15</x:v>
@@ -1779,7 +1779,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="I44" s="1" t="n">
-        <x:v>380</x:v>
+        <x:v>381</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:9">
@@ -1822,7 +1822,7 @@
         <x:v>199</x:v>
       </x:c>
       <x:c r="D46" s="1" t="n">
-        <x:v>203</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="E46" s="1" t="n">
         <x:v>21</x:v>
@@ -1837,7 +1837,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="I46" s="1" t="n">
-        <x:v>511</x:v>
+        <x:v>512</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
@@ -2080,7 +2080,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C55" s="1" t="n">
-        <x:v>301</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="D55" s="1" t="n">
         <x:v>145</x:v>
@@ -2098,7 +2098,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="I55" s="1" t="n">
-        <x:v>553</x:v>
+        <x:v>555</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:9">
@@ -2138,7 +2138,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C57" s="1" t="n">
-        <x:v>349</x:v>
+        <x:v>351</x:v>
       </x:c>
       <x:c r="D57" s="1" t="n">
         <x:v>159</x:v>
@@ -2156,7 +2156,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="I57" s="1" t="n">
-        <x:v>646</x:v>
+        <x:v>648</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:9">
@@ -2167,7 +2167,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C58" s="1" t="n">
-        <x:v>347</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="D58" s="1" t="n">
         <x:v>304</x:v>
@@ -2185,7 +2185,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="I58" s="1" t="n">
-        <x:v>819</x:v>
+        <x:v>820</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">
@@ -2225,7 +2225,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C60" s="1" t="n">
-        <x:v>363</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="D60" s="1" t="n">
         <x:v>403</x:v>
@@ -2243,7 +2243,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="I60" s="1" t="n">
-        <x:v>961</x:v>
+        <x:v>962</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">
@@ -2254,7 +2254,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C61" s="1" t="n">
-        <x:v>448</x:v>
+        <x:v>449</x:v>
       </x:c>
       <x:c r="D61" s="1" t="n">
         <x:v>634</x:v>
@@ -2272,7 +2272,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="I61" s="1" t="n">
-        <x:v>1284</x:v>
+        <x:v>1285</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
@@ -2312,7 +2312,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C63" s="1" t="n">
-        <x:v>491</x:v>
+        <x:v>492</x:v>
       </x:c>
       <x:c r="D63" s="1" t="n">
         <x:v>755</x:v>
@@ -2330,7 +2330,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="I63" s="1" t="n">
-        <x:v>1477</x:v>
+        <x:v>1478</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <x:si>
     <x:t>Offense Category</x:t>
   </x:si>
@@ -77,6 +77,9 @@
   </x:si>
   <x:si>
     <x:t>Embezzlement</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Extortion/Blackmail</x:t>
   </x:si>
   <x:si>
     <x:t>Fraud Offenses</x:t>
@@ -496,7 +499,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:I63"/>
+  <x:dimension ref="A1:I65"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -543,10 +546,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>40</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>2</x:v>
@@ -561,7 +564,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>73</x:v>
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -572,7 +575,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
         <x:v>1</x:v>
@@ -590,7 +593,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I3" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
@@ -601,10 +604,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>2</x:v>
@@ -619,7 +622,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>75</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -630,16 +633,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>44</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E5" s="1" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="F5" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G5" s="1" t="n">
         <x:v>0</x:v>
@@ -648,7 +651,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="I5" s="1" t="n">
-        <x:v>78</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:9">
@@ -688,16 +691,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>51</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G7" s="1" t="n">
         <x:v>0</x:v>
@@ -706,7 +709,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="I7" s="1" t="n">
-        <x:v>87</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9">
@@ -717,25 +720,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>5114</x:v>
+        <x:v>5800</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>3107</x:v>
+        <x:v>3504</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>236</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>478</x:v>
+        <x:v>523</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>1010</x:v>
+        <x:v>1139</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>9964</x:v>
+        <x:v>11267</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -746,25 +749,25 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>581</x:v>
+        <x:v>646</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>528</x:v>
+        <x:v>577</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>99</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
-        <x:v>177</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>1414</x:v>
+        <x:v>1562</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -775,25 +778,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>5695</x:v>
+        <x:v>6446</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>3635</x:v>
+        <x:v>4081</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>262</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>577</x:v>
+        <x:v>634</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>1187</x:v>
+        <x:v>1336</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>11378</x:v>
+        <x:v>12829</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -862,25 +865,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>520</x:v>
+        <x:v>580</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>387</x:v>
+        <x:v>429</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>58</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
-        <x:v>82</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>1083</x:v>
+        <x:v>1205</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -891,13 +894,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>49</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
         <x:v>39</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
         <x:v>23</x:v>
@@ -906,10 +909,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H14" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I14" s="1" t="n">
-        <x:v>121</x:v>
+        <x:v>126</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
@@ -920,25 +923,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>569</x:v>
+        <x:v>632</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>426</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>81</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
-        <x:v>90</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>1204</x:v>
+        <x:v>1331</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -949,16 +952,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>209</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>98</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
         <x:v>0</x:v>
@@ -967,7 +970,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>374</x:v>
+        <x:v>406</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -981,7 +984,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
         <x:v>0</x:v>
@@ -996,7 +999,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -1007,16 +1010,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C18" s="1" t="n">
-        <x:v>210</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
-        <x:v>103</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="E18" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F18" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G18" s="1" t="n">
         <x:v>0</x:v>
@@ -1025,7 +1028,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="I18" s="1" t="n">
-        <x:v>381</x:v>
+        <x:v>415</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
@@ -1036,25 +1039,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>582</x:v>
+        <x:v>642</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
-        <x:v>304</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
-        <x:v>61</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G19" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H19" s="1" t="n">
-        <x:v>112</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>1091</x:v>
+        <x:v>1208</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1065,25 +1068,25 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>131</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>71</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="F20" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G20" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H20" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>249</x:v>
+        <x:v>266</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1094,25 +1097,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>713</x:v>
+        <x:v>782</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
-        <x:v>375</x:v>
+        <x:v>410</x:v>
       </x:c>
       <x:c r="E21" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F21" s="1" t="n">
-        <x:v>75</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="G21" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H21" s="1" t="n">
-        <x:v>143</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>1340</x:v>
+        <x:v>1474</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1123,25 +1126,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>2770</x:v>
+        <x:v>3063</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>1354</x:v>
+        <x:v>1515</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
-        <x:v>97</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
-        <x:v>379</x:v>
+        <x:v>420</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
-        <x:v>623</x:v>
+        <x:v>702</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>5236</x:v>
+        <x:v>5834</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1152,10 +1155,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C23" s="1" t="n">
-        <x:v>77</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
         <x:v>7</x:v>
@@ -1167,10 +1170,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H23" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>129</x:v>
+        <x:v>140</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1181,25 +1184,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>2847</x:v>
+        <x:v>3145</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>1373</x:v>
+        <x:v>1537</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
-        <x:v>104</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="F24" s="1" t="n">
-        <x:v>381</x:v>
+        <x:v>422</x:v>
       </x:c>
       <x:c r="G24" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H24" s="1" t="n">
-        <x:v>647</x:v>
+        <x:v>729</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>5365</x:v>
+        <x:v>5974</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1210,13 +1213,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C25" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E25" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F25" s="1" t="n">
         <x:v>0</x:v>
@@ -1225,10 +1228,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H25" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="I25" s="1" t="n">
-        <x:v>40</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
@@ -1239,10 +1242,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C26" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D26" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E26" s="1" t="n">
         <x:v>0</x:v>
@@ -1254,10 +1257,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H26" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I26" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:9">
@@ -1268,13 +1271,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C27" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D27" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E27" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F27" s="1" t="n">
         <x:v>0</x:v>
@@ -1283,10 +1286,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H27" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="I27" s="1" t="n">
-        <x:v>48</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:9">
@@ -1297,25 +1300,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C28" s="1" t="n">
-        <x:v>683</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
-        <x:v>480</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
-        <x:v>46</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F28" s="1" t="n">
-        <x:v>101</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G28" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H28" s="1" t="n">
-        <x:v>192</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I28" s="1" t="n">
-        <x:v>1505</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:9">
@@ -1323,57 +1326,57 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C29" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D29" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E29" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F29" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G29" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H29" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I29" s="1" t="n">
-        <x:v>58</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:9">
       <x:c r="A30" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C30" s="1" t="n">
-        <x:v>705</x:v>
+        <x:v>739</x:v>
       </x:c>
       <x:c r="D30" s="1" t="n">
-        <x:v>502</x:v>
+        <x:v>541</x:v>
       </x:c>
       <x:c r="E30" s="1" t="n">
-        <x:v>46</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="F30" s="1" t="n">
-        <x:v>106</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="G30" s="1" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="H30" s="1" t="n">
-        <x:v>201</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="I30" s="1" t="n">
-        <x:v>1563</x:v>
+        <x:v>1660</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:9">
@@ -1381,28 +1384,28 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C31" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F31" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G31" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H31" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="I31" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
@@ -1410,36 +1413,36 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C32" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>763</x:v>
       </x:c>
       <x:c r="D32" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>567</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="F32" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="G32" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H32" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="I32" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>1727</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:9">
       <x:c r="A33" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C33" s="1" t="n">
         <x:v>2</x:v>
@@ -1457,10 +1460,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H33" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I33" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:9">
@@ -1468,28 +1471,28 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C34" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D34" s="1" t="n">
-        <x:v>53</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E34" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F34" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G34" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H34" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I34" s="1" t="n">
-        <x:v>91</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:9">
@@ -1497,19 +1500,19 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C35" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D35" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E35" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F35" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G35" s="1" t="n">
         <x:v>0</x:v>
@@ -1518,24 +1521,24 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I35" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:9">
       <x:c r="A36" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C36" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D36" s="1" t="n">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E36" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F36" s="1" t="n">
         <x:v>3</x:v>
@@ -1544,10 +1547,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H36" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I36" s="1" t="n">
-        <x:v>102</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:9">
@@ -1555,28 +1558,28 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C37" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D37" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E37" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="F37" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G37" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H37" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I37" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:9">
@@ -1587,25 +1590,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C38" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D38" s="1" t="n">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="E38" s="1" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="E38" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
       <x:c r="F38" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G38" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H38" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="I38" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:9">
@@ -1616,25 +1619,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C39" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D39" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E39" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F39" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G39" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H39" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I39" s="1" t="n">
-        <x:v>82</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:9">
@@ -1645,25 +1648,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C40" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D40" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E40" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F40" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G40" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H40" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I40" s="1" t="n">
-        <x:v>82</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:9">
@@ -1674,25 +1677,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C41" s="1" t="n">
-        <x:v>5151</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D41" s="1" t="n">
-        <x:v>3290</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E41" s="1" t="n">
-        <x:v>205</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F41" s="1" t="n">
-        <x:v>465</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G41" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H41" s="1" t="n">
-        <x:v>927</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I41" s="1" t="n">
-        <x:v>10052</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9">
@@ -1700,57 +1703,57 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C42" s="1" t="n">
-        <x:v>514</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D42" s="1" t="n">
-        <x:v>365</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E42" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F42" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G42" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H42" s="1" t="n">
-        <x:v>97</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I42" s="1" t="n">
-        <x:v>1038</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:9">
       <x:c r="A43" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C43" s="1" t="n">
-        <x:v>5665</x:v>
+        <x:v>5751</x:v>
       </x:c>
       <x:c r="D43" s="1" t="n">
-        <x:v>3655</x:v>
+        <x:v>3686</x:v>
       </x:c>
       <x:c r="E43" s="1" t="n">
-        <x:v>233</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="F43" s="1" t="n">
-        <x:v>498</x:v>
+        <x:v>520</x:v>
       </x:c>
       <x:c r="G43" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H43" s="1" t="n">
-        <x:v>1024</x:v>
+        <x:v>1053</x:v>
       </x:c>
       <x:c r="I43" s="1" t="n">
-        <x:v>11090</x:v>
+        <x:v>11260</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:9">
@@ -1758,28 +1761,28 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C44" s="1" t="n">
-        <x:v>177</x:v>
+        <x:v>566</x:v>
       </x:c>
       <x:c r="D44" s="1" t="n">
-        <x:v>118</x:v>
+        <x:v>426</x:v>
       </x:c>
       <x:c r="E44" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F44" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="G44" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H44" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="I44" s="1" t="n">
-        <x:v>381</x:v>
+        <x:v>1176</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:9">
@@ -1787,57 +1790,57 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>6317</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
-        <x:v>86</x:v>
+        <x:v>4112</x:v>
       </x:c>
       <x:c r="E45" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="F45" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>561</x:v>
       </x:c>
       <x:c r="G45" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H45" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>1165</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>131</x:v>
+        <x:v>12436</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
       <x:c r="A46" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C46" s="1" t="n">
-        <x:v>199</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="D46" s="1" t="n">
-        <x:v>204</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="E46" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F46" s="1" t="n">
-        <x:v>43</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G46" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H46" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="I46" s="1" t="n">
-        <x:v>512</x:v>
+        <x:v>420</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
@@ -1845,28 +1848,28 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>71</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E47" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F47" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G47" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H47" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>99</x:v>
+        <x:v>137</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -1874,42 +1877,42 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C48" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="D48" s="1" t="n">
+        <x:v>218</x:v>
+      </x:c>
+      <x:c r="E48" s="1" t="n">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F48" s="1" t="n">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="G48" s="1" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E48" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F48" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G48" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
       <x:c r="H48" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="I48" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>557</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:9">
       <x:c r="A49" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C49" s="1" t="n">
-        <x:v>85</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D49" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E49" s="1" t="n">
         <x:v>1</x:v>
@@ -1921,10 +1924,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H49" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I49" s="1" t="n">
-        <x:v>119</x:v>
+        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:9">
@@ -1932,28 +1935,28 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C50" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D50" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E50" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F50" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G50" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H50" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I50" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:9">
@@ -1964,25 +1967,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C51" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="D51" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E51" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F51" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G51" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H51" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I51" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>130</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:9">
@@ -1993,25 +1996,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C52" s="1" t="n">
-        <x:v>67</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D52" s="1" t="n">
-        <x:v>237</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E52" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F52" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G52" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H52" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I52" s="1" t="n">
-        <x:v>341</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:9">
@@ -2019,57 +2022,57 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C53" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D53" s="1" t="n">
-        <x:v>104</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E53" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F53" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G53" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H53" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I53" s="1" t="n">
-        <x:v>144</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:9">
       <x:c r="A54" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C54" s="1" t="n">
-        <x:v>81</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D54" s="1" t="n">
-        <x:v>341</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="E54" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F54" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G54" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H54" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I54" s="1" t="n">
-        <x:v>485</x:v>
+        <x:v>378</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:9">
@@ -2077,28 +2080,28 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C55" s="1" t="n">
-        <x:v>303</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D55" s="1" t="n">
-        <x:v>145</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="E55" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F55" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G55" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H55" s="1" t="n">
-        <x:v>78</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I55" s="1" t="n">
-        <x:v>555</x:v>
+        <x:v>154</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:9">
@@ -2106,57 +2109,57 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C56" s="1" t="n">
-        <x:v>48</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D56" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>376</x:v>
       </x:c>
       <x:c r="E56" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F56" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G56" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H56" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="I56" s="1" t="n">
-        <x:v>93</x:v>
+        <x:v>532</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:9">
       <x:c r="A57" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C57" s="1" t="n">
-        <x:v>351</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="D57" s="1" t="n">
-        <x:v>159</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="E57" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F57" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G57" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H57" s="1" t="n">
-        <x:v>106</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="I57" s="1" t="n">
-        <x:v>648</x:v>
+        <x:v>616</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:9">
@@ -2164,28 +2167,28 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C58" s="1" t="n">
-        <x:v>348</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D58" s="1" t="n">
-        <x:v>304</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E58" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F58" s="1" t="n">
-        <x:v>46</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G58" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H58" s="1" t="n">
-        <x:v>96</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I58" s="1" t="n">
-        <x:v>820</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">
@@ -2193,57 +2196,57 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C59" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>380</x:v>
       </x:c>
       <x:c r="D59" s="1" t="n">
-        <x:v>99</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="E59" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F59" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G59" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H59" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="I59" s="1" t="n">
-        <x:v>142</x:v>
+        <x:v>714</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9">
       <x:c r="A60" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C60" s="1" t="n">
-        <x:v>364</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="D60" s="1" t="n">
-        <x:v>403</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="E60" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F60" s="1" t="n">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G60" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H60" s="1" t="n">
-        <x:v>110</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="I60" s="1" t="n">
-        <x:v>962</x:v>
+        <x:v>940</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">
@@ -2251,28 +2254,28 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C61" s="1" t="n">
-        <x:v>449</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D61" s="1" t="n">
-        <x:v>634</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="E61" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F61" s="1" t="n">
-        <x:v>47</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G61" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H61" s="1" t="n">
-        <x:v>117</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="I61" s="1" t="n">
-        <x:v>1285</x:v>
+        <x:v>159</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
@@ -2280,57 +2283,115 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C62" s="1" t="n">
-        <x:v>43</x:v>
+        <x:v>414</x:v>
       </x:c>
       <x:c r="D62" s="1" t="n">
-        <x:v>121</x:v>
+        <x:v>462</x:v>
       </x:c>
       <x:c r="E62" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F62" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="G62" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H62" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="I62" s="1" t="n">
-        <x:v>193</x:v>
+        <x:v>1099</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:9">
       <x:c r="A63" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C63" s="1" t="n">
-        <x:v>492</x:v>
+        <x:v>517</x:v>
       </x:c>
       <x:c r="D63" s="1" t="n">
-        <x:v>755</x:v>
+        <x:v>703</x:v>
       </x:c>
       <x:c r="E63" s="1" t="n">
-        <x:v>45</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F63" s="1" t="n">
-        <x:v>52</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="G63" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H63" s="1" t="n">
-        <x:v>133</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="I63" s="1" t="n">
-        <x:v>1478</x:v>
+        <x:v>1494</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64" spans="1:9">
+      <x:c r="A64" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B64" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C64" s="1" t="n">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="D64" s="1" t="n">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="E64" s="1" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F64" s="1" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G64" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H64" s="1" t="n">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="I64" s="1" t="n">
+        <x:v>224</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65" spans="1:9">
+      <x:c r="A65" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B65" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C65" s="1" t="n">
+        <x:v>568</x:v>
+      </x:c>
+      <x:c r="D65" s="1" t="n">
+        <x:v>841</x:v>
+      </x:c>
+      <x:c r="E65" s="1" t="n">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="F65" s="1" t="n">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="G65" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H65" s="1" t="n">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="I65" s="1" t="n">
+        <x:v>1718</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -546,7 +546,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
         <x:v>17</x:v>
@@ -564,7 +564,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -604,7 +604,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
         <x:v>18</x:v>
@@ -622,7 +622,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -720,13 +720,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>5800</x:v>
+        <x:v>5811</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>3504</x:v>
+        <x:v>3506</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>277</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
         <x:v>523</x:v>
@@ -735,10 +735,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>1139</x:v>
+        <x:v>1140</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>11267</x:v>
+        <x:v>11282</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -752,22 +752,22 @@
         <x:v>646</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>577</x:v>
+        <x:v>579</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
         <x:v>27</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
-        <x:v>197</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>1562</x:v>
+        <x:v>1566</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -778,25 +778,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>6446</x:v>
+        <x:v>6457</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>4081</x:v>
+        <x:v>4085</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>304</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>634</x:v>
+        <x:v>635</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>28</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>1336</x:v>
+        <x:v>1338</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>12829</x:v>
+        <x:v>12848</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -865,7 +865,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>580</x:v>
+        <x:v>581</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>429</x:v>
@@ -883,7 +883,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>1205</x:v>
+        <x:v>1206</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -923,7 +923,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>632</x:v>
+        <x:v>633</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>468</x:v>
@@ -941,7 +941,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>1331</x:v>
+        <x:v>1332</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -952,10 +952,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>225</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
         <x:v>16</x:v>
@@ -970,7 +970,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>406</x:v>
+        <x:v>410</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -984,7 +984,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
         <x:v>0</x:v>
@@ -999,7 +999,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -1010,10 +1010,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C18" s="1" t="n">
-        <x:v>226</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
-        <x:v>118</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="E18" s="1" t="n">
         <x:v>16</x:v>
@@ -1028,7 +1028,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="I18" s="1" t="n">
-        <x:v>415</x:v>
+        <x:v>420</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
@@ -1039,10 +1039,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>642</x:v>
+        <x:v>644</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
-        <x:v>335</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
         <x:v>33</x:v>
@@ -1057,7 +1057,7 @@
         <x:v>128</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>1208</x:v>
+        <x:v>1211</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1068,7 +1068,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>140</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
         <x:v>75</x:v>
@@ -1086,7 +1086,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>266</x:v>
+        <x:v>268</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1097,10 +1097,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>782</x:v>
+        <x:v>786</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
-        <x:v>410</x:v>
+        <x:v>411</x:v>
       </x:c>
       <x:c r="E21" s="1" t="n">
         <x:v>35</x:v>
@@ -1115,7 +1115,7 @@
         <x:v>161</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>1474</x:v>
+        <x:v>1479</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1126,25 +1126,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>3063</x:v>
+        <x:v>3074</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>1515</x:v>
+        <x:v>1521</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>117</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
-        <x:v>420</x:v>
+        <x:v>421</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
         <x:v>17</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
-        <x:v>702</x:v>
+        <x:v>703</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>5834</x:v>
+        <x:v>5853</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1184,25 +1184,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>3145</x:v>
+        <x:v>3156</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>1537</x:v>
+        <x:v>1543</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>124</x:v>
       </x:c>
       <x:c r="F24" s="1" t="n">
-        <x:v>422</x:v>
+        <x:v>423</x:v>
       </x:c>
       <x:c r="G24" s="1" t="n">
         <x:v>17</x:v>
       </x:c>
       <x:c r="H24" s="1" t="n">
-        <x:v>729</x:v>
+        <x:v>730</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>5974</x:v>
+        <x:v>5993</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1358,10 +1358,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C30" s="1" t="n">
-        <x:v>739</x:v>
+        <x:v>743</x:v>
       </x:c>
       <x:c r="D30" s="1" t="n">
-        <x:v>541</x:v>
+        <x:v>546</x:v>
       </x:c>
       <x:c r="E30" s="1" t="n">
         <x:v>50</x:v>
@@ -1373,10 +1373,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="H30" s="1" t="n">
-        <x:v>217</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="I30" s="1" t="n">
-        <x:v>1660</x:v>
+        <x:v>1671</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:9">
@@ -1402,10 +1402,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H31" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="I31" s="1" t="n">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
@@ -1416,10 +1416,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C32" s="1" t="n">
-        <x:v>763</x:v>
+        <x:v>767</x:v>
       </x:c>
       <x:c r="D32" s="1" t="n">
-        <x:v>567</x:v>
+        <x:v>572</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
         <x:v>50</x:v>
@@ -1431,10 +1431,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="H32" s="1" t="n">
-        <x:v>228</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="I32" s="1" t="n">
-        <x:v>1727</x:v>
+        <x:v>1739</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:9">
@@ -1735,25 +1735,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C43" s="1" t="n">
-        <x:v>5751</x:v>
+        <x:v>5775</x:v>
       </x:c>
       <x:c r="D43" s="1" t="n">
-        <x:v>3686</x:v>
+        <x:v>3717</x:v>
       </x:c>
       <x:c r="E43" s="1" t="n">
-        <x:v>234</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="F43" s="1" t="n">
-        <x:v>520</x:v>
+        <x:v>526</x:v>
       </x:c>
       <x:c r="G43" s="1" t="n">
         <x:v>16</x:v>
       </x:c>
       <x:c r="H43" s="1" t="n">
-        <x:v>1053</x:v>
+        <x:v>1055</x:v>
       </x:c>
       <x:c r="I43" s="1" t="n">
-        <x:v>11260</x:v>
+        <x:v>11325</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:9">
@@ -1767,10 +1767,10 @@
         <x:v>566</x:v>
       </x:c>
       <x:c r="D44" s="1" t="n">
-        <x:v>426</x:v>
+        <x:v>428</x:v>
       </x:c>
       <x:c r="E44" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F44" s="1" t="n">
         <x:v>41</x:v>
@@ -1779,10 +1779,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H44" s="1" t="n">
-        <x:v>112</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="I44" s="1" t="n">
-        <x:v>1176</x:v>
+        <x:v>1179</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:9">
@@ -1793,25 +1793,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>6317</x:v>
+        <x:v>6341</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
-        <x:v>4112</x:v>
+        <x:v>4145</x:v>
       </x:c>
       <x:c r="E45" s="1" t="n">
-        <x:v>264</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="F45" s="1" t="n">
-        <x:v>561</x:v>
+        <x:v>567</x:v>
       </x:c>
       <x:c r="G45" s="1" t="n">
         <x:v>17</x:v>
       </x:c>
       <x:c r="H45" s="1" t="n">
-        <x:v>1165</x:v>
+        <x:v>1169</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>12436</x:v>
+        <x:v>12504</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1822,7 +1822,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C46" s="1" t="n">
-        <x:v>198</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="D46" s="1" t="n">
         <x:v>128</x:v>
@@ -1840,7 +1840,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="I46" s="1" t="n">
-        <x:v>420</x:v>
+        <x:v>425</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
@@ -1880,7 +1880,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C48" s="1" t="n">
-        <x:v>222</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="D48" s="1" t="n">
         <x:v>218</x:v>
@@ -1898,7 +1898,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="I48" s="1" t="n">
-        <x:v>557</x:v>
+        <x:v>562</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:9">
@@ -1938,7 +1938,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C50" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D50" s="1" t="n">
         <x:v>3</x:v>
@@ -1956,7 +1956,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="I50" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:9">
@@ -1967,7 +1967,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C51" s="1" t="n">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D51" s="1" t="n">
         <x:v>13</x:v>
@@ -1985,7 +1985,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="I51" s="1" t="n">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:9">
@@ -2057,7 +2057,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="D54" s="1" t="n">
-        <x:v>263</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="E54" s="1" t="n">
         <x:v>4</x:v>
@@ -2072,7 +2072,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="I54" s="1" t="n">
-        <x:v>378</x:v>
+        <x:v>380</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:9">
@@ -2115,7 +2115,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="D56" s="1" t="n">
-        <x:v>376</x:v>
+        <x:v>378</x:v>
       </x:c>
       <x:c r="E56" s="1" t="n">
         <x:v>16</x:v>
@@ -2130,7 +2130,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="I56" s="1" t="n">
-        <x:v>532</x:v>
+        <x:v>534</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:9">
@@ -2141,7 +2141,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C57" s="1" t="n">
-        <x:v>330</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="D57" s="1" t="n">
         <x:v>166</x:v>
@@ -2159,7 +2159,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="I57" s="1" t="n">
-        <x:v>616</x:v>
+        <x:v>617</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:9">
@@ -2199,7 +2199,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C59" s="1" t="n">
-        <x:v>380</x:v>
+        <x:v>381</x:v>
       </x:c>
       <x:c r="D59" s="1" t="n">
         <x:v>183</x:v>
@@ -2217,7 +2217,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="I59" s="1" t="n">
-        <x:v>714</x:v>
+        <x:v>715</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9">
@@ -2228,7 +2228,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C60" s="1" t="n">
-        <x:v>398</x:v>
+        <x:v>399</x:v>
       </x:c>
       <x:c r="D60" s="1" t="n">
         <x:v>350</x:v>
@@ -2246,7 +2246,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="I60" s="1" t="n">
-        <x:v>940</x:v>
+        <x:v>941</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">
@@ -2286,7 +2286,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C62" s="1" t="n">
-        <x:v>414</x:v>
+        <x:v>415</x:v>
       </x:c>
       <x:c r="D62" s="1" t="n">
         <x:v>462</x:v>
@@ -2304,7 +2304,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="I62" s="1" t="n">
-        <x:v>1099</x:v>
+        <x:v>1100</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:9">
@@ -2315,16 +2315,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C63" s="1" t="n">
-        <x:v>517</x:v>
+        <x:v>518</x:v>
       </x:c>
       <x:c r="D63" s="1" t="n">
-        <x:v>703</x:v>
+        <x:v>704</x:v>
       </x:c>
       <x:c r="E63" s="1" t="n">
         <x:v>42</x:v>
       </x:c>
       <x:c r="F63" s="1" t="n">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G63" s="1" t="n">
         <x:v>1</x:v>
@@ -2333,7 +2333,7 @@
         <x:v>176</x:v>
       </x:c>
       <x:c r="I63" s="1" t="n">
-        <x:v>1494</x:v>
+        <x:v>1497</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:9">
@@ -2347,7 +2347,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="D64" s="1" t="n">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="E64" s="1" t="n">
         <x:v>8</x:v>
@@ -2362,7 +2362,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="I64" s="1" t="n">
-        <x:v>224</x:v>
+        <x:v>225</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:9">
@@ -2373,16 +2373,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C65" s="1" t="n">
-        <x:v>568</x:v>
+        <x:v>569</x:v>
       </x:c>
       <x:c r="D65" s="1" t="n">
-        <x:v>841</x:v>
+        <x:v>843</x:v>
       </x:c>
       <x:c r="E65" s="1" t="n">
         <x:v>50</x:v>
       </x:c>
       <x:c r="F65" s="1" t="n">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="G65" s="1" t="n">
         <x:v>1</x:v>
@@ -2391,7 +2391,7 @@
         <x:v>196</x:v>
       </x:c>
       <x:c r="I65" s="1" t="n">
-        <x:v>1718</x:v>
+        <x:v>1722</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -720,10 +720,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>5811</x:v>
+        <x:v>5814</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>3506</x:v>
+        <x:v>3505</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>278</x:v>
@@ -735,10 +735,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>1140</x:v>
+        <x:v>1142</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>11282</x:v>
+        <x:v>11286</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -778,10 +778,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>6457</x:v>
+        <x:v>6460</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>4085</x:v>
+        <x:v>4084</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>305</x:v>
@@ -793,10 +793,10 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>1338</x:v>
+        <x:v>1340</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>12848</x:v>
+        <x:v>12852</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -1068,7 +1068,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>142</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
         <x:v>75</x:v>
@@ -1086,7 +1086,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>268</x:v>
+        <x:v>269</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1097,7 +1097,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>786</x:v>
+        <x:v>787</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
         <x:v>411</x:v>
@@ -1115,7 +1115,7 @@
         <x:v>161</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>1479</x:v>
+        <x:v>1480</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1126,10 +1126,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>3074</x:v>
+        <x:v>3075</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>1521</x:v>
+        <x:v>1523</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>117</x:v>
@@ -1141,10 +1141,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
-        <x:v>703</x:v>
+        <x:v>706</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>5853</x:v>
+        <x:v>5859</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1184,10 +1184,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>3156</x:v>
+        <x:v>3157</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>1543</x:v>
+        <x:v>1545</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>124</x:v>
@@ -1199,10 +1199,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="H24" s="1" t="n">
-        <x:v>730</x:v>
+        <x:v>733</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>5993</x:v>
+        <x:v>5999</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1373,10 +1373,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="H30" s="1" t="n">
-        <x:v>219</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="I30" s="1" t="n">
-        <x:v>1671</x:v>
+        <x:v>1672</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:9">
@@ -1431,10 +1431,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="H32" s="1" t="n">
-        <x:v>231</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="I32" s="1" t="n">
-        <x:v>1739</x:v>
+        <x:v>1740</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:9">
@@ -1735,10 +1735,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C43" s="1" t="n">
-        <x:v>5775</x:v>
+        <x:v>5777</x:v>
       </x:c>
       <x:c r="D43" s="1" t="n">
-        <x:v>3717</x:v>
+        <x:v>3719</x:v>
       </x:c>
       <x:c r="E43" s="1" t="n">
         <x:v>236</x:v>
@@ -1747,13 +1747,13 @@
         <x:v>526</x:v>
       </x:c>
       <x:c r="G43" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H43" s="1" t="n">
-        <x:v>1055</x:v>
+        <x:v>1056</x:v>
       </x:c>
       <x:c r="I43" s="1" t="n">
-        <x:v>11325</x:v>
+        <x:v>11331</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:9">
@@ -1779,10 +1779,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H44" s="1" t="n">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="I44" s="1" t="n">
-        <x:v>1179</x:v>
+        <x:v>1180</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:9">
@@ -1793,10 +1793,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>6341</x:v>
+        <x:v>6343</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
-        <x:v>4145</x:v>
+        <x:v>4147</x:v>
       </x:c>
       <x:c r="E45" s="1" t="n">
         <x:v>265</x:v>
@@ -1805,13 +1805,13 @@
         <x:v>567</x:v>
       </x:c>
       <x:c r="G45" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H45" s="1" t="n">
-        <x:v>1169</x:v>
+        <x:v>1171</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>12504</x:v>
+        <x:v>12511</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1837,10 +1837,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H46" s="1" t="n">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="I46" s="1" t="n">
-        <x:v>425</x:v>
+        <x:v>426</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
@@ -1895,10 +1895,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="H48" s="1" t="n">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="I48" s="1" t="n">
-        <x:v>562</x:v>
+        <x:v>563</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:9">
@@ -1909,7 +1909,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C49" s="1" t="n">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D49" s="1" t="n">
         <x:v>10</x:v>
@@ -1927,7 +1927,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="I49" s="1" t="n">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:9">
@@ -1967,7 +1967,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C51" s="1" t="n">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D51" s="1" t="n">
         <x:v>13</x:v>
@@ -1985,7 +1985,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="I51" s="1" t="n">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:9">
@@ -2141,7 +2141,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C57" s="1" t="n">
-        <x:v>331</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="D57" s="1" t="n">
         <x:v>166</x:v>
@@ -2159,7 +2159,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="I57" s="1" t="n">
-        <x:v>617</x:v>
+        <x:v>620</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:9">
@@ -2170,7 +2170,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C58" s="1" t="n">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D58" s="1" t="n">
         <x:v>17</x:v>
@@ -2188,7 +2188,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="I58" s="1" t="n">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">
@@ -2199,7 +2199,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C59" s="1" t="n">
-        <x:v>381</x:v>
+        <x:v>385</x:v>
       </x:c>
       <x:c r="D59" s="1" t="n">
         <x:v>183</x:v>
@@ -2217,7 +2217,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="I59" s="1" t="n">
-        <x:v>715</x:v>
+        <x:v>719</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9">
@@ -2228,7 +2228,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C60" s="1" t="n">
-        <x:v>399</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="D60" s="1" t="n">
         <x:v>350</x:v>
@@ -2243,10 +2243,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="H60" s="1" t="n">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="I60" s="1" t="n">
-        <x:v>941</x:v>
+        <x:v>943</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">
@@ -2286,7 +2286,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C62" s="1" t="n">
-        <x:v>415</x:v>
+        <x:v>416</x:v>
       </x:c>
       <x:c r="D62" s="1" t="n">
         <x:v>462</x:v>
@@ -2301,10 +2301,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="H62" s="1" t="n">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="I62" s="1" t="n">
-        <x:v>1100</x:v>
+        <x:v>1102</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:9">
@@ -2330,10 +2330,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H63" s="1" t="n">
-        <x:v>176</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="I63" s="1" t="n">
-        <x:v>1497</x:v>
+        <x:v>1498</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:9">
@@ -2388,10 +2388,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H65" s="1" t="n">
-        <x:v>196</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="I65" s="1" t="n">
-        <x:v>1722</x:v>
+        <x:v>1723</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -720,25 +720,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>5814</x:v>
+        <x:v>5819</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>3505</x:v>
+        <x:v>3514</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>278</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>523</x:v>
+        <x:v>529</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
         <x:v>24</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>1142</x:v>
+        <x:v>1144</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>11286</x:v>
+        <x:v>11308</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -749,7 +749,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>646</x:v>
+        <x:v>648</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
         <x:v>579</x:v>
@@ -764,10 +764,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
-        <x:v>198</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>1566</x:v>
+        <x:v>1570</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -778,25 +778,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>6460</x:v>
+        <x:v>6467</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>4084</x:v>
+        <x:v>4093</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>305</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>635</x:v>
+        <x:v>641</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>28</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>1340</x:v>
+        <x:v>1344</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>12852</x:v>
+        <x:v>12878</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -865,10 +865,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>581</x:v>
+        <x:v>582</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>429</x:v>
+        <x:v>430</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>35</x:v>
@@ -883,7 +883,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>1206</x:v>
+        <x:v>1208</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -923,10 +923,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>633</x:v>
+        <x:v>634</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>468</x:v>
+        <x:v>469</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
         <x:v>38</x:v>
@@ -941,7 +941,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>1332</x:v>
+        <x:v>1334</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -952,7 +952,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>228</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
         <x:v>112</x:v>
@@ -970,7 +970,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>410</x:v>
+        <x:v>411</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -1010,7 +1010,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C18" s="1" t="n">
-        <x:v>229</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
         <x:v>120</x:v>
@@ -1028,7 +1028,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="I18" s="1" t="n">
-        <x:v>420</x:v>
+        <x:v>421</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
@@ -1039,10 +1039,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>644</x:v>
+        <x:v>646</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
-        <x:v>336</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
         <x:v>33</x:v>
@@ -1054,10 +1054,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H19" s="1" t="n">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>1211</x:v>
+        <x:v>1215</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1097,10 +1097,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>787</x:v>
+        <x:v>789</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
-        <x:v>411</x:v>
+        <x:v>412</x:v>
       </x:c>
       <x:c r="E21" s="1" t="n">
         <x:v>35</x:v>
@@ -1112,10 +1112,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H21" s="1" t="n">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>1480</x:v>
+        <x:v>1484</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1126,7 +1126,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>3075</x:v>
+        <x:v>3078</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
         <x:v>1523</x:v>
@@ -1135,7 +1135,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
-        <x:v>421</x:v>
+        <x:v>422</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
         <x:v>17</x:v>
@@ -1144,7 +1144,7 @@
         <x:v>706</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>5859</x:v>
+        <x:v>5863</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1155,7 +1155,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C23" s="1" t="n">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
         <x:v>22</x:v>
@@ -1173,7 +1173,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>140</x:v>
+        <x:v>141</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1184,7 +1184,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>3157</x:v>
+        <x:v>3161</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
         <x:v>1545</x:v>
@@ -1193,7 +1193,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="F24" s="1" t="n">
-        <x:v>423</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="G24" s="1" t="n">
         <x:v>17</x:v>
@@ -1202,7 +1202,7 @@
         <x:v>733</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>5999</x:v>
+        <x:v>6004</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1257,10 +1257,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H26" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I26" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:9">
@@ -1286,10 +1286,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H27" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I27" s="1" t="n">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:9">
@@ -1358,16 +1358,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C30" s="1" t="n">
-        <x:v>743</x:v>
+        <x:v>744</x:v>
       </x:c>
       <x:c r="D30" s="1" t="n">
-        <x:v>546</x:v>
+        <x:v>547</x:v>
       </x:c>
       <x:c r="E30" s="1" t="n">
         <x:v>50</x:v>
       </x:c>
       <x:c r="F30" s="1" t="n">
-        <x:v>110</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="G30" s="1" t="n">
         <x:v>3</x:v>
@@ -1376,7 +1376,7 @@
         <x:v>220</x:v>
       </x:c>
       <x:c r="I30" s="1" t="n">
-        <x:v>1672</x:v>
+        <x:v>1676</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:9">
@@ -1416,16 +1416,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C32" s="1" t="n">
-        <x:v>767</x:v>
+        <x:v>768</x:v>
       </x:c>
       <x:c r="D32" s="1" t="n">
-        <x:v>572</x:v>
+        <x:v>573</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
         <x:v>50</x:v>
       </x:c>
       <x:c r="F32" s="1" t="n">
-        <x:v>116</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="G32" s="1" t="n">
         <x:v>3</x:v>
@@ -1434,7 +1434,7 @@
         <x:v>232</x:v>
       </x:c>
       <x:c r="I32" s="1" t="n">
-        <x:v>1740</x:v>
+        <x:v>1744</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:9">
@@ -1738,7 +1738,7 @@
         <x:v>5777</x:v>
       </x:c>
       <x:c r="D43" s="1" t="n">
-        <x:v>3719</x:v>
+        <x:v>3720</x:v>
       </x:c>
       <x:c r="E43" s="1" t="n">
         <x:v>236</x:v>
@@ -1750,10 +1750,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="H43" s="1" t="n">
-        <x:v>1056</x:v>
+        <x:v>1058</x:v>
       </x:c>
       <x:c r="I43" s="1" t="n">
-        <x:v>11331</x:v>
+        <x:v>11334</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:9">
@@ -1767,7 +1767,7 @@
         <x:v>566</x:v>
       </x:c>
       <x:c r="D44" s="1" t="n">
-        <x:v>428</x:v>
+        <x:v>429</x:v>
       </x:c>
       <x:c r="E44" s="1" t="n">
         <x:v>29</x:v>
@@ -1782,7 +1782,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="I44" s="1" t="n">
-        <x:v>1180</x:v>
+        <x:v>1181</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:9">
@@ -1796,7 +1796,7 @@
         <x:v>6343</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
-        <x:v>4147</x:v>
+        <x:v>4149</x:v>
       </x:c>
       <x:c r="E45" s="1" t="n">
         <x:v>265</x:v>
@@ -1808,10 +1808,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="H45" s="1" t="n">
-        <x:v>1171</x:v>
+        <x:v>1173</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>12511</x:v>
+        <x:v>12515</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1831,7 +1831,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F46" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="G46" s="1" t="n">
         <x:v>2</x:v>
@@ -1840,7 +1840,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="I46" s="1" t="n">
-        <x:v>426</x:v>
+        <x:v>427</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
@@ -1889,7 +1889,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F48" s="1" t="n">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="G48" s="1" t="n">
         <x:v>3</x:v>
@@ -1898,7 +1898,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="I48" s="1" t="n">
-        <x:v>563</x:v>
+        <x:v>564</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:9">
@@ -2069,10 +2069,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H54" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="I54" s="1" t="n">
-        <x:v>380</x:v>
+        <x:v>382</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:9">
@@ -2127,10 +2127,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H56" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I56" s="1" t="n">
-        <x:v>534</x:v>
+        <x:v>536</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:9">
@@ -2144,7 +2144,7 @@
         <x:v>334</x:v>
       </x:c>
       <x:c r="D57" s="1" t="n">
-        <x:v>166</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="E57" s="1" t="n">
         <x:v>20</x:v>
@@ -2159,7 +2159,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="I57" s="1" t="n">
-        <x:v>620</x:v>
+        <x:v>622</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:9">
@@ -2202,7 +2202,7 @@
         <x:v>385</x:v>
       </x:c>
       <x:c r="D59" s="1" t="n">
-        <x:v>183</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="E59" s="1" t="n">
         <x:v>22</x:v>
@@ -2217,7 +2217,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="I59" s="1" t="n">
-        <x:v>719</x:v>
+        <x:v>721</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9">
@@ -2272,10 +2272,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H61" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="I61" s="1" t="n">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
@@ -2301,10 +2301,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="H62" s="1" t="n">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="I62" s="1" t="n">
-        <x:v>1102</x:v>
+        <x:v>1103</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:9">
@@ -2318,7 +2318,7 @@
         <x:v>518</x:v>
       </x:c>
       <x:c r="D63" s="1" t="n">
-        <x:v>704</x:v>
+        <x:v>705</x:v>
       </x:c>
       <x:c r="E63" s="1" t="n">
         <x:v>42</x:v>
@@ -2333,7 +2333,7 @@
         <x:v>177</x:v>
       </x:c>
       <x:c r="I63" s="1" t="n">
-        <x:v>1498</x:v>
+        <x:v>1499</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:9">
@@ -2347,13 +2347,13 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="D64" s="1" t="n">
-        <x:v>139</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="E64" s="1" t="n">
         <x:v>8</x:v>
       </x:c>
       <x:c r="F64" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G64" s="1" t="n">
         <x:v>0</x:v>
@@ -2362,7 +2362,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="I64" s="1" t="n">
-        <x:v>225</x:v>
+        <x:v>227</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:9">
@@ -2376,13 +2376,13 @@
         <x:v>569</x:v>
       </x:c>
       <x:c r="D65" s="1" t="n">
-        <x:v>843</x:v>
+        <x:v>845</x:v>
       </x:c>
       <x:c r="E65" s="1" t="n">
         <x:v>50</x:v>
       </x:c>
       <x:c r="F65" s="1" t="n">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="G65" s="1" t="n">
         <x:v>1</x:v>
@@ -2391,7 +2391,7 @@
         <x:v>197</x:v>
       </x:c>
       <x:c r="I65" s="1" t="n">
-        <x:v>1723</x:v>
+        <x:v>1726</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -720,13 +720,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>5819</x:v>
+        <x:v>5822</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
         <x:v>3514</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>278</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
         <x:v>529</x:v>
@@ -735,7 +735,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>1144</x:v>
+        <x:v>1142</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
         <x:v>11308</x:v>
@@ -778,13 +778,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>6467</x:v>
+        <x:v>6470</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
         <x:v>4093</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>305</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
         <x:v>641</x:v>
@@ -793,7 +793,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>1344</x:v>
+        <x:v>1342</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
         <x:v>12878</x:v>
@@ -865,7 +865,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>582</x:v>
+        <x:v>584</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>430</x:v>
@@ -880,10 +880,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
-        <x:v>91</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>1208</x:v>
+        <x:v>1209</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -923,7 +923,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>634</x:v>
+        <x:v>636</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>469</x:v>
@@ -938,10 +938,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
-        <x:v>100</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>1334</x:v>
+        <x:v>1335</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -1048,7 +1048,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G19" s="1" t="n">
         <x:v>1</x:v>
@@ -1057,7 +1057,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>1215</x:v>
+        <x:v>1216</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1106,7 +1106,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="F21" s="1" t="n">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="G21" s="1" t="n">
         <x:v>1</x:v>
@@ -1115,7 +1115,7 @@
         <x:v>162</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>1484</x:v>
+        <x:v>1485</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1126,13 +1126,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>3078</x:v>
+        <x:v>3079</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
         <x:v>1523</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
         <x:v>422</x:v>
@@ -1144,7 +1144,7 @@
         <x:v>706</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>5863</x:v>
+        <x:v>5865</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1184,13 +1184,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>3161</x:v>
+        <x:v>3162</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
         <x:v>1545</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="F24" s="1" t="n">
         <x:v>424</x:v>
@@ -1202,7 +1202,7 @@
         <x:v>733</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>6004</x:v>
+        <x:v>6006</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1358,7 +1358,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C30" s="1" t="n">
-        <x:v>744</x:v>
+        <x:v>745</x:v>
       </x:c>
       <x:c r="D30" s="1" t="n">
         <x:v>547</x:v>
@@ -1367,7 +1367,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="F30" s="1" t="n">
-        <x:v>112</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="G30" s="1" t="n">
         <x:v>3</x:v>
@@ -1416,7 +1416,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C32" s="1" t="n">
-        <x:v>768</x:v>
+        <x:v>769</x:v>
       </x:c>
       <x:c r="D32" s="1" t="n">
         <x:v>573</x:v>
@@ -1425,7 +1425,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="F32" s="1" t="n">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="G32" s="1" t="n">
         <x:v>3</x:v>
@@ -1532,7 +1532,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C36" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D36" s="1" t="n">
         <x:v>62</x:v>
@@ -1550,7 +1550,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="I36" s="1" t="n">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:9">
@@ -1590,7 +1590,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C38" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D38" s="1" t="n">
         <x:v>69</x:v>
@@ -1608,7 +1608,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="I38" s="1" t="n">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:9">
@@ -1735,7 +1735,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C43" s="1" t="n">
-        <x:v>5777</x:v>
+        <x:v>5780</x:v>
       </x:c>
       <x:c r="D43" s="1" t="n">
         <x:v>3720</x:v>
@@ -1750,10 +1750,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="H43" s="1" t="n">
-        <x:v>1058</x:v>
+        <x:v>1060</x:v>
       </x:c>
       <x:c r="I43" s="1" t="n">
-        <x:v>11334</x:v>
+        <x:v>11339</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:9">
@@ -1793,7 +1793,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>6343</x:v>
+        <x:v>6346</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
         <x:v>4149</x:v>
@@ -1808,10 +1808,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="H45" s="1" t="n">
-        <x:v>1173</x:v>
+        <x:v>1175</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>12515</x:v>
+        <x:v>12520</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -2228,7 +2228,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C60" s="1" t="n">
-        <x:v>400</x:v>
+        <x:v>401</x:v>
       </x:c>
       <x:c r="D60" s="1" t="n">
         <x:v>350</x:v>
@@ -2246,7 +2246,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="I60" s="1" t="n">
-        <x:v>943</x:v>
+        <x:v>944</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">
@@ -2286,7 +2286,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C62" s="1" t="n">
-        <x:v>416</x:v>
+        <x:v>417</x:v>
       </x:c>
       <x:c r="D62" s="1" t="n">
         <x:v>462</x:v>
@@ -2304,7 +2304,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I62" s="1" t="n">
-        <x:v>1103</x:v>
+        <x:v>1104</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -546,10 +546,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>2</x:v>
@@ -564,7 +564,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>80</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -604,10 +604,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>2</x:v>
@@ -622,7 +622,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>83</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -720,13 +720,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>5822</x:v>
+        <x:v>5836</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>3514</x:v>
+        <x:v>3530</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>277</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
         <x:v>529</x:v>
@@ -735,10 +735,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>1142</x:v>
+        <x:v>1146</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>11308</x:v>
+        <x:v>11343</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -749,7 +749,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>648</x:v>
+        <x:v>650</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
         <x:v>579</x:v>
@@ -764,10 +764,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
-        <x:v>200</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>1570</x:v>
+        <x:v>1573</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -778,13 +778,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>6470</x:v>
+        <x:v>6486</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>4093</x:v>
+        <x:v>4109</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>304</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
         <x:v>641</x:v>
@@ -793,10 +793,10 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>1342</x:v>
+        <x:v>1347</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>12878</x:v>
+        <x:v>12916</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -865,7 +865,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>584</x:v>
+        <x:v>591</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>430</x:v>
@@ -874,7 +874,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
         <x:v>2</x:v>
@@ -883,7 +883,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>1209</x:v>
+        <x:v>1217</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -894,7 +894,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>52</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
         <x:v>39</x:v>
@@ -912,7 +912,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="I14" s="1" t="n">
-        <x:v>126</x:v>
+        <x:v>128</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
@@ -923,7 +923,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>636</x:v>
+        <x:v>645</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>469</x:v>
@@ -932,7 +932,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
         <x:v>2</x:v>
@@ -941,7 +941,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>1335</x:v>
+        <x:v>1345</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -952,7 +952,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>229</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
         <x:v>112</x:v>
@@ -967,10 +967,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H16" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>411</x:v>
+        <x:v>414</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -1010,7 +1010,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C18" s="1" t="n">
-        <x:v>230</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
         <x:v>120</x:v>
@@ -1025,10 +1025,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H18" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="I18" s="1" t="n">
-        <x:v>421</x:v>
+        <x:v>424</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
@@ -1039,25 +1039,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>646</x:v>
+        <x:v>647</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
-        <x:v>337</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
         <x:v>33</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="G19" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H19" s="1" t="n">
-        <x:v>129</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>1216</x:v>
+        <x:v>1218</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1083,10 +1083,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H20" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>269</x:v>
+        <x:v>270</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1097,25 +1097,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>789</x:v>
+        <x:v>790</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
-        <x:v>412</x:v>
+        <x:v>411</x:v>
       </x:c>
       <x:c r="E21" s="1" t="n">
         <x:v>35</x:v>
       </x:c>
       <x:c r="F21" s="1" t="n">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="G21" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H21" s="1" t="n">
-        <x:v>162</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>1485</x:v>
+        <x:v>1488</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1126,25 +1126,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>3079</x:v>
+        <x:v>3090</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>1523</x:v>
+        <x:v>1527</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
-        <x:v>422</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
         <x:v>17</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
-        <x:v>706</x:v>
+        <x:v>710</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>5865</x:v>
+        <x:v>5887</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1184,25 +1184,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>3162</x:v>
+        <x:v>3173</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>1545</x:v>
+        <x:v>1549</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="F24" s="1" t="n">
-        <x:v>424</x:v>
+        <x:v>426</x:v>
       </x:c>
       <x:c r="G24" s="1" t="n">
         <x:v>17</x:v>
       </x:c>
       <x:c r="H24" s="1" t="n">
-        <x:v>733</x:v>
+        <x:v>737</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>6006</x:v>
+        <x:v>6028</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1358,16 +1358,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C30" s="1" t="n">
-        <x:v>745</x:v>
+        <x:v>747</x:v>
       </x:c>
       <x:c r="D30" s="1" t="n">
-        <x:v>547</x:v>
+        <x:v>554</x:v>
       </x:c>
       <x:c r="E30" s="1" t="n">
         <x:v>50</x:v>
       </x:c>
       <x:c r="F30" s="1" t="n">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="G30" s="1" t="n">
         <x:v>3</x:v>
@@ -1376,7 +1376,7 @@
         <x:v>220</x:v>
       </x:c>
       <x:c r="I30" s="1" t="n">
-        <x:v>1676</x:v>
+        <x:v>1686</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:9">
@@ -1416,16 +1416,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C32" s="1" t="n">
-        <x:v>769</x:v>
+        <x:v>771</x:v>
       </x:c>
       <x:c r="D32" s="1" t="n">
-        <x:v>573</x:v>
+        <x:v>580</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
         <x:v>50</x:v>
       </x:c>
       <x:c r="F32" s="1" t="n">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="G32" s="1" t="n">
         <x:v>3</x:v>
@@ -1434,7 +1434,7 @@
         <x:v>232</x:v>
       </x:c>
       <x:c r="I32" s="1" t="n">
-        <x:v>1744</x:v>
+        <x:v>1754</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:9">
@@ -1680,7 +1680,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="D41" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E41" s="1" t="n">
         <x:v>6</x:v>
@@ -1695,7 +1695,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="I41" s="1" t="n">
-        <x:v>90</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9">
@@ -1709,7 +1709,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="D42" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E42" s="1" t="n">
         <x:v>6</x:v>
@@ -1724,7 +1724,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="I42" s="1" t="n">
-        <x:v>90</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:9">
@@ -1735,25 +1735,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C43" s="1" t="n">
-        <x:v>5780</x:v>
+        <x:v>5812</x:v>
       </x:c>
       <x:c r="D43" s="1" t="n">
-        <x:v>3720</x:v>
+        <x:v>3729</x:v>
       </x:c>
       <x:c r="E43" s="1" t="n">
-        <x:v>236</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="F43" s="1" t="n">
-        <x:v>526</x:v>
+        <x:v>541</x:v>
       </x:c>
       <x:c r="G43" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H43" s="1" t="n">
-        <x:v>1060</x:v>
+        <x:v>1082</x:v>
       </x:c>
       <x:c r="I43" s="1" t="n">
-        <x:v>11339</x:v>
+        <x:v>11417</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:9">
@@ -1767,13 +1767,13 @@
         <x:v>566</x:v>
       </x:c>
       <x:c r="D44" s="1" t="n">
-        <x:v>429</x:v>
+        <x:v>431</x:v>
       </x:c>
       <x:c r="E44" s="1" t="n">
         <x:v>29</x:v>
       </x:c>
       <x:c r="F44" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="G44" s="1" t="n">
         <x:v>1</x:v>
@@ -1782,7 +1782,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="I44" s="1" t="n">
-        <x:v>1181</x:v>
+        <x:v>1184</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:9">
@@ -1793,25 +1793,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>6346</x:v>
+        <x:v>6378</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
-        <x:v>4149</x:v>
+        <x:v>4160</x:v>
       </x:c>
       <x:c r="E45" s="1" t="n">
-        <x:v>265</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="F45" s="1" t="n">
-        <x:v>567</x:v>
+        <x:v>583</x:v>
       </x:c>
       <x:c r="G45" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H45" s="1" t="n">
-        <x:v>1175</x:v>
+        <x:v>1197</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>12520</x:v>
+        <x:v>12601</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1825,7 +1825,7 @@
         <x:v>203</x:v>
       </x:c>
       <x:c r="D46" s="1" t="n">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="E46" s="1" t="n">
         <x:v>17</x:v>
@@ -1837,10 +1837,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H46" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="I46" s="1" t="n">
-        <x:v>427</x:v>
+        <x:v>431</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
@@ -1883,7 +1883,7 @@
         <x:v>227</x:v>
       </x:c>
       <x:c r="D48" s="1" t="n">
-        <x:v>218</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="E48" s="1" t="n">
         <x:v>23</x:v>
@@ -1895,10 +1895,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="H48" s="1" t="n">
-        <x:v>47</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="I48" s="1" t="n">
-        <x:v>564</x:v>
+        <x:v>568</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:9">
@@ -1912,7 +1912,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="D49" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E49" s="1" t="n">
         <x:v>1</x:v>
@@ -1924,10 +1924,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H49" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="I49" s="1" t="n">
-        <x:v>109</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:9">
@@ -1970,7 +1970,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="D51" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E51" s="1" t="n">
         <x:v>1</x:v>
@@ -1982,10 +1982,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H51" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I51" s="1" t="n">
-        <x:v>132</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:9">
@@ -2086,7 +2086,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="D55" s="1" t="n">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="E55" s="1" t="n">
         <x:v>12</x:v>
@@ -2101,7 +2101,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="I55" s="1" t="n">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:9">
@@ -2115,7 +2115,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="D56" s="1" t="n">
-        <x:v>378</x:v>
+        <x:v>379</x:v>
       </x:c>
       <x:c r="E56" s="1" t="n">
         <x:v>16</x:v>
@@ -2130,7 +2130,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="I56" s="1" t="n">
-        <x:v>536</x:v>
+        <x:v>537</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:9">
@@ -2141,7 +2141,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C57" s="1" t="n">
-        <x:v>334</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="D57" s="1" t="n">
         <x:v>168</x:v>
@@ -2156,10 +2156,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H57" s="1" t="n">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="I57" s="1" t="n">
-        <x:v>622</x:v>
+        <x:v>627</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:9">
@@ -2170,7 +2170,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C58" s="1" t="n">
-        <x:v>51</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D58" s="1" t="n">
         <x:v>17</x:v>
@@ -2185,10 +2185,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H58" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I58" s="1" t="n">
-        <x:v>99</x:v>
+        <x:v>103</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">
@@ -2199,7 +2199,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C59" s="1" t="n">
-        <x:v>385</x:v>
+        <x:v>391</x:v>
       </x:c>
       <x:c r="D59" s="1" t="n">
         <x:v>185</x:v>
@@ -2214,10 +2214,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H59" s="1" t="n">
-        <x:v>112</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="I59" s="1" t="n">
-        <x:v>721</x:v>
+        <x:v>730</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9">
@@ -2228,7 +2228,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C60" s="1" t="n">
-        <x:v>401</x:v>
+        <x:v>402</x:v>
       </x:c>
       <x:c r="D60" s="1" t="n">
         <x:v>350</x:v>
@@ -2243,7 +2243,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="H60" s="1" t="n">
-        <x:v>105</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="I60" s="1" t="n">
         <x:v>944</x:v>
@@ -2286,7 +2286,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C62" s="1" t="n">
-        <x:v>417</x:v>
+        <x:v>418</x:v>
       </x:c>
       <x:c r="D62" s="1" t="n">
         <x:v>462</x:v>
@@ -2301,7 +2301,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="H62" s="1" t="n">
-        <x:v>122</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="I62" s="1" t="n">
         <x:v>1104</x:v>
@@ -2318,7 +2318,7 @@
         <x:v>518</x:v>
       </x:c>
       <x:c r="D63" s="1" t="n">
-        <x:v>705</x:v>
+        <x:v>707</x:v>
       </x:c>
       <x:c r="E63" s="1" t="n">
         <x:v>42</x:v>
@@ -2333,7 +2333,7 @@
         <x:v>177</x:v>
       </x:c>
       <x:c r="I63" s="1" t="n">
-        <x:v>1499</x:v>
+        <x:v>1501</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:9">
@@ -2347,7 +2347,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="D64" s="1" t="n">
-        <x:v>140</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="E64" s="1" t="n">
         <x:v>8</x:v>
@@ -2362,7 +2362,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="I64" s="1" t="n">
-        <x:v>227</x:v>
+        <x:v>229</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:9">
@@ -2376,7 +2376,7 @@
         <x:v>569</x:v>
       </x:c>
       <x:c r="D65" s="1" t="n">
-        <x:v>845</x:v>
+        <x:v>849</x:v>
       </x:c>
       <x:c r="E65" s="1" t="n">
         <x:v>50</x:v>
@@ -2391,7 +2391,7 @@
         <x:v>197</x:v>
       </x:c>
       <x:c r="I65" s="1" t="n">
-        <x:v>1726</x:v>
+        <x:v>1730</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -720,13 +720,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>5836</x:v>
+        <x:v>5837</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
         <x:v>3530</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>278</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
         <x:v>529</x:v>
@@ -738,7 +738,7 @@
         <x:v>1146</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>11343</x:v>
+        <x:v>11345</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -749,7 +749,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>650</x:v>
+        <x:v>652</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
         <x:v>579</x:v>
@@ -767,7 +767,7 @@
         <x:v>201</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>1573</x:v>
+        <x:v>1575</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -778,13 +778,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>6486</x:v>
+        <x:v>6489</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
         <x:v>4109</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>305</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
         <x:v>641</x:v>
@@ -796,7 +796,7 @@
         <x:v>1347</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>12916</x:v>
+        <x:v>12920</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -865,7 +865,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>591</x:v>
+        <x:v>592</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>430</x:v>
@@ -883,7 +883,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>1217</x:v>
+        <x:v>1218</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -923,7 +923,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>645</x:v>
+        <x:v>646</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>469</x:v>
@@ -941,7 +941,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>1345</x:v>
+        <x:v>1346</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -955,7 +955,7 @@
         <x:v>231</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
         <x:v>16</x:v>
@@ -970,7 +970,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>414</x:v>
+        <x:v>415</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -1013,7 +1013,7 @@
         <x:v>232</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="E18" s="1" t="n">
         <x:v>16</x:v>
@@ -1028,7 +1028,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="I18" s="1" t="n">
-        <x:v>424</x:v>
+        <x:v>425</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
@@ -1054,10 +1054,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H19" s="1" t="n">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>1218</x:v>
+        <x:v>1219</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1112,10 +1112,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H21" s="1" t="n">
-        <x:v>164</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>1488</x:v>
+        <x:v>1489</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1126,10 +1126,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>3090</x:v>
+        <x:v>3091</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>1527</x:v>
+        <x:v>1526</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>119</x:v>
@@ -1141,10 +1141,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
-        <x:v>710</x:v>
+        <x:v>709</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>5887</x:v>
+        <x:v>5886</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1184,10 +1184,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>3173</x:v>
+        <x:v>3174</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>1549</x:v>
+        <x:v>1548</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>126</x:v>
@@ -1199,10 +1199,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="H24" s="1" t="n">
-        <x:v>737</x:v>
+        <x:v>736</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>6028</x:v>
+        <x:v>6027</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1358,7 +1358,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C30" s="1" t="n">
-        <x:v>747</x:v>
+        <x:v>749</x:v>
       </x:c>
       <x:c r="D30" s="1" t="n">
         <x:v>554</x:v>
@@ -1376,7 +1376,7 @@
         <x:v>220</x:v>
       </x:c>
       <x:c r="I30" s="1" t="n">
-        <x:v>1686</x:v>
+        <x:v>1688</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:9">
@@ -1416,7 +1416,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C32" s="1" t="n">
-        <x:v>771</x:v>
+        <x:v>773</x:v>
       </x:c>
       <x:c r="D32" s="1" t="n">
         <x:v>580</x:v>
@@ -1434,7 +1434,7 @@
         <x:v>232</x:v>
       </x:c>
       <x:c r="I32" s="1" t="n">
-        <x:v>1754</x:v>
+        <x:v>1756</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:9">
@@ -1735,7 +1735,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C43" s="1" t="n">
-        <x:v>5812</x:v>
+        <x:v>5816</x:v>
       </x:c>
       <x:c r="D43" s="1" t="n">
         <x:v>3729</x:v>
@@ -1750,10 +1750,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="H43" s="1" t="n">
-        <x:v>1082</x:v>
+        <x:v>1084</x:v>
       </x:c>
       <x:c r="I43" s="1" t="n">
-        <x:v>11417</x:v>
+        <x:v>11423</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:9">
@@ -1764,7 +1764,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C44" s="1" t="n">
-        <x:v>566</x:v>
+        <x:v>565</x:v>
       </x:c>
       <x:c r="D44" s="1" t="n">
         <x:v>431</x:v>
@@ -1782,7 +1782,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="I44" s="1" t="n">
-        <x:v>1184</x:v>
+        <x:v>1183</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:9">
@@ -1793,7 +1793,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>6378</x:v>
+        <x:v>6381</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
         <x:v>4160</x:v>
@@ -1808,10 +1808,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H45" s="1" t="n">
-        <x:v>1197</x:v>
+        <x:v>1199</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>12601</x:v>
+        <x:v>12606</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -2228,7 +2228,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C60" s="1" t="n">
-        <x:v>402</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="D60" s="1" t="n">
         <x:v>350</x:v>
@@ -2246,7 +2246,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="I60" s="1" t="n">
-        <x:v>944</x:v>
+        <x:v>946</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">
@@ -2286,7 +2286,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C62" s="1" t="n">
-        <x:v>418</x:v>
+        <x:v>420</x:v>
       </x:c>
       <x:c r="D62" s="1" t="n">
         <x:v>462</x:v>
@@ -2304,7 +2304,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="I62" s="1" t="n">
-        <x:v>1104</x:v>
+        <x:v>1106</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:9">
@@ -2318,7 +2318,7 @@
         <x:v>518</x:v>
       </x:c>
       <x:c r="D63" s="1" t="n">
-        <x:v>707</x:v>
+        <x:v>708</x:v>
       </x:c>
       <x:c r="E63" s="1" t="n">
         <x:v>42</x:v>
@@ -2333,7 +2333,7 @@
         <x:v>177</x:v>
       </x:c>
       <x:c r="I63" s="1" t="n">
-        <x:v>1501</x:v>
+        <x:v>1502</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:9">
@@ -2376,7 +2376,7 @@
         <x:v>569</x:v>
       </x:c>
       <x:c r="D65" s="1" t="n">
-        <x:v>849</x:v>
+        <x:v>850</x:v>
       </x:c>
       <x:c r="E65" s="1" t="n">
         <x:v>50</x:v>
@@ -2391,7 +2391,7 @@
         <x:v>197</x:v>
       </x:c>
       <x:c r="I65" s="1" t="n">
-        <x:v>1730</x:v>
+        <x:v>1731</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -720,13 +720,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>5837</x:v>
+        <x:v>5838</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
         <x:v>3530</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>279</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
         <x:v>529</x:v>
@@ -738,7 +738,7 @@
         <x:v>1146</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>11345</x:v>
+        <x:v>11347</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -764,10 +764,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
-        <x:v>201</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>1575</x:v>
+        <x:v>1576</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -778,13 +778,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>6489</x:v>
+        <x:v>6490</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
         <x:v>4109</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>306</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
         <x:v>641</x:v>
@@ -793,10 +793,10 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>1347</x:v>
+        <x:v>1348</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>12920</x:v>
+        <x:v>12923</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -865,7 +865,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>592</x:v>
+        <x:v>593</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>430</x:v>
@@ -883,7 +883,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>1218</x:v>
+        <x:v>1219</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -923,7 +923,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>646</x:v>
+        <x:v>647</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>469</x:v>
@@ -941,7 +941,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>1346</x:v>
+        <x:v>1347</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -952,7 +952,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>231</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
         <x:v>113</x:v>
@@ -970,7 +970,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>415</x:v>
+        <x:v>416</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -1010,7 +1010,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C18" s="1" t="n">
-        <x:v>232</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
         <x:v>121</x:v>
@@ -1028,7 +1028,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="I18" s="1" t="n">
-        <x:v>425</x:v>
+        <x:v>426</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
@@ -1126,7 +1126,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>3091</x:v>
+        <x:v>3093</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
         <x:v>1526</x:v>
@@ -1135,7 +1135,7 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
-        <x:v>424</x:v>
+        <x:v>425</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
         <x:v>17</x:v>
@@ -1144,7 +1144,7 @@
         <x:v>709</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>5886</x:v>
+        <x:v>5889</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1184,7 +1184,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>3174</x:v>
+        <x:v>3176</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
         <x:v>1548</x:v>
@@ -1193,7 +1193,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="F24" s="1" t="n">
-        <x:v>426</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="G24" s="1" t="n">
         <x:v>17</x:v>
@@ -1202,7 +1202,7 @@
         <x:v>736</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>6027</x:v>
+        <x:v>6030</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1358,7 +1358,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C30" s="1" t="n">
-        <x:v>749</x:v>
+        <x:v>751</x:v>
       </x:c>
       <x:c r="D30" s="1" t="n">
         <x:v>554</x:v>
@@ -1376,7 +1376,7 @@
         <x:v>220</x:v>
       </x:c>
       <x:c r="I30" s="1" t="n">
-        <x:v>1688</x:v>
+        <x:v>1690</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:9">
@@ -1416,7 +1416,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C32" s="1" t="n">
-        <x:v>773</x:v>
+        <x:v>775</x:v>
       </x:c>
       <x:c r="D32" s="1" t="n">
         <x:v>580</x:v>
@@ -1434,7 +1434,7 @@
         <x:v>232</x:v>
       </x:c>
       <x:c r="I32" s="1" t="n">
-        <x:v>1756</x:v>
+        <x:v>1758</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:9">
@@ -1735,7 +1735,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C43" s="1" t="n">
-        <x:v>5816</x:v>
+        <x:v>5821</x:v>
       </x:c>
       <x:c r="D43" s="1" t="n">
         <x:v>3729</x:v>
@@ -1744,16 +1744,16 @@
         <x:v>235</x:v>
       </x:c>
       <x:c r="F43" s="1" t="n">
-        <x:v>541</x:v>
+        <x:v>558</x:v>
       </x:c>
       <x:c r="G43" s="1" t="n">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H43" s="1" t="n">
-        <x:v>1084</x:v>
+        <x:v>1095</x:v>
       </x:c>
       <x:c r="I43" s="1" t="n">
-        <x:v>11423</x:v>
+        <x:v>11456</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:9">
@@ -1793,7 +1793,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>6381</x:v>
+        <x:v>6386</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
         <x:v>4160</x:v>
@@ -1802,16 +1802,16 @@
         <x:v>264</x:v>
       </x:c>
       <x:c r="F45" s="1" t="n">
-        <x:v>583</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="G45" s="1" t="n">
         <x:v>19</x:v>
       </x:c>
       <x:c r="H45" s="1" t="n">
-        <x:v>1199</x:v>
+        <x:v>1210</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>12606</x:v>
+        <x:v>12639</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -2141,10 +2141,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C57" s="1" t="n">
-        <x:v>338</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="D57" s="1" t="n">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="E57" s="1" t="n">
         <x:v>20</x:v>
@@ -2159,7 +2159,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="I57" s="1" t="n">
-        <x:v>627</x:v>
+        <x:v>629</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:9">
@@ -2199,10 +2199,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C59" s="1" t="n">
-        <x:v>391</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="D59" s="1" t="n">
-        <x:v>185</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="E59" s="1" t="n">
         <x:v>22</x:v>
@@ -2217,7 +2217,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="I59" s="1" t="n">
-        <x:v>730</x:v>
+        <x:v>732</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9">

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -546,7 +546,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>47</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
         <x:v>18</x:v>
@@ -564,7 +564,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>82</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -604,7 +604,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>49</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
         <x:v>19</x:v>
@@ -622,7 +622,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>85</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -633,13 +633,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>52</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E5" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F5" s="1" t="n">
         <x:v>5</x:v>
@@ -651,7 +651,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="I5" s="1" t="n">
-        <x:v>89</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:9">
@@ -662,7 +662,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
         <x:v>1</x:v>
@@ -680,7 +680,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I6" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:9">
@@ -691,13 +691,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>59</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
         <x:v>5</x:v>
@@ -709,7 +709,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="I7" s="1" t="n">
-        <x:v>98</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9">
@@ -720,25 +720,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>5838</x:v>
+        <x:v>6448</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>3530</x:v>
+        <x:v>3928</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>280</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>529</x:v>
+        <x:v>583</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
         <x:v>24</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>1146</x:v>
+        <x:v>1258</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>11347</x:v>
+        <x:v>12553</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -749,25 +749,25 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>652</x:v>
+        <x:v>742</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>579</x:v>
+        <x:v>647</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>112</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
-        <x:v>202</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>1576</x:v>
+        <x:v>1775</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -778,25 +778,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>6490</x:v>
+        <x:v>7190</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>4109</x:v>
+        <x:v>4575</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>307</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>641</x:v>
+        <x:v>709</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>28</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>1348</x:v>
+        <x:v>1485</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>12923</x:v>
+        <x:v>14328</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -865,25 +865,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>593</x:v>
+        <x:v>653</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>430</x:v>
+        <x:v>475</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>69</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
-        <x:v>90</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>1219</x:v>
+        <x:v>1350</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -894,10 +894,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>54</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
         <x:v>3</x:v>
@@ -909,10 +909,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H14" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I14" s="1" t="n">
-        <x:v>128</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
@@ -923,25 +923,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>647</x:v>
+        <x:v>710</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>469</x:v>
+        <x:v>516</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>92</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
-        <x:v>99</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>1347</x:v>
+        <x:v>1484</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -952,25 +952,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>232</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>113</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G16" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H16" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>416</x:v>
+        <x:v>449</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -981,7 +981,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C17" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
         <x:v>8</x:v>
@@ -999,7 +999,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -1010,25 +1010,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C18" s="1" t="n">
-        <x:v>233</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
-        <x:v>121</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="E18" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F18" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G18" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H18" s="1" t="n">
-        <x:v>40</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="I18" s="1" t="n">
-        <x:v>426</x:v>
+        <x:v>461</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
@@ -1039,25 +1039,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>647</x:v>
+        <x:v>722</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
-        <x:v>336</x:v>
+        <x:v>385</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
-        <x:v>71</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="G19" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H19" s="1" t="n">
-        <x:v>131</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>1219</x:v>
+        <x:v>1370</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1068,10 +1068,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>143</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>75</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
         <x:v>2</x:v>
@@ -1086,7 +1086,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>270</x:v>
+        <x:v>309</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1097,25 +1097,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>790</x:v>
+        <x:v>897</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
-        <x:v>411</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="E21" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F21" s="1" t="n">
-        <x:v>87</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="G21" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H21" s="1" t="n">
-        <x:v>165</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>1489</x:v>
+        <x:v>1679</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1126,25 +1126,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>3093</x:v>
+        <x:v>3399</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>1526</x:v>
+        <x:v>1696</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
-        <x:v>119</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
-        <x:v>425</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
         <x:v>17</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
-        <x:v>709</x:v>
+        <x:v>775</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>5889</x:v>
+        <x:v>6483</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1155,10 +1155,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C23" s="1" t="n">
-        <x:v>83</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
         <x:v>7</x:v>
@@ -1170,10 +1170,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H23" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>141</x:v>
+        <x:v>154</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1184,25 +1184,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>3176</x:v>
+        <x:v>3488</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>1548</x:v>
+        <x:v>1724</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
-        <x:v>126</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="F24" s="1" t="n">
-        <x:v>427</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="G24" s="1" t="n">
         <x:v>17</x:v>
       </x:c>
       <x:c r="H24" s="1" t="n">
-        <x:v>736</x:v>
+        <x:v>803</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>6030</x:v>
+        <x:v>6637</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1213,7 +1213,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C25" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
         <x:v>12</x:v>
@@ -1228,10 +1228,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H25" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I25" s="1" t="n">
-        <x:v>51</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
@@ -1271,7 +1271,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C27" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D27" s="1" t="n">
         <x:v>17</x:v>
@@ -1286,10 +1286,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H27" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I27" s="1" t="n">
-        <x:v>63</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:9">
@@ -1315,10 +1315,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H28" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I28" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:9">
@@ -1344,10 +1344,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H29" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I29" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:9">
@@ -1358,25 +1358,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C30" s="1" t="n">
-        <x:v>751</x:v>
+        <x:v>813</x:v>
       </x:c>
       <x:c r="D30" s="1" t="n">
-        <x:v>554</x:v>
+        <x:v>617</x:v>
       </x:c>
       <x:c r="E30" s="1" t="n">
-        <x:v>50</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="F30" s="1" t="n">
-        <x:v>112</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="G30" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H30" s="1" t="n">
-        <x:v>220</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="I30" s="1" t="n">
-        <x:v>1690</x:v>
+        <x:v>1849</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:9">
@@ -1390,7 +1390,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
         <x:v>0</x:v>
@@ -1405,7 +1405,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="I31" s="1" t="n">
-        <x:v>68</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
@@ -1416,25 +1416,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C32" s="1" t="n">
-        <x:v>775</x:v>
+        <x:v>837</x:v>
       </x:c>
       <x:c r="D32" s="1" t="n">
-        <x:v>580</x:v>
+        <x:v>645</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
-        <x:v>50</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="F32" s="1" t="n">
-        <x:v>118</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="G32" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H32" s="1" t="n">
-        <x:v>232</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="I32" s="1" t="n">
-        <x:v>1758</x:v>
+        <x:v>1919</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:9">
@@ -1532,10 +1532,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C36" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D36" s="1" t="n">
-        <x:v>62</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E36" s="1" t="n">
         <x:v>3</x:v>
@@ -1547,10 +1547,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H36" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="I36" s="1" t="n">
-        <x:v>111</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:9">
@@ -1576,10 +1576,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H37" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I37" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:9">
@@ -1590,10 +1590,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C38" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D38" s="1" t="n">
-        <x:v>69</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E38" s="1" t="n">
         <x:v>4</x:v>
@@ -1605,10 +1605,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H38" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I38" s="1" t="n">
-        <x:v>125</x:v>
+        <x:v>135</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:9">
@@ -1619,10 +1619,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C39" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D39" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E39" s="1" t="n">
         <x:v>3</x:v>
@@ -1637,7 +1637,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="I39" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:9">
@@ -1648,10 +1648,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C40" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D40" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E40" s="1" t="n">
         <x:v>3</x:v>
@@ -1666,7 +1666,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="I40" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:9">
@@ -1677,10 +1677,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C41" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D41" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E41" s="1" t="n">
         <x:v>6</x:v>
@@ -1695,7 +1695,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="I41" s="1" t="n">
-        <x:v>89</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9">
@@ -1706,10 +1706,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C42" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D42" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E42" s="1" t="n">
         <x:v>6</x:v>
@@ -1724,7 +1724,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="I42" s="1" t="n">
-        <x:v>89</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:9">
@@ -1735,25 +1735,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C43" s="1" t="n">
-        <x:v>5821</x:v>
+        <x:v>6400</x:v>
       </x:c>
       <x:c r="D43" s="1" t="n">
-        <x:v>3729</x:v>
+        <x:v>4090</x:v>
       </x:c>
       <x:c r="E43" s="1" t="n">
-        <x:v>235</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="F43" s="1" t="n">
-        <x:v>558</x:v>
+        <x:v>654</x:v>
       </x:c>
       <x:c r="G43" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H43" s="1" t="n">
-        <x:v>1095</x:v>
+        <x:v>1236</x:v>
       </x:c>
       <x:c r="I43" s="1" t="n">
-        <x:v>11456</x:v>
+        <x:v>12650</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:9">
@@ -1764,25 +1764,25 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C44" s="1" t="n">
-        <x:v>565</x:v>
+        <x:v>612</x:v>
       </x:c>
       <x:c r="D44" s="1" t="n">
-        <x:v>431</x:v>
+        <x:v>504</x:v>
       </x:c>
       <x:c r="E44" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F44" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G44" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H44" s="1" t="n">
-        <x:v>115</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="I44" s="1" t="n">
-        <x:v>1183</x:v>
+        <x:v>1325</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:9">
@@ -1793,25 +1793,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>6386</x:v>
+        <x:v>7012</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
-        <x:v>4160</x:v>
+        <x:v>4594</x:v>
       </x:c>
       <x:c r="E45" s="1" t="n">
-        <x:v>264</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="F45" s="1" t="n">
-        <x:v>600</x:v>
+        <x:v>697</x:v>
       </x:c>
       <x:c r="G45" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="H45" s="1" t="n">
-        <x:v>1210</x:v>
+        <x:v>1368</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>12639</x:v>
+        <x:v>13975</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1822,25 +1822,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C46" s="1" t="n">
-        <x:v>203</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="D46" s="1" t="n">
-        <x:v>129</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="E46" s="1" t="n">
         <x:v>17</x:v>
       </x:c>
       <x:c r="F46" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="G46" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H46" s="1" t="n">
-        <x:v>44</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="I46" s="1" t="n">
-        <x:v>431</x:v>
+        <x:v>470</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
@@ -1851,25 +1851,25 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
-        <x:v>90</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="E47" s="1" t="n">
         <x:v>6</x:v>
       </x:c>
       <x:c r="F47" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G47" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H47" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>137</x:v>
+        <x:v>152</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -1880,25 +1880,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C48" s="1" t="n">
-        <x:v>227</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="D48" s="1" t="n">
-        <x:v>219</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="E48" s="1" t="n">
         <x:v>23</x:v>
       </x:c>
       <x:c r="F48" s="1" t="n">
-        <x:v>46</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G48" s="1" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="H48" s="1" t="n">
-        <x:v>50</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="I48" s="1" t="n">
-        <x:v>568</x:v>
+        <x:v>622</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:9">
@@ -1909,10 +1909,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C49" s="1" t="n">
-        <x:v>81</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="D49" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E49" s="1" t="n">
         <x:v>1</x:v>
@@ -1924,10 +1924,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H49" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I49" s="1" t="n">
-        <x:v>111</x:v>
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:9">
@@ -1938,7 +1938,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C50" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D50" s="1" t="n">
         <x:v>3</x:v>
@@ -1956,7 +1956,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="I50" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:9">
@@ -1967,10 +1967,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C51" s="1" t="n">
-        <x:v>97</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D51" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E51" s="1" t="n">
         <x:v>1</x:v>
@@ -1982,10 +1982,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H51" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="I51" s="1" t="n">
-        <x:v>134</x:v>
+        <x:v>149</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:9">
@@ -2054,25 +2054,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C54" s="1" t="n">
-        <x:v>75</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D54" s="1" t="n">
-        <x:v>265</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="E54" s="1" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="F54" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G54" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H54" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="I54" s="1" t="n">
-        <x:v>382</x:v>
+        <x:v>428</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:9">
@@ -2083,10 +2083,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C55" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D55" s="1" t="n">
-        <x:v>114</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="E55" s="1" t="n">
         <x:v>12</x:v>
@@ -2098,10 +2098,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H55" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I55" s="1" t="n">
-        <x:v>155</x:v>
+        <x:v>170</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:9">
@@ -2112,25 +2112,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C56" s="1" t="n">
-        <x:v>90</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="D56" s="1" t="n">
-        <x:v>379</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="E56" s="1" t="n">
         <x:v>16</x:v>
       </x:c>
       <x:c r="F56" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G56" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H56" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I56" s="1" t="n">
-        <x:v>537</x:v>
+        <x:v>598</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:9">
@@ -2141,25 +2141,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C57" s="1" t="n">
-        <x:v>339</x:v>
+        <x:v>373</x:v>
       </x:c>
       <x:c r="D57" s="1" t="n">
-        <x:v>169</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="E57" s="1" t="n">
         <x:v>20</x:v>
       </x:c>
       <x:c r="F57" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G57" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H57" s="1" t="n">
-        <x:v>85</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="I57" s="1" t="n">
-        <x:v>629</x:v>
+        <x:v>684</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:9">
@@ -2170,10 +2170,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C58" s="1" t="n">
-        <x:v>53</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D58" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E58" s="1" t="n">
         <x:v>2</x:v>
@@ -2185,10 +2185,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H58" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I58" s="1" t="n">
-        <x:v>103</x:v>
+        <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">
@@ -2199,25 +2199,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C59" s="1" t="n">
-        <x:v>392</x:v>
+        <x:v>429</x:v>
       </x:c>
       <x:c r="D59" s="1" t="n">
-        <x:v>186</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="E59" s="1" t="n">
         <x:v>22</x:v>
       </x:c>
       <x:c r="F59" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G59" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H59" s="1" t="n">
-        <x:v>115</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="I59" s="1" t="n">
-        <x:v>732</x:v>
+        <x:v>797</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9">
@@ -2228,25 +2228,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C60" s="1" t="n">
-        <x:v>404</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="D60" s="1" t="n">
-        <x:v>350</x:v>
+        <x:v>399</x:v>
       </x:c>
       <x:c r="E60" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F60" s="1" t="n">
-        <x:v>56</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="G60" s="1" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="H60" s="1" t="n">
-        <x:v>104</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="I60" s="1" t="n">
-        <x:v>946</x:v>
+        <x:v>1068</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">
@@ -2260,10 +2260,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D61" s="1" t="n">
-        <x:v>112</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="E61" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F61" s="1" t="n">
         <x:v>10</x:v>
@@ -2275,7 +2275,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="I61" s="1" t="n">
-        <x:v>160</x:v>
+        <x:v>173</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
@@ -2286,25 +2286,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C62" s="1" t="n">
-        <x:v>420</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="D62" s="1" t="n">
-        <x:v>462</x:v>
+        <x:v>520</x:v>
       </x:c>
       <x:c r="E62" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F62" s="1" t="n">
-        <x:v>66</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G62" s="1" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="H62" s="1" t="n">
-        <x:v>121</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="I62" s="1" t="n">
-        <x:v>1106</x:v>
+        <x:v>1241</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:9">
@@ -2315,25 +2315,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C63" s="1" t="n">
-        <x:v>518</x:v>
+        <x:v>582</x:v>
       </x:c>
       <x:c r="D63" s="1" t="n">
-        <x:v>708</x:v>
+        <x:v>798</x:v>
       </x:c>
       <x:c r="E63" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F63" s="1" t="n">
-        <x:v>56</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="G63" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H63" s="1" t="n">
-        <x:v>177</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="I63" s="1" t="n">
-        <x:v>1502</x:v>
+        <x:v>1720</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:9">
@@ -2344,10 +2344,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C64" s="1" t="n">
-        <x:v>51</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D64" s="1" t="n">
-        <x:v>142</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="E64" s="1" t="n">
         <x:v>8</x:v>
@@ -2359,10 +2359,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H64" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I64" s="1" t="n">
-        <x:v>229</x:v>
+        <x:v>251</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:9">
@@ -2373,25 +2373,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C65" s="1" t="n">
-        <x:v>569</x:v>
+        <x:v>637</x:v>
       </x:c>
       <x:c r="D65" s="1" t="n">
-        <x:v>850</x:v>
+        <x:v>954</x:v>
       </x:c>
       <x:c r="E65" s="1" t="n">
-        <x:v>50</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F65" s="1" t="n">
-        <x:v>64</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G65" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H65" s="1" t="n">
-        <x:v>197</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="I65" s="1" t="n">
-        <x:v>1731</x:v>
+        <x:v>1971</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -633,7 +633,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
         <x:v>27</x:v>
@@ -651,7 +651,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="I5" s="1" t="n">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:9">
@@ -691,7 +691,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
         <x:v>28</x:v>
@@ -709,7 +709,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="I7" s="1" t="n">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9">
@@ -720,25 +720,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>6448</x:v>
+        <x:v>6459</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>3928</x:v>
+        <x:v>3931</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>312</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>583</x:v>
+        <x:v>586</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
         <x:v>24</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>1258</x:v>
+        <x:v>1262</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>12553</x:v>
+        <x:v>12575</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -749,10 +749,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>742</x:v>
+        <x:v>744</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>647</x:v>
+        <x:v>649</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
         <x:v>29</x:v>
@@ -764,10 +764,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
-        <x:v>227</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>1775</x:v>
+        <x:v>1780</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -778,25 +778,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>7190</x:v>
+        <x:v>7203</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>4575</x:v>
+        <x:v>4580</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>341</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>709</x:v>
+        <x:v>712</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>28</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>1485</x:v>
+        <x:v>1490</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>14328</x:v>
+        <x:v>14355</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -865,10 +865,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>653</x:v>
+        <x:v>657</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>475</x:v>
+        <x:v>476</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>38</x:v>
@@ -883,7 +883,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>1350</x:v>
+        <x:v>1355</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -923,10 +923,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>710</x:v>
+        <x:v>714</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>516</x:v>
+        <x:v>517</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
         <x:v>41</x:v>
@@ -941,7 +941,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>1484</x:v>
+        <x:v>1489</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -1039,7 +1039,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>722</x:v>
+        <x:v>721</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
         <x:v>385</x:v>
@@ -1057,7 +1057,7 @@
         <x:v>146</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>1370</x:v>
+        <x:v>1369</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1068,10 +1068,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>175</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>82</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
         <x:v>2</x:v>
@@ -1083,10 +1083,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H20" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>309</x:v>
+        <x:v>316</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1097,10 +1097,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>897</x:v>
+        <x:v>899</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
-        <x:v>467</x:v>
+        <x:v>470</x:v>
       </x:c>
       <x:c r="E21" s="1" t="n">
         <x:v>37</x:v>
@@ -1112,10 +1112,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H21" s="1" t="n">
-        <x:v>180</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>1679</x:v>
+        <x:v>1685</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1126,10 +1126,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>3399</x:v>
+        <x:v>3405</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>1696</x:v>
+        <x:v>1697</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>130</x:v>
@@ -1144,7 +1144,7 @@
         <x:v>775</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>6483</x:v>
+        <x:v>6490</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1184,10 +1184,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>3488</x:v>
+        <x:v>3494</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>1724</x:v>
+        <x:v>1725</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>137</x:v>
@@ -1202,7 +1202,7 @@
         <x:v>803</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>6637</x:v>
+        <x:v>6644</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1245,7 +1245,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="D26" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E26" s="1" t="n">
         <x:v>0</x:v>
@@ -1260,7 +1260,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="I26" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:9">
@@ -1274,7 +1274,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="D27" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E27" s="1" t="n">
         <x:v>2</x:v>
@@ -1289,7 +1289,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="I27" s="1" t="n">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:9">
@@ -1361,7 +1361,7 @@
         <x:v>813</x:v>
       </x:c>
       <x:c r="D30" s="1" t="n">
-        <x:v>617</x:v>
+        <x:v>622</x:v>
       </x:c>
       <x:c r="E30" s="1" t="n">
         <x:v>55</x:v>
@@ -1376,7 +1376,7 @@
         <x:v>240</x:v>
       </x:c>
       <x:c r="I30" s="1" t="n">
-        <x:v>1849</x:v>
+        <x:v>1854</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:9">
@@ -1419,7 +1419,7 @@
         <x:v>837</x:v>
       </x:c>
       <x:c r="D32" s="1" t="n">
-        <x:v>645</x:v>
+        <x:v>650</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
         <x:v>55</x:v>
@@ -1434,7 +1434,7 @@
         <x:v>252</x:v>
       </x:c>
       <x:c r="I32" s="1" t="n">
-        <x:v>1919</x:v>
+        <x:v>1924</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:9">
@@ -1547,10 +1547,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H36" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="I36" s="1" t="n">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:9">
@@ -1605,10 +1605,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H38" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I38" s="1" t="n">
-        <x:v>135</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:9">
@@ -1735,25 +1735,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C43" s="1" t="n">
-        <x:v>6400</x:v>
+        <x:v>6416</x:v>
       </x:c>
       <x:c r="D43" s="1" t="n">
-        <x:v>4090</x:v>
+        <x:v>4094</x:v>
       </x:c>
       <x:c r="E43" s="1" t="n">
-        <x:v>250</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="F43" s="1" t="n">
-        <x:v>654</x:v>
+        <x:v>666</x:v>
       </x:c>
       <x:c r="G43" s="1" t="n">
         <x:v>20</x:v>
       </x:c>
       <x:c r="H43" s="1" t="n">
-        <x:v>1236</x:v>
+        <x:v>1242</x:v>
       </x:c>
       <x:c r="I43" s="1" t="n">
-        <x:v>12650</x:v>
+        <x:v>12689</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:9">
@@ -1767,13 +1767,13 @@
         <x:v>612</x:v>
       </x:c>
       <x:c r="D44" s="1" t="n">
-        <x:v>504</x:v>
+        <x:v>508</x:v>
       </x:c>
       <x:c r="E44" s="1" t="n">
         <x:v>33</x:v>
       </x:c>
       <x:c r="F44" s="1" t="n">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="G44" s="1" t="n">
         <x:v>1</x:v>
@@ -1782,7 +1782,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="I44" s="1" t="n">
-        <x:v>1325</x:v>
+        <x:v>1330</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:9">
@@ -1793,25 +1793,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>7012</x:v>
+        <x:v>7028</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
-        <x:v>4594</x:v>
+        <x:v>4602</x:v>
       </x:c>
       <x:c r="E45" s="1" t="n">
-        <x:v>283</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="F45" s="1" t="n">
-        <x:v>697</x:v>
+        <x:v>710</x:v>
       </x:c>
       <x:c r="G45" s="1" t="n">
         <x:v>21</x:v>
       </x:c>
       <x:c r="H45" s="1" t="n">
-        <x:v>1368</x:v>
+        <x:v>1374</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>13975</x:v>
+        <x:v>14019</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1822,7 +1822,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C46" s="1" t="n">
-        <x:v>223</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="D46" s="1" t="n">
         <x:v>142</x:v>
@@ -1840,7 +1840,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="I46" s="1" t="n">
-        <x:v>470</x:v>
+        <x:v>471</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
@@ -1880,7 +1880,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C48" s="1" t="n">
-        <x:v>250</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="D48" s="1" t="n">
         <x:v>239</x:v>
@@ -1898,7 +1898,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="I48" s="1" t="n">
-        <x:v>622</x:v>
+        <x:v>623</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:9">
@@ -2141,16 +2141,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C57" s="1" t="n">
-        <x:v>373</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="D57" s="1" t="n">
-        <x:v>179</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="E57" s="1" t="n">
         <x:v>20</x:v>
       </x:c>
       <x:c r="F57" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G57" s="1" t="n">
         <x:v>2</x:v>
@@ -2159,7 +2159,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="I57" s="1" t="n">
-        <x:v>684</x:v>
+        <x:v>687</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:9">
@@ -2173,7 +2173,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="D58" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E58" s="1" t="n">
         <x:v>2</x:v>
@@ -2188,7 +2188,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="I58" s="1" t="n">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">
@@ -2199,16 +2199,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C59" s="1" t="n">
-        <x:v>429</x:v>
+        <x:v>430</x:v>
       </x:c>
       <x:c r="D59" s="1" t="n">
-        <x:v>201</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="E59" s="1" t="n">
         <x:v>22</x:v>
       </x:c>
       <x:c r="F59" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G59" s="1" t="n">
         <x:v>2</x:v>
@@ -2217,7 +2217,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="I59" s="1" t="n">
-        <x:v>797</x:v>
+        <x:v>801</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9">
@@ -2315,10 +2315,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C63" s="1" t="n">
-        <x:v>582</x:v>
+        <x:v>584</x:v>
       </x:c>
       <x:c r="D63" s="1" t="n">
-        <x:v>798</x:v>
+        <x:v>801</x:v>
       </x:c>
       <x:c r="E63" s="1" t="n">
         <x:v>48</x:v>
@@ -2333,7 +2333,7 @@
         <x:v>229</x:v>
       </x:c>
       <x:c r="I63" s="1" t="n">
-        <x:v>1720</x:v>
+        <x:v>1725</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:9">
@@ -2373,10 +2373,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C65" s="1" t="n">
-        <x:v>637</x:v>
+        <x:v>639</x:v>
       </x:c>
       <x:c r="D65" s="1" t="n">
-        <x:v>954</x:v>
+        <x:v>957</x:v>
       </x:c>
       <x:c r="E65" s="1" t="n">
         <x:v>56</x:v>
@@ -2391,7 +2391,7 @@
         <x:v>253</x:v>
       </x:c>
       <x:c r="I65" s="1" t="n">
-        <x:v>1971</x:v>
+        <x:v>1976</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -561,10 +561,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -619,10 +619,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -720,25 +720,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>6459</x:v>
+        <x:v>6471</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>3931</x:v>
+        <x:v>3947</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>313</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>586</x:v>
+        <x:v>588</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
         <x:v>24</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>1262</x:v>
+        <x:v>1264</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>12575</x:v>
+        <x:v>12607</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -749,10 +749,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>744</x:v>
+        <x:v>748</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>649</x:v>
+        <x:v>651</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
         <x:v>29</x:v>
@@ -767,7 +767,7 @@
         <x:v>228</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>1780</x:v>
+        <x:v>1786</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -778,25 +778,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>7203</x:v>
+        <x:v>7219</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>4580</x:v>
+        <x:v>4598</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>342</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>712</x:v>
+        <x:v>714</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>28</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>1490</x:v>
+        <x:v>1492</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>14355</x:v>
+        <x:v>14393</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -865,10 +865,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>657</x:v>
+        <x:v>659</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>476</x:v>
+        <x:v>478</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
         <x:v>38</x:v>
@@ -883,7 +883,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>1355</x:v>
+        <x:v>1359</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -923,10 +923,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>714</x:v>
+        <x:v>716</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>517</x:v>
+        <x:v>519</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
         <x:v>41</x:v>
@@ -941,7 +941,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>1489</x:v>
+        <x:v>1493</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -952,7 +952,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>249</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
         <x:v>120</x:v>
@@ -970,7 +970,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>449</x:v>
+        <x:v>451</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -1010,7 +1010,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C18" s="1" t="n">
-        <x:v>252</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
         <x:v>128</x:v>
@@ -1028,7 +1028,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="I18" s="1" t="n">
-        <x:v>461</x:v>
+        <x:v>463</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
@@ -1039,10 +1039,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>721</x:v>
+        <x:v>723</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
-        <x:v>385</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
         <x:v>35</x:v>
@@ -1054,10 +1054,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H19" s="1" t="n">
-        <x:v>146</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>1369</x:v>
+        <x:v>1374</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1068,7 +1068,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>178</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
         <x:v>85</x:v>
@@ -1086,7 +1086,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>316</x:v>
+        <x:v>314</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1100,7 +1100,7 @@
         <x:v>899</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
-        <x:v>470</x:v>
+        <x:v>472</x:v>
       </x:c>
       <x:c r="E21" s="1" t="n">
         <x:v>37</x:v>
@@ -1112,10 +1112,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H21" s="1" t="n">
-        <x:v>181</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>1685</x:v>
+        <x:v>1688</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1126,25 +1126,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>3405</x:v>
+        <x:v>3412</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>1697</x:v>
+        <x:v>1701</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>130</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
         <x:v>17</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
-        <x:v>775</x:v>
+        <x:v>776</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>6490</x:v>
+        <x:v>6503</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1184,25 +1184,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>3494</x:v>
+        <x:v>3501</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>1725</x:v>
+        <x:v>1729</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>137</x:v>
       </x:c>
       <x:c r="F24" s="1" t="n">
-        <x:v>468</x:v>
+        <x:v>469</x:v>
       </x:c>
       <x:c r="G24" s="1" t="n">
         <x:v>17</x:v>
       </x:c>
       <x:c r="H24" s="1" t="n">
-        <x:v>803</x:v>
+        <x:v>804</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>6644</x:v>
+        <x:v>6657</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1213,7 +1213,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C25" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
         <x:v>12</x:v>
@@ -1228,10 +1228,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H25" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I25" s="1" t="n">
-        <x:v>58</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
@@ -1271,7 +1271,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C27" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D27" s="1" t="n">
         <x:v>18</x:v>
@@ -1286,10 +1286,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H27" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="I27" s="1" t="n">
-        <x:v>71</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:9">
@@ -1358,10 +1358,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C30" s="1" t="n">
-        <x:v>813</x:v>
+        <x:v>817</x:v>
       </x:c>
       <x:c r="D30" s="1" t="n">
-        <x:v>622</x:v>
+        <x:v>624</x:v>
       </x:c>
       <x:c r="E30" s="1" t="n">
         <x:v>55</x:v>
@@ -1373,10 +1373,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="H30" s="1" t="n">
-        <x:v>240</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="I30" s="1" t="n">
-        <x:v>1854</x:v>
+        <x:v>1861</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:9">
@@ -1402,10 +1402,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H31" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I31" s="1" t="n">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
@@ -1416,10 +1416,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C32" s="1" t="n">
-        <x:v>837</x:v>
+        <x:v>841</x:v>
       </x:c>
       <x:c r="D32" s="1" t="n">
-        <x:v>650</x:v>
+        <x:v>652</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
         <x:v>55</x:v>
@@ -1431,10 +1431,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="H32" s="1" t="n">
-        <x:v>252</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="I32" s="1" t="n">
-        <x:v>1924</x:v>
+        <x:v>1932</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:9">
@@ -1735,25 +1735,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C43" s="1" t="n">
-        <x:v>6416</x:v>
+        <x:v>6441</x:v>
       </x:c>
       <x:c r="D43" s="1" t="n">
-        <x:v>4094</x:v>
+        <x:v>4116</x:v>
       </x:c>
       <x:c r="E43" s="1" t="n">
-        <x:v>251</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="F43" s="1" t="n">
-        <x:v>666</x:v>
+        <x:v>667</x:v>
       </x:c>
       <x:c r="G43" s="1" t="n">
         <x:v>20</x:v>
       </x:c>
       <x:c r="H43" s="1" t="n">
-        <x:v>1242</x:v>
+        <x:v>1247</x:v>
       </x:c>
       <x:c r="I43" s="1" t="n">
-        <x:v>12689</x:v>
+        <x:v>12743</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:9">
@@ -1767,13 +1767,13 @@
         <x:v>612</x:v>
       </x:c>
       <x:c r="D44" s="1" t="n">
-        <x:v>508</x:v>
+        <x:v>507</x:v>
       </x:c>
       <x:c r="E44" s="1" t="n">
         <x:v>33</x:v>
       </x:c>
       <x:c r="F44" s="1" t="n">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="G44" s="1" t="n">
         <x:v>1</x:v>
@@ -1793,25 +1793,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>7028</x:v>
+        <x:v>7053</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
-        <x:v>4602</x:v>
+        <x:v>4623</x:v>
       </x:c>
       <x:c r="E45" s="1" t="n">
-        <x:v>284</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="F45" s="1" t="n">
-        <x:v>710</x:v>
+        <x:v>712</x:v>
       </x:c>
       <x:c r="G45" s="1" t="n">
         <x:v>21</x:v>
       </x:c>
       <x:c r="H45" s="1" t="n">
-        <x:v>1374</x:v>
+        <x:v>1379</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>14019</x:v>
+        <x:v>14073</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1854,7 +1854,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="E47" s="1" t="n">
         <x:v>6</x:v>
@@ -1869,7 +1869,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>152</x:v>
+        <x:v>153</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -1883,7 +1883,7 @@
         <x:v>251</x:v>
       </x:c>
       <x:c r="D48" s="1" t="n">
-        <x:v>239</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="E48" s="1" t="n">
         <x:v>23</x:v>
@@ -1898,7 +1898,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="I48" s="1" t="n">
-        <x:v>623</x:v>
+        <x:v>624</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:9">
@@ -1909,7 +1909,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C49" s="1" t="n">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="D49" s="1" t="n">
         <x:v>14</x:v>
@@ -1927,7 +1927,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="I49" s="1" t="n">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:9">
@@ -1967,7 +1967,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C51" s="1" t="n">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D51" s="1" t="n">
         <x:v>17</x:v>
@@ -1985,7 +1985,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="I51" s="1" t="n">
-        <x:v>149</x:v>
+        <x:v>150</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:9">
@@ -2057,7 +2057,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="D54" s="1" t="n">
-        <x:v>297</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="E54" s="1" t="n">
         <x:v>4</x:v>
@@ -2072,7 +2072,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="I54" s="1" t="n">
-        <x:v>428</x:v>
+        <x:v>431</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:9">
@@ -2083,10 +2083,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C55" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D55" s="1" t="n">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="E55" s="1" t="n">
         <x:v>12</x:v>
@@ -2101,7 +2101,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="I55" s="1" t="n">
-        <x:v>170</x:v>
+        <x:v>172</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:9">
@@ -2112,10 +2112,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C56" s="1" t="n">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="D56" s="1" t="n">
-        <x:v>424</x:v>
+        <x:v>428</x:v>
       </x:c>
       <x:c r="E56" s="1" t="n">
         <x:v>16</x:v>
@@ -2130,7 +2130,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="I56" s="1" t="n">
-        <x:v>598</x:v>
+        <x:v>603</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:9">
@@ -2141,13 +2141,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C57" s="1" t="n">
-        <x:v>374</x:v>
+        <x:v>377</x:v>
       </x:c>
       <x:c r="D57" s="1" t="n">
-        <x:v>180</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="E57" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F57" s="1" t="n">
         <x:v>17</x:v>
@@ -2159,7 +2159,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="I57" s="1" t="n">
-        <x:v>687</x:v>
+        <x:v>692</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:9">
@@ -2185,10 +2185,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H58" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="I58" s="1" t="n">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">
@@ -2199,13 +2199,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C59" s="1" t="n">
-        <x:v>430</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="D59" s="1" t="n">
-        <x:v>203</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="E59" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F59" s="1" t="n">
         <x:v>18</x:v>
@@ -2214,10 +2214,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H59" s="1" t="n">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="I59" s="1" t="n">
-        <x:v>801</x:v>
+        <x:v>807</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9">
@@ -2228,10 +2228,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C60" s="1" t="n">
-        <x:v>452</x:v>
+        <x:v>453</x:v>
       </x:c>
       <x:c r="D60" s="1" t="n">
-        <x:v>399</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="E60" s="1" t="n">
         <x:v>33</x:v>
@@ -2260,7 +2260,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="D61" s="1" t="n">
-        <x:v>121</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="E61" s="1" t="n">
         <x:v>9</x:v>
@@ -2275,7 +2275,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="I61" s="1" t="n">
-        <x:v>173</x:v>
+        <x:v>172</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
@@ -2286,10 +2286,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C62" s="1" t="n">
-        <x:v>468</x:v>
+        <x:v>469</x:v>
       </x:c>
       <x:c r="D62" s="1" t="n">
-        <x:v>520</x:v>
+        <x:v>518</x:v>
       </x:c>
       <x:c r="E62" s="1" t="n">
         <x:v>42</x:v>
@@ -2304,7 +2304,7 @@
         <x:v>137</x:v>
       </x:c>
       <x:c r="I62" s="1" t="n">
-        <x:v>1241</x:v>
+        <x:v>1240</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:9">
@@ -2318,7 +2318,7 @@
         <x:v>584</x:v>
       </x:c>
       <x:c r="D63" s="1" t="n">
-        <x:v>801</x:v>
+        <x:v>802</x:v>
       </x:c>
       <x:c r="E63" s="1" t="n">
         <x:v>48</x:v>
@@ -2330,10 +2330,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H63" s="1" t="n">
-        <x:v>229</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="I63" s="1" t="n">
-        <x:v>1725</x:v>
+        <x:v>1727</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:9">
@@ -2359,10 +2359,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H64" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="I64" s="1" t="n">
-        <x:v>251</x:v>
+        <x:v>252</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:9">
@@ -2376,7 +2376,7 @@
         <x:v>639</x:v>
       </x:c>
       <x:c r="D65" s="1" t="n">
-        <x:v>957</x:v>
+        <x:v>958</x:v>
       </x:c>
       <x:c r="E65" s="1" t="n">
         <x:v>56</x:v>
@@ -2388,10 +2388,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H65" s="1" t="n">
-        <x:v>253</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="I65" s="1" t="n">
-        <x:v>1976</x:v>
+        <x:v>1979</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -720,10 +720,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>6471</x:v>
+        <x:v>6473</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>3947</x:v>
+        <x:v>3951</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>313</x:v>
@@ -735,10 +735,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>1264</x:v>
+        <x:v>1265</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>12607</x:v>
+        <x:v>12614</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -778,10 +778,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>7219</x:v>
+        <x:v>7221</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>4598</x:v>
+        <x:v>4602</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>342</x:v>
@@ -793,10 +793,10 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>1492</x:v>
+        <x:v>1493</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>14393</x:v>
+        <x:v>14400</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -880,10 +880,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
-        <x:v>101</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>1359</x:v>
+        <x:v>1363</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -938,10 +938,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
-        <x:v>111</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>1493</x:v>
+        <x:v>1497</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -1126,16 +1126,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>3412</x:v>
+        <x:v>3416</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>1701</x:v>
+        <x:v>1702</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>130</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
-        <x:v>467</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
         <x:v>17</x:v>
@@ -1144,7 +1144,7 @@
         <x:v>776</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>6503</x:v>
+        <x:v>6509</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1184,16 +1184,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>3501</x:v>
+        <x:v>3505</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>1729</x:v>
+        <x:v>1730</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>137</x:v>
       </x:c>
       <x:c r="F24" s="1" t="n">
-        <x:v>469</x:v>
+        <x:v>470</x:v>
       </x:c>
       <x:c r="G24" s="1" t="n">
         <x:v>17</x:v>
@@ -1202,7 +1202,7 @@
         <x:v>804</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>6657</x:v>
+        <x:v>6663</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1358,7 +1358,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C30" s="1" t="n">
-        <x:v>817</x:v>
+        <x:v>822</x:v>
       </x:c>
       <x:c r="D30" s="1" t="n">
         <x:v>624</x:v>
@@ -1376,7 +1376,7 @@
         <x:v>241</x:v>
       </x:c>
       <x:c r="I30" s="1" t="n">
-        <x:v>1861</x:v>
+        <x:v>1866</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:9">
@@ -1416,7 +1416,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C32" s="1" t="n">
-        <x:v>841</x:v>
+        <x:v>846</x:v>
       </x:c>
       <x:c r="D32" s="1" t="n">
         <x:v>652</x:v>
@@ -1434,7 +1434,7 @@
         <x:v>254</x:v>
       </x:c>
       <x:c r="I32" s="1" t="n">
-        <x:v>1932</x:v>
+        <x:v>1937</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:9">
@@ -1535,7 +1535,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="D36" s="1" t="n">
-        <x:v>68</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E36" s="1" t="n">
         <x:v>3</x:v>
@@ -1550,7 +1550,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="I36" s="1" t="n">
-        <x:v>119</x:v>
+        <x:v>121</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:9">
@@ -1593,7 +1593,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="D38" s="1" t="n">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E38" s="1" t="n">
         <x:v>4</x:v>
@@ -1608,7 +1608,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="I38" s="1" t="n">
-        <x:v>134</x:v>
+        <x:v>136</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:9">
@@ -1735,25 +1735,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C43" s="1" t="n">
-        <x:v>6441</x:v>
+        <x:v>6448</x:v>
       </x:c>
       <x:c r="D43" s="1" t="n">
-        <x:v>4116</x:v>
+        <x:v>4119</x:v>
       </x:c>
       <x:c r="E43" s="1" t="n">
-        <x:v>252</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="F43" s="1" t="n">
-        <x:v>667</x:v>
+        <x:v>670</x:v>
       </x:c>
       <x:c r="G43" s="1" t="n">
         <x:v>20</x:v>
       </x:c>
       <x:c r="H43" s="1" t="n">
-        <x:v>1247</x:v>
+        <x:v>1248</x:v>
       </x:c>
       <x:c r="I43" s="1" t="n">
-        <x:v>12743</x:v>
+        <x:v>12758</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:9">
@@ -1764,10 +1764,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C44" s="1" t="n">
-        <x:v>612</x:v>
+        <x:v>614</x:v>
       </x:c>
       <x:c r="D44" s="1" t="n">
-        <x:v>507</x:v>
+        <x:v>509</x:v>
       </x:c>
       <x:c r="E44" s="1" t="n">
         <x:v>33</x:v>
@@ -1782,7 +1782,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="I44" s="1" t="n">
-        <x:v>1330</x:v>
+        <x:v>1334</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:9">
@@ -1793,25 +1793,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>7053</x:v>
+        <x:v>7062</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
-        <x:v>4623</x:v>
+        <x:v>4628</x:v>
       </x:c>
       <x:c r="E45" s="1" t="n">
-        <x:v>285</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="F45" s="1" t="n">
-        <x:v>712</x:v>
+        <x:v>715</x:v>
       </x:c>
       <x:c r="G45" s="1" t="n">
         <x:v>21</x:v>
       </x:c>
       <x:c r="H45" s="1" t="n">
-        <x:v>1379</x:v>
+        <x:v>1380</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>14073</x:v>
+        <x:v>14092</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1822,7 +1822,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C46" s="1" t="n">
-        <x:v>224</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="D46" s="1" t="n">
         <x:v>142</x:v>
@@ -1840,7 +1840,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="I46" s="1" t="n">
-        <x:v>471</x:v>
+        <x:v>472</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
@@ -1880,7 +1880,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C48" s="1" t="n">
-        <x:v>251</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="D48" s="1" t="n">
         <x:v>240</x:v>
@@ -1898,7 +1898,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="I48" s="1" t="n">
-        <x:v>624</x:v>
+        <x:v>625</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:9">
@@ -2141,7 +2141,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C57" s="1" t="n">
-        <x:v>377</x:v>
+        <x:v>380</x:v>
       </x:c>
       <x:c r="D57" s="1" t="n">
         <x:v>181</x:v>
@@ -2159,7 +2159,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="I57" s="1" t="n">
-        <x:v>692</x:v>
+        <x:v>695</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:9">
@@ -2199,7 +2199,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C59" s="1" t="n">
-        <x:v>433</x:v>
+        <x:v>436</x:v>
       </x:c>
       <x:c r="D59" s="1" t="n">
         <x:v>204</x:v>
@@ -2217,7 +2217,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="I59" s="1" t="n">
-        <x:v>807</x:v>
+        <x:v>810</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9">
@@ -2318,7 +2318,7 @@
         <x:v>584</x:v>
       </x:c>
       <x:c r="D63" s="1" t="n">
-        <x:v>802</x:v>
+        <x:v>803</x:v>
       </x:c>
       <x:c r="E63" s="1" t="n">
         <x:v>48</x:v>
@@ -2333,7 +2333,7 @@
         <x:v>230</x:v>
       </x:c>
       <x:c r="I63" s="1" t="n">
-        <x:v>1727</x:v>
+        <x:v>1728</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:9">
@@ -2376,7 +2376,7 @@
         <x:v>639</x:v>
       </x:c>
       <x:c r="D65" s="1" t="n">
-        <x:v>958</x:v>
+        <x:v>959</x:v>
       </x:c>
       <x:c r="E65" s="1" t="n">
         <x:v>56</x:v>
@@ -2391,7 +2391,7 @@
         <x:v>255</x:v>
       </x:c>
       <x:c r="I65" s="1" t="n">
-        <x:v>1979</x:v>
+        <x:v>1980</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -720,10 +720,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>6473</x:v>
+        <x:v>6475</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>3951</x:v>
+        <x:v>3952</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>313</x:v>
@@ -738,7 +738,7 @@
         <x:v>1265</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>12614</x:v>
+        <x:v>12617</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -758,16 +758,16 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>126</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
-        <x:v>228</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>1786</x:v>
+        <x:v>1789</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -778,25 +778,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>7221</x:v>
+        <x:v>7223</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>4602</x:v>
+        <x:v>4603</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>342</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>714</x:v>
+        <x:v>716</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>28</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>1493</x:v>
+        <x:v>1494</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>14400</x:v>
+        <x:v>14406</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -865,7 +865,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>659</x:v>
+        <x:v>660</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>478</x:v>
@@ -874,7 +874,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
         <x:v>2</x:v>
@@ -883,7 +883,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>1363</x:v>
+        <x:v>1365</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -923,7 +923,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>716</x:v>
+        <x:v>717</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>519</x:v>
@@ -932,7 +932,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
         <x:v>2</x:v>
@@ -941,7 +941,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>1497</x:v>
+        <x:v>1499</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -1039,10 +1039,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>723</x:v>
+        <x:v>725</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
-        <x:v>387</x:v>
+        <x:v>388</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
         <x:v>35</x:v>
@@ -1057,7 +1057,7 @@
         <x:v>147</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>1374</x:v>
+        <x:v>1377</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1097,10 +1097,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>899</x:v>
+        <x:v>901</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
-        <x:v>472</x:v>
+        <x:v>473</x:v>
       </x:c>
       <x:c r="E21" s="1" t="n">
         <x:v>37</x:v>
@@ -1115,7 +1115,7 @@
         <x:v>182</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>1688</x:v>
+        <x:v>1691</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1126,7 +1126,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>3416</x:v>
+        <x:v>3417</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
         <x:v>1702</x:v>
@@ -1141,10 +1141,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
-        <x:v>776</x:v>
+        <x:v>777</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>6509</x:v>
+        <x:v>6511</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1184,7 +1184,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>3505</x:v>
+        <x:v>3506</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
         <x:v>1730</x:v>
@@ -1199,10 +1199,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="H24" s="1" t="n">
-        <x:v>804</x:v>
+        <x:v>805</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>6663</x:v>
+        <x:v>6665</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1358,25 +1358,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C30" s="1" t="n">
-        <x:v>822</x:v>
+        <x:v>823</x:v>
       </x:c>
       <x:c r="D30" s="1" t="n">
-        <x:v>624</x:v>
+        <x:v>625</x:v>
       </x:c>
       <x:c r="E30" s="1" t="n">
         <x:v>55</x:v>
       </x:c>
       <x:c r="F30" s="1" t="n">
-        <x:v>120</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="G30" s="1" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="H30" s="1" t="n">
-        <x:v>241</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="I30" s="1" t="n">
-        <x:v>1866</x:v>
+        <x:v>1872</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:9">
@@ -1416,25 +1416,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C32" s="1" t="n">
-        <x:v>846</x:v>
+        <x:v>847</x:v>
       </x:c>
       <x:c r="D32" s="1" t="n">
-        <x:v>652</x:v>
+        <x:v>653</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
         <x:v>55</x:v>
       </x:c>
       <x:c r="F32" s="1" t="n">
-        <x:v>126</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="G32" s="1" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="H32" s="1" t="n">
-        <x:v>254</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="I32" s="1" t="n">
-        <x:v>1937</x:v>
+        <x:v>1943</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:9">
@@ -1561,7 +1561,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C37" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D37" s="1" t="n">
         <x:v>7</x:v>
@@ -1579,7 +1579,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="I37" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:9">
@@ -1590,7 +1590,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C38" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D38" s="1" t="n">
         <x:v>77</x:v>
@@ -1608,7 +1608,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="I38" s="1" t="n">
-        <x:v>136</x:v>
+        <x:v>137</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:9">
@@ -1735,25 +1735,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C43" s="1" t="n">
-        <x:v>6448</x:v>
+        <x:v>6451</x:v>
       </x:c>
       <x:c r="D43" s="1" t="n">
-        <x:v>4119</x:v>
+        <x:v>4123</x:v>
       </x:c>
       <x:c r="E43" s="1" t="n">
         <x:v>253</x:v>
       </x:c>
       <x:c r="F43" s="1" t="n">
-        <x:v>670</x:v>
+        <x:v>671</x:v>
       </x:c>
       <x:c r="G43" s="1" t="n">
         <x:v>20</x:v>
       </x:c>
       <x:c r="H43" s="1" t="n">
-        <x:v>1248</x:v>
+        <x:v>1247</x:v>
       </x:c>
       <x:c r="I43" s="1" t="n">
-        <x:v>12758</x:v>
+        <x:v>12765</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:9">
@@ -1773,7 +1773,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="F44" s="1" t="n">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="G44" s="1" t="n">
         <x:v>1</x:v>
@@ -1782,7 +1782,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="I44" s="1" t="n">
-        <x:v>1334</x:v>
+        <x:v>1335</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:9">
@@ -1793,25 +1793,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>7062</x:v>
+        <x:v>7065</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
-        <x:v>4628</x:v>
+        <x:v>4632</x:v>
       </x:c>
       <x:c r="E45" s="1" t="n">
         <x:v>286</x:v>
       </x:c>
       <x:c r="F45" s="1" t="n">
-        <x:v>715</x:v>
+        <x:v>717</x:v>
       </x:c>
       <x:c r="G45" s="1" t="n">
         <x:v>21</x:v>
       </x:c>
       <x:c r="H45" s="1" t="n">
-        <x:v>1380</x:v>
+        <x:v>1379</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>14092</x:v>
+        <x:v>14100</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1822,7 +1822,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C46" s="1" t="n">
-        <x:v>225</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="D46" s="1" t="n">
         <x:v>142</x:v>
@@ -1840,7 +1840,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="I46" s="1" t="n">
-        <x:v>472</x:v>
+        <x:v>473</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
@@ -1880,7 +1880,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C48" s="1" t="n">
-        <x:v>252</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="D48" s="1" t="n">
         <x:v>240</x:v>
@@ -1898,7 +1898,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="I48" s="1" t="n">
-        <x:v>625</x:v>
+        <x:v>626</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:9">
@@ -1909,7 +1909,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C49" s="1" t="n">
-        <x:v>87</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="D49" s="1" t="n">
         <x:v>14</x:v>
@@ -1927,7 +1927,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="I49" s="1" t="n">
-        <x:v>125</x:v>
+        <x:v>127</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:9">
@@ -1938,7 +1938,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C50" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D50" s="1" t="n">
         <x:v>3</x:v>
@@ -1956,7 +1956,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="I50" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:9">
@@ -1967,7 +1967,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C51" s="1" t="n">
-        <x:v>105</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="D51" s="1" t="n">
         <x:v>17</x:v>
@@ -1985,7 +1985,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="I51" s="1" t="n">
-        <x:v>150</x:v>
+        <x:v>154</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:9">
@@ -2243,10 +2243,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="H60" s="1" t="n">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="I60" s="1" t="n">
-        <x:v>1068</x:v>
+        <x:v>1067</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">
@@ -2301,10 +2301,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="H62" s="1" t="n">
-        <x:v>137</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="I62" s="1" t="n">
-        <x:v>1240</x:v>
+        <x:v>1239</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:9">
@@ -2318,7 +2318,7 @@
         <x:v>584</x:v>
       </x:c>
       <x:c r="D63" s="1" t="n">
-        <x:v>803</x:v>
+        <x:v>805</x:v>
       </x:c>
       <x:c r="E63" s="1" t="n">
         <x:v>48</x:v>
@@ -2333,7 +2333,7 @@
         <x:v>230</x:v>
       </x:c>
       <x:c r="I63" s="1" t="n">
-        <x:v>1728</x:v>
+        <x:v>1730</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:9">
@@ -2376,7 +2376,7 @@
         <x:v>639</x:v>
       </x:c>
       <x:c r="D65" s="1" t="n">
-        <x:v>959</x:v>
+        <x:v>961</x:v>
       </x:c>
       <x:c r="E65" s="1" t="n">
         <x:v>56</x:v>
@@ -2391,7 +2391,7 @@
         <x:v>255</x:v>
       </x:c>
       <x:c r="I65" s="1" t="n">
-        <x:v>1980</x:v>
+        <x:v>1982</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -720,16 +720,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>6475</x:v>
+        <x:v>6487</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>3952</x:v>
+        <x:v>3959</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
         <x:v>313</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>588</x:v>
+        <x:v>591</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
         <x:v>24</x:v>
@@ -738,7 +738,7 @@
         <x:v>1265</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>12617</x:v>
+        <x:v>12639</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -749,10 +749,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>748</x:v>
+        <x:v>753</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>651</x:v>
+        <x:v>653</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
         <x:v>29</x:v>
@@ -764,10 +764,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
-        <x:v>229</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>1789</x:v>
+        <x:v>1797</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -778,25 +778,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>7223</x:v>
+        <x:v>7240</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>4603</x:v>
+        <x:v>4612</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
         <x:v>342</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>716</x:v>
+        <x:v>719</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
         <x:v>28</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>1494</x:v>
+        <x:v>1495</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>14406</x:v>
+        <x:v>14436</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -865,13 +865,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>660</x:v>
+        <x:v>663</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>478</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
         <x:v>82</x:v>
@@ -883,7 +883,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>1365</x:v>
+        <x:v>1367</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -909,10 +909,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H14" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="I14" s="1" t="n">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
@@ -923,13 +923,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>717</x:v>
+        <x:v>720</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>519</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
         <x:v>105</x:v>
@@ -938,10 +938,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>1499</x:v>
+        <x:v>1502</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -952,7 +952,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>251</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
         <x:v>120</x:v>
@@ -970,7 +970,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>451</x:v>
+        <x:v>452</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -1010,7 +1010,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C18" s="1" t="n">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
         <x:v>128</x:v>
@@ -1028,7 +1028,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="I18" s="1" t="n">
-        <x:v>463</x:v>
+        <x:v>464</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
@@ -1039,10 +1039,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>725</x:v>
+        <x:v>730</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
-        <x:v>388</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
         <x:v>35</x:v>
@@ -1057,7 +1057,7 @@
         <x:v>147</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>1377</x:v>
+        <x:v>1381</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1068,25 +1068,25 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>176</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>85</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="F20" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G20" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H20" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>314</x:v>
+        <x:v>318</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1097,25 +1097,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>901</x:v>
+        <x:v>909</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
-        <x:v>473</x:v>
+        <x:v>471</x:v>
       </x:c>
       <x:c r="E21" s="1" t="n">
         <x:v>37</x:v>
       </x:c>
       <x:c r="F21" s="1" t="n">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="G21" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H21" s="1" t="n">
-        <x:v>182</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>1691</x:v>
+        <x:v>1699</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1126,25 +1126,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>3417</x:v>
+        <x:v>3426</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>1702</x:v>
+        <x:v>1706</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
         <x:v>130</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
-        <x:v>468</x:v>
+        <x:v>470</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
         <x:v>17</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
-        <x:v>777</x:v>
+        <x:v>779</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>6511</x:v>
+        <x:v>6528</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1184,25 +1184,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>3506</x:v>
+        <x:v>3515</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>1730</x:v>
+        <x:v>1734</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
         <x:v>137</x:v>
       </x:c>
       <x:c r="F24" s="1" t="n">
-        <x:v>470</x:v>
+        <x:v>472</x:v>
       </x:c>
       <x:c r="G24" s="1" t="n">
         <x:v>17</x:v>
       </x:c>
       <x:c r="H24" s="1" t="n">
-        <x:v>805</x:v>
+        <x:v>807</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>6665</x:v>
+        <x:v>6682</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1216,7 +1216,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E25" s="1" t="n">
         <x:v>2</x:v>
@@ -1231,7 +1231,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="I25" s="1" t="n">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
@@ -1242,7 +1242,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C26" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D26" s="1" t="n">
         <x:v>6</x:v>
@@ -1260,7 +1260,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="I26" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:9">
@@ -1271,10 +1271,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C27" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D27" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E27" s="1" t="n">
         <x:v>2</x:v>
@@ -1289,7 +1289,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="I27" s="1" t="n">
-        <x:v>73</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:9">
@@ -1358,16 +1358,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C30" s="1" t="n">
-        <x:v>823</x:v>
+        <x:v>828</x:v>
       </x:c>
       <x:c r="D30" s="1" t="n">
-        <x:v>625</x:v>
+        <x:v>626</x:v>
       </x:c>
       <x:c r="E30" s="1" t="n">
         <x:v>55</x:v>
       </x:c>
       <x:c r="F30" s="1" t="n">
-        <x:v>125</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="G30" s="1" t="n">
         <x:v>4</x:v>
@@ -1376,7 +1376,7 @@
         <x:v>240</x:v>
       </x:c>
       <x:c r="I30" s="1" t="n">
-        <x:v>1872</x:v>
+        <x:v>1880</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:9">
@@ -1416,16 +1416,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C32" s="1" t="n">
-        <x:v>847</x:v>
+        <x:v>852</x:v>
       </x:c>
       <x:c r="D32" s="1" t="n">
-        <x:v>653</x:v>
+        <x:v>654</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
         <x:v>55</x:v>
       </x:c>
       <x:c r="F32" s="1" t="n">
-        <x:v>131</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="G32" s="1" t="n">
         <x:v>4</x:v>
@@ -1434,7 +1434,7 @@
         <x:v>253</x:v>
       </x:c>
       <x:c r="I32" s="1" t="n">
-        <x:v>1943</x:v>
+        <x:v>1951</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:9">
@@ -1532,7 +1532,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C36" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D36" s="1" t="n">
         <x:v>70</x:v>
@@ -1550,7 +1550,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="I36" s="1" t="n">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:9">
@@ -1561,7 +1561,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C37" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D37" s="1" t="n">
         <x:v>7</x:v>
@@ -1579,7 +1579,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="I37" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:9">
@@ -1677,7 +1677,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C41" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D41" s="1" t="n">
         <x:v>38</x:v>
@@ -1695,7 +1695,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="I41" s="1" t="n">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9">
@@ -1706,7 +1706,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C42" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D42" s="1" t="n">
         <x:v>38</x:v>
@@ -1724,7 +1724,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="I42" s="1" t="n">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:9">
@@ -1735,25 +1735,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C43" s="1" t="n">
-        <x:v>6451</x:v>
+        <x:v>6468</x:v>
       </x:c>
       <x:c r="D43" s="1" t="n">
-        <x:v>4123</x:v>
+        <x:v>4138</x:v>
       </x:c>
       <x:c r="E43" s="1" t="n">
         <x:v>253</x:v>
       </x:c>
       <x:c r="F43" s="1" t="n">
-        <x:v>671</x:v>
+        <x:v>679</x:v>
       </x:c>
       <x:c r="G43" s="1" t="n">
         <x:v>20</x:v>
       </x:c>
       <x:c r="H43" s="1" t="n">
-        <x:v>1247</x:v>
+        <x:v>1251</x:v>
       </x:c>
       <x:c r="I43" s="1" t="n">
-        <x:v>12765</x:v>
+        <x:v>12809</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:9">
@@ -1767,7 +1767,7 @@
         <x:v>614</x:v>
       </x:c>
       <x:c r="D44" s="1" t="n">
-        <x:v>509</x:v>
+        <x:v>512</x:v>
       </x:c>
       <x:c r="E44" s="1" t="n">
         <x:v>33</x:v>
@@ -1782,7 +1782,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="I44" s="1" t="n">
-        <x:v>1335</x:v>
+        <x:v>1338</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:9">
@@ -1793,25 +1793,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>7065</x:v>
+        <x:v>7082</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
-        <x:v>4632</x:v>
+        <x:v>4650</x:v>
       </x:c>
       <x:c r="E45" s="1" t="n">
         <x:v>286</x:v>
       </x:c>
       <x:c r="F45" s="1" t="n">
-        <x:v>717</x:v>
+        <x:v>725</x:v>
       </x:c>
       <x:c r="G45" s="1" t="n">
         <x:v>21</x:v>
       </x:c>
       <x:c r="H45" s="1" t="n">
-        <x:v>1379</x:v>
+        <x:v>1383</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>14100</x:v>
+        <x:v>14147</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1822,7 +1822,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C46" s="1" t="n">
-        <x:v>226</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="D46" s="1" t="n">
         <x:v>142</x:v>
@@ -1840,7 +1840,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="I46" s="1" t="n">
-        <x:v>473</x:v>
+        <x:v>475</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
@@ -1851,7 +1851,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
         <x:v>98</x:v>
@@ -1869,7 +1869,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>153</x:v>
+        <x:v>154</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -1880,7 +1880,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C48" s="1" t="n">
-        <x:v>253</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="D48" s="1" t="n">
         <x:v>240</x:v>
@@ -1898,7 +1898,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="I48" s="1" t="n">
-        <x:v>626</x:v>
+        <x:v>629</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:9">
@@ -2141,10 +2141,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C57" s="1" t="n">
-        <x:v>380</x:v>
+        <x:v>382</x:v>
       </x:c>
       <x:c r="D57" s="1" t="n">
-        <x:v>181</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="E57" s="1" t="n">
         <x:v>21</x:v>
@@ -2159,7 +2159,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="I57" s="1" t="n">
-        <x:v>695</x:v>
+        <x:v>698</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:9">
@@ -2199,10 +2199,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C59" s="1" t="n">
-        <x:v>436</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="D59" s="1" t="n">
-        <x:v>204</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="E59" s="1" t="n">
         <x:v>23</x:v>
@@ -2217,7 +2217,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="I59" s="1" t="n">
-        <x:v>810</x:v>
+        <x:v>813</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9">
@@ -2228,7 +2228,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C60" s="1" t="n">
-        <x:v>453</x:v>
+        <x:v>456</x:v>
       </x:c>
       <x:c r="D60" s="1" t="n">
         <x:v>398</x:v>
@@ -2246,7 +2246,7 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="I60" s="1" t="n">
-        <x:v>1067</x:v>
+        <x:v>1070</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">
@@ -2286,7 +2286,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C62" s="1" t="n">
-        <x:v>469</x:v>
+        <x:v>472</x:v>
       </x:c>
       <x:c r="D62" s="1" t="n">
         <x:v>518</x:v>
@@ -2304,7 +2304,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="I62" s="1" t="n">
-        <x:v>1239</x:v>
+        <x:v>1242</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:9">
@@ -2315,10 +2315,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C63" s="1" t="n">
-        <x:v>584</x:v>
+        <x:v>587</x:v>
       </x:c>
       <x:c r="D63" s="1" t="n">
-        <x:v>805</x:v>
+        <x:v>807</x:v>
       </x:c>
       <x:c r="E63" s="1" t="n">
         <x:v>48</x:v>
@@ -2333,7 +2333,7 @@
         <x:v>230</x:v>
       </x:c>
       <x:c r="I63" s="1" t="n">
-        <x:v>1730</x:v>
+        <x:v>1735</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:9">
@@ -2373,10 +2373,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C65" s="1" t="n">
-        <x:v>639</x:v>
+        <x:v>642</x:v>
       </x:c>
       <x:c r="D65" s="1" t="n">
-        <x:v>961</x:v>
+        <x:v>963</x:v>
       </x:c>
       <x:c r="E65" s="1" t="n">
         <x:v>56</x:v>
@@ -2391,7 +2391,7 @@
         <x:v>255</x:v>
       </x:c>
       <x:c r="I65" s="1" t="n">
-        <x:v>1982</x:v>
+        <x:v>1987</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -546,10 +546,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>52</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E2" s="1" t="n">
         <x:v>2</x:v>
@@ -564,7 +564,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="I2" s="1" t="n">
-        <x:v>88</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -604,10 +604,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>54</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E4" s="1" t="n">
         <x:v>2</x:v>
@@ -622,7 +622,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="I4" s="1" t="n">
-        <x:v>91</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:9">
@@ -633,13 +633,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>59</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E5" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F5" s="1" t="n">
         <x:v>5</x:v>
@@ -651,7 +651,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="I5" s="1" t="n">
-        <x:v>103</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:9">
@@ -691,13 +691,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>67</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E7" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F7" s="1" t="n">
         <x:v>5</x:v>
@@ -709,7 +709,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="I7" s="1" t="n">
-        <x:v>113</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9">
@@ -720,25 +720,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>6487</x:v>
+        <x:v>7024</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>3959</x:v>
+        <x:v>4304</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>313</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="F8" s="1" t="n">
-        <x:v>591</x:v>
+        <x:v>631</x:v>
       </x:c>
       <x:c r="G8" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>1265</x:v>
+        <x:v>1361</x:v>
       </x:c>
       <x:c r="I8" s="1" t="n">
-        <x:v>12639</x:v>
+        <x:v>13687</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
@@ -749,25 +749,25 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>753</x:v>
+        <x:v>820</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>653</x:v>
+        <x:v>692</x:v>
       </x:c>
       <x:c r="E9" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F9" s="1" t="n">
-        <x:v>128</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="G9" s="1" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="H9" s="1" t="n">
-        <x:v>230</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="I9" s="1" t="n">
-        <x:v>1797</x:v>
+        <x:v>1937</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
@@ -778,25 +778,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>7240</x:v>
+        <x:v>7844</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>4612</x:v>
+        <x:v>4996</x:v>
       </x:c>
       <x:c r="E10" s="1" t="n">
-        <x:v>342</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="F10" s="1" t="n">
-        <x:v>719</x:v>
+        <x:v>770</x:v>
       </x:c>
       <x:c r="G10" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H10" s="1" t="n">
-        <x:v>1495</x:v>
+        <x:v>1610</x:v>
       </x:c>
       <x:c r="I10" s="1" t="n">
-        <x:v>14436</x:v>
+        <x:v>15624</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
@@ -865,25 +865,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="n">
-        <x:v>663</x:v>
+        <x:v>720</x:v>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>478</x:v>
+        <x:v>530</x:v>
       </x:c>
       <x:c r="E13" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F13" s="1" t="n">
-        <x:v>82</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="G13" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H13" s="1" t="n">
-        <x:v>105</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="I13" s="1" t="n">
-        <x:v>1367</x:v>
+        <x:v>1506</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -894,7 +894,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>57</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
         <x:v>41</x:v>
@@ -903,7 +903,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="F14" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G14" s="1" t="n">
         <x:v>0</x:v>
@@ -912,7 +912,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="I14" s="1" t="n">
-        <x:v>135</x:v>
+        <x:v>140</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
@@ -923,25 +923,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C15" s="1" t="n">
-        <x:v>720</x:v>
+        <x:v>781</x:v>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>519</x:v>
+        <x:v>571</x:v>
       </x:c>
       <x:c r="E15" s="1" t="n">
-        <x:v>40</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="F15" s="1" t="n">
-        <x:v>105</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="G15" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H15" s="1" t="n">
-        <x:v>116</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="I15" s="1" t="n">
-        <x:v>1502</x:v>
+        <x:v>1646</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
@@ -952,13 +952,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>252</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>120</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F16" s="1" t="n">
         <x:v>17</x:v>
@@ -967,10 +967,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H16" s="1" t="n">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="I16" s="1" t="n">
-        <x:v>452</x:v>
+        <x:v>478</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -984,7 +984,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D17" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E17" s="1" t="n">
         <x:v>0</x:v>
@@ -999,7 +999,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I17" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -1010,13 +1010,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C18" s="1" t="n">
-        <x:v>255</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
-        <x:v>128</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="E18" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F18" s="1" t="n">
         <x:v>17</x:v>
@@ -1025,10 +1025,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H18" s="1" t="n">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="I18" s="1" t="n">
-        <x:v>464</x:v>
+        <x:v>491</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
@@ -1039,25 +1039,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>730</x:v>
+        <x:v>802</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
-        <x:v>387</x:v>
+        <x:v>414</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F19" s="1" t="n">
-        <x:v>81</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="G19" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H19" s="1" t="n">
-        <x:v>147</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="I19" s="1" t="n">
-        <x:v>1381</x:v>
+        <x:v>1508</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1068,25 +1068,25 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
-        <x:v>179</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>84</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E20" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="F20" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G20" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H20" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="I20" s="1" t="n">
-        <x:v>318</x:v>
+        <x:v>343</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1097,25 +1097,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>909</x:v>
+        <x:v>993</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
-        <x:v>471</x:v>
+        <x:v>508</x:v>
       </x:c>
       <x:c r="E21" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F21" s="1" t="n">
-        <x:v>98</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="G21" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H21" s="1" t="n">
-        <x:v>183</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="I21" s="1" t="n">
-        <x:v>1699</x:v>
+        <x:v>1851</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
@@ -1126,25 +1126,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>3426</x:v>
+        <x:v>3692</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>1706</x:v>
+        <x:v>1876</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
-        <x:v>130</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="F22" s="1" t="n">
-        <x:v>470</x:v>
+        <x:v>515</x:v>
       </x:c>
       <x:c r="G22" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H22" s="1" t="n">
-        <x:v>779</x:v>
+        <x:v>829</x:v>
       </x:c>
       <x:c r="I22" s="1" t="n">
-        <x:v>6528</x:v>
+        <x:v>7071</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
@@ -1155,13 +1155,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C23" s="1" t="n">
-        <x:v>89</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F23" s="1" t="n">
         <x:v>2</x:v>
@@ -1170,10 +1170,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H23" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="I23" s="1" t="n">
-        <x:v>154</x:v>
+        <x:v>160</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -1184,25 +1184,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C24" s="1" t="n">
-        <x:v>3515</x:v>
+        <x:v>3784</x:v>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>1734</x:v>
+        <x:v>1905</x:v>
       </x:c>
       <x:c r="E24" s="1" t="n">
-        <x:v>137</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="F24" s="1" t="n">
-        <x:v>472</x:v>
+        <x:v>517</x:v>
       </x:c>
       <x:c r="G24" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H24" s="1" t="n">
-        <x:v>807</x:v>
+        <x:v>858</x:v>
       </x:c>
       <x:c r="I24" s="1" t="n">
-        <x:v>6682</x:v>
+        <x:v>7231</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
@@ -1213,10 +1213,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C25" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E25" s="1" t="n">
         <x:v>2</x:v>
@@ -1231,7 +1231,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="I25" s="1" t="n">
-        <x:v>61</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
@@ -1242,10 +1242,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C26" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D26" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E26" s="1" t="n">
         <x:v>0</x:v>
@@ -1257,10 +1257,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H26" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I26" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:9">
@@ -1271,10 +1271,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C27" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D27" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E27" s="1" t="n">
         <x:v>2</x:v>
@@ -1286,10 +1286,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H27" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="I27" s="1" t="n">
-        <x:v>75</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:9">
@@ -1358,25 +1358,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C30" s="1" t="n">
-        <x:v>828</x:v>
+        <x:v>900</x:v>
       </x:c>
       <x:c r="D30" s="1" t="n">
-        <x:v>626</x:v>
+        <x:v>689</x:v>
       </x:c>
       <x:c r="E30" s="1" t="n">
-        <x:v>55</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F30" s="1" t="n">
-        <x:v>127</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="G30" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H30" s="1" t="n">
-        <x:v>240</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="I30" s="1" t="n">
-        <x:v>1880</x:v>
+        <x:v>2049</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:9">
@@ -1387,10 +1387,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C31" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
         <x:v>0</x:v>
@@ -1402,10 +1402,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H31" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I31" s="1" t="n">
-        <x:v>71</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
@@ -1416,25 +1416,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C32" s="1" t="n">
-        <x:v>852</x:v>
+        <x:v>926</x:v>
       </x:c>
       <x:c r="D32" s="1" t="n">
-        <x:v>654</x:v>
+        <x:v>722</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
-        <x:v>55</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F32" s="1" t="n">
-        <x:v>133</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="G32" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H32" s="1" t="n">
-        <x:v>253</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="I32" s="1" t="n">
-        <x:v>1951</x:v>
+        <x:v>2129</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:9">
@@ -1532,13 +1532,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C36" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D36" s="1" t="n">
-        <x:v>70</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E36" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F36" s="1" t="n">
         <x:v>3</x:v>
@@ -1547,10 +1547,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H36" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="I36" s="1" t="n">
-        <x:v>122</x:v>
+        <x:v>130</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:9">
@@ -1564,7 +1564,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="D37" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E37" s="1" t="n">
         <x:v>1</x:v>
@@ -1579,7 +1579,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="I37" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:9">
@@ -1590,13 +1590,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C38" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D38" s="1" t="n">
-        <x:v>77</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E38" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F38" s="1" t="n">
         <x:v>5</x:v>
@@ -1605,10 +1605,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H38" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I38" s="1" t="n">
-        <x:v>137</x:v>
+        <x:v>147</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:9">
@@ -1619,10 +1619,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C39" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D39" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E39" s="1" t="n">
         <x:v>3</x:v>
@@ -1634,10 +1634,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H39" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I39" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:9">
@@ -1648,10 +1648,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C40" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D40" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E40" s="1" t="n">
         <x:v>3</x:v>
@@ -1663,10 +1663,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H40" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I40" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:9">
@@ -1677,10 +1677,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C41" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D41" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E41" s="1" t="n">
         <x:v>6</x:v>
@@ -1692,10 +1692,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H41" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I41" s="1" t="n">
-        <x:v>97</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9">
@@ -1706,10 +1706,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C42" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D42" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E42" s="1" t="n">
         <x:v>6</x:v>
@@ -1721,10 +1721,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H42" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I42" s="1" t="n">
-        <x:v>97</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:9">
@@ -1735,25 +1735,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C43" s="1" t="n">
-        <x:v>6468</x:v>
+        <x:v>6998</x:v>
       </x:c>
       <x:c r="D43" s="1" t="n">
-        <x:v>4138</x:v>
+        <x:v>4506</x:v>
       </x:c>
       <x:c r="E43" s="1" t="n">
-        <x:v>253</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="F43" s="1" t="n">
-        <x:v>679</x:v>
+        <x:v>749</x:v>
       </x:c>
       <x:c r="G43" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H43" s="1" t="n">
-        <x:v>1251</x:v>
+        <x:v>1369</x:v>
       </x:c>
       <x:c r="I43" s="1" t="n">
-        <x:v>12809</x:v>
+        <x:v>13917</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:9">
@@ -1764,25 +1764,25 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C44" s="1" t="n">
-        <x:v>614</x:v>
+        <x:v>669</x:v>
       </x:c>
       <x:c r="D44" s="1" t="n">
-        <x:v>512</x:v>
+        <x:v>562</x:v>
       </x:c>
       <x:c r="E44" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F44" s="1" t="n">
-        <x:v>46</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G44" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H44" s="1" t="n">
-        <x:v>132</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="I44" s="1" t="n">
-        <x:v>1338</x:v>
+        <x:v>1461</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:9">
@@ -1793,25 +1793,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C45" s="1" t="n">
-        <x:v>7082</x:v>
+        <x:v>7667</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
-        <x:v>4650</x:v>
+        <x:v>5068</x:v>
       </x:c>
       <x:c r="E45" s="1" t="n">
-        <x:v>286</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="F45" s="1" t="n">
-        <x:v>725</x:v>
+        <x:v>800</x:v>
       </x:c>
       <x:c r="G45" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H45" s="1" t="n">
-        <x:v>1383</x:v>
+        <x:v>1512</x:v>
       </x:c>
       <x:c r="I45" s="1" t="n">
-        <x:v>14147</x:v>
+        <x:v>15378</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
@@ -1822,25 +1822,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C46" s="1" t="n">
-        <x:v>228</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="D46" s="1" t="n">
-        <x:v>142</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="E46" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F46" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="G46" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="H46" s="1" t="n">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="I46" s="1" t="n">
-        <x:v>475</x:v>
+        <x:v>502</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
@@ -1851,25 +1851,25 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C47" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D47" s="1" t="n">
-        <x:v>98</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E47" s="1" t="n">
         <x:v>6</x:v>
       </x:c>
       <x:c r="F47" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G47" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H47" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I47" s="1" t="n">
-        <x:v>154</x:v>
+        <x:v>166</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -1880,25 +1880,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C48" s="1" t="n">
-        <x:v>256</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="D48" s="1" t="n">
-        <x:v>240</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="E48" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F48" s="1" t="n">
-        <x:v>50</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="G48" s="1" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="H48" s="1" t="n">
-        <x:v>57</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="I48" s="1" t="n">
-        <x:v>629</x:v>
+        <x:v>668</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:9">
@@ -1909,7 +1909,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C49" s="1" t="n">
-        <x:v>89</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="D49" s="1" t="n">
         <x:v>14</x:v>
@@ -1924,10 +1924,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H49" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="I49" s="1" t="n">
-        <x:v>127</x:v>
+        <x:v>135</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:9">
@@ -1967,7 +1967,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C51" s="1" t="n">
-        <x:v>109</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="D51" s="1" t="n">
         <x:v>17</x:v>
@@ -1982,10 +1982,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H51" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="I51" s="1" t="n">
-        <x:v>154</x:v>
+        <x:v>162</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:9">
@@ -2054,16 +2054,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C54" s="1" t="n">
-        <x:v>84</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="D54" s="1" t="n">
-        <x:v>300</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="E54" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F54" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G54" s="1" t="n">
         <x:v>0</x:v>
@@ -2072,7 +2072,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="I54" s="1" t="n">
-        <x:v>431</x:v>
+        <x:v>481</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:9">
@@ -2083,10 +2083,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C55" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D55" s="1" t="n">
-        <x:v>128</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="E55" s="1" t="n">
         <x:v>12</x:v>
@@ -2101,7 +2101,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="I55" s="1" t="n">
-        <x:v>172</x:v>
+        <x:v>184</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:9">
@@ -2112,16 +2112,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C56" s="1" t="n">
-        <x:v>101</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="D56" s="1" t="n">
-        <x:v>428</x:v>
+        <x:v>475</x:v>
       </x:c>
       <x:c r="E56" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F56" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G56" s="1" t="n">
         <x:v>0</x:v>
@@ -2130,7 +2130,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="I56" s="1" t="n">
-        <x:v>603</x:v>
+        <x:v>665</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:9">
@@ -2141,13 +2141,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C57" s="1" t="n">
-        <x:v>382</x:v>
+        <x:v>408</x:v>
       </x:c>
       <x:c r="D57" s="1" t="n">
-        <x:v>182</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E57" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F57" s="1" t="n">
         <x:v>17</x:v>
@@ -2156,10 +2156,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H57" s="1" t="n">
-        <x:v>94</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="I57" s="1" t="n">
-        <x:v>698</x:v>
+        <x:v>752</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:9">
@@ -2170,10 +2170,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C58" s="1" t="n">
-        <x:v>56</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D58" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E58" s="1" t="n">
         <x:v>2</x:v>
@@ -2185,10 +2185,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H58" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="I58" s="1" t="n">
-        <x:v>115</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">
@@ -2199,13 +2199,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C59" s="1" t="n">
-        <x:v>438</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="D59" s="1" t="n">
-        <x:v>205</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="E59" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F59" s="1" t="n">
         <x:v>18</x:v>
@@ -2214,10 +2214,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="H59" s="1" t="n">
-        <x:v>127</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="I59" s="1" t="n">
-        <x:v>813</x:v>
+        <x:v>874</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9">
@@ -2228,25 +2228,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C60" s="1" t="n">
-        <x:v>456</x:v>
+        <x:v>486</x:v>
       </x:c>
       <x:c r="D60" s="1" t="n">
-        <x:v>398</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="E60" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F60" s="1" t="n">
-        <x:v>60</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="G60" s="1" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="H60" s="1" t="n">
-        <x:v>119</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="I60" s="1" t="n">
-        <x:v>1070</x:v>
+        <x:v>1152</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">
@@ -2257,25 +2257,25 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C61" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D61" s="1" t="n">
-        <x:v>120</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="E61" s="1" t="n">
         <x:v>9</x:v>
       </x:c>
       <x:c r="F61" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G61" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H61" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I61" s="1" t="n">
-        <x:v>172</x:v>
+        <x:v>184</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
@@ -2286,25 +2286,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C62" s="1" t="n">
-        <x:v>472</x:v>
+        <x:v>507</x:v>
       </x:c>
       <x:c r="D62" s="1" t="n">
-        <x:v>518</x:v>
+        <x:v>552</x:v>
       </x:c>
       <x:c r="E62" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="F62" s="1" t="n">
-        <x:v>70</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G62" s="1" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="H62" s="1" t="n">
-        <x:v>136</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="I62" s="1" t="n">
-        <x:v>1242</x:v>
+        <x:v>1336</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:9">
@@ -2315,25 +2315,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C63" s="1" t="n">
-        <x:v>587</x:v>
+        <x:v>648</x:v>
       </x:c>
       <x:c r="D63" s="1" t="n">
-        <x:v>807</x:v>
+        <x:v>884</x:v>
       </x:c>
       <x:c r="E63" s="1" t="n">
-        <x:v>48</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="F63" s="1" t="n">
-        <x:v>62</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="G63" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H63" s="1" t="n">
-        <x:v>230</x:v>
+        <x:v>351</x:v>
       </x:c>
       <x:c r="I63" s="1" t="n">
-        <x:v>1735</x:v>
+        <x:v>2000</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:9">
@@ -2344,13 +2344,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C64" s="1" t="n">
-        <x:v>55</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D64" s="1" t="n">
-        <x:v>156</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="E64" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F64" s="1" t="n">
         <x:v>8</x:v>
@@ -2359,10 +2359,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H64" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="I64" s="1" t="n">
-        <x:v>252</x:v>
+        <x:v>266</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:9">
@@ -2373,25 +2373,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C65" s="1" t="n">
-        <x:v>642</x:v>
+        <x:v>708</x:v>
       </x:c>
       <x:c r="D65" s="1" t="n">
-        <x:v>963</x:v>
+        <x:v>1046</x:v>
       </x:c>
       <x:c r="E65" s="1" t="n">
-        <x:v>56</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="F65" s="1" t="n">
-        <x:v>70</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="G65" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H65" s="1" t="n">
-        <x:v>255</x:v>
+        <x:v>378</x:v>
       </x:c>
       <x:c r="I65" s="1" t="n">
-        <x:v>1987</x:v>
+        <x:v>2266</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -127,28 +127,28 @@
     <x:t>Assault Offenses</x:t>
   </x:si>
   <x:si>
-    <x:t>7066</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4315</x:t>
+    <x:t>7067</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4320</x:t>
   </x:si>
   <x:si>
     <x:t>343</x:t>
   </x:si>
   <x:si>
-    <x:t>640</x:t>
+    <x:t>641</x:t>
   </x:si>
   <x:si>
     <x:t>27</x:t>
   </x:si>
   <x:si>
-    <x:t>1373</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13764</x:t>
-  </x:si>
-  <x:si>
-    <x:t>829</x:t>
+    <x:t>1374</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13772</x:t>
+  </x:si>
+  <x:si>
+    <x:t>831</x:t>
   </x:si>
   <x:si>
     <x:t>706</x:t>
@@ -160,28 +160,28 @@
     <x:t>148</x:t>
   </x:si>
   <x:si>
-    <x:t>254</x:t>
+    <x:t>252</x:t>
   </x:si>
   <x:si>
     <x:t>1975</x:t>
   </x:si>
   <x:si>
-    <x:t>7895</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5021</x:t>
+    <x:t>7898</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5026</x:t>
   </x:si>
   <x:si>
     <x:t>377</x:t>
   </x:si>
   <x:si>
-    <x:t>788</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1627</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15739</x:t>
+    <x:t>789</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1626</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15747</x:t>
   </x:si>
   <x:si>
     <x:t>Bribery</x:t>
@@ -190,10 +190,10 @@
     <x:t>Burglary/Breaking &amp; Entering</x:t>
   </x:si>
   <x:si>
-    <x:t>722</x:t>
-  </x:si>
-  <x:si>
-    <x:t>532</x:t>
+    <x:t>724</x:t>
+  </x:si>
+  <x:si>
+    <x:t>534</x:t>
   </x:si>
   <x:si>
     <x:t>42</x:t>
@@ -202,7 +202,7 @@
     <x:t>119</x:t>
   </x:si>
   <x:si>
-    <x:t>1512</x:t>
+    <x:t>1516</x:t>
   </x:si>
   <x:si>
     <x:t>41</x:t>
@@ -211,375 +211,375 @@
     <x:t>24</x:t>
   </x:si>
   <x:si>
+    <x:t>140</x:t>
+  </x:si>
+  <x:si>
+    <x:t>786</x:t>
+  </x:si>
+  <x:si>
+    <x:t>575</x:t>
+  </x:si>
+  <x:si>
+    <x:t>45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>129</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1656</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Counterfeiting/Forgery</x:t>
+  </x:si>
+  <x:si>
+    <x:t>269</x:t>
+  </x:si>
+  <x:si>
+    <x:t>135</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>487</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>272</x:t>
+  </x:si>
+  <x:si>
+    <x:t>144</x:t>
+  </x:si>
+  <x:si>
+    <x:t>49</x:t>
+  </x:si>
+  <x:si>
+    <x:t>500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Destruction/Damage/Vandalism of Property</x:t>
+  </x:si>
+  <x:si>
+    <x:t>813</x:t>
+  </x:si>
+  <x:si>
+    <x:t>416</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>87</x:t>
+  </x:si>
+  <x:si>
+    <x:t>169</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1523</x:t>
+  </x:si>
+  <x:si>
+    <x:t>193</x:t>
+  </x:si>
+  <x:si>
+    <x:t>94</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>349</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1006</x:t>
+  </x:si>
+  <x:si>
+    <x:t>510</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>109</x:t>
+  </x:si>
+  <x:si>
+    <x:t>207</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1872</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Drug/Narcotic Violations</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3716</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1888</x:t>
+  </x:si>
+  <x:si>
+    <x:t>141</x:t>
+  </x:si>
+  <x:si>
+    <x:t>523</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>839</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7126</x:t>
+  </x:si>
+  <x:si>
+    <x:t>92</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>161</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3808</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1917</x:t>
+  </x:si>
+  <x:si>
+    <x:t>149</x:t>
+  </x:si>
+  <x:si>
+    <x:t>525</x:t>
+  </x:si>
+  <x:si>
+    <x:t>869</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7287</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Embezzlement</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>65</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>83</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Extortion/Blackmail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fraud Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>913</x:t>
+  </x:si>
+  <x:si>
+    <x:t>698</x:t>
+  </x:si>
+  <x:si>
+    <x:t>61</x:t>
+  </x:si>
+  <x:si>
+    <x:t>142</x:t>
+  </x:si>
+  <x:si>
+    <x:t>263</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2082</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>81</x:t>
+  </x:si>
+  <x:si>
+    <x:t>939</x:t>
+  </x:si>
+  <x:si>
+    <x:t>732</x:t>
+  </x:si>
+  <x:si>
+    <x:t>278</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2163</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gambling Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Homicide Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32</x:t>
+  </x:si>
+  <x:si>
+    <x:t>75</x:t>
+  </x:si>
+  <x:si>
+    <x:t>132</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>84</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Human Trafficking</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kidnapping/Abduction</x:t>
+  </x:si>
+  <x:si>
+    <x:t>43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>105</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Larceny/Theft Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7076</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4567</x:t>
+  </x:si>
+  <x:si>
+    <x:t>274</x:t>
+  </x:si>
+  <x:si>
+    <x:t>761</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1382</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14082</x:t>
+  </x:si>
+  <x:si>
+    <x:t>673</x:t>
+  </x:si>
+  <x:si>
+    <x:t>573</x:t>
+  </x:si>
+  <x:si>
+    <x:t>53</x:t>
+  </x:si>
+  <x:si>
+    <x:t>146</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1481</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7749</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5140</x:t>
+  </x:si>
+  <x:si>
+    <x:t>309</x:t>
+  </x:si>
+  <x:si>
+    <x:t>814</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1528</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15563</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Motor Vehicle Theft</x:t>
+  </x:si>
+  <x:si>
+    <x:t>241</x:t>
+  </x:si>
+  <x:si>
+    <x:t>157</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>508</x:t>
+  </x:si>
+  <x:si>
+    <x:t>170</x:t>
+  </x:si>
+  <x:si>
+    <x:t>275</x:t>
+  </x:si>
+  <x:si>
+    <x:t>262</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>60</x:t>
+  </x:si>
+  <x:si>
+    <x:t>678</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pornography/Obscene Material</x:t>
+  </x:si>
+  <x:si>
+    <x:t>98</x:t>
+  </x:si>
+  <x:si>
+    <x:t>139</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>118</x:t>
+  </x:si>
+  <x:si>
+    <x:t>167</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Prostitution Offenses</x:t>
+  </x:si>
+  <x:si>
     <x:t>11</x:t>
   </x:si>
   <x:si>
-    <x:t>141</x:t>
-  </x:si>
-  <x:si>
-    <x:t>784</x:t>
-  </x:si>
-  <x:si>
-    <x:t>573</x:t>
-  </x:si>
-  <x:si>
-    <x:t>45</x:t>
-  </x:si>
-  <x:si>
-    <x:t>130</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1653</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Counterfeiting/Forgery</x:t>
-  </x:si>
-  <x:si>
-    <x:t>267</x:t>
-  </x:si>
-  <x:si>
-    <x:t>134</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>48</x:t>
-  </x:si>
-  <x:si>
-    <x:t>484</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13</x:t>
-  </x:si>
-  <x:si>
-    <x:t>270</x:t>
-  </x:si>
-  <x:si>
-    <x:t>143</x:t>
-  </x:si>
-  <x:si>
-    <x:t>49</x:t>
-  </x:si>
-  <x:si>
-    <x:t>497</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Destruction/Damage/Vandalism of Property</x:t>
-  </x:si>
-  <x:si>
-    <x:t>812</x:t>
-  </x:si>
-  <x:si>
-    <x:t>416</x:t>
-  </x:si>
-  <x:si>
-    <x:t>37</x:t>
-  </x:si>
-  <x:si>
-    <x:t>87</x:t>
-  </x:si>
-  <x:si>
-    <x:t>169</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1522</x:t>
-  </x:si>
-  <x:si>
-    <x:t>193</x:t>
-  </x:si>
-  <x:si>
-    <x:t>94</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>38</x:t>
-  </x:si>
-  <x:si>
-    <x:t>349</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1005</x:t>
-  </x:si>
-  <x:si>
-    <x:t>510</x:t>
-  </x:si>
-  <x:si>
-    <x:t>39</x:t>
-  </x:si>
-  <x:si>
-    <x:t>109</x:t>
-  </x:si>
-  <x:si>
-    <x:t>207</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1871</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Drug/Narcotic Violations</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3713</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1886</x:t>
-  </x:si>
-  <x:si>
-    <x:t>523</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19</x:t>
-  </x:si>
-  <x:si>
-    <x:t>837</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7119</x:t>
-  </x:si>
-  <x:si>
-    <x:t>92</x:t>
-  </x:si>
-  <x:si>
-    <x:t>29</x:t>
-  </x:si>
-  <x:si>
-    <x:t>161</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3805</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1915</x:t>
-  </x:si>
-  <x:si>
-    <x:t>149</x:t>
-  </x:si>
-  <x:si>
-    <x:t>525</x:t>
-  </x:si>
-  <x:si>
-    <x:t>867</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7280</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Embezzlement</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>65</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>36</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23</x:t>
-  </x:si>
-  <x:si>
-    <x:t>82</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Extortion/Blackmail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fraud Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>909</x:t>
-  </x:si>
-  <x:si>
-    <x:t>697</x:t>
-  </x:si>
-  <x:si>
-    <x:t>61</x:t>
-  </x:si>
-  <x:si>
-    <x:t>142</x:t>
-  </x:si>
-  <x:si>
-    <x:t>261</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2075</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>81</x:t>
-  </x:si>
-  <x:si>
-    <x:t>935</x:t>
-  </x:si>
-  <x:si>
-    <x:t>731</x:t>
-  </x:si>
-  <x:si>
-    <x:t>276</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2156</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gambling Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Homicide Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>32</x:t>
-  </x:si>
-  <x:si>
-    <x:t>75</x:t>
-  </x:si>
-  <x:si>
-    <x:t>132</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35</x:t>
-  </x:si>
-  <x:si>
-    <x:t>84</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Human Trafficking</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kidnapping/Abduction</x:t>
-  </x:si>
-  <x:si>
-    <x:t>43</x:t>
-  </x:si>
-  <x:si>
-    <x:t>105</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Larceny/Theft Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7067</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4558</x:t>
-  </x:si>
-  <x:si>
-    <x:t>274</x:t>
-  </x:si>
-  <x:si>
-    <x:t>761</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1379</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14061</x:t>
-  </x:si>
-  <x:si>
-    <x:t>675</x:t>
-  </x:si>
-  <x:si>
-    <x:t>569</x:t>
-  </x:si>
-  <x:si>
-    <x:t>53</x:t>
-  </x:si>
-  <x:si>
-    <x:t>144</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1477</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7742</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5127</x:t>
-  </x:si>
-  <x:si>
-    <x:t>309</x:t>
-  </x:si>
-  <x:si>
-    <x:t>814</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1523</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15538</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Motor Vehicle Theft</x:t>
-  </x:si>
-  <x:si>
-    <x:t>241</x:t>
-  </x:si>
-  <x:si>
-    <x:t>157</x:t>
-  </x:si>
-  <x:si>
-    <x:t>50</x:t>
-  </x:si>
-  <x:si>
-    <x:t>508</x:t>
-  </x:si>
-  <x:si>
-    <x:t>170</x:t>
-  </x:si>
-  <x:si>
-    <x:t>275</x:t>
-  </x:si>
-  <x:si>
-    <x:t>262</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>60</x:t>
-  </x:si>
-  <x:si>
-    <x:t>678</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pornography/Obscene Material</x:t>
-  </x:si>
-  <x:si>
-    <x:t>97</x:t>
-  </x:si>
-  <x:si>
-    <x:t>138</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>117</x:t>
-  </x:si>
-  <x:si>
-    <x:t>166</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Prostitution Offenses</x:t>
-  </x:si>
-  <x:si>
     <x:t>Robbery</x:t>
   </x:si>
   <x:si>
@@ -589,9 +589,6 @@
     <x:t>481</x:t>
   </x:si>
   <x:si>
-    <x:t>140</x:t>
-  </x:si>
-  <x:si>
     <x:t>187</x:t>
   </x:si>
   <x:si>
@@ -607,43 +604,40 @@
     <x:t>Sex Offenses</x:t>
   </x:si>
   <x:si>
-    <x:t>412</x:t>
+    <x:t>414</x:t>
   </x:si>
   <x:si>
     <x:t>201</x:t>
   </x:si>
   <x:si>
-    <x:t>103</x:t>
-  </x:si>
-  <x:si>
-    <x:t>758</x:t>
-  </x:si>
-  <x:si>
-    <x:t>124</x:t>
-  </x:si>
-  <x:si>
-    <x:t>472</x:t>
+    <x:t>104</x:t>
+  </x:si>
+  <x:si>
+    <x:t>126</x:t>
+  </x:si>
+  <x:si>
+    <x:t>476</x:t>
   </x:si>
   <x:si>
     <x:t>226</x:t>
   </x:si>
   <x:si>
-    <x:t>882</x:t>
+    <x:t>887</x:t>
   </x:si>
   <x:si>
     <x:t>Stolen Property Offenses</x:t>
   </x:si>
   <x:si>
-    <x:t>488</x:t>
-  </x:si>
-  <x:si>
-    <x:t>430</x:t>
+    <x:t>489</x:t>
+  </x:si>
+  <x:si>
+    <x:t>431</x:t>
   </x:si>
   <x:si>
     <x:t>69</x:t>
   </x:si>
   <x:si>
-    <x:t>1160</x:t>
+    <x:t>1162</x:t>
   </x:si>
   <x:si>
     <x:t>125</x:t>
@@ -652,7 +646,10 @@
     <x:t>185</x:t>
   </x:si>
   <x:si>
-    <x:t>555</x:t>
+    <x:t>511</x:t>
+  </x:si>
+  <x:si>
+    <x:t>556</x:t>
   </x:si>
   <x:si>
     <x:t>47</x:t>
@@ -664,7 +661,7 @@
     <x:t>150</x:t>
   </x:si>
   <x:si>
-    <x:t>1345</x:t>
+    <x:t>1347</x:t>
   </x:si>
   <x:si>
     <x:t>Weapon Law Violations</x:t>
@@ -673,16 +670,16 @@
     <x:t>653</x:t>
   </x:si>
   <x:si>
-    <x:t>889</x:t>
+    <x:t>891</x:t>
   </x:si>
   <x:si>
     <x:t>68</x:t>
   </x:si>
   <x:si>
-    <x:t>350</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2011</x:t>
+    <x:t>351</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2014</x:t>
   </x:si>
   <x:si>
     <x:t>163</x:t>
@@ -694,13 +691,16 @@
     <x:t>713</x:t>
   </x:si>
   <x:si>
-    <x:t>1052</x:t>
+    <x:t>1054</x:t>
   </x:si>
   <x:si>
     <x:t>77</x:t>
   </x:si>
   <x:si>
-    <x:t>2279</x:t>
+    <x:t>378</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2282</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1491,10 +1491,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H14" s="1" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="I14" s="1" t="s">
         <x:v>65</x:v>
-      </x:c>
-      <x:c r="I14" s="1" t="s">
-        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
@@ -1505,13 +1505,13 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C15" s="1" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="D15" s="1" t="s">
         <x:v>67</x:v>
       </x:c>
-      <x:c r="D15" s="1" t="s">
+      <x:c r="E15" s="1" t="s">
         <x:v>68</x:v>
-      </x:c>
-      <x:c r="E15" s="1" t="s">
-        <x:v>69</x:v>
       </x:c>
       <x:c r="F15" s="1" t="s">
         <x:v>61</x:v>
@@ -1520,44 +1520,44 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="H15" s="1" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="I15" s="1" t="s">
         <x:v>70</x:v>
-      </x:c>
-      <x:c r="I15" s="1" t="s">
-        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
       <x:c r="A16" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="1" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="D16" s="1" t="s">
         <x:v>73</x:v>
       </x:c>
-      <x:c r="D16" s="1" t="s">
+      <x:c r="E16" s="1" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="E16" s="1" t="s">
+      <x:c r="F16" s="1" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="F16" s="1" t="s">
+      <x:c r="G16" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H16" s="1" t="s">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="G16" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="H16" s="1" t="s">
+      <x:c r="I16" s="1" t="s">
         <x:v>77</x:v>
-      </x:c>
-      <x:c r="I16" s="1" t="s">
-        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
       <x:c r="A17" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
         <x:v>17</x:v>
@@ -1566,155 +1566,155 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="D17" s="1" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="E17" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="F17" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G17" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H17" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="I17" s="1" t="s">
         <x:v>79</x:v>
-      </x:c>
-      <x:c r="E17" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="F17" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="G17" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="H17" s="1" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="I17" s="1" t="s">
-        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
       <x:c r="A18" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C18" s="1" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="D18" s="1" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="D18" s="1" t="s">
+      <x:c r="E18" s="1" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="F18" s="1" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="G18" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H18" s="1" t="s">
         <x:v>82</x:v>
       </x:c>
-      <x:c r="E18" s="1" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="F18" s="1" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="G18" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="H18" s="1" t="s">
+      <x:c r="I18" s="1" t="s">
         <x:v>83</x:v>
-      </x:c>
-      <x:c r="I18" s="1" t="s">
-        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
       <x:c r="A19" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C19" s="1" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="D19" s="1" t="s">
         <x:v>86</x:v>
       </x:c>
-      <x:c r="D19" s="1" t="s">
+      <x:c r="E19" s="1" t="s">
         <x:v>87</x:v>
       </x:c>
-      <x:c r="E19" s="1" t="s">
+      <x:c r="F19" s="1" t="s">
         <x:v>88</x:v>
       </x:c>
-      <x:c r="F19" s="1" t="s">
+      <x:c r="G19" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H19" s="1" t="s">
         <x:v>89</x:v>
       </x:c>
-      <x:c r="G19" s="1" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="H19" s="1" t="s">
+      <x:c r="I19" s="1" t="s">
         <x:v>90</x:v>
-      </x:c>
-      <x:c r="I19" s="1" t="s">
-        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
       <x:c r="A20" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C20" s="1" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="D20" s="1" t="s">
         <x:v>92</x:v>
-      </x:c>
-      <x:c r="D20" s="1" t="s">
-        <x:v>93</x:v>
       </x:c>
       <x:c r="E20" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="F20" s="1" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="G20" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H20" s="1" t="s">
         <x:v>94</x:v>
       </x:c>
-      <x:c r="G20" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="H20" s="1" t="s">
+      <x:c r="I20" s="1" t="s">
         <x:v>95</x:v>
-      </x:c>
-      <x:c r="I20" s="1" t="s">
-        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
       <x:c r="A21" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C21" s="1" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="D21" s="1" t="s">
         <x:v>97</x:v>
       </x:c>
-      <x:c r="D21" s="1" t="s">
+      <x:c r="E21" s="1" t="s">
         <x:v>98</x:v>
       </x:c>
-      <x:c r="E21" s="1" t="s">
+      <x:c r="F21" s="1" t="s">
         <x:v>99</x:v>
       </x:c>
-      <x:c r="F21" s="1" t="s">
+      <x:c r="G21" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H21" s="1" t="s">
         <x:v>100</x:v>
       </x:c>
-      <x:c r="G21" s="1" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="H21" s="1" t="s">
+      <x:c r="I21" s="1" t="s">
         <x:v>101</x:v>
-      </x:c>
-      <x:c r="I21" s="1" t="s">
-        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
       <x:c r="A22" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="D22" s="1" t="s">
         <x:v>104</x:v>
       </x:c>
-      <x:c r="D22" s="1" t="s">
+      <x:c r="E22" s="1" t="s">
         <x:v>105</x:v>
-      </x:c>
-      <x:c r="E22" s="1" t="s">
-        <x:v>66</x:v>
       </x:c>
       <x:c r="F22" s="1" t="s">
         <x:v>106</x:v>
@@ -1731,7 +1731,7 @@
     </x:row>
     <x:row r="23" spans="1:9">
       <x:c r="A23" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
         <x:v>17</x:v>
@@ -1760,7 +1760,7 @@
     </x:row>
     <x:row r="24" spans="1:9">
       <x:c r="A24" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
         <x:v>21</x:v>
@@ -1824,7 +1824,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C26" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="D26" s="1" t="s">
         <x:v>122</x:v>
@@ -1842,7 +1842,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="I26" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:9">
@@ -1853,7 +1853,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C27" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="D27" s="1" t="s">
         <x:v>23</x:v>
@@ -1868,15 +1868,15 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H27" s="1" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="I27" s="1" t="s">
         <x:v>124</x:v>
-      </x:c>
-      <x:c r="I27" s="1" t="s">
-        <x:v>125</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:9">
       <x:c r="A28" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
         <x:v>10</x:v>
@@ -1905,7 +1905,7 @@
     </x:row>
     <x:row r="29" spans="1:9">
       <x:c r="A29" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
         <x:v>21</x:v>
@@ -1934,42 +1934,42 @@
     </x:row>
     <x:row r="30" spans="1:9">
       <x:c r="A30" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C30" s="1" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="D30" s="1" t="s">
         <x:v>128</x:v>
       </x:c>
-      <x:c r="D30" s="1" t="s">
+      <x:c r="E30" s="1" t="s">
         <x:v>129</x:v>
       </x:c>
-      <x:c r="E30" s="1" t="s">
+      <x:c r="F30" s="1" t="s">
         <x:v>130</x:v>
-      </x:c>
-      <x:c r="F30" s="1" t="s">
-        <x:v>131</x:v>
       </x:c>
       <x:c r="G30" s="1" t="s">
         <x:v>29</x:v>
       </x:c>
       <x:c r="H30" s="1" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="I30" s="1" t="s">
         <x:v>132</x:v>
-      </x:c>
-      <x:c r="I30" s="1" t="s">
-        <x:v>133</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:9">
       <x:c r="A31" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C31" s="1" t="s">
-        <x:v>134</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="D31" s="1" t="s">
         <x:v>46</x:v>
@@ -1987,24 +1987,24 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="I31" s="1" t="s">
-        <x:v>135</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
       <x:c r="A32" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C32" s="1" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="D32" s="1" t="s">
         <x:v>136</x:v>
       </x:c>
-      <x:c r="D32" s="1" t="s">
-        <x:v>137</x:v>
-      </x:c>
       <x:c r="E32" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F32" s="1" t="s">
         <x:v>47</x:v>
@@ -2013,15 +2013,15 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="H32" s="1" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="I32" s="1" t="s">
         <x:v>138</x:v>
-      </x:c>
-      <x:c r="I32" s="1" t="s">
-        <x:v>139</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:9">
       <x:c r="A33" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
         <x:v>10</x:v>
@@ -2050,7 +2050,7 @@
     </x:row>
     <x:row r="34" spans="1:9">
       <x:c r="A34" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
         <x:v>17</x:v>
@@ -2079,7 +2079,7 @@
     </x:row>
     <x:row r="35" spans="1:9">
       <x:c r="A35" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
         <x:v>21</x:v>
@@ -2108,16 +2108,16 @@
     </x:row>
     <x:row r="36" spans="1:9">
       <x:c r="A36" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C36" s="1" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="D36" s="1" t="s">
         <x:v>142</x:v>
-      </x:c>
-      <x:c r="D36" s="1" t="s">
-        <x:v>143</x:v>
       </x:c>
       <x:c r="E36" s="1" t="s">
         <x:v>20</x:v>
@@ -2129,15 +2129,15 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H36" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I36" s="1" t="s">
-        <x:v>144</x:v>
+        <x:v>143</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:9">
       <x:c r="A37" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
         <x:v>17</x:v>
@@ -2146,7 +2146,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="D37" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E37" s="1" t="s">
         <x:v>14</x:v>
@@ -2161,21 +2161,21 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="I37" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:9">
       <x:c r="A38" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C38" s="1" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="D38" s="1" t="s">
         <x:v>145</x:v>
-      </x:c>
-      <x:c r="D38" s="1" t="s">
-        <x:v>146</x:v>
       </x:c>
       <x:c r="E38" s="1" t="s">
         <x:v>29</x:v>
@@ -2195,7 +2195,7 @@
     </x:row>
     <x:row r="39" spans="1:9">
       <x:c r="A39" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
         <x:v>10</x:v>
@@ -2204,7 +2204,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="D39" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="E39" s="1" t="s">
         <x:v>18</x:v>
@@ -2224,7 +2224,7 @@
     </x:row>
     <x:row r="40" spans="1:9">
       <x:c r="A40" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
         <x:v>21</x:v>
@@ -2233,7 +2233,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="D40" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="E40" s="1" t="s">
         <x:v>18</x:v>
@@ -2253,16 +2253,16 @@
     </x:row>
     <x:row r="41" spans="1:9">
       <x:c r="A41" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C41" s="1" t="s">
-        <x:v>99</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="D41" s="1" t="s">
-        <x:v>150</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="E41" s="1" t="s">
         <x:v>34</x:v>
@@ -2277,21 +2277,21 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="I41" s="1" t="s">
-        <x:v>151</x:v>
+        <x:v>150</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9">
       <x:c r="A42" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C42" s="1" t="s">
-        <x:v>99</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="D42" s="1" t="s">
-        <x:v>150</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="E42" s="1" t="s">
         <x:v>34</x:v>
@@ -2306,128 +2306,128 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="I42" s="1" t="s">
-        <x:v>151</x:v>
+        <x:v>150</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:9">
       <x:c r="A43" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C43" s="1" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="D43" s="1" t="s">
         <x:v>153</x:v>
       </x:c>
-      <x:c r="D43" s="1" t="s">
+      <x:c r="E43" s="1" t="s">
         <x:v>154</x:v>
       </x:c>
-      <x:c r="E43" s="1" t="s">
+      <x:c r="F43" s="1" t="s">
         <x:v>155</x:v>
       </x:c>
-      <x:c r="F43" s="1" t="s">
+      <x:c r="G43" s="1" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="H43" s="1" t="s">
         <x:v>156</x:v>
       </x:c>
-      <x:c r="G43" s="1" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="H43" s="1" t="s">
+      <x:c r="I43" s="1" t="s">
         <x:v>157</x:v>
-      </x:c>
-      <x:c r="I43" s="1" t="s">
-        <x:v>158</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:9">
       <x:c r="A44" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C44" s="1" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="D44" s="1" t="s">
         <x:v>159</x:v>
       </x:c>
-      <x:c r="D44" s="1" t="s">
+      <x:c r="E44" s="1" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="F44" s="1" t="s">
         <x:v>160</x:v>
       </x:c>
-      <x:c r="E44" s="1" t="s">
-        <x:v>145</x:v>
-      </x:c>
-      <x:c r="F44" s="1" t="s">
+      <x:c r="G44" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H44" s="1" t="s">
         <x:v>161</x:v>
       </x:c>
-      <x:c r="G44" s="1" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="H44" s="1" t="s">
+      <x:c r="I44" s="1" t="s">
         <x:v>162</x:v>
-      </x:c>
-      <x:c r="I44" s="1" t="s">
-        <x:v>163</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:9">
       <x:c r="A45" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C45" s="1" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="D45" s="1" t="s">
         <x:v>164</x:v>
       </x:c>
-      <x:c r="D45" s="1" t="s">
+      <x:c r="E45" s="1" t="s">
         <x:v>165</x:v>
       </x:c>
-      <x:c r="E45" s="1" t="s">
+      <x:c r="F45" s="1" t="s">
         <x:v>166</x:v>
       </x:c>
-      <x:c r="F45" s="1" t="s">
+      <x:c r="G45" s="1" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="H45" s="1" t="s">
         <x:v>167</x:v>
       </x:c>
-      <x:c r="G45" s="1" t="s">
-        <x:v>124</x:v>
-      </x:c>
-      <x:c r="H45" s="1" t="s">
+      <x:c r="I45" s="1" t="s">
         <x:v>168</x:v>
-      </x:c>
-      <x:c r="I45" s="1" t="s">
-        <x:v>169</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
       <x:c r="A46" s="0" t="s">
-        <x:v>170</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C46" s="1" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="D46" s="1" t="s">
         <x:v>171</x:v>
-      </x:c>
-      <x:c r="D46" s="1" t="s">
-        <x:v>172</x:v>
       </x:c>
       <x:c r="E46" s="1" t="s">
         <x:v>107</x:v>
       </x:c>
       <x:c r="F46" s="1" t="s">
-        <x:v>99</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="G46" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H46" s="1" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="I46" s="1" t="s">
         <x:v>173</x:v>
-      </x:c>
-      <x:c r="I46" s="1" t="s">
-        <x:v>174</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
       <x:c r="A47" s="0" t="s">
-        <x:v>170</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
         <x:v>17</x:v>
@@ -2436,7 +2436,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="D47" s="1" t="s">
-        <x:v>151</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="E47" s="1" t="s">
         <x:v>34</x:v>
@@ -2451,47 +2451,47 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="I47" s="1" t="s">
-        <x:v>175</x:v>
+        <x:v>174</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
       <x:c r="A48" s="0" t="s">
-        <x:v>170</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C48" s="1" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="D48" s="1" t="s">
         <x:v>176</x:v>
       </x:c>
-      <x:c r="D48" s="1" t="s">
+      <x:c r="E48" s="1" t="s">
         <x:v>177</x:v>
       </x:c>
-      <x:c r="E48" s="1" t="s">
-        <x:v>178</x:v>
-      </x:c>
       <x:c r="F48" s="1" t="s">
-        <x:v>161</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="G48" s="1" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H48" s="1" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="I48" s="1" t="s">
         <x:v>179</x:v>
-      </x:c>
-      <x:c r="I48" s="1" t="s">
-        <x:v>180</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:9">
       <x:c r="A49" s="0" t="s">
-        <x:v>181</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C49" s="1" t="s">
-        <x:v>182</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="D49" s="1" t="s">
         <x:v>15</x:v>
@@ -2506,15 +2506,15 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H49" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="I49" s="1" t="s">
-        <x:v>183</x:v>
+        <x:v>182</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:9">
       <x:c r="A50" s="0" t="s">
-        <x:v>181</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
         <x:v>17</x:v>
@@ -2538,47 +2538,47 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="I50" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>183</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:9">
       <x:c r="A51" s="0" t="s">
-        <x:v>181</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C51" s="1" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="D51" s="1" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="E51" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F51" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G51" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H51" s="1" t="s">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="I51" s="1" t="s">
         <x:v>185</x:v>
-      </x:c>
-      <x:c r="D51" s="1" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="E51" s="1" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F51" s="1" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G51" s="1" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="H51" s="1" t="s">
-        <x:v>184</x:v>
-      </x:c>
-      <x:c r="I51" s="1" t="s">
-        <x:v>186</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:9">
       <x:c r="A52" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C52" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="D52" s="1" t="s">
         <x:v>14</x:v>
@@ -2601,13 +2601,13 @@
     </x:row>
     <x:row r="53" spans="1:9">
       <x:c r="A53" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C53" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="D53" s="1" t="s">
         <x:v>14</x:v>
@@ -2645,13 +2645,13 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="F54" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="G54" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="H54" s="1" t="s">
-        <x:v>178</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="I54" s="1" t="s">
         <x:v>190</x:v>
@@ -2668,13 +2668,13 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="D55" s="1" t="s">
-        <x:v>191</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E55" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F55" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G55" s="1" t="s">
         <x:v>19</x:v>
@@ -2683,7 +2683,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I55" s="1" t="s">
-        <x:v>192</x:v>
+        <x:v>191</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:9">
@@ -2694,13 +2694,13 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C56" s="1" t="s">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="D56" s="1" t="s">
         <x:v>193</x:v>
       </x:c>
-      <x:c r="D56" s="1" t="s">
-        <x:v>194</x:v>
-      </x:c>
       <x:c r="E56" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="F56" s="1" t="s">
         <x:v>33</x:v>
@@ -2709,53 +2709,53 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H56" s="1" t="s">
-        <x:v>142</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="I56" s="1" t="s">
-        <x:v>195</x:v>
+        <x:v>194</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:9">
       <x:c r="A57" s="0" t="s">
-        <x:v>196</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C57" s="1" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="D57" s="1" t="s">
         <x:v>197</x:v>
       </x:c>
-      <x:c r="D57" s="1" t="s">
-        <x:v>198</x:v>
-      </x:c>
       <x:c r="E57" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="F57" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="G57" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H57" s="1" t="s">
-        <x:v>199</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="I57" s="1" t="s">
-        <x:v>200</x:v>
+        <x:v>155</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:9">
       <x:c r="A58" s="0" t="s">
-        <x:v>196</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C58" s="1" t="s">
-        <x:v>179</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D58" s="1" t="s">
-        <x:v>178</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="E58" s="1" t="s">
         <x:v>13</x:v>
@@ -2767,24 +2767,24 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H58" s="1" t="s">
-        <x:v>145</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="I58" s="1" t="s">
-        <x:v>201</x:v>
+        <x:v>199</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">
       <x:c r="A59" s="0" t="s">
-        <x:v>196</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C59" s="1" t="s">
-        <x:v>202</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="D59" s="1" t="s">
-        <x:v>203</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="E59" s="1" t="s">
         <x:v>64</x:v>
@@ -2796,146 +2796,146 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="H59" s="1" t="s">
-        <x:v>183</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="I59" s="1" t="s">
-        <x:v>204</x:v>
+        <x:v>202</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9">
       <x:c r="A60" s="0" t="s">
-        <x:v>205</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C60" s="1" t="s">
+        <x:v>204</x:v>
+      </x:c>
+      <x:c r="D60" s="1" t="s">
+        <x:v>205</x:v>
+      </x:c>
+      <x:c r="E60" s="1" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="F60" s="1" t="s">
         <x:v>206</x:v>
-      </x:c>
-      <x:c r="D60" s="1" t="s">
-        <x:v>207</x:v>
-      </x:c>
-      <x:c r="E60" s="1" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="F60" s="1" t="s">
-        <x:v>208</x:v>
       </x:c>
       <x:c r="G60" s="1" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H60" s="1" t="s">
-        <x:v>144</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="I60" s="1" t="s">
-        <x:v>209</x:v>
+        <x:v>207</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">
       <x:c r="A61" s="0" t="s">
-        <x:v>205</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C61" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="D61" s="1" t="s">
-        <x:v>210</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="E61" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="F61" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="G61" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="H61" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I61" s="1" t="s">
-        <x:v>211</x:v>
+        <x:v>209</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
       <x:c r="A62" s="0" t="s">
-        <x:v>205</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C62" s="1" t="s">
-        <x:v>98</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="D62" s="1" t="s">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="E62" s="1" t="s">
         <x:v>212</x:v>
       </x:c>
-      <x:c r="E62" s="1" t="s">
+      <x:c r="F62" s="1" t="s">
         <x:v>213</x:v>
-      </x:c>
-      <x:c r="F62" s="1" t="s">
-        <x:v>214</x:v>
       </x:c>
       <x:c r="G62" s="1" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H62" s="1" t="s">
+        <x:v>214</x:v>
+      </x:c>
+      <x:c r="I62" s="1" t="s">
         <x:v>215</x:v>
-      </x:c>
-      <x:c r="I62" s="1" t="s">
-        <x:v>216</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:9">
       <x:c r="A63" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C63" s="1" t="s">
+        <x:v>217</x:v>
+      </x:c>
+      <x:c r="D63" s="1" t="s">
         <x:v>218</x:v>
       </x:c>
-      <x:c r="D63" s="1" t="s">
+      <x:c r="E63" s="1" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="F63" s="1" t="s">
         <x:v>219</x:v>
       </x:c>
-      <x:c r="E63" s="1" t="s">
-        <x:v>173</x:v>
-      </x:c>
-      <x:c r="F63" s="1" t="s">
+      <x:c r="G63" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H63" s="1" t="s">
         <x:v>220</x:v>
       </x:c>
-      <x:c r="G63" s="1" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="H63" s="1" t="s">
+      <x:c r="I63" s="1" t="s">
         <x:v>221</x:v>
-      </x:c>
-      <x:c r="I63" s="1" t="s">
-        <x:v>222</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:9">
       <x:c r="A64" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C64" s="1" t="s">
-        <x:v>179</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="D64" s="1" t="s">
-        <x:v>223</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="E64" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="F64" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G64" s="1" t="s">
         <x:v>19</x:v>
@@ -2944,33 +2944,33 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="I64" s="1" t="s">
-        <x:v>224</x:v>
+        <x:v>223</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:9">
       <x:c r="A65" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C65" s="1" t="s">
+        <x:v>224</x:v>
+      </x:c>
+      <x:c r="D65" s="1" t="s">
         <x:v>225</x:v>
-      </x:c>
-      <x:c r="D65" s="1" t="s">
-        <x:v>226</x:v>
       </x:c>
       <x:c r="E65" s="1" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="F65" s="1" t="s">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="G65" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H65" s="1" t="s">
         <x:v>227</x:v>
-      </x:c>
-      <x:c r="G65" s="1" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="H65" s="1" t="s">
-        <x:v>52</x:v>
       </x:c>
       <x:c r="I65" s="1" t="s">
         <x:v>228</x:v>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -127,10 +127,10 @@
     <x:t>Assault Offenses</x:t>
   </x:si>
   <x:si>
-    <x:t>7067</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4320</x:t>
+    <x:t>7078</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4323</x:t>
   </x:si>
   <x:si>
     <x:t>343</x:t>
@@ -145,495 +145,489 @@
     <x:t>1374</x:t>
   </x:si>
   <x:si>
-    <x:t>13772</x:t>
-  </x:si>
-  <x:si>
-    <x:t>831</x:t>
-  </x:si>
-  <x:si>
-    <x:t>706</x:t>
+    <x:t>13786</x:t>
+  </x:si>
+  <x:si>
+    <x:t>835</x:t>
+  </x:si>
+  <x:si>
+    <x:t>707</x:t>
   </x:si>
   <x:si>
     <x:t>34</x:t>
   </x:si>
   <x:si>
+    <x:t>150</x:t>
+  </x:si>
+  <x:si>
+    <x:t>253</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1983</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7913</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5030</x:t>
+  </x:si>
+  <x:si>
+    <x:t>377</x:t>
+  </x:si>
+  <x:si>
+    <x:t>791</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1627</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15769</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bribery</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Burglary/Breaking &amp; Entering</x:t>
+  </x:si>
+  <x:si>
+    <x:t>725</x:t>
+  </x:si>
+  <x:si>
+    <x:t>535</x:t>
+  </x:si>
+  <x:si>
+    <x:t>42</x:t>
+  </x:si>
+  <x:si>
+    <x:t>119</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1518</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>142</x:t>
+  </x:si>
+  <x:si>
+    <x:t>787</x:t>
+  </x:si>
+  <x:si>
+    <x:t>577</x:t>
+  </x:si>
+  <x:si>
+    <x:t>45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>130</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1660</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Counterfeiting/Forgery</x:t>
+  </x:si>
+  <x:si>
+    <x:t>269</x:t>
+  </x:si>
+  <x:si>
+    <x:t>135</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>487</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>272</x:t>
+  </x:si>
+  <x:si>
+    <x:t>144</x:t>
+  </x:si>
+  <x:si>
+    <x:t>49</x:t>
+  </x:si>
+  <x:si>
+    <x:t>500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Destruction/Damage/Vandalism of Property</x:t>
+  </x:si>
+  <x:si>
+    <x:t>820</x:t>
+  </x:si>
+  <x:si>
+    <x:t>418</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>88</x:t>
+  </x:si>
+  <x:si>
+    <x:t>170</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1534</x:t>
+  </x:si>
+  <x:si>
+    <x:t>196</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>44</x:t>
+  </x:si>
+  <x:si>
+    <x:t>365</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1016</x:t>
+  </x:si>
+  <x:si>
+    <x:t>513</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>116</x:t>
+  </x:si>
+  <x:si>
+    <x:t>214</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1899</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Drug/Narcotic Violations</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3722</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1889</x:t>
+  </x:si>
+  <x:si>
+    <x:t>141</x:t>
+  </x:si>
+  <x:si>
+    <x:t>524</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>840</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7135</x:t>
+  </x:si>
+  <x:si>
+    <x:t>93</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>162</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3815</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1918</x:t>
+  </x:si>
+  <x:si>
+    <x:t>149</x:t>
+  </x:si>
+  <x:si>
+    <x:t>526</x:t>
+  </x:si>
+  <x:si>
+    <x:t>870</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7297</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Embezzlement</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>65</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>83</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Extortion/Blackmail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fraud Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>914</x:t>
+  </x:si>
+  <x:si>
+    <x:t>702</x:t>
+  </x:si>
+  <x:si>
+    <x:t>61</x:t>
+  </x:si>
+  <x:si>
+    <x:t>264</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2088</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>81</x:t>
+  </x:si>
+  <x:si>
+    <x:t>940</x:t>
+  </x:si>
+  <x:si>
+    <x:t>736</x:t>
+  </x:si>
+  <x:si>
     <x:t>148</x:t>
   </x:si>
   <x:si>
-    <x:t>252</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1975</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7898</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5026</x:t>
-  </x:si>
-  <x:si>
-    <x:t>377</x:t>
-  </x:si>
-  <x:si>
-    <x:t>789</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1626</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15747</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bribery</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Burglary/Breaking &amp; Entering</x:t>
-  </x:si>
-  <x:si>
-    <x:t>724</x:t>
-  </x:si>
-  <x:si>
-    <x:t>534</x:t>
-  </x:si>
-  <x:si>
-    <x:t>42</x:t>
-  </x:si>
-  <x:si>
-    <x:t>119</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1516</x:t>
-  </x:si>
-  <x:si>
-    <x:t>41</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24</x:t>
+    <x:t>279</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2169</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gambling Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Homicide Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32</x:t>
+  </x:si>
+  <x:si>
+    <x:t>75</x:t>
+  </x:si>
+  <x:si>
+    <x:t>132</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>84</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Human Trafficking</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kidnapping/Abduction</x:t>
+  </x:si>
+  <x:si>
+    <x:t>43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>105</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Larceny/Theft Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7084</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4570</x:t>
+  </x:si>
+  <x:si>
+    <x:t>275</x:t>
+  </x:si>
+  <x:si>
+    <x:t>765</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1387</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14103</x:t>
+  </x:si>
+  <x:si>
+    <x:t>672</x:t>
+  </x:si>
+  <x:si>
+    <x:t>573</x:t>
+  </x:si>
+  <x:si>
+    <x:t>54</x:t>
+  </x:si>
+  <x:si>
+    <x:t>147</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1482</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7756</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5143</x:t>
+  </x:si>
+  <x:si>
+    <x:t>310</x:t>
+  </x:si>
+  <x:si>
+    <x:t>819</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15585</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Motor Vehicle Theft</x:t>
+  </x:si>
+  <x:si>
+    <x:t>241</x:t>
+  </x:si>
+  <x:si>
+    <x:t>157</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>508</x:t>
+  </x:si>
+  <x:si>
+    <x:t>171</x:t>
+  </x:si>
+  <x:si>
+    <x:t>262</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>60</x:t>
+  </x:si>
+  <x:si>
+    <x:t>679</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pornography/Obscene Material</x:t>
   </x:si>
   <x:si>
     <x:t>140</x:t>
   </x:si>
   <x:si>
-    <x:t>786</x:t>
-  </x:si>
-  <x:si>
-    <x:t>575</x:t>
-  </x:si>
-  <x:si>
-    <x:t>45</x:t>
-  </x:si>
-  <x:si>
-    <x:t>129</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1656</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Counterfeiting/Forgery</x:t>
-  </x:si>
-  <x:si>
-    <x:t>269</x:t>
-  </x:si>
-  <x:si>
-    <x:t>135</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>48</x:t>
-  </x:si>
-  <x:si>
-    <x:t>487</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13</x:t>
-  </x:si>
-  <x:si>
-    <x:t>272</x:t>
-  </x:si>
-  <x:si>
-    <x:t>144</x:t>
-  </x:si>
-  <x:si>
-    <x:t>49</x:t>
-  </x:si>
-  <x:si>
-    <x:t>500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Destruction/Damage/Vandalism of Property</x:t>
-  </x:si>
-  <x:si>
-    <x:t>813</x:t>
-  </x:si>
-  <x:si>
-    <x:t>416</x:t>
-  </x:si>
-  <x:si>
-    <x:t>37</x:t>
-  </x:si>
-  <x:si>
-    <x:t>87</x:t>
-  </x:si>
-  <x:si>
     <x:t>169</x:t>
   </x:si>
   <x:si>
-    <x:t>1523</x:t>
-  </x:si>
-  <x:si>
-    <x:t>193</x:t>
-  </x:si>
-  <x:si>
-    <x:t>94</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22</x:t>
+    <x:t>Prostitution Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Robbery</x:t>
+  </x:si>
+  <x:si>
+    <x:t>92</x:t>
+  </x:si>
+  <x:si>
+    <x:t>336</x:t>
+  </x:si>
+  <x:si>
+    <x:t>480</x:t>
+  </x:si>
+  <x:si>
+    <x:t>189</x:t>
+  </x:si>
+  <x:si>
+    <x:t>111</x:t>
+  </x:si>
+  <x:si>
+    <x:t>478</x:t>
+  </x:si>
+  <x:si>
+    <x:t>669</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sex Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>415</x:t>
+  </x:si>
+  <x:si>
+    <x:t>201</x:t>
+  </x:si>
+  <x:si>
+    <x:t>104</x:t>
+  </x:si>
+  <x:si>
+    <x:t>762</x:t>
+  </x:si>
+  <x:si>
+    <x:t>126</x:t>
+  </x:si>
+  <x:si>
+    <x:t>477</x:t>
+  </x:si>
+  <x:si>
+    <x:t>226</x:t>
+  </x:si>
+  <x:si>
+    <x:t>139</x:t>
+  </x:si>
+  <x:si>
+    <x:t>888</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stolen Property Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>489</x:t>
+  </x:si>
+  <x:si>
+    <x:t>431</x:t>
   </x:si>
   <x:si>
     <x:t>38</x:t>
   </x:si>
   <x:si>
-    <x:t>349</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1006</x:t>
-  </x:si>
-  <x:si>
-    <x:t>510</x:t>
-  </x:si>
-  <x:si>
-    <x:t>39</x:t>
-  </x:si>
-  <x:si>
-    <x:t>109</x:t>
-  </x:si>
-  <x:si>
-    <x:t>207</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1872</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Drug/Narcotic Violations</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3716</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1888</x:t>
-  </x:si>
-  <x:si>
-    <x:t>141</x:t>
-  </x:si>
-  <x:si>
-    <x:t>523</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19</x:t>
-  </x:si>
-  <x:si>
-    <x:t>839</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7126</x:t>
-  </x:si>
-  <x:si>
-    <x:t>92</x:t>
-  </x:si>
-  <x:si>
-    <x:t>29</x:t>
-  </x:si>
-  <x:si>
-    <x:t>161</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3808</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1917</x:t>
-  </x:si>
-  <x:si>
-    <x:t>149</x:t>
-  </x:si>
-  <x:si>
-    <x:t>525</x:t>
-  </x:si>
-  <x:si>
-    <x:t>869</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7287</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Embezzlement</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>65</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23</x:t>
-  </x:si>
-  <x:si>
-    <x:t>83</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Extortion/Blackmail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fraud Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>913</x:t>
-  </x:si>
-  <x:si>
-    <x:t>698</x:t>
-  </x:si>
-  <x:si>
-    <x:t>61</x:t>
-  </x:si>
-  <x:si>
-    <x:t>142</x:t>
-  </x:si>
-  <x:si>
-    <x:t>263</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2082</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>81</x:t>
-  </x:si>
-  <x:si>
-    <x:t>939</x:t>
-  </x:si>
-  <x:si>
-    <x:t>732</x:t>
-  </x:si>
-  <x:si>
-    <x:t>278</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2163</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gambling Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Homicide Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>32</x:t>
-  </x:si>
-  <x:si>
-    <x:t>75</x:t>
-  </x:si>
-  <x:si>
-    <x:t>132</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35</x:t>
-  </x:si>
-  <x:si>
-    <x:t>84</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Human Trafficking</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kidnapping/Abduction</x:t>
-  </x:si>
-  <x:si>
-    <x:t>43</x:t>
-  </x:si>
-  <x:si>
-    <x:t>105</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Larceny/Theft Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7076</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4567</x:t>
-  </x:si>
-  <x:si>
-    <x:t>274</x:t>
-  </x:si>
-  <x:si>
-    <x:t>761</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1382</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14082</x:t>
-  </x:si>
-  <x:si>
-    <x:t>673</x:t>
-  </x:si>
-  <x:si>
-    <x:t>573</x:t>
-  </x:si>
-  <x:si>
-    <x:t>53</x:t>
-  </x:si>
-  <x:si>
-    <x:t>146</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1481</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7749</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5140</x:t>
-  </x:si>
-  <x:si>
-    <x:t>309</x:t>
-  </x:si>
-  <x:si>
-    <x:t>814</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1528</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15563</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Motor Vehicle Theft</x:t>
-  </x:si>
-  <x:si>
-    <x:t>241</x:t>
-  </x:si>
-  <x:si>
-    <x:t>157</x:t>
-  </x:si>
-  <x:si>
-    <x:t>50</x:t>
-  </x:si>
-  <x:si>
-    <x:t>508</x:t>
-  </x:si>
-  <x:si>
-    <x:t>170</x:t>
-  </x:si>
-  <x:si>
-    <x:t>275</x:t>
-  </x:si>
-  <x:si>
-    <x:t>262</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>60</x:t>
-  </x:si>
-  <x:si>
-    <x:t>678</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pornography/Obscene Material</x:t>
-  </x:si>
-  <x:si>
-    <x:t>98</x:t>
-  </x:si>
-  <x:si>
-    <x:t>139</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>118</x:t>
-  </x:si>
-  <x:si>
-    <x:t>167</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Prostitution Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Robbery</x:t>
-  </x:si>
-  <x:si>
-    <x:t>337</x:t>
-  </x:si>
-  <x:si>
-    <x:t>481</x:t>
-  </x:si>
-  <x:si>
-    <x:t>187</x:t>
-  </x:si>
-  <x:si>
-    <x:t>111</x:t>
-  </x:si>
-  <x:si>
-    <x:t>477</x:t>
-  </x:si>
-  <x:si>
-    <x:t>668</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sex Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>414</x:t>
-  </x:si>
-  <x:si>
-    <x:t>201</x:t>
-  </x:si>
-  <x:si>
-    <x:t>104</x:t>
-  </x:si>
-  <x:si>
-    <x:t>126</x:t>
-  </x:si>
-  <x:si>
-    <x:t>476</x:t>
-  </x:si>
-  <x:si>
-    <x:t>226</x:t>
-  </x:si>
-  <x:si>
-    <x:t>887</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stolen Property Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>489</x:t>
-  </x:si>
-  <x:si>
-    <x:t>431</x:t>
-  </x:si>
-  <x:si>
     <x:t>69</x:t>
   </x:si>
   <x:si>
@@ -658,19 +652,16 @@
     <x:t>80</x:t>
   </x:si>
   <x:si>
-    <x:t>150</x:t>
-  </x:si>
-  <x:si>
     <x:t>1347</x:t>
   </x:si>
   <x:si>
     <x:t>Weapon Law Violations</x:t>
   </x:si>
   <x:si>
-    <x:t>653</x:t>
-  </x:si>
-  <x:si>
-    <x:t>891</x:t>
+    <x:t>655</x:t>
+  </x:si>
+  <x:si>
+    <x:t>890</x:t>
   </x:si>
   <x:si>
     <x:t>68</x:t>
@@ -679,19 +670,19 @@
     <x:t>351</x:t>
   </x:si>
   <x:si>
-    <x:t>2014</x:t>
+    <x:t>2015</x:t>
   </x:si>
   <x:si>
     <x:t>163</x:t>
   </x:si>
   <x:si>
-    <x:t>268</x:t>
-  </x:si>
-  <x:si>
-    <x:t>713</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1054</x:t>
+    <x:t>267</x:t>
+  </x:si>
+  <x:si>
+    <x:t>714</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1053</x:t>
   </x:si>
   <x:si>
     <x:t>77</x:t>
@@ -1479,19 +1470,19 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="D14" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="E14" s="1" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="F14" s="1" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="G14" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H14" s="1" t="s">
         <x:v>64</x:v>
-      </x:c>
-      <x:c r="G14" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="H14" s="1" t="s">
-        <x:v>31</x:v>
       </x:c>
       <x:c r="I14" s="1" t="s">
         <x:v>65</x:v>
@@ -1653,22 +1644,22 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="D20" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E20" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="F20" s="1" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="G20" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H20" s="1" t="s">
         <x:v>93</x:v>
       </x:c>
-      <x:c r="G20" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="H20" s="1" t="s">
+      <x:c r="I20" s="1" t="s">
         <x:v>94</x:v>
-      </x:c>
-      <x:c r="I20" s="1" t="s">
-        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1679,68 +1670,68 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C21" s="1" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="D21" s="1" t="s">
         <x:v>96</x:v>
       </x:c>
-      <x:c r="D21" s="1" t="s">
+      <x:c r="E21" s="1" t="s">
         <x:v>97</x:v>
       </x:c>
-      <x:c r="E21" s="1" t="s">
+      <x:c r="F21" s="1" t="s">
         <x:v>98</x:v>
       </x:c>
-      <x:c r="F21" s="1" t="s">
+      <x:c r="G21" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H21" s="1" t="s">
         <x:v>99</x:v>
       </x:c>
-      <x:c r="G21" s="1" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="H21" s="1" t="s">
+      <x:c r="I21" s="1" t="s">
         <x:v>100</x:v>
-      </x:c>
-      <x:c r="I21" s="1" t="s">
-        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
       <x:c r="A22" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="D22" s="1" t="s">
         <x:v>103</x:v>
       </x:c>
-      <x:c r="D22" s="1" t="s">
+      <x:c r="E22" s="1" t="s">
         <x:v>104</x:v>
       </x:c>
-      <x:c r="E22" s="1" t="s">
+      <x:c r="F22" s="1" t="s">
         <x:v>105</x:v>
       </x:c>
-      <x:c r="F22" s="1" t="s">
+      <x:c r="G22" s="1" t="s">
         <x:v>106</x:v>
       </x:c>
-      <x:c r="G22" s="1" t="s">
+      <x:c r="H22" s="1" t="s">
         <x:v>107</x:v>
       </x:c>
-      <x:c r="H22" s="1" t="s">
+      <x:c r="I22" s="1" t="s">
         <x:v>108</x:v>
-      </x:c>
-      <x:c r="I22" s="1" t="s">
-        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
       <x:c r="A23" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C23" s="1" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="D23" s="1" t="s">
         <x:v>110</x:v>
-      </x:c>
-      <x:c r="D23" s="1" t="s">
-        <x:v>111</x:v>
       </x:c>
       <x:c r="E23" s="1" t="s">
         <x:v>28</x:v>
@@ -1755,41 +1746,41 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="I23" s="1" t="s">
-        <x:v>112</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
       <x:c r="A24" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C24" s="1" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="D24" s="1" t="s">
         <x:v>113</x:v>
       </x:c>
-      <x:c r="D24" s="1" t="s">
+      <x:c r="E24" s="1" t="s">
         <x:v>114</x:v>
       </x:c>
-      <x:c r="E24" s="1" t="s">
+      <x:c r="F24" s="1" t="s">
         <x:v>115</x:v>
       </x:c>
-      <x:c r="F24" s="1" t="s">
+      <x:c r="G24" s="1" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="H24" s="1" t="s">
         <x:v>116</x:v>
       </x:c>
-      <x:c r="G24" s="1" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="H24" s="1" t="s">
+      <x:c r="I24" s="1" t="s">
         <x:v>117</x:v>
-      </x:c>
-      <x:c r="I24" s="1" t="s">
-        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
       <x:c r="A25" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
         <x:v>10</x:v>
@@ -1798,7 +1789,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="D25" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="E25" s="1" t="s">
         <x:v>13</x:v>
@@ -1810,24 +1801,24 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H25" s="1" t="s">
-        <x:v>107</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="I25" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
       <x:c r="A26" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C26" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="D26" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="E26" s="1" t="s">
         <x:v>19</x:v>
@@ -1847,7 +1838,7 @@
     </x:row>
     <x:row r="27" spans="1:9">
       <x:c r="A27" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
         <x:v>21</x:v>
@@ -1868,15 +1859,15 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H27" s="1" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="I27" s="1" t="s">
         <x:v>123</x:v>
-      </x:c>
-      <x:c r="I27" s="1" t="s">
-        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:9">
       <x:c r="A28" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
         <x:v>10</x:v>
@@ -1905,7 +1896,7 @@
     </x:row>
     <x:row r="29" spans="1:9">
       <x:c r="A29" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
         <x:v>21</x:v>
@@ -1934,42 +1925,42 @@
     </x:row>
     <x:row r="30" spans="1:9">
       <x:c r="A30" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C30" s="1" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="D30" s="1" t="s">
         <x:v>127</x:v>
       </x:c>
-      <x:c r="D30" s="1" t="s">
+      <x:c r="E30" s="1" t="s">
         <x:v>128</x:v>
       </x:c>
-      <x:c r="E30" s="1" t="s">
-        <x:v>129</x:v>
-      </x:c>
       <x:c r="F30" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="G30" s="1" t="s">
         <x:v>29</x:v>
       </x:c>
       <x:c r="H30" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="I30" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>130</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:9">
       <x:c r="A31" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C31" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="D31" s="1" t="s">
         <x:v>46</x:v>
@@ -1987,41 +1978,41 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="I31" s="1" t="s">
-        <x:v>134</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
       <x:c r="A32" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C32" s="1" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="D32" s="1" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="E32" s="1" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="F32" s="1" t="s">
         <x:v>135</x:v>
-      </x:c>
-      <x:c r="D32" s="1" t="s">
-        <x:v>136</x:v>
-      </x:c>
-      <x:c r="E32" s="1" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="F32" s="1" t="s">
-        <x:v>47</x:v>
       </x:c>
       <x:c r="G32" s="1" t="s">
         <x:v>29</x:v>
       </x:c>
       <x:c r="H32" s="1" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="I32" s="1" t="s">
         <x:v>137</x:v>
-      </x:c>
-      <x:c r="I32" s="1" t="s">
-        <x:v>138</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:9">
       <x:c r="A33" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
         <x:v>10</x:v>
@@ -2050,7 +2041,7 @@
     </x:row>
     <x:row r="34" spans="1:9">
       <x:c r="A34" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
         <x:v>17</x:v>
@@ -2079,7 +2070,7 @@
     </x:row>
     <x:row r="35" spans="1:9">
       <x:c r="A35" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
         <x:v>21</x:v>
@@ -2108,16 +2099,16 @@
     </x:row>
     <x:row r="36" spans="1:9">
       <x:c r="A36" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C36" s="1" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="D36" s="1" t="s">
         <x:v>141</x:v>
-      </x:c>
-      <x:c r="D36" s="1" t="s">
-        <x:v>142</x:v>
       </x:c>
       <x:c r="E36" s="1" t="s">
         <x:v>20</x:v>
@@ -2132,12 +2123,12 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="I36" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>142</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:9">
       <x:c r="A37" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
         <x:v>17</x:v>
@@ -2166,16 +2157,16 @@
     </x:row>
     <x:row r="38" spans="1:9">
       <x:c r="A38" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C38" s="1" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="D38" s="1" t="s">
         <x:v>144</x:v>
-      </x:c>
-      <x:c r="D38" s="1" t="s">
-        <x:v>145</x:v>
       </x:c>
       <x:c r="E38" s="1" t="s">
         <x:v>29</x:v>
@@ -2190,12 +2181,12 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="I38" s="1" t="s">
-        <x:v>115</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:9">
       <x:c r="A39" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
         <x:v>10</x:v>
@@ -2204,7 +2195,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="D39" s="1" t="s">
-        <x:v>147</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="E39" s="1" t="s">
         <x:v>18</x:v>
@@ -2224,7 +2215,7 @@
     </x:row>
     <x:row r="40" spans="1:9">
       <x:c r="A40" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
         <x:v>21</x:v>
@@ -2233,7 +2224,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="D40" s="1" t="s">
-        <x:v>147</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="E40" s="1" t="s">
         <x:v>18</x:v>
@@ -2253,16 +2244,16 @@
     </x:row>
     <x:row r="41" spans="1:9">
       <x:c r="A41" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C41" s="1" t="s">
-        <x:v>98</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D41" s="1" t="s">
-        <x:v>149</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="E41" s="1" t="s">
         <x:v>34</x:v>
@@ -2277,21 +2268,21 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="I41" s="1" t="s">
-        <x:v>150</x:v>
+        <x:v>149</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9">
       <x:c r="A42" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C42" s="1" t="s">
-        <x:v>98</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D42" s="1" t="s">
-        <x:v>149</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="E42" s="1" t="s">
         <x:v>34</x:v>
@@ -2306,30 +2297,30 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="I42" s="1" t="s">
-        <x:v>150</x:v>
+        <x:v>149</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:9">
       <x:c r="A43" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C43" s="1" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="D43" s="1" t="s">
         <x:v>152</x:v>
       </x:c>
-      <x:c r="D43" s="1" t="s">
+      <x:c r="E43" s="1" t="s">
         <x:v>153</x:v>
       </x:c>
-      <x:c r="E43" s="1" t="s">
+      <x:c r="F43" s="1" t="s">
         <x:v>154</x:v>
       </x:c>
-      <x:c r="F43" s="1" t="s">
+      <x:c r="G43" s="1" t="s">
         <x:v>155</x:v>
-      </x:c>
-      <x:c r="G43" s="1" t="s">
-        <x:v>93</x:v>
       </x:c>
       <x:c r="H43" s="1" t="s">
         <x:v>156</x:v>
@@ -2340,7 +2331,7 @@
     </x:row>
     <x:row r="44" spans="1:9">
       <x:c r="A44" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
         <x:v>17</x:v>
@@ -2352,7 +2343,7 @@
         <x:v>159</x:v>
       </x:c>
       <x:c r="E44" s="1" t="s">
-        <x:v>144</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="F44" s="1" t="s">
         <x:v>160</x:v>
@@ -2369,7 +2360,7 @@
     </x:row>
     <x:row r="45" spans="1:9">
       <x:c r="A45" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
         <x:v>21</x:v>
@@ -2387,47 +2378,47 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="G45" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="H45" s="1" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="I45" s="1" t="s">
         <x:v>167</x:v>
-      </x:c>
-      <x:c r="I45" s="1" t="s">
-        <x:v>168</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
       <x:c r="A46" s="0" t="s">
-        <x:v>169</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C46" s="1" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="D46" s="1" t="s">
         <x:v>170</x:v>
       </x:c>
-      <x:c r="D46" s="1" t="s">
-        <x:v>171</x:v>
-      </x:c>
       <x:c r="E46" s="1" t="s">
-        <x:v>107</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="F46" s="1" t="s">
-        <x:v>98</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="G46" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H46" s="1" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="I46" s="1" t="s">
         <x:v>172</x:v>
-      </x:c>
-      <x:c r="I46" s="1" t="s">
-        <x:v>173</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
       <x:c r="A47" s="0" t="s">
-        <x:v>169</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
         <x:v>17</x:v>
@@ -2436,13 +2427,13 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="D47" s="1" t="s">
-        <x:v>150</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="E47" s="1" t="s">
         <x:v>34</x:v>
       </x:c>
       <x:c r="F47" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G47" s="1" t="s">
         <x:v>14</x:v>
@@ -2451,24 +2442,24 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="I47" s="1" t="s">
-        <x:v>174</x:v>
+        <x:v>173</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
       <x:c r="A48" s="0" t="s">
-        <x:v>169</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C48" s="1" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="D48" s="1" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="E48" s="1" t="s">
         <x:v>175</x:v>
-      </x:c>
-      <x:c r="D48" s="1" t="s">
-        <x:v>176</x:v>
-      </x:c>
-      <x:c r="E48" s="1" t="s">
-        <x:v>177</x:v>
       </x:c>
       <x:c r="F48" s="1" t="s">
         <x:v>160</x:v>
@@ -2477,21 +2468,21 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="H48" s="1" t="s">
-        <x:v>178</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="I48" s="1" t="s">
-        <x:v>179</x:v>
+        <x:v>177</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:9">
       <x:c r="A49" s="0" t="s">
-        <x:v>180</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C49" s="1" t="s">
-        <x:v>181</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D49" s="1" t="s">
         <x:v>15</x:v>
@@ -2506,15 +2497,15 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H49" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="I49" s="1" t="s">
-        <x:v>182</x:v>
+        <x:v>179</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:9">
       <x:c r="A50" s="0" t="s">
-        <x:v>180</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
         <x:v>17</x:v>
@@ -2535,21 +2526,21 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H50" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="I50" s="1" t="s">
-        <x:v>183</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:9">
       <x:c r="A51" s="0" t="s">
-        <x:v>180</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C51" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D51" s="1" t="s">
         <x:v>74</x:v>
@@ -2564,21 +2555,21 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H51" s="1" t="s">
-        <x:v>183</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="I51" s="1" t="s">
-        <x:v>185</x:v>
+        <x:v>180</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:9">
       <x:c r="A52" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C52" s="1" t="s">
-        <x:v>187</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="D52" s="1" t="s">
         <x:v>14</x:v>
@@ -2596,18 +2587,18 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="I52" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:9">
       <x:c r="A53" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C53" s="1" t="s">
-        <x:v>187</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="D53" s="1" t="s">
         <x:v>14</x:v>
@@ -2625,53 +2616,53 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="I53" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:9">
       <x:c r="A54" s="0" t="s">
-        <x:v>188</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C54" s="1" t="s">
-        <x:v>110</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="D54" s="1" t="s">
-        <x:v>189</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="E54" s="1" t="s">
         <x:v>29</x:v>
       </x:c>
       <x:c r="F54" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="G54" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="H54" s="1" t="s">
-        <x:v>177</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="I54" s="1" t="s">
-        <x:v>190</x:v>
+        <x:v>185</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:9">
       <x:c r="A55" s="0" t="s">
-        <x:v>188</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C55" s="1" t="s">
-        <x:v>107</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="D55" s="1" t="s">
         <x:v>65</x:v>
       </x:c>
       <x:c r="E55" s="1" t="s">
-        <x:v>147</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="F55" s="1" t="s">
         <x:v>78</x:v>
@@ -2680,24 +2671,24 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H55" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="I55" s="1" t="s">
-        <x:v>191</x:v>
+        <x:v>186</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:9">
       <x:c r="A56" s="0" t="s">
-        <x:v>188</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C56" s="1" t="s">
-        <x:v>192</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="D56" s="1" t="s">
-        <x:v>193</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="E56" s="1" t="s">
         <x:v>75</x:v>
@@ -2709,27 +2700,27 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H56" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="I56" s="1" t="s">
-        <x:v>194</x:v>
+        <x:v>189</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:9">
       <x:c r="A57" s="0" t="s">
-        <x:v>195</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C57" s="1" t="s">
-        <x:v>196</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="D57" s="1" t="s">
-        <x:v>197</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="E57" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="F57" s="1" t="s">
         <x:v>74</x:v>
@@ -2738,15 +2729,15 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="H57" s="1" t="s">
-        <x:v>198</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="I57" s="1" t="s">
-        <x:v>155</x:v>
+        <x:v>194</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:9">
       <x:c r="A58" s="0" t="s">
-        <x:v>195</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
         <x:v>17</x:v>
@@ -2755,7 +2746,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="D58" s="1" t="s">
-        <x:v>177</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="E58" s="1" t="s">
         <x:v>13</x:v>
@@ -2767,27 +2758,27 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H58" s="1" t="s">
-        <x:v>144</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="I58" s="1" t="s">
-        <x:v>199</x:v>
+        <x:v>195</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">
       <x:c r="A59" s="0" t="s">
-        <x:v>195</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C59" s="1" t="s">
-        <x:v>200</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="D59" s="1" t="s">
-        <x:v>201</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="E59" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F59" s="1" t="s">
         <x:v>12</x:v>
@@ -2796,59 +2787,59 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="H59" s="1" t="s">
-        <x:v>182</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="I59" s="1" t="s">
-        <x:v>202</x:v>
+        <x:v>199</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9">
       <x:c r="A60" s="0" t="s">
-        <x:v>203</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C60" s="1" t="s">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="D60" s="1" t="s">
+        <x:v>202</x:v>
+      </x:c>
+      <x:c r="E60" s="1" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="F60" s="1" t="s">
         <x:v>204</x:v>
-      </x:c>
-      <x:c r="D60" s="1" t="s">
-        <x:v>205</x:v>
-      </x:c>
-      <x:c r="E60" s="1" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="F60" s="1" t="s">
-        <x:v>206</x:v>
       </x:c>
       <x:c r="G60" s="1" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H60" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="I60" s="1" t="s">
-        <x:v>207</x:v>
+        <x:v>205</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">
       <x:c r="A61" s="0" t="s">
-        <x:v>203</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C61" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="D61" s="1" t="s">
-        <x:v>208</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="E61" s="1" t="s">
         <x:v>78</x:v>
       </x:c>
       <x:c r="F61" s="1" t="s">
-        <x:v>187</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="G61" s="1" t="s">
         <x:v>19</x:v>
@@ -2857,79 +2848,79 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="I61" s="1" t="s">
-        <x:v>209</x:v>
+        <x:v>207</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
       <x:c r="A62" s="0" t="s">
-        <x:v>203</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C62" s="1" t="s">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="D62" s="1" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="E62" s="1" t="s">
         <x:v>210</x:v>
       </x:c>
-      <x:c r="D62" s="1" t="s">
+      <x:c r="F62" s="1" t="s">
         <x:v>211</x:v>
-      </x:c>
-      <x:c r="E62" s="1" t="s">
-        <x:v>212</x:v>
-      </x:c>
-      <x:c r="F62" s="1" t="s">
-        <x:v>213</x:v>
       </x:c>
       <x:c r="G62" s="1" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H62" s="1" t="s">
-        <x:v>214</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="I62" s="1" t="s">
-        <x:v>215</x:v>
+        <x:v>212</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:9">
       <x:c r="A63" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C63" s="1" t="s">
+        <x:v>214</x:v>
+      </x:c>
+      <x:c r="D63" s="1" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="E63" s="1" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="F63" s="1" t="s">
+        <x:v>216</x:v>
+      </x:c>
+      <x:c r="G63" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H63" s="1" t="s">
         <x:v>217</x:v>
       </x:c>
-      <x:c r="D63" s="1" t="s">
+      <x:c r="I63" s="1" t="s">
         <x:v>218</x:v>
-      </x:c>
-      <x:c r="E63" s="1" t="s">
-        <x:v>172</x:v>
-      </x:c>
-      <x:c r="F63" s="1" t="s">
-        <x:v>219</x:v>
-      </x:c>
-      <x:c r="G63" s="1" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="H63" s="1" t="s">
-        <x:v>220</x:v>
-      </x:c>
-      <x:c r="I63" s="1" t="s">
-        <x:v>221</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:9">
       <x:c r="A64" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C64" s="1" t="s">
-        <x:v>178</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D64" s="1" t="s">
-        <x:v>222</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="E64" s="1" t="s">
         <x:v>78</x:v>
@@ -2944,36 +2935,36 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="I64" s="1" t="s">
-        <x:v>223</x:v>
+        <x:v>220</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:9">
       <x:c r="A65" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C65" s="1" t="s">
-        <x:v>224</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="D65" s="1" t="s">
-        <x:v>225</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="E65" s="1" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="F65" s="1" t="s">
-        <x:v>226</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="G65" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H65" s="1" t="s">
-        <x:v>227</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="I65" s="1" t="s">
-        <x:v>228</x:v>
+        <x:v>225</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -127,7 +127,7 @@
     <x:t>Assault Offenses</x:t>
   </x:si>
   <x:si>
-    <x:t>7078</x:t>
+    <x:t>7079</x:t>
   </x:si>
   <x:si>
     <x:t>4323</x:t>
@@ -136,529 +136,538 @@
     <x:t>343</x:t>
   </x:si>
   <x:si>
-    <x:t>641</x:t>
+    <x:t>640</x:t>
   </x:si>
   <x:si>
     <x:t>27</x:t>
   </x:si>
   <x:si>
-    <x:t>1374</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13786</x:t>
+    <x:t>1375</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13787</x:t>
   </x:si>
   <x:si>
     <x:t>835</x:t>
   </x:si>
   <x:si>
-    <x:t>707</x:t>
+    <x:t>708</x:t>
   </x:si>
   <x:si>
     <x:t>34</x:t>
   </x:si>
   <x:si>
+    <x:t>153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>253</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1987</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7914</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5031</x:t>
+  </x:si>
+  <x:si>
+    <x:t>377</x:t>
+  </x:si>
+  <x:si>
+    <x:t>793</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1628</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15774</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bribery</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Burglary/Breaking &amp; Entering</x:t>
+  </x:si>
+  <x:si>
+    <x:t>726</x:t>
+  </x:si>
+  <x:si>
+    <x:t>535</x:t>
+  </x:si>
+  <x:si>
+    <x:t>42</x:t>
+  </x:si>
+  <x:si>
+    <x:t>119</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1519</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>142</x:t>
+  </x:si>
+  <x:si>
+    <x:t>788</x:t>
+  </x:si>
+  <x:si>
+    <x:t>577</x:t>
+  </x:si>
+  <x:si>
+    <x:t>45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>130</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1661</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Counterfeiting/Forgery</x:t>
+  </x:si>
+  <x:si>
+    <x:t>270</x:t>
+  </x:si>
+  <x:si>
+    <x:t>135</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>488</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>273</x:t>
+  </x:si>
+  <x:si>
+    <x:t>144</x:t>
+  </x:si>
+  <x:si>
+    <x:t>49</x:t>
+  </x:si>
+  <x:si>
+    <x:t>501</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Destruction/Damage/Vandalism of Property</x:t>
+  </x:si>
+  <x:si>
+    <x:t>820</x:t>
+  </x:si>
+  <x:si>
+    <x:t>419</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>88</x:t>
+  </x:si>
+  <x:si>
+    <x:t>170</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1535</x:t>
+  </x:si>
+  <x:si>
+    <x:t>196</x:t>
+  </x:si>
+  <x:si>
+    <x:t>44</x:t>
+  </x:si>
+  <x:si>
+    <x:t>364</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1016</x:t>
+  </x:si>
+  <x:si>
+    <x:t>514</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>115</x:t>
+  </x:si>
+  <x:si>
+    <x:t>214</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1899</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Drug/Narcotic Violations</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3725</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1889</x:t>
+  </x:si>
+  <x:si>
+    <x:t>141</x:t>
+  </x:si>
+  <x:si>
+    <x:t>524</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>841</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7139</x:t>
+  </x:si>
+  <x:si>
+    <x:t>93</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>162</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3818</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1918</x:t>
+  </x:si>
+  <x:si>
+    <x:t>149</x:t>
+  </x:si>
+  <x:si>
+    <x:t>526</x:t>
+  </x:si>
+  <x:si>
+    <x:t>871</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7301</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Embezzlement</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>65</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>83</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Extortion/Blackmail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fraud Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>914</x:t>
+  </x:si>
+  <x:si>
+    <x:t>702</x:t>
+  </x:si>
+  <x:si>
+    <x:t>61</x:t>
+  </x:si>
+  <x:si>
+    <x:t>264</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2088</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>81</x:t>
+  </x:si>
+  <x:si>
+    <x:t>940</x:t>
+  </x:si>
+  <x:si>
+    <x:t>736</x:t>
+  </x:si>
+  <x:si>
+    <x:t>148</x:t>
+  </x:si>
+  <x:si>
+    <x:t>279</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2169</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gambling Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Homicide Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32</x:t>
+  </x:si>
+  <x:si>
+    <x:t>75</x:t>
+  </x:si>
+  <x:si>
+    <x:t>131</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>84</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Human Trafficking</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kidnapping/Abduction</x:t>
+  </x:si>
+  <x:si>
+    <x:t>43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>105</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Larceny/Theft Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7085</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4570</x:t>
+  </x:si>
+  <x:si>
+    <x:t>275</x:t>
+  </x:si>
+  <x:si>
+    <x:t>765</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1387</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14104</x:t>
+  </x:si>
+  <x:si>
+    <x:t>672</x:t>
+  </x:si>
+  <x:si>
+    <x:t>573</x:t>
+  </x:si>
+  <x:si>
+    <x:t>55</x:t>
+  </x:si>
+  <x:si>
+    <x:t>147</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1483</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7757</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5143</x:t>
+  </x:si>
+  <x:si>
+    <x:t>310</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1534</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15587</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Motor Vehicle Theft</x:t>
+  </x:si>
+  <x:si>
+    <x:t>242</x:t>
+  </x:si>
+  <x:si>
+    <x:t>157</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>509</x:t>
+  </x:si>
+  <x:si>
+    <x:t>171</x:t>
+  </x:si>
+  <x:si>
+    <x:t>276</x:t>
+  </x:si>
+  <x:si>
+    <x:t>262</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>54</x:t>
+  </x:si>
+  <x:si>
+    <x:t>60</x:t>
+  </x:si>
+  <x:si>
+    <x:t>680</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pornography/Obscene Material</x:t>
+  </x:si>
+  <x:si>
+    <x:t>140</x:t>
+  </x:si>
+  <x:si>
+    <x:t>169</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Prostitution Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Robbery</x:t>
+  </x:si>
+  <x:si>
+    <x:t>92</x:t>
+  </x:si>
+  <x:si>
+    <x:t>336</x:t>
+  </x:si>
+  <x:si>
+    <x:t>479</x:t>
+  </x:si>
+  <x:si>
+    <x:t>189</x:t>
+  </x:si>
+  <x:si>
+    <x:t>111</x:t>
+  </x:si>
+  <x:si>
+    <x:t>478</x:t>
+  </x:si>
+  <x:si>
+    <x:t>668</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sex Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>415</x:t>
+  </x:si>
+  <x:si>
+    <x:t>201</x:t>
+  </x:si>
+  <x:si>
+    <x:t>104</x:t>
+  </x:si>
+  <x:si>
+    <x:t>762</x:t>
+  </x:si>
+  <x:si>
+    <x:t>126</x:t>
+  </x:si>
+  <x:si>
+    <x:t>477</x:t>
+  </x:si>
+  <x:si>
+    <x:t>226</x:t>
+  </x:si>
+  <x:si>
+    <x:t>139</x:t>
+  </x:si>
+  <x:si>
+    <x:t>888</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stolen Property Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>491</x:t>
+  </x:si>
+  <x:si>
+    <x:t>431</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>69</x:t>
+  </x:si>
+  <x:si>
+    <x:t>132</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1164</x:t>
+  </x:si>
+  <x:si>
+    <x:t>125</x:t>
+  </x:si>
+  <x:si>
+    <x:t>185</x:t>
+  </x:si>
+  <x:si>
+    <x:t>513</x:t>
+  </x:si>
+  <x:si>
+    <x:t>556</x:t>
+  </x:si>
+  <x:si>
+    <x:t>47</x:t>
+  </x:si>
+  <x:si>
+    <x:t>80</x:t>
+  </x:si>
+  <x:si>
     <x:t>150</x:t>
   </x:si>
   <x:si>
-    <x:t>253</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1983</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7913</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5030</x:t>
-  </x:si>
-  <x:si>
-    <x:t>377</x:t>
-  </x:si>
-  <x:si>
-    <x:t>791</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1627</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15769</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bribery</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Burglary/Breaking &amp; Entering</x:t>
-  </x:si>
-  <x:si>
-    <x:t>725</x:t>
-  </x:si>
-  <x:si>
-    <x:t>535</x:t>
-  </x:si>
-  <x:si>
-    <x:t>42</x:t>
-  </x:si>
-  <x:si>
-    <x:t>119</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1518</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>142</x:t>
-  </x:si>
-  <x:si>
-    <x:t>787</x:t>
-  </x:si>
-  <x:si>
-    <x:t>577</x:t>
-  </x:si>
-  <x:si>
-    <x:t>45</x:t>
-  </x:si>
-  <x:si>
-    <x:t>130</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1660</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Counterfeiting/Forgery</x:t>
-  </x:si>
-  <x:si>
-    <x:t>269</x:t>
-  </x:si>
-  <x:si>
-    <x:t>135</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>48</x:t>
-  </x:si>
-  <x:si>
-    <x:t>487</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13</x:t>
-  </x:si>
-  <x:si>
-    <x:t>272</x:t>
-  </x:si>
-  <x:si>
-    <x:t>144</x:t>
-  </x:si>
-  <x:si>
-    <x:t>49</x:t>
-  </x:si>
-  <x:si>
-    <x:t>500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Destruction/Damage/Vandalism of Property</x:t>
-  </x:si>
-  <x:si>
-    <x:t>820</x:t>
-  </x:si>
-  <x:si>
-    <x:t>418</x:t>
-  </x:si>
-  <x:si>
-    <x:t>37</x:t>
-  </x:si>
-  <x:si>
-    <x:t>88</x:t>
-  </x:si>
-  <x:si>
-    <x:t>170</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1534</x:t>
-  </x:si>
-  <x:si>
-    <x:t>196</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>44</x:t>
-  </x:si>
-  <x:si>
-    <x:t>365</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1016</x:t>
-  </x:si>
-  <x:si>
-    <x:t>513</x:t>
-  </x:si>
-  <x:si>
-    <x:t>39</x:t>
-  </x:si>
-  <x:si>
-    <x:t>116</x:t>
-  </x:si>
-  <x:si>
-    <x:t>214</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1899</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Drug/Narcotic Violations</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3722</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1889</x:t>
-  </x:si>
-  <x:si>
-    <x:t>141</x:t>
-  </x:si>
-  <x:si>
-    <x:t>524</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19</x:t>
-  </x:si>
-  <x:si>
-    <x:t>840</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7135</x:t>
-  </x:si>
-  <x:si>
-    <x:t>93</x:t>
-  </x:si>
-  <x:si>
-    <x:t>29</x:t>
-  </x:si>
-  <x:si>
-    <x:t>162</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3815</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1918</x:t>
-  </x:si>
-  <x:si>
-    <x:t>149</x:t>
-  </x:si>
-  <x:si>
-    <x:t>526</x:t>
-  </x:si>
-  <x:si>
-    <x:t>870</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7297</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Embezzlement</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>65</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23</x:t>
-  </x:si>
-  <x:si>
-    <x:t>83</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Extortion/Blackmail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fraud Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>914</x:t>
-  </x:si>
-  <x:si>
-    <x:t>702</x:t>
-  </x:si>
-  <x:si>
-    <x:t>61</x:t>
-  </x:si>
-  <x:si>
-    <x:t>264</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2088</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>81</x:t>
-  </x:si>
-  <x:si>
-    <x:t>940</x:t>
-  </x:si>
-  <x:si>
-    <x:t>736</x:t>
-  </x:si>
-  <x:si>
-    <x:t>148</x:t>
-  </x:si>
-  <x:si>
-    <x:t>279</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2169</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gambling Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Homicide Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>32</x:t>
-  </x:si>
-  <x:si>
-    <x:t>75</x:t>
-  </x:si>
-  <x:si>
-    <x:t>132</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35</x:t>
-  </x:si>
-  <x:si>
-    <x:t>84</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Human Trafficking</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kidnapping/Abduction</x:t>
-  </x:si>
-  <x:si>
-    <x:t>43</x:t>
-  </x:si>
-  <x:si>
-    <x:t>105</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Larceny/Theft Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7084</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4570</x:t>
-  </x:si>
-  <x:si>
-    <x:t>275</x:t>
-  </x:si>
-  <x:si>
-    <x:t>765</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1387</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14103</x:t>
-  </x:si>
-  <x:si>
-    <x:t>672</x:t>
-  </x:si>
-  <x:si>
-    <x:t>573</x:t>
-  </x:si>
-  <x:si>
-    <x:t>54</x:t>
-  </x:si>
-  <x:si>
-    <x:t>147</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1482</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7756</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5143</x:t>
-  </x:si>
-  <x:si>
-    <x:t>310</x:t>
-  </x:si>
-  <x:si>
-    <x:t>819</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15585</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Motor Vehicle Theft</x:t>
-  </x:si>
-  <x:si>
-    <x:t>241</x:t>
-  </x:si>
-  <x:si>
-    <x:t>157</x:t>
-  </x:si>
-  <x:si>
-    <x:t>50</x:t>
-  </x:si>
-  <x:si>
-    <x:t>508</x:t>
-  </x:si>
-  <x:si>
-    <x:t>171</x:t>
-  </x:si>
-  <x:si>
-    <x:t>262</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>60</x:t>
-  </x:si>
-  <x:si>
-    <x:t>679</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pornography/Obscene Material</x:t>
-  </x:si>
-  <x:si>
-    <x:t>140</x:t>
-  </x:si>
-  <x:si>
-    <x:t>169</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Prostitution Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Robbery</x:t>
-  </x:si>
-  <x:si>
-    <x:t>92</x:t>
-  </x:si>
-  <x:si>
-    <x:t>336</x:t>
-  </x:si>
-  <x:si>
-    <x:t>480</x:t>
-  </x:si>
-  <x:si>
-    <x:t>189</x:t>
-  </x:si>
-  <x:si>
-    <x:t>111</x:t>
-  </x:si>
-  <x:si>
-    <x:t>478</x:t>
-  </x:si>
-  <x:si>
-    <x:t>669</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sex Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>415</x:t>
-  </x:si>
-  <x:si>
-    <x:t>201</x:t>
-  </x:si>
-  <x:si>
-    <x:t>104</x:t>
-  </x:si>
-  <x:si>
-    <x:t>762</x:t>
-  </x:si>
-  <x:si>
-    <x:t>126</x:t>
-  </x:si>
-  <x:si>
-    <x:t>477</x:t>
-  </x:si>
-  <x:si>
-    <x:t>226</x:t>
-  </x:si>
-  <x:si>
-    <x:t>139</x:t>
-  </x:si>
-  <x:si>
-    <x:t>888</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stolen Property Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>489</x:t>
-  </x:si>
-  <x:si>
-    <x:t>431</x:t>
-  </x:si>
-  <x:si>
-    <x:t>38</x:t>
-  </x:si>
-  <x:si>
-    <x:t>69</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1162</x:t>
-  </x:si>
-  <x:si>
-    <x:t>125</x:t>
-  </x:si>
-  <x:si>
-    <x:t>185</x:t>
-  </x:si>
-  <x:si>
-    <x:t>511</x:t>
-  </x:si>
-  <x:si>
-    <x:t>556</x:t>
-  </x:si>
-  <x:si>
-    <x:t>47</x:t>
-  </x:si>
-  <x:si>
-    <x:t>80</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1347</x:t>
+    <x:t>1349</x:t>
   </x:si>
   <x:si>
     <x:t>Weapon Law Violations</x:t>
   </x:si>
   <x:si>
-    <x:t>655</x:t>
+    <x:t>654</x:t>
   </x:si>
   <x:si>
     <x:t>890</x:t>
@@ -670,7 +679,7 @@
     <x:t>351</x:t>
   </x:si>
   <x:si>
-    <x:t>2015</x:t>
+    <x:t>2014</x:t>
   </x:si>
   <x:si>
     <x:t>163</x:t>
@@ -679,7 +688,7 @@
     <x:t>267</x:t>
   </x:si>
   <x:si>
-    <x:t>714</x:t>
+    <x:t>713</x:t>
   </x:si>
   <x:si>
     <x:t>1053</x:t>
@@ -691,7 +700,7 @@
     <x:t>378</x:t>
   </x:si>
   <x:si>
-    <x:t>2282</x:t>
+    <x:t>2281</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1650,16 +1659,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="F20" s="1" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="G20" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H20" s="1" t="s">
         <x:v>92</x:v>
       </x:c>
-      <x:c r="G20" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="H20" s="1" t="s">
+      <x:c r="I20" s="1" t="s">
         <x:v>93</x:v>
-      </x:c>
-      <x:c r="I20" s="1" t="s">
-        <x:v>94</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1670,68 +1679,68 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C21" s="1" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="D21" s="1" t="s">
         <x:v>95</x:v>
       </x:c>
-      <x:c r="D21" s="1" t="s">
+      <x:c r="E21" s="1" t="s">
         <x:v>96</x:v>
       </x:c>
-      <x:c r="E21" s="1" t="s">
+      <x:c r="F21" s="1" t="s">
         <x:v>97</x:v>
       </x:c>
-      <x:c r="F21" s="1" t="s">
+      <x:c r="G21" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H21" s="1" t="s">
         <x:v>98</x:v>
       </x:c>
-      <x:c r="G21" s="1" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="H21" s="1" t="s">
+      <x:c r="I21" s="1" t="s">
         <x:v>99</x:v>
-      </x:c>
-      <x:c r="I21" s="1" t="s">
-        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
       <x:c r="A22" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="D22" s="1" t="s">
         <x:v>102</x:v>
       </x:c>
-      <x:c r="D22" s="1" t="s">
+      <x:c r="E22" s="1" t="s">
         <x:v>103</x:v>
       </x:c>
-      <x:c r="E22" s="1" t="s">
+      <x:c r="F22" s="1" t="s">
         <x:v>104</x:v>
       </x:c>
-      <x:c r="F22" s="1" t="s">
+      <x:c r="G22" s="1" t="s">
         <x:v>105</x:v>
       </x:c>
-      <x:c r="G22" s="1" t="s">
+      <x:c r="H22" s="1" t="s">
         <x:v>106</x:v>
       </x:c>
-      <x:c r="H22" s="1" t="s">
+      <x:c r="I22" s="1" t="s">
         <x:v>107</x:v>
-      </x:c>
-      <x:c r="I22" s="1" t="s">
-        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
       <x:c r="A23" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C23" s="1" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="D23" s="1" t="s">
         <x:v>109</x:v>
-      </x:c>
-      <x:c r="D23" s="1" t="s">
-        <x:v>110</x:v>
       </x:c>
       <x:c r="E23" s="1" t="s">
         <x:v>28</x:v>
@@ -1746,41 +1755,41 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="I23" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
       <x:c r="A24" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C24" s="1" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="D24" s="1" t="s">
         <x:v>112</x:v>
       </x:c>
-      <x:c r="D24" s="1" t="s">
+      <x:c r="E24" s="1" t="s">
         <x:v>113</x:v>
       </x:c>
-      <x:c r="E24" s="1" t="s">
+      <x:c r="F24" s="1" t="s">
         <x:v>114</x:v>
       </x:c>
-      <x:c r="F24" s="1" t="s">
+      <x:c r="G24" s="1" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="H24" s="1" t="s">
         <x:v>115</x:v>
       </x:c>
-      <x:c r="G24" s="1" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="H24" s="1" t="s">
+      <x:c r="I24" s="1" t="s">
         <x:v>116</x:v>
-      </x:c>
-      <x:c r="I24" s="1" t="s">
-        <x:v>117</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
       <x:c r="A25" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
         <x:v>10</x:v>
@@ -1789,7 +1798,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="D25" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="E25" s="1" t="s">
         <x:v>13</x:v>
@@ -1801,24 +1810,24 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H25" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="I25" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
       <x:c r="A26" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C26" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D26" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="E26" s="1" t="s">
         <x:v>19</x:v>
@@ -1838,7 +1847,7 @@
     </x:row>
     <x:row r="27" spans="1:9">
       <x:c r="A27" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
         <x:v>21</x:v>
@@ -1859,15 +1868,15 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H27" s="1" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="I27" s="1" t="s">
         <x:v>122</x:v>
-      </x:c>
-      <x:c r="I27" s="1" t="s">
-        <x:v>123</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:9">
       <x:c r="A28" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
         <x:v>10</x:v>
@@ -1896,7 +1905,7 @@
     </x:row>
     <x:row r="29" spans="1:9">
       <x:c r="A29" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
         <x:v>21</x:v>
@@ -1925,19 +1934,19 @@
     </x:row>
     <x:row r="30" spans="1:9">
       <x:c r="A30" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C30" s="1" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="D30" s="1" t="s">
         <x:v>126</x:v>
       </x:c>
-      <x:c r="D30" s="1" t="s">
+      <x:c r="E30" s="1" t="s">
         <x:v>127</x:v>
-      </x:c>
-      <x:c r="E30" s="1" t="s">
-        <x:v>128</x:v>
       </x:c>
       <x:c r="F30" s="1" t="s">
         <x:v>65</x:v>
@@ -1946,21 +1955,21 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="H30" s="1" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="I30" s="1" t="s">
         <x:v>129</x:v>
-      </x:c>
-      <x:c r="I30" s="1" t="s">
-        <x:v>130</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:9">
       <x:c r="A31" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C31" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="D31" s="1" t="s">
         <x:v>46</x:v>
@@ -1978,41 +1987,41 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="I31" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>131</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
       <x:c r="A32" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C32" s="1" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="D32" s="1" t="s">
         <x:v>133</x:v>
       </x:c>
-      <x:c r="D32" s="1" t="s">
+      <x:c r="E32" s="1" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="F32" s="1" t="s">
         <x:v>134</x:v>
-      </x:c>
-      <x:c r="E32" s="1" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="F32" s="1" t="s">
-        <x:v>135</x:v>
       </x:c>
       <x:c r="G32" s="1" t="s">
         <x:v>29</x:v>
       </x:c>
       <x:c r="H32" s="1" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="I32" s="1" t="s">
         <x:v>136</x:v>
-      </x:c>
-      <x:c r="I32" s="1" t="s">
-        <x:v>137</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:9">
       <x:c r="A33" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
         <x:v>10</x:v>
@@ -2041,7 +2050,7 @@
     </x:row>
     <x:row r="34" spans="1:9">
       <x:c r="A34" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
         <x:v>17</x:v>
@@ -2070,7 +2079,7 @@
     </x:row>
     <x:row r="35" spans="1:9">
       <x:c r="A35" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
         <x:v>21</x:v>
@@ -2099,16 +2108,16 @@
     </x:row>
     <x:row r="36" spans="1:9">
       <x:c r="A36" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C36" s="1" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="D36" s="1" t="s">
         <x:v>140</x:v>
-      </x:c>
-      <x:c r="D36" s="1" t="s">
-        <x:v>141</x:v>
       </x:c>
       <x:c r="E36" s="1" t="s">
         <x:v>20</x:v>
@@ -2120,15 +2129,15 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H36" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="I36" s="1" t="s">
-        <x:v>142</x:v>
+        <x:v>141</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:9">
       <x:c r="A37" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
         <x:v>17</x:v>
@@ -2157,16 +2166,16 @@
     </x:row>
     <x:row r="38" spans="1:9">
       <x:c r="A38" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C38" s="1" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="D38" s="1" t="s">
         <x:v>143</x:v>
-      </x:c>
-      <x:c r="D38" s="1" t="s">
-        <x:v>144</x:v>
       </x:c>
       <x:c r="E38" s="1" t="s">
         <x:v>29</x:v>
@@ -2178,15 +2187,15 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H38" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="I38" s="1" t="s">
-        <x:v>114</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:9">
       <x:c r="A39" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
         <x:v>10</x:v>
@@ -2195,7 +2204,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="D39" s="1" t="s">
-        <x:v>146</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="E39" s="1" t="s">
         <x:v>18</x:v>
@@ -2215,7 +2224,7 @@
     </x:row>
     <x:row r="40" spans="1:9">
       <x:c r="A40" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
         <x:v>21</x:v>
@@ -2224,7 +2233,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="D40" s="1" t="s">
-        <x:v>146</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="E40" s="1" t="s">
         <x:v>18</x:v>
@@ -2244,16 +2253,16 @@
     </x:row>
     <x:row r="41" spans="1:9">
       <x:c r="A41" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C41" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D41" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="E41" s="1" t="s">
         <x:v>34</x:v>
@@ -2268,21 +2277,21 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="I41" s="1" t="s">
-        <x:v>149</x:v>
+        <x:v>148</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9">
       <x:c r="A42" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C42" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D42" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="E42" s="1" t="s">
         <x:v>34</x:v>
@@ -2297,128 +2306,128 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="I42" s="1" t="s">
-        <x:v>149</x:v>
+        <x:v>148</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:9">
       <x:c r="A43" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C43" s="1" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="D43" s="1" t="s">
         <x:v>151</x:v>
       </x:c>
-      <x:c r="D43" s="1" t="s">
+      <x:c r="E43" s="1" t="s">
         <x:v>152</x:v>
       </x:c>
-      <x:c r="E43" s="1" t="s">
+      <x:c r="F43" s="1" t="s">
         <x:v>153</x:v>
       </x:c>
-      <x:c r="F43" s="1" t="s">
+      <x:c r="G43" s="1" t="s">
         <x:v>154</x:v>
       </x:c>
-      <x:c r="G43" s="1" t="s">
+      <x:c r="H43" s="1" t="s">
         <x:v>155</x:v>
       </x:c>
-      <x:c r="H43" s="1" t="s">
+      <x:c r="I43" s="1" t="s">
         <x:v>156</x:v>
-      </x:c>
-      <x:c r="I43" s="1" t="s">
-        <x:v>157</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:9">
       <x:c r="A44" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C44" s="1" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D44" s="1" t="s">
         <x:v>158</x:v>
       </x:c>
-      <x:c r="D44" s="1" t="s">
+      <x:c r="E44" s="1" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="F44" s="1" t="s">
         <x:v>159</x:v>
       </x:c>
-      <x:c r="E44" s="1" t="s">
-        <x:v>143</x:v>
-      </x:c>
-      <x:c r="F44" s="1" t="s">
+      <x:c r="G44" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H44" s="1" t="s">
         <x:v>160</x:v>
       </x:c>
-      <x:c r="G44" s="1" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="H44" s="1" t="s">
+      <x:c r="I44" s="1" t="s">
         <x:v>161</x:v>
-      </x:c>
-      <x:c r="I44" s="1" t="s">
-        <x:v>162</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:9">
       <x:c r="A45" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C45" s="1" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="D45" s="1" t="s">
         <x:v>163</x:v>
       </x:c>
-      <x:c r="D45" s="1" t="s">
+      <x:c r="E45" s="1" t="s">
         <x:v>164</x:v>
       </x:c>
-      <x:c r="E45" s="1" t="s">
+      <x:c r="F45" s="1" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="G45" s="1" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="H45" s="1" t="s">
         <x:v>165</x:v>
       </x:c>
-      <x:c r="F45" s="1" t="s">
+      <x:c r="I45" s="1" t="s">
         <x:v>166</x:v>
-      </x:c>
-      <x:c r="G45" s="1" t="s">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="H45" s="1" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="I45" s="1" t="s">
-        <x:v>167</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
       <x:c r="A46" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C46" s="1" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="D46" s="1" t="s">
         <x:v>169</x:v>
       </x:c>
-      <x:c r="D46" s="1" t="s">
-        <x:v>170</x:v>
-      </x:c>
       <x:c r="E46" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F46" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="G46" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H46" s="1" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="I46" s="1" t="s">
         <x:v>171</x:v>
-      </x:c>
-      <x:c r="I46" s="1" t="s">
-        <x:v>172</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
       <x:c r="A47" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
         <x:v>17</x:v>
@@ -2427,7 +2436,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="D47" s="1" t="s">
-        <x:v>149</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="E47" s="1" t="s">
         <x:v>34</x:v>
@@ -2442,18 +2451,18 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="I47" s="1" t="s">
-        <x:v>173</x:v>
+        <x:v>172</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
       <x:c r="A48" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C48" s="1" t="s">
-        <x:v>153</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="D48" s="1" t="s">
         <x:v>174</x:v>
@@ -2462,21 +2471,21 @@
         <x:v>175</x:v>
       </x:c>
       <x:c r="F48" s="1" t="s">
-        <x:v>160</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="G48" s="1" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H48" s="1" t="s">
-        <x:v>176</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="I48" s="1" t="s">
-        <x:v>177</x:v>
+        <x:v>178</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:9">
       <x:c r="A49" s="0" t="s">
-        <x:v>178</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
         <x:v>10</x:v>
@@ -2497,15 +2506,15 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H49" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="I49" s="1" t="s">
-        <x:v>179</x:v>
+        <x:v>180</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:9">
       <x:c r="A50" s="0" t="s">
-        <x:v>178</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
         <x:v>17</x:v>
@@ -2529,12 +2538,12 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="I50" s="1" t="s">
-        <x:v>110</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:9">
       <x:c r="A51" s="0" t="s">
-        <x:v>178</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
         <x:v>21</x:v>
@@ -2555,15 +2564,15 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H51" s="1" t="s">
-        <x:v>110</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="I51" s="1" t="s">
-        <x:v>180</x:v>
+        <x:v>181</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:9">
       <x:c r="A52" s="0" t="s">
-        <x:v>181</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
         <x:v>10</x:v>
@@ -2587,12 +2596,12 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="I52" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:9">
       <x:c r="A53" s="0" t="s">
-        <x:v>181</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
         <x:v>21</x:v>
@@ -2616,53 +2625,53 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="I53" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:9">
       <x:c r="A54" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C54" s="1" t="s">
-        <x:v>183</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="D54" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="E54" s="1" t="s">
         <x:v>29</x:v>
       </x:c>
       <x:c r="F54" s="1" t="s">
-        <x:v>155</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="G54" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="H54" s="1" t="s">
-        <x:v>175</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="I54" s="1" t="s">
-        <x:v>185</x:v>
+        <x:v>186</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:9">
       <x:c r="A55" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C55" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D55" s="1" t="s">
         <x:v>65</x:v>
       </x:c>
       <x:c r="E55" s="1" t="s">
-        <x:v>146</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="F55" s="1" t="s">
         <x:v>78</x:v>
@@ -2671,24 +2680,24 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H55" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="I55" s="1" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:9">
       <x:c r="A56" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C56" s="1" t="s">
-        <x:v>187</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="D56" s="1" t="s">
-        <x:v>188</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="E56" s="1" t="s">
         <x:v>75</x:v>
@@ -2700,27 +2709,27 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H56" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="I56" s="1" t="s">
-        <x:v>189</x:v>
+        <x:v>190</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:9">
       <x:c r="A57" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C57" s="1" t="s">
-        <x:v>191</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="D57" s="1" t="s">
-        <x:v>192</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="E57" s="1" t="s">
-        <x:v>155</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="F57" s="1" t="s">
         <x:v>74</x:v>
@@ -2729,15 +2738,15 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="H57" s="1" t="s">
-        <x:v>193</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="I57" s="1" t="s">
-        <x:v>194</x:v>
+        <x:v>195</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:9">
       <x:c r="A58" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
         <x:v>17</x:v>
@@ -2758,24 +2767,24 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H58" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="I58" s="1" t="s">
-        <x:v>195</x:v>
+        <x:v>196</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">
       <x:c r="A59" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C59" s="1" t="s">
-        <x:v>196</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="D59" s="1" t="s">
-        <x:v>197</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="E59" s="1" t="s">
         <x:v>63</x:v>
@@ -2787,53 +2796,53 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="H59" s="1" t="s">
-        <x:v>198</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="I59" s="1" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9">
       <x:c r="A60" s="0" t="s">
-        <x:v>200</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C60" s="1" t="s">
-        <x:v>201</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="D60" s="1" t="s">
-        <x:v>202</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="E60" s="1" t="s">
-        <x:v>203</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="F60" s="1" t="s">
-        <x:v>204</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="G60" s="1" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H60" s="1" t="s">
-        <x:v>142</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="I60" s="1" t="s">
-        <x:v>205</x:v>
+        <x:v>207</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">
       <x:c r="A61" s="0" t="s">
-        <x:v>200</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C61" s="1" t="s">
-        <x:v>155</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="D61" s="1" t="s">
-        <x:v>206</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="E61" s="1" t="s">
         <x:v>78</x:v>
@@ -2848,70 +2857,70 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="I61" s="1" t="s">
-        <x:v>207</x:v>
+        <x:v>209</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
       <x:c r="A62" s="0" t="s">
-        <x:v>200</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C62" s="1" t="s">
-        <x:v>208</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="D62" s="1" t="s">
-        <x:v>209</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="E62" s="1" t="s">
-        <x:v>210</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="F62" s="1" t="s">
-        <x:v>211</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="G62" s="1" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H62" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="I62" s="1" t="s">
-        <x:v>212</x:v>
+        <x:v>215</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:9">
       <x:c r="A63" s="0" t="s">
-        <x:v>213</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C63" s="1" t="s">
-        <x:v>214</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="D63" s="1" t="s">
-        <x:v>215</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="E63" s="1" t="s">
-        <x:v>171</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="F63" s="1" t="s">
-        <x:v>216</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="G63" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H63" s="1" t="s">
-        <x:v>217</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="I63" s="1" t="s">
-        <x:v>218</x:v>
+        <x:v>221</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:9">
       <x:c r="A64" s="0" t="s">
-        <x:v>213</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
         <x:v>17</x:v>
@@ -2920,7 +2929,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="D64" s="1" t="s">
-        <x:v>219</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="E64" s="1" t="s">
         <x:v>78</x:v>
@@ -2935,36 +2944,36 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="I64" s="1" t="s">
-        <x:v>220</x:v>
+        <x:v>223</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:9">
       <x:c r="A65" s="0" t="s">
-        <x:v>213</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C65" s="1" t="s">
-        <x:v>221</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="D65" s="1" t="s">
-        <x:v>222</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="E65" s="1" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="F65" s="1" t="s">
-        <x:v>223</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="G65" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H65" s="1" t="s">
-        <x:v>224</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="I65" s="1" t="s">
-        <x:v>225</x:v>
+        <x:v>228</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -127,28 +127,28 @@
     <x:t>Assault Offenses</x:t>
   </x:si>
   <x:si>
-    <x:t>7079</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4323</x:t>
+    <x:t>7082</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4325</x:t>
   </x:si>
   <x:si>
     <x:t>343</x:t>
   </x:si>
   <x:si>
-    <x:t>640</x:t>
+    <x:t>641</x:t>
   </x:si>
   <x:si>
     <x:t>27</x:t>
   </x:si>
   <x:si>
-    <x:t>1375</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13787</x:t>
-  </x:si>
-  <x:si>
-    <x:t>835</x:t>
+    <x:t>1376</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13794</x:t>
+  </x:si>
+  <x:si>
+    <x:t>836</x:t>
   </x:si>
   <x:si>
     <x:t>708</x:t>
@@ -163,25 +163,25 @@
     <x:t>253</x:t>
   </x:si>
   <x:si>
-    <x:t>1987</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7914</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5031</x:t>
+    <x:t>1988</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7918</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5033</x:t>
   </x:si>
   <x:si>
     <x:t>377</x:t>
   </x:si>
   <x:si>
-    <x:t>793</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1628</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15774</x:t>
+    <x:t>794</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1629</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15782</x:t>
   </x:si>
   <x:si>
     <x:t>Bribery</x:t>
@@ -193,12 +193,15 @@
     <x:t>726</x:t>
   </x:si>
   <x:si>
-    <x:t>535</x:t>
+    <x:t>536</x:t>
   </x:si>
   <x:si>
     <x:t>42</x:t>
   </x:si>
   <x:si>
+    <x:t>94</x:t>
+  </x:si>
+  <x:si>
     <x:t>119</x:t>
   </x:si>
   <x:si>
@@ -217,12 +220,15 @@
     <x:t>788</x:t>
   </x:si>
   <x:si>
-    <x:t>577</x:t>
+    <x:t>578</x:t>
   </x:si>
   <x:si>
     <x:t>45</x:t>
   </x:si>
   <x:si>
+    <x:t>118</x:t>
+  </x:si>
+  <x:si>
     <x:t>130</x:t>
   </x:si>
   <x:si>
@@ -292,10 +298,13 @@
     <x:t>196</x:t>
   </x:si>
   <x:si>
+    <x:t>28</x:t>
+  </x:si>
+  <x:si>
     <x:t>44</x:t>
   </x:si>
   <x:si>
-    <x:t>364</x:t>
+    <x:t>365</x:t>
   </x:si>
   <x:si>
     <x:t>1016</x:t>
@@ -307,19 +316,19 @@
     <x:t>39</x:t>
   </x:si>
   <x:si>
-    <x:t>115</x:t>
+    <x:t>116</x:t>
   </x:si>
   <x:si>
     <x:t>214</x:t>
   </x:si>
   <x:si>
-    <x:t>1899</x:t>
+    <x:t>1900</x:t>
   </x:si>
   <x:si>
     <x:t>Drug/Narcotic Violations</x:t>
   </x:si>
   <x:si>
-    <x:t>3725</x:t>
+    <x:t>3727</x:t>
   </x:si>
   <x:si>
     <x:t>1889</x:t>
@@ -337,7 +346,7 @@
     <x:t>841</x:t>
   </x:si>
   <x:si>
-    <x:t>7139</x:t>
+    <x:t>7141</x:t>
   </x:si>
   <x:si>
     <x:t>93</x:t>
@@ -349,7 +358,7 @@
     <x:t>162</x:t>
   </x:si>
   <x:si>
-    <x:t>3818</x:t>
+    <x:t>3820</x:t>
   </x:si>
   <x:si>
     <x:t>1918</x:t>
@@ -364,7 +373,7 @@
     <x:t>871</x:t>
   </x:si>
   <x:si>
-    <x:t>7301</x:t>
+    <x:t>7303</x:t>
   </x:si>
   <x:si>
     <x:t>Embezzlement</x:t>
@@ -466,7 +475,7 @@
     <x:t>Larceny/Theft Offenses</x:t>
   </x:si>
   <x:si>
-    <x:t>7085</x:t>
+    <x:t>7088</x:t>
   </x:si>
   <x:si>
     <x:t>4570</x:t>
@@ -481,13 +490,13 @@
     <x:t>22</x:t>
   </x:si>
   <x:si>
-    <x:t>1387</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14104</x:t>
-  </x:si>
-  <x:si>
-    <x:t>672</x:t>
+    <x:t>1386</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14106</x:t>
+  </x:si>
+  <x:si>
+    <x:t>673</x:t>
   </x:si>
   <x:si>
     <x:t>573</x:t>
@@ -499,10 +508,10 @@
     <x:t>147</x:t>
   </x:si>
   <x:si>
-    <x:t>1483</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7757</x:t>
+    <x:t>1484</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7761</x:t>
   </x:si>
   <x:si>
     <x:t>5143</x:t>
@@ -511,10 +520,10 @@
     <x:t>310</x:t>
   </x:si>
   <x:si>
-    <x:t>1534</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15587</x:t>
+    <x:t>1533</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15590</x:t>
   </x:si>
   <x:si>
     <x:t>Motor Vehicle Theft</x:t>
@@ -574,7 +583,7 @@
     <x:t>336</x:t>
   </x:si>
   <x:si>
-    <x:t>479</x:t>
+    <x:t>480</x:t>
   </x:si>
   <x:si>
     <x:t>189</x:t>
@@ -586,7 +595,7 @@
     <x:t>478</x:t>
   </x:si>
   <x:si>
-    <x:t>668</x:t>
+    <x:t>669</x:t>
   </x:si>
   <x:si>
     <x:t>Sex Offenses</x:t>
@@ -667,7 +676,7 @@
     <x:t>Weapon Law Violations</x:t>
   </x:si>
   <x:si>
-    <x:t>654</x:t>
+    <x:t>655</x:t>
   </x:si>
   <x:si>
     <x:t>890</x:t>
@@ -679,28 +688,28 @@
     <x:t>351</x:t>
   </x:si>
   <x:si>
-    <x:t>2014</x:t>
+    <x:t>2015</x:t>
   </x:si>
   <x:si>
     <x:t>163</x:t>
   </x:si>
   <x:si>
-    <x:t>267</x:t>
-  </x:si>
-  <x:si>
-    <x:t>713</x:t>
+    <x:t>268</x:t>
+  </x:si>
+  <x:si>
+    <x:t>714</x:t>
   </x:si>
   <x:si>
     <x:t>1053</x:t>
   </x:si>
   <x:si>
-    <x:t>77</x:t>
+    <x:t>78</x:t>
   </x:si>
   <x:si>
     <x:t>378</x:t>
   </x:si>
   <x:si>
-    <x:t>2281</x:t>
+    <x:t>2283</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1456,16 +1465,16 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="F13" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="G13" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H13" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="I13" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -1485,16 +1494,16 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="F14" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="G14" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="H14" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="I14" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
@@ -1505,59 +1514,59 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C15" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="D15" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E15" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="F15" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G15" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H15" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="I15" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
       <x:c r="A16" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="1" t="s">
-        <x:v>72</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D16" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E16" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F16" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="G16" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="H16" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I16" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
       <x:c r="A17" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
         <x:v>17</x:v>
@@ -1566,7 +1575,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="D17" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E17" s="1" t="s">
         <x:v>19</x:v>
@@ -1581,76 +1590,76 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="I17" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
       <x:c r="A18" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C18" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="D18" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="E18" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F18" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="G18" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="H18" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="I18" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
       <x:c r="A19" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C19" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="D19" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E19" s="1" t="s">
-        <x:v>87</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F19" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="G19" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H19" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="I19" s="1" t="s">
-        <x:v>90</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
       <x:c r="A20" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C20" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="D20" s="1" t="s">
         <x:v>16</x:v>
@@ -1659,88 +1668,88 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="F20" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="G20" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="H20" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="I20" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
       <x:c r="A21" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C21" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D21" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="E21" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="F21" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="G21" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H21" s="1" t="s">
-        <x:v>98</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="I21" s="1" t="s">
-        <x:v>99</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
       <x:c r="A22" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="s">
-        <x:v>101</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D22" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E22" s="1" t="s">
-        <x:v>103</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="F22" s="1" t="s">
-        <x:v>104</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="G22" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="H22" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="I22" s="1" t="s">
-        <x:v>107</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
       <x:c r="A23" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C23" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="D23" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="E23" s="1" t="s">
         <x:v>28</x:v>
@@ -1755,41 +1764,41 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="I23" s="1" t="s">
-        <x:v>110</x:v>
+        <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
       <x:c r="A24" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C24" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="D24" s="1" t="s">
-        <x:v>112</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="E24" s="1" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F24" s="1" t="s">
-        <x:v>114</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="G24" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="H24" s="1" t="s">
-        <x:v>115</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="I24" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
       <x:c r="A25" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
         <x:v>10</x:v>
@@ -1798,7 +1807,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="D25" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="E25" s="1" t="s">
         <x:v>13</x:v>
@@ -1810,24 +1819,24 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H25" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="I25" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
       <x:c r="A26" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C26" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="D26" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="E26" s="1" t="s">
         <x:v>19</x:v>
@@ -1842,18 +1851,18 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="I26" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:9">
       <x:c r="A27" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C27" s="1" t="s">
-        <x:v>87</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="D27" s="1" t="s">
         <x:v>23</x:v>
@@ -1868,15 +1877,15 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H27" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="I27" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>125</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:9">
       <x:c r="A28" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
         <x:v>10</x:v>
@@ -1905,7 +1914,7 @@
     </x:row>
     <x:row r="29" spans="1:9">
       <x:c r="A29" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
         <x:v>21</x:v>
@@ -1934,42 +1943,42 @@
     </x:row>
     <x:row r="30" spans="1:9">
       <x:c r="A30" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C30" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="D30" s="1" t="s">
-        <x:v>126</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="E30" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="F30" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="G30" s="1" t="s">
         <x:v>29</x:v>
       </x:c>
       <x:c r="H30" s="1" t="s">
-        <x:v>128</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="I30" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:9">
       <x:c r="A31" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C31" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="D31" s="1" t="s">
         <x:v>46</x:v>
@@ -1987,41 +1996,41 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="I31" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
       <x:c r="A32" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C32" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="D32" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="E32" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="F32" s="1" t="s">
-        <x:v>134</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="G32" s="1" t="s">
         <x:v>29</x:v>
       </x:c>
       <x:c r="H32" s="1" t="s">
-        <x:v>135</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="I32" s="1" t="s">
-        <x:v>136</x:v>
+        <x:v>139</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:9">
       <x:c r="A33" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
         <x:v>10</x:v>
@@ -2050,7 +2059,7 @@
     </x:row>
     <x:row r="34" spans="1:9">
       <x:c r="A34" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
         <x:v>17</x:v>
@@ -2079,7 +2088,7 @@
     </x:row>
     <x:row r="35" spans="1:9">
       <x:c r="A35" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
         <x:v>21</x:v>
@@ -2108,16 +2117,16 @@
     </x:row>
     <x:row r="36" spans="1:9">
       <x:c r="A36" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C36" s="1" t="s">
-        <x:v>139</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="D36" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="E36" s="1" t="s">
         <x:v>20</x:v>
@@ -2129,15 +2138,15 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H36" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="I36" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>144</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:9">
       <x:c r="A37" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
         <x:v>17</x:v>
@@ -2146,7 +2155,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="D37" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E37" s="1" t="s">
         <x:v>14</x:v>
@@ -2161,21 +2170,21 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="I37" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:9">
       <x:c r="A38" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C38" s="1" t="s">
-        <x:v>142</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="D38" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="E38" s="1" t="s">
         <x:v>29</x:v>
@@ -2187,15 +2196,15 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H38" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="I38" s="1" t="s">
-        <x:v>134</x:v>
+        <x:v>137</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:9">
       <x:c r="A39" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
         <x:v>10</x:v>
@@ -2204,7 +2213,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="D39" s="1" t="s">
-        <x:v>145</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="E39" s="1" t="s">
         <x:v>18</x:v>
@@ -2224,7 +2233,7 @@
     </x:row>
     <x:row r="40" spans="1:9">
       <x:c r="A40" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
         <x:v>21</x:v>
@@ -2233,7 +2242,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="D40" s="1" t="s">
-        <x:v>145</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="E40" s="1" t="s">
         <x:v>18</x:v>
@@ -2253,16 +2262,16 @@
     </x:row>
     <x:row r="41" spans="1:9">
       <x:c r="A41" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C41" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="D41" s="1" t="s">
-        <x:v>147</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="E41" s="1" t="s">
         <x:v>34</x:v>
@@ -2277,21 +2286,21 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="I41" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>151</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9">
       <x:c r="A42" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C42" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="D42" s="1" t="s">
-        <x:v>147</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="E42" s="1" t="s">
         <x:v>34</x:v>
@@ -2306,128 +2315,128 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="I42" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>151</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:9">
       <x:c r="A43" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C43" s="1" t="s">
-        <x:v>150</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="D43" s="1" t="s">
-        <x:v>151</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="E43" s="1" t="s">
-        <x:v>152</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="F43" s="1" t="s">
-        <x:v>153</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="G43" s="1" t="s">
-        <x:v>154</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="H43" s="1" t="s">
-        <x:v>155</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="I43" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>159</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:9">
       <x:c r="A44" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C44" s="1" t="s">
-        <x:v>157</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="D44" s="1" t="s">
-        <x:v>158</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="E44" s="1" t="s">
-        <x:v>142</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="F44" s="1" t="s">
-        <x:v>159</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="G44" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H44" s="1" t="s">
-        <x:v>160</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="I44" s="1" t="s">
-        <x:v>161</x:v>
+        <x:v>164</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:9">
       <x:c r="A45" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C45" s="1" t="s">
-        <x:v>162</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="D45" s="1" t="s">
-        <x:v>163</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="E45" s="1" t="s">
-        <x:v>164</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="F45" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="G45" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="H45" s="1" t="s">
-        <x:v>165</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="I45" s="1" t="s">
-        <x:v>166</x:v>
+        <x:v>169</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
       <x:c r="A46" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C46" s="1" t="s">
-        <x:v>168</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="D46" s="1" t="s">
-        <x:v>169</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="E46" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="F46" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="G46" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H46" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="I46" s="1" t="s">
-        <x:v>171</x:v>
+        <x:v>174</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
       <x:c r="A47" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
         <x:v>17</x:v>
@@ -2436,7 +2445,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="D47" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="E47" s="1" t="s">
         <x:v>34</x:v>
@@ -2451,41 +2460,41 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="I47" s="1" t="s">
-        <x:v>172</x:v>
+        <x:v>175</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
       <x:c r="A48" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C48" s="1" t="s">
-        <x:v>173</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="D48" s="1" t="s">
-        <x:v>174</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="E48" s="1" t="s">
-        <x:v>175</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="F48" s="1" t="s">
-        <x:v>176</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="G48" s="1" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H48" s="1" t="s">
-        <x:v>177</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="I48" s="1" t="s">
-        <x:v>178</x:v>
+        <x:v>181</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:9">
       <x:c r="A49" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
         <x:v>10</x:v>
@@ -2506,15 +2515,15 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H49" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="I49" s="1" t="s">
-        <x:v>180</x:v>
+        <x:v>183</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:9">
       <x:c r="A50" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
         <x:v>17</x:v>
@@ -2538,21 +2547,21 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="I50" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:9">
       <x:c r="A51" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C51" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D51" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E51" s="1" t="s">
         <x:v>14</x:v>
@@ -2564,21 +2573,21 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H51" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="I51" s="1" t="s">
-        <x:v>181</x:v>
+        <x:v>184</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:9">
       <x:c r="A52" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C52" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D52" s="1" t="s">
         <x:v>14</x:v>
@@ -2596,18 +2605,18 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="I52" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>121</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:9">
       <x:c r="A53" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C53" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D53" s="1" t="s">
         <x:v>14</x:v>
@@ -2625,82 +2634,82 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="I53" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>121</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:9">
       <x:c r="A54" s="0" t="s">
-        <x:v>183</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C54" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="D54" s="1" t="s">
-        <x:v>185</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="E54" s="1" t="s">
         <x:v>29</x:v>
       </x:c>
       <x:c r="F54" s="1" t="s">
-        <x:v>154</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="G54" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="H54" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="I54" s="1" t="s">
-        <x:v>186</x:v>
+        <x:v>189</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:9">
       <x:c r="A55" s="0" t="s">
-        <x:v>183</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C55" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="D55" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E55" s="1" t="s">
-        <x:v>145</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="F55" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="G55" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="H55" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="I55" s="1" t="s">
-        <x:v>187</x:v>
+        <x:v>190</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:9">
       <x:c r="A56" s="0" t="s">
-        <x:v>183</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C56" s="1" t="s">
-        <x:v>188</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="D56" s="1" t="s">
-        <x:v>189</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="E56" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F56" s="1" t="s">
         <x:v>33</x:v>
@@ -2709,44 +2718,44 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H56" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="I56" s="1" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:9">
       <x:c r="A57" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C57" s="1" t="s">
-        <x:v>192</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="D57" s="1" t="s">
-        <x:v>193</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="E57" s="1" t="s">
-        <x:v>154</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F57" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="G57" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H57" s="1" t="s">
-        <x:v>194</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="I57" s="1" t="s">
-        <x:v>195</x:v>
+        <x:v>198</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:9">
       <x:c r="A58" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
         <x:v>17</x:v>
@@ -2755,7 +2764,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="D58" s="1" t="s">
-        <x:v>175</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="E58" s="1" t="s">
         <x:v>13</x:v>
@@ -2767,27 +2776,27 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H58" s="1" t="s">
-        <x:v>142</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="I58" s="1" t="s">
-        <x:v>196</x:v>
+        <x:v>199</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">
       <x:c r="A59" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C59" s="1" t="s">
-        <x:v>197</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="D59" s="1" t="s">
-        <x:v>198</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="E59" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="F59" s="1" t="s">
         <x:v>12</x:v>
@@ -2796,131 +2805,131 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="H59" s="1" t="s">
-        <x:v>199</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="I59" s="1" t="s">
-        <x:v>200</x:v>
+        <x:v>203</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9">
       <x:c r="A60" s="0" t="s">
-        <x:v>201</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C60" s="1" t="s">
-        <x:v>202</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="D60" s="1" t="s">
-        <x:v>203</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="E60" s="1" t="s">
-        <x:v>204</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="F60" s="1" t="s">
-        <x:v>205</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="G60" s="1" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H60" s="1" t="s">
-        <x:v>206</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="I60" s="1" t="s">
-        <x:v>207</x:v>
+        <x:v>210</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">
       <x:c r="A61" s="0" t="s">
-        <x:v>201</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C61" s="1" t="s">
-        <x:v>154</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="D61" s="1" t="s">
-        <x:v>208</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="E61" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="F61" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="G61" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="H61" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="I61" s="1" t="s">
-        <x:v>209</x:v>
+        <x:v>212</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
       <x:c r="A62" s="0" t="s">
-        <x:v>201</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C62" s="1" t="s">
-        <x:v>210</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="D62" s="1" t="s">
-        <x:v>211</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="E62" s="1" t="s">
-        <x:v>212</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="F62" s="1" t="s">
-        <x:v>213</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="G62" s="1" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H62" s="1" t="s">
-        <x:v>214</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="I62" s="1" t="s">
-        <x:v>215</x:v>
+        <x:v>218</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:9">
       <x:c r="A63" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C63" s="1" t="s">
-        <x:v>217</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="D63" s="1" t="s">
-        <x:v>218</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="E63" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="F63" s="1" t="s">
-        <x:v>219</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="G63" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H63" s="1" t="s">
-        <x:v>220</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="I63" s="1" t="s">
-        <x:v>221</x:v>
+        <x:v>224</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:9">
       <x:c r="A64" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
         <x:v>17</x:v>
@@ -2929,13 +2938,13 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="D64" s="1" t="s">
-        <x:v>222</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="E64" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="F64" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G64" s="1" t="s">
         <x:v>19</x:v>
@@ -2944,36 +2953,36 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="I64" s="1" t="s">
-        <x:v>223</x:v>
+        <x:v>226</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:9">
       <x:c r="A65" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C65" s="1" t="s">
-        <x:v>224</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="D65" s="1" t="s">
-        <x:v>225</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="E65" s="1" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="F65" s="1" t="s">
-        <x:v>226</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="G65" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H65" s="1" t="s">
-        <x:v>227</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="I65" s="1" t="s">
-        <x:v>228</x:v>
+        <x:v>231</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -49,7 +49,7 @@
     <x:t>Adult</x:t>
   </x:si>
   <x:si>
-    <x:t>56</x:t>
+    <x:t>59</x:t>
   </x:si>
   <x:si>
     <x:t>20</x:t>
@@ -64,7 +64,7 @@
     <x:t>15</x:t>
   </x:si>
   <x:si>
-    <x:t>95</x:t>
+    <x:t>98</x:t>
   </x:si>
   <x:si>
     <x:t>Juvenile</x:t>
@@ -82,634 +82,655 @@
     <x:t>Total</x:t>
   </x:si>
   <x:si>
-    <x:t>59</x:t>
+    <x:t>62</x:t>
   </x:si>
   <x:si>
     <x:t>21</x:t>
   </x:si>
   <x:si>
-    <x:t>99</x:t>
+    <x:t>102</x:t>
   </x:si>
   <x:si>
     <x:t>Arson</x:t>
   </x:si>
   <x:si>
-    <x:t>62</x:t>
+    <x:t>68</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>120</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>76</x:t>
+  </x:si>
+  <x:si>
+    <x:t>34</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>130</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Assault Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7677</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4688</x:t>
+  </x:si>
+  <x:si>
+    <x:t>377</x:t>
+  </x:si>
+  <x:si>
+    <x:t>699</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1498</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14967</x:t>
+  </x:si>
+  <x:si>
+    <x:t>913</x:t>
+  </x:si>
+  <x:si>
+    <x:t>754</x:t>
+  </x:si>
+  <x:si>
+    <x:t>158</x:t>
+  </x:si>
+  <x:si>
+    <x:t>274</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2137</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8590</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5442</x:t>
+  </x:si>
+  <x:si>
+    <x:t>411</x:t>
+  </x:si>
+  <x:si>
+    <x:t>857</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1772</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17104</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bribery</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Burglary/Breaking &amp; Entering</x:t>
+  </x:si>
+  <x:si>
+    <x:t>793</x:t>
+  </x:si>
+  <x:si>
+    <x:t>584</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46</x:t>
+  </x:si>
+  <x:si>
+    <x:t>103</x:t>
+  </x:si>
+  <x:si>
+    <x:t>132</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1660</x:t>
+  </x:si>
+  <x:si>
+    <x:t>63</x:t>
+  </x:si>
+  <x:si>
+    <x:t>43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>146</x:t>
+  </x:si>
+  <x:si>
+    <x:t>856</x:t>
+  </x:si>
+  <x:si>
+    <x:t>627</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>129</x:t>
+  </x:si>
+  <x:si>
+    <x:t>142</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1806</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Counterfeiting/Forgery</x:t>
+  </x:si>
+  <x:si>
+    <x:t>288</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>49</x:t>
+  </x:si>
+  <x:si>
+    <x:t>515</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>291</x:t>
+  </x:si>
+  <x:si>
+    <x:t>152</x:t>
+  </x:si>
+  <x:si>
+    <x:t>529</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Destruction/Damage/Vandalism of Property</x:t>
+  </x:si>
+  <x:si>
+    <x:t>859</x:t>
+  </x:si>
+  <x:si>
+    <x:t>458</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>92</x:t>
+  </x:si>
+  <x:si>
+    <x:t>179</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1628</x:t>
+  </x:si>
+  <x:si>
+    <x:t>207</x:t>
+  </x:si>
+  <x:si>
+    <x:t>101</x:t>
+  </x:si>
+  <x:si>
+    <x:t>47</x:t>
+  </x:si>
+  <x:si>
+    <x:t>387</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1066</x:t>
+  </x:si>
+  <x:si>
+    <x:t>559</x:t>
+  </x:si>
+  <x:si>
+    <x:t>226</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2015</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Drug/Narcotic Violations</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3993</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2035</x:t>
+  </x:si>
+  <x:si>
+    <x:t>151</x:t>
+  </x:si>
+  <x:si>
+    <x:t>558</x:t>
+  </x:si>
+  <x:si>
+    <x:t>900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7658</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>177</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4096</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2066</x:t>
+  </x:si>
+  <x:si>
+    <x:t>159</x:t>
+  </x:si>
+  <x:si>
+    <x:t>560</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>932</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7835</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Embezzlement</x:t>
   </x:si>
   <x:si>
     <x:t>30</x:t>
   </x:si>
   <x:si>
-    <x:t>8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>110</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>70</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>120</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Assault Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7082</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4325</x:t>
-  </x:si>
-  <x:si>
-    <x:t>343</x:t>
-  </x:si>
-  <x:si>
-    <x:t>641</x:t>
+    <x:t>16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>69</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>87</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Extortion/Blackmail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fraud Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>988</x:t>
+  </x:si>
+  <x:si>
+    <x:t>755</x:t>
+  </x:si>
+  <x:si>
+    <x:t>64</x:t>
+  </x:si>
+  <x:si>
+    <x:t>157</x:t>
+  </x:si>
+  <x:si>
+    <x:t>287</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2256</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>86</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1017</x:t>
+  </x:si>
+  <x:si>
+    <x:t>790</x:t>
+  </x:si>
+  <x:si>
+    <x:t>163</x:t>
+  </x:si>
+  <x:si>
+    <x:t>303</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2342</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gambling Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Homicide Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>82</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>145</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>91</x:t>
+  </x:si>
+  <x:si>
+    <x:t>162</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Human Trafficking</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kidnapping/Abduction</x:t>
+  </x:si>
+  <x:si>
+    <x:t>51</x:t>
+  </x:si>
+  <x:si>
+    <x:t>119</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Larceny/Theft Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7642</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>298</x:t>
+  </x:si>
+  <x:si>
+    <x:t>823</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1497</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15285</x:t>
+  </x:si>
+  <x:si>
+    <x:t>713</x:t>
+  </x:si>
+  <x:si>
+    <x:t>616</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1578</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8355</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5616</x:t>
+  </x:si>
+  <x:si>
+    <x:t>335</x:t>
+  </x:si>
+  <x:si>
+    <x:t>882</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1649</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16863</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Motor Vehicle Theft</x:t>
+  </x:si>
+  <x:si>
+    <x:t>261</x:t>
+  </x:si>
+  <x:si>
+    <x:t>169</x:t>
+  </x:si>
+  <x:si>
+    <x:t>42</x:t>
+  </x:si>
+  <x:si>
+    <x:t>55</x:t>
+  </x:si>
+  <x:si>
+    <x:t>553</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36</x:t>
+  </x:si>
+  <x:si>
+    <x:t>112</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>183</x:t>
+  </x:si>
+  <x:si>
+    <x:t>297</x:t>
+  </x:si>
+  <x:si>
+    <x:t>281</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58</x:t>
+  </x:si>
+  <x:si>
+    <x:t>67</x:t>
+  </x:si>
+  <x:si>
+    <x:t>736</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pornography/Obscene Material</x:t>
+  </x:si>
+  <x:si>
+    <x:t>111</x:t>
+  </x:si>
+  <x:si>
+    <x:t>131</x:t>
+  </x:si>
+  <x:si>
+    <x:t>186</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Prostitution Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Robbery</x:t>
+  </x:si>
+  <x:si>
+    <x:t>96</x:t>
+  </x:si>
+  <x:si>
+    <x:t>370</x:t>
+  </x:si>
+  <x:si>
+    <x:t>520</x:t>
+  </x:si>
+  <x:si>
+    <x:t>155</x:t>
+  </x:si>
+  <x:si>
+    <x:t>202</x:t>
+  </x:si>
+  <x:si>
+    <x:t>115</x:t>
+  </x:si>
+  <x:si>
+    <x:t>525</x:t>
+  </x:si>
+  <x:si>
+    <x:t>722</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sex Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>446</x:t>
+  </x:si>
+  <x:si>
+    <x:t>213</x:t>
+  </x:si>
+  <x:si>
+    <x:t>114</x:t>
+  </x:si>
+  <x:si>
+    <x:t>816</x:t>
   </x:si>
   <x:si>
     <x:t>27</x:t>
   </x:si>
   <x:si>
-    <x:t>1376</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13794</x:t>
-  </x:si>
-  <x:si>
-    <x:t>836</x:t>
-  </x:si>
-  <x:si>
-    <x:t>708</x:t>
-  </x:si>
-  <x:si>
-    <x:t>34</x:t>
+    <x:t>137</x:t>
+  </x:si>
+  <x:si>
+    <x:t>513</x:t>
+  </x:si>
+  <x:si>
+    <x:t>240</x:t>
   </x:si>
   <x:si>
     <x:t>153</x:t>
   </x:si>
   <x:si>
-    <x:t>253</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1988</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7918</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5033</x:t>
-  </x:si>
-  <x:si>
-    <x:t>377</x:t>
-  </x:si>
-  <x:si>
-    <x:t>794</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1629</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15782</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bribery</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Burglary/Breaking &amp; Entering</x:t>
-  </x:si>
-  <x:si>
-    <x:t>726</x:t>
-  </x:si>
-  <x:si>
-    <x:t>536</x:t>
-  </x:si>
-  <x:si>
-    <x:t>42</x:t>
-  </x:si>
-  <x:si>
-    <x:t>94</x:t>
-  </x:si>
-  <x:si>
-    <x:t>119</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1519</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24</x:t>
+    <x:t>953</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stolen Property Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>531</x:t>
+  </x:si>
+  <x:si>
+    <x:t>460</x:t>
+  </x:si>
+  <x:si>
+    <x:t>77</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1253</x:t>
+  </x:si>
+  <x:si>
+    <x:t>128</x:t>
   </x:si>
   <x:si>
     <x:t>11</x:t>
   </x:si>
   <x:si>
-    <x:t>142</x:t>
-  </x:si>
-  <x:si>
-    <x:t>788</x:t>
-  </x:si>
-  <x:si>
-    <x:t>578</x:t>
-  </x:si>
-  <x:si>
-    <x:t>45</x:t>
-  </x:si>
-  <x:si>
-    <x:t>118</x:t>
-  </x:si>
-  <x:si>
-    <x:t>130</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1661</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Counterfeiting/Forgery</x:t>
-  </x:si>
-  <x:si>
-    <x:t>270</x:t>
-  </x:si>
-  <x:si>
-    <x:t>135</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>48</x:t>
-  </x:si>
-  <x:si>
-    <x:t>488</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13</x:t>
-  </x:si>
-  <x:si>
-    <x:t>273</x:t>
-  </x:si>
-  <x:si>
-    <x:t>144</x:t>
-  </x:si>
-  <x:si>
-    <x:t>49</x:t>
-  </x:si>
-  <x:si>
-    <x:t>501</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Destruction/Damage/Vandalism of Property</x:t>
-  </x:si>
-  <x:si>
-    <x:t>820</x:t>
-  </x:si>
-  <x:si>
-    <x:t>419</x:t>
-  </x:si>
-  <x:si>
-    <x:t>37</x:t>
+    <x:t>189</x:t>
+  </x:si>
+  <x:si>
+    <x:t>554</x:t>
+  </x:si>
+  <x:si>
+    <x:t>588</x:t>
   </x:si>
   <x:si>
     <x:t>88</x:t>
   </x:si>
   <x:si>
-    <x:t>170</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1535</x:t>
-  </x:si>
-  <x:si>
-    <x:t>196</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>44</x:t>
-  </x:si>
-  <x:si>
-    <x:t>365</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1016</x:t>
-  </x:si>
-  <x:si>
-    <x:t>514</x:t>
-  </x:si>
-  <x:si>
-    <x:t>39</x:t>
-  </x:si>
-  <x:si>
-    <x:t>116</x:t>
-  </x:si>
-  <x:si>
-    <x:t>214</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Drug/Narcotic Violations</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3727</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1889</x:t>
-  </x:si>
-  <x:si>
-    <x:t>141</x:t>
-  </x:si>
-  <x:si>
-    <x:t>524</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19</x:t>
-  </x:si>
-  <x:si>
-    <x:t>841</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7141</x:t>
-  </x:si>
-  <x:si>
-    <x:t>93</x:t>
-  </x:si>
-  <x:si>
-    <x:t>29</x:t>
-  </x:si>
-  <x:si>
-    <x:t>162</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3820</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1918</x:t>
-  </x:si>
-  <x:si>
-    <x:t>149</x:t>
-  </x:si>
-  <x:si>
-    <x:t>526</x:t>
-  </x:si>
-  <x:si>
-    <x:t>871</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7303</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Embezzlement</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14</x:t>
+    <x:t>160</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1442</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weapon Law Violations</x:t>
+  </x:si>
+  <x:si>
+    <x:t>697</x:t>
+  </x:si>
+  <x:si>
+    <x:t>952</x:t>
+  </x:si>
+  <x:si>
+    <x:t>74</x:t>
+  </x:si>
+  <x:si>
+    <x:t>367</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2147</x:t>
+  </x:si>
+  <x:si>
+    <x:t>60</x:t>
+  </x:si>
+  <x:si>
+    <x:t>172</x:t>
+  </x:si>
+  <x:si>
+    <x:t>279</x:t>
+  </x:si>
+  <x:si>
+    <x:t>757</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1124</x:t>
   </x:si>
   <x:si>
     <x:t>65</x:t>
   </x:si>
   <x:si>
-    <x:t>7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23</x:t>
-  </x:si>
-  <x:si>
-    <x:t>83</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Extortion/Blackmail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fraud Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>914</x:t>
-  </x:si>
-  <x:si>
-    <x:t>702</x:t>
-  </x:si>
-  <x:si>
-    <x:t>61</x:t>
-  </x:si>
-  <x:si>
-    <x:t>264</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2088</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>81</x:t>
-  </x:si>
-  <x:si>
-    <x:t>940</x:t>
-  </x:si>
-  <x:si>
-    <x:t>736</x:t>
-  </x:si>
-  <x:si>
-    <x:t>148</x:t>
-  </x:si>
-  <x:si>
-    <x:t>279</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2169</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gambling Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Homicide Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>32</x:t>
-  </x:si>
-  <x:si>
-    <x:t>75</x:t>
-  </x:si>
-  <x:si>
-    <x:t>131</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35</x:t>
-  </x:si>
-  <x:si>
     <x:t>84</x:t>
   </x:si>
   <x:si>
-    <x:t>Human Trafficking</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kidnapping/Abduction</x:t>
-  </x:si>
-  <x:si>
-    <x:t>43</x:t>
-  </x:si>
-  <x:si>
-    <x:t>105</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Larceny/Theft Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7088</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4570</x:t>
-  </x:si>
-  <x:si>
-    <x:t>275</x:t>
-  </x:si>
-  <x:si>
-    <x:t>765</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1386</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14106</x:t>
-  </x:si>
-  <x:si>
-    <x:t>673</x:t>
-  </x:si>
-  <x:si>
-    <x:t>573</x:t>
-  </x:si>
-  <x:si>
-    <x:t>55</x:t>
-  </x:si>
-  <x:si>
-    <x:t>147</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1484</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7761</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5143</x:t>
-  </x:si>
-  <x:si>
-    <x:t>310</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1533</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15590</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Motor Vehicle Theft</x:t>
-  </x:si>
-  <x:si>
-    <x:t>242</x:t>
-  </x:si>
-  <x:si>
-    <x:t>157</x:t>
-  </x:si>
-  <x:si>
-    <x:t>50</x:t>
-  </x:si>
-  <x:si>
-    <x:t>509</x:t>
-  </x:si>
-  <x:si>
-    <x:t>171</x:t>
-  </x:si>
-  <x:si>
-    <x:t>276</x:t>
-  </x:si>
-  <x:si>
-    <x:t>262</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>54</x:t>
-  </x:si>
-  <x:si>
-    <x:t>60</x:t>
-  </x:si>
-  <x:si>
-    <x:t>680</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pornography/Obscene Material</x:t>
-  </x:si>
-  <x:si>
-    <x:t>140</x:t>
-  </x:si>
-  <x:si>
-    <x:t>169</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Prostitution Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Robbery</x:t>
-  </x:si>
-  <x:si>
-    <x:t>92</x:t>
-  </x:si>
-  <x:si>
-    <x:t>336</x:t>
-  </x:si>
-  <x:si>
-    <x:t>480</x:t>
-  </x:si>
-  <x:si>
-    <x:t>189</x:t>
-  </x:si>
-  <x:si>
-    <x:t>111</x:t>
-  </x:si>
-  <x:si>
-    <x:t>478</x:t>
-  </x:si>
-  <x:si>
-    <x:t>669</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sex Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>415</x:t>
-  </x:si>
-  <x:si>
-    <x:t>201</x:t>
-  </x:si>
-  <x:si>
-    <x:t>104</x:t>
-  </x:si>
-  <x:si>
-    <x:t>762</x:t>
-  </x:si>
-  <x:si>
-    <x:t>126</x:t>
-  </x:si>
-  <x:si>
-    <x:t>477</x:t>
-  </x:si>
-  <x:si>
-    <x:t>226</x:t>
-  </x:si>
-  <x:si>
-    <x:t>139</x:t>
-  </x:si>
-  <x:si>
-    <x:t>888</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stolen Property Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>491</x:t>
-  </x:si>
-  <x:si>
-    <x:t>431</x:t>
-  </x:si>
-  <x:si>
-    <x:t>38</x:t>
-  </x:si>
-  <x:si>
-    <x:t>69</x:t>
-  </x:si>
-  <x:si>
-    <x:t>132</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1164</x:t>
-  </x:si>
-  <x:si>
-    <x:t>125</x:t>
-  </x:si>
-  <x:si>
-    <x:t>185</x:t>
-  </x:si>
-  <x:si>
-    <x:t>513</x:t>
-  </x:si>
-  <x:si>
-    <x:t>556</x:t>
-  </x:si>
-  <x:si>
-    <x:t>47</x:t>
-  </x:si>
-  <x:si>
-    <x:t>80</x:t>
-  </x:si>
-  <x:si>
-    <x:t>150</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1349</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Weapon Law Violations</x:t>
-  </x:si>
-  <x:si>
-    <x:t>655</x:t>
-  </x:si>
-  <x:si>
-    <x:t>890</x:t>
-  </x:si>
-  <x:si>
-    <x:t>68</x:t>
-  </x:si>
-  <x:si>
-    <x:t>351</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2015</x:t>
-  </x:si>
-  <x:si>
-    <x:t>163</x:t>
-  </x:si>
-  <x:si>
-    <x:t>268</x:t>
-  </x:si>
-  <x:si>
-    <x:t>714</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1053</x:t>
-  </x:si>
-  <x:si>
-    <x:t>78</x:t>
-  </x:si>
-  <x:si>
-    <x:t>378</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2283</x:t>
+    <x:t>394</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2426</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1239,10 +1260,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H5" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I5" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:9">
@@ -1271,7 +1292,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="I6" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:9">
@@ -1282,10 +1303,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D7" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E7" s="1" t="s">
         <x:v>28</x:v>
@@ -1297,56 +1318,56 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H7" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="I7" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9">
       <x:c r="A8" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D8" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E8" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F8" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="G8" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="H8" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="I8" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
       <x:c r="A9" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C9" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D9" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E9" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F9" s="1" t="s">
         <x:v>47</x:v>
@@ -1363,7 +1384,7 @@
     </x:row>
     <x:row r="10" spans="1:9">
       <x:c r="A10" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
         <x:v>21</x:v>
@@ -1381,18 +1402,18 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="G10" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="H10" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="I10" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
       <x:c r="A11" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
         <x:v>10</x:v>
@@ -1421,7 +1442,7 @@
     </x:row>
     <x:row r="12" spans="1:9">
       <x:c r="A12" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
         <x:v>21</x:v>
@@ -1450,106 +1471,106 @@
     </x:row>
     <x:row r="13" spans="1:9">
       <x:c r="A13" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D13" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="E13" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F13" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="G13" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H13" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="I13" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
       <x:c r="A14" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C14" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D14" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E14" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F14" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="G14" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="H14" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I14" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
       <x:c r="A15" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C15" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D15" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E15" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F15" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G15" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H15" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="I15" s="1" t="s">
-        <x:v>72</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
       <x:c r="A16" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D16" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E16" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F16" s="1" t="s">
         <x:v>77</x:v>
@@ -1566,7 +1587,7 @@
     </x:row>
     <x:row r="17" spans="1:9">
       <x:c r="A17" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
         <x:v>17</x:v>
@@ -1575,39 +1596,39 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="D17" s="1" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E17" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="F17" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G17" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H17" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="I17" s="1" t="s">
         <x:v>80</x:v>
-      </x:c>
-      <x:c r="E17" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="F17" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="G17" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="H17" s="1" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="I17" s="1" t="s">
-        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
       <x:c r="A18" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C18" s="1" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="D18" s="1" t="s">
         <x:v>82</x:v>
       </x:c>
-      <x:c r="D18" s="1" t="s">
-        <x:v>83</x:v>
-      </x:c>
       <x:c r="E18" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F18" s="1" t="s">
         <x:v>77</x:v>
@@ -1616,140 +1637,140 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H18" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="I18" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
       <x:c r="A19" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C19" s="1" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="D19" s="1" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="E19" s="1" t="s">
         <x:v>87</x:v>
       </x:c>
-      <x:c r="D19" s="1" t="s">
+      <x:c r="F19" s="1" t="s">
         <x:v>88</x:v>
       </x:c>
-      <x:c r="E19" s="1" t="s">
+      <x:c r="G19" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H19" s="1" t="s">
         <x:v>89</x:v>
       </x:c>
-      <x:c r="F19" s="1" t="s">
+      <x:c r="I19" s="1" t="s">
         <x:v>90</x:v>
-      </x:c>
-      <x:c r="G19" s="1" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="H19" s="1" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="I19" s="1" t="s">
-        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
       <x:c r="A20" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C20" s="1" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="D20" s="1" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="E20" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F20" s="1" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="G20" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H20" s="1" t="s">
         <x:v>93</x:v>
       </x:c>
-      <x:c r="D20" s="1" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E20" s="1" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="F20" s="1" t="s">
+      <x:c r="I20" s="1" t="s">
         <x:v>94</x:v>
-      </x:c>
-      <x:c r="G20" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="H20" s="1" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="I20" s="1" t="s">
-        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
       <x:c r="A21" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C21" s="1" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="D21" s="1" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="E21" s="1" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="F21" s="1" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G21" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H21" s="1" t="s">
         <x:v>97</x:v>
       </x:c>
-      <x:c r="D21" s="1" t="s">
+      <x:c r="I21" s="1" t="s">
         <x:v>98</x:v>
-      </x:c>
-      <x:c r="E21" s="1" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="F21" s="1" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="G21" s="1" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="H21" s="1" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="I21" s="1" t="s">
-        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
       <x:c r="A22" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="D22" s="1" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="E22" s="1" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="F22" s="1" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="G22" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H22" s="1" t="s">
         <x:v>104</x:v>
       </x:c>
-      <x:c r="D22" s="1" t="s">
+      <x:c r="I22" s="1" t="s">
         <x:v>105</x:v>
-      </x:c>
-      <x:c r="E22" s="1" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="F22" s="1" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="G22" s="1" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="H22" s="1" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="I22" s="1" t="s">
-        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
       <x:c r="A23" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C23" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D23" s="1" t="s">
-        <x:v>112</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="E23" s="1" t="s">
         <x:v>28</x:v>
@@ -1758,59 +1779,59 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G23" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H23" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="I23" s="1" t="s">
-        <x:v>113</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
       <x:c r="A24" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C24" s="1" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="D24" s="1" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="E24" s="1" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="F24" s="1" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="G24" s="1" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="H24" s="1" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="I24" s="1" t="s">
         <x:v>114</x:v>
-      </x:c>
-      <x:c r="D24" s="1" t="s">
-        <x:v>115</x:v>
-      </x:c>
-      <x:c r="E24" s="1" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="F24" s="1" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="G24" s="1" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="H24" s="1" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="I24" s="1" t="s">
-        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
       <x:c r="A25" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C25" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D25" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="E25" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F25" s="1" t="s">
         <x:v>19</x:v>
@@ -1819,24 +1840,24 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H25" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="I25" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
       <x:c r="A26" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C26" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D26" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E26" s="1" t="s">
         <x:v>19</x:v>
@@ -1851,24 +1872,24 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="I26" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:9">
       <x:c r="A27" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C27" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D27" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="E27" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F27" s="1" t="s">
         <x:v>19</x:v>
@@ -1877,15 +1898,15 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H27" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="I27" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:9">
       <x:c r="A28" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
         <x:v>10</x:v>
@@ -1914,7 +1935,7 @@
     </x:row>
     <x:row r="29" spans="1:9">
       <x:c r="A29" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
         <x:v>21</x:v>
@@ -1943,94 +1964,94 @@
     </x:row>
     <x:row r="30" spans="1:9">
       <x:c r="A30" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C30" s="1" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="D30" s="1" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="E30" s="1" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="F30" s="1" t="s">
         <x:v>128</x:v>
-      </x:c>
-      <x:c r="D30" s="1" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="E30" s="1" t="s">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="F30" s="1" t="s">
-        <x:v>66</x:v>
       </x:c>
       <x:c r="G30" s="1" t="s">
         <x:v>29</x:v>
       </x:c>
       <x:c r="H30" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="I30" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>130</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:9">
       <x:c r="A31" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C31" s="1" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="D31" s="1" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="E31" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="F31" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="G31" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H31" s="1" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="I31" s="1" t="s">
         <x:v>133</x:v>
-      </x:c>
-      <x:c r="D31" s="1" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="E31" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="F31" s="1" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="G31" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="H31" s="1" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="I31" s="1" t="s">
-        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
       <x:c r="A32" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C32" s="1" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="D32" s="1" t="s">
         <x:v>135</x:v>
       </x:c>
-      <x:c r="D32" s="1" t="s">
+      <x:c r="E32" s="1" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="F32" s="1" t="s">
         <x:v>136</x:v>
-      </x:c>
-      <x:c r="E32" s="1" t="s">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="F32" s="1" t="s">
-        <x:v>137</x:v>
       </x:c>
       <x:c r="G32" s="1" t="s">
         <x:v>29</x:v>
       </x:c>
       <x:c r="H32" s="1" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="I32" s="1" t="s">
         <x:v>138</x:v>
-      </x:c>
-      <x:c r="I32" s="1" t="s">
-        <x:v>139</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:9">
       <x:c r="A33" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
         <x:v>10</x:v>
@@ -2059,7 +2080,7 @@
     </x:row>
     <x:row r="34" spans="1:9">
       <x:c r="A34" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
         <x:v>17</x:v>
@@ -2071,7 +2092,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E34" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F34" s="1" t="s">
         <x:v>19</x:v>
@@ -2083,12 +2104,12 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="I34" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:9">
       <x:c r="A35" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
         <x:v>21</x:v>
@@ -2100,7 +2121,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="E35" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F35" s="1" t="s">
         <x:v>19</x:v>
@@ -2112,21 +2133,21 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="I35" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:9">
       <x:c r="A36" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C36" s="1" t="s">
-        <x:v>142</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D36" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="E36" s="1" t="s">
         <x:v>20</x:v>
@@ -2138,15 +2159,15 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H36" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="I36" s="1" t="s">
-        <x:v>144</x:v>
+        <x:v>143</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:9">
       <x:c r="A37" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
         <x:v>17</x:v>
@@ -2155,7 +2176,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="D37" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="E37" s="1" t="s">
         <x:v>14</x:v>
@@ -2170,21 +2191,21 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="I37" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:9">
       <x:c r="A38" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C38" s="1" t="s">
-        <x:v>145</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="D38" s="1" t="s">
-        <x:v>146</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="E38" s="1" t="s">
         <x:v>29</x:v>
@@ -2196,15 +2217,15 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H38" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="I38" s="1" t="s">
-        <x:v>137</x:v>
+        <x:v>148</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:9">
       <x:c r="A39" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
         <x:v>10</x:v>
@@ -2213,7 +2234,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="D39" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="E39" s="1" t="s">
         <x:v>18</x:v>
@@ -2228,12 +2249,12 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="I39" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:9">
       <x:c r="A40" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
         <x:v>21</x:v>
@@ -2242,7 +2263,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="D40" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="E40" s="1" t="s">
         <x:v>18</x:v>
@@ -2257,24 +2278,24 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="I40" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:9">
       <x:c r="A41" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C41" s="1" t="s">
-        <x:v>99</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D41" s="1" t="s">
-        <x:v>150</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="E41" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F41" s="1" t="s">
         <x:v>28</x:v>
@@ -2283,27 +2304,27 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H41" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I41" s="1" t="s">
-        <x:v>151</x:v>
+        <x:v>153</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9">
       <x:c r="A42" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C42" s="1" t="s">
-        <x:v>99</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D42" s="1" t="s">
-        <x:v>150</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="E42" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F42" s="1" t="s">
         <x:v>28</x:v>
@@ -2312,65 +2333,65 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H42" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I42" s="1" t="s">
-        <x:v>151</x:v>
+        <x:v>153</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:9">
       <x:c r="A43" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C43" s="1" t="s">
-        <x:v>153</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="D43" s="1" t="s">
-        <x:v>154</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="E43" s="1" t="s">
-        <x:v>155</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F43" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="G43" s="1" t="s">
-        <x:v>157</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="H43" s="1" t="s">
-        <x:v>158</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="I43" s="1" t="s">
-        <x:v>159</x:v>
+        <x:v>161</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:9">
       <x:c r="A44" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C44" s="1" t="s">
-        <x:v>160</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="D44" s="1" t="s">
-        <x:v>161</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="E44" s="1" t="s">
-        <x:v>145</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="F44" s="1" t="s">
-        <x:v>162</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G44" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H44" s="1" t="s">
-        <x:v>163</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="I44" s="1" t="s">
         <x:v>164</x:v>
@@ -2378,7 +2399,7 @@
     </x:row>
     <x:row r="45" spans="1:9">
       <x:c r="A45" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
         <x:v>21</x:v>
@@ -2393,120 +2414,120 @@
         <x:v>167</x:v>
       </x:c>
       <x:c r="F45" s="1" t="s">
-        <x:v>87</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="G45" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="H45" s="1" t="s">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="I45" s="1" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
       <x:c r="A46" s="0" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C46" s="1" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="D46" s="1" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="E46" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="F46" s="1" t="s">
-        <x:v>99</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="G46" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H46" s="1" t="s">
-        <x:v>173</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="I46" s="1" t="s">
-        <x:v>174</x:v>
+        <x:v>176</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
       <x:c r="A47" s="0" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C47" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="D47" s="1" t="s">
-        <x:v>151</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="E47" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F47" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="G47" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H47" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="I47" s="1" t="s">
-        <x:v>175</x:v>
+        <x:v>180</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
       <x:c r="A48" s="0" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C48" s="1" t="s">
-        <x:v>176</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="D48" s="1" t="s">
-        <x:v>177</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="E48" s="1" t="s">
-        <x:v>178</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F48" s="1" t="s">
-        <x:v>179</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="G48" s="1" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H48" s="1" t="s">
-        <x:v>180</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="I48" s="1" t="s">
-        <x:v>181</x:v>
+        <x:v>185</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:9">
       <x:c r="A49" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C49" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="D49" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E49" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F49" s="1" t="s">
         <x:v>14</x:v>
@@ -2515,15 +2536,15 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H49" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="I49" s="1" t="s">
-        <x:v>183</x:v>
+        <x:v>128</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:9">
       <x:c r="A50" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
         <x:v>17</x:v>
@@ -2544,27 +2565,27 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H50" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="I50" s="1" t="s">
-        <x:v>112</x:v>
+        <x:v>131</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:9">
       <x:c r="A51" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C51" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="D51" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E51" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F51" s="1" t="s">
         <x:v>14</x:v>
@@ -2573,21 +2594,21 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H51" s="1" t="s">
-        <x:v>112</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="I51" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>189</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:9">
       <x:c r="A52" s="0" t="s">
-        <x:v>185</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C52" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="D52" s="1" t="s">
         <x:v>14</x:v>
@@ -2605,18 +2626,18 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="I52" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:9">
       <x:c r="A53" s="0" t="s">
-        <x:v>185</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C53" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="D53" s="1" t="s">
         <x:v>14</x:v>
@@ -2634,137 +2655,137 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="I53" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:9">
       <x:c r="A54" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C54" s="1" t="s">
-        <x:v>187</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="D54" s="1" t="s">
-        <x:v>188</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="E54" s="1" t="s">
         <x:v>29</x:v>
       </x:c>
       <x:c r="F54" s="1" t="s">
-        <x:v>157</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="G54" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="H54" s="1" t="s">
-        <x:v>178</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="I54" s="1" t="s">
-        <x:v>189</x:v>
+        <x:v>194</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:9">
       <x:c r="A55" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C55" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="D55" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="E55" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="F55" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="G55" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="H55" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="I55" s="1" t="s">
-        <x:v>190</x:v>
+        <x:v>196</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:9">
       <x:c r="A56" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C56" s="1" t="s">
-        <x:v>191</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="D56" s="1" t="s">
-        <x:v>192</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="E56" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="F56" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G56" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="H56" s="1" t="s">
-        <x:v>142</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="I56" s="1" t="s">
-        <x:v>193</x:v>
+        <x:v>199</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:9">
       <x:c r="A57" s="0" t="s">
-        <x:v>194</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C57" s="1" t="s">
-        <x:v>195</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="D57" s="1" t="s">
-        <x:v>196</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="E57" s="1" t="s">
-        <x:v>157</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="F57" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="G57" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H57" s="1" t="s">
-        <x:v>197</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="I57" s="1" t="s">
-        <x:v>198</x:v>
+        <x:v>204</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:9">
       <x:c r="A58" s="0" t="s">
-        <x:v>194</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C58" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="D58" s="1" t="s">
-        <x:v>178</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="E58" s="1" t="s">
         <x:v>13</x:v>
@@ -2776,27 +2797,27 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H58" s="1" t="s">
-        <x:v>145</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="I58" s="1" t="s">
-        <x:v>199</x:v>
+        <x:v>206</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">
       <x:c r="A59" s="0" t="s">
-        <x:v>194</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C59" s="1" t="s">
-        <x:v>200</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="D59" s="1" t="s">
-        <x:v>201</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="E59" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="F59" s="1" t="s">
         <x:v>12</x:v>
@@ -2805,184 +2826,184 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="H59" s="1" t="s">
-        <x:v>202</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="I59" s="1" t="s">
-        <x:v>203</x:v>
+        <x:v>210</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9">
       <x:c r="A60" s="0" t="s">
-        <x:v>204</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C60" s="1" t="s">
-        <x:v>205</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="D60" s="1" t="s">
-        <x:v>206</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="E60" s="1" t="s">
-        <x:v>207</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="F60" s="1" t="s">
-        <x:v>208</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="G60" s="1" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H60" s="1" t="s">
-        <x:v>209</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="I60" s="1" t="s">
-        <x:v>210</x:v>
+        <x:v>215</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">
       <x:c r="A61" s="0" t="s">
-        <x:v>204</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C61" s="1" t="s">
-        <x:v>157</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D61" s="1" t="s">
-        <x:v>211</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="E61" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="F61" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="G61" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="H61" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="I61" s="1" t="s">
-        <x:v>212</x:v>
+        <x:v>218</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
       <x:c r="A62" s="0" t="s">
-        <x:v>204</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C62" s="1" t="s">
-        <x:v>213</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="D62" s="1" t="s">
-        <x:v>214</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="E62" s="1" t="s">
-        <x:v>215</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="F62" s="1" t="s">
-        <x:v>216</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="G62" s="1" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H62" s="1" t="s">
-        <x:v>217</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="I62" s="1" t="s">
-        <x:v>218</x:v>
+        <x:v>223</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:9">
       <x:c r="A63" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C63" s="1" t="s">
-        <x:v>220</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="D63" s="1" t="s">
-        <x:v>221</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="E63" s="1" t="s">
-        <x:v>173</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F63" s="1" t="s">
-        <x:v>222</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="G63" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H63" s="1" t="s">
-        <x:v>223</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="I63" s="1" t="s">
-        <x:v>224</x:v>
+        <x:v>229</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:9">
       <x:c r="A64" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C64" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="D64" s="1" t="s">
-        <x:v>225</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="E64" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F64" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="G64" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="H64" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="I64" s="1" t="s">
-        <x:v>226</x:v>
+        <x:v>232</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:9">
       <x:c r="A65" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C65" s="1" t="s">
-        <x:v>227</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="D65" s="1" t="s">
-        <x:v>228</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="E65" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="F65" s="1" t="s">
-        <x:v>229</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="G65" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H65" s="1" t="s">
-        <x:v>230</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="I65" s="1" t="s">
-        <x:v>231</x:v>
+        <x:v>238</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -130,16 +130,16 @@
     <x:t>Assault Offenses</x:t>
   </x:si>
   <x:si>
-    <x:t>7677</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4688</x:t>
+    <x:t>7682</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4691</x:t>
   </x:si>
   <x:si>
     <x:t>377</x:t>
   </x:si>
   <x:si>
-    <x:t>699</x:t>
+    <x:t>698</x:t>
   </x:si>
   <x:si>
     <x:t>28</x:t>
@@ -148,7 +148,7 @@
     <x:t>1498</x:t>
   </x:si>
   <x:si>
-    <x:t>14967</x:t>
+    <x:t>14974</x:t>
   </x:si>
   <x:si>
     <x:t>913</x:t>
@@ -166,16 +166,16 @@
     <x:t>2137</x:t>
   </x:si>
   <x:si>
-    <x:t>8590</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5442</x:t>
+    <x:t>8595</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5445</x:t>
   </x:si>
   <x:si>
     <x:t>411</x:t>
   </x:si>
   <x:si>
-    <x:t>857</x:t>
+    <x:t>856</x:t>
   </x:si>
   <x:si>
     <x:t>32</x:t>
@@ -184,7 +184,7 @@
     <x:t>1772</x:t>
   </x:si>
   <x:si>
-    <x:t>17104</x:t>
+    <x:t>17111</x:t>
   </x:si>
   <x:si>
     <x:t>Bribery</x:t>
@@ -202,145 +202,142 @@
     <x:t>46</x:t>
   </x:si>
   <x:si>
+    <x:t>104</x:t>
+  </x:si>
+  <x:si>
+    <x:t>132</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1661</x:t>
+  </x:si>
+  <x:si>
+    <x:t>63</x:t>
+  </x:si>
+  <x:si>
+    <x:t>43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>146</x:t>
+  </x:si>
+  <x:si>
+    <x:t>627</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>142</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1807</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Counterfeiting/Forgery</x:t>
+  </x:si>
+  <x:si>
+    <x:t>288</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>49</x:t>
+  </x:si>
+  <x:si>
+    <x:t>515</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>291</x:t>
+  </x:si>
+  <x:si>
+    <x:t>152</x:t>
+  </x:si>
+  <x:si>
+    <x:t>529</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Destruction/Damage/Vandalism of Property</x:t>
+  </x:si>
+  <x:si>
+    <x:t>860</x:t>
+  </x:si>
+  <x:si>
+    <x:t>458</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>92</x:t>
+  </x:si>
+  <x:si>
+    <x:t>179</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1629</x:t>
+  </x:si>
+  <x:si>
+    <x:t>207</x:t>
+  </x:si>
+  <x:si>
+    <x:t>101</x:t>
+  </x:si>
+  <x:si>
+    <x:t>47</x:t>
+  </x:si>
+  <x:si>
+    <x:t>387</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1067</x:t>
+  </x:si>
+  <x:si>
+    <x:t>559</x:t>
+  </x:si>
+  <x:si>
+    <x:t>226</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2016</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Drug/Narcotic Violations</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3994</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2035</x:t>
+  </x:si>
+  <x:si>
+    <x:t>151</x:t>
+  </x:si>
+  <x:si>
+    <x:t>558</x:t>
+  </x:si>
+  <x:si>
+    <x:t>900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7659</x:t>
+  </x:si>
+  <x:si>
     <x:t>103</x:t>
   </x:si>
   <x:si>
-    <x:t>132</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1660</x:t>
-  </x:si>
-  <x:si>
-    <x:t>63</x:t>
-  </x:si>
-  <x:si>
-    <x:t>43</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>146</x:t>
-  </x:si>
-  <x:si>
-    <x:t>856</x:t>
-  </x:si>
-  <x:si>
-    <x:t>627</x:t>
-  </x:si>
-  <x:si>
-    <x:t>50</x:t>
-  </x:si>
-  <x:si>
-    <x:t>129</x:t>
-  </x:si>
-  <x:si>
-    <x:t>142</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1806</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Counterfeiting/Forgery</x:t>
-  </x:si>
-  <x:si>
-    <x:t>288</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18</x:t>
-  </x:si>
-  <x:si>
-    <x:t>49</x:t>
-  </x:si>
-  <x:si>
-    <x:t>515</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>291</x:t>
-  </x:si>
-  <x:si>
-    <x:t>152</x:t>
-  </x:si>
-  <x:si>
-    <x:t>529</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Destruction/Damage/Vandalism of Property</x:t>
-  </x:si>
-  <x:si>
-    <x:t>859</x:t>
-  </x:si>
-  <x:si>
-    <x:t>458</x:t>
-  </x:si>
-  <x:si>
-    <x:t>39</x:t>
-  </x:si>
-  <x:si>
-    <x:t>92</x:t>
-  </x:si>
-  <x:si>
-    <x:t>179</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1628</x:t>
-  </x:si>
-  <x:si>
-    <x:t>207</x:t>
-  </x:si>
-  <x:si>
-    <x:t>101</x:t>
-  </x:si>
-  <x:si>
-    <x:t>47</x:t>
-  </x:si>
-  <x:si>
-    <x:t>387</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1066</x:t>
-  </x:si>
-  <x:si>
-    <x:t>559</x:t>
-  </x:si>
-  <x:si>
-    <x:t>226</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2015</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Drug/Narcotic Violations</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3993</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2035</x:t>
-  </x:si>
-  <x:si>
-    <x:t>151</x:t>
-  </x:si>
-  <x:si>
-    <x:t>558</x:t>
-  </x:si>
-  <x:si>
-    <x:t>900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7658</x:t>
-  </x:si>
-  <x:si>
     <x:t>31</x:t>
   </x:si>
   <x:si>
     <x:t>177</x:t>
   </x:si>
   <x:si>
-    <x:t>4096</x:t>
+    <x:t>4097</x:t>
   </x:si>
   <x:si>
     <x:t>2066</x:t>
@@ -358,7 +355,7 @@
     <x:t>932</x:t>
   </x:si>
   <x:si>
-    <x:t>7835</x:t>
+    <x:t>7836</x:t>
   </x:si>
   <x:si>
     <x:t>Embezzlement</x:t>
@@ -391,7 +388,7 @@
     <x:t>Fraud Offenses</x:t>
   </x:si>
   <x:si>
-    <x:t>988</x:t>
+    <x:t>987</x:t>
   </x:si>
   <x:si>
     <x:t>755</x:t>
@@ -400,190 +397,187 @@
     <x:t>64</x:t>
   </x:si>
   <x:si>
+    <x:t>156</x:t>
+  </x:si>
+  <x:si>
+    <x:t>287</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2254</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>86</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1016</x:t>
+  </x:si>
+  <x:si>
+    <x:t>790</x:t>
+  </x:si>
+  <x:si>
+    <x:t>162</x:t>
+  </x:si>
+  <x:si>
+    <x:t>303</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2340</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gambling Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Homicide Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>82</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>145</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>91</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Human Trafficking</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kidnapping/Abduction</x:t>
+  </x:si>
+  <x:si>
+    <x:t>51</x:t>
+  </x:si>
+  <x:si>
+    <x:t>119</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Larceny/Theft Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7649</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5011</x:t>
+  </x:si>
+  <x:si>
+    <x:t>298</x:t>
+  </x:si>
+  <x:si>
+    <x:t>825</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15306</x:t>
+  </x:si>
+  <x:si>
+    <x:t>713</x:t>
+  </x:si>
+  <x:si>
+    <x:t>616</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1578</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8362</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5627</x:t>
+  </x:si>
+  <x:si>
+    <x:t>335</x:t>
+  </x:si>
+  <x:si>
+    <x:t>884</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1650</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16884</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Motor Vehicle Theft</x:t>
+  </x:si>
+  <x:si>
+    <x:t>261</x:t>
+  </x:si>
+  <x:si>
+    <x:t>169</x:t>
+  </x:si>
+  <x:si>
+    <x:t>42</x:t>
+  </x:si>
+  <x:si>
+    <x:t>55</x:t>
+  </x:si>
+  <x:si>
+    <x:t>553</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36</x:t>
+  </x:si>
+  <x:si>
+    <x:t>112</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>183</x:t>
+  </x:si>
+  <x:si>
+    <x:t>297</x:t>
+  </x:si>
+  <x:si>
+    <x:t>281</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58</x:t>
+  </x:si>
+  <x:si>
+    <x:t>67</x:t>
+  </x:si>
+  <x:si>
+    <x:t>736</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pornography/Obscene Material</x:t>
+  </x:si>
+  <x:si>
+    <x:t>111</x:t>
+  </x:si>
+  <x:si>
     <x:t>157</x:t>
   </x:si>
   <x:si>
-    <x:t>287</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2256</x:t>
-  </x:si>
-  <x:si>
-    <x:t>29</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35</x:t>
-  </x:si>
-  <x:si>
-    <x:t>86</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1017</x:t>
-  </x:si>
-  <x:si>
-    <x:t>790</x:t>
-  </x:si>
-  <x:si>
-    <x:t>163</x:t>
-  </x:si>
-  <x:si>
-    <x:t>303</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2342</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gambling Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Homicide Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>82</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19</x:t>
-  </x:si>
-  <x:si>
-    <x:t>145</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>40</x:t>
-  </x:si>
-  <x:si>
-    <x:t>91</x:t>
-  </x:si>
-  <x:si>
-    <x:t>162</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Human Trafficking</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kidnapping/Abduction</x:t>
-  </x:si>
-  <x:si>
-    <x:t>51</x:t>
-  </x:si>
-  <x:si>
-    <x:t>119</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Larceny/Theft Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7642</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>298</x:t>
-  </x:si>
-  <x:si>
-    <x:t>823</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1497</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15285</x:t>
-  </x:si>
-  <x:si>
-    <x:t>713</x:t>
-  </x:si>
-  <x:si>
-    <x:t>616</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1578</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8355</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5616</x:t>
-  </x:si>
-  <x:si>
-    <x:t>335</x:t>
-  </x:si>
-  <x:si>
-    <x:t>882</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1649</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16863</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Motor Vehicle Theft</x:t>
-  </x:si>
-  <x:si>
-    <x:t>261</x:t>
-  </x:si>
-  <x:si>
-    <x:t>169</x:t>
-  </x:si>
-  <x:si>
-    <x:t>42</x:t>
-  </x:si>
-  <x:si>
-    <x:t>55</x:t>
-  </x:si>
-  <x:si>
-    <x:t>553</x:t>
-  </x:si>
-  <x:si>
-    <x:t>36</x:t>
-  </x:si>
-  <x:si>
-    <x:t>112</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>183</x:t>
-  </x:si>
-  <x:si>
-    <x:t>297</x:t>
-  </x:si>
-  <x:si>
-    <x:t>281</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58</x:t>
-  </x:si>
-  <x:si>
-    <x:t>67</x:t>
-  </x:si>
-  <x:si>
-    <x:t>736</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pornography/Obscene Material</x:t>
-  </x:si>
-  <x:si>
-    <x:t>111</x:t>
-  </x:si>
-  <x:si>
     <x:t>131</x:t>
   </x:si>
   <x:si>
-    <x:t>186</x:t>
+    <x:t>187</x:t>
   </x:si>
   <x:si>
     <x:t>Prostitution Offenses</x:t>
@@ -595,10 +589,10 @@
     <x:t>96</x:t>
   </x:si>
   <x:si>
-    <x:t>370</x:t>
-  </x:si>
-  <x:si>
-    <x:t>520</x:t>
+    <x:t>371</x:t>
+  </x:si>
+  <x:si>
+    <x:t>521</x:t>
   </x:si>
   <x:si>
     <x:t>155</x:t>
@@ -610,10 +604,10 @@
     <x:t>115</x:t>
   </x:si>
   <x:si>
-    <x:t>525</x:t>
-  </x:si>
-  <x:si>
-    <x:t>722</x:t>
+    <x:t>526</x:t>
+  </x:si>
+  <x:si>
+    <x:t>723</x:t>
   </x:si>
   <x:si>
     <x:t>Sex Offenses</x:t>
@@ -691,34 +685,31 @@
     <x:t>Weapon Law Violations</x:t>
   </x:si>
   <x:si>
-    <x:t>697</x:t>
-  </x:si>
-  <x:si>
     <x:t>952</x:t>
   </x:si>
   <x:si>
     <x:t>74</x:t>
   </x:si>
   <x:si>
-    <x:t>367</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2147</x:t>
+    <x:t>368</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2149</x:t>
   </x:si>
   <x:si>
     <x:t>60</x:t>
   </x:si>
   <x:si>
-    <x:t>172</x:t>
-  </x:si>
-  <x:si>
-    <x:t>279</x:t>
-  </x:si>
-  <x:si>
-    <x:t>757</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1124</x:t>
+    <x:t>173</x:t>
+  </x:si>
+  <x:si>
+    <x:t>280</x:t>
+  </x:si>
+  <x:si>
+    <x:t>758</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1125</x:t>
   </x:si>
   <x:si>
     <x:t>65</x:t>
@@ -727,10 +718,10 @@
     <x:t>84</x:t>
   </x:si>
   <x:si>
-    <x:t>394</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2426</x:t>
+    <x:t>395</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2429</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1535,59 +1526,59 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C15" s="1" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="D15" s="1" t="s">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="D15" s="1" t="s">
+      <x:c r="E15" s="1" t="s">
         <x:v>70</x:v>
       </x:c>
-      <x:c r="E15" s="1" t="s">
-        <x:v>71</x:v>
-      </x:c>
       <x:c r="F15" s="1" t="s">
-        <x:v>72</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="G15" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H15" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="I15" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
       <x:c r="A16" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="1" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="D16" s="1" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="E16" s="1" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="F16" s="1" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="G16" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H16" s="1" t="s">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="D16" s="1" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="E16" s="1" t="s">
+      <x:c r="I16" s="1" t="s">
         <x:v>77</x:v>
-      </x:c>
-      <x:c r="F16" s="1" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="G16" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="H16" s="1" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="I16" s="1" t="s">
-        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
       <x:c r="A17" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
         <x:v>17</x:v>
@@ -1611,79 +1602,79 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="I17" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
       <x:c r="A18" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C18" s="1" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="D18" s="1" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="E18" s="1" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="F18" s="1" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="G18" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H18" s="1" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="I18" s="1" t="s">
         <x:v>81</x:v>
-      </x:c>
-      <x:c r="D18" s="1" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="E18" s="1" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="F18" s="1" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="G18" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="H18" s="1" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="I18" s="1" t="s">
-        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
       <x:c r="A19" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C19" s="1" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="D19" s="1" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="E19" s="1" t="s">
         <x:v>85</x:v>
       </x:c>
-      <x:c r="D19" s="1" t="s">
+      <x:c r="F19" s="1" t="s">
         <x:v>86</x:v>
       </x:c>
-      <x:c r="E19" s="1" t="s">
+      <x:c r="G19" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H19" s="1" t="s">
         <x:v>87</x:v>
       </x:c>
-      <x:c r="F19" s="1" t="s">
+      <x:c r="I19" s="1" t="s">
         <x:v>88</x:v>
-      </x:c>
-      <x:c r="G19" s="1" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="H19" s="1" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="I19" s="1" t="s">
-        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
       <x:c r="A20" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C20" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="D20" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E20" s="1" t="s">
         <x:v>20</x:v>
@@ -1695,24 +1686,24 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H20" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="I20" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
       <x:c r="A21" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C21" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="D21" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E21" s="1" t="s">
         <x:v>66</x:v>
@@ -1724,53 +1715,53 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H21" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="I21" s="1" t="s">
-        <x:v>98</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
       <x:c r="A22" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="D22" s="1" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="E22" s="1" t="s">
         <x:v>100</x:v>
       </x:c>
-      <x:c r="D22" s="1" t="s">
+      <x:c r="F22" s="1" t="s">
         <x:v>101</x:v>
-      </x:c>
-      <x:c r="E22" s="1" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="F22" s="1" t="s">
-        <x:v>103</x:v>
       </x:c>
       <x:c r="G22" s="1" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="H22" s="1" t="s">
-        <x:v>104</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I22" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>103</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
       <x:c r="A23" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C23" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D23" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E23" s="1" t="s">
         <x:v>28</x:v>
@@ -1785,50 +1776,50 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="I23" s="1" t="s">
-        <x:v>107</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
       <x:c r="A24" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C24" s="1" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="D24" s="1" t="s">
         <x:v>108</x:v>
       </x:c>
-      <x:c r="D24" s="1" t="s">
+      <x:c r="E24" s="1" t="s">
         <x:v>109</x:v>
       </x:c>
-      <x:c r="E24" s="1" t="s">
+      <x:c r="F24" s="1" t="s">
         <x:v>110</x:v>
       </x:c>
-      <x:c r="F24" s="1" t="s">
+      <x:c r="G24" s="1" t="s">
         <x:v>111</x:v>
       </x:c>
-      <x:c r="G24" s="1" t="s">
+      <x:c r="H24" s="1" t="s">
         <x:v>112</x:v>
       </x:c>
-      <x:c r="H24" s="1" t="s">
+      <x:c r="I24" s="1" t="s">
         <x:v>113</x:v>
-      </x:c>
-      <x:c r="I24" s="1" t="s">
-        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
       <x:c r="A25" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C25" s="1" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="D25" s="1" t="s">
         <x:v>116</x:v>
-      </x:c>
-      <x:c r="D25" s="1" t="s">
-        <x:v>117</x:v>
       </x:c>
       <x:c r="E25" s="1" t="s">
         <x:v>18</x:v>
@@ -1843,12 +1834,12 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="I25" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
       <x:c r="A26" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
         <x:v>17</x:v>
@@ -1872,21 +1863,21 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="I26" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:9">
       <x:c r="A27" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C27" s="1" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="D27" s="1" t="s">
         <x:v>119</x:v>
-      </x:c>
-      <x:c r="D27" s="1" t="s">
-        <x:v>120</x:v>
       </x:c>
       <x:c r="E27" s="1" t="s">
         <x:v>18</x:v>
@@ -1898,15 +1889,15 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H27" s="1" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="I27" s="1" t="s">
         <x:v>121</x:v>
-      </x:c>
-      <x:c r="I27" s="1" t="s">
-        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:9">
       <x:c r="A28" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
         <x:v>10</x:v>
@@ -1935,7 +1926,7 @@
     </x:row>
     <x:row r="29" spans="1:9">
       <x:c r="A29" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
         <x:v>21</x:v>
@@ -1964,45 +1955,45 @@
     </x:row>
     <x:row r="30" spans="1:9">
       <x:c r="A30" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C30" s="1" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="D30" s="1" t="s">
         <x:v>125</x:v>
       </x:c>
-      <x:c r="D30" s="1" t="s">
+      <x:c r="E30" s="1" t="s">
         <x:v>126</x:v>
       </x:c>
-      <x:c r="E30" s="1" t="s">
+      <x:c r="F30" s="1" t="s">
         <x:v>127</x:v>
-      </x:c>
-      <x:c r="F30" s="1" t="s">
-        <x:v>128</x:v>
       </x:c>
       <x:c r="G30" s="1" t="s">
         <x:v>29</x:v>
       </x:c>
       <x:c r="H30" s="1" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="I30" s="1" t="s">
         <x:v>129</x:v>
-      </x:c>
-      <x:c r="I30" s="1" t="s">
-        <x:v>130</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:9">
       <x:c r="A31" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C31" s="1" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="D31" s="1" t="s">
         <x:v>131</x:v>
-      </x:c>
-      <x:c r="D31" s="1" t="s">
-        <x:v>132</x:v>
       </x:c>
       <x:c r="E31" s="1" t="s">
         <x:v>19</x:v>
@@ -2014,44 +2005,44 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H31" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="I31" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
       <x:c r="A32" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C32" s="1" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="D32" s="1" t="s">
         <x:v>134</x:v>
       </x:c>
-      <x:c r="D32" s="1" t="s">
+      <x:c r="E32" s="1" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="F32" s="1" t="s">
         <x:v>135</x:v>
-      </x:c>
-      <x:c r="E32" s="1" t="s">
-        <x:v>127</x:v>
-      </x:c>
-      <x:c r="F32" s="1" t="s">
-        <x:v>136</x:v>
       </x:c>
       <x:c r="G32" s="1" t="s">
         <x:v>29</x:v>
       </x:c>
       <x:c r="H32" s="1" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="I32" s="1" t="s">
         <x:v>137</x:v>
-      </x:c>
-      <x:c r="I32" s="1" t="s">
-        <x:v>138</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:9">
       <x:c r="A33" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
         <x:v>10</x:v>
@@ -2080,7 +2071,7 @@
     </x:row>
     <x:row r="34" spans="1:9">
       <x:c r="A34" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
         <x:v>17</x:v>
@@ -2109,7 +2100,7 @@
     </x:row>
     <x:row r="35" spans="1:9">
       <x:c r="A35" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
         <x:v>21</x:v>
@@ -2138,16 +2129,16 @@
     </x:row>
     <x:row r="36" spans="1:9">
       <x:c r="A36" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C36" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="D36" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="E36" s="1" t="s">
         <x:v>20</x:v>
@@ -2159,15 +2150,15 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H36" s="1" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="I36" s="1" t="s">
         <x:v>142</x:v>
-      </x:c>
-      <x:c r="I36" s="1" t="s">
-        <x:v>143</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:9">
       <x:c r="A37" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
         <x:v>17</x:v>
@@ -2176,7 +2167,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="D37" s="1" t="s">
-        <x:v>144</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="E37" s="1" t="s">
         <x:v>14</x:v>
@@ -2191,21 +2182,21 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="I37" s="1" t="s">
-        <x:v>145</x:v>
+        <x:v>144</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:9">
       <x:c r="A38" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C38" s="1" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="D38" s="1" t="s">
         <x:v>146</x:v>
-      </x:c>
-      <x:c r="D38" s="1" t="s">
-        <x:v>147</x:v>
       </x:c>
       <x:c r="E38" s="1" t="s">
         <x:v>29</x:v>
@@ -2220,12 +2211,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I38" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>135</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:9">
       <x:c r="A39" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
         <x:v>10</x:v>
@@ -2234,7 +2225,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="D39" s="1" t="s">
-        <x:v>150</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="E39" s="1" t="s">
         <x:v>18</x:v>
@@ -2249,12 +2240,12 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="I39" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>131</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:9">
       <x:c r="A40" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
         <x:v>21</x:v>
@@ -2263,7 +2254,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="D40" s="1" t="s">
-        <x:v>150</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="E40" s="1" t="s">
         <x:v>18</x:v>
@@ -2278,12 +2269,12 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="I40" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>131</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:9">
       <x:c r="A41" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
         <x:v>10</x:v>
@@ -2292,7 +2283,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="D41" s="1" t="s">
-        <x:v>152</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="E41" s="1" t="s">
         <x:v>30</x:v>
@@ -2307,12 +2298,12 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="I41" s="1" t="s">
-        <x:v>153</x:v>
+        <x:v>151</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9">
       <x:c r="A42" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
         <x:v>21</x:v>
@@ -2321,7 +2312,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="D42" s="1" t="s">
-        <x:v>152</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="E42" s="1" t="s">
         <x:v>30</x:v>
@@ -2336,53 +2327,53 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="I42" s="1" t="s">
-        <x:v>153</x:v>
+        <x:v>151</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:9">
       <x:c r="A43" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C43" s="1" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="D43" s="1" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="E43" s="1" t="s">
         <x:v>155</x:v>
       </x:c>
-      <x:c r="D43" s="1" t="s">
+      <x:c r="F43" s="1" t="s">
         <x:v>156</x:v>
       </x:c>
-      <x:c r="E43" s="1" t="s">
+      <x:c r="G43" s="1" t="s">
         <x:v>157</x:v>
       </x:c>
-      <x:c r="F43" s="1" t="s">
+      <x:c r="H43" s="1" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="I43" s="1" t="s">
         <x:v>158</x:v>
-      </x:c>
-      <x:c r="G43" s="1" t="s">
-        <x:v>159</x:v>
-      </x:c>
-      <x:c r="H43" s="1" t="s">
-        <x:v>160</x:v>
-      </x:c>
-      <x:c r="I43" s="1" t="s">
-        <x:v>161</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:9">
       <x:c r="A44" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C44" s="1" t="s">
-        <x:v>162</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="D44" s="1" t="s">
-        <x:v>163</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="E44" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="F44" s="1" t="s">
         <x:v>11</x:v>
@@ -2391,140 +2382,140 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H44" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="I44" s="1" t="s">
-        <x:v>164</x:v>
+        <x:v>161</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:9">
       <x:c r="A45" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C45" s="1" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="D45" s="1" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="E45" s="1" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="F45" s="1" t="s">
         <x:v>165</x:v>
-      </x:c>
-      <x:c r="D45" s="1" t="s">
-        <x:v>166</x:v>
-      </x:c>
-      <x:c r="E45" s="1" t="s">
-        <x:v>167</x:v>
-      </x:c>
-      <x:c r="F45" s="1" t="s">
-        <x:v>168</x:v>
       </x:c>
       <x:c r="G45" s="1" t="s">
         <x:v>67</x:v>
       </x:c>
       <x:c r="H45" s="1" t="s">
-        <x:v>169</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="I45" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>167</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
       <x:c r="A46" s="0" t="s">
-        <x:v>171</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C46" s="1" t="s">
-        <x:v>172</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="D46" s="1" t="s">
-        <x:v>173</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="E46" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="F46" s="1" t="s">
-        <x:v>174</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="G46" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H46" s="1" t="s">
-        <x:v>175</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="I46" s="1" t="s">
-        <x:v>176</x:v>
+        <x:v>173</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
       <x:c r="A47" s="0" t="s">
-        <x:v>171</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C47" s="1" t="s">
-        <x:v>177</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="D47" s="1" t="s">
-        <x:v>178</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="E47" s="1" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="F47" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="G47" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H47" s="1" t="s">
-        <x:v>179</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="I47" s="1" t="s">
-        <x:v>180</x:v>
+        <x:v>177</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
       <x:c r="A48" s="0" t="s">
-        <x:v>171</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C48" s="1" t="s">
-        <x:v>181</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="D48" s="1" t="s">
-        <x:v>182</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="E48" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="F48" s="1" t="s">
-        <x:v>183</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="G48" s="1" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H48" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="I48" s="1" t="s">
-        <x:v>185</x:v>
+        <x:v>182</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:9">
       <x:c r="A49" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C49" s="1" t="s">
-        <x:v>187</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="D49" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E49" s="1" t="s">
         <x:v>13</x:v>
@@ -2536,15 +2527,15 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H49" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="I49" s="1" t="s">
-        <x:v>128</x:v>
+        <x:v>185</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:9">
       <x:c r="A50" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
         <x:v>17</x:v>
@@ -2565,21 +2556,21 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H50" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="I50" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>115</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:9">
       <x:c r="A51" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C51" s="1" t="s">
-        <x:v>188</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="D51" s="1" t="s">
         <x:v>23</x:v>
@@ -2594,21 +2585,21 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H51" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="I51" s="1" t="s">
-        <x:v>189</x:v>
+        <x:v>187</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:9">
       <x:c r="A52" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C52" s="1" t="s">
-        <x:v>179</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="D52" s="1" t="s">
         <x:v>14</x:v>
@@ -2631,13 +2622,13 @@
     </x:row>
     <x:row r="53" spans="1:9">
       <x:c r="A53" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C53" s="1" t="s">
-        <x:v>179</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="D53" s="1" t="s">
         <x:v>14</x:v>
@@ -2660,51 +2651,51 @@
     </x:row>
     <x:row r="54" spans="1:9">
       <x:c r="A54" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C54" s="1" t="s">
-        <x:v>192</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="D54" s="1" t="s">
-        <x:v>193</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="E54" s="1" t="s">
         <x:v>29</x:v>
       </x:c>
       <x:c r="F54" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="G54" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="H54" s="1" t="s">
-        <x:v>159</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="I54" s="1" t="s">
-        <x:v>194</x:v>
+        <x:v>192</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:9">
       <x:c r="A55" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C55" s="1" t="s">
-        <x:v>142</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="D55" s="1" t="s">
-        <x:v>195</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="E55" s="1" t="s">
-        <x:v>179</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="F55" s="1" t="s">
-        <x:v>144</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="G55" s="1" t="s">
         <x:v>19</x:v>
@@ -2713,24 +2704,24 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="I55" s="1" t="s">
-        <x:v>196</x:v>
+        <x:v>194</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:9">
       <x:c r="A56" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C56" s="1" t="s">
-        <x:v>197</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="D56" s="1" t="s">
-        <x:v>198</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="E56" s="1" t="s">
-        <x:v>145</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="F56" s="1" t="s">
         <x:v>27</x:v>
@@ -2742,50 +2733,50 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="I56" s="1" t="s">
-        <x:v>199</x:v>
+        <x:v>197</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:9">
       <x:c r="A57" s="0" t="s">
-        <x:v>200</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C57" s="1" t="s">
-        <x:v>201</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="D57" s="1" t="s">
-        <x:v>202</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E57" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="F57" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="G57" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H57" s="1" t="s">
-        <x:v>203</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="I57" s="1" t="s">
-        <x:v>204</x:v>
+        <x:v>202</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:9">
       <x:c r="A58" s="0" t="s">
-        <x:v>200</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C58" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="D58" s="1" t="s">
-        <x:v>205</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="E58" s="1" t="s">
         <x:v>13</x:v>
@@ -2797,27 +2788,27 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H58" s="1" t="s">
-        <x:v>87</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="I58" s="1" t="s">
-        <x:v>206</x:v>
+        <x:v>204</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">
       <x:c r="A59" s="0" t="s">
-        <x:v>200</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C59" s="1" t="s">
-        <x:v>207</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="D59" s="1" t="s">
-        <x:v>208</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="E59" s="1" t="s">
-        <x:v>159</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F59" s="1" t="s">
         <x:v>12</x:v>
@@ -2826,140 +2817,140 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="H59" s="1" t="s">
-        <x:v>209</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="I59" s="1" t="s">
-        <x:v>210</x:v>
+        <x:v>208</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9">
       <x:c r="A60" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C60" s="1" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="D60" s="1" t="s">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="E60" s="1" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="F60" s="1" t="s">
         <x:v>212</x:v>
-      </x:c>
-      <x:c r="D60" s="1" t="s">
-        <x:v>213</x:v>
-      </x:c>
-      <x:c r="E60" s="1" t="s">
-        <x:v>146</x:v>
-      </x:c>
-      <x:c r="F60" s="1" t="s">
-        <x:v>214</x:v>
       </x:c>
       <x:c r="G60" s="1" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H60" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="I60" s="1" t="s">
-        <x:v>215</x:v>
+        <x:v>213</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">
       <x:c r="A61" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C61" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D61" s="1" t="s">
+        <x:v>214</x:v>
+      </x:c>
+      <x:c r="E61" s="1" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="F61" s="1" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="G61" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H61" s="1" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="I61" s="1" t="s">
         <x:v>216</x:v>
-      </x:c>
-      <x:c r="E61" s="1" t="s">
-        <x:v>144</x:v>
-      </x:c>
-      <x:c r="F61" s="1" t="s">
-        <x:v>217</x:v>
-      </x:c>
-      <x:c r="G61" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="H61" s="1" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="I61" s="1" t="s">
-        <x:v>218</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
       <x:c r="A62" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C62" s="1" t="s">
+        <x:v>217</x:v>
+      </x:c>
+      <x:c r="D62" s="1" t="s">
+        <x:v>218</x:v>
+      </x:c>
+      <x:c r="E62" s="1" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="F62" s="1" t="s">
         <x:v>219</x:v>
-      </x:c>
-      <x:c r="D62" s="1" t="s">
-        <x:v>220</x:v>
-      </x:c>
-      <x:c r="E62" s="1" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="F62" s="1" t="s">
-        <x:v>221</x:v>
       </x:c>
       <x:c r="G62" s="1" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H62" s="1" t="s">
-        <x:v>222</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="I62" s="1" t="s">
-        <x:v>223</x:v>
+        <x:v>221</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:9">
       <x:c r="A63" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C63" s="1" t="s">
-        <x:v>225</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D63" s="1" t="s">
-        <x:v>226</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="E63" s="1" t="s">
-        <x:v>175</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="F63" s="1" t="s">
-        <x:v>227</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="G63" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H63" s="1" t="s">
-        <x:v>228</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="I63" s="1" t="s">
-        <x:v>229</x:v>
+        <x:v>226</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:9">
       <x:c r="A64" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C64" s="1" t="s">
-        <x:v>230</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="D64" s="1" t="s">
-        <x:v>231</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="E64" s="1" t="s">
         <x:v>32</x:v>
@@ -2971,39 +2962,39 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H64" s="1" t="s">
-        <x:v>205</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="I64" s="1" t="s">
-        <x:v>232</x:v>
+        <x:v>229</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:9">
       <x:c r="A65" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C65" s="1" t="s">
+        <x:v>230</x:v>
+      </x:c>
+      <x:c r="D65" s="1" t="s">
+        <x:v>231</x:v>
+      </x:c>
+      <x:c r="E65" s="1" t="s">
+        <x:v>232</x:v>
+      </x:c>
+      <x:c r="F65" s="1" t="s">
         <x:v>233</x:v>
-      </x:c>
-      <x:c r="D65" s="1" t="s">
-        <x:v>234</x:v>
-      </x:c>
-      <x:c r="E65" s="1" t="s">
-        <x:v>235</x:v>
-      </x:c>
-      <x:c r="F65" s="1" t="s">
-        <x:v>236</x:v>
       </x:c>
       <x:c r="G65" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H65" s="1" t="s">
-        <x:v>237</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="I65" s="1" t="s">
-        <x:v>238</x:v>
+        <x:v>235</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -310,7 +310,7 @@
     <x:t>Drug/Narcotic Violations</x:t>
   </x:si>
   <x:si>
-    <x:t>3994</x:t>
+    <x:t>3995</x:t>
   </x:si>
   <x:si>
     <x:t>2035</x:t>
@@ -325,7 +325,7 @@
     <x:t>900</x:t>
   </x:si>
   <x:si>
-    <x:t>7659</x:t>
+    <x:t>7660</x:t>
   </x:si>
   <x:si>
     <x:t>103</x:t>
@@ -337,7 +337,7 @@
     <x:t>177</x:t>
   </x:si>
   <x:si>
-    <x:t>4097</x:t>
+    <x:t>4098</x:t>
   </x:si>
   <x:si>
     <x:t>2066</x:t>
@@ -355,7 +355,7 @@
     <x:t>932</x:t>
   </x:si>
   <x:si>
-    <x:t>7836</x:t>
+    <x:t>7837</x:t>
   </x:si>
   <x:si>
     <x:t>Embezzlement</x:t>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -94,597 +94,600 @@
     <x:t>Arson</x:t>
   </x:si>
   <x:si>
+    <x:t>69</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>121</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>77</x:t>
+  </x:si>
+  <x:si>
+    <x:t>34</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>131</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Assault Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7696</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4693</x:t>
+  </x:si>
+  <x:si>
+    <x:t>377</x:t>
+  </x:si>
+  <x:si>
+    <x:t>705</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1499</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14998</x:t>
+  </x:si>
+  <x:si>
+    <x:t>914</x:t>
+  </x:si>
+  <x:si>
+    <x:t>754</x:t>
+  </x:si>
+  <x:si>
+    <x:t>159</x:t>
+  </x:si>
+  <x:si>
+    <x:t>276</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2141</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8610</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5447</x:t>
+  </x:si>
+  <x:si>
+    <x:t>411</x:t>
+  </x:si>
+  <x:si>
+    <x:t>864</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1775</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17139</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bribery</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Burglary/Breaking &amp; Entering</x:t>
+  </x:si>
+  <x:si>
+    <x:t>796</x:t>
+  </x:si>
+  <x:si>
+    <x:t>584</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46</x:t>
+  </x:si>
+  <x:si>
+    <x:t>104</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1663</x:t>
+  </x:si>
+  <x:si>
+    <x:t>63</x:t>
+  </x:si>
+  <x:si>
+    <x:t>43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>146</x:t>
+  </x:si>
+  <x:si>
+    <x:t>859</x:t>
+  </x:si>
+  <x:si>
+    <x:t>627</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>130</x:t>
+  </x:si>
+  <x:si>
+    <x:t>141</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1809</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Counterfeiting/Forgery</x:t>
+  </x:si>
+  <x:si>
+    <x:t>290</x:t>
+  </x:si>
+  <x:si>
+    <x:t>143</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>49</x:t>
+  </x:si>
+  <x:si>
+    <x:t>518</x:t>
+  </x:si>
+  <x:si>
+    <x:t>293</x:t>
+  </x:si>
+  <x:si>
+    <x:t>153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>51</x:t>
+  </x:si>
+  <x:si>
+    <x:t>533</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Destruction/Damage/Vandalism of Property</x:t>
+  </x:si>
+  <x:si>
+    <x:t>862</x:t>
+  </x:si>
+  <x:si>
+    <x:t>458</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>92</x:t>
+  </x:si>
+  <x:si>
+    <x:t>179</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1631</x:t>
+  </x:si>
+  <x:si>
+    <x:t>207</x:t>
+  </x:si>
+  <x:si>
+    <x:t>101</x:t>
+  </x:si>
+  <x:si>
+    <x:t>47</x:t>
+  </x:si>
+  <x:si>
+    <x:t>387</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1069</x:t>
+  </x:si>
+  <x:si>
+    <x:t>559</x:t>
+  </x:si>
+  <x:si>
+    <x:t>120</x:t>
+  </x:si>
+  <x:si>
+    <x:t>226</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Drug/Narcotic Violations</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4009</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2037</x:t>
+  </x:si>
+  <x:si>
+    <x:t>152</x:t>
+  </x:si>
+  <x:si>
+    <x:t>563</x:t>
+  </x:si>
+  <x:si>
+    <x:t>906</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7688</x:t>
+  </x:si>
+  <x:si>
+    <x:t>103</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>177</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4112</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2068</x:t>
+  </x:si>
+  <x:si>
+    <x:t>160</x:t>
+  </x:si>
+  <x:si>
+    <x:t>565</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>938</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7865</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Embezzlement</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>87</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Extortion/Blackmail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fraud Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>988</x:t>
+  </x:si>
+  <x:si>
+    <x:t>756</x:t>
+  </x:si>
+  <x:si>
+    <x:t>64</x:t>
+  </x:si>
+  <x:si>
+    <x:t>157</x:t>
+  </x:si>
+  <x:si>
+    <x:t>287</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2257</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>86</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1017</x:t>
+  </x:si>
+  <x:si>
+    <x:t>791</x:t>
+  </x:si>
+  <x:si>
+    <x:t>163</x:t>
+  </x:si>
+  <x:si>
+    <x:t>303</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2343</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gambling Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Homicide Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>82</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>145</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>91</x:t>
+  </x:si>
+  <x:si>
+    <x:t>162</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Human Trafficking</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kidnapping/Abduction</x:t>
+  </x:si>
+  <x:si>
+    <x:t>44</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Larceny/Theft Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7657</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>298</x:t>
+  </x:si>
+  <x:si>
+    <x:t>828</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1502</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15331</x:t>
+  </x:si>
+  <x:si>
+    <x:t>713</x:t>
+  </x:si>
+  <x:si>
+    <x:t>616</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1578</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8370</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5636</x:t>
+  </x:si>
+  <x:si>
+    <x:t>335</x:t>
+  </x:si>
+  <x:si>
+    <x:t>887</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1654</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16909</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Motor Vehicle Theft</x:t>
+  </x:si>
+  <x:si>
+    <x:t>262</x:t>
+  </x:si>
+  <x:si>
+    <x:t>170</x:t>
+  </x:si>
+  <x:si>
+    <x:t>42</x:t>
+  </x:si>
+  <x:si>
+    <x:t>55</x:t>
+  </x:si>
+  <x:si>
+    <x:t>555</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36</x:t>
+  </x:si>
+  <x:si>
+    <x:t>112</x:t>
+  </x:si>
+  <x:si>
+    <x:t>184</x:t>
+  </x:si>
+  <x:si>
+    <x:t>282</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58</x:t>
+  </x:si>
+  <x:si>
     <x:t>68</x:t>
   </x:si>
   <x:si>
-    <x:t>33</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>120</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>76</x:t>
-  </x:si>
-  <x:si>
-    <x:t>34</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>130</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Assault Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7682</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4691</x:t>
-  </x:si>
-  <x:si>
-    <x:t>377</x:t>
-  </x:si>
-  <x:si>
-    <x:t>698</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1498</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14974</x:t>
-  </x:si>
-  <x:si>
-    <x:t>913</x:t>
-  </x:si>
-  <x:si>
-    <x:t>754</x:t>
-  </x:si>
-  <x:si>
-    <x:t>158</x:t>
-  </x:si>
-  <x:si>
-    <x:t>274</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2137</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8595</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5445</x:t>
-  </x:si>
-  <x:si>
-    <x:t>411</x:t>
-  </x:si>
-  <x:si>
-    <x:t>856</x:t>
-  </x:si>
-  <x:si>
-    <x:t>32</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1772</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17111</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bribery</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Burglary/Breaking &amp; Entering</x:t>
-  </x:si>
-  <x:si>
-    <x:t>793</x:t>
-  </x:si>
-  <x:si>
-    <x:t>584</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46</x:t>
-  </x:si>
-  <x:si>
-    <x:t>104</x:t>
-  </x:si>
-  <x:si>
-    <x:t>132</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1661</x:t>
-  </x:si>
-  <x:si>
-    <x:t>63</x:t>
-  </x:si>
-  <x:si>
-    <x:t>43</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>146</x:t>
-  </x:si>
-  <x:si>
-    <x:t>627</x:t>
-  </x:si>
-  <x:si>
-    <x:t>50</x:t>
+    <x:t>739</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pornography/Obscene Material</x:t>
+  </x:si>
+  <x:si>
+    <x:t>111</x:t>
+  </x:si>
+  <x:si>
+    <x:t>187</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Prostitution Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Robbery</x:t>
+  </x:si>
+  <x:si>
+    <x:t>96</x:t>
+  </x:si>
+  <x:si>
+    <x:t>372</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>522</x:t>
+  </x:si>
+  <x:si>
+    <x:t>156</x:t>
+  </x:si>
+  <x:si>
+    <x:t>203</x:t>
+  </x:si>
+  <x:si>
+    <x:t>115</x:t>
+  </x:si>
+  <x:si>
+    <x:t>528</x:t>
+  </x:si>
+  <x:si>
+    <x:t>725</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sex Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>446</x:t>
+  </x:si>
+  <x:si>
+    <x:t>214</x:t>
+  </x:si>
+  <x:si>
+    <x:t>818</x:t>
+  </x:si>
+  <x:si>
+    <x:t>67</x:t>
+  </x:si>
+  <x:si>
+    <x:t>137</x:t>
+  </x:si>
+  <x:si>
+    <x:t>513</x:t>
+  </x:si>
+  <x:si>
+    <x:t>241</x:t>
+  </x:si>
+  <x:si>
+    <x:t>154</x:t>
+  </x:si>
+  <x:si>
+    <x:t>955</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stolen Property Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>535</x:t>
+  </x:si>
+  <x:si>
+    <x:t>460</x:t>
+  </x:si>
+  <x:si>
+    <x:t>78</x:t>
   </x:si>
   <x:si>
     <x:t>142</x:t>
   </x:si>
   <x:si>
-    <x:t>1807</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Counterfeiting/Forgery</x:t>
-  </x:si>
-  <x:si>
-    <x:t>288</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18</x:t>
-  </x:si>
-  <x:si>
-    <x:t>49</x:t>
-  </x:si>
-  <x:si>
-    <x:t>515</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>291</x:t>
-  </x:si>
-  <x:si>
-    <x:t>152</x:t>
-  </x:si>
-  <x:si>
-    <x:t>529</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Destruction/Damage/Vandalism of Property</x:t>
-  </x:si>
-  <x:si>
-    <x:t>860</x:t>
-  </x:si>
-  <x:si>
-    <x:t>458</x:t>
-  </x:si>
-  <x:si>
-    <x:t>39</x:t>
-  </x:si>
-  <x:si>
-    <x:t>92</x:t>
-  </x:si>
-  <x:si>
-    <x:t>179</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1629</x:t>
-  </x:si>
-  <x:si>
-    <x:t>207</x:t>
-  </x:si>
-  <x:si>
-    <x:t>101</x:t>
-  </x:si>
-  <x:si>
-    <x:t>47</x:t>
-  </x:si>
-  <x:si>
-    <x:t>387</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1067</x:t>
-  </x:si>
-  <x:si>
-    <x:t>559</x:t>
-  </x:si>
-  <x:si>
-    <x:t>226</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2016</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Drug/Narcotic Violations</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3995</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2035</x:t>
-  </x:si>
-  <x:si>
-    <x:t>151</x:t>
+    <x:t>1258</x:t>
+  </x:si>
+  <x:si>
+    <x:t>128</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>189</x:t>
   </x:si>
   <x:si>
     <x:t>558</x:t>
   </x:si>
   <x:si>
-    <x:t>900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7660</x:t>
-  </x:si>
-  <x:si>
-    <x:t>103</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31</x:t>
-  </x:si>
-  <x:si>
-    <x:t>177</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4098</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2066</x:t>
-  </x:si>
-  <x:si>
-    <x:t>159</x:t>
-  </x:si>
-  <x:si>
-    <x:t>560</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>932</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7837</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Embezzlement</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16</x:t>
-  </x:si>
-  <x:si>
-    <x:t>69</x:t>
-  </x:si>
-  <x:si>
-    <x:t>37</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24</x:t>
-  </x:si>
-  <x:si>
-    <x:t>87</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Extortion/Blackmail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fraud Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>987</x:t>
-  </x:si>
-  <x:si>
-    <x:t>755</x:t>
-  </x:si>
-  <x:si>
-    <x:t>64</x:t>
-  </x:si>
-  <x:si>
-    <x:t>156</x:t>
-  </x:si>
-  <x:si>
-    <x:t>287</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2254</x:t>
-  </x:si>
-  <x:si>
-    <x:t>29</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35</x:t>
-  </x:si>
-  <x:si>
-    <x:t>86</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1016</x:t>
-  </x:si>
-  <x:si>
-    <x:t>790</x:t>
-  </x:si>
-  <x:si>
-    <x:t>162</x:t>
-  </x:si>
-  <x:si>
-    <x:t>303</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2340</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gambling Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Homicide Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>82</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19</x:t>
-  </x:si>
-  <x:si>
-    <x:t>145</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>40</x:t>
-  </x:si>
-  <x:si>
-    <x:t>91</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Human Trafficking</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kidnapping/Abduction</x:t>
-  </x:si>
-  <x:si>
-    <x:t>51</x:t>
-  </x:si>
-  <x:si>
-    <x:t>119</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Larceny/Theft Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7649</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5011</x:t>
-  </x:si>
-  <x:si>
-    <x:t>298</x:t>
-  </x:si>
-  <x:si>
-    <x:t>825</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15306</x:t>
-  </x:si>
-  <x:si>
-    <x:t>713</x:t>
-  </x:si>
-  <x:si>
-    <x:t>616</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1578</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8362</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5627</x:t>
-  </x:si>
-  <x:si>
-    <x:t>335</x:t>
-  </x:si>
-  <x:si>
-    <x:t>884</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1650</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16884</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Motor Vehicle Theft</x:t>
-  </x:si>
-  <x:si>
-    <x:t>261</x:t>
-  </x:si>
-  <x:si>
-    <x:t>169</x:t>
-  </x:si>
-  <x:si>
-    <x:t>42</x:t>
-  </x:si>
-  <x:si>
-    <x:t>55</x:t>
-  </x:si>
-  <x:si>
-    <x:t>553</x:t>
-  </x:si>
-  <x:si>
-    <x:t>36</x:t>
-  </x:si>
-  <x:si>
-    <x:t>112</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>183</x:t>
-  </x:si>
-  <x:si>
-    <x:t>297</x:t>
-  </x:si>
-  <x:si>
-    <x:t>281</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58</x:t>
-  </x:si>
-  <x:si>
-    <x:t>67</x:t>
-  </x:si>
-  <x:si>
-    <x:t>736</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pornography/Obscene Material</x:t>
-  </x:si>
-  <x:si>
-    <x:t>111</x:t>
-  </x:si>
-  <x:si>
-    <x:t>157</x:t>
-  </x:si>
-  <x:si>
-    <x:t>131</x:t>
-  </x:si>
-  <x:si>
-    <x:t>187</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Prostitution Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Robbery</x:t>
-  </x:si>
-  <x:si>
-    <x:t>96</x:t>
-  </x:si>
-  <x:si>
-    <x:t>371</x:t>
-  </x:si>
-  <x:si>
-    <x:t>521</x:t>
-  </x:si>
-  <x:si>
-    <x:t>155</x:t>
-  </x:si>
-  <x:si>
-    <x:t>202</x:t>
-  </x:si>
-  <x:si>
-    <x:t>115</x:t>
-  </x:si>
-  <x:si>
-    <x:t>526</x:t>
-  </x:si>
-  <x:si>
-    <x:t>723</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sex Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>446</x:t>
-  </x:si>
-  <x:si>
-    <x:t>213</x:t>
-  </x:si>
-  <x:si>
-    <x:t>114</x:t>
-  </x:si>
-  <x:si>
-    <x:t>816</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27</x:t>
-  </x:si>
-  <x:si>
-    <x:t>137</x:t>
-  </x:si>
-  <x:si>
-    <x:t>513</x:t>
-  </x:si>
-  <x:si>
-    <x:t>240</x:t>
-  </x:si>
-  <x:si>
-    <x:t>153</x:t>
-  </x:si>
-  <x:si>
-    <x:t>953</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stolen Property Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>531</x:t>
-  </x:si>
-  <x:si>
-    <x:t>460</x:t>
-  </x:si>
-  <x:si>
-    <x:t>77</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1253</x:t>
-  </x:si>
-  <x:si>
-    <x:t>128</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>189</x:t>
-  </x:si>
-  <x:si>
-    <x:t>554</x:t>
-  </x:si>
-  <x:si>
     <x:t>588</x:t>
   </x:si>
   <x:si>
-    <x:t>88</x:t>
-  </x:si>
-  <x:si>
-    <x:t>160</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1442</x:t>
+    <x:t>89</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1447</x:t>
   </x:si>
   <x:si>
     <x:t>Weapon Law Violations</x:t>
   </x:si>
   <x:si>
+    <x:t>700</x:t>
+  </x:si>
+  <x:si>
     <x:t>952</x:t>
   </x:si>
   <x:si>
@@ -694,7 +697,7 @@
     <x:t>368</x:t>
   </x:si>
   <x:si>
-    <x:t>2149</x:t>
+    <x:t>2151</x:t>
   </x:si>
   <x:si>
     <x:t>60</x:t>
@@ -706,7 +709,7 @@
     <x:t>280</x:t>
   </x:si>
   <x:si>
-    <x:t>758</x:t>
+    <x:t>760</x:t>
   </x:si>
   <x:si>
     <x:t>1125</x:t>
@@ -721,7 +724,7 @@
     <x:t>395</x:t>
   </x:si>
   <x:si>
-    <x:t>2429</x:t>
+    <x:t>2431</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1483,10 +1486,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="H13" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="I13" s="1" t="s">
         <x:v>63</x:v>
-      </x:c>
-      <x:c r="I13" s="1" t="s">
-        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -1497,16 +1500,16 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C14" s="1" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="D14" s="1" t="s">
         <x:v>65</x:v>
-      </x:c>
-      <x:c r="D14" s="1" t="s">
-        <x:v>66</x:v>
       </x:c>
       <x:c r="E14" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="F14" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="G14" s="1" t="s">
         <x:v>19</x:v>
@@ -1515,7 +1518,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="I14" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
@@ -1526,7 +1529,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C15" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D15" s="1" t="s">
         <x:v>69</x:v>
@@ -1535,50 +1538,50 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="F15" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="G15" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H15" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I15" s="1" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
       <x:c r="A16" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D16" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E16" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F16" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="G16" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="H16" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I16" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
       <x:c r="A17" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
         <x:v>17</x:v>
@@ -1599,82 +1602,82 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H17" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I17" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
       <x:c r="A18" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C18" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D18" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E18" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F18" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="G18" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="H18" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="I18" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
       <x:c r="A19" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C19" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="D19" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="E19" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F19" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G19" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H19" s="1" t="s">
-        <x:v>87</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I19" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
       <x:c r="A20" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C20" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="D20" s="1" t="s">
-        <x:v>90</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="E20" s="1" t="s">
         <x:v>20</x:v>
@@ -1686,82 +1689,82 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H20" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="I20" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>94</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
       <x:c r="A21" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C21" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="D21" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="E21" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F21" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="G21" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H21" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="I21" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
       <x:c r="A22" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="s">
-        <x:v>98</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="D22" s="1" t="s">
-        <x:v>99</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E22" s="1" t="s">
-        <x:v>100</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="F22" s="1" t="s">
-        <x:v>101</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="G22" s="1" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="H22" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="I22" s="1" t="s">
-        <x:v>103</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
       <x:c r="A23" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C23" s="1" t="s">
-        <x:v>104</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="D23" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="E23" s="1" t="s">
         <x:v>28</x:v>
@@ -1776,50 +1779,50 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="I23" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
       <x:c r="A24" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C24" s="1" t="s">
-        <x:v>107</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="D24" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="E24" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F24" s="1" t="s">
-        <x:v>110</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="G24" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="H24" s="1" t="s">
-        <x:v>112</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="I24" s="1" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
       <x:c r="A25" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C25" s="1" t="s">
-        <x:v>115</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="D25" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="E25" s="1" t="s">
         <x:v>18</x:v>
@@ -1834,12 +1837,12 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="I25" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
       <x:c r="A26" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
         <x:v>17</x:v>
@@ -1863,21 +1866,21 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="I26" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:9">
       <x:c r="A27" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C27" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D27" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="E27" s="1" t="s">
         <x:v>18</x:v>
@@ -1889,15 +1892,15 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H27" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="I27" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>123</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:9">
       <x:c r="A28" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
         <x:v>10</x:v>
@@ -1926,7 +1929,7 @@
     </x:row>
     <x:row r="29" spans="1:9">
       <x:c r="A29" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
         <x:v>21</x:v>
@@ -1955,45 +1958,45 @@
     </x:row>
     <x:row r="30" spans="1:9">
       <x:c r="A30" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C30" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D30" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="E30" s="1" t="s">
-        <x:v>126</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="F30" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="G30" s="1" t="s">
         <x:v>29</x:v>
       </x:c>
       <x:c r="H30" s="1" t="s">
-        <x:v>128</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="I30" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>131</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:9">
       <x:c r="A31" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C31" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="D31" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="E31" s="1" t="s">
         <x:v>19</x:v>
@@ -2005,44 +2008,44 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H31" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="I31" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
       <x:c r="A32" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C32" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="D32" s="1" t="s">
-        <x:v>134</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="E32" s="1" t="s">
-        <x:v>126</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="F32" s="1" t="s">
-        <x:v>135</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="G32" s="1" t="s">
         <x:v>29</x:v>
       </x:c>
       <x:c r="H32" s="1" t="s">
-        <x:v>136</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="I32" s="1" t="s">
-        <x:v>137</x:v>
+        <x:v>139</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:9">
       <x:c r="A33" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
         <x:v>10</x:v>
@@ -2071,7 +2074,7 @@
     </x:row>
     <x:row r="34" spans="1:9">
       <x:c r="A34" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
         <x:v>17</x:v>
@@ -2100,7 +2103,7 @@
     </x:row>
     <x:row r="35" spans="1:9">
       <x:c r="A35" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
         <x:v>21</x:v>
@@ -2129,16 +2132,16 @@
     </x:row>
     <x:row r="36" spans="1:9">
       <x:c r="A36" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C36" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D36" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="E36" s="1" t="s">
         <x:v>20</x:v>
@@ -2150,15 +2153,15 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H36" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="I36" s="1" t="s">
-        <x:v>142</x:v>
+        <x:v>144</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:9">
       <x:c r="A37" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
         <x:v>17</x:v>
@@ -2167,7 +2170,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="D37" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="E37" s="1" t="s">
         <x:v>14</x:v>
@@ -2182,21 +2185,21 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="I37" s="1" t="s">
-        <x:v>144</x:v>
+        <x:v>146</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:9">
       <x:c r="A38" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C38" s="1" t="s">
-        <x:v>145</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="D38" s="1" t="s">
-        <x:v>146</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="E38" s="1" t="s">
         <x:v>29</x:v>
@@ -2211,12 +2214,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I38" s="1" t="s">
-        <x:v>135</x:v>
+        <x:v>149</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:9">
       <x:c r="A39" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
         <x:v>10</x:v>
@@ -2225,7 +2228,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="D39" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="E39" s="1" t="s">
         <x:v>18</x:v>
@@ -2240,12 +2243,12 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="I39" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>133</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:9">
       <x:c r="A40" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
         <x:v>21</x:v>
@@ -2254,7 +2257,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="D40" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="E40" s="1" t="s">
         <x:v>18</x:v>
@@ -2269,21 +2272,21 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="I40" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>133</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:9">
       <x:c r="A41" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C41" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="D41" s="1" t="s">
-        <x:v>150</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E41" s="1" t="s">
         <x:v>30</x:v>
@@ -2298,21 +2301,21 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="I41" s="1" t="s">
-        <x:v>151</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9">
       <x:c r="A42" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C42" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="D42" s="1" t="s">
-        <x:v>150</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E42" s="1" t="s">
         <x:v>30</x:v>
@@ -2327,53 +2330,53 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="I42" s="1" t="s">
-        <x:v>151</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:9">
       <x:c r="A43" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C43" s="1" t="s">
-        <x:v>153</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="D43" s="1" t="s">
-        <x:v>154</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="E43" s="1" t="s">
-        <x:v>155</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F43" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="G43" s="1" t="s">
-        <x:v>157</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="H43" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="I43" s="1" t="s">
-        <x:v>158</x:v>
+        <x:v>160</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:9">
       <x:c r="A44" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C44" s="1" t="s">
-        <x:v>159</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="D44" s="1" t="s">
-        <x:v>160</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="E44" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="F44" s="1" t="s">
         <x:v>11</x:v>
@@ -2382,140 +2385,140 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H44" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="I44" s="1" t="s">
-        <x:v>161</x:v>
+        <x:v>163</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:9">
       <x:c r="A45" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C45" s="1" t="s">
-        <x:v>162</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="D45" s="1" t="s">
-        <x:v>163</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="E45" s="1" t="s">
-        <x:v>164</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="F45" s="1" t="s">
-        <x:v>165</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="G45" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="H45" s="1" t="s">
-        <x:v>166</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="I45" s="1" t="s">
-        <x:v>167</x:v>
+        <x:v>170</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
       <x:c r="A46" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C46" s="1" t="s">
-        <x:v>169</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="D46" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="E46" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="F46" s="1" t="s">
-        <x:v>171</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="G46" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H46" s="1" t="s">
-        <x:v>172</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="I46" s="1" t="s">
-        <x:v>173</x:v>
+        <x:v>176</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
       <x:c r="A47" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C47" s="1" t="s">
-        <x:v>174</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="D47" s="1" t="s">
-        <x:v>175</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="E47" s="1" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="F47" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="G47" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H47" s="1" t="s">
-        <x:v>176</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="I47" s="1" t="s">
-        <x:v>177</x:v>
+        <x:v>179</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
       <x:c r="A48" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C48" s="1" t="s">
-        <x:v>178</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="D48" s="1" t="s">
-        <x:v>179</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="E48" s="1" t="s">
-        <x:v>115</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="F48" s="1" t="s">
-        <x:v>180</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="G48" s="1" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H48" s="1" t="s">
-        <x:v>181</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="I48" s="1" t="s">
-        <x:v>182</x:v>
+        <x:v>183</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:9">
       <x:c r="A49" s="0" t="s">
-        <x:v>183</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C49" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="D49" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E49" s="1" t="s">
         <x:v>13</x:v>
@@ -2527,15 +2530,15 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H49" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="I49" s="1" t="s">
-        <x:v>185</x:v>
+        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:9">
       <x:c r="A50" s="0" t="s">
-        <x:v>183</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
         <x:v>17</x:v>
@@ -2559,18 +2562,18 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="I50" s="1" t="s">
-        <x:v>115</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:9">
       <x:c r="A51" s="0" t="s">
-        <x:v>183</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C51" s="1" t="s">
-        <x:v>186</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D51" s="1" t="s">
         <x:v>23</x:v>
@@ -2585,21 +2588,21 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H51" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="I51" s="1" t="s">
-        <x:v>187</x:v>
+        <x:v>186</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:9">
       <x:c r="A52" s="0" t="s">
-        <x:v>188</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C52" s="1" t="s">
-        <x:v>176</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="D52" s="1" t="s">
         <x:v>14</x:v>
@@ -2622,13 +2625,13 @@
     </x:row>
     <x:row r="53" spans="1:9">
       <x:c r="A53" s="0" t="s">
-        <x:v>188</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C53" s="1" t="s">
-        <x:v>176</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="D53" s="1" t="s">
         <x:v>14</x:v>
@@ -2666,16 +2669,16 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="F54" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="G54" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="H54" s="1" t="s">
-        <x:v>157</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="I54" s="1" t="s">
-        <x:v>192</x:v>
+        <x:v>193</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:9">
@@ -2686,16 +2689,16 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C55" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="D55" s="1" t="s">
-        <x:v>193</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="E55" s="1" t="s">
-        <x:v>176</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="F55" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="G55" s="1" t="s">
         <x:v>19</x:v>
@@ -2704,7 +2707,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="I55" s="1" t="s">
-        <x:v>194</x:v>
+        <x:v>195</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:9">
@@ -2715,13 +2718,13 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C56" s="1" t="s">
-        <x:v>195</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="D56" s="1" t="s">
-        <x:v>196</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="E56" s="1" t="s">
-        <x:v>144</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="F56" s="1" t="s">
         <x:v>27</x:v>
@@ -2733,33 +2736,33 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="I56" s="1" t="s">
-        <x:v>197</x:v>
+        <x:v>198</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:9">
       <x:c r="A57" s="0" t="s">
-        <x:v>198</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C57" s="1" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="D57" s="1" t="s">
-        <x:v>200</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="E57" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="F57" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="G57" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H57" s="1" t="s">
-        <x:v>201</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="I57" s="1" t="s">
         <x:v>202</x:v>
@@ -2767,16 +2770,16 @@
     </x:row>
     <x:row r="58" spans="1:9">
       <x:c r="A58" s="0" t="s">
-        <x:v>198</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C58" s="1" t="s">
-        <x:v>181</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="D58" s="1" t="s">
-        <x:v>203</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="E58" s="1" t="s">
         <x:v>13</x:v>
@@ -2788,7 +2791,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H58" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="I58" s="1" t="s">
         <x:v>204</x:v>
@@ -2796,7 +2799,7 @@
     </x:row>
     <x:row r="59" spans="1:9">
       <x:c r="A59" s="0" t="s">
-        <x:v>198</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
         <x:v>21</x:v>
@@ -2808,7 +2811,7 @@
         <x:v>206</x:v>
       </x:c>
       <x:c r="E59" s="1" t="s">
-        <x:v>157</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="F59" s="1" t="s">
         <x:v>12</x:v>
@@ -2837,7 +2840,7 @@
         <x:v>211</x:v>
       </x:c>
       <x:c r="E60" s="1" t="s">
-        <x:v>145</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F60" s="1" t="s">
         <x:v>212</x:v>
@@ -2846,10 +2849,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="H60" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="I60" s="1" t="s">
-        <x:v>213</x:v>
+        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">
@@ -2860,25 +2863,25 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C61" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="D61" s="1" t="s">
-        <x:v>214</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="E61" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="F61" s="1" t="s">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="G61" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="H61" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="I61" s="1" t="s">
-        <x:v>216</x:v>
+        <x:v>217</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
@@ -2889,22 +2892,22 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C62" s="1" t="s">
-        <x:v>217</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="D62" s="1" t="s">
-        <x:v>218</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="E62" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="F62" s="1" t="s">
-        <x:v>219</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="G62" s="1" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H62" s="1" t="s">
-        <x:v>220</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="I62" s="1" t="s">
         <x:v>221</x:v>
@@ -2918,25 +2921,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C63" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="D63" s="1" t="s">
-        <x:v>223</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="E63" s="1" t="s">
-        <x:v>172</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F63" s="1" t="s">
-        <x:v>224</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="G63" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H63" s="1" t="s">
-        <x:v>225</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="I63" s="1" t="s">
-        <x:v>226</x:v>
+        <x:v>227</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:9">
@@ -2947,10 +2950,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C64" s="1" t="s">
-        <x:v>227</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="D64" s="1" t="s">
-        <x:v>228</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="E64" s="1" t="s">
         <x:v>32</x:v>
@@ -2962,10 +2965,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H64" s="1" t="s">
-        <x:v>203</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="I64" s="1" t="s">
-        <x:v>229</x:v>
+        <x:v>230</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:9">
@@ -2976,25 +2979,25 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C65" s="1" t="s">
-        <x:v>230</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="D65" s="1" t="s">
-        <x:v>231</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="E65" s="1" t="s">
-        <x:v>232</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="F65" s="1" t="s">
-        <x:v>233</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="G65" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H65" s="1" t="s">
-        <x:v>234</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="I65" s="1" t="s">
-        <x:v>235</x:v>
+        <x:v>236</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -130,25 +130,25 @@
     <x:t>Assault Offenses</x:t>
   </x:si>
   <x:si>
-    <x:t>7696</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4693</x:t>
+    <x:t>7698</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4695</x:t>
   </x:si>
   <x:si>
     <x:t>377</x:t>
   </x:si>
   <x:si>
-    <x:t>705</x:t>
+    <x:t>704</x:t>
   </x:si>
   <x:si>
     <x:t>28</x:t>
   </x:si>
   <x:si>
-    <x:t>1499</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14998</x:t>
+    <x:t>1501</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15003</x:t>
   </x:si>
   <x:si>
     <x:t>914</x:t>
@@ -166,25 +166,25 @@
     <x:t>2141</x:t>
   </x:si>
   <x:si>
-    <x:t>8610</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5447</x:t>
+    <x:t>8612</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5449</x:t>
   </x:si>
   <x:si>
     <x:t>411</x:t>
   </x:si>
   <x:si>
-    <x:t>864</x:t>
+    <x:t>863</x:t>
   </x:si>
   <x:si>
     <x:t>32</x:t>
   </x:si>
   <x:si>
-    <x:t>1775</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17139</x:t>
+    <x:t>1777</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17144</x:t>
   </x:si>
   <x:si>
     <x:t>Bribery</x:t>
@@ -217,7 +217,10 @@
     <x:t>26</x:t>
   </x:si>
   <x:si>
-    <x:t>146</x:t>
+    <x:t>11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>147</x:t>
   </x:si>
   <x:si>
     <x:t>859</x:t>
@@ -232,10 +235,10 @@
     <x:t>130</x:t>
   </x:si>
   <x:si>
-    <x:t>141</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1809</x:t>
+    <x:t>142</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1810</x:t>
   </x:si>
   <x:si>
     <x:t>Counterfeiting/Forgery</x:t>
@@ -271,9 +274,6 @@
     <x:t>Destruction/Damage/Vandalism of Property</x:t>
   </x:si>
   <x:si>
-    <x:t>862</x:t>
-  </x:si>
-  <x:si>
     <x:t>458</x:t>
   </x:si>
   <x:si>
@@ -286,10 +286,10 @@
     <x:t>179</x:t>
   </x:si>
   <x:si>
-    <x:t>1631</x:t>
-  </x:si>
-  <x:si>
-    <x:t>207</x:t>
+    <x:t>1632</x:t>
+  </x:si>
+  <x:si>
+    <x:t>208</x:t>
   </x:si>
   <x:si>
     <x:t>101</x:t>
@@ -298,10 +298,10 @@
     <x:t>47</x:t>
   </x:si>
   <x:si>
-    <x:t>387</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1069</x:t>
+    <x:t>388</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1071</x:t>
   </x:si>
   <x:si>
     <x:t>559</x:t>
@@ -313,13 +313,13 @@
     <x:t>226</x:t>
   </x:si>
   <x:si>
-    <x:t>2018</x:t>
+    <x:t>2020</x:t>
   </x:si>
   <x:si>
     <x:t>Drug/Narcotic Violations</x:t>
   </x:si>
   <x:si>
-    <x:t>4009</x:t>
+    <x:t>4010</x:t>
   </x:si>
   <x:si>
     <x:t>2037</x:t>
@@ -331,10 +331,10 @@
     <x:t>563</x:t>
   </x:si>
   <x:si>
-    <x:t>906</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7688</x:t>
+    <x:t>907</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7690</x:t>
   </x:si>
   <x:si>
     <x:t>103</x:t>
@@ -346,7 +346,7 @@
     <x:t>177</x:t>
   </x:si>
   <x:si>
-    <x:t>4112</x:t>
+    <x:t>4113</x:t>
   </x:si>
   <x:si>
     <x:t>2068</x:t>
@@ -361,10 +361,10 @@
     <x:t>22</x:t>
   </x:si>
   <x:si>
-    <x:t>938</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7865</x:t>
+    <x:t>939</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7867</x:t>
   </x:si>
   <x:si>
     <x:t>Embezzlement</x:t>
@@ -400,7 +400,7 @@
     <x:t>756</x:t>
   </x:si>
   <x:si>
-    <x:t>64</x:t>
+    <x:t>68</x:t>
   </x:si>
   <x:si>
     <x:t>157</x:t>
@@ -409,7 +409,7 @@
     <x:t>287</x:t>
   </x:si>
   <x:si>
-    <x:t>2257</x:t>
+    <x:t>2261</x:t>
   </x:si>
   <x:si>
     <x:t>29</x:t>
@@ -433,7 +433,7 @@
     <x:t>303</x:t>
   </x:si>
   <x:si>
-    <x:t>2343</x:t>
+    <x:t>2347</x:t>
   </x:si>
   <x:si>
     <x:t>Gambling Offenses</x:t>
@@ -481,7 +481,7 @@
     <x:t>Larceny/Theft Offenses</x:t>
   </x:si>
   <x:si>
-    <x:t>7657</x:t>
+    <x:t>7662</x:t>
   </x:si>
   <x:si>
     <x:t>5020</x:t>
@@ -496,7 +496,7 @@
     <x:t>1502</x:t>
   </x:si>
   <x:si>
-    <x:t>15331</x:t>
+    <x:t>15336</x:t>
   </x:si>
   <x:si>
     <x:t>713</x:t>
@@ -508,7 +508,7 @@
     <x:t>1578</x:t>
   </x:si>
   <x:si>
-    <x:t>8370</x:t>
+    <x:t>8375</x:t>
   </x:si>
   <x:si>
     <x:t>5636</x:t>
@@ -526,13 +526,13 @@
     <x:t>1654</x:t>
   </x:si>
   <x:si>
-    <x:t>16909</x:t>
+    <x:t>16914</x:t>
   </x:si>
   <x:si>
     <x:t>Motor Vehicle Theft</x:t>
   </x:si>
   <x:si>
-    <x:t>262</x:t>
+    <x:t>264</x:t>
   </x:si>
   <x:si>
     <x:t>170</x:t>
@@ -541,154 +541,148 @@
     <x:t>42</x:t>
   </x:si>
   <x:si>
+    <x:t>56</x:t>
+  </x:si>
+  <x:si>
+    <x:t>558</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36</x:t>
+  </x:si>
+  <x:si>
+    <x:t>112</x:t>
+  </x:si>
+  <x:si>
+    <x:t>184</x:t>
+  </x:si>
+  <x:si>
+    <x:t>300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>282</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58</x:t>
+  </x:si>
+  <x:si>
+    <x:t>742</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pornography/Obscene Material</x:t>
+  </x:si>
+  <x:si>
+    <x:t>111</x:t>
+  </x:si>
+  <x:si>
+    <x:t>187</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Prostitution Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Robbery</x:t>
+  </x:si>
+  <x:si>
+    <x:t>96</x:t>
+  </x:si>
+  <x:si>
+    <x:t>372</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>522</x:t>
+  </x:si>
+  <x:si>
+    <x:t>156</x:t>
+  </x:si>
+  <x:si>
+    <x:t>203</x:t>
+  </x:si>
+  <x:si>
+    <x:t>115</x:t>
+  </x:si>
+  <x:si>
+    <x:t>528</x:t>
+  </x:si>
+  <x:si>
+    <x:t>725</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sex Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>446</x:t>
+  </x:si>
+  <x:si>
+    <x:t>215</x:t>
+  </x:si>
+  <x:si>
+    <x:t>819</x:t>
+  </x:si>
+  <x:si>
+    <x:t>67</x:t>
+  </x:si>
+  <x:si>
+    <x:t>137</x:t>
+  </x:si>
+  <x:si>
+    <x:t>513</x:t>
+  </x:si>
+  <x:si>
+    <x:t>242</x:t>
+  </x:si>
+  <x:si>
+    <x:t>154</x:t>
+  </x:si>
+  <x:si>
+    <x:t>956</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stolen Property Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>535</x:t>
+  </x:si>
+  <x:si>
+    <x:t>460</x:t>
+  </x:si>
+  <x:si>
+    <x:t>78</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1258</x:t>
+  </x:si>
+  <x:si>
+    <x:t>129</x:t>
+  </x:si>
+  <x:si>
+    <x:t>190</x:t>
+  </x:si>
+  <x:si>
+    <x:t>589</x:t>
+  </x:si>
+  <x:si>
+    <x:t>89</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1448</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weapon Law Violations</x:t>
+  </x:si>
+  <x:si>
+    <x:t>700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>952</x:t>
+  </x:si>
+  <x:si>
     <x:t>55</x:t>
-  </x:si>
-  <x:si>
-    <x:t>555</x:t>
-  </x:si>
-  <x:si>
-    <x:t>36</x:t>
-  </x:si>
-  <x:si>
-    <x:t>112</x:t>
-  </x:si>
-  <x:si>
-    <x:t>184</x:t>
-  </x:si>
-  <x:si>
-    <x:t>282</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58</x:t>
-  </x:si>
-  <x:si>
-    <x:t>68</x:t>
-  </x:si>
-  <x:si>
-    <x:t>739</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pornography/Obscene Material</x:t>
-  </x:si>
-  <x:si>
-    <x:t>111</x:t>
-  </x:si>
-  <x:si>
-    <x:t>187</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Prostitution Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Robbery</x:t>
-  </x:si>
-  <x:si>
-    <x:t>96</x:t>
-  </x:si>
-  <x:si>
-    <x:t>372</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>522</x:t>
-  </x:si>
-  <x:si>
-    <x:t>156</x:t>
-  </x:si>
-  <x:si>
-    <x:t>203</x:t>
-  </x:si>
-  <x:si>
-    <x:t>115</x:t>
-  </x:si>
-  <x:si>
-    <x:t>528</x:t>
-  </x:si>
-  <x:si>
-    <x:t>725</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sex Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>446</x:t>
-  </x:si>
-  <x:si>
-    <x:t>214</x:t>
-  </x:si>
-  <x:si>
-    <x:t>818</x:t>
-  </x:si>
-  <x:si>
-    <x:t>67</x:t>
-  </x:si>
-  <x:si>
-    <x:t>137</x:t>
-  </x:si>
-  <x:si>
-    <x:t>513</x:t>
-  </x:si>
-  <x:si>
-    <x:t>241</x:t>
-  </x:si>
-  <x:si>
-    <x:t>154</x:t>
-  </x:si>
-  <x:si>
-    <x:t>955</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stolen Property Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>535</x:t>
-  </x:si>
-  <x:si>
-    <x:t>460</x:t>
-  </x:si>
-  <x:si>
-    <x:t>78</x:t>
-  </x:si>
-  <x:si>
-    <x:t>142</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1258</x:t>
-  </x:si>
-  <x:si>
-    <x:t>128</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>189</x:t>
-  </x:si>
-  <x:si>
-    <x:t>558</x:t>
-  </x:si>
-  <x:si>
-    <x:t>588</x:t>
-  </x:si>
-  <x:si>
-    <x:t>89</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1447</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Weapon Law Violations</x:t>
-  </x:si>
-  <x:si>
-    <x:t>700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>952</x:t>
   </x:si>
   <x:si>
     <x:t>74</x:t>
@@ -1515,10 +1509,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H14" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="I14" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
@@ -1529,59 +1523,59 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C15" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D15" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E15" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F15" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="G15" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H15" s="1" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="I15" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
       <x:c r="A16" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D16" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E16" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="F16" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G16" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="H16" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="I16" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
       <x:c r="A17" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
         <x:v>17</x:v>
@@ -1610,42 +1604,42 @@
     </x:row>
     <x:row r="18" spans="1:9">
       <x:c r="A18" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C18" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D18" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E18" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="F18" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G18" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="H18" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="I18" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
       <x:c r="A19" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C19" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D19" s="1" t="s">
         <x:v>86</x:v>
@@ -1668,7 +1662,7 @@
     </x:row>
     <x:row r="20" spans="1:9">
       <x:c r="A20" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
         <x:v>17</x:v>
@@ -1697,7 +1691,7 @@
     </x:row>
     <x:row r="21" spans="1:9">
       <x:c r="A21" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
         <x:v>21</x:v>
@@ -1866,7 +1860,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="I26" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:9">
@@ -2286,7 +2280,7 @@
         <x:v>153</x:v>
       </x:c>
       <x:c r="D41" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="E41" s="1" t="s">
         <x:v>30</x:v>
@@ -2315,7 +2309,7 @@
         <x:v>153</x:v>
       </x:c>
       <x:c r="D42" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="E42" s="1" t="s">
         <x:v>30</x:v>
@@ -2486,22 +2480,22 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C48" s="1" t="s">
-        <x:v>157</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="D48" s="1" t="s">
-        <x:v>180</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="E48" s="1" t="s">
         <x:v>118</x:v>
       </x:c>
       <x:c r="F48" s="1" t="s">
-        <x:v>181</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="G48" s="1" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H48" s="1" t="s">
-        <x:v>182</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="I48" s="1" t="s">
         <x:v>183</x:v>
@@ -2518,7 +2512,7 @@
         <x:v>185</x:v>
       </x:c>
       <x:c r="D49" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E49" s="1" t="s">
         <x:v>13</x:v>
@@ -2756,7 +2750,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="F57" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G57" s="1" t="s">
         <x:v>13</x:v>
@@ -2849,10 +2843,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="H60" s="1" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="I60" s="1" t="s">
         <x:v>213</x:v>
-      </x:c>
-      <x:c r="I60" s="1" t="s">
-        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">
@@ -2866,22 +2860,22 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="D61" s="1" t="s">
-        <x:v>215</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="E61" s="1" t="s">
         <x:v>145</x:v>
       </x:c>
       <x:c r="F61" s="1" t="s">
-        <x:v>216</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="G61" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="H61" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I61" s="1" t="s">
-        <x:v>217</x:v>
+        <x:v>215</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
@@ -2892,16 +2886,16 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C62" s="1" t="s">
-        <x:v>218</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="D62" s="1" t="s">
-        <x:v>219</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="E62" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="F62" s="1" t="s">
-        <x:v>220</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="G62" s="1" t="s">
         <x:v>18</x:v>
@@ -2910,50 +2904,50 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="I62" s="1" t="s">
-        <x:v>221</x:v>
+        <x:v>218</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:9">
       <x:c r="A63" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C63" s="1" t="s">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="D63" s="1" t="s">
+        <x:v>221</x:v>
+      </x:c>
+      <x:c r="E63" s="1" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="F63" s="1" t="s">
         <x:v>223</x:v>
-      </x:c>
-      <x:c r="D63" s="1" t="s">
-        <x:v>224</x:v>
-      </x:c>
-      <x:c r="E63" s="1" t="s">
-        <x:v>175</x:v>
-      </x:c>
-      <x:c r="F63" s="1" t="s">
-        <x:v>225</x:v>
       </x:c>
       <x:c r="G63" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H63" s="1" t="s">
-        <x:v>226</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="I63" s="1" t="s">
-        <x:v>227</x:v>
+        <x:v>225</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:9">
       <x:c r="A64" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C64" s="1" t="s">
-        <x:v>228</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="D64" s="1" t="s">
-        <x:v>229</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="E64" s="1" t="s">
         <x:v>32</x:v>
@@ -2968,36 +2962,36 @@
         <x:v>168</x:v>
       </x:c>
       <x:c r="I64" s="1" t="s">
-        <x:v>230</x:v>
+        <x:v>228</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:9">
       <x:c r="A65" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C65" s="1" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="D65" s="1" t="s">
+        <x:v>230</x:v>
+      </x:c>
+      <x:c r="E65" s="1" t="s">
         <x:v>231</x:v>
       </x:c>
-      <x:c r="D65" s="1" t="s">
+      <x:c r="F65" s="1" t="s">
         <x:v>232</x:v>
-      </x:c>
-      <x:c r="E65" s="1" t="s">
-        <x:v>233</x:v>
-      </x:c>
-      <x:c r="F65" s="1" t="s">
-        <x:v>234</x:v>
       </x:c>
       <x:c r="G65" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H65" s="1" t="s">
-        <x:v>235</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="I65" s="1" t="s">
-        <x:v>236</x:v>
+        <x:v>234</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -130,150 +130,153 @@
     <x:t>Assault Offenses</x:t>
   </x:si>
   <x:si>
-    <x:t>7698</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4695</x:t>
+    <x:t>7700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4700</x:t>
   </x:si>
   <x:si>
     <x:t>377</x:t>
   </x:si>
   <x:si>
-    <x:t>704</x:t>
+    <x:t>705</x:t>
   </x:si>
   <x:si>
     <x:t>28</x:t>
   </x:si>
   <x:si>
-    <x:t>1501</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15003</x:t>
+    <x:t>1503</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15013</x:t>
   </x:si>
   <x:si>
     <x:t>914</x:t>
   </x:si>
   <x:si>
-    <x:t>754</x:t>
-  </x:si>
-  <x:si>
-    <x:t>159</x:t>
+    <x:t>755</x:t>
+  </x:si>
+  <x:si>
+    <x:t>161</x:t>
   </x:si>
   <x:si>
     <x:t>276</x:t>
   </x:si>
   <x:si>
-    <x:t>2141</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8612</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5449</x:t>
+    <x:t>2144</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8614</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5455</x:t>
   </x:si>
   <x:si>
     <x:t>411</x:t>
   </x:si>
   <x:si>
+    <x:t>866</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1779</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17157</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bribery</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Burglary/Breaking &amp; Entering</x:t>
+  </x:si>
+  <x:si>
+    <x:t>796</x:t>
+  </x:si>
+  <x:si>
+    <x:t>585</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46</x:t>
+  </x:si>
+  <x:si>
+    <x:t>104</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1664</x:t>
+  </x:si>
+  <x:si>
+    <x:t>63</x:t>
+  </x:si>
+  <x:si>
+    <x:t>43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>147</x:t>
+  </x:si>
+  <x:si>
+    <x:t>859</x:t>
+  </x:si>
+  <x:si>
+    <x:t>628</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>130</x:t>
+  </x:si>
+  <x:si>
+    <x:t>142</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1811</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Counterfeiting/Forgery</x:t>
+  </x:si>
+  <x:si>
+    <x:t>291</x:t>
+  </x:si>
+  <x:si>
+    <x:t>143</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>49</x:t>
+  </x:si>
+  <x:si>
+    <x:t>519</x:t>
+  </x:si>
+  <x:si>
+    <x:t>294</x:t>
+  </x:si>
+  <x:si>
+    <x:t>153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>51</x:t>
+  </x:si>
+  <x:si>
+    <x:t>534</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Destruction/Damage/Vandalism of Property</x:t>
+  </x:si>
+  <x:si>
     <x:t>863</x:t>
   </x:si>
   <x:si>
-    <x:t>32</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1777</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17144</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bribery</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Burglary/Breaking &amp; Entering</x:t>
-  </x:si>
-  <x:si>
-    <x:t>796</x:t>
-  </x:si>
-  <x:si>
-    <x:t>584</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46</x:t>
-  </x:si>
-  <x:si>
-    <x:t>104</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1663</x:t>
-  </x:si>
-  <x:si>
-    <x:t>63</x:t>
-  </x:si>
-  <x:si>
-    <x:t>43</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>147</x:t>
-  </x:si>
-  <x:si>
-    <x:t>859</x:t>
-  </x:si>
-  <x:si>
-    <x:t>627</x:t>
-  </x:si>
-  <x:si>
-    <x:t>50</x:t>
-  </x:si>
-  <x:si>
-    <x:t>130</x:t>
-  </x:si>
-  <x:si>
-    <x:t>142</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1810</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Counterfeiting/Forgery</x:t>
-  </x:si>
-  <x:si>
-    <x:t>290</x:t>
-  </x:si>
-  <x:si>
-    <x:t>143</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18</x:t>
-  </x:si>
-  <x:si>
-    <x:t>49</x:t>
-  </x:si>
-  <x:si>
-    <x:t>518</x:t>
-  </x:si>
-  <x:si>
-    <x:t>293</x:t>
-  </x:si>
-  <x:si>
-    <x:t>153</x:t>
-  </x:si>
-  <x:si>
-    <x:t>51</x:t>
-  </x:si>
-  <x:si>
-    <x:t>533</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Destruction/Damage/Vandalism of Property</x:t>
-  </x:si>
-  <x:si>
     <x:t>458</x:t>
   </x:si>
   <x:si>
@@ -319,22 +322,22 @@
     <x:t>Drug/Narcotic Violations</x:t>
   </x:si>
   <x:si>
-    <x:t>4010</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2037</x:t>
+    <x:t>4012</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2038</x:t>
   </x:si>
   <x:si>
     <x:t>152</x:t>
   </x:si>
   <x:si>
-    <x:t>563</x:t>
+    <x:t>564</x:t>
   </x:si>
   <x:si>
     <x:t>907</x:t>
   </x:si>
   <x:si>
-    <x:t>7690</x:t>
+    <x:t>7694</x:t>
   </x:si>
   <x:si>
     <x:t>103</x:t>
@@ -346,16 +349,16 @@
     <x:t>177</x:t>
   </x:si>
   <x:si>
-    <x:t>4113</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2068</x:t>
+    <x:t>4115</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2069</x:t>
   </x:si>
   <x:si>
     <x:t>160</x:t>
   </x:si>
   <x:si>
-    <x:t>565</x:t>
+    <x:t>566</x:t>
   </x:si>
   <x:si>
     <x:t>22</x:t>
@@ -364,7 +367,7 @@
     <x:t>939</x:t>
   </x:si>
   <x:si>
-    <x:t>7867</x:t>
+    <x:t>7871</x:t>
   </x:si>
   <x:si>
     <x:t>Embezzlement</x:t>
@@ -376,204 +379,210 @@
     <x:t>16</x:t>
   </x:si>
   <x:si>
+    <x:t>70</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19</x:t>
+  </x:si>
+  <x:si>
     <x:t>37</x:t>
   </x:si>
   <x:si>
     <x:t>23</x:t>
   </x:si>
   <x:si>
+    <x:t>89</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Extortion/Blackmail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fraud Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>991</x:t>
+  </x:si>
+  <x:si>
+    <x:t>756</x:t>
+  </x:si>
+  <x:si>
+    <x:t>68</x:t>
+  </x:si>
+  <x:si>
+    <x:t>158</x:t>
+  </x:si>
+  <x:si>
+    <x:t>287</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2265</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>86</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>791</x:t>
+  </x:si>
+  <x:si>
+    <x:t>164</x:t>
+  </x:si>
+  <x:si>
+    <x:t>303</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2351</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gambling Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Homicide Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>82</x:t>
+  </x:si>
+  <x:si>
+    <x:t>145</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>91</x:t>
+  </x:si>
+  <x:si>
+    <x:t>162</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Human Trafficking</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kidnapping/Abduction</x:t>
+  </x:si>
+  <x:si>
+    <x:t>44</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Larceny/Theft Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7667</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>298</x:t>
+  </x:si>
+  <x:si>
+    <x:t>830</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1504</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15350</x:t>
+  </x:si>
+  <x:si>
+    <x:t>713</x:t>
+  </x:si>
+  <x:si>
+    <x:t>616</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1578</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8380</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5641</x:t>
+  </x:si>
+  <x:si>
+    <x:t>335</x:t>
+  </x:si>
+  <x:si>
+    <x:t>889</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1656</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16928</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Motor Vehicle Theft</x:t>
+  </x:si>
+  <x:si>
+    <x:t>264</x:t>
+  </x:si>
+  <x:si>
+    <x:t>170</x:t>
+  </x:si>
+  <x:si>
     <x:t>24</x:t>
   </x:si>
   <x:si>
-    <x:t>87</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Extortion/Blackmail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fraud Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>988</x:t>
-  </x:si>
-  <x:si>
-    <x:t>756</x:t>
-  </x:si>
-  <x:si>
-    <x:t>68</x:t>
+    <x:t>42</x:t>
+  </x:si>
+  <x:si>
+    <x:t>56</x:t>
+  </x:si>
+  <x:si>
+    <x:t>558</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36</x:t>
+  </x:si>
+  <x:si>
+    <x:t>112</x:t>
+  </x:si>
+  <x:si>
+    <x:t>184</x:t>
+  </x:si>
+  <x:si>
+    <x:t>300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>282</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58</x:t>
+  </x:si>
+  <x:si>
+    <x:t>742</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pornography/Obscene Material</x:t>
+  </x:si>
+  <x:si>
+    <x:t>111</x:t>
   </x:si>
   <x:si>
     <x:t>157</x:t>
   </x:si>
   <x:si>
-    <x:t>287</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2261</x:t>
-  </x:si>
-  <x:si>
-    <x:t>29</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35</x:t>
-  </x:si>
-  <x:si>
-    <x:t>86</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1017</x:t>
-  </x:si>
-  <x:si>
-    <x:t>791</x:t>
-  </x:si>
-  <x:si>
-    <x:t>163</x:t>
-  </x:si>
-  <x:si>
-    <x:t>303</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2347</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gambling Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Homicide Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>82</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19</x:t>
-  </x:si>
-  <x:si>
-    <x:t>145</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>40</x:t>
-  </x:si>
-  <x:si>
-    <x:t>91</x:t>
-  </x:si>
-  <x:si>
-    <x:t>162</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Human Trafficking</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kidnapping/Abduction</x:t>
-  </x:si>
-  <x:si>
-    <x:t>44</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Larceny/Theft Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7662</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5020</x:t>
-  </x:si>
-  <x:si>
-    <x:t>298</x:t>
-  </x:si>
-  <x:si>
-    <x:t>828</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1502</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15336</x:t>
-  </x:si>
-  <x:si>
-    <x:t>713</x:t>
-  </x:si>
-  <x:si>
-    <x:t>616</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1578</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8375</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5636</x:t>
-  </x:si>
-  <x:si>
-    <x:t>335</x:t>
-  </x:si>
-  <x:si>
-    <x:t>887</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1654</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16914</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Motor Vehicle Theft</x:t>
-  </x:si>
-  <x:si>
-    <x:t>264</x:t>
-  </x:si>
-  <x:si>
-    <x:t>170</x:t>
-  </x:si>
-  <x:si>
-    <x:t>42</x:t>
-  </x:si>
-  <x:si>
-    <x:t>56</x:t>
-  </x:si>
-  <x:si>
-    <x:t>558</x:t>
-  </x:si>
-  <x:si>
-    <x:t>36</x:t>
-  </x:si>
-  <x:si>
-    <x:t>112</x:t>
-  </x:si>
-  <x:si>
-    <x:t>184</x:t>
-  </x:si>
-  <x:si>
-    <x:t>300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>282</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58</x:t>
-  </x:si>
-  <x:si>
-    <x:t>742</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pornography/Obscene Material</x:t>
-  </x:si>
-  <x:si>
-    <x:t>111</x:t>
-  </x:si>
-  <x:si>
     <x:t>187</x:t>
   </x:si>
   <x:si>
@@ -665,9 +674,6 @@
   </x:si>
   <x:si>
     <x:t>589</x:t>
-  </x:si>
-  <x:si>
-    <x:t>89</x:t>
   </x:si>
   <x:si>
     <x:t>1448</x:t>
@@ -1639,25 +1645,25 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C19" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="D19" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E19" s="1" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F19" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="G19" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H19" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="I19" s="1" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
@@ -1668,10 +1674,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C20" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="D20" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="E20" s="1" t="s">
         <x:v>20</x:v>
@@ -1683,10 +1689,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H20" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="I20" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1697,68 +1703,68 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C21" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D21" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="E21" s="1" t="s">
         <x:v>65</x:v>
       </x:c>
       <x:c r="F21" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="G21" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H21" s="1" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="I21" s="1" t="s">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
       <x:c r="A22" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="D22" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="E22" s="1" t="s">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="F22" s="1" t="s">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="G22" s="1" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="H22" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="I22" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
       <x:c r="A23" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C23" s="1" t="s">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="D23" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="E23" s="1" t="s">
         <x:v>28</x:v>
@@ -1773,50 +1779,50 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="I23" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
       <x:c r="A24" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C24" s="1" t="s">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="D24" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="E24" s="1" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="F24" s="1" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="G24" s="1" t="s">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="H24" s="1" t="s">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="I24" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
       <x:c r="A25" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C25" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D25" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="E25" s="1" t="s">
         <x:v>18</x:v>
@@ -1828,15 +1834,15 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H25" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="I25" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>121</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
       <x:c r="A26" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
         <x:v>17</x:v>
@@ -1857,24 +1863,24 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H26" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="I26" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:9">
       <x:c r="A27" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C27" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="D27" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="E27" s="1" t="s">
         <x:v>18</x:v>
@@ -1886,15 +1892,15 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H27" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="I27" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>125</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:9">
       <x:c r="A28" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
         <x:v>10</x:v>
@@ -1923,7 +1929,7 @@
     </x:row>
     <x:row r="29" spans="1:9">
       <x:c r="A29" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
         <x:v>21</x:v>
@@ -1952,45 +1958,45 @@
     </x:row>
     <x:row r="30" spans="1:9">
       <x:c r="A30" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C30" s="1" t="s">
-        <x:v>126</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="D30" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="E30" s="1" t="s">
-        <x:v>128</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="F30" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="G30" s="1" t="s">
         <x:v>29</x:v>
       </x:c>
       <x:c r="H30" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="I30" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>133</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:9">
       <x:c r="A31" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C31" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="D31" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="E31" s="1" t="s">
         <x:v>19</x:v>
@@ -2002,44 +2008,44 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H31" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="I31" s="1" t="s">
-        <x:v>134</x:v>
+        <x:v>136</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
       <x:c r="A32" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C32" s="1" t="s">
-        <x:v>135</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="D32" s="1" t="s">
-        <x:v>136</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="E32" s="1" t="s">
-        <x:v>128</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="F32" s="1" t="s">
-        <x:v>137</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="G32" s="1" t="s">
         <x:v>29</x:v>
       </x:c>
       <x:c r="H32" s="1" t="s">
-        <x:v>138</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="I32" s="1" t="s">
-        <x:v>139</x:v>
+        <x:v>141</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:9">
       <x:c r="A33" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
         <x:v>10</x:v>
@@ -2068,7 +2074,7 @@
     </x:row>
     <x:row r="34" spans="1:9">
       <x:c r="A34" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
         <x:v>17</x:v>
@@ -2097,7 +2103,7 @@
     </x:row>
     <x:row r="35" spans="1:9">
       <x:c r="A35" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
         <x:v>21</x:v>
@@ -2126,16 +2132,16 @@
     </x:row>
     <x:row r="36" spans="1:9">
       <x:c r="A36" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C36" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="D36" s="1" t="s">
-        <x:v>142</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="E36" s="1" t="s">
         <x:v>20</x:v>
@@ -2147,15 +2153,15 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H36" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="I36" s="1" t="s">
-        <x:v>144</x:v>
+        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:9">
       <x:c r="A37" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
         <x:v>17</x:v>
@@ -2164,7 +2170,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="D37" s="1" t="s">
-        <x:v>145</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="E37" s="1" t="s">
         <x:v>14</x:v>
@@ -2179,21 +2185,21 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="I37" s="1" t="s">
-        <x:v>146</x:v>
+        <x:v>147</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:9">
       <x:c r="A38" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C38" s="1" t="s">
-        <x:v>147</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="D38" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="E38" s="1" t="s">
         <x:v>29</x:v>
@@ -2208,12 +2214,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I38" s="1" t="s">
-        <x:v>149</x:v>
+        <x:v>150</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:9">
       <x:c r="A39" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
         <x:v>10</x:v>
@@ -2222,7 +2228,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="D39" s="1" t="s">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="E39" s="1" t="s">
         <x:v>18</x:v>
@@ -2237,12 +2243,12 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="I39" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>135</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:9">
       <x:c r="A40" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
         <x:v>21</x:v>
@@ -2251,7 +2257,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="D40" s="1" t="s">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="E40" s="1" t="s">
         <x:v>18</x:v>
@@ -2266,18 +2272,18 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="I40" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>135</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:9">
       <x:c r="A41" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C41" s="1" t="s">
-        <x:v>153</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="D41" s="1" t="s">
         <x:v>83</x:v>
@@ -2295,18 +2301,18 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="I41" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9">
       <x:c r="A42" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C42" s="1" t="s">
-        <x:v>153</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="D42" s="1" t="s">
         <x:v>83</x:v>
@@ -2324,53 +2330,53 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="I42" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:9">
       <x:c r="A43" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C43" s="1" t="s">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="D43" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="E43" s="1" t="s">
-        <x:v>157</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="F43" s="1" t="s">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="G43" s="1" t="s">
         <x:v>66</x:v>
       </x:c>
       <x:c r="H43" s="1" t="s">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="I43" s="1" t="s">
-        <x:v>160</x:v>
+        <x:v>161</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:9">
       <x:c r="A44" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C44" s="1" t="s">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="D44" s="1" t="s">
-        <x:v>162</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="E44" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="F44" s="1" t="s">
         <x:v>11</x:v>
@@ -2379,117 +2385,117 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H44" s="1" t="s">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="I44" s="1" t="s">
-        <x:v>163</x:v>
+        <x:v>164</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:9">
       <x:c r="A45" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C45" s="1" t="s">
-        <x:v>164</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="D45" s="1" t="s">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="E45" s="1" t="s">
-        <x:v>166</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="F45" s="1" t="s">
-        <x:v>167</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="G45" s="1" t="s">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="H45" s="1" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="I45" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
       <x:c r="A46" s="0" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C46" s="1" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="D46" s="1" t="s">
-        <x:v>173</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="E46" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="F46" s="1" t="s">
-        <x:v>174</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="G46" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H46" s="1" t="s">
-        <x:v>175</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="I46" s="1" t="s">
-        <x:v>176</x:v>
+        <x:v>178</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
       <x:c r="A47" s="0" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C47" s="1" t="s">
-        <x:v>177</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="D47" s="1" t="s">
-        <x:v>178</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="E47" s="1" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="F47" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="G47" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H47" s="1" t="s">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="I47" s="1" t="s">
-        <x:v>179</x:v>
+        <x:v>181</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
       <x:c r="A48" s="0" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C48" s="1" t="s">
-        <x:v>180</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="D48" s="1" t="s">
-        <x:v>181</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="E48" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="F48" s="1" t="s">
-        <x:v>182</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="G48" s="1" t="s">
         <x:v>18</x:v>
@@ -2498,18 +2504,18 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="I48" s="1" t="s">
-        <x:v>183</x:v>
+        <x:v>185</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:9">
       <x:c r="A49" s="0" t="s">
-        <x:v>184</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C49" s="1" t="s">
-        <x:v>185</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="D49" s="1" t="s">
         <x:v>78</x:v>
@@ -2524,15 +2530,15 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H49" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="I49" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>188</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:9">
       <x:c r="A50" s="0" t="s">
-        <x:v>184</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
         <x:v>17</x:v>
@@ -2556,12 +2562,12 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="I50" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:9">
       <x:c r="A51" s="0" t="s">
-        <x:v>184</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
         <x:v>21</x:v>
@@ -2582,21 +2588,21 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H51" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="I51" s="1" t="s">
-        <x:v>186</x:v>
+        <x:v>189</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:9">
       <x:c r="A52" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C52" s="1" t="s">
-        <x:v>188</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="D52" s="1" t="s">
         <x:v>14</x:v>
@@ -2619,13 +2625,13 @@
     </x:row>
     <x:row r="53" spans="1:9">
       <x:c r="A53" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C53" s="1" t="s">
-        <x:v>188</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="D53" s="1" t="s">
         <x:v>14</x:v>
@@ -2648,51 +2654,51 @@
     </x:row>
     <x:row r="54" spans="1:9">
       <x:c r="A54" s="0" t="s">
-        <x:v>189</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C54" s="1" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="D54" s="1" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="E54" s="1" t="s">
         <x:v>29</x:v>
       </x:c>
       <x:c r="F54" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="G54" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="H54" s="1" t="s">
-        <x:v>192</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="I54" s="1" t="s">
-        <x:v>193</x:v>
+        <x:v>196</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:9">
       <x:c r="A55" s="0" t="s">
-        <x:v>189</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C55" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="D55" s="1" t="s">
-        <x:v>194</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="E55" s="1" t="s">
-        <x:v>188</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="F55" s="1" t="s">
-        <x:v>145</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="G55" s="1" t="s">
         <x:v>19</x:v>
@@ -2701,24 +2707,24 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="I55" s="1" t="s">
-        <x:v>195</x:v>
+        <x:v>198</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:9">
       <x:c r="A56" s="0" t="s">
-        <x:v>189</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C56" s="1" t="s">
-        <x:v>196</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="D56" s="1" t="s">
-        <x:v>197</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E56" s="1" t="s">
-        <x:v>146</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F56" s="1" t="s">
         <x:v>27</x:v>
@@ -2730,24 +2736,24 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="I56" s="1" t="s">
-        <x:v>198</x:v>
+        <x:v>201</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:9">
       <x:c r="A57" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C57" s="1" t="s">
-        <x:v>200</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="D57" s="1" t="s">
-        <x:v>201</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="E57" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="F57" s="1" t="s">
         <x:v>78</x:v>
@@ -2756,24 +2762,24 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="H57" s="1" t="s">
-        <x:v>196</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="I57" s="1" t="s">
-        <x:v>202</x:v>
+        <x:v>205</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:9">
       <x:c r="A58" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C58" s="1" t="s">
-        <x:v>203</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="D58" s="1" t="s">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="E58" s="1" t="s">
         <x:v>13</x:v>
@@ -2785,27 +2791,27 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H58" s="1" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I58" s="1" t="s">
-        <x:v>204</x:v>
+        <x:v>207</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">
       <x:c r="A59" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C59" s="1" t="s">
-        <x:v>205</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="D59" s="1" t="s">
-        <x:v>206</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="E59" s="1" t="s">
-        <x:v>192</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="F59" s="1" t="s">
         <x:v>12</x:v>
@@ -2814,30 +2820,30 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="H59" s="1" t="s">
-        <x:v>207</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="I59" s="1" t="s">
-        <x:v>208</x:v>
+        <x:v>211</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9">
       <x:c r="A60" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C60" s="1" t="s">
-        <x:v>210</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="D60" s="1" t="s">
-        <x:v>211</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="E60" s="1" t="s">
-        <x:v>147</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="F60" s="1" t="s">
-        <x:v>212</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="G60" s="1" t="s">
         <x:v>18</x:v>
@@ -2846,24 +2852,24 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="I60" s="1" t="s">
-        <x:v>213</x:v>
+        <x:v>216</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">
       <x:c r="A61" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C61" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="D61" s="1" t="s">
-        <x:v>214</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="E61" s="1" t="s">
-        <x:v>145</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="F61" s="1" t="s">
         <x:v>67</x:v>
@@ -2875,79 +2881,79 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="I61" s="1" t="s">
-        <x:v>215</x:v>
+        <x:v>218</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
       <x:c r="A62" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C62" s="1" t="s">
-        <x:v>176</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="D62" s="1" t="s">
-        <x:v>216</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="E62" s="1" t="s">
         <x:v>79</x:v>
       </x:c>
       <x:c r="F62" s="1" t="s">
-        <x:v>217</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="G62" s="1" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H62" s="1" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="I62" s="1" t="s">
-        <x:v>218</x:v>
+        <x:v>220</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:9">
       <x:c r="A63" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C63" s="1" t="s">
-        <x:v>220</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="D63" s="1" t="s">
-        <x:v>221</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="E63" s="1" t="s">
-        <x:v>222</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="F63" s="1" t="s">
-        <x:v>223</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="G63" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H63" s="1" t="s">
-        <x:v>224</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="I63" s="1" t="s">
-        <x:v>225</x:v>
+        <x:v>227</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:9">
       <x:c r="A64" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C64" s="1" t="s">
-        <x:v>226</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="D64" s="1" t="s">
-        <x:v>227</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="E64" s="1" t="s">
         <x:v>32</x:v>
@@ -2959,39 +2965,39 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H64" s="1" t="s">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="I64" s="1" t="s">
-        <x:v>228</x:v>
+        <x:v>230</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:9">
       <x:c r="A65" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C65" s="1" t="s">
-        <x:v>229</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="D65" s="1" t="s">
-        <x:v>230</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="E65" s="1" t="s">
-        <x:v>231</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="F65" s="1" t="s">
-        <x:v>232</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="G65" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H65" s="1" t="s">
-        <x:v>233</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="I65" s="1" t="s">
-        <x:v>234</x:v>
+        <x:v>236</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -130,10 +130,10 @@
     <x:t>Assault Offenses</x:t>
   </x:si>
   <x:si>
-    <x:t>7700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4700</x:t>
+    <x:t>7711</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4702</x:t>
   </x:si>
   <x:si>
     <x:t>377</x:t>
@@ -145,16 +145,16 @@
     <x:t>28</x:t>
   </x:si>
   <x:si>
-    <x:t>1503</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15013</x:t>
-  </x:si>
-  <x:si>
-    <x:t>914</x:t>
-  </x:si>
-  <x:si>
-    <x:t>755</x:t>
+    <x:t>1505</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15028</x:t>
+  </x:si>
+  <x:si>
+    <x:t>919</x:t>
+  </x:si>
+  <x:si>
+    <x:t>756</x:t>
   </x:si>
   <x:si>
     <x:t>161</x:t>
@@ -163,13 +163,13 @@
     <x:t>276</x:t>
   </x:si>
   <x:si>
-    <x:t>2144</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8614</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5455</x:t>
+    <x:t>2150</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8630</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5458</x:t>
   </x:si>
   <x:si>
     <x:t>411</x:t>
@@ -181,10 +181,10 @@
     <x:t>32</x:t>
   </x:si>
   <x:si>
-    <x:t>1779</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17157</x:t>
+    <x:t>1781</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17178</x:t>
   </x:si>
   <x:si>
     <x:t>Bribery</x:t>
@@ -193,19 +193,19 @@
     <x:t>Burglary/Breaking &amp; Entering</x:t>
   </x:si>
   <x:si>
-    <x:t>796</x:t>
-  </x:si>
-  <x:si>
-    <x:t>585</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46</x:t>
-  </x:si>
-  <x:si>
-    <x:t>104</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1664</x:t>
+    <x:t>799</x:t>
+  </x:si>
+  <x:si>
+    <x:t>586</x:t>
+  </x:si>
+  <x:si>
+    <x:t>47</x:t>
+  </x:si>
+  <x:si>
+    <x:t>105</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1670</x:t>
   </x:si>
   <x:si>
     <x:t>63</x:t>
@@ -223,22 +223,19 @@
     <x:t>147</x:t>
   </x:si>
   <x:si>
-    <x:t>859</x:t>
-  </x:si>
-  <x:si>
-    <x:t>628</x:t>
-  </x:si>
-  <x:si>
-    <x:t>50</x:t>
-  </x:si>
-  <x:si>
-    <x:t>130</x:t>
+    <x:t>862</x:t>
+  </x:si>
+  <x:si>
+    <x:t>629</x:t>
+  </x:si>
+  <x:si>
+    <x:t>51</x:t>
   </x:si>
   <x:si>
     <x:t>142</x:t>
   </x:si>
   <x:si>
-    <x:t>1811</x:t>
+    <x:t>1817</x:t>
   </x:si>
   <x:si>
     <x:t>Counterfeiting/Forgery</x:t>
@@ -265,19 +262,16 @@
     <x:t>153</x:t>
   </x:si>
   <x:si>
-    <x:t>51</x:t>
-  </x:si>
-  <x:si>
     <x:t>534</x:t>
   </x:si>
   <x:si>
     <x:t>Destruction/Damage/Vandalism of Property</x:t>
   </x:si>
   <x:si>
-    <x:t>863</x:t>
-  </x:si>
-  <x:si>
-    <x:t>458</x:t>
+    <x:t>864</x:t>
+  </x:si>
+  <x:si>
+    <x:t>459</x:t>
   </x:si>
   <x:si>
     <x:t>39</x:t>
@@ -289,55 +283,55 @@
     <x:t>179</x:t>
   </x:si>
   <x:si>
-    <x:t>1632</x:t>
-  </x:si>
-  <x:si>
-    <x:t>208</x:t>
+    <x:t>1634</x:t>
+  </x:si>
+  <x:si>
+    <x:t>209</x:t>
   </x:si>
   <x:si>
     <x:t>101</x:t>
   </x:si>
   <x:si>
-    <x:t>47</x:t>
-  </x:si>
-  <x:si>
-    <x:t>388</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1071</x:t>
-  </x:si>
-  <x:si>
-    <x:t>559</x:t>
+    <x:t>48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>390</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1073</x:t>
+  </x:si>
+  <x:si>
+    <x:t>560</x:t>
   </x:si>
   <x:si>
     <x:t>120</x:t>
   </x:si>
   <x:si>
-    <x:t>226</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2020</x:t>
+    <x:t>227</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024</x:t>
   </x:si>
   <x:si>
     <x:t>Drug/Narcotic Violations</x:t>
   </x:si>
   <x:si>
-    <x:t>4012</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2038</x:t>
+    <x:t>4019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2039</x:t>
   </x:si>
   <x:si>
     <x:t>152</x:t>
   </x:si>
   <x:si>
-    <x:t>564</x:t>
-  </x:si>
-  <x:si>
-    <x:t>907</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7694</x:t>
+    <x:t>568</x:t>
+  </x:si>
+  <x:si>
+    <x:t>909</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7708</x:t>
   </x:si>
   <x:si>
     <x:t>103</x:t>
@@ -349,25 +343,25 @@
     <x:t>177</x:t>
   </x:si>
   <x:si>
-    <x:t>4115</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2069</x:t>
+    <x:t>4122</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2070</x:t>
   </x:si>
   <x:si>
     <x:t>160</x:t>
   </x:si>
   <x:si>
-    <x:t>566</x:t>
+    <x:t>570</x:t>
   </x:si>
   <x:si>
     <x:t>22</x:t>
   </x:si>
   <x:si>
-    <x:t>939</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7871</x:t>
+    <x:t>941</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7885</x:t>
   </x:si>
   <x:si>
     <x:t>Embezzlement</x:t>
@@ -400,10 +394,10 @@
     <x:t>Fraud Offenses</x:t>
   </x:si>
   <x:si>
-    <x:t>991</x:t>
-  </x:si>
-  <x:si>
-    <x:t>756</x:t>
+    <x:t>994</x:t>
+  </x:si>
+  <x:si>
+    <x:t>757</x:t>
   </x:si>
   <x:si>
     <x:t>68</x:t>
@@ -415,7 +409,7 @@
     <x:t>287</x:t>
   </x:si>
   <x:si>
-    <x:t>2265</x:t>
+    <x:t>2269</x:t>
   </x:si>
   <x:si>
     <x:t>29</x:t>
@@ -427,10 +421,10 @@
     <x:t>86</x:t>
   </x:si>
   <x:si>
-    <x:t>1020</x:t>
-  </x:si>
-  <x:si>
-    <x:t>791</x:t>
+    <x:t>1023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>792</x:t>
   </x:si>
   <x:si>
     <x:t>164</x:t>
@@ -439,7 +433,7 @@
     <x:t>303</x:t>
   </x:si>
   <x:si>
-    <x:t>2351</x:t>
+    <x:t>2355</x:t>
   </x:si>
   <x:si>
     <x:t>Gambling Offenses</x:t>
@@ -448,10 +442,13 @@
     <x:t>Homicide Offenses</x:t>
   </x:si>
   <x:si>
+    <x:t>36</x:t>
+  </x:si>
+  <x:si>
     <x:t>82</x:t>
   </x:si>
   <x:si>
-    <x:t>145</x:t>
+    <x:t>144</x:t>
   </x:si>
   <x:si>
     <x:t>9</x:t>
@@ -460,211 +457,208 @@
     <x:t>17</x:t>
   </x:si>
   <x:si>
+    <x:t>91</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Human Trafficking</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kidnapping/Abduction</x:t>
+  </x:si>
+  <x:si>
+    <x:t>45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>122</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Larceny/Theft Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7678</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5032</x:t>
+  </x:si>
+  <x:si>
+    <x:t>298</x:t>
+  </x:si>
+  <x:si>
+    <x:t>830</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1507</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15371</x:t>
+  </x:si>
+  <x:si>
+    <x:t>713</x:t>
+  </x:si>
+  <x:si>
+    <x:t>618</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1580</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8391</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5650</x:t>
+  </x:si>
+  <x:si>
+    <x:t>335</x:t>
+  </x:si>
+  <x:si>
+    <x:t>889</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1659</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16951</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Motor Vehicle Theft</x:t>
+  </x:si>
+  <x:si>
+    <x:t>264</x:t>
+  </x:si>
+  <x:si>
+    <x:t>170</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>42</x:t>
+  </x:si>
+  <x:si>
+    <x:t>56</x:t>
+  </x:si>
+  <x:si>
+    <x:t>558</x:t>
+  </x:si>
+  <x:si>
+    <x:t>112</x:t>
+  </x:si>
+  <x:si>
+    <x:t>184</x:t>
+  </x:si>
+  <x:si>
+    <x:t>300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>282</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58</x:t>
+  </x:si>
+  <x:si>
+    <x:t>742</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pornography/Obscene Material</x:t>
+  </x:si>
+  <x:si>
+    <x:t>111</x:t>
+  </x:si>
+  <x:si>
+    <x:t>157</x:t>
+  </x:si>
+  <x:si>
+    <x:t>132</x:t>
+  </x:si>
+  <x:si>
+    <x:t>188</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Prostitution Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Robbery</x:t>
+  </x:si>
+  <x:si>
+    <x:t>96</x:t>
+  </x:si>
+  <x:si>
+    <x:t>371</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>521</x:t>
+  </x:si>
+  <x:si>
+    <x:t>156</x:t>
+  </x:si>
+  <x:si>
+    <x:t>203</x:t>
+  </x:si>
+  <x:si>
+    <x:t>115</x:t>
+  </x:si>
+  <x:si>
+    <x:t>527</x:t>
+  </x:si>
+  <x:si>
+    <x:t>724</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sex Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>448</x:t>
+  </x:si>
+  <x:si>
+    <x:t>215</x:t>
+  </x:si>
+  <x:si>
+    <x:t>822</x:t>
+  </x:si>
+  <x:si>
+    <x:t>67</x:t>
+  </x:si>
+  <x:si>
+    <x:t>138</x:t>
+  </x:si>
+  <x:si>
+    <x:t>515</x:t>
+  </x:si>
+  <x:si>
+    <x:t>242</x:t>
+  </x:si>
+  <x:si>
+    <x:t>154</x:t>
+  </x:si>
+  <x:si>
+    <x:t>960</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stolen Property Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>460</x:t>
+  </x:si>
+  <x:si>
     <x:t>40</x:t>
   </x:si>
   <x:si>
-    <x:t>91</x:t>
-  </x:si>
-  <x:si>
-    <x:t>162</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Human Trafficking</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kidnapping/Abduction</x:t>
-  </x:si>
-  <x:si>
-    <x:t>44</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Larceny/Theft Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7667</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5025</x:t>
-  </x:si>
-  <x:si>
-    <x:t>298</x:t>
-  </x:si>
-  <x:si>
-    <x:t>830</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1504</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15350</x:t>
-  </x:si>
-  <x:si>
-    <x:t>713</x:t>
-  </x:si>
-  <x:si>
-    <x:t>616</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1578</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8380</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5641</x:t>
-  </x:si>
-  <x:si>
-    <x:t>335</x:t>
-  </x:si>
-  <x:si>
-    <x:t>889</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1656</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16928</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Motor Vehicle Theft</x:t>
-  </x:si>
-  <x:si>
-    <x:t>264</x:t>
-  </x:si>
-  <x:si>
-    <x:t>170</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24</x:t>
-  </x:si>
-  <x:si>
-    <x:t>42</x:t>
-  </x:si>
-  <x:si>
-    <x:t>56</x:t>
-  </x:si>
-  <x:si>
-    <x:t>558</x:t>
-  </x:si>
-  <x:si>
-    <x:t>36</x:t>
-  </x:si>
-  <x:si>
-    <x:t>112</x:t>
-  </x:si>
-  <x:si>
-    <x:t>184</x:t>
-  </x:si>
-  <x:si>
-    <x:t>300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>282</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58</x:t>
-  </x:si>
-  <x:si>
-    <x:t>742</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pornography/Obscene Material</x:t>
-  </x:si>
-  <x:si>
-    <x:t>111</x:t>
-  </x:si>
-  <x:si>
-    <x:t>157</x:t>
-  </x:si>
-  <x:si>
-    <x:t>187</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Prostitution Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Robbery</x:t>
-  </x:si>
-  <x:si>
-    <x:t>96</x:t>
-  </x:si>
-  <x:si>
-    <x:t>372</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>522</x:t>
-  </x:si>
-  <x:si>
-    <x:t>156</x:t>
-  </x:si>
-  <x:si>
-    <x:t>203</x:t>
-  </x:si>
-  <x:si>
-    <x:t>115</x:t>
-  </x:si>
-  <x:si>
-    <x:t>528</x:t>
-  </x:si>
-  <x:si>
-    <x:t>725</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sex Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>446</x:t>
-  </x:si>
-  <x:si>
-    <x:t>215</x:t>
-  </x:si>
-  <x:si>
-    <x:t>819</x:t>
-  </x:si>
-  <x:si>
-    <x:t>67</x:t>
-  </x:si>
-  <x:si>
-    <x:t>137</x:t>
-  </x:si>
-  <x:si>
-    <x:t>513</x:t>
-  </x:si>
-  <x:si>
-    <x:t>242</x:t>
-  </x:si>
-  <x:si>
-    <x:t>154</x:t>
-  </x:si>
-  <x:si>
-    <x:t>956</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stolen Property Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>535</x:t>
-  </x:si>
-  <x:si>
-    <x:t>460</x:t>
-  </x:si>
-  <x:si>
     <x:t>78</x:t>
   </x:si>
   <x:si>
-    <x:t>1258</x:t>
+    <x:t>1257</x:t>
   </x:si>
   <x:si>
     <x:t>129</x:t>
@@ -673,19 +667,22 @@
     <x:t>190</x:t>
   </x:si>
   <x:si>
+    <x:t>557</x:t>
+  </x:si>
+  <x:si>
     <x:t>589</x:t>
   </x:si>
   <x:si>
-    <x:t>1448</x:t>
+    <x:t>1447</x:t>
   </x:si>
   <x:si>
     <x:t>Weapon Law Violations</x:t>
   </x:si>
   <x:si>
-    <x:t>700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>952</x:t>
+    <x:t>699</x:t>
+  </x:si>
+  <x:si>
+    <x:t>953</x:t>
   </x:si>
   <x:si>
     <x:t>55</x:t>
@@ -694,25 +691,25 @@
     <x:t>74</x:t>
   </x:si>
   <x:si>
-    <x:t>368</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2151</x:t>
+    <x:t>369</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2152</x:t>
   </x:si>
   <x:si>
     <x:t>60</x:t>
   </x:si>
   <x:si>
-    <x:t>173</x:t>
-  </x:si>
-  <x:si>
-    <x:t>280</x:t>
-  </x:si>
-  <x:si>
-    <x:t>760</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1125</x:t>
+    <x:t>174</x:t>
+  </x:si>
+  <x:si>
+    <x:t>281</x:t>
+  </x:si>
+  <x:si>
+    <x:t>759</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1127</x:t>
   </x:si>
   <x:si>
     <x:t>65</x:t>
@@ -721,10 +718,10 @@
     <x:t>84</x:t>
   </x:si>
   <x:si>
-    <x:t>395</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2431</x:t>
+    <x:t>396</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2433</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1538,50 +1535,50 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="F15" s="1" t="s">
-        <x:v>72</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="G15" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H15" s="1" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="I15" s="1" t="s">
         <x:v>73</x:v>
-      </x:c>
-      <x:c r="I15" s="1" t="s">
-        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
       <x:c r="A16" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="1" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D16" s="1" t="s">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="D16" s="1" t="s">
+      <x:c r="E16" s="1" t="s">
         <x:v>77</x:v>
       </x:c>
-      <x:c r="E16" s="1" t="s">
+      <x:c r="F16" s="1" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="G16" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H16" s="1" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="F16" s="1" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="G16" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="H16" s="1" t="s">
+      <x:c r="I16" s="1" t="s">
         <x:v>79</x:v>
-      </x:c>
-      <x:c r="I16" s="1" t="s">
-        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
       <x:c r="A17" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
         <x:v>17</x:v>
@@ -1610,74 +1607,74 @@
     </x:row>
     <x:row r="18" spans="1:9">
       <x:c r="A18" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C18" s="1" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="D18" s="1" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="D18" s="1" t="s">
+      <x:c r="E18" s="1" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="F18" s="1" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="G18" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H18" s="1" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="I18" s="1" t="s">
         <x:v>82</x:v>
-      </x:c>
-      <x:c r="E18" s="1" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="F18" s="1" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="G18" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="H18" s="1" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="I18" s="1" t="s">
-        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
       <x:c r="A19" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C19" s="1" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="D19" s="1" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="E19" s="1" t="s">
         <x:v>86</x:v>
       </x:c>
-      <x:c r="D19" s="1" t="s">
+      <x:c r="F19" s="1" t="s">
         <x:v>87</x:v>
       </x:c>
-      <x:c r="E19" s="1" t="s">
+      <x:c r="G19" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H19" s="1" t="s">
         <x:v>88</x:v>
       </x:c>
-      <x:c r="F19" s="1" t="s">
+      <x:c r="I19" s="1" t="s">
         <x:v>89</x:v>
-      </x:c>
-      <x:c r="G19" s="1" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="H19" s="1" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="I19" s="1" t="s">
-        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
       <x:c r="A20" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C20" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D20" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E20" s="1" t="s">
         <x:v>20</x:v>
@@ -1689,82 +1686,82 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H20" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="I20" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
       <x:c r="A21" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C21" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="D21" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E21" s="1" t="s">
         <x:v>65</x:v>
       </x:c>
       <x:c r="F21" s="1" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="G21" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H21" s="1" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="I21" s="1" t="s">
         <x:v>98</x:v>
-      </x:c>
-      <x:c r="G21" s="1" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="H21" s="1" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="I21" s="1" t="s">
-        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
       <x:c r="A22" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="D22" s="1" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="E22" s="1" t="s">
         <x:v>102</x:v>
       </x:c>
-      <x:c r="D22" s="1" t="s">
+      <x:c r="F22" s="1" t="s">
         <x:v>103</x:v>
-      </x:c>
-      <x:c r="E22" s="1" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="F22" s="1" t="s">
-        <x:v>105</x:v>
       </x:c>
       <x:c r="G22" s="1" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="H22" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="I22" s="1" t="s">
-        <x:v>107</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
       <x:c r="A23" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C23" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="D23" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E23" s="1" t="s">
         <x:v>28</x:v>
@@ -1779,50 +1776,50 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="I23" s="1" t="s">
-        <x:v>110</x:v>
+        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
       <x:c r="A24" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C24" s="1" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="D24" s="1" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="E24" s="1" t="s">
         <x:v>111</x:v>
       </x:c>
-      <x:c r="D24" s="1" t="s">
+      <x:c r="F24" s="1" t="s">
         <x:v>112</x:v>
       </x:c>
-      <x:c r="E24" s="1" t="s">
+      <x:c r="G24" s="1" t="s">
         <x:v>113</x:v>
       </x:c>
-      <x:c r="F24" s="1" t="s">
+      <x:c r="H24" s="1" t="s">
         <x:v>114</x:v>
       </x:c>
-      <x:c r="G24" s="1" t="s">
+      <x:c r="I24" s="1" t="s">
         <x:v>115</x:v>
-      </x:c>
-      <x:c r="H24" s="1" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="I24" s="1" t="s">
-        <x:v>117</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
       <x:c r="A25" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C25" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D25" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="E25" s="1" t="s">
         <x:v>18</x:v>
@@ -1837,12 +1834,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I25" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
       <x:c r="A26" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
         <x:v>17</x:v>
@@ -1866,21 +1863,21 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="I26" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:9">
       <x:c r="A27" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C27" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="D27" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="E27" s="1" t="s">
         <x:v>18</x:v>
@@ -1895,12 +1892,12 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="I27" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>123</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:9">
       <x:c r="A28" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
         <x:v>10</x:v>
@@ -1929,7 +1926,7 @@
     </x:row>
     <x:row r="29" spans="1:9">
       <x:c r="A29" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
         <x:v>21</x:v>
@@ -1958,45 +1955,45 @@
     </x:row>
     <x:row r="30" spans="1:9">
       <x:c r="A30" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C30" s="1" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="D30" s="1" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="E30" s="1" t="s">
         <x:v>128</x:v>
       </x:c>
-      <x:c r="D30" s="1" t="s">
+      <x:c r="F30" s="1" t="s">
         <x:v>129</x:v>
-      </x:c>
-      <x:c r="E30" s="1" t="s">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="F30" s="1" t="s">
-        <x:v>131</x:v>
       </x:c>
       <x:c r="G30" s="1" t="s">
         <x:v>29</x:v>
       </x:c>
       <x:c r="H30" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="I30" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>131</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:9">
       <x:c r="A31" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C31" s="1" t="s">
-        <x:v>134</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="D31" s="1" t="s">
-        <x:v>135</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="E31" s="1" t="s">
         <x:v>19</x:v>
@@ -2008,44 +2005,44 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H31" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="I31" s="1" t="s">
-        <x:v>136</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
       <x:c r="A32" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C32" s="1" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="D32" s="1" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="E32" s="1" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="F32" s="1" t="s">
         <x:v>137</x:v>
-      </x:c>
-      <x:c r="D32" s="1" t="s">
-        <x:v>138</x:v>
-      </x:c>
-      <x:c r="E32" s="1" t="s">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="F32" s="1" t="s">
-        <x:v>139</x:v>
       </x:c>
       <x:c r="G32" s="1" t="s">
         <x:v>29</x:v>
       </x:c>
       <x:c r="H32" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="I32" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>139</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:9">
       <x:c r="A33" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
         <x:v>10</x:v>
@@ -2074,7 +2071,7 @@
     </x:row>
     <x:row r="34" spans="1:9">
       <x:c r="A34" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
         <x:v>17</x:v>
@@ -2103,7 +2100,7 @@
     </x:row>
     <x:row r="35" spans="1:9">
       <x:c r="A35" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
         <x:v>21</x:v>
@@ -2132,16 +2129,16 @@
     </x:row>
     <x:row r="36" spans="1:9">
       <x:c r="A36" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C36" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="D36" s="1" t="s">
-        <x:v>144</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="E36" s="1" t="s">
         <x:v>20</x:v>
@@ -2153,15 +2150,15 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H36" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="I36" s="1" t="s">
-        <x:v>145</x:v>
+        <x:v>144</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:9">
       <x:c r="A37" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
         <x:v>17</x:v>
@@ -2170,7 +2167,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="D37" s="1" t="s">
-        <x:v>146</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="E37" s="1" t="s">
         <x:v>14</x:v>
@@ -2185,21 +2182,21 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="I37" s="1" t="s">
-        <x:v>147</x:v>
+        <x:v>146</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:9">
       <x:c r="A38" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C38" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="D38" s="1" t="s">
-        <x:v>149</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="E38" s="1" t="s">
         <x:v>29</x:v>
@@ -2214,12 +2211,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I38" s="1" t="s">
-        <x:v>150</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:9">
       <x:c r="A39" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
         <x:v>10</x:v>
@@ -2228,7 +2225,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="D39" s="1" t="s">
-        <x:v>152</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="E39" s="1" t="s">
         <x:v>18</x:v>
@@ -2243,12 +2240,12 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="I39" s="1" t="s">
-        <x:v>135</x:v>
+        <x:v>133</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:9">
       <x:c r="A40" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
         <x:v>21</x:v>
@@ -2257,7 +2254,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="D40" s="1" t="s">
-        <x:v>152</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="E40" s="1" t="s">
         <x:v>18</x:v>
@@ -2272,21 +2269,21 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="I40" s="1" t="s">
-        <x:v>135</x:v>
+        <x:v>133</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:9">
       <x:c r="A41" s="0" t="s">
-        <x:v>153</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C41" s="1" t="s">
-        <x:v>154</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="D41" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E41" s="1" t="s">
         <x:v>30</x:v>
@@ -2298,24 +2295,24 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H41" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="I41" s="1" t="s">
-        <x:v>98</x:v>
+        <x:v>152</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9">
       <x:c r="A42" s="0" t="s">
-        <x:v>153</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C42" s="1" t="s">
-        <x:v>154</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="D42" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E42" s="1" t="s">
         <x:v>30</x:v>
@@ -2327,56 +2324,56 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H42" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="I42" s="1" t="s">
-        <x:v>98</x:v>
+        <x:v>152</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:9">
       <x:c r="A43" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C43" s="1" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="D43" s="1" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="E43" s="1" t="s">
         <x:v>156</x:v>
       </x:c>
-      <x:c r="D43" s="1" t="s">
+      <x:c r="F43" s="1" t="s">
         <x:v>157</x:v>
-      </x:c>
-      <x:c r="E43" s="1" t="s">
-        <x:v>158</x:v>
-      </x:c>
-      <x:c r="F43" s="1" t="s">
-        <x:v>159</x:v>
       </x:c>
       <x:c r="G43" s="1" t="s">
         <x:v>66</x:v>
       </x:c>
       <x:c r="H43" s="1" t="s">
-        <x:v>160</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="I43" s="1" t="s">
-        <x:v>161</x:v>
+        <x:v>159</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:9">
       <x:c r="A44" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C44" s="1" t="s">
-        <x:v>162</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="D44" s="1" t="s">
-        <x:v>163</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="E44" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="F44" s="1" t="s">
         <x:v>11</x:v>
@@ -2385,117 +2382,117 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H44" s="1" t="s">
-        <x:v>104</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I44" s="1" t="s">
-        <x:v>164</x:v>
+        <x:v>162</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:9">
       <x:c r="A45" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C45" s="1" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="D45" s="1" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="E45" s="1" t="s">
         <x:v>165</x:v>
       </x:c>
-      <x:c r="D45" s="1" t="s">
+      <x:c r="F45" s="1" t="s">
         <x:v>166</x:v>
       </x:c>
-      <x:c r="E45" s="1" t="s">
+      <x:c r="G45" s="1" t="s">
         <x:v>167</x:v>
       </x:c>
-      <x:c r="F45" s="1" t="s">
+      <x:c r="H45" s="1" t="s">
         <x:v>168</x:v>
       </x:c>
-      <x:c r="G45" s="1" t="s">
+      <x:c r="I45" s="1" t="s">
         <x:v>169</x:v>
-      </x:c>
-      <x:c r="H45" s="1" t="s">
-        <x:v>170</x:v>
-      </x:c>
-      <x:c r="I45" s="1" t="s">
-        <x:v>171</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
       <x:c r="A46" s="0" t="s">
-        <x:v>172</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C46" s="1" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="D46" s="1" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="E46" s="1" t="s">
         <x:v>173</x:v>
       </x:c>
-      <x:c r="D46" s="1" t="s">
+      <x:c r="F46" s="1" t="s">
         <x:v>174</x:v>
-      </x:c>
-      <x:c r="E46" s="1" t="s">
-        <x:v>175</x:v>
-      </x:c>
-      <x:c r="F46" s="1" t="s">
-        <x:v>176</x:v>
       </x:c>
       <x:c r="G46" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H46" s="1" t="s">
-        <x:v>177</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="I46" s="1" t="s">
-        <x:v>178</x:v>
+        <x:v>176</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
       <x:c r="A47" s="0" t="s">
-        <x:v>172</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C47" s="1" t="s">
-        <x:v>179</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="D47" s="1" t="s">
-        <x:v>180</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="E47" s="1" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="F47" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="G47" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H47" s="1" t="s">
-        <x:v>152</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="I47" s="1" t="s">
-        <x:v>181</x:v>
+        <x:v>178</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
       <x:c r="A48" s="0" t="s">
-        <x:v>172</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C48" s="1" t="s">
-        <x:v>182</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="D48" s="1" t="s">
-        <x:v>183</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="E48" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="F48" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="G48" s="1" t="s">
         <x:v>18</x:v>
@@ -2504,21 +2501,21 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="I48" s="1" t="s">
-        <x:v>185</x:v>
+        <x:v>182</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:9">
       <x:c r="A49" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C49" s="1" t="s">
-        <x:v>187</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="D49" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E49" s="1" t="s">
         <x:v>13</x:v>
@@ -2530,21 +2527,21 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H49" s="1" t="s">
-        <x:v>175</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="I49" s="1" t="s">
-        <x:v>188</x:v>
+        <x:v>185</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:9">
       <x:c r="A50" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C50" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D50" s="1" t="s">
         <x:v>18</x:v>
@@ -2562,18 +2559,18 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="I50" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:9">
       <x:c r="A51" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C51" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="D51" s="1" t="s">
         <x:v>23</x:v>
@@ -2588,21 +2585,21 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H51" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="I51" s="1" t="s">
-        <x:v>189</x:v>
+        <x:v>187</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:9">
       <x:c r="A52" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C52" s="1" t="s">
-        <x:v>191</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="D52" s="1" t="s">
         <x:v>14</x:v>
@@ -2625,13 +2622,13 @@
     </x:row>
     <x:row r="53" spans="1:9">
       <x:c r="A53" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C53" s="1" t="s">
-        <x:v>191</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="D53" s="1" t="s">
         <x:v>14</x:v>
@@ -2654,51 +2651,51 @@
     </x:row>
     <x:row r="54" spans="1:9">
       <x:c r="A54" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C54" s="1" t="s">
-        <x:v>193</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="D54" s="1" t="s">
-        <x:v>194</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="E54" s="1" t="s">
         <x:v>29</x:v>
       </x:c>
       <x:c r="F54" s="1" t="s">
-        <x:v>175</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="G54" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="H54" s="1" t="s">
-        <x:v>195</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="I54" s="1" t="s">
-        <x:v>196</x:v>
+        <x:v>194</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:9">
       <x:c r="A55" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C55" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D55" s="1" t="s">
-        <x:v>197</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="E55" s="1" t="s">
-        <x:v>191</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="F55" s="1" t="s">
-        <x:v>146</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="G55" s="1" t="s">
         <x:v>19</x:v>
@@ -2707,24 +2704,24 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="I55" s="1" t="s">
-        <x:v>198</x:v>
+        <x:v>196</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:9">
       <x:c r="A56" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C56" s="1" t="s">
-        <x:v>199</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="D56" s="1" t="s">
-        <x:v>200</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="E56" s="1" t="s">
-        <x:v>147</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="F56" s="1" t="s">
         <x:v>27</x:v>
@@ -2736,140 +2733,140 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="I56" s="1" t="s">
-        <x:v>201</x:v>
+        <x:v>199</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:9">
       <x:c r="A57" s="0" t="s">
-        <x:v>202</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C57" s="1" t="s">
-        <x:v>203</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="D57" s="1" t="s">
-        <x:v>204</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="E57" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="F57" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="G57" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H57" s="1" t="s">
-        <x:v>199</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="I57" s="1" t="s">
-        <x:v>205</x:v>
+        <x:v>203</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:9">
       <x:c r="A58" s="0" t="s">
-        <x:v>202</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C58" s="1" t="s">
-        <x:v>206</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="D58" s="1" t="s">
-        <x:v>169</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="E58" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="F58" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G58" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="H58" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="I58" s="1" t="s">
-        <x:v>207</x:v>
+        <x:v>205</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">
       <x:c r="A59" s="0" t="s">
-        <x:v>202</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C59" s="1" t="s">
-        <x:v>208</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="D59" s="1" t="s">
-        <x:v>209</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="E59" s="1" t="s">
-        <x:v>195</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="F59" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="G59" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H59" s="1" t="s">
-        <x:v>210</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="I59" s="1" t="s">
-        <x:v>211</x:v>
+        <x:v>209</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9">
       <x:c r="A60" s="0" t="s">
-        <x:v>212</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C60" s="1" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="D60" s="1" t="s">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="E60" s="1" t="s">
+        <x:v>212</x:v>
+      </x:c>
+      <x:c r="F60" s="1" t="s">
         <x:v>213</x:v>
-      </x:c>
-      <x:c r="D60" s="1" t="s">
-        <x:v>214</x:v>
-      </x:c>
-      <x:c r="E60" s="1" t="s">
-        <x:v>148</x:v>
-      </x:c>
-      <x:c r="F60" s="1" t="s">
-        <x:v>215</x:v>
       </x:c>
       <x:c r="G60" s="1" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H60" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I60" s="1" t="s">
-        <x:v>216</x:v>
+        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">
       <x:c r="A61" s="0" t="s">
-        <x:v>212</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C61" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="D61" s="1" t="s">
-        <x:v>217</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="E61" s="1" t="s">
-        <x:v>146</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="F61" s="1" t="s">
         <x:v>67</x:v>
@@ -2878,82 +2875,82 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H61" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="I61" s="1" t="s">
-        <x:v>218</x:v>
+        <x:v>216</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
       <x:c r="A62" s="0" t="s">
-        <x:v>212</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C62" s="1" t="s">
-        <x:v>178</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="D62" s="1" t="s">
-        <x:v>219</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="E62" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="F62" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="G62" s="1" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H62" s="1" t="s">
-        <x:v>113</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="I62" s="1" t="s">
-        <x:v>220</x:v>
+        <x:v>219</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:9">
       <x:c r="A63" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C63" s="1" t="s">
+        <x:v>221</x:v>
+      </x:c>
+      <x:c r="D63" s="1" t="s">
         <x:v>222</x:v>
       </x:c>
-      <x:c r="D63" s="1" t="s">
+      <x:c r="E63" s="1" t="s">
         <x:v>223</x:v>
       </x:c>
-      <x:c r="E63" s="1" t="s">
+      <x:c r="F63" s="1" t="s">
         <x:v>224</x:v>
-      </x:c>
-      <x:c r="F63" s="1" t="s">
-        <x:v>225</x:v>
       </x:c>
       <x:c r="G63" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H63" s="1" t="s">
+        <x:v>225</x:v>
+      </x:c>
+      <x:c r="I63" s="1" t="s">
         <x:v>226</x:v>
-      </x:c>
-      <x:c r="I63" s="1" t="s">
-        <x:v>227</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:9">
       <x:c r="A64" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C64" s="1" t="s">
+        <x:v>227</x:v>
+      </x:c>
+      <x:c r="D64" s="1" t="s">
         <x:v>228</x:v>
-      </x:c>
-      <x:c r="D64" s="1" t="s">
-        <x:v>229</x:v>
       </x:c>
       <x:c r="E64" s="1" t="s">
         <x:v>32</x:v>
@@ -2965,39 +2962,39 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H64" s="1" t="s">
-        <x:v>169</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="I64" s="1" t="s">
-        <x:v>230</x:v>
+        <x:v>229</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:9">
       <x:c r="A65" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C65" s="1" t="s">
+        <x:v>230</x:v>
+      </x:c>
+      <x:c r="D65" s="1" t="s">
         <x:v>231</x:v>
       </x:c>
-      <x:c r="D65" s="1" t="s">
+      <x:c r="E65" s="1" t="s">
         <x:v>232</x:v>
       </x:c>
-      <x:c r="E65" s="1" t="s">
+      <x:c r="F65" s="1" t="s">
         <x:v>233</x:v>
-      </x:c>
-      <x:c r="F65" s="1" t="s">
-        <x:v>234</x:v>
       </x:c>
       <x:c r="G65" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H65" s="1" t="s">
+        <x:v>234</x:v>
+      </x:c>
+      <x:c r="I65" s="1" t="s">
         <x:v>235</x:v>
-      </x:c>
-      <x:c r="I65" s="1" t="s">
-        <x:v>236</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -139,16 +139,16 @@
     <x:t>377</x:t>
   </x:si>
   <x:si>
-    <x:t>705</x:t>
+    <x:t>704</x:t>
   </x:si>
   <x:si>
     <x:t>28</x:t>
   </x:si>
   <x:si>
-    <x:t>1505</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15028</x:t>
+    <x:t>1504</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15026</x:t>
   </x:si>
   <x:si>
     <x:t>919</x:t>
@@ -157,309 +157,306 @@
     <x:t>756</x:t>
   </x:si>
   <x:si>
+    <x:t>162</x:t>
+  </x:si>
+  <x:si>
+    <x:t>278</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8630</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5458</x:t>
+  </x:si>
+  <x:si>
+    <x:t>411</x:t>
+  </x:si>
+  <x:si>
+    <x:t>866</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1782</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17179</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bribery</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Burglary/Breaking &amp; Entering</x:t>
+  </x:si>
+  <x:si>
+    <x:t>799</x:t>
+  </x:si>
+  <x:si>
+    <x:t>586</x:t>
+  </x:si>
+  <x:si>
+    <x:t>47</x:t>
+  </x:si>
+  <x:si>
+    <x:t>105</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1670</x:t>
+  </x:si>
+  <x:si>
+    <x:t>63</x:t>
+  </x:si>
+  <x:si>
+    <x:t>43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>147</x:t>
+  </x:si>
+  <x:si>
+    <x:t>862</x:t>
+  </x:si>
+  <x:si>
+    <x:t>629</x:t>
+  </x:si>
+  <x:si>
+    <x:t>51</x:t>
+  </x:si>
+  <x:si>
+    <x:t>142</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1817</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Counterfeiting/Forgery</x:t>
+  </x:si>
+  <x:si>
+    <x:t>291</x:t>
+  </x:si>
+  <x:si>
+    <x:t>143</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>49</x:t>
+  </x:si>
+  <x:si>
+    <x:t>519</x:t>
+  </x:si>
+  <x:si>
+    <x:t>294</x:t>
+  </x:si>
+  <x:si>
+    <x:t>153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>534</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Destruction/Damage/Vandalism of Property</x:t>
+  </x:si>
+  <x:si>
+    <x:t>864</x:t>
+  </x:si>
+  <x:si>
+    <x:t>459</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>92</x:t>
+  </x:si>
+  <x:si>
+    <x:t>180</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1635</x:t>
+  </x:si>
+  <x:si>
+    <x:t>210</x:t>
+  </x:si>
+  <x:si>
+    <x:t>101</x:t>
+  </x:si>
+  <x:si>
+    <x:t>48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>391</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1074</x:t>
+  </x:si>
+  <x:si>
+    <x:t>560</x:t>
+  </x:si>
+  <x:si>
+    <x:t>120</x:t>
+  </x:si>
+  <x:si>
+    <x:t>228</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2026</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Drug/Narcotic Violations</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2039</x:t>
+  </x:si>
+  <x:si>
+    <x:t>152</x:t>
+  </x:si>
+  <x:si>
+    <x:t>568</x:t>
+  </x:si>
+  <x:si>
+    <x:t>909</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7709</x:t>
+  </x:si>
+  <x:si>
+    <x:t>104</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>178</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4124</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2070</x:t>
+  </x:si>
+  <x:si>
+    <x:t>160</x:t>
+  </x:si>
+  <x:si>
+    <x:t>570</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>941</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7887</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Embezzlement</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>70</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>89</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Extortion/Blackmail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fraud Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>995</x:t>
+  </x:si>
+  <x:si>
+    <x:t>757</x:t>
+  </x:si>
+  <x:si>
+    <x:t>158</x:t>
+  </x:si>
+  <x:si>
+    <x:t>287</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2271</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>88</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1026</x:t>
+  </x:si>
+  <x:si>
+    <x:t>792</x:t>
+  </x:si>
+  <x:si>
+    <x:t>164</x:t>
+  </x:si>
+  <x:si>
+    <x:t>303</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2359</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gambling Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Homicide Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36</x:t>
+  </x:si>
+  <x:si>
+    <x:t>82</x:t>
+  </x:si>
+  <x:si>
+    <x:t>144</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>91</x:t>
+  </x:si>
+  <x:si>
     <x:t>161</x:t>
   </x:si>
   <x:si>
-    <x:t>276</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2150</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8630</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5458</x:t>
-  </x:si>
-  <x:si>
-    <x:t>411</x:t>
-  </x:si>
-  <x:si>
-    <x:t>866</x:t>
-  </x:si>
-  <x:si>
-    <x:t>32</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1781</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17178</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bribery</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Burglary/Breaking &amp; Entering</x:t>
-  </x:si>
-  <x:si>
-    <x:t>799</x:t>
-  </x:si>
-  <x:si>
-    <x:t>586</x:t>
-  </x:si>
-  <x:si>
-    <x:t>47</x:t>
-  </x:si>
-  <x:si>
-    <x:t>105</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1670</x:t>
-  </x:si>
-  <x:si>
-    <x:t>63</x:t>
-  </x:si>
-  <x:si>
-    <x:t>43</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>147</x:t>
-  </x:si>
-  <x:si>
-    <x:t>862</x:t>
-  </x:si>
-  <x:si>
-    <x:t>629</x:t>
-  </x:si>
-  <x:si>
-    <x:t>51</x:t>
-  </x:si>
-  <x:si>
-    <x:t>142</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1817</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Counterfeiting/Forgery</x:t>
-  </x:si>
-  <x:si>
-    <x:t>291</x:t>
-  </x:si>
-  <x:si>
-    <x:t>143</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18</x:t>
-  </x:si>
-  <x:si>
-    <x:t>49</x:t>
-  </x:si>
-  <x:si>
-    <x:t>519</x:t>
-  </x:si>
-  <x:si>
-    <x:t>294</x:t>
-  </x:si>
-  <x:si>
-    <x:t>153</x:t>
-  </x:si>
-  <x:si>
-    <x:t>534</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Destruction/Damage/Vandalism of Property</x:t>
-  </x:si>
-  <x:si>
-    <x:t>864</x:t>
-  </x:si>
-  <x:si>
-    <x:t>459</x:t>
-  </x:si>
-  <x:si>
-    <x:t>39</x:t>
-  </x:si>
-  <x:si>
-    <x:t>92</x:t>
-  </x:si>
-  <x:si>
-    <x:t>179</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1634</x:t>
-  </x:si>
-  <x:si>
-    <x:t>209</x:t>
-  </x:si>
-  <x:si>
-    <x:t>101</x:t>
-  </x:si>
-  <x:si>
-    <x:t>48</x:t>
-  </x:si>
-  <x:si>
-    <x:t>390</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1073</x:t>
-  </x:si>
-  <x:si>
-    <x:t>560</x:t>
-  </x:si>
-  <x:si>
-    <x:t>120</x:t>
-  </x:si>
-  <x:si>
-    <x:t>227</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Drug/Narcotic Violations</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4019</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2039</x:t>
-  </x:si>
-  <x:si>
-    <x:t>152</x:t>
-  </x:si>
-  <x:si>
-    <x:t>568</x:t>
-  </x:si>
-  <x:si>
-    <x:t>909</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7708</x:t>
-  </x:si>
-  <x:si>
-    <x:t>103</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31</x:t>
-  </x:si>
-  <x:si>
-    <x:t>177</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4122</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2070</x:t>
-  </x:si>
-  <x:si>
-    <x:t>160</x:t>
-  </x:si>
-  <x:si>
-    <x:t>570</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>941</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7885</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Embezzlement</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16</x:t>
-  </x:si>
-  <x:si>
-    <x:t>70</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19</x:t>
-  </x:si>
-  <x:si>
-    <x:t>37</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23</x:t>
-  </x:si>
-  <x:si>
-    <x:t>89</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Extortion/Blackmail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fraud Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>994</x:t>
-  </x:si>
-  <x:si>
-    <x:t>757</x:t>
-  </x:si>
-  <x:si>
-    <x:t>68</x:t>
-  </x:si>
-  <x:si>
-    <x:t>158</x:t>
-  </x:si>
-  <x:si>
-    <x:t>287</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2269</x:t>
-  </x:si>
-  <x:si>
-    <x:t>29</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35</x:t>
-  </x:si>
-  <x:si>
-    <x:t>86</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>792</x:t>
-  </x:si>
-  <x:si>
-    <x:t>164</x:t>
-  </x:si>
-  <x:si>
-    <x:t>303</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2355</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gambling Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Homicide Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>36</x:t>
-  </x:si>
-  <x:si>
-    <x:t>82</x:t>
-  </x:si>
-  <x:si>
-    <x:t>144</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>91</x:t>
-  </x:si>
-  <x:si>
     <x:t>Human Trafficking</x:t>
   </x:si>
   <x:si>
@@ -478,52 +475,52 @@
     <x:t>Larceny/Theft Offenses</x:t>
   </x:si>
   <x:si>
-    <x:t>7678</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5032</x:t>
+    <x:t>7682</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5034</x:t>
   </x:si>
   <x:si>
     <x:t>298</x:t>
   </x:si>
   <x:si>
-    <x:t>830</x:t>
+    <x:t>831</x:t>
   </x:si>
   <x:si>
     <x:t>1507</x:t>
   </x:si>
   <x:si>
-    <x:t>15371</x:t>
-  </x:si>
-  <x:si>
-    <x:t>713</x:t>
-  </x:si>
-  <x:si>
-    <x:t>618</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1580</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8391</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5650</x:t>
+    <x:t>15378</x:t>
+  </x:si>
+  <x:si>
+    <x:t>714</x:t>
+  </x:si>
+  <x:si>
+    <x:t>620</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1584</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8396</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5654</x:t>
   </x:si>
   <x:si>
     <x:t>335</x:t>
   </x:si>
   <x:si>
-    <x:t>889</x:t>
+    <x:t>890</x:t>
   </x:si>
   <x:si>
     <x:t>27</x:t>
   </x:si>
   <x:si>
-    <x:t>1659</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16951</x:t>
+    <x:t>1660</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16962</x:t>
   </x:si>
   <x:si>
     <x:t>Motor Vehicle Theft</x:t>
@@ -532,7 +529,7 @@
     <x:t>264</x:t>
   </x:si>
   <x:si>
-    <x:t>170</x:t>
+    <x:t>171</x:t>
   </x:si>
   <x:si>
     <x:t>24</x:t>
@@ -544,136 +541,139 @@
     <x:t>56</x:t>
   </x:si>
   <x:si>
+    <x:t>559</x:t>
+  </x:si>
+  <x:si>
+    <x:t>112</x:t>
+  </x:si>
+  <x:si>
+    <x:t>184</x:t>
+  </x:si>
+  <x:si>
+    <x:t>300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>283</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58</x:t>
+  </x:si>
+  <x:si>
+    <x:t>743</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pornography/Obscene Material</x:t>
+  </x:si>
+  <x:si>
+    <x:t>111</x:t>
+  </x:si>
+  <x:si>
+    <x:t>157</x:t>
+  </x:si>
+  <x:si>
+    <x:t>132</x:t>
+  </x:si>
+  <x:si>
+    <x:t>188</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Prostitution Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Robbery</x:t>
+  </x:si>
+  <x:si>
+    <x:t>96</x:t>
+  </x:si>
+  <x:si>
+    <x:t>371</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>521</x:t>
+  </x:si>
+  <x:si>
+    <x:t>156</x:t>
+  </x:si>
+  <x:si>
+    <x:t>203</x:t>
+  </x:si>
+  <x:si>
+    <x:t>115</x:t>
+  </x:si>
+  <x:si>
+    <x:t>527</x:t>
+  </x:si>
+  <x:si>
+    <x:t>724</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sex Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>449</x:t>
+  </x:si>
+  <x:si>
+    <x:t>215</x:t>
+  </x:si>
+  <x:si>
+    <x:t>823</x:t>
+  </x:si>
+  <x:si>
+    <x:t>67</x:t>
+  </x:si>
+  <x:si>
+    <x:t>138</x:t>
+  </x:si>
+  <x:si>
+    <x:t>516</x:t>
+  </x:si>
+  <x:si>
+    <x:t>242</x:t>
+  </x:si>
+  <x:si>
+    <x:t>154</x:t>
+  </x:si>
+  <x:si>
+    <x:t>961</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stolen Property Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>535</x:t>
+  </x:si>
+  <x:si>
+    <x:t>460</x:t>
+  </x:si>
+  <x:si>
+    <x:t>40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>78</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1258</x:t>
+  </x:si>
+  <x:si>
+    <x:t>129</x:t>
+  </x:si>
+  <x:si>
+    <x:t>190</x:t>
+  </x:si>
+  <x:si>
     <x:t>558</x:t>
   </x:si>
   <x:si>
-    <x:t>112</x:t>
-  </x:si>
-  <x:si>
-    <x:t>184</x:t>
-  </x:si>
-  <x:si>
-    <x:t>300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>282</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58</x:t>
-  </x:si>
-  <x:si>
-    <x:t>742</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pornography/Obscene Material</x:t>
-  </x:si>
-  <x:si>
-    <x:t>111</x:t>
-  </x:si>
-  <x:si>
-    <x:t>157</x:t>
-  </x:si>
-  <x:si>
-    <x:t>132</x:t>
-  </x:si>
-  <x:si>
-    <x:t>188</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Prostitution Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Robbery</x:t>
-  </x:si>
-  <x:si>
-    <x:t>96</x:t>
-  </x:si>
-  <x:si>
-    <x:t>371</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>521</x:t>
-  </x:si>
-  <x:si>
-    <x:t>156</x:t>
-  </x:si>
-  <x:si>
-    <x:t>203</x:t>
-  </x:si>
-  <x:si>
-    <x:t>115</x:t>
-  </x:si>
-  <x:si>
-    <x:t>527</x:t>
-  </x:si>
-  <x:si>
-    <x:t>724</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sex Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>448</x:t>
-  </x:si>
-  <x:si>
-    <x:t>215</x:t>
-  </x:si>
-  <x:si>
-    <x:t>822</x:t>
-  </x:si>
-  <x:si>
-    <x:t>67</x:t>
-  </x:si>
-  <x:si>
-    <x:t>138</x:t>
-  </x:si>
-  <x:si>
-    <x:t>515</x:t>
-  </x:si>
-  <x:si>
-    <x:t>242</x:t>
-  </x:si>
-  <x:si>
-    <x:t>154</x:t>
-  </x:si>
-  <x:si>
-    <x:t>960</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stolen Property Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>460</x:t>
-  </x:si>
-  <x:si>
-    <x:t>40</x:t>
-  </x:si>
-  <x:si>
-    <x:t>78</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1257</x:t>
-  </x:si>
-  <x:si>
-    <x:t>129</x:t>
-  </x:si>
-  <x:si>
-    <x:t>190</x:t>
-  </x:si>
-  <x:si>
-    <x:t>557</x:t>
-  </x:si>
-  <x:si>
     <x:t>589</x:t>
   </x:si>
   <x:si>
-    <x:t>1447</x:t>
+    <x:t>1448</x:t>
   </x:si>
   <x:si>
     <x:t>Weapon Law Violations</x:t>
@@ -1967,19 +1967,19 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E30" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F30" s="1" t="s">
         <x:v>128</x:v>
-      </x:c>
-      <x:c r="F30" s="1" t="s">
-        <x:v>129</x:v>
       </x:c>
       <x:c r="G30" s="1" t="s">
         <x:v>29</x:v>
       </x:c>
       <x:c r="H30" s="1" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="I30" s="1" t="s">
         <x:v>130</x:v>
-      </x:c>
-      <x:c r="I30" s="1" t="s">
-        <x:v>131</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:9">
@@ -1990,10 +1990,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C31" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="D31" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="E31" s="1" t="s">
         <x:v>19</x:v>
@@ -2008,7 +2008,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="I31" s="1" t="s">
-        <x:v>134</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
@@ -2019,30 +2019,30 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C32" s="1" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="D32" s="1" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="E32" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F32" s="1" t="s">
         <x:v>135</x:v>
-      </x:c>
-      <x:c r="D32" s="1" t="s">
-        <x:v>136</x:v>
-      </x:c>
-      <x:c r="E32" s="1" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="F32" s="1" t="s">
-        <x:v>137</x:v>
       </x:c>
       <x:c r="G32" s="1" t="s">
         <x:v>29</x:v>
       </x:c>
       <x:c r="H32" s="1" t="s">
-        <x:v>138</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="I32" s="1" t="s">
-        <x:v>139</x:v>
+        <x:v>137</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:9">
       <x:c r="A33" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
         <x:v>10</x:v>
@@ -2071,7 +2071,7 @@
     </x:row>
     <x:row r="34" spans="1:9">
       <x:c r="A34" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
         <x:v>17</x:v>
@@ -2100,7 +2100,7 @@
     </x:row>
     <x:row r="35" spans="1:9">
       <x:c r="A35" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
         <x:v>21</x:v>
@@ -2129,16 +2129,16 @@
     </x:row>
     <x:row r="36" spans="1:9">
       <x:c r="A36" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C36" s="1" t="s">
-        <x:v>142</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="D36" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="E36" s="1" t="s">
         <x:v>20</x:v>
@@ -2153,12 +2153,12 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="I36" s="1" t="s">
-        <x:v>144</x:v>
+        <x:v>142</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:9">
       <x:c r="A37" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
         <x:v>17</x:v>
@@ -2167,7 +2167,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="D37" s="1" t="s">
-        <x:v>145</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="E37" s="1" t="s">
         <x:v>14</x:v>
@@ -2182,12 +2182,12 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="I37" s="1" t="s">
-        <x:v>146</x:v>
+        <x:v>144</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:9">
       <x:c r="A38" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
         <x:v>21</x:v>
@@ -2196,7 +2196,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="D38" s="1" t="s">
-        <x:v>147</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="E38" s="1" t="s">
         <x:v>29</x:v>
@@ -2211,12 +2211,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I38" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>146</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:9">
       <x:c r="A39" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
         <x:v>10</x:v>
@@ -2225,7 +2225,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="D39" s="1" t="s">
-        <x:v>149</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="E39" s="1" t="s">
         <x:v>18</x:v>
@@ -2240,12 +2240,12 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="I39" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>131</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:9">
       <x:c r="A40" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
         <x:v>21</x:v>
@@ -2254,7 +2254,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="D40" s="1" t="s">
-        <x:v>149</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="E40" s="1" t="s">
         <x:v>18</x:v>
@@ -2269,18 +2269,18 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="I40" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>131</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:9">
       <x:c r="A41" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C41" s="1" t="s">
-        <x:v>151</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="D41" s="1" t="s">
         <x:v>71</x:v>
@@ -2298,18 +2298,18 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="I41" s="1" t="s">
-        <x:v>152</x:v>
+        <x:v>151</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9">
       <x:c r="A42" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C42" s="1" t="s">
-        <x:v>151</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="D42" s="1" t="s">
         <x:v>71</x:v>
@@ -2327,50 +2327,50 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="I42" s="1" t="s">
-        <x:v>152</x:v>
+        <x:v>151</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:9">
       <x:c r="A43" s="0" t="s">
-        <x:v>153</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C43" s="1" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="D43" s="1" t="s">
         <x:v>154</x:v>
       </x:c>
-      <x:c r="D43" s="1" t="s">
+      <x:c r="E43" s="1" t="s">
         <x:v>155</x:v>
       </x:c>
-      <x:c r="E43" s="1" t="s">
+      <x:c r="F43" s="1" t="s">
         <x:v>156</x:v>
-      </x:c>
-      <x:c r="F43" s="1" t="s">
-        <x:v>157</x:v>
       </x:c>
       <x:c r="G43" s="1" t="s">
         <x:v>66</x:v>
       </x:c>
       <x:c r="H43" s="1" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="I43" s="1" t="s">
         <x:v>158</x:v>
-      </x:c>
-      <x:c r="I43" s="1" t="s">
-        <x:v>159</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:9">
       <x:c r="A44" s="0" t="s">
-        <x:v>153</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C44" s="1" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="D44" s="1" t="s">
         <x:v>160</x:v>
-      </x:c>
-      <x:c r="D44" s="1" t="s">
-        <x:v>161</x:v>
       </x:c>
       <x:c r="E44" s="1" t="s">
         <x:v>121</x:v>
@@ -2382,82 +2382,82 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H44" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="I44" s="1" t="s">
-        <x:v>162</x:v>
+        <x:v>161</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:9">
       <x:c r="A45" s="0" t="s">
-        <x:v>153</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C45" s="1" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="D45" s="1" t="s">
         <x:v>163</x:v>
       </x:c>
-      <x:c r="D45" s="1" t="s">
+      <x:c r="E45" s="1" t="s">
         <x:v>164</x:v>
       </x:c>
-      <x:c r="E45" s="1" t="s">
+      <x:c r="F45" s="1" t="s">
         <x:v>165</x:v>
       </x:c>
-      <x:c r="F45" s="1" t="s">
+      <x:c r="G45" s="1" t="s">
         <x:v>166</x:v>
       </x:c>
-      <x:c r="G45" s="1" t="s">
+      <x:c r="H45" s="1" t="s">
         <x:v>167</x:v>
       </x:c>
-      <x:c r="H45" s="1" t="s">
+      <x:c r="I45" s="1" t="s">
         <x:v>168</x:v>
-      </x:c>
-      <x:c r="I45" s="1" t="s">
-        <x:v>169</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
       <x:c r="A46" s="0" t="s">
-        <x:v>170</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C46" s="1" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="D46" s="1" t="s">
         <x:v>171</x:v>
       </x:c>
-      <x:c r="D46" s="1" t="s">
+      <x:c r="E46" s="1" t="s">
         <x:v>172</x:v>
       </x:c>
-      <x:c r="E46" s="1" t="s">
+      <x:c r="F46" s="1" t="s">
         <x:v>173</x:v>
-      </x:c>
-      <x:c r="F46" s="1" t="s">
-        <x:v>174</x:v>
       </x:c>
       <x:c r="G46" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H46" s="1" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="I46" s="1" t="s">
         <x:v>175</x:v>
-      </x:c>
-      <x:c r="I46" s="1" t="s">
-        <x:v>176</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
       <x:c r="A47" s="0" t="s">
-        <x:v>170</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C47" s="1" t="s">
-        <x:v>142</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="D47" s="1" t="s">
-        <x:v>177</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="E47" s="1" t="s">
         <x:v>30</x:v>
@@ -2469,30 +2469,30 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H47" s="1" t="s">
-        <x:v>149</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="I47" s="1" t="s">
-        <x:v>178</x:v>
+        <x:v>177</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
       <x:c r="A48" s="0" t="s">
-        <x:v>170</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C48" s="1" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="D48" s="1" t="s">
         <x:v>179</x:v>
-      </x:c>
-      <x:c r="D48" s="1" t="s">
-        <x:v>180</x:v>
       </x:c>
       <x:c r="E48" s="1" t="s">
         <x:v>117</x:v>
       </x:c>
       <x:c r="F48" s="1" t="s">
-        <x:v>181</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="G48" s="1" t="s">
         <x:v>18</x:v>
@@ -2501,18 +2501,18 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="I48" s="1" t="s">
-        <x:v>182</x:v>
+        <x:v>181</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:9">
       <x:c r="A49" s="0" t="s">
-        <x:v>183</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C49" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="D49" s="1" t="s">
         <x:v>77</x:v>
@@ -2527,15 +2527,15 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H49" s="1" t="s">
-        <x:v>173</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="I49" s="1" t="s">
-        <x:v>185</x:v>
+        <x:v>184</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:9">
       <x:c r="A50" s="0" t="s">
-        <x:v>183</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
         <x:v>17</x:v>
@@ -2564,13 +2564,13 @@
     </x:row>
     <x:row r="51" spans="1:9">
       <x:c r="A51" s="0" t="s">
-        <x:v>183</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C51" s="1" t="s">
-        <x:v>186</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="D51" s="1" t="s">
         <x:v>23</x:v>
@@ -2588,18 +2588,18 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="I51" s="1" t="s">
-        <x:v>187</x:v>
+        <x:v>186</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:9">
       <x:c r="A52" s="0" t="s">
-        <x:v>188</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C52" s="1" t="s">
-        <x:v>189</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="D52" s="1" t="s">
         <x:v>14</x:v>
@@ -2622,13 +2622,13 @@
     </x:row>
     <x:row r="53" spans="1:9">
       <x:c r="A53" s="0" t="s">
-        <x:v>188</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C53" s="1" t="s">
-        <x:v>189</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="D53" s="1" t="s">
         <x:v>14</x:v>
@@ -2651,36 +2651,36 @@
     </x:row>
     <x:row r="54" spans="1:9">
       <x:c r="A54" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C54" s="1" t="s">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="D54" s="1" t="s">
         <x:v>191</x:v>
-      </x:c>
-      <x:c r="D54" s="1" t="s">
-        <x:v>192</x:v>
       </x:c>
       <x:c r="E54" s="1" t="s">
         <x:v>29</x:v>
       </x:c>
       <x:c r="F54" s="1" t="s">
-        <x:v>173</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="G54" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="H54" s="1" t="s">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="I54" s="1" t="s">
         <x:v>193</x:v>
-      </x:c>
-      <x:c r="I54" s="1" t="s">
-        <x:v>194</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:9">
       <x:c r="A55" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
         <x:v>17</x:v>
@@ -2689,13 +2689,13 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="D55" s="1" t="s">
-        <x:v>195</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="E55" s="1" t="s">
-        <x:v>189</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="F55" s="1" t="s">
-        <x:v>145</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="G55" s="1" t="s">
         <x:v>19</x:v>
@@ -2704,24 +2704,24 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="I55" s="1" t="s">
-        <x:v>196</x:v>
+        <x:v>195</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:9">
       <x:c r="A56" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C56" s="1" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="D56" s="1" t="s">
         <x:v>197</x:v>
       </x:c>
-      <x:c r="D56" s="1" t="s">
-        <x:v>198</x:v>
-      </x:c>
       <x:c r="E56" s="1" t="s">
-        <x:v>146</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="F56" s="1" t="s">
         <x:v>27</x:v>
@@ -2733,21 +2733,21 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="I56" s="1" t="s">
-        <x:v>199</x:v>
+        <x:v>198</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:9">
       <x:c r="A57" s="0" t="s">
-        <x:v>200</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C57" s="1" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="D57" s="1" t="s">
         <x:v>201</x:v>
-      </x:c>
-      <x:c r="D57" s="1" t="s">
-        <x:v>202</x:v>
       </x:c>
       <x:c r="E57" s="1" t="s">
         <x:v>122</x:v>
@@ -2759,24 +2759,24 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="H57" s="1" t="s">
-        <x:v>197</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="I57" s="1" t="s">
-        <x:v>203</x:v>
+        <x:v>202</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:9">
       <x:c r="A58" s="0" t="s">
-        <x:v>200</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C58" s="1" t="s">
-        <x:v>204</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="D58" s="1" t="s">
-        <x:v>167</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="E58" s="1" t="s">
         <x:v>13</x:v>
@@ -2791,24 +2791,24 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="I58" s="1" t="s">
-        <x:v>205</x:v>
+        <x:v>204</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">
       <x:c r="A59" s="0" t="s">
-        <x:v>200</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C59" s="1" t="s">
+        <x:v>205</x:v>
+      </x:c>
+      <x:c r="D59" s="1" t="s">
         <x:v>206</x:v>
       </x:c>
-      <x:c r="D59" s="1" t="s">
-        <x:v>207</x:v>
-      </x:c>
       <x:c r="E59" s="1" t="s">
-        <x:v>193</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="F59" s="1" t="s">
         <x:v>113</x:v>
@@ -2817,21 +2817,21 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="H59" s="1" t="s">
+        <x:v>207</x:v>
+      </x:c>
+      <x:c r="I59" s="1" t="s">
         <x:v>208</x:v>
-      </x:c>
-      <x:c r="I59" s="1" t="s">
-        <x:v>209</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9">
       <x:c r="A60" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C60" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="D60" s="1" t="s">
         <x:v>211</x:v>
@@ -2854,7 +2854,7 @@
     </x:row>
     <x:row r="61" spans="1:9">
       <x:c r="A61" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
         <x:v>17</x:v>
@@ -2866,7 +2866,7 @@
         <x:v>215</x:v>
       </x:c>
       <x:c r="E61" s="1" t="s">
-        <x:v>145</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="F61" s="1" t="s">
         <x:v>67</x:v>
@@ -2883,7 +2883,7 @@
     </x:row>
     <x:row r="62" spans="1:9">
       <x:c r="A62" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
         <x:v>21</x:v>
@@ -2962,7 +2962,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H64" s="1" t="s">
-        <x:v>167</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="I64" s="1" t="s">
         <x:v>229</x:v>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -61,208 +61,211 @@
     <x:t>1</x:t>
   </x:si>
   <x:si>
+    <x:t>16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>99</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Juvenile</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Total</x:t>
+  </x:si>
+  <x:si>
+    <x:t>62</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>103</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Arson</x:t>
+  </x:si>
+  <x:si>
+    <x:t>69</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>121</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>77</x:t>
+  </x:si>
+  <x:si>
+    <x:t>34</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>131</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Assault Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7722</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4703</x:t>
+  </x:si>
+  <x:si>
+    <x:t>377</x:t>
+  </x:si>
+  <x:si>
+    <x:t>704</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1507</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15041</x:t>
+  </x:si>
+  <x:si>
+    <x:t>923</x:t>
+  </x:si>
+  <x:si>
+    <x:t>758</x:t>
+  </x:si>
+  <x:si>
+    <x:t>163</x:t>
+  </x:si>
+  <x:si>
+    <x:t>278</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2160</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8645</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5461</x:t>
+  </x:si>
+  <x:si>
+    <x:t>411</x:t>
+  </x:si>
+  <x:si>
+    <x:t>867</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1785</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17201</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bribery</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Burglary/Breaking &amp; Entering</x:t>
+  </x:si>
+  <x:si>
+    <x:t>799</x:t>
+  </x:si>
+  <x:si>
+    <x:t>587</x:t>
+  </x:si>
+  <x:si>
+    <x:t>47</x:t>
+  </x:si>
+  <x:si>
+    <x:t>105</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1671</x:t>
+  </x:si>
+  <x:si>
+    <x:t>63</x:t>
+  </x:si>
+  <x:si>
+    <x:t>43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>147</x:t>
+  </x:si>
+  <x:si>
+    <x:t>862</x:t>
+  </x:si>
+  <x:si>
+    <x:t>630</x:t>
+  </x:si>
+  <x:si>
+    <x:t>51</x:t>
+  </x:si>
+  <x:si>
+    <x:t>142</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1818</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Counterfeiting/Forgery</x:t>
+  </x:si>
+  <x:si>
+    <x:t>292</x:t>
+  </x:si>
+  <x:si>
+    <x:t>143</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>49</x:t>
+  </x:si>
+  <x:si>
+    <x:t>520</x:t>
+  </x:si>
+  <x:si>
     <x:t>15</x:t>
   </x:si>
   <x:si>
-    <x:t>98</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Juvenile</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Total</x:t>
-  </x:si>
-  <x:si>
-    <x:t>62</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>102</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Arson</x:t>
-  </x:si>
-  <x:si>
-    <x:t>69</x:t>
-  </x:si>
-  <x:si>
-    <x:t>33</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>121</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>77</x:t>
-  </x:si>
-  <x:si>
-    <x:t>34</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>131</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Assault Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7711</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4702</x:t>
-  </x:si>
-  <x:si>
-    <x:t>377</x:t>
-  </x:si>
-  <x:si>
-    <x:t>704</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1504</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15026</x:t>
-  </x:si>
-  <x:si>
-    <x:t>919</x:t>
-  </x:si>
-  <x:si>
-    <x:t>756</x:t>
-  </x:si>
-  <x:si>
-    <x:t>162</x:t>
-  </x:si>
-  <x:si>
-    <x:t>278</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2153</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8630</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5458</x:t>
-  </x:si>
-  <x:si>
-    <x:t>411</x:t>
-  </x:si>
-  <x:si>
-    <x:t>866</x:t>
-  </x:si>
-  <x:si>
-    <x:t>32</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1782</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17179</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bribery</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Burglary/Breaking &amp; Entering</x:t>
-  </x:si>
-  <x:si>
-    <x:t>799</x:t>
-  </x:si>
-  <x:si>
-    <x:t>586</x:t>
-  </x:si>
-  <x:si>
-    <x:t>47</x:t>
-  </x:si>
-  <x:si>
-    <x:t>105</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1670</x:t>
-  </x:si>
-  <x:si>
-    <x:t>63</x:t>
-  </x:si>
-  <x:si>
-    <x:t>43</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>147</x:t>
-  </x:si>
-  <x:si>
-    <x:t>862</x:t>
-  </x:si>
-  <x:si>
-    <x:t>629</x:t>
-  </x:si>
-  <x:si>
-    <x:t>51</x:t>
-  </x:si>
-  <x:si>
-    <x:t>142</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1817</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Counterfeiting/Forgery</x:t>
-  </x:si>
-  <x:si>
-    <x:t>291</x:t>
-  </x:si>
-  <x:si>
-    <x:t>143</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18</x:t>
-  </x:si>
-  <x:si>
-    <x:t>49</x:t>
-  </x:si>
-  <x:si>
-    <x:t>519</x:t>
-  </x:si>
-  <x:si>
-    <x:t>294</x:t>
+    <x:t>295</x:t>
   </x:si>
   <x:si>
     <x:t>153</x:t>
   </x:si>
   <x:si>
-    <x:t>534</x:t>
+    <x:t>535</x:t>
   </x:si>
   <x:si>
     <x:t>Destruction/Damage/Vandalism of Property</x:t>
@@ -319,7 +322,7 @@
     <x:t>4020</x:t>
   </x:si>
   <x:si>
-    <x:t>2039</x:t>
+    <x:t>2041</x:t>
   </x:si>
   <x:si>
     <x:t>152</x:t>
@@ -328,10 +331,10 @@
     <x:t>568</x:t>
   </x:si>
   <x:si>
-    <x:t>909</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7709</x:t>
+    <x:t>912</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7714</x:t>
   </x:si>
   <x:si>
     <x:t>104</x:t>
@@ -346,7 +349,7 @@
     <x:t>4124</x:t>
   </x:si>
   <x:si>
-    <x:t>2070</x:t>
+    <x:t>2072</x:t>
   </x:si>
   <x:si>
     <x:t>160</x:t>
@@ -358,10 +361,10 @@
     <x:t>22</x:t>
   </x:si>
   <x:si>
-    <x:t>941</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7887</x:t>
+    <x:t>944</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7892</x:t>
   </x:si>
   <x:si>
     <x:t>Embezzlement</x:t>
@@ -370,9 +373,6 @@
     <x:t>30</x:t>
   </x:si>
   <x:si>
-    <x:t>16</x:t>
-  </x:si>
-  <x:si>
     <x:t>70</x:t>
   </x:si>
   <x:si>
@@ -397,184 +397,178 @@
     <x:t>995</x:t>
   </x:si>
   <x:si>
-    <x:t>757</x:t>
+    <x:t>159</x:t>
+  </x:si>
+  <x:si>
+    <x:t>287</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2273</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>88</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1026</x:t>
+  </x:si>
+  <x:si>
+    <x:t>793</x:t>
+  </x:si>
+  <x:si>
+    <x:t>165</x:t>
+  </x:si>
+  <x:si>
+    <x:t>303</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2361</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gambling Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Homicide Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36</x:t>
+  </x:si>
+  <x:si>
+    <x:t>82</x:t>
+  </x:si>
+  <x:si>
+    <x:t>144</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>91</x:t>
+  </x:si>
+  <x:si>
+    <x:t>161</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Human Trafficking</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kidnapping/Abduction</x:t>
+  </x:si>
+  <x:si>
+    <x:t>45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>122</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Larceny/Theft Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7685</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5034</x:t>
+  </x:si>
+  <x:si>
+    <x:t>298</x:t>
+  </x:si>
+  <x:si>
+    <x:t>831</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1508</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15382</x:t>
+  </x:si>
+  <x:si>
+    <x:t>714</x:t>
+  </x:si>
+  <x:si>
+    <x:t>620</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1584</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8399</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5654</x:t>
+  </x:si>
+  <x:si>
+    <x:t>335</x:t>
+  </x:si>
+  <x:si>
+    <x:t>890</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1661</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16966</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Motor Vehicle Theft</x:t>
+  </x:si>
+  <x:si>
+    <x:t>264</x:t>
+  </x:si>
+  <x:si>
+    <x:t>171</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>42</x:t>
+  </x:si>
+  <x:si>
+    <x:t>56</x:t>
+  </x:si>
+  <x:si>
+    <x:t>559</x:t>
+  </x:si>
+  <x:si>
+    <x:t>112</x:t>
+  </x:si>
+  <x:si>
+    <x:t>184</x:t>
+  </x:si>
+  <x:si>
+    <x:t>300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>283</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58</x:t>
+  </x:si>
+  <x:si>
+    <x:t>743</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pornography/Obscene Material</x:t>
   </x:si>
   <x:si>
     <x:t>158</x:t>
   </x:si>
   <x:si>
-    <x:t>287</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2271</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35</x:t>
-  </x:si>
-  <x:si>
-    <x:t>88</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1026</x:t>
-  </x:si>
-  <x:si>
-    <x:t>792</x:t>
-  </x:si>
-  <x:si>
-    <x:t>164</x:t>
-  </x:si>
-  <x:si>
-    <x:t>303</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2359</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gambling Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Homicide Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>36</x:t>
-  </x:si>
-  <x:si>
-    <x:t>82</x:t>
-  </x:si>
-  <x:si>
-    <x:t>144</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>91</x:t>
-  </x:si>
-  <x:si>
-    <x:t>161</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Human Trafficking</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kidnapping/Abduction</x:t>
-  </x:si>
-  <x:si>
-    <x:t>45</x:t>
-  </x:si>
-  <x:si>
-    <x:t>122</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Larceny/Theft Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7682</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5034</x:t>
-  </x:si>
-  <x:si>
-    <x:t>298</x:t>
-  </x:si>
-  <x:si>
-    <x:t>831</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1507</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15378</x:t>
-  </x:si>
-  <x:si>
-    <x:t>714</x:t>
-  </x:si>
-  <x:si>
-    <x:t>620</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1584</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8396</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5654</x:t>
-  </x:si>
-  <x:si>
-    <x:t>335</x:t>
-  </x:si>
-  <x:si>
-    <x:t>890</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1660</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16962</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Motor Vehicle Theft</x:t>
-  </x:si>
-  <x:si>
-    <x:t>264</x:t>
-  </x:si>
-  <x:si>
-    <x:t>171</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24</x:t>
-  </x:si>
-  <x:si>
-    <x:t>42</x:t>
-  </x:si>
-  <x:si>
-    <x:t>56</x:t>
-  </x:si>
-  <x:si>
-    <x:t>559</x:t>
-  </x:si>
-  <x:si>
-    <x:t>112</x:t>
-  </x:si>
-  <x:si>
-    <x:t>184</x:t>
-  </x:si>
-  <x:si>
-    <x:t>300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>283</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58</x:t>
-  </x:si>
-  <x:si>
-    <x:t>743</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pornography/Obscene Material</x:t>
-  </x:si>
-  <x:si>
-    <x:t>111</x:t>
-  </x:si>
-  <x:si>
-    <x:t>157</x:t>
-  </x:si>
-  <x:si>
-    <x:t>132</x:t>
-  </x:si>
-  <x:si>
-    <x:t>188</x:t>
+    <x:t>133</x:t>
+  </x:si>
+  <x:si>
+    <x:t>189</x:t>
   </x:si>
   <x:si>
     <x:t>Prostitution Offenses</x:t>
@@ -616,13 +610,13 @@
     <x:t>Sex Offenses</x:t>
   </x:si>
   <x:si>
-    <x:t>449</x:t>
+    <x:t>451</x:t>
   </x:si>
   <x:si>
     <x:t>215</x:t>
   </x:si>
   <x:si>
-    <x:t>823</x:t>
+    <x:t>825</x:t>
   </x:si>
   <x:si>
     <x:t>67</x:t>
@@ -631,7 +625,7 @@
     <x:t>138</x:t>
   </x:si>
   <x:si>
-    <x:t>516</x:t>
+    <x:t>518</x:t>
   </x:si>
   <x:si>
     <x:t>242</x:t>
@@ -640,15 +634,12 @@
     <x:t>154</x:t>
   </x:si>
   <x:si>
-    <x:t>961</x:t>
+    <x:t>963</x:t>
   </x:si>
   <x:si>
     <x:t>Stolen Property Offenses</x:t>
   </x:si>
   <x:si>
-    <x:t>535</x:t>
-  </x:si>
-  <x:si>
     <x:t>460</x:t>
   </x:si>
   <x:si>
@@ -664,25 +655,22 @@
     <x:t>129</x:t>
   </x:si>
   <x:si>
-    <x:t>190</x:t>
-  </x:si>
-  <x:si>
-    <x:t>558</x:t>
+    <x:t>191</x:t>
   </x:si>
   <x:si>
     <x:t>589</x:t>
   </x:si>
   <x:si>
-    <x:t>1448</x:t>
+    <x:t>1449</x:t>
   </x:si>
   <x:si>
     <x:t>Weapon Law Violations</x:t>
   </x:si>
   <x:si>
-    <x:t>699</x:t>
-  </x:si>
-  <x:si>
-    <x:t>953</x:t>
+    <x:t>698</x:t>
+  </x:si>
+  <x:si>
+    <x:t>954</x:t>
   </x:si>
   <x:si>
     <x:t>55</x:t>
@@ -706,10 +694,7 @@
     <x:t>281</x:t>
   </x:si>
   <x:si>
-    <x:t>759</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1127</x:t>
+    <x:t>1128</x:t>
   </x:si>
   <x:si>
     <x:t>65</x:t>
@@ -1602,7 +1587,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="I17" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -1613,10 +1598,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C18" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D18" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E18" s="1" t="s">
         <x:v>77</x:v>
@@ -1631,50 +1616,50 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="I18" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
       <x:c r="A19" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C19" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="D19" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="E19" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F19" s="1" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G19" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H19" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I19" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
       <x:c r="A20" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C20" s="1" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="D20" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="E20" s="1" t="s">
         <x:v>20</x:v>
@@ -1686,82 +1671,82 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H20" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="I20" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
       <x:c r="A21" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C21" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="D21" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="E21" s="1" t="s">
         <x:v>65</x:v>
       </x:c>
       <x:c r="F21" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="G21" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H21" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="I21" s="1" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
       <x:c r="A22" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="D22" s="1" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E22" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="F22" s="1" t="s">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="G22" s="1" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="H22" s="1" t="s">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="I22" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
       <x:c r="A23" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C23" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="D23" s="1" t="s">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="E23" s="1" t="s">
         <x:v>28</x:v>
@@ -1776,50 +1761,50 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="I23" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
       <x:c r="A24" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C24" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="D24" s="1" t="s">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="E24" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F24" s="1" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="G24" s="1" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="H24" s="1" t="s">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="I24" s="1" t="s">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
       <x:c r="A25" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C25" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="D25" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E25" s="1" t="s">
         <x:v>18</x:v>
@@ -1839,7 +1824,7 @@
     </x:row>
     <x:row r="26" spans="1:9">
       <x:c r="A26" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
         <x:v>17</x:v>
@@ -1868,7 +1853,7 @@
     </x:row>
     <x:row r="27" spans="1:9">
       <x:c r="A27" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
         <x:v>21</x:v>
@@ -1964,22 +1949,22 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="D30" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E30" s="1" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="F30" s="1" t="s">
-        <x:v>128</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="G30" s="1" t="s">
         <x:v>29</x:v>
       </x:c>
       <x:c r="H30" s="1" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="I30" s="1" t="s">
         <x:v>129</x:v>
-      </x:c>
-      <x:c r="I30" s="1" t="s">
-        <x:v>130</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:9">
@@ -1990,10 +1975,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C31" s="1" t="s">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="D31" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="E31" s="1" t="s">
         <x:v>19</x:v>
@@ -2005,10 +1990,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H31" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="I31" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>131</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
@@ -2019,30 +2004,30 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C32" s="1" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="D32" s="1" t="s">
         <x:v>133</x:v>
-      </x:c>
-      <x:c r="D32" s="1" t="s">
-        <x:v>134</x:v>
       </x:c>
       <x:c r="E32" s="1" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="F32" s="1" t="s">
-        <x:v>135</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="G32" s="1" t="s">
         <x:v>29</x:v>
       </x:c>
       <x:c r="H32" s="1" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="I32" s="1" t="s">
         <x:v>136</x:v>
-      </x:c>
-      <x:c r="I32" s="1" t="s">
-        <x:v>137</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:9">
       <x:c r="A33" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
         <x:v>10</x:v>
@@ -2071,7 +2056,7 @@
     </x:row>
     <x:row r="34" spans="1:9">
       <x:c r="A34" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
         <x:v>17</x:v>
@@ -2100,7 +2085,7 @@
     </x:row>
     <x:row r="35" spans="1:9">
       <x:c r="A35" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
         <x:v>21</x:v>
@@ -2129,16 +2114,16 @@
     </x:row>
     <x:row r="36" spans="1:9">
       <x:c r="A36" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C36" s="1" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="D36" s="1" t="s">
         <x:v>140</x:v>
-      </x:c>
-      <x:c r="D36" s="1" t="s">
-        <x:v>141</x:v>
       </x:c>
       <x:c r="E36" s="1" t="s">
         <x:v>20</x:v>
@@ -2153,12 +2138,12 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="I36" s="1" t="s">
-        <x:v>142</x:v>
+        <x:v>141</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:9">
       <x:c r="A37" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
         <x:v>17</x:v>
@@ -2167,7 +2152,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="D37" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="E37" s="1" t="s">
         <x:v>14</x:v>
@@ -2182,21 +2167,21 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="I37" s="1" t="s">
-        <x:v>144</x:v>
+        <x:v>143</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:9">
       <x:c r="A38" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C38" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="D38" s="1" t="s">
-        <x:v>145</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="E38" s="1" t="s">
         <x:v>29</x:v>
@@ -2211,21 +2196,21 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I38" s="1" t="s">
-        <x:v>146</x:v>
+        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:9">
       <x:c r="A39" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C39" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D39" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="E39" s="1" t="s">
         <x:v>18</x:v>
@@ -2240,21 +2225,21 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="I39" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>130</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:9">
       <x:c r="A40" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C40" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D40" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="E40" s="1" t="s">
         <x:v>18</x:v>
@@ -2269,18 +2254,18 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="I40" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>130</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:9">
       <x:c r="A41" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C41" s="1" t="s">
-        <x:v>150</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="D41" s="1" t="s">
         <x:v>71</x:v>
@@ -2298,18 +2283,18 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="I41" s="1" t="s">
-        <x:v>151</x:v>
+        <x:v>150</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9">
       <x:c r="A42" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C42" s="1" t="s">
-        <x:v>150</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="D42" s="1" t="s">
         <x:v>71</x:v>
@@ -2327,50 +2312,50 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="I42" s="1" t="s">
-        <x:v>151</x:v>
+        <x:v>150</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:9">
       <x:c r="A43" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C43" s="1" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="D43" s="1" t="s">
         <x:v>153</x:v>
       </x:c>
-      <x:c r="D43" s="1" t="s">
+      <x:c r="E43" s="1" t="s">
         <x:v>154</x:v>
       </x:c>
-      <x:c r="E43" s="1" t="s">
+      <x:c r="F43" s="1" t="s">
         <x:v>155</x:v>
-      </x:c>
-      <x:c r="F43" s="1" t="s">
-        <x:v>156</x:v>
       </x:c>
       <x:c r="G43" s="1" t="s">
         <x:v>66</x:v>
       </x:c>
       <x:c r="H43" s="1" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="I43" s="1" t="s">
         <x:v>157</x:v>
-      </x:c>
-      <x:c r="I43" s="1" t="s">
-        <x:v>158</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:9">
       <x:c r="A44" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C44" s="1" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="D44" s="1" t="s">
         <x:v>159</x:v>
-      </x:c>
-      <x:c r="D44" s="1" t="s">
-        <x:v>160</x:v>
       </x:c>
       <x:c r="E44" s="1" t="s">
         <x:v>121</x:v>
@@ -2382,117 +2367,117 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H44" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="I44" s="1" t="s">
-        <x:v>161</x:v>
+        <x:v>160</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:9">
       <x:c r="A45" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C45" s="1" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="D45" s="1" t="s">
         <x:v>162</x:v>
       </x:c>
-      <x:c r="D45" s="1" t="s">
+      <x:c r="E45" s="1" t="s">
         <x:v>163</x:v>
       </x:c>
-      <x:c r="E45" s="1" t="s">
+      <x:c r="F45" s="1" t="s">
         <x:v>164</x:v>
       </x:c>
-      <x:c r="F45" s="1" t="s">
+      <x:c r="G45" s="1" t="s">
         <x:v>165</x:v>
       </x:c>
-      <x:c r="G45" s="1" t="s">
+      <x:c r="H45" s="1" t="s">
         <x:v>166</x:v>
       </x:c>
-      <x:c r="H45" s="1" t="s">
+      <x:c r="I45" s="1" t="s">
         <x:v>167</x:v>
-      </x:c>
-      <x:c r="I45" s="1" t="s">
-        <x:v>168</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
       <x:c r="A46" s="0" t="s">
-        <x:v>169</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C46" s="1" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="D46" s="1" t="s">
         <x:v>170</x:v>
       </x:c>
-      <x:c r="D46" s="1" t="s">
+      <x:c r="E46" s="1" t="s">
         <x:v>171</x:v>
       </x:c>
-      <x:c r="E46" s="1" t="s">
+      <x:c r="F46" s="1" t="s">
         <x:v>172</x:v>
-      </x:c>
-      <x:c r="F46" s="1" t="s">
-        <x:v>173</x:v>
       </x:c>
       <x:c r="G46" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H46" s="1" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="I46" s="1" t="s">
         <x:v>174</x:v>
-      </x:c>
-      <x:c r="I46" s="1" t="s">
-        <x:v>175</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
       <x:c r="A47" s="0" t="s">
-        <x:v>169</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C47" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="D47" s="1" t="s">
-        <x:v>176</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="E47" s="1" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="F47" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G47" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H47" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="I47" s="1" t="s">
-        <x:v>177</x:v>
+        <x:v>176</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
       <x:c r="A48" s="0" t="s">
-        <x:v>169</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C48" s="1" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="D48" s="1" t="s">
         <x:v>178</x:v>
       </x:c>
-      <x:c r="D48" s="1" t="s">
+      <x:c r="E48" s="1" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="F48" s="1" t="s">
         <x:v>179</x:v>
-      </x:c>
-      <x:c r="E48" s="1" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="F48" s="1" t="s">
-        <x:v>180</x:v>
       </x:c>
       <x:c r="G48" s="1" t="s">
         <x:v>18</x:v>
@@ -2501,18 +2486,18 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="I48" s="1" t="s">
-        <x:v>181</x:v>
+        <x:v>180</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:9">
       <x:c r="A49" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C49" s="1" t="s">
-        <x:v>183</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="D49" s="1" t="s">
         <x:v>77</x:v>
@@ -2527,15 +2512,15 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H49" s="1" t="s">
-        <x:v>172</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="I49" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>182</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:9">
       <x:c r="A50" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
         <x:v>17</x:v>
@@ -2559,18 +2544,18 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="I50" s="1" t="s">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:9">
       <x:c r="A51" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C51" s="1" t="s">
-        <x:v>185</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="D51" s="1" t="s">
         <x:v>23</x:v>
@@ -2585,21 +2570,21 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H51" s="1" t="s">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="I51" s="1" t="s">
-        <x:v>186</x:v>
+        <x:v>184</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:9">
       <x:c r="A52" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C52" s="1" t="s">
-        <x:v>188</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="D52" s="1" t="s">
         <x:v>14</x:v>
@@ -2617,18 +2602,18 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="I52" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:9">
       <x:c r="A53" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C53" s="1" t="s">
-        <x:v>188</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="D53" s="1" t="s">
         <x:v>14</x:v>
@@ -2646,41 +2631,41 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="I53" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:9">
       <x:c r="A54" s="0" t="s">
-        <x:v>189</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C54" s="1" t="s">
-        <x:v>190</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="D54" s="1" t="s">
-        <x:v>191</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="E54" s="1" t="s">
         <x:v>29</x:v>
       </x:c>
       <x:c r="F54" s="1" t="s">
-        <x:v>172</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="G54" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="H54" s="1" t="s">
-        <x:v>192</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="I54" s="1" t="s">
-        <x:v>193</x:v>
+        <x:v>191</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:9">
       <x:c r="A55" s="0" t="s">
-        <x:v>189</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
         <x:v>17</x:v>
@@ -2689,13 +2674,13 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="D55" s="1" t="s">
-        <x:v>194</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="E55" s="1" t="s">
-        <x:v>188</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="F55" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="G55" s="1" t="s">
         <x:v>19</x:v>
@@ -2704,24 +2689,24 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="I55" s="1" t="s">
-        <x:v>195</x:v>
+        <x:v>193</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:9">
       <x:c r="A56" s="0" t="s">
-        <x:v>189</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C56" s="1" t="s">
-        <x:v>196</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="D56" s="1" t="s">
-        <x:v>197</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="E56" s="1" t="s">
-        <x:v>144</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="F56" s="1" t="s">
         <x:v>27</x:v>
@@ -2733,21 +2718,21 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="I56" s="1" t="s">
-        <x:v>198</x:v>
+        <x:v>196</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:9">
       <x:c r="A57" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C57" s="1" t="s">
-        <x:v>200</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="D57" s="1" t="s">
-        <x:v>201</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="E57" s="1" t="s">
         <x:v>122</x:v>
@@ -2759,24 +2744,24 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="H57" s="1" t="s">
-        <x:v>196</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="I57" s="1" t="s">
-        <x:v>202</x:v>
+        <x:v>200</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:9">
       <x:c r="A58" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C58" s="1" t="s">
-        <x:v>203</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="D58" s="1" t="s">
-        <x:v>166</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="E58" s="1" t="s">
         <x:v>13</x:v>
@@ -2788,59 +2773,59 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H58" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="I58" s="1" t="s">
-        <x:v>204</x:v>
+        <x:v>202</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">
       <x:c r="A59" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C59" s="1" t="s">
-        <x:v>205</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="D59" s="1" t="s">
-        <x:v>206</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="E59" s="1" t="s">
-        <x:v>192</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="F59" s="1" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="G59" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H59" s="1" t="s">
-        <x:v>207</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="I59" s="1" t="s">
-        <x:v>208</x:v>
+        <x:v>206</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9">
       <x:c r="A60" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C60" s="1" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="D60" s="1" t="s">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="E60" s="1" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="F60" s="1" t="s">
         <x:v>210</x:v>
-      </x:c>
-      <x:c r="D60" s="1" t="s">
-        <x:v>211</x:v>
-      </x:c>
-      <x:c r="E60" s="1" t="s">
-        <x:v>212</x:v>
-      </x:c>
-      <x:c r="F60" s="1" t="s">
-        <x:v>213</x:v>
       </x:c>
       <x:c r="G60" s="1" t="s">
         <x:v>18</x:v>
@@ -2849,24 +2834,24 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="I60" s="1" t="s">
-        <x:v>214</x:v>
+        <x:v>211</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">
       <x:c r="A61" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C61" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="D61" s="1" t="s">
-        <x:v>215</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="E61" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="F61" s="1" t="s">
         <x:v>67</x:v>
@@ -2878,21 +2863,21 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="I61" s="1" t="s">
-        <x:v>216</x:v>
+        <x:v>213</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
       <x:c r="A62" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C62" s="1" t="s">
-        <x:v>217</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="D62" s="1" t="s">
-        <x:v>218</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="E62" s="1" t="s">
         <x:v>78</x:v>
@@ -2904,53 +2889,53 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="H62" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="I62" s="1" t="s">
-        <x:v>219</x:v>
+        <x:v>215</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:9">
       <x:c r="A63" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C63" s="1" t="s">
-        <x:v>221</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="D63" s="1" t="s">
-        <x:v>222</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="E63" s="1" t="s">
-        <x:v>223</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="F63" s="1" t="s">
-        <x:v>224</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="G63" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H63" s="1" t="s">
-        <x:v>225</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="I63" s="1" t="s">
-        <x:v>226</x:v>
+        <x:v>222</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:9">
       <x:c r="A64" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C64" s="1" t="s">
-        <x:v>227</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="D64" s="1" t="s">
-        <x:v>228</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="E64" s="1" t="s">
         <x:v>32</x:v>
@@ -2962,39 +2947,39 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H64" s="1" t="s">
-        <x:v>166</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="I64" s="1" t="s">
-        <x:v>229</x:v>
+        <x:v>225</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:9">
       <x:c r="A65" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C65" s="1" t="s">
-        <x:v>230</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="D65" s="1" t="s">
-        <x:v>231</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="E65" s="1" t="s">
-        <x:v>232</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="F65" s="1" t="s">
-        <x:v>233</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="G65" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H65" s="1" t="s">
-        <x:v>234</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="I65" s="1" t="s">
-        <x:v>235</x:v>
+        <x:v>230</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -130,16 +130,16 @@
     <x:t>Assault Offenses</x:t>
   </x:si>
   <x:si>
-    <x:t>7722</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4703</x:t>
-  </x:si>
-  <x:si>
-    <x:t>377</x:t>
-  </x:si>
-  <x:si>
-    <x:t>704</x:t>
+    <x:t>7725</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4706</x:t>
+  </x:si>
+  <x:si>
+    <x:t>378</x:t>
+  </x:si>
+  <x:si>
+    <x:t>706</x:t>
   </x:si>
   <x:si>
     <x:t>28</x:t>
@@ -148,10 +148,10 @@
     <x:t>1507</x:t>
   </x:si>
   <x:si>
-    <x:t>15041</x:t>
-  </x:si>
-  <x:si>
-    <x:t>923</x:t>
+    <x:t>15050</x:t>
+  </x:si>
+  <x:si>
+    <x:t>924</x:t>
   </x:si>
   <x:si>
     <x:t>758</x:t>
@@ -163,19 +163,19 @@
     <x:t>278</x:t>
   </x:si>
   <x:si>
-    <x:t>2160</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8645</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5461</x:t>
-  </x:si>
-  <x:si>
-    <x:t>411</x:t>
-  </x:si>
-  <x:si>
-    <x:t>867</x:t>
+    <x:t>2161</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8649</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5464</x:t>
+  </x:si>
+  <x:si>
+    <x:t>412</x:t>
+  </x:si>
+  <x:si>
+    <x:t>869</x:t>
   </x:si>
   <x:si>
     <x:t>32</x:t>
@@ -184,7 +184,7 @@
     <x:t>1785</x:t>
   </x:si>
   <x:si>
-    <x:t>17201</x:t>
+    <x:t>17211</x:t>
   </x:si>
   <x:si>
     <x:t>Bribery</x:t>
@@ -196,7 +196,7 @@
     <x:t>799</x:t>
   </x:si>
   <x:si>
-    <x:t>587</x:t>
+    <x:t>588</x:t>
   </x:si>
   <x:si>
     <x:t>47</x:t>
@@ -205,7 +205,7 @@
     <x:t>105</x:t>
   </x:si>
   <x:si>
-    <x:t>1671</x:t>
+    <x:t>1672</x:t>
   </x:si>
   <x:si>
     <x:t>63</x:t>
@@ -226,7 +226,7 @@
     <x:t>862</x:t>
   </x:si>
   <x:si>
-    <x:t>630</x:t>
+    <x:t>631</x:t>
   </x:si>
   <x:si>
     <x:t>51</x:t>
@@ -235,7 +235,7 @@
     <x:t>142</x:t>
   </x:si>
   <x:si>
-    <x:t>1818</x:t>
+    <x:t>1819</x:t>
   </x:si>
   <x:si>
     <x:t>Counterfeiting/Forgery</x:t>
@@ -250,10 +250,13 @@
     <x:t>18</x:t>
   </x:si>
   <x:si>
+    <x:t>19</x:t>
+  </x:si>
+  <x:si>
     <x:t>49</x:t>
   </x:si>
   <x:si>
-    <x:t>520</x:t>
+    <x:t>521</x:t>
   </x:si>
   <x:si>
     <x:t>15</x:t>
@@ -265,13 +268,13 @@
     <x:t>153</x:t>
   </x:si>
   <x:si>
-    <x:t>535</x:t>
+    <x:t>536</x:t>
   </x:si>
   <x:si>
     <x:t>Destruction/Damage/Vandalism of Property</x:t>
   </x:si>
   <x:si>
-    <x:t>864</x:t>
+    <x:t>865</x:t>
   </x:si>
   <x:si>
     <x:t>459</x:t>
@@ -286,7 +289,7 @@
     <x:t>180</x:t>
   </x:si>
   <x:si>
-    <x:t>1635</x:t>
+    <x:t>1636</x:t>
   </x:si>
   <x:si>
     <x:t>210</x:t>
@@ -301,7 +304,7 @@
     <x:t>391</x:t>
   </x:si>
   <x:si>
-    <x:t>1074</x:t>
+    <x:t>1075</x:t>
   </x:si>
   <x:si>
     <x:t>560</x:t>
@@ -313,16 +316,16 @@
     <x:t>228</x:t>
   </x:si>
   <x:si>
-    <x:t>2026</x:t>
+    <x:t>2027</x:t>
   </x:si>
   <x:si>
     <x:t>Drug/Narcotic Violations</x:t>
   </x:si>
   <x:si>
-    <x:t>4020</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2041</x:t>
+    <x:t>4032</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2042</x:t>
   </x:si>
   <x:si>
     <x:t>152</x:t>
@@ -334,22 +337,19 @@
     <x:t>912</x:t>
   </x:si>
   <x:si>
-    <x:t>7714</x:t>
-  </x:si>
-  <x:si>
-    <x:t>104</x:t>
+    <x:t>7727</x:t>
   </x:si>
   <x:si>
     <x:t>31</x:t>
   </x:si>
   <x:si>
-    <x:t>178</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4124</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2072</x:t>
+    <x:t>179</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4137</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2073</x:t>
   </x:si>
   <x:si>
     <x:t>160</x:t>
@@ -364,7 +364,7 @@
     <x:t>944</x:t>
   </x:si>
   <x:si>
-    <x:t>7892</x:t>
+    <x:t>7906</x:t>
   </x:si>
   <x:si>
     <x:t>Embezzlement</x:t>
@@ -376,9 +376,6 @@
     <x:t>70</x:t>
   </x:si>
   <x:si>
-    <x:t>19</x:t>
-  </x:si>
-  <x:si>
     <x:t>37</x:t>
   </x:si>
   <x:si>
@@ -394,16 +391,16 @@
     <x:t>Fraud Offenses</x:t>
   </x:si>
   <x:si>
-    <x:t>995</x:t>
+    <x:t>994</x:t>
   </x:si>
   <x:si>
     <x:t>159</x:t>
   </x:si>
   <x:si>
-    <x:t>287</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2273</x:t>
+    <x:t>289</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2274</x:t>
   </x:si>
   <x:si>
     <x:t>35</x:t>
@@ -412,7 +409,7 @@
     <x:t>88</x:t>
   </x:si>
   <x:si>
-    <x:t>1026</x:t>
+    <x:t>1025</x:t>
   </x:si>
   <x:si>
     <x:t>793</x:t>
@@ -421,10 +418,10 @@
     <x:t>165</x:t>
   </x:si>
   <x:si>
-    <x:t>303</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2361</x:t>
+    <x:t>305</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2362</x:t>
   </x:si>
   <x:si>
     <x:t>Gambling Offenses</x:t>
@@ -472,10 +469,10 @@
     <x:t>Larceny/Theft Offenses</x:t>
   </x:si>
   <x:si>
-    <x:t>7685</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5034</x:t>
+    <x:t>7684</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5037</x:t>
   </x:si>
   <x:si>
     <x:t>298</x:t>
@@ -484,10 +481,10 @@
     <x:t>831</x:t>
   </x:si>
   <x:si>
-    <x:t>1508</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15382</x:t>
+    <x:t>1510</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15386</x:t>
   </x:si>
   <x:si>
     <x:t>714</x:t>
@@ -499,10 +496,10 @@
     <x:t>1584</x:t>
   </x:si>
   <x:si>
-    <x:t>8399</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5654</x:t>
+    <x:t>8398</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5657</x:t>
   </x:si>
   <x:si>
     <x:t>335</x:t>
@@ -514,16 +511,16 @@
     <x:t>27</x:t>
   </x:si>
   <x:si>
-    <x:t>1661</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16966</x:t>
+    <x:t>1663</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16970</x:t>
   </x:si>
   <x:si>
     <x:t>Motor Vehicle Theft</x:t>
   </x:si>
   <x:si>
-    <x:t>264</x:t>
+    <x:t>265</x:t>
   </x:si>
   <x:si>
     <x:t>171</x:t>
@@ -538,16 +535,13 @@
     <x:t>56</x:t>
   </x:si>
   <x:si>
-    <x:t>559</x:t>
-  </x:si>
-  <x:si>
     <x:t>112</x:t>
   </x:si>
   <x:si>
     <x:t>184</x:t>
   </x:si>
   <x:si>
-    <x:t>300</x:t>
+    <x:t>301</x:t>
   </x:si>
   <x:si>
     <x:t>283</x:t>
@@ -556,7 +550,7 @@
     <x:t>58</x:t>
   </x:si>
   <x:si>
-    <x:t>743</x:t>
+    <x:t>744</x:t>
   </x:si>
   <x:si>
     <x:t>Pornography/Obscene Material</x:t>
@@ -583,106 +577,112 @@
     <x:t>96</x:t>
   </x:si>
   <x:si>
+    <x:t>372</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>524</x:t>
+  </x:si>
+  <x:si>
+    <x:t>157</x:t>
+  </x:si>
+  <x:si>
+    <x:t>205</x:t>
+  </x:si>
+  <x:si>
+    <x:t>115</x:t>
+  </x:si>
+  <x:si>
+    <x:t>529</x:t>
+  </x:si>
+  <x:si>
+    <x:t>729</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sex Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>451</x:t>
+  </x:si>
+  <x:si>
+    <x:t>216</x:t>
+  </x:si>
+  <x:si>
+    <x:t>116</x:t>
+  </x:si>
+  <x:si>
+    <x:t>827</x:t>
+  </x:si>
+  <x:si>
+    <x:t>68</x:t>
+  </x:si>
+  <x:si>
+    <x:t>40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>140</x:t>
+  </x:si>
+  <x:si>
+    <x:t>519</x:t>
+  </x:si>
+  <x:si>
+    <x:t>243</x:t>
+  </x:si>
+  <x:si>
+    <x:t>156</x:t>
+  </x:si>
+  <x:si>
+    <x:t>967</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stolen Property Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>460</x:t>
+  </x:si>
+  <x:si>
+    <x:t>79</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1260</x:t>
+  </x:si>
+  <x:si>
+    <x:t>129</x:t>
+  </x:si>
+  <x:si>
+    <x:t>191</x:t>
+  </x:si>
+  <x:si>
+    <x:t>589</x:t>
+  </x:si>
+  <x:si>
+    <x:t>90</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1451</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weapon Law Violations</x:t>
+  </x:si>
+  <x:si>
+    <x:t>699</x:t>
+  </x:si>
+  <x:si>
+    <x:t>956</x:t>
+  </x:si>
+  <x:si>
+    <x:t>55</x:t>
+  </x:si>
+  <x:si>
+    <x:t>74</x:t>
+  </x:si>
+  <x:si>
     <x:t>371</x:t>
   </x:si>
   <x:si>
-    <x:t>25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>521</x:t>
-  </x:si>
-  <x:si>
-    <x:t>156</x:t>
-  </x:si>
-  <x:si>
-    <x:t>203</x:t>
-  </x:si>
-  <x:si>
-    <x:t>115</x:t>
-  </x:si>
-  <x:si>
-    <x:t>527</x:t>
-  </x:si>
-  <x:si>
-    <x:t>724</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sex Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>451</x:t>
-  </x:si>
-  <x:si>
-    <x:t>215</x:t>
-  </x:si>
-  <x:si>
-    <x:t>825</x:t>
-  </x:si>
-  <x:si>
-    <x:t>67</x:t>
-  </x:si>
-  <x:si>
-    <x:t>138</x:t>
-  </x:si>
-  <x:si>
-    <x:t>518</x:t>
-  </x:si>
-  <x:si>
-    <x:t>242</x:t>
-  </x:si>
-  <x:si>
-    <x:t>154</x:t>
-  </x:si>
-  <x:si>
-    <x:t>963</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stolen Property Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>460</x:t>
-  </x:si>
-  <x:si>
-    <x:t>40</x:t>
-  </x:si>
-  <x:si>
-    <x:t>78</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1258</x:t>
-  </x:si>
-  <x:si>
-    <x:t>129</x:t>
-  </x:si>
-  <x:si>
-    <x:t>191</x:t>
-  </x:si>
-  <x:si>
-    <x:t>589</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1449</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Weapon Law Violations</x:t>
-  </x:si>
-  <x:si>
-    <x:t>698</x:t>
-  </x:si>
-  <x:si>
-    <x:t>954</x:t>
-  </x:si>
-  <x:si>
-    <x:t>55</x:t>
-  </x:si>
-  <x:si>
-    <x:t>74</x:t>
-  </x:si>
-  <x:si>
-    <x:t>369</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2152</x:t>
+    <x:t>2157</x:t>
   </x:si>
   <x:si>
     <x:t>60</x:t>
@@ -694,7 +694,10 @@
     <x:t>281</x:t>
   </x:si>
   <x:si>
-    <x:t>1128</x:t>
+    <x:t>759</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1130</x:t>
   </x:si>
   <x:si>
     <x:t>65</x:t>
@@ -703,10 +706,10 @@
     <x:t>84</x:t>
   </x:si>
   <x:si>
-    <x:t>396</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2433</x:t>
+    <x:t>398</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2438</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1549,16 +1552,16 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="F16" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G16" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="H16" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="I16" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -1587,7 +1590,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="I17" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -1598,16 +1601,16 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C18" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="D18" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="E18" s="1" t="s">
         <x:v>77</x:v>
       </x:c>
       <x:c r="F18" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G18" s="1" t="s">
         <x:v>19</x:v>
@@ -1616,50 +1619,50 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="I18" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
       <x:c r="A19" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C19" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="D19" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E19" s="1" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F19" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="G19" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H19" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="I19" s="1" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
       <x:c r="A20" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C20" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="D20" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="E20" s="1" t="s">
         <x:v>20</x:v>
@@ -1671,79 +1674,79 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H20" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="I20" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
       <x:c r="A21" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C21" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D21" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="E21" s="1" t="s">
         <x:v>65</x:v>
       </x:c>
       <x:c r="F21" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="G21" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H21" s="1" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="I21" s="1" t="s">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
       <x:c r="A22" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="D22" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="E22" s="1" t="s">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="F22" s="1" t="s">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="G22" s="1" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="H22" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="I22" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
       <x:c r="A23" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C23" s="1" t="s">
-        <x:v>107</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D23" s="1" t="s">
         <x:v>108</x:v>
@@ -1766,7 +1769,7 @@
     </x:row>
     <x:row r="24" spans="1:9">
       <x:c r="A24" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
         <x:v>21</x:v>
@@ -1848,7 +1851,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="I26" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:9">
@@ -1859,10 +1862,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C27" s="1" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="D27" s="1" t="s">
         <x:v>121</x:v>
-      </x:c>
-      <x:c r="D27" s="1" t="s">
-        <x:v>122</x:v>
       </x:c>
       <x:c r="E27" s="1" t="s">
         <x:v>18</x:v>
@@ -1877,12 +1880,12 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="I27" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:9">
       <x:c r="A28" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
         <x:v>10</x:v>
@@ -1911,7 +1914,7 @@
     </x:row>
     <x:row r="29" spans="1:9">
       <x:c r="A29" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
         <x:v>21</x:v>
@@ -1940,13 +1943,13 @@
     </x:row>
     <x:row r="30" spans="1:9">
       <x:c r="A30" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C30" s="1" t="s">
-        <x:v>126</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="D30" s="1" t="s">
         <x:v>46</x:v>
@@ -1955,21 +1958,21 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="F30" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="G30" s="1" t="s">
         <x:v>29</x:v>
       </x:c>
       <x:c r="H30" s="1" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="I30" s="1" t="s">
         <x:v>128</x:v>
-      </x:c>
-      <x:c r="I30" s="1" t="s">
-        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:9">
       <x:c r="A31" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
         <x:v>17</x:v>
@@ -1978,7 +1981,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="D31" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="E31" s="1" t="s">
         <x:v>19</x:v>
@@ -1993,41 +1996,41 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="I31" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>130</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
       <x:c r="A32" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C32" s="1" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="D32" s="1" t="s">
         <x:v>132</x:v>
-      </x:c>
-      <x:c r="D32" s="1" t="s">
-        <x:v>133</x:v>
       </x:c>
       <x:c r="E32" s="1" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="F32" s="1" t="s">
-        <x:v>134</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="G32" s="1" t="s">
         <x:v>29</x:v>
       </x:c>
       <x:c r="H32" s="1" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="I32" s="1" t="s">
         <x:v>135</x:v>
-      </x:c>
-      <x:c r="I32" s="1" t="s">
-        <x:v>136</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:9">
       <x:c r="A33" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
         <x:v>10</x:v>
@@ -2056,7 +2059,7 @@
     </x:row>
     <x:row r="34" spans="1:9">
       <x:c r="A34" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
         <x:v>17</x:v>
@@ -2085,7 +2088,7 @@
     </x:row>
     <x:row r="35" spans="1:9">
       <x:c r="A35" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
         <x:v>21</x:v>
@@ -2114,16 +2117,16 @@
     </x:row>
     <x:row r="36" spans="1:9">
       <x:c r="A36" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C36" s="1" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="D36" s="1" t="s">
         <x:v>139</x:v>
-      </x:c>
-      <x:c r="D36" s="1" t="s">
-        <x:v>140</x:v>
       </x:c>
       <x:c r="E36" s="1" t="s">
         <x:v>20</x:v>
@@ -2135,15 +2138,15 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H36" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I36" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>140</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:9">
       <x:c r="A37" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
         <x:v>17</x:v>
@@ -2152,7 +2155,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="D37" s="1" t="s">
-        <x:v>142</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="E37" s="1" t="s">
         <x:v>14</x:v>
@@ -2167,21 +2170,21 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="I37" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>142</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:9">
       <x:c r="A38" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C38" s="1" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D38" s="1" t="s">
-        <x:v>144</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="E38" s="1" t="s">
         <x:v>29</x:v>
@@ -2196,21 +2199,21 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I38" s="1" t="s">
-        <x:v>145</x:v>
+        <x:v>144</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:9">
       <x:c r="A39" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C39" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D39" s="1" t="s">
-        <x:v>147</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="E39" s="1" t="s">
         <x:v>18</x:v>
@@ -2225,21 +2228,21 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="I39" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:9">
       <x:c r="A40" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C40" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D40" s="1" t="s">
-        <x:v>147</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="E40" s="1" t="s">
         <x:v>18</x:v>
@@ -2254,18 +2257,18 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="I40" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:9">
       <x:c r="A41" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C41" s="1" t="s">
-        <x:v>149</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="D41" s="1" t="s">
         <x:v>71</x:v>
@@ -2283,18 +2286,18 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="I41" s="1" t="s">
-        <x:v>150</x:v>
+        <x:v>149</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9">
       <x:c r="A42" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C42" s="1" t="s">
-        <x:v>149</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="D42" s="1" t="s">
         <x:v>71</x:v>
@@ -2312,53 +2315,53 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="I42" s="1" t="s">
-        <x:v>150</x:v>
+        <x:v>149</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:9">
       <x:c r="A43" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C43" s="1" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="D43" s="1" t="s">
         <x:v>152</x:v>
       </x:c>
-      <x:c r="D43" s="1" t="s">
+      <x:c r="E43" s="1" t="s">
         <x:v>153</x:v>
       </x:c>
-      <x:c r="E43" s="1" t="s">
+      <x:c r="F43" s="1" t="s">
         <x:v>154</x:v>
-      </x:c>
-      <x:c r="F43" s="1" t="s">
-        <x:v>155</x:v>
       </x:c>
       <x:c r="G43" s="1" t="s">
         <x:v>66</x:v>
       </x:c>
       <x:c r="H43" s="1" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="I43" s="1" t="s">
         <x:v>156</x:v>
-      </x:c>
-      <x:c r="I43" s="1" t="s">
-        <x:v>157</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:9">
       <x:c r="A44" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C44" s="1" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D44" s="1" t="s">
         <x:v>158</x:v>
       </x:c>
-      <x:c r="D44" s="1" t="s">
-        <x:v>159</x:v>
-      </x:c>
       <x:c r="E44" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="F44" s="1" t="s">
         <x:v>11</x:v>
@@ -2367,82 +2370,82 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H44" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="I44" s="1" t="s">
-        <x:v>160</x:v>
+        <x:v>159</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:9">
       <x:c r="A45" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C45" s="1" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="D45" s="1" t="s">
         <x:v>161</x:v>
       </x:c>
-      <x:c r="D45" s="1" t="s">
+      <x:c r="E45" s="1" t="s">
         <x:v>162</x:v>
       </x:c>
-      <x:c r="E45" s="1" t="s">
+      <x:c r="F45" s="1" t="s">
         <x:v>163</x:v>
       </x:c>
-      <x:c r="F45" s="1" t="s">
+      <x:c r="G45" s="1" t="s">
         <x:v>164</x:v>
       </x:c>
-      <x:c r="G45" s="1" t="s">
+      <x:c r="H45" s="1" t="s">
         <x:v>165</x:v>
       </x:c>
-      <x:c r="H45" s="1" t="s">
+      <x:c r="I45" s="1" t="s">
         <x:v>166</x:v>
-      </x:c>
-      <x:c r="I45" s="1" t="s">
-        <x:v>167</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
       <x:c r="A46" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C46" s="1" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="D46" s="1" t="s">
         <x:v>169</x:v>
       </x:c>
-      <x:c r="D46" s="1" t="s">
+      <x:c r="E46" s="1" t="s">
         <x:v>170</x:v>
       </x:c>
-      <x:c r="E46" s="1" t="s">
+      <x:c r="F46" s="1" t="s">
         <x:v>171</x:v>
-      </x:c>
-      <x:c r="F46" s="1" t="s">
-        <x:v>172</x:v>
       </x:c>
       <x:c r="G46" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H46" s="1" t="s">
-        <x:v>173</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="I46" s="1" t="s">
-        <x:v>174</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
       <x:c r="A47" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C47" s="1" t="s">
-        <x:v>139</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="D47" s="1" t="s">
-        <x:v>175</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="E47" s="1" t="s">
         <x:v>30</x:v>
@@ -2454,30 +2457,30 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H47" s="1" t="s">
-        <x:v>147</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="I47" s="1" t="s">
-        <x:v>176</x:v>
+        <x:v>174</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
       <x:c r="A48" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C48" s="1" t="s">
-        <x:v>177</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="D48" s="1" t="s">
-        <x:v>178</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="E48" s="1" t="s">
         <x:v>118</x:v>
       </x:c>
       <x:c r="F48" s="1" t="s">
-        <x:v>179</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="G48" s="1" t="s">
         <x:v>18</x:v>
@@ -2486,18 +2489,18 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="I48" s="1" t="s">
-        <x:v>180</x:v>
+        <x:v>178</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:9">
       <x:c r="A49" s="0" t="s">
-        <x:v>181</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C49" s="1" t="s">
-        <x:v>175</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="D49" s="1" t="s">
         <x:v>77</x:v>
@@ -2512,15 +2515,15 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H49" s="1" t="s">
-        <x:v>171</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="I49" s="1" t="s">
-        <x:v>182</x:v>
+        <x:v>180</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:9">
       <x:c r="A50" s="0" t="s">
-        <x:v>181</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
         <x:v>17</x:v>
@@ -2549,13 +2552,13 @@
     </x:row>
     <x:row r="51" spans="1:9">
       <x:c r="A51" s="0" t="s">
-        <x:v>181</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C51" s="1" t="s">
-        <x:v>183</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="D51" s="1" t="s">
         <x:v>23</x:v>
@@ -2573,18 +2576,18 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="I51" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>182</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:9">
       <x:c r="A52" s="0" t="s">
-        <x:v>185</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C52" s="1" t="s">
-        <x:v>186</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="D52" s="1" t="s">
         <x:v>14</x:v>
@@ -2602,18 +2605,18 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="I52" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:9">
       <x:c r="A53" s="0" t="s">
-        <x:v>185</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C53" s="1" t="s">
-        <x:v>186</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="D53" s="1" t="s">
         <x:v>14</x:v>
@@ -2631,137 +2634,137 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="I53" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:9">
       <x:c r="A54" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C54" s="1" t="s">
-        <x:v>188</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="D54" s="1" t="s">
-        <x:v>189</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="E54" s="1" t="s">
         <x:v>29</x:v>
       </x:c>
       <x:c r="F54" s="1" t="s">
-        <x:v>171</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="G54" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="H54" s="1" t="s">
-        <x:v>190</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="I54" s="1" t="s">
-        <x:v>191</x:v>
+        <x:v>189</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:9">
       <x:c r="A55" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C55" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D55" s="1" t="s">
-        <x:v>192</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="E55" s="1" t="s">
-        <x:v>186</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="F55" s="1" t="s">
-        <x:v>142</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="G55" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="H55" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I55" s="1" t="s">
-        <x:v>193</x:v>
+        <x:v>191</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:9">
       <x:c r="A56" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C56" s="1" t="s">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="D56" s="1" t="s">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="E56" s="1" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="F56" s="1" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="G56" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H56" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="I56" s="1" t="s">
         <x:v>194</x:v>
-      </x:c>
-      <x:c r="D56" s="1" t="s">
-        <x:v>195</x:v>
-      </x:c>
-      <x:c r="E56" s="1" t="s">
-        <x:v>143</x:v>
-      </x:c>
-      <x:c r="F56" s="1" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="G56" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="H56" s="1" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="I56" s="1" t="s">
-        <x:v>196</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:9">
       <x:c r="A57" s="0" t="s">
-        <x:v>197</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C57" s="1" t="s">
-        <x:v>198</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="D57" s="1" t="s">
-        <x:v>199</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="E57" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="F57" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G57" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H57" s="1" t="s">
-        <x:v>194</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="I57" s="1" t="s">
-        <x:v>200</x:v>
+        <x:v>199</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:9">
       <x:c r="A58" s="0" t="s">
-        <x:v>197</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C58" s="1" t="s">
-        <x:v>201</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="D58" s="1" t="s">
-        <x:v>165</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="E58" s="1" t="s">
         <x:v>13</x:v>
@@ -2773,7 +2776,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H58" s="1" t="s">
-        <x:v>87</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="I58" s="1" t="s">
         <x:v>202</x:v>
@@ -2781,7 +2784,7 @@
     </x:row>
     <x:row r="59" spans="1:9">
       <x:c r="A59" s="0" t="s">
-        <x:v>197</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
         <x:v>21</x:v>
@@ -2793,7 +2796,7 @@
         <x:v>204</x:v>
       </x:c>
       <x:c r="E59" s="1" t="s">
-        <x:v>190</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="F59" s="1" t="s">
         <x:v>114</x:v>
@@ -2816,16 +2819,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C60" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D60" s="1" t="s">
         <x:v>208</x:v>
       </x:c>
       <x:c r="E60" s="1" t="s">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="F60" s="1" t="s">
         <x:v>209</x:v>
-      </x:c>
-      <x:c r="F60" s="1" t="s">
-        <x:v>210</x:v>
       </x:c>
       <x:c r="G60" s="1" t="s">
         <x:v>18</x:v>
@@ -2834,7 +2837,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="I60" s="1" t="s">
-        <x:v>211</x:v>
+        <x:v>210</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">
@@ -2845,13 +2848,13 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C61" s="1" t="s">
-        <x:v>171</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="D61" s="1" t="s">
-        <x:v>212</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="E61" s="1" t="s">
-        <x:v>142</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="F61" s="1" t="s">
         <x:v>67</x:v>
@@ -2863,7 +2866,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="I61" s="1" t="s">
-        <x:v>213</x:v>
+        <x:v>212</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
@@ -2874,16 +2877,16 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C62" s="1" t="s">
-        <x:v>174</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D62" s="1" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="E62" s="1" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="F62" s="1" t="s">
         <x:v>214</x:v>
-      </x:c>
-      <x:c r="E62" s="1" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="F62" s="1" t="s">
-        <x:v>123</x:v>
       </x:c>
       <x:c r="G62" s="1" t="s">
         <x:v>18</x:v>
@@ -2947,7 +2950,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H64" s="1" t="s">
-        <x:v>165</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="I64" s="1" t="s">
         <x:v>225</x:v>
@@ -2961,25 +2964,25 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C65" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="D65" s="1" t="s">
-        <x:v>226</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="E65" s="1" t="s">
-        <x:v>227</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="F65" s="1" t="s">
-        <x:v>228</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="G65" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H65" s="1" t="s">
-        <x:v>229</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="I65" s="1" t="s">
-        <x:v>230</x:v>
+        <x:v>231</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -49,600 +49,603 @@
     <x:t>Adult</x:t>
   </x:si>
   <x:si>
+    <x:t>60</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Juvenile</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Total</x:t>
+  </x:si>
+  <x:si>
+    <x:t>63</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>104</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Arson</x:t>
+  </x:si>
+  <x:si>
+    <x:t>69</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>121</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>78</x:t>
+  </x:si>
+  <x:si>
+    <x:t>34</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>132</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Assault Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7730</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4707</x:t>
+  </x:si>
+  <x:si>
+    <x:t>379</x:t>
+  </x:si>
+  <x:si>
+    <x:t>703</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1508</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15055</x:t>
+  </x:si>
+  <x:si>
+    <x:t>925</x:t>
+  </x:si>
+  <x:si>
+    <x:t>758</x:t>
+  </x:si>
+  <x:si>
+    <x:t>164</x:t>
+  </x:si>
+  <x:si>
+    <x:t>279</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2164</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8655</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5465</x:t>
+  </x:si>
+  <x:si>
+    <x:t>413</x:t>
+  </x:si>
+  <x:si>
+    <x:t>867</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1787</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17219</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bribery</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Burglary/Breaking &amp; Entering</x:t>
+  </x:si>
+  <x:si>
+    <x:t>801</x:t>
+  </x:si>
+  <x:si>
+    <x:t>588</x:t>
+  </x:si>
+  <x:si>
+    <x:t>47</x:t>
+  </x:si>
+  <x:si>
+    <x:t>105</x:t>
+  </x:si>
+  <x:si>
+    <x:t>131</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1674</x:t>
+  </x:si>
+  <x:si>
+    <x:t>64</x:t>
+  </x:si>
+  <x:si>
+    <x:t>43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>148</x:t>
+  </x:si>
+  <x:si>
+    <x:t>865</x:t>
+  </x:si>
+  <x:si>
+    <x:t>631</x:t>
+  </x:si>
+  <x:si>
+    <x:t>51</x:t>
+  </x:si>
+  <x:si>
+    <x:t>142</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1822</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Counterfeiting/Forgery</x:t>
+  </x:si>
+  <x:si>
+    <x:t>292</x:t>
+  </x:si>
+  <x:si>
+    <x:t>144</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>49</x:t>
+  </x:si>
+  <x:si>
+    <x:t>522</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>295</x:t>
+  </x:si>
+  <x:si>
+    <x:t>154</x:t>
+  </x:si>
+  <x:si>
+    <x:t>537</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Destruction/Damage/Vandalism of Property</x:t>
+  </x:si>
+  <x:si>
+    <x:t>866</x:t>
+  </x:si>
+  <x:si>
+    <x:t>460</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>92</x:t>
+  </x:si>
+  <x:si>
+    <x:t>180</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1638</x:t>
+  </x:si>
+  <x:si>
+    <x:t>210</x:t>
+  </x:si>
+  <x:si>
+    <x:t>102</x:t>
+  </x:si>
+  <x:si>
+    <x:t>48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>392</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1076</x:t>
+  </x:si>
+  <x:si>
+    <x:t>562</x:t>
+  </x:si>
+  <x:si>
+    <x:t>120</x:t>
+  </x:si>
+  <x:si>
+    <x:t>228</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2030</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Drug/Narcotic Violations</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4041</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2043</x:t>
+  </x:si>
+  <x:si>
+    <x:t>153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>568</x:t>
+  </x:si>
+  <x:si>
+    <x:t>914</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7740</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>179</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4146</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2074</x:t>
+  </x:si>
+  <x:si>
+    <x:t>161</x:t>
+  </x:si>
+  <x:si>
+    <x:t>570</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>946</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7919</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Embezzlement</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>70</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>89</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Extortion/Blackmail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fraud Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>997</x:t>
+  </x:si>
+  <x:si>
+    <x:t>160</x:t>
+  </x:si>
+  <x:si>
+    <x:t>290</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2279</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>88</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1028</x:t>
+  </x:si>
+  <x:si>
+    <x:t>793</x:t>
+  </x:si>
+  <x:si>
+    <x:t>166</x:t>
+  </x:si>
+  <x:si>
+    <x:t>306</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2367</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gambling Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Homicide Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36</x:t>
+  </x:si>
+  <x:si>
+    <x:t>82</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>91</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Human Trafficking</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kidnapping/Abduction</x:t>
+  </x:si>
+  <x:si>
+    <x:t>45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>122</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Larceny/Theft Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7695</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5038</x:t>
+  </x:si>
+  <x:si>
+    <x:t>298</x:t>
+  </x:si>
+  <x:si>
+    <x:t>831</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1511</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15399</x:t>
+  </x:si>
+  <x:si>
+    <x:t>714</x:t>
+  </x:si>
+  <x:si>
+    <x:t>620</x:t>
+  </x:si>
+  <x:si>
     <x:t>59</x:t>
   </x:si>
   <x:si>
-    <x:t>20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16</x:t>
-  </x:si>
-  <x:si>
-    <x:t>99</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Juvenile</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Total</x:t>
-  </x:si>
-  <x:si>
-    <x:t>62</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>103</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Arson</x:t>
-  </x:si>
-  <x:si>
-    <x:t>69</x:t>
-  </x:si>
-  <x:si>
-    <x:t>33</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>121</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>77</x:t>
-  </x:si>
-  <x:si>
-    <x:t>34</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>131</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Assault Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7725</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4706</x:t>
-  </x:si>
-  <x:si>
-    <x:t>378</x:t>
-  </x:si>
-  <x:si>
-    <x:t>706</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1507</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15050</x:t>
-  </x:si>
-  <x:si>
-    <x:t>924</x:t>
-  </x:si>
-  <x:si>
-    <x:t>758</x:t>
-  </x:si>
-  <x:si>
-    <x:t>163</x:t>
-  </x:si>
-  <x:si>
-    <x:t>278</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2161</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8649</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5464</x:t>
-  </x:si>
-  <x:si>
-    <x:t>412</x:t>
-  </x:si>
-  <x:si>
-    <x:t>869</x:t>
-  </x:si>
-  <x:si>
-    <x:t>32</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1785</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17211</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bribery</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Burglary/Breaking &amp; Entering</x:t>
-  </x:si>
-  <x:si>
-    <x:t>799</x:t>
-  </x:si>
-  <x:si>
-    <x:t>588</x:t>
-  </x:si>
-  <x:si>
-    <x:t>47</x:t>
-  </x:si>
-  <x:si>
-    <x:t>105</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1672</x:t>
-  </x:si>
-  <x:si>
-    <x:t>63</x:t>
-  </x:si>
-  <x:si>
-    <x:t>43</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>147</x:t>
-  </x:si>
-  <x:si>
-    <x:t>862</x:t>
-  </x:si>
-  <x:si>
-    <x:t>631</x:t>
-  </x:si>
-  <x:si>
-    <x:t>51</x:t>
-  </x:si>
-  <x:si>
-    <x:t>142</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1819</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Counterfeiting/Forgery</x:t>
-  </x:si>
-  <x:si>
-    <x:t>292</x:t>
-  </x:si>
-  <x:si>
-    <x:t>143</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19</x:t>
-  </x:si>
-  <x:si>
-    <x:t>49</x:t>
-  </x:si>
-  <x:si>
-    <x:t>521</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>295</x:t>
-  </x:si>
-  <x:si>
-    <x:t>153</x:t>
+    <x:t>1584</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8409</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5658</x:t>
+  </x:si>
+  <x:si>
+    <x:t>335</x:t>
+  </x:si>
+  <x:si>
+    <x:t>890</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1664</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16983</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Motor Vehicle Theft</x:t>
+  </x:si>
+  <x:si>
+    <x:t>265</x:t>
+  </x:si>
+  <x:si>
+    <x:t>171</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>42</x:t>
+  </x:si>
+  <x:si>
+    <x:t>56</x:t>
+  </x:si>
+  <x:si>
+    <x:t>560</x:t>
+  </x:si>
+  <x:si>
+    <x:t>112</x:t>
+  </x:si>
+  <x:si>
+    <x:t>184</x:t>
+  </x:si>
+  <x:si>
+    <x:t>301</x:t>
+  </x:si>
+  <x:si>
+    <x:t>283</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58</x:t>
+  </x:si>
+  <x:si>
+    <x:t>744</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pornography/Obscene Material</x:t>
+  </x:si>
+  <x:si>
+    <x:t>158</x:t>
+  </x:si>
+  <x:si>
+    <x:t>133</x:t>
+  </x:si>
+  <x:si>
+    <x:t>189</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Prostitution Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Robbery</x:t>
+  </x:si>
+  <x:si>
+    <x:t>96</x:t>
+  </x:si>
+  <x:si>
+    <x:t>374</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>526</x:t>
+  </x:si>
+  <x:si>
+    <x:t>157</x:t>
+  </x:si>
+  <x:si>
+    <x:t>205</x:t>
+  </x:si>
+  <x:si>
+    <x:t>115</x:t>
+  </x:si>
+  <x:si>
+    <x:t>531</x:t>
+  </x:si>
+  <x:si>
+    <x:t>731</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sex Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>452</x:t>
+  </x:si>
+  <x:si>
+    <x:t>216</x:t>
+  </x:si>
+  <x:si>
+    <x:t>116</x:t>
+  </x:si>
+  <x:si>
+    <x:t>828</x:t>
+  </x:si>
+  <x:si>
+    <x:t>68</x:t>
+  </x:si>
+  <x:si>
+    <x:t>40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>140</x:t>
+  </x:si>
+  <x:si>
+    <x:t>520</x:t>
+  </x:si>
+  <x:si>
+    <x:t>243</x:t>
+  </x:si>
+  <x:si>
+    <x:t>156</x:t>
+  </x:si>
+  <x:si>
+    <x:t>968</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stolen Property Offenses</x:t>
   </x:si>
   <x:si>
     <x:t>536</x:t>
   </x:si>
   <x:si>
-    <x:t>Destruction/Damage/Vandalism of Property</x:t>
-  </x:si>
-  <x:si>
-    <x:t>865</x:t>
-  </x:si>
-  <x:si>
-    <x:t>459</x:t>
-  </x:si>
-  <x:si>
-    <x:t>39</x:t>
-  </x:si>
-  <x:si>
-    <x:t>92</x:t>
-  </x:si>
-  <x:si>
-    <x:t>180</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1636</x:t>
-  </x:si>
-  <x:si>
-    <x:t>210</x:t>
-  </x:si>
-  <x:si>
-    <x:t>101</x:t>
-  </x:si>
-  <x:si>
-    <x:t>48</x:t>
-  </x:si>
-  <x:si>
-    <x:t>391</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1075</x:t>
-  </x:si>
-  <x:si>
-    <x:t>560</x:t>
-  </x:si>
-  <x:si>
-    <x:t>120</x:t>
-  </x:si>
-  <x:si>
-    <x:t>228</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2027</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Drug/Narcotic Violations</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4032</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2042</x:t>
-  </x:si>
-  <x:si>
-    <x:t>152</x:t>
-  </x:si>
-  <x:si>
-    <x:t>568</x:t>
-  </x:si>
-  <x:si>
-    <x:t>912</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7727</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31</x:t>
-  </x:si>
-  <x:si>
-    <x:t>179</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4137</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2073</x:t>
-  </x:si>
-  <x:si>
-    <x:t>160</x:t>
-  </x:si>
-  <x:si>
-    <x:t>570</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>944</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7906</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Embezzlement</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>70</x:t>
-  </x:si>
-  <x:si>
-    <x:t>37</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23</x:t>
-  </x:si>
-  <x:si>
-    <x:t>89</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Extortion/Blackmail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fraud Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>994</x:t>
-  </x:si>
-  <x:si>
-    <x:t>159</x:t>
-  </x:si>
-  <x:si>
-    <x:t>289</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2274</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35</x:t>
-  </x:si>
-  <x:si>
-    <x:t>88</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1025</x:t>
-  </x:si>
-  <x:si>
-    <x:t>793</x:t>
-  </x:si>
-  <x:si>
-    <x:t>165</x:t>
-  </x:si>
-  <x:si>
-    <x:t>305</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2362</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gambling Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Homicide Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>36</x:t>
-  </x:si>
-  <x:si>
-    <x:t>82</x:t>
-  </x:si>
-  <x:si>
-    <x:t>144</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>91</x:t>
-  </x:si>
-  <x:si>
-    <x:t>161</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Human Trafficking</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kidnapping/Abduction</x:t>
-  </x:si>
-  <x:si>
-    <x:t>45</x:t>
-  </x:si>
-  <x:si>
-    <x:t>122</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Larceny/Theft Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7684</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5037</x:t>
-  </x:si>
-  <x:si>
-    <x:t>298</x:t>
-  </x:si>
-  <x:si>
-    <x:t>831</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1510</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15386</x:t>
-  </x:si>
-  <x:si>
-    <x:t>714</x:t>
-  </x:si>
-  <x:si>
-    <x:t>620</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1584</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8398</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5657</x:t>
-  </x:si>
-  <x:si>
-    <x:t>335</x:t>
-  </x:si>
-  <x:si>
-    <x:t>890</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1663</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16970</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Motor Vehicle Theft</x:t>
-  </x:si>
-  <x:si>
-    <x:t>265</x:t>
-  </x:si>
-  <x:si>
-    <x:t>171</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24</x:t>
-  </x:si>
-  <x:si>
-    <x:t>42</x:t>
-  </x:si>
-  <x:si>
-    <x:t>56</x:t>
-  </x:si>
-  <x:si>
-    <x:t>112</x:t>
-  </x:si>
-  <x:si>
-    <x:t>184</x:t>
-  </x:si>
-  <x:si>
-    <x:t>301</x:t>
-  </x:si>
-  <x:si>
-    <x:t>283</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58</x:t>
-  </x:si>
-  <x:si>
-    <x:t>744</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pornography/Obscene Material</x:t>
-  </x:si>
-  <x:si>
-    <x:t>158</x:t>
-  </x:si>
-  <x:si>
-    <x:t>133</x:t>
-  </x:si>
-  <x:si>
-    <x:t>189</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Prostitution Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Robbery</x:t>
-  </x:si>
-  <x:si>
-    <x:t>96</x:t>
-  </x:si>
-  <x:si>
-    <x:t>372</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>524</x:t>
-  </x:si>
-  <x:si>
-    <x:t>157</x:t>
-  </x:si>
-  <x:si>
-    <x:t>205</x:t>
-  </x:si>
-  <x:si>
-    <x:t>115</x:t>
-  </x:si>
-  <x:si>
-    <x:t>529</x:t>
-  </x:si>
-  <x:si>
-    <x:t>729</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sex Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>451</x:t>
-  </x:si>
-  <x:si>
-    <x:t>216</x:t>
-  </x:si>
-  <x:si>
-    <x:t>116</x:t>
-  </x:si>
-  <x:si>
-    <x:t>827</x:t>
-  </x:si>
-  <x:si>
-    <x:t>68</x:t>
-  </x:si>
-  <x:si>
-    <x:t>40</x:t>
-  </x:si>
-  <x:si>
-    <x:t>140</x:t>
-  </x:si>
-  <x:si>
-    <x:t>519</x:t>
-  </x:si>
-  <x:si>
-    <x:t>243</x:t>
-  </x:si>
-  <x:si>
-    <x:t>156</x:t>
-  </x:si>
-  <x:si>
-    <x:t>967</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stolen Property Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>460</x:t>
-  </x:si>
-  <x:si>
     <x:t>79</x:t>
   </x:si>
   <x:si>
@@ -667,7 +670,7 @@
     <x:t>Weapon Law Violations</x:t>
   </x:si>
   <x:si>
-    <x:t>699</x:t>
+    <x:t>701</x:t>
   </x:si>
   <x:si>
     <x:t>956</x:t>
@@ -682,10 +685,7 @@
     <x:t>371</x:t>
   </x:si>
   <x:si>
-    <x:t>2157</x:t>
-  </x:si>
-  <x:si>
-    <x:t>60</x:t>
+    <x:t>2159</x:t>
   </x:si>
   <x:si>
     <x:t>174</x:t>
@@ -694,7 +694,7 @@
     <x:t>281</x:t>
   </x:si>
   <x:si>
-    <x:t>759</x:t>
+    <x:t>761</x:t>
   </x:si>
   <x:si>
     <x:t>1130</x:t>
@@ -709,7 +709,7 @@
     <x:t>398</x:t>
   </x:si>
   <x:si>
-    <x:t>2438</x:t>
+    <x:t>2440</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1253,7 +1253,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C6" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D6" s="1" t="s">
         <x:v>14</x:v>
@@ -1271,7 +1271,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="I6" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:9">
@@ -1282,10 +1282,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D7" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E7" s="1" t="s">
         <x:v>28</x:v>
@@ -1297,102 +1297,102 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H7" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="I7" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9">
       <x:c r="A8" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D8" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E8" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="F8" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="G8" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="H8" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="I8" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
       <x:c r="A9" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C9" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="D9" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="E9" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F9" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="G9" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="H9" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="I9" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
       <x:c r="A10" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C10" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D10" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E10" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F10" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="G10" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="H10" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="I10" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
       <x:c r="A11" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
         <x:v>10</x:v>
@@ -1421,7 +1421,7 @@
     </x:row>
     <x:row r="12" spans="1:9">
       <x:c r="A12" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
         <x:v>21</x:v>
@@ -1450,123 +1450,123 @@
     </x:row>
     <x:row r="13" spans="1:9">
       <x:c r="A13" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D13" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E13" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F13" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="G13" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H13" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="I13" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
       <x:c r="A14" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C14" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D14" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="E14" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="F14" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="G14" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="H14" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="I14" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
       <x:c r="A15" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C15" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D15" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E15" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F15" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="G15" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H15" s="1" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="I15" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
       <x:c r="A16" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D16" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E16" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="F16" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="G16" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="H16" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="I16" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
       <x:c r="A17" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
         <x:v>17</x:v>
@@ -1575,7 +1575,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="D17" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E17" s="1" t="s">
         <x:v>19</x:v>
@@ -1590,166 +1590,166 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="I17" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
       <x:c r="A18" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C18" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D18" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E18" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="F18" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="G18" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="H18" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I18" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
       <x:c r="A19" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C19" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D19" s="1" t="s">
-        <x:v>87</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E19" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="F19" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="G19" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H19" s="1" t="s">
-        <x:v>90</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="I19" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
       <x:c r="A20" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C20" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="D20" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E20" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="F20" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G20" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="H20" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="I20" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
       <x:c r="A21" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C21" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="D21" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E21" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F21" s="1" t="s">
-        <x:v>98</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="G21" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H21" s="1" t="s">
-        <x:v>99</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="I21" s="1" t="s">
-        <x:v>100</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
       <x:c r="A22" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D22" s="1" t="s">
-        <x:v>103</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E22" s="1" t="s">
-        <x:v>104</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="F22" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="G22" s="1" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="H22" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="I22" s="1" t="s">
-        <x:v>107</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
       <x:c r="A23" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C23" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D23" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="E23" s="1" t="s">
         <x:v>28</x:v>
@@ -1761,50 +1761,50 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H23" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="I23" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
       <x:c r="A24" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C24" s="1" t="s">
-        <x:v>110</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="D24" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="E24" s="1" t="s">
-        <x:v>112</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="F24" s="1" t="s">
-        <x:v>113</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="G24" s="1" t="s">
-        <x:v>114</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="H24" s="1" t="s">
-        <x:v>115</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="I24" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
       <x:c r="A25" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C25" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D25" s="1" t="s">
         <x:v>15</x:v>
@@ -1822,21 +1822,21 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I25" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>121</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
       <x:c r="A26" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C26" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D26" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E26" s="1" t="s">
         <x:v>19</x:v>
@@ -1851,21 +1851,21 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="I26" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:9">
       <x:c r="A27" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C27" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="D27" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="E27" s="1" t="s">
         <x:v>18</x:v>
@@ -1877,15 +1877,15 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H27" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="I27" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:9">
       <x:c r="A28" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
         <x:v>10</x:v>
@@ -1914,7 +1914,7 @@
     </x:row>
     <x:row r="29" spans="1:9">
       <x:c r="A29" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
         <x:v>21</x:v>
@@ -1943,45 +1943,45 @@
     </x:row>
     <x:row r="30" spans="1:9">
       <x:c r="A30" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C30" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="D30" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="E30" s="1" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="F30" s="1" t="s">
-        <x:v>126</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="G30" s="1" t="s">
         <x:v>29</x:v>
       </x:c>
       <x:c r="H30" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="I30" s="1" t="s">
-        <x:v>128</x:v>
+        <x:v>130</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:9">
       <x:c r="A31" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C31" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="D31" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="E31" s="1" t="s">
         <x:v>19</x:v>
@@ -1996,41 +1996,41 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="I31" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
       <x:c r="A32" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C32" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="D32" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E32" s="1" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="F32" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="G32" s="1" t="s">
         <x:v>29</x:v>
       </x:c>
       <x:c r="H32" s="1" t="s">
-        <x:v>134</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="I32" s="1" t="s">
-        <x:v>135</x:v>
+        <x:v>137</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:9">
       <x:c r="A33" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
         <x:v>10</x:v>
@@ -2059,7 +2059,7 @@
     </x:row>
     <x:row r="34" spans="1:9">
       <x:c r="A34" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
         <x:v>17</x:v>
@@ -2088,7 +2088,7 @@
     </x:row>
     <x:row r="35" spans="1:9">
       <x:c r="A35" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
         <x:v>21</x:v>
@@ -2117,16 +2117,16 @@
     </x:row>
     <x:row r="36" spans="1:9">
       <x:c r="A36" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C36" s="1" t="s">
-        <x:v>138</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="D36" s="1" t="s">
-        <x:v>139</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="E36" s="1" t="s">
         <x:v>20</x:v>
@@ -2138,15 +2138,15 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H36" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="I36" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:9">
       <x:c r="A37" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
         <x:v>17</x:v>
@@ -2155,7 +2155,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="D37" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E37" s="1" t="s">
         <x:v>14</x:v>
@@ -2175,13 +2175,13 @@
     </x:row>
     <x:row r="38" spans="1:9">
       <x:c r="A38" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C38" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D38" s="1" t="s">
         <x:v>143</x:v>
@@ -2199,21 +2199,21 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I38" s="1" t="s">
-        <x:v>144</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:9">
       <x:c r="A39" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C39" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D39" s="1" t="s">
-        <x:v>146</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="E39" s="1" t="s">
         <x:v>18</x:v>
@@ -2228,21 +2228,21 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="I39" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>131</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:9">
       <x:c r="A40" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C40" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D40" s="1" t="s">
-        <x:v>146</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="E40" s="1" t="s">
         <x:v>18</x:v>
@@ -2257,21 +2257,21 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="I40" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>131</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:9">
       <x:c r="A41" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C41" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="D41" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E41" s="1" t="s">
         <x:v>30</x:v>
@@ -2283,24 +2283,24 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H41" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="I41" s="1" t="s">
-        <x:v>149</x:v>
+        <x:v>148</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9">
       <x:c r="A42" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C42" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="D42" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E42" s="1" t="s">
         <x:v>30</x:v>
@@ -2312,65 +2312,65 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H42" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="I42" s="1" t="s">
-        <x:v>149</x:v>
+        <x:v>148</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:9">
       <x:c r="A43" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C43" s="1" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="D43" s="1" t="s">
         <x:v>151</x:v>
       </x:c>
-      <x:c r="D43" s="1" t="s">
+      <x:c r="E43" s="1" t="s">
         <x:v>152</x:v>
       </x:c>
-      <x:c r="E43" s="1" t="s">
+      <x:c r="F43" s="1" t="s">
         <x:v>153</x:v>
       </x:c>
-      <x:c r="F43" s="1" t="s">
+      <x:c r="G43" s="1" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="H43" s="1" t="s">
         <x:v>154</x:v>
       </x:c>
-      <x:c r="G43" s="1" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="H43" s="1" t="s">
+      <x:c r="I43" s="1" t="s">
         <x:v>155</x:v>
-      </x:c>
-      <x:c r="I43" s="1" t="s">
-        <x:v>156</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:9">
       <x:c r="A44" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C44" s="1" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="D44" s="1" t="s">
         <x:v>157</x:v>
       </x:c>
-      <x:c r="D44" s="1" t="s">
+      <x:c r="E44" s="1" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="F44" s="1" t="s">
         <x:v>158</x:v>
       </x:c>
-      <x:c r="E44" s="1" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="F44" s="1" t="s">
-        <x:v>11</x:v>
-      </x:c>
       <x:c r="G44" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H44" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="I44" s="1" t="s">
         <x:v>159</x:v>
@@ -2378,7 +2378,7 @@
     </x:row>
     <x:row r="45" spans="1:9">
       <x:c r="A45" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
         <x:v>21</x:v>
@@ -2431,7 +2431,7 @@
         <x:v>172</x:v>
       </x:c>
       <x:c r="I46" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>173</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
@@ -2442,10 +2442,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C47" s="1" t="s">
-        <x:v>138</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="D47" s="1" t="s">
-        <x:v>173</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="E47" s="1" t="s">
         <x:v>30</x:v>
@@ -2457,10 +2457,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H47" s="1" t="s">
-        <x:v>146</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="I47" s="1" t="s">
-        <x:v>174</x:v>
+        <x:v>175</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
@@ -2471,16 +2471,16 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C48" s="1" t="s">
-        <x:v>175</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="D48" s="1" t="s">
-        <x:v>176</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="E48" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="F48" s="1" t="s">
-        <x:v>177</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="G48" s="1" t="s">
         <x:v>18</x:v>
@@ -2489,21 +2489,21 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="I48" s="1" t="s">
-        <x:v>178</x:v>
+        <x:v>179</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:9">
       <x:c r="A49" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C49" s="1" t="s">
-        <x:v>173</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="D49" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E49" s="1" t="s">
         <x:v>13</x:v>
@@ -2518,12 +2518,12 @@
         <x:v>170</x:v>
       </x:c>
       <x:c r="I49" s="1" t="s">
-        <x:v>180</x:v>
+        <x:v>181</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:9">
       <x:c r="A50" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
         <x:v>17</x:v>
@@ -2544,21 +2544,21 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H50" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="I50" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:9">
       <x:c r="A51" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C51" s="1" t="s">
-        <x:v>181</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="D51" s="1" t="s">
         <x:v>23</x:v>
@@ -2573,21 +2573,21 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H51" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="I51" s="1" t="s">
-        <x:v>182</x:v>
+        <x:v>183</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:9">
       <x:c r="A52" s="0" t="s">
-        <x:v>183</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C52" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="D52" s="1" t="s">
         <x:v>14</x:v>
@@ -2605,18 +2605,18 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="I52" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:9">
       <x:c r="A53" s="0" t="s">
-        <x:v>183</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C53" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="D53" s="1" t="s">
         <x:v>14</x:v>
@@ -2634,56 +2634,56 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="I53" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:9">
       <x:c r="A54" s="0" t="s">
-        <x:v>185</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C54" s="1" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="D54" s="1" t="s">
-        <x:v>187</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="E54" s="1" t="s">
         <x:v>29</x:v>
       </x:c>
       <x:c r="F54" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="G54" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="H54" s="1" t="s">
-        <x:v>188</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="I54" s="1" t="s">
-        <x:v>189</x:v>
+        <x:v>190</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:9">
       <x:c r="A55" s="0" t="s">
-        <x:v>185</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C55" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D55" s="1" t="s">
-        <x:v>190</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="E55" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="F55" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="G55" s="1" t="s">
         <x:v>19</x:v>
@@ -2692,27 +2692,27 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="I55" s="1" t="s">
-        <x:v>191</x:v>
+        <x:v>192</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:9">
       <x:c r="A56" s="0" t="s">
-        <x:v>185</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C56" s="1" t="s">
-        <x:v>192</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="D56" s="1" t="s">
-        <x:v>193</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="E56" s="1" t="s">
         <x:v>142</x:v>
       </x:c>
       <x:c r="F56" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="G56" s="1" t="s">
         <x:v>19</x:v>
@@ -2721,47 +2721,47 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="I56" s="1" t="s">
-        <x:v>194</x:v>
+        <x:v>195</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:9">
       <x:c r="A57" s="0" t="s">
-        <x:v>195</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C57" s="1" t="s">
-        <x:v>196</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="D57" s="1" t="s">
-        <x:v>197</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="E57" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="F57" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="G57" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H57" s="1" t="s">
-        <x:v>198</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="I57" s="1" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:9">
       <x:c r="A58" s="0" t="s">
-        <x:v>195</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C58" s="1" t="s">
-        <x:v>200</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="D58" s="1" t="s">
         <x:v>164</x:v>
@@ -2776,73 +2776,73 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H58" s="1" t="s">
-        <x:v>201</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="I58" s="1" t="s">
-        <x:v>202</x:v>
+        <x:v>203</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">
       <x:c r="A59" s="0" t="s">
-        <x:v>195</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C59" s="1" t="s">
-        <x:v>203</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="D59" s="1" t="s">
-        <x:v>204</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="E59" s="1" t="s">
-        <x:v>188</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="F59" s="1" t="s">
-        <x:v>114</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="G59" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H59" s="1" t="s">
-        <x:v>205</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="I59" s="1" t="s">
-        <x:v>206</x:v>
+        <x:v>207</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9">
       <x:c r="A60" s="0" t="s">
-        <x:v>207</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C60" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="D60" s="1" t="s">
-        <x:v>208</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E60" s="1" t="s">
-        <x:v>201</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="F60" s="1" t="s">
-        <x:v>209</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="G60" s="1" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H60" s="1" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="I60" s="1" t="s">
-        <x:v>210</x:v>
+        <x:v>211</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">
       <x:c r="A61" s="0" t="s">
-        <x:v>207</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
         <x:v>17</x:v>
@@ -2851,100 +2851,100 @@
         <x:v>170</x:v>
       </x:c>
       <x:c r="D61" s="1" t="s">
-        <x:v>211</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="E61" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F61" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G61" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="H61" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I61" s="1" t="s">
-        <x:v>212</x:v>
+        <x:v>213</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
       <x:c r="A62" s="0" t="s">
-        <x:v>207</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C62" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="D62" s="1" t="s">
-        <x:v>213</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="E62" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="F62" s="1" t="s">
-        <x:v>214</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="G62" s="1" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H62" s="1" t="s">
-        <x:v>112</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="I62" s="1" t="s">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:9">
       <x:c r="A63" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C63" s="1" t="s">
-        <x:v>217</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="D63" s="1" t="s">
-        <x:v>218</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="E63" s="1" t="s">
-        <x:v>219</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="F63" s="1" t="s">
-        <x:v>220</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="G63" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H63" s="1" t="s">
-        <x:v>221</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="I63" s="1" t="s">
-        <x:v>222</x:v>
+        <x:v>223</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:9">
       <x:c r="A64" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C64" s="1" t="s">
-        <x:v>223</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D64" s="1" t="s">
         <x:v>224</x:v>
       </x:c>
       <x:c r="E64" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="F64" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="G64" s="1" t="s">
         <x:v>19</x:v>
@@ -2958,7 +2958,7 @@
     </x:row>
     <x:row r="65" spans="1:9">
       <x:c r="A65" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
         <x:v>21</x:v>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -49,7 +49,7 @@
     <x:t>Adult</x:t>
   </x:si>
   <x:si>
-    <x:t>60</x:t>
+    <x:t>61</x:t>
   </x:si>
   <x:si>
     <x:t>20</x:t>
@@ -64,7 +64,7 @@
     <x:t>16</x:t>
   </x:si>
   <x:si>
-    <x:t>100</x:t>
+    <x:t>101</x:t>
   </x:si>
   <x:si>
     <x:t>Juvenile</x:t>
@@ -82,13 +82,13 @@
     <x:t>Total</x:t>
   </x:si>
   <x:si>
-    <x:t>63</x:t>
+    <x:t>64</x:t>
   </x:si>
   <x:si>
     <x:t>21</x:t>
   </x:si>
   <x:si>
-    <x:t>104</x:t>
+    <x:t>105</x:t>
   </x:si>
   <x:si>
     <x:t>Arson</x:t>
@@ -133,28 +133,28 @@
     <x:t>Assault Offenses</x:t>
   </x:si>
   <x:si>
-    <x:t>7730</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4707</x:t>
-  </x:si>
-  <x:si>
-    <x:t>379</x:t>
-  </x:si>
-  <x:si>
-    <x:t>703</x:t>
+    <x:t>7735</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4708</x:t>
+  </x:si>
+  <x:si>
+    <x:t>380</x:t>
+  </x:si>
+  <x:si>
+    <x:t>707</x:t>
   </x:si>
   <x:si>
     <x:t>28</x:t>
   </x:si>
   <x:si>
-    <x:t>1508</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15055</x:t>
-  </x:si>
-  <x:si>
-    <x:t>925</x:t>
+    <x:t>1511</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15069</x:t>
+  </x:si>
+  <x:si>
+    <x:t>927</x:t>
   </x:si>
   <x:si>
     <x:t>758</x:t>
@@ -163,72 +163,66 @@
     <x:t>164</x:t>
   </x:si>
   <x:si>
-    <x:t>279</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2164</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8655</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5465</x:t>
-  </x:si>
-  <x:si>
-    <x:t>413</x:t>
+    <x:t>280</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2167</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8662</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5466</x:t>
+  </x:si>
+  <x:si>
+    <x:t>414</x:t>
+  </x:si>
+  <x:si>
+    <x:t>871</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1791</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17236</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bribery</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Burglary/Breaking &amp; Entering</x:t>
+  </x:si>
+  <x:si>
+    <x:t>803</x:t>
+  </x:si>
+  <x:si>
+    <x:t>588</x:t>
+  </x:si>
+  <x:si>
+    <x:t>47</x:t>
+  </x:si>
+  <x:si>
+    <x:t>131</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1676</x:t>
+  </x:si>
+  <x:si>
+    <x:t>43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>148</x:t>
   </x:si>
   <x:si>
     <x:t>867</x:t>
   </x:si>
   <x:si>
-    <x:t>32</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1787</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17219</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bribery</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Burglary/Breaking &amp; Entering</x:t>
-  </x:si>
-  <x:si>
-    <x:t>801</x:t>
-  </x:si>
-  <x:si>
-    <x:t>588</x:t>
-  </x:si>
-  <x:si>
-    <x:t>47</x:t>
-  </x:si>
-  <x:si>
-    <x:t>105</x:t>
-  </x:si>
-  <x:si>
-    <x:t>131</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1674</x:t>
-  </x:si>
-  <x:si>
-    <x:t>64</x:t>
-  </x:si>
-  <x:si>
-    <x:t>43</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>148</x:t>
-  </x:si>
-  <x:si>
-    <x:t>865</x:t>
-  </x:si>
-  <x:si>
     <x:t>631</x:t>
   </x:si>
   <x:si>
@@ -238,7 +232,7 @@
     <x:t>142</x:t>
   </x:si>
   <x:si>
-    <x:t>1822</x:t>
+    <x:t>1824</x:t>
   </x:si>
   <x:si>
     <x:t>Counterfeiting/Forgery</x:t>
@@ -247,423 +241,417 @@
     <x:t>292</x:t>
   </x:si>
   <x:si>
+    <x:t>145</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>49</x:t>
+  </x:si>
+  <x:si>
+    <x:t>523</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>295</x:t>
+  </x:si>
+  <x:si>
+    <x:t>155</x:t>
+  </x:si>
+  <x:si>
+    <x:t>538</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Destruction/Damage/Vandalism of Property</x:t>
+  </x:si>
+  <x:si>
+    <x:t>870</x:t>
+  </x:si>
+  <x:si>
+    <x:t>460</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>93</x:t>
+  </x:si>
+  <x:si>
+    <x:t>180</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1643</x:t>
+  </x:si>
+  <x:si>
+    <x:t>211</x:t>
+  </x:si>
+  <x:si>
+    <x:t>103</x:t>
+  </x:si>
+  <x:si>
+    <x:t>48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>394</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1081</x:t>
+  </x:si>
+  <x:si>
+    <x:t>563</x:t>
+  </x:si>
+  <x:si>
+    <x:t>228</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2037</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Drug/Narcotic Violations</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4054</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2045</x:t>
+  </x:si>
+  <x:si>
+    <x:t>153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>569</x:t>
+  </x:si>
+  <x:si>
+    <x:t>914</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7756</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>179</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4159</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2076</x:t>
+  </x:si>
+  <x:si>
+    <x:t>161</x:t>
+  </x:si>
+  <x:si>
+    <x:t>571</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>946</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7935</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Embezzlement</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>72</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>91</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Extortion/Blackmail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fraud Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>760</x:t>
+  </x:si>
+  <x:si>
+    <x:t>294</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2291</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>88</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1033</x:t>
+  </x:si>
+  <x:si>
+    <x:t>795</x:t>
+  </x:si>
+  <x:si>
+    <x:t>167</x:t>
+  </x:si>
+  <x:si>
+    <x:t>310</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2379</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gambling Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Homicide Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36</x:t>
+  </x:si>
+  <x:si>
+    <x:t>82</x:t>
+  </x:si>
+  <x:si>
     <x:t>144</x:t>
   </x:si>
   <x:si>
-    <x:t>18</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19</x:t>
-  </x:si>
-  <x:si>
-    <x:t>49</x:t>
-  </x:si>
-  <x:si>
-    <x:t>522</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>295</x:t>
-  </x:si>
-  <x:si>
-    <x:t>154</x:t>
-  </x:si>
-  <x:si>
-    <x:t>537</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Destruction/Damage/Vandalism of Property</x:t>
-  </x:si>
-  <x:si>
-    <x:t>866</x:t>
-  </x:si>
-  <x:si>
-    <x:t>460</x:t>
-  </x:si>
-  <x:si>
-    <x:t>39</x:t>
-  </x:si>
-  <x:si>
-    <x:t>92</x:t>
-  </x:si>
-  <x:si>
-    <x:t>180</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1638</x:t>
-  </x:si>
-  <x:si>
-    <x:t>210</x:t>
-  </x:si>
-  <x:si>
-    <x:t>102</x:t>
-  </x:si>
-  <x:si>
-    <x:t>48</x:t>
-  </x:si>
-  <x:si>
-    <x:t>392</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1076</x:t>
-  </x:si>
-  <x:si>
-    <x:t>562</x:t>
-  </x:si>
-  <x:si>
-    <x:t>120</x:t>
-  </x:si>
-  <x:si>
-    <x:t>228</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2030</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Drug/Narcotic Violations</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4041</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2043</x:t>
-  </x:si>
-  <x:si>
-    <x:t>153</x:t>
-  </x:si>
-  <x:si>
-    <x:t>568</x:t>
-  </x:si>
-  <x:si>
-    <x:t>914</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7740</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31</x:t>
-  </x:si>
-  <x:si>
-    <x:t>179</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4146</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2074</x:t>
-  </x:si>
-  <x:si>
-    <x:t>161</x:t>
-  </x:si>
-  <x:si>
-    <x:t>570</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>946</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7919</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Embezzlement</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>70</x:t>
-  </x:si>
-  <x:si>
-    <x:t>37</x:t>
+    <x:t>Human Trafficking</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kidnapping/Abduction</x:t>
+  </x:si>
+  <x:si>
+    <x:t>45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>122</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Larceny/Theft Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7701</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5046</x:t>
+  </x:si>
+  <x:si>
+    <x:t>298</x:t>
+  </x:si>
+  <x:si>
+    <x:t>834</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15416</x:t>
+  </x:si>
+  <x:si>
+    <x:t>715</x:t>
+  </x:si>
+  <x:si>
+    <x:t>623</x:t>
+  </x:si>
+  <x:si>
+    <x:t>59</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1588</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8416</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5669</x:t>
+  </x:si>
+  <x:si>
+    <x:t>335</x:t>
+  </x:si>
+  <x:si>
+    <x:t>893</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1664</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17004</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Motor Vehicle Theft</x:t>
+  </x:si>
+  <x:si>
+    <x:t>265</x:t>
+  </x:si>
+  <x:si>
+    <x:t>171</x:t>
+  </x:si>
+  <x:si>
+    <x:t>56</x:t>
+  </x:si>
+  <x:si>
+    <x:t>561</x:t>
+  </x:si>
+  <x:si>
+    <x:t>112</x:t>
+  </x:si>
+  <x:si>
+    <x:t>184</x:t>
+  </x:si>
+  <x:si>
+    <x:t>301</x:t>
+  </x:si>
+  <x:si>
+    <x:t>283</x:t>
+  </x:si>
+  <x:si>
+    <x:t>745</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pornography/Obscene Material</x:t>
+  </x:si>
+  <x:si>
+    <x:t>158</x:t>
+  </x:si>
+  <x:si>
+    <x:t>133</x:t>
+  </x:si>
+  <x:si>
+    <x:t>189</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Prostitution Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Robbery</x:t>
+  </x:si>
+  <x:si>
+    <x:t>96</x:t>
+  </x:si>
+  <x:si>
+    <x:t>374</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>526</x:t>
+  </x:si>
+  <x:si>
+    <x:t>157</x:t>
+  </x:si>
+  <x:si>
+    <x:t>205</x:t>
+  </x:si>
+  <x:si>
+    <x:t>115</x:t>
+  </x:si>
+  <x:si>
+    <x:t>531</x:t>
+  </x:si>
+  <x:si>
+    <x:t>731</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sex Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>453</x:t>
+  </x:si>
+  <x:si>
+    <x:t>216</x:t>
   </x:si>
   <x:si>
     <x:t>23</x:t>
   </x:si>
   <x:si>
-    <x:t>89</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Extortion/Blackmail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fraud Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>997</x:t>
+    <x:t>117</x:t>
+  </x:si>
+  <x:si>
+    <x:t>831</x:t>
+  </x:si>
+  <x:si>
+    <x:t>68</x:t>
+  </x:si>
+  <x:si>
+    <x:t>41</x:t>
+  </x:si>
+  <x:si>
+    <x:t>141</x:t>
+  </x:si>
+  <x:si>
+    <x:t>521</x:t>
+  </x:si>
+  <x:si>
+    <x:t>243</x:t>
+  </x:si>
+  <x:si>
+    <x:t>972</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stolen Property Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>536</x:t>
+  </x:si>
+  <x:si>
+    <x:t>40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>79</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1260</x:t>
+  </x:si>
+  <x:si>
+    <x:t>129</x:t>
+  </x:si>
+  <x:si>
+    <x:t>191</x:t>
+  </x:si>
+  <x:si>
+    <x:t>560</x:t>
+  </x:si>
+  <x:si>
+    <x:t>589</x:t>
+  </x:si>
+  <x:si>
+    <x:t>90</x:t>
   </x:si>
   <x:si>
     <x:t>160</x:t>
   </x:si>
   <x:si>
-    <x:t>290</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2279</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35</x:t>
-  </x:si>
-  <x:si>
-    <x:t>88</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1028</x:t>
-  </x:si>
-  <x:si>
-    <x:t>793</x:t>
-  </x:si>
-  <x:si>
-    <x:t>166</x:t>
-  </x:si>
-  <x:si>
-    <x:t>306</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2367</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gambling Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Homicide Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>36</x:t>
-  </x:si>
-  <x:si>
-    <x:t>82</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>91</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Human Trafficking</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kidnapping/Abduction</x:t>
-  </x:si>
-  <x:si>
-    <x:t>45</x:t>
-  </x:si>
-  <x:si>
-    <x:t>122</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Larceny/Theft Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7695</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5038</x:t>
-  </x:si>
-  <x:si>
-    <x:t>298</x:t>
-  </x:si>
-  <x:si>
-    <x:t>831</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1511</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15399</x:t>
-  </x:si>
-  <x:si>
-    <x:t>714</x:t>
-  </x:si>
-  <x:si>
-    <x:t>620</x:t>
-  </x:si>
-  <x:si>
-    <x:t>59</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1584</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8409</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5658</x:t>
-  </x:si>
-  <x:si>
-    <x:t>335</x:t>
-  </x:si>
-  <x:si>
-    <x:t>890</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1664</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16983</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Motor Vehicle Theft</x:t>
-  </x:si>
-  <x:si>
-    <x:t>265</x:t>
-  </x:si>
-  <x:si>
-    <x:t>171</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24</x:t>
-  </x:si>
-  <x:si>
-    <x:t>42</x:t>
-  </x:si>
-  <x:si>
-    <x:t>56</x:t>
-  </x:si>
-  <x:si>
-    <x:t>560</x:t>
-  </x:si>
-  <x:si>
-    <x:t>112</x:t>
-  </x:si>
-  <x:si>
-    <x:t>184</x:t>
-  </x:si>
-  <x:si>
-    <x:t>301</x:t>
-  </x:si>
-  <x:si>
-    <x:t>283</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58</x:t>
-  </x:si>
-  <x:si>
-    <x:t>744</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pornography/Obscene Material</x:t>
-  </x:si>
-  <x:si>
-    <x:t>158</x:t>
-  </x:si>
-  <x:si>
-    <x:t>133</x:t>
-  </x:si>
-  <x:si>
-    <x:t>189</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Prostitution Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Robbery</x:t>
-  </x:si>
-  <x:si>
-    <x:t>96</x:t>
-  </x:si>
-  <x:si>
-    <x:t>374</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>526</x:t>
-  </x:si>
-  <x:si>
-    <x:t>157</x:t>
-  </x:si>
-  <x:si>
-    <x:t>205</x:t>
-  </x:si>
-  <x:si>
-    <x:t>115</x:t>
-  </x:si>
-  <x:si>
-    <x:t>531</x:t>
-  </x:si>
-  <x:si>
-    <x:t>731</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sex Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>452</x:t>
-  </x:si>
-  <x:si>
-    <x:t>216</x:t>
-  </x:si>
-  <x:si>
-    <x:t>116</x:t>
-  </x:si>
-  <x:si>
-    <x:t>828</x:t>
-  </x:si>
-  <x:si>
-    <x:t>68</x:t>
-  </x:si>
-  <x:si>
-    <x:t>40</x:t>
-  </x:si>
-  <x:si>
-    <x:t>140</x:t>
-  </x:si>
-  <x:si>
-    <x:t>520</x:t>
-  </x:si>
-  <x:si>
-    <x:t>243</x:t>
-  </x:si>
-  <x:si>
-    <x:t>156</x:t>
-  </x:si>
-  <x:si>
-    <x:t>968</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stolen Property Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>536</x:t>
-  </x:si>
-  <x:si>
-    <x:t>79</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1260</x:t>
-  </x:si>
-  <x:si>
-    <x:t>129</x:t>
-  </x:si>
-  <x:si>
-    <x:t>191</x:t>
-  </x:si>
-  <x:si>
-    <x:t>589</x:t>
-  </x:si>
-  <x:si>
-    <x:t>90</x:t>
-  </x:si>
-  <x:si>
     <x:t>1451</x:t>
   </x:si>
   <x:si>
@@ -679,22 +667,22 @@
     <x:t>55</x:t>
   </x:si>
   <x:si>
-    <x:t>74</x:t>
+    <x:t>73</x:t>
   </x:si>
   <x:si>
     <x:t>371</x:t>
   </x:si>
   <x:si>
-    <x:t>2159</x:t>
+    <x:t>2158</x:t>
   </x:si>
   <x:si>
     <x:t>174</x:t>
   </x:si>
   <x:si>
-    <x:t>281</x:t>
-  </x:si>
-  <x:si>
-    <x:t>761</x:t>
+    <x:t>282</x:t>
+  </x:si>
+  <x:si>
+    <x:t>762</x:t>
   </x:si>
   <x:si>
     <x:t>1130</x:t>
@@ -703,7 +691,7 @@
     <x:t>65</x:t>
   </x:si>
   <x:si>
-    <x:t>84</x:t>
+    <x:t>83</x:t>
   </x:si>
   <x:si>
     <x:t>398</x:t>
@@ -1465,16 +1453,16 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="F13" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G13" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H13" s="1" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="I13" s="1" t="s">
         <x:v>64</x:v>
-      </x:c>
-      <x:c r="I13" s="1" t="s">
-        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
@@ -1485,16 +1473,16 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C14" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D14" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E14" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="F14" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="G14" s="1" t="s">
         <x:v>19</x:v>
@@ -1503,7 +1491,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="I14" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
@@ -1514,59 +1502,59 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C15" s="1" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="D15" s="1" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="E15" s="1" t="s">
         <x:v>70</x:v>
       </x:c>
-      <x:c r="D15" s="1" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="E15" s="1" t="s">
-        <x:v>72</x:v>
-      </x:c>
       <x:c r="F15" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="G15" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H15" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="I15" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
       <x:c r="A16" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="1" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="D16" s="1" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="E16" s="1" t="s">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="D16" s="1" t="s">
+      <x:c r="F16" s="1" t="s">
         <x:v>77</x:v>
       </x:c>
-      <x:c r="E16" s="1" t="s">
+      <x:c r="G16" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H16" s="1" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="F16" s="1" t="s">
+      <x:c r="I16" s="1" t="s">
         <x:v>79</x:v>
-      </x:c>
-      <x:c r="G16" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="H16" s="1" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="I16" s="1" t="s">
-        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
       <x:c r="A17" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
         <x:v>17</x:v>
@@ -1575,7 +1563,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="D17" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E17" s="1" t="s">
         <x:v>19</x:v>
@@ -1590,79 +1578,79 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="I17" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
       <x:c r="A18" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C18" s="1" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="D18" s="1" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="E18" s="1" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="F18" s="1" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="G18" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H18" s="1" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="I18" s="1" t="s">
         <x:v>84</x:v>
-      </x:c>
-      <x:c r="D18" s="1" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="E18" s="1" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="F18" s="1" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="G18" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="H18" s="1" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="I18" s="1" t="s">
-        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
       <x:c r="A19" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C19" s="1" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="D19" s="1" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="E19" s="1" t="s">
         <x:v>88</x:v>
       </x:c>
-      <x:c r="D19" s="1" t="s">
+      <x:c r="F19" s="1" t="s">
         <x:v>89</x:v>
       </x:c>
-      <x:c r="E19" s="1" t="s">
+      <x:c r="G19" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H19" s="1" t="s">
         <x:v>90</x:v>
       </x:c>
-      <x:c r="F19" s="1" t="s">
+      <x:c r="I19" s="1" t="s">
         <x:v>91</x:v>
-      </x:c>
-      <x:c r="G19" s="1" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="H19" s="1" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="I19" s="1" t="s">
-        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
       <x:c r="A20" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C20" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="D20" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="E20" s="1" t="s">
         <x:v>20</x:v>
@@ -1674,82 +1662,82 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H20" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="I20" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
       <x:c r="A21" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C21" s="1" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="D21" s="1" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="E21" s="1" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="F21" s="1" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G21" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H21" s="1" t="s">
         <x:v>98</x:v>
       </x:c>
-      <x:c r="D21" s="1" t="s">
+      <x:c r="I21" s="1" t="s">
         <x:v>99</x:v>
-      </x:c>
-      <x:c r="E21" s="1" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="F21" s="1" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="G21" s="1" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="H21" s="1" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="I21" s="1" t="s">
-        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
       <x:c r="A22" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="D22" s="1" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="E22" s="1" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="F22" s="1" t="s">
         <x:v>104</x:v>
-      </x:c>
-      <x:c r="D22" s="1" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="E22" s="1" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="F22" s="1" t="s">
-        <x:v>107</x:v>
       </x:c>
       <x:c r="G22" s="1" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="H22" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="I22" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
       <x:c r="A23" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C23" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D23" s="1" t="s">
-        <x:v>110</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E23" s="1" t="s">
         <x:v>28</x:v>
@@ -1764,50 +1752,50 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="I23" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
       <x:c r="A24" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C24" s="1" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="D24" s="1" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="E24" s="1" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="F24" s="1" t="s">
         <x:v>112</x:v>
       </x:c>
-      <x:c r="D24" s="1" t="s">
+      <x:c r="G24" s="1" t="s">
         <x:v>113</x:v>
       </x:c>
-      <x:c r="E24" s="1" t="s">
+      <x:c r="H24" s="1" t="s">
         <x:v>114</x:v>
       </x:c>
-      <x:c r="F24" s="1" t="s">
+      <x:c r="I24" s="1" t="s">
         <x:v>115</x:v>
-      </x:c>
-      <x:c r="G24" s="1" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="H24" s="1" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="I24" s="1" t="s">
-        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
       <x:c r="A25" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C25" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D25" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="E25" s="1" t="s">
         <x:v>18</x:v>
@@ -1819,15 +1807,15 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H25" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="I25" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
       <x:c r="A26" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
         <x:v>17</x:v>
@@ -1851,21 +1839,21 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="I26" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:9">
       <x:c r="A27" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C27" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D27" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="E27" s="1" t="s">
         <x:v>18</x:v>
@@ -1877,15 +1865,15 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H27" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="I27" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>123</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:9">
       <x:c r="A28" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
         <x:v>10</x:v>
@@ -1914,7 +1902,7 @@
     </x:row>
     <x:row r="29" spans="1:9">
       <x:c r="A29" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
         <x:v>21</x:v>
@@ -1943,45 +1931,45 @@
     </x:row>
     <x:row r="30" spans="1:9">
       <x:c r="A30" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C30" s="1" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="D30" s="1" t="s">
         <x:v>127</x:v>
-      </x:c>
-      <x:c r="D30" s="1" t="s">
-        <x:v>47</x:v>
       </x:c>
       <x:c r="E30" s="1" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="F30" s="1" t="s">
-        <x:v>128</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="G30" s="1" t="s">
         <x:v>29</x:v>
       </x:c>
       <x:c r="H30" s="1" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="I30" s="1" t="s">
         <x:v>129</x:v>
-      </x:c>
-      <x:c r="I30" s="1" t="s">
-        <x:v>130</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:9">
       <x:c r="A31" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C31" s="1" t="s">
-        <x:v>110</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="D31" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="E31" s="1" t="s">
         <x:v>19</x:v>
@@ -1996,41 +1984,41 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="I31" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>131</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
       <x:c r="A32" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C32" s="1" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="D32" s="1" t="s">
         <x:v>133</x:v>
-      </x:c>
-      <x:c r="D32" s="1" t="s">
-        <x:v>134</x:v>
       </x:c>
       <x:c r="E32" s="1" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="F32" s="1" t="s">
-        <x:v>135</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="G32" s="1" t="s">
         <x:v>29</x:v>
       </x:c>
       <x:c r="H32" s="1" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="I32" s="1" t="s">
         <x:v>136</x:v>
-      </x:c>
-      <x:c r="I32" s="1" t="s">
-        <x:v>137</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:9">
       <x:c r="A33" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
         <x:v>10</x:v>
@@ -2059,7 +2047,7 @@
     </x:row>
     <x:row r="34" spans="1:9">
       <x:c r="A34" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
         <x:v>17</x:v>
@@ -2088,7 +2076,7 @@
     </x:row>
     <x:row r="35" spans="1:9">
       <x:c r="A35" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
         <x:v>21</x:v>
@@ -2117,16 +2105,16 @@
     </x:row>
     <x:row r="36" spans="1:9">
       <x:c r="A36" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C36" s="1" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="D36" s="1" t="s">
         <x:v>140</x:v>
-      </x:c>
-      <x:c r="D36" s="1" t="s">
-        <x:v>141</x:v>
       </x:c>
       <x:c r="E36" s="1" t="s">
         <x:v>20</x:v>
@@ -2138,15 +2126,15 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H36" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="I36" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>141</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:9">
       <x:c r="A37" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
         <x:v>17</x:v>
@@ -2170,21 +2158,21 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="I37" s="1" t="s">
-        <x:v>142</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:9">
       <x:c r="A38" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C38" s="1" t="s">
-        <x:v>90</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D38" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="E38" s="1" t="s">
         <x:v>29</x:v>
@@ -2199,21 +2187,21 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I38" s="1" t="s">
-        <x:v>114</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:9">
       <x:c r="A39" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C39" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D39" s="1" t="s">
-        <x:v>145</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="E39" s="1" t="s">
         <x:v>18</x:v>
@@ -2228,21 +2216,21 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="I39" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>130</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:9">
       <x:c r="A40" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C40" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D40" s="1" t="s">
-        <x:v>145</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="E40" s="1" t="s">
         <x:v>18</x:v>
@@ -2257,21 +2245,21 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="I40" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>130</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:9">
       <x:c r="A41" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C41" s="1" t="s">
-        <x:v>147</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="D41" s="1" t="s">
-        <x:v>72</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E41" s="1" t="s">
         <x:v>30</x:v>
@@ -2286,21 +2274,21 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="I41" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>146</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9">
       <x:c r="A42" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C42" s="1" t="s">
-        <x:v>147</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="D42" s="1" t="s">
-        <x:v>72</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E42" s="1" t="s">
         <x:v>30</x:v>
@@ -2315,137 +2303,137 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="I42" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>146</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:9">
       <x:c r="A43" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C43" s="1" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="D43" s="1" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="E43" s="1" t="s">
         <x:v>150</x:v>
       </x:c>
-      <x:c r="D43" s="1" t="s">
+      <x:c r="F43" s="1" t="s">
         <x:v>151</x:v>
       </x:c>
-      <x:c r="E43" s="1" t="s">
+      <x:c r="G43" s="1" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="H43" s="1" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="I43" s="1" t="s">
         <x:v>152</x:v>
-      </x:c>
-      <x:c r="F43" s="1" t="s">
-        <x:v>153</x:v>
-      </x:c>
-      <x:c r="G43" s="1" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="H43" s="1" t="s">
-        <x:v>154</x:v>
-      </x:c>
-      <x:c r="I43" s="1" t="s">
-        <x:v>155</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:9">
       <x:c r="A44" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C44" s="1" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="D44" s="1" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="E44" s="1" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="F44" s="1" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="G44" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H44" s="1" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="I44" s="1" t="s">
         <x:v>156</x:v>
-      </x:c>
-      <x:c r="D44" s="1" t="s">
-        <x:v>157</x:v>
-      </x:c>
-      <x:c r="E44" s="1" t="s">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="F44" s="1" t="s">
-        <x:v>158</x:v>
-      </x:c>
-      <x:c r="G44" s="1" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="H44" s="1" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="I44" s="1" t="s">
-        <x:v>159</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:9">
       <x:c r="A45" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C45" s="1" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="D45" s="1" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="E45" s="1" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="F45" s="1" t="s">
         <x:v>160</x:v>
       </x:c>
-      <x:c r="D45" s="1" t="s">
+      <x:c r="G45" s="1" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="H45" s="1" t="s">
         <x:v>161</x:v>
       </x:c>
-      <x:c r="E45" s="1" t="s">
+      <x:c r="I45" s="1" t="s">
         <x:v>162</x:v>
-      </x:c>
-      <x:c r="F45" s="1" t="s">
-        <x:v>163</x:v>
-      </x:c>
-      <x:c r="G45" s="1" t="s">
-        <x:v>164</x:v>
-      </x:c>
-      <x:c r="H45" s="1" t="s">
-        <x:v>165</x:v>
-      </x:c>
-      <x:c r="I45" s="1" t="s">
-        <x:v>166</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
       <x:c r="A46" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C46" s="1" t="s">
-        <x:v>168</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="D46" s="1" t="s">
-        <x:v>169</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="E46" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="F46" s="1" t="s">
-        <x:v>171</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="G46" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H46" s="1" t="s">
-        <x:v>172</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="I46" s="1" t="s">
-        <x:v>173</x:v>
+        <x:v>167</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
       <x:c r="A47" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C47" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="D47" s="1" t="s">
-        <x:v>174</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="E47" s="1" t="s">
         <x:v>30</x:v>
@@ -2457,30 +2445,30 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H47" s="1" t="s">
-        <x:v>145</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="I47" s="1" t="s">
-        <x:v>175</x:v>
+        <x:v>169</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
       <x:c r="A48" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C48" s="1" t="s">
-        <x:v>176</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="D48" s="1" t="s">
-        <x:v>177</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="E48" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="F48" s="1" t="s">
-        <x:v>178</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="G48" s="1" t="s">
         <x:v>18</x:v>
@@ -2489,21 +2477,21 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="I48" s="1" t="s">
-        <x:v>179</x:v>
+        <x:v>172</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:9">
       <x:c r="A49" s="0" t="s">
-        <x:v>180</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C49" s="1" t="s">
-        <x:v>174</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="D49" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E49" s="1" t="s">
         <x:v>13</x:v>
@@ -2515,15 +2503,15 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H49" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="I49" s="1" t="s">
-        <x:v>181</x:v>
+        <x:v>174</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:9">
       <x:c r="A50" s="0" t="s">
-        <x:v>180</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
         <x:v>17</x:v>
@@ -2547,18 +2535,18 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="I50" s="1" t="s">
-        <x:v>110</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:9">
       <x:c r="A51" s="0" t="s">
-        <x:v>180</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C51" s="1" t="s">
-        <x:v>182</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="D51" s="1" t="s">
         <x:v>23</x:v>
@@ -2573,21 +2561,21 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H51" s="1" t="s">
-        <x:v>110</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="I51" s="1" t="s">
-        <x:v>183</x:v>
+        <x:v>176</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:9">
       <x:c r="A52" s="0" t="s">
-        <x:v>184</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C52" s="1" t="s">
-        <x:v>185</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="D52" s="1" t="s">
         <x:v>14</x:v>
@@ -2605,18 +2593,18 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="I52" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:9">
       <x:c r="A53" s="0" t="s">
-        <x:v>184</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C53" s="1" t="s">
-        <x:v>185</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="D53" s="1" t="s">
         <x:v>14</x:v>
@@ -2634,53 +2622,53 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="I53" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:9">
       <x:c r="A54" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C54" s="1" t="s">
-        <x:v>187</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="D54" s="1" t="s">
-        <x:v>188</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="E54" s="1" t="s">
         <x:v>29</x:v>
       </x:c>
       <x:c r="F54" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="G54" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="H54" s="1" t="s">
-        <x:v>189</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="I54" s="1" t="s">
-        <x:v>190</x:v>
+        <x:v>183</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:9">
       <x:c r="A55" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C55" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D55" s="1" t="s">
-        <x:v>191</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="E55" s="1" t="s">
-        <x:v>185</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="F55" s="1" t="s">
         <x:v>32</x:v>
@@ -2692,27 +2680,27 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="I55" s="1" t="s">
-        <x:v>192</x:v>
+        <x:v>185</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:9">
       <x:c r="A56" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C56" s="1" t="s">
-        <x:v>193</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="D56" s="1" t="s">
-        <x:v>194</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="E56" s="1" t="s">
-        <x:v>142</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="F56" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="G56" s="1" t="s">
         <x:v>19</x:v>
@@ -2721,50 +2709,50 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="I56" s="1" t="s">
-        <x:v>195</x:v>
+        <x:v>188</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:9">
       <x:c r="A57" s="0" t="s">
-        <x:v>196</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C57" s="1" t="s">
-        <x:v>197</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="D57" s="1" t="s">
-        <x:v>198</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="E57" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="F57" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G57" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H57" s="1" t="s">
-        <x:v>199</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="I57" s="1" t="s">
-        <x:v>200</x:v>
+        <x:v>194</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:9">
       <x:c r="A58" s="0" t="s">
-        <x:v>196</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C58" s="1" t="s">
-        <x:v>201</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="D58" s="1" t="s">
-        <x:v>164</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="E58" s="1" t="s">
         <x:v>13</x:v>
@@ -2776,82 +2764,82 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H58" s="1" t="s">
-        <x:v>202</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="I58" s="1" t="s">
-        <x:v>203</x:v>
+        <x:v>197</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">
       <x:c r="A59" s="0" t="s">
-        <x:v>196</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C59" s="1" t="s">
-        <x:v>204</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="D59" s="1" t="s">
-        <x:v>205</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="E59" s="1" t="s">
-        <x:v>189</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="F59" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="G59" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H59" s="1" t="s">
-        <x:v>206</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="I59" s="1" t="s">
-        <x:v>207</x:v>
+        <x:v>200</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9">
       <x:c r="A60" s="0" t="s">
-        <x:v>208</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C60" s="1" t="s">
-        <x:v>209</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="D60" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E60" s="1" t="s">
-        <x:v>202</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="F60" s="1" t="s">
-        <x:v>210</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="G60" s="1" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H60" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="I60" s="1" t="s">
-        <x:v>211</x:v>
+        <x:v>205</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">
       <x:c r="A61" s="0" t="s">
-        <x:v>208</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C61" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="D61" s="1" t="s">
-        <x:v>212</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="E61" s="1" t="s">
         <x:v>32</x:v>
@@ -2863,73 +2851,73 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H61" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="I61" s="1" t="s">
-        <x:v>213</x:v>
+        <x:v>207</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
       <x:c r="A62" s="0" t="s">
-        <x:v>208</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C62" s="1" t="s">
-        <x:v>173</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="D62" s="1" t="s">
-        <x:v>214</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="E62" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="F62" s="1" t="s">
-        <x:v>215</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="G62" s="1" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H62" s="1" t="s">
-        <x:v>128</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="I62" s="1" t="s">
-        <x:v>216</x:v>
+        <x:v>212</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:9">
       <x:c r="A63" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C63" s="1" t="s">
-        <x:v>218</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="D63" s="1" t="s">
-        <x:v>219</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="E63" s="1" t="s">
-        <x:v>220</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="F63" s="1" t="s">
-        <x:v>221</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="G63" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H63" s="1" t="s">
-        <x:v>222</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="I63" s="1" t="s">
-        <x:v>223</x:v>
+        <x:v>219</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:9">
       <x:c r="A64" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
         <x:v>17</x:v>
@@ -2938,51 +2926,51 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D64" s="1" t="s">
-        <x:v>224</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="E64" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="F64" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="G64" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="H64" s="1" t="s">
-        <x:v>164</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="I64" s="1" t="s">
-        <x:v>225</x:v>
+        <x:v>221</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:9">
       <x:c r="A65" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C65" s="1" t="s">
-        <x:v>226</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="D65" s="1" t="s">
-        <x:v>227</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="E65" s="1" t="s">
-        <x:v>228</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="F65" s="1" t="s">
-        <x:v>229</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="G65" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H65" s="1" t="s">
-        <x:v>230</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="I65" s="1" t="s">
-        <x:v>231</x:v>
+        <x:v>227</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -133,16 +133,16 @@
     <x:t>Assault Offenses</x:t>
   </x:si>
   <x:si>
-    <x:t>7735</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4708</x:t>
+    <x:t>7736</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4710</x:t>
   </x:si>
   <x:si>
     <x:t>380</x:t>
   </x:si>
   <x:si>
-    <x:t>707</x:t>
+    <x:t>706</x:t>
   </x:si>
   <x:si>
     <x:t>28</x:t>
@@ -151,13 +151,13 @@
     <x:t>1511</x:t>
   </x:si>
   <x:si>
-    <x:t>15069</x:t>
-  </x:si>
-  <x:si>
-    <x:t>927</x:t>
-  </x:si>
-  <x:si>
-    <x:t>758</x:t>
+    <x:t>15071</x:t>
+  </x:si>
+  <x:si>
+    <x:t>928</x:t>
+  </x:si>
+  <x:si>
+    <x:t>759</x:t>
   </x:si>
   <x:si>
     <x:t>164</x:t>
@@ -166,19 +166,19 @@
     <x:t>280</x:t>
   </x:si>
   <x:si>
-    <x:t>2167</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8662</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5466</x:t>
+    <x:t>2169</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8664</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5469</x:t>
   </x:si>
   <x:si>
     <x:t>414</x:t>
   </x:si>
   <x:si>
-    <x:t>871</x:t>
+    <x:t>870</x:t>
   </x:si>
   <x:si>
     <x:t>32</x:t>
@@ -187,7 +187,7 @@
     <x:t>1791</x:t>
   </x:si>
   <x:si>
-    <x:t>17236</x:t>
+    <x:t>17240</x:t>
   </x:si>
   <x:si>
     <x:t>Bribery</x:t>
@@ -274,357 +274,360 @@
     <x:t>Destruction/Damage/Vandalism of Property</x:t>
   </x:si>
   <x:si>
-    <x:t>870</x:t>
+    <x:t>869</x:t>
+  </x:si>
+  <x:si>
+    <x:t>461</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>93</x:t>
+  </x:si>
+  <x:si>
+    <x:t>180</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1643</x:t>
+  </x:si>
+  <x:si>
+    <x:t>211</x:t>
+  </x:si>
+  <x:si>
+    <x:t>103</x:t>
+  </x:si>
+  <x:si>
+    <x:t>48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>394</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1080</x:t>
+  </x:si>
+  <x:si>
+    <x:t>564</x:t>
+  </x:si>
+  <x:si>
+    <x:t>228</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2037</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Drug/Narcotic Violations</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4059</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2048</x:t>
+  </x:si>
+  <x:si>
+    <x:t>154</x:t>
+  </x:si>
+  <x:si>
+    <x:t>569</x:t>
+  </x:si>
+  <x:si>
+    <x:t>915</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7766</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>179</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4164</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2079</x:t>
+  </x:si>
+  <x:si>
+    <x:t>162</x:t>
+  </x:si>
+  <x:si>
+    <x:t>571</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>947</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7945</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Embezzlement</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>72</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>91</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Extortion/Blackmail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fraud Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1003</x:t>
+  </x:si>
+  <x:si>
+    <x:t>161</x:t>
+  </x:si>
+  <x:si>
+    <x:t>294</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2291</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>88</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1034</x:t>
+  </x:si>
+  <x:si>
+    <x:t>794</x:t>
+  </x:si>
+  <x:si>
+    <x:t>167</x:t>
+  </x:si>
+  <x:si>
+    <x:t>310</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2379</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gambling Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Homicide Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36</x:t>
+  </x:si>
+  <x:si>
+    <x:t>82</x:t>
+  </x:si>
+  <x:si>
+    <x:t>144</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Human Trafficking</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kidnapping/Abduction</x:t>
+  </x:si>
+  <x:si>
+    <x:t>45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>122</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Larceny/Theft Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7713</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5049</x:t>
+  </x:si>
+  <x:si>
+    <x:t>299</x:t>
+  </x:si>
+  <x:si>
+    <x:t>835</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1513</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15435</x:t>
+  </x:si>
+  <x:si>
+    <x:t>715</x:t>
+  </x:si>
+  <x:si>
+    <x:t>624</x:t>
+  </x:si>
+  <x:si>
+    <x:t>59</x:t>
+  </x:si>
+  <x:si>
+    <x:t>153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1589</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8428</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5673</x:t>
+  </x:si>
+  <x:si>
+    <x:t>336</x:t>
+  </x:si>
+  <x:si>
+    <x:t>894</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1666</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Motor Vehicle Theft</x:t>
+  </x:si>
+  <x:si>
+    <x:t>265</x:t>
+  </x:si>
+  <x:si>
+    <x:t>171</x:t>
+  </x:si>
+  <x:si>
+    <x:t>56</x:t>
+  </x:si>
+  <x:si>
+    <x:t>561</x:t>
+  </x:si>
+  <x:si>
+    <x:t>112</x:t>
+  </x:si>
+  <x:si>
+    <x:t>184</x:t>
+  </x:si>
+  <x:si>
+    <x:t>301</x:t>
+  </x:si>
+  <x:si>
+    <x:t>283</x:t>
+  </x:si>
+  <x:si>
+    <x:t>745</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pornography/Obscene Material</x:t>
+  </x:si>
+  <x:si>
+    <x:t>158</x:t>
+  </x:si>
+  <x:si>
+    <x:t>133</x:t>
+  </x:si>
+  <x:si>
+    <x:t>189</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Prostitution Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Robbery</x:t>
+  </x:si>
+  <x:si>
+    <x:t>96</x:t>
+  </x:si>
+  <x:si>
+    <x:t>374</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>526</x:t>
+  </x:si>
+  <x:si>
+    <x:t>157</x:t>
+  </x:si>
+  <x:si>
+    <x:t>205</x:t>
+  </x:si>
+  <x:si>
+    <x:t>115</x:t>
+  </x:si>
+  <x:si>
+    <x:t>531</x:t>
+  </x:si>
+  <x:si>
+    <x:t>731</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sex Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>453</x:t>
+  </x:si>
+  <x:si>
+    <x:t>217</x:t>
+  </x:si>
+  <x:si>
+    <x:t>117</x:t>
+  </x:si>
+  <x:si>
+    <x:t>833</x:t>
+  </x:si>
+  <x:si>
+    <x:t>41</x:t>
+  </x:si>
+  <x:si>
+    <x:t>522</x:t>
+  </x:si>
+  <x:si>
+    <x:t>244</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>975</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stolen Property Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>536</x:t>
   </x:si>
   <x:si>
     <x:t>460</x:t>
   </x:si>
   <x:si>
-    <x:t>39</x:t>
-  </x:si>
-  <x:si>
-    <x:t>93</x:t>
-  </x:si>
-  <x:si>
-    <x:t>180</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1643</x:t>
-  </x:si>
-  <x:si>
-    <x:t>211</x:t>
-  </x:si>
-  <x:si>
-    <x:t>103</x:t>
-  </x:si>
-  <x:si>
-    <x:t>48</x:t>
-  </x:si>
-  <x:si>
-    <x:t>394</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1081</x:t>
-  </x:si>
-  <x:si>
-    <x:t>563</x:t>
-  </x:si>
-  <x:si>
-    <x:t>228</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2037</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Drug/Narcotic Violations</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4054</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2045</x:t>
-  </x:si>
-  <x:si>
-    <x:t>153</x:t>
-  </x:si>
-  <x:si>
-    <x:t>569</x:t>
-  </x:si>
-  <x:si>
-    <x:t>914</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7756</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31</x:t>
-  </x:si>
-  <x:si>
-    <x:t>179</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4159</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2076</x:t>
-  </x:si>
-  <x:si>
-    <x:t>161</x:t>
-  </x:si>
-  <x:si>
-    <x:t>571</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>946</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7935</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Embezzlement</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>72</x:t>
-  </x:si>
-  <x:si>
-    <x:t>37</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27</x:t>
-  </x:si>
-  <x:si>
-    <x:t>91</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Extortion/Blackmail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fraud Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1002</x:t>
-  </x:si>
-  <x:si>
-    <x:t>760</x:t>
-  </x:si>
-  <x:si>
-    <x:t>294</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2291</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35</x:t>
-  </x:si>
-  <x:si>
-    <x:t>88</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1033</x:t>
-  </x:si>
-  <x:si>
-    <x:t>795</x:t>
-  </x:si>
-  <x:si>
-    <x:t>167</x:t>
-  </x:si>
-  <x:si>
-    <x:t>310</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2379</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gambling Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Homicide Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>36</x:t>
-  </x:si>
-  <x:si>
-    <x:t>82</x:t>
-  </x:si>
-  <x:si>
-    <x:t>144</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Human Trafficking</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kidnapping/Abduction</x:t>
-  </x:si>
-  <x:si>
-    <x:t>45</x:t>
-  </x:si>
-  <x:si>
-    <x:t>122</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Larceny/Theft Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7701</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5046</x:t>
-  </x:si>
-  <x:si>
-    <x:t>298</x:t>
-  </x:si>
-  <x:si>
-    <x:t>834</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15416</x:t>
-  </x:si>
-  <x:si>
-    <x:t>715</x:t>
-  </x:si>
-  <x:si>
-    <x:t>623</x:t>
-  </x:si>
-  <x:si>
-    <x:t>59</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1588</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8416</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5669</x:t>
-  </x:si>
-  <x:si>
-    <x:t>335</x:t>
-  </x:si>
-  <x:si>
-    <x:t>893</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1664</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17004</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Motor Vehicle Theft</x:t>
-  </x:si>
-  <x:si>
-    <x:t>265</x:t>
-  </x:si>
-  <x:si>
-    <x:t>171</x:t>
-  </x:si>
-  <x:si>
-    <x:t>56</x:t>
-  </x:si>
-  <x:si>
-    <x:t>561</x:t>
-  </x:si>
-  <x:si>
-    <x:t>112</x:t>
-  </x:si>
-  <x:si>
-    <x:t>184</x:t>
-  </x:si>
-  <x:si>
-    <x:t>301</x:t>
-  </x:si>
-  <x:si>
-    <x:t>283</x:t>
-  </x:si>
-  <x:si>
-    <x:t>745</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pornography/Obscene Material</x:t>
-  </x:si>
-  <x:si>
-    <x:t>158</x:t>
-  </x:si>
-  <x:si>
-    <x:t>133</x:t>
-  </x:si>
-  <x:si>
-    <x:t>189</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Prostitution Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Robbery</x:t>
-  </x:si>
-  <x:si>
-    <x:t>96</x:t>
-  </x:si>
-  <x:si>
-    <x:t>374</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>526</x:t>
-  </x:si>
-  <x:si>
-    <x:t>157</x:t>
-  </x:si>
-  <x:si>
-    <x:t>205</x:t>
-  </x:si>
-  <x:si>
-    <x:t>115</x:t>
-  </x:si>
-  <x:si>
-    <x:t>531</x:t>
-  </x:si>
-  <x:si>
-    <x:t>731</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sex Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>453</x:t>
-  </x:si>
-  <x:si>
-    <x:t>216</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23</x:t>
-  </x:si>
-  <x:si>
-    <x:t>117</x:t>
-  </x:si>
-  <x:si>
-    <x:t>831</x:t>
-  </x:si>
-  <x:si>
-    <x:t>68</x:t>
-  </x:si>
-  <x:si>
-    <x:t>41</x:t>
-  </x:si>
-  <x:si>
-    <x:t>141</x:t>
-  </x:si>
-  <x:si>
-    <x:t>521</x:t>
-  </x:si>
-  <x:si>
-    <x:t>243</x:t>
-  </x:si>
-  <x:si>
-    <x:t>972</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stolen Property Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>536</x:t>
-  </x:si>
-  <x:si>
     <x:t>40</x:t>
   </x:si>
   <x:si>
@@ -658,7 +661,7 @@
     <x:t>Weapon Law Violations</x:t>
   </x:si>
   <x:si>
-    <x:t>701</x:t>
+    <x:t>702</x:t>
   </x:si>
   <x:si>
     <x:t>956</x:t>
@@ -673,7 +676,7 @@
     <x:t>371</x:t>
   </x:si>
   <x:si>
-    <x:t>2158</x:t>
+    <x:t>2159</x:t>
   </x:si>
   <x:si>
     <x:t>174</x:t>
@@ -682,7 +685,7 @@
     <x:t>282</x:t>
   </x:si>
   <x:si>
-    <x:t>762</x:t>
+    <x:t>763</x:t>
   </x:si>
   <x:si>
     <x:t>1130</x:t>
@@ -697,7 +700,7 @@
     <x:t>398</x:t>
   </x:si>
   <x:si>
-    <x:t>2440</x:t>
+    <x:t>2441</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1940,13 +1943,13 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="D30" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="E30" s="1" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="F30" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="G30" s="1" t="s">
         <x:v>29</x:v>
@@ -2187,7 +2190,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I38" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>127</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:9">
@@ -2213,10 +2216,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H39" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I39" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>139</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:9">
@@ -2242,10 +2245,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H40" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I40" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>139</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:9">
@@ -2329,10 +2332,10 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="H43" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="I43" s="1" t="s">
-        <x:v>152</x:v>
+        <x:v>153</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:9">
@@ -2343,25 +2346,25 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C44" s="1" t="s">
-        <x:v>153</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="D44" s="1" t="s">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="E44" s="1" t="s">
         <x:v>120</x:v>
       </x:c>
       <x:c r="F44" s="1" t="s">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="G44" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H44" s="1" t="s">
-        <x:v>103</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="I44" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>158</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:9">
@@ -2372,39 +2375,39 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C45" s="1" t="s">
-        <x:v>157</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="D45" s="1" t="s">
-        <x:v>158</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="E45" s="1" t="s">
-        <x:v>159</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="F45" s="1" t="s">
-        <x:v>160</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="G45" s="1" t="s">
         <x:v>122</x:v>
       </x:c>
       <x:c r="H45" s="1" t="s">
-        <x:v>161</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="I45" s="1" t="s">
-        <x:v>162</x:v>
+        <x:v>164</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
       <x:c r="A46" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C46" s="1" t="s">
-        <x:v>164</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="D46" s="1" t="s">
-        <x:v>165</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="E46" s="1" t="s">
         <x:v>121</x:v>
@@ -2416,15 +2419,15 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="H46" s="1" t="s">
-        <x:v>166</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="I46" s="1" t="s">
-        <x:v>167</x:v>
+        <x:v>169</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
       <x:c r="A47" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
         <x:v>17</x:v>
@@ -2433,7 +2436,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="D47" s="1" t="s">
-        <x:v>168</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="E47" s="1" t="s">
         <x:v>30</x:v>
@@ -2448,27 +2451,27 @@
         <x:v>143</x:v>
       </x:c>
       <x:c r="I47" s="1" t="s">
-        <x:v>169</x:v>
+        <x:v>171</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
       <x:c r="A48" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C48" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="D48" s="1" t="s">
-        <x:v>171</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="E48" s="1" t="s">
         <x:v>117</x:v>
       </x:c>
       <x:c r="F48" s="1" t="s">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="G48" s="1" t="s">
         <x:v>18</x:v>
@@ -2477,18 +2480,18 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="I48" s="1" t="s">
-        <x:v>172</x:v>
+        <x:v>174</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:9">
       <x:c r="A49" s="0" t="s">
-        <x:v>173</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C49" s="1" t="s">
-        <x:v>168</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="D49" s="1" t="s">
         <x:v>76</x:v>
@@ -2506,12 +2509,12 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="I49" s="1" t="s">
-        <x:v>174</x:v>
+        <x:v>176</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:9">
       <x:c r="A50" s="0" t="s">
-        <x:v>173</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
         <x:v>17</x:v>
@@ -2540,13 +2543,13 @@
     </x:row>
     <x:row r="51" spans="1:9">
       <x:c r="A51" s="0" t="s">
-        <x:v>173</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C51" s="1" t="s">
-        <x:v>175</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="D51" s="1" t="s">
         <x:v>23</x:v>
@@ -2564,18 +2567,18 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="I51" s="1" t="s">
-        <x:v>176</x:v>
+        <x:v>178</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:9">
       <x:c r="A52" s="0" t="s">
-        <x:v>177</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C52" s="1" t="s">
-        <x:v>178</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="D52" s="1" t="s">
         <x:v>14</x:v>
@@ -2598,13 +2601,13 @@
     </x:row>
     <x:row r="53" spans="1:9">
       <x:c r="A53" s="0" t="s">
-        <x:v>177</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C53" s="1" t="s">
-        <x:v>178</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="D53" s="1" t="s">
         <x:v>14</x:v>
@@ -2627,16 +2630,16 @@
     </x:row>
     <x:row r="54" spans="1:9">
       <x:c r="A54" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C54" s="1" t="s">
-        <x:v>180</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="D54" s="1" t="s">
-        <x:v>181</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="E54" s="1" t="s">
         <x:v>29</x:v>
@@ -2648,15 +2651,15 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H54" s="1" t="s">
-        <x:v>182</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="I54" s="1" t="s">
-        <x:v>183</x:v>
+        <x:v>185</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:9">
       <x:c r="A55" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
         <x:v>17</x:v>
@@ -2665,10 +2668,10 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="D55" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="E55" s="1" t="s">
-        <x:v>178</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="F55" s="1" t="s">
         <x:v>32</x:v>
@@ -2680,21 +2683,21 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="I55" s="1" t="s">
-        <x:v>185</x:v>
+        <x:v>187</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:9">
       <x:c r="A56" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C56" s="1" t="s">
-        <x:v>186</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="D56" s="1" t="s">
-        <x:v>187</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="E56" s="1" t="s">
         <x:v>118</x:v>
@@ -2709,24 +2712,24 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="I56" s="1" t="s">
-        <x:v>188</x:v>
+        <x:v>190</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:9">
       <x:c r="A57" s="0" t="s">
-        <x:v>189</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C57" s="1" t="s">
-        <x:v>190</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="D57" s="1" t="s">
-        <x:v>191</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="E57" s="1" t="s">
-        <x:v>192</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="F57" s="1" t="s">
         <x:v>12</x:v>
@@ -2735,21 +2738,21 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="H57" s="1" t="s">
-        <x:v>193</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="I57" s="1" t="s">
-        <x:v>194</x:v>
+        <x:v>195</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:9">
       <x:c r="A58" s="0" t="s">
-        <x:v>189</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C58" s="1" t="s">
-        <x:v>195</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D58" s="1" t="s">
         <x:v>122</x:v>
@@ -2767,33 +2770,33 @@
         <x:v>196</x:v>
       </x:c>
       <x:c r="I58" s="1" t="s">
-        <x:v>197</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">
       <x:c r="A59" s="0" t="s">
-        <x:v>189</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C59" s="1" t="s">
+        <x:v>197</x:v>
+      </x:c>
+      <x:c r="D59" s="1" t="s">
         <x:v>198</x:v>
       </x:c>
-      <x:c r="D59" s="1" t="s">
+      <x:c r="E59" s="1" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="F59" s="1" t="s">
         <x:v>199</x:v>
-      </x:c>
-      <x:c r="E59" s="1" t="s">
-        <x:v>182</x:v>
-      </x:c>
-      <x:c r="F59" s="1" t="s">
-        <x:v>192</x:v>
       </x:c>
       <x:c r="G59" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H59" s="1" t="s">
-        <x:v>174</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="I59" s="1" t="s">
         <x:v>200</x:v>
@@ -2810,13 +2813,13 @@
         <x:v>202</x:v>
       </x:c>
       <x:c r="D60" s="1" t="s">
-        <x:v>87</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="E60" s="1" t="s">
-        <x:v>203</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="F60" s="1" t="s">
-        <x:v>204</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="G60" s="1" t="s">
         <x:v>18</x:v>
@@ -2825,7 +2828,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="I60" s="1" t="s">
-        <x:v>205</x:v>
+        <x:v>206</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">
@@ -2839,7 +2842,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="D61" s="1" t="s">
-        <x:v>206</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="E61" s="1" t="s">
         <x:v>32</x:v>
@@ -2854,7 +2857,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="I61" s="1" t="s">
-        <x:v>207</x:v>
+        <x:v>208</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
@@ -2865,59 +2868,59 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C62" s="1" t="s">
-        <x:v>208</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="D62" s="1" t="s">
-        <x:v>209</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="E62" s="1" t="s">
         <x:v>78</x:v>
       </x:c>
       <x:c r="F62" s="1" t="s">
-        <x:v>210</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="G62" s="1" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H62" s="1" t="s">
-        <x:v>211</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="I62" s="1" t="s">
-        <x:v>212</x:v>
+        <x:v>213</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:9">
       <x:c r="A63" s="0" t="s">
-        <x:v>213</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C63" s="1" t="s">
-        <x:v>214</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="D63" s="1" t="s">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="E63" s="1" t="s">
-        <x:v>216</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="F63" s="1" t="s">
-        <x:v>217</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="G63" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H63" s="1" t="s">
-        <x:v>218</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="I63" s="1" t="s">
-        <x:v>219</x:v>
+        <x:v>220</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:9">
       <x:c r="A64" s="0" t="s">
-        <x:v>213</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
         <x:v>17</x:v>
@@ -2926,7 +2929,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D64" s="1" t="s">
-        <x:v>220</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="E64" s="1" t="s">
         <x:v>80</x:v>
@@ -2941,36 +2944,36 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="I64" s="1" t="s">
-        <x:v>221</x:v>
+        <x:v>222</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:9">
       <x:c r="A65" s="0" t="s">
-        <x:v>213</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C65" s="1" t="s">
-        <x:v>222</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="D65" s="1" t="s">
-        <x:v>223</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="E65" s="1" t="s">
-        <x:v>224</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="F65" s="1" t="s">
-        <x:v>225</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="G65" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H65" s="1" t="s">
-        <x:v>226</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="I65" s="1" t="s">
-        <x:v>227</x:v>
+        <x:v>228</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -133,28 +133,28 @@
     <x:t>Assault Offenses</x:t>
   </x:si>
   <x:si>
-    <x:t>7736</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4710</x:t>
+    <x:t>7741</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4709</x:t>
   </x:si>
   <x:si>
     <x:t>380</x:t>
   </x:si>
   <x:si>
-    <x:t>706</x:t>
+    <x:t>707</x:t>
   </x:si>
   <x:si>
     <x:t>28</x:t>
   </x:si>
   <x:si>
-    <x:t>1511</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15071</x:t>
-  </x:si>
-  <x:si>
-    <x:t>928</x:t>
+    <x:t>1512</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15077</x:t>
+  </x:si>
+  <x:si>
+    <x:t>930</x:t>
   </x:si>
   <x:si>
     <x:t>759</x:t>
@@ -166,28 +166,28 @@
     <x:t>280</x:t>
   </x:si>
   <x:si>
-    <x:t>2169</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8664</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5469</x:t>
+    <x:t>2171</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8671</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5468</x:t>
   </x:si>
   <x:si>
     <x:t>414</x:t>
   </x:si>
   <x:si>
-    <x:t>870</x:t>
+    <x:t>871</x:t>
   </x:si>
   <x:si>
     <x:t>32</x:t>
   </x:si>
   <x:si>
-    <x:t>1791</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17240</x:t>
+    <x:t>1792</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17248</x:t>
   </x:si>
   <x:si>
     <x:t>Bribery</x:t>
@@ -196,7 +196,7 @@
     <x:t>Burglary/Breaking &amp; Entering</x:t>
   </x:si>
   <x:si>
-    <x:t>803</x:t>
+    <x:t>805</x:t>
   </x:si>
   <x:si>
     <x:t>588</x:t>
@@ -208,7 +208,7 @@
     <x:t>131</x:t>
   </x:si>
   <x:si>
-    <x:t>1676</x:t>
+    <x:t>1678</x:t>
   </x:si>
   <x:si>
     <x:t>43</x:t>
@@ -220,7 +220,7 @@
     <x:t>148</x:t>
   </x:si>
   <x:si>
-    <x:t>867</x:t>
+    <x:t>869</x:t>
   </x:si>
   <x:si>
     <x:t>631</x:t>
@@ -232,16 +232,16 @@
     <x:t>142</x:t>
   </x:si>
   <x:si>
-    <x:t>1824</x:t>
+    <x:t>1826</x:t>
   </x:si>
   <x:si>
     <x:t>Counterfeiting/Forgery</x:t>
   </x:si>
   <x:si>
-    <x:t>292</x:t>
-  </x:si>
-  <x:si>
-    <x:t>145</x:t>
+    <x:t>294</x:t>
+  </x:si>
+  <x:si>
+    <x:t>146</x:t>
   </x:si>
   <x:si>
     <x:t>18</x:t>
@@ -253,7 +253,7 @@
     <x:t>49</x:t>
   </x:si>
   <x:si>
-    <x:t>523</x:t>
+    <x:t>526</x:t>
   </x:si>
   <x:si>
     <x:t>10</x:t>
@@ -262,19 +262,19 @@
     <x:t>15</x:t>
   </x:si>
   <x:si>
-    <x:t>295</x:t>
-  </x:si>
-  <x:si>
-    <x:t>155</x:t>
-  </x:si>
-  <x:si>
-    <x:t>538</x:t>
+    <x:t>297</x:t>
+  </x:si>
+  <x:si>
+    <x:t>156</x:t>
+  </x:si>
+  <x:si>
+    <x:t>541</x:t>
   </x:si>
   <x:si>
     <x:t>Destruction/Damage/Vandalism of Property</x:t>
   </x:si>
   <x:si>
-    <x:t>869</x:t>
+    <x:t>872</x:t>
   </x:si>
   <x:si>
     <x:t>461</x:t>
@@ -289,7 +289,7 @@
     <x:t>180</x:t>
   </x:si>
   <x:si>
-    <x:t>1643</x:t>
+    <x:t>1646</x:t>
   </x:si>
   <x:si>
     <x:t>211</x:t>
@@ -304,7 +304,7 @@
     <x:t>394</x:t>
   </x:si>
   <x:si>
-    <x:t>1080</x:t>
+    <x:t>1083</x:t>
   </x:si>
   <x:si>
     <x:t>564</x:t>
@@ -313,16 +313,16 @@
     <x:t>228</x:t>
   </x:si>
   <x:si>
-    <x:t>2037</x:t>
+    <x:t>2040</x:t>
   </x:si>
   <x:si>
     <x:t>Drug/Narcotic Violations</x:t>
   </x:si>
   <x:si>
-    <x:t>4059</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2048</x:t>
+    <x:t>4062</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2051</x:t>
   </x:si>
   <x:si>
     <x:t>154</x:t>
@@ -331,10 +331,10 @@
     <x:t>569</x:t>
   </x:si>
   <x:si>
-    <x:t>915</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7766</x:t>
+    <x:t>917</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7774</x:t>
   </x:si>
   <x:si>
     <x:t>31</x:t>
@@ -343,10 +343,10 @@
     <x:t>179</x:t>
   </x:si>
   <x:si>
-    <x:t>4164</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2079</x:t>
+    <x:t>4167</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2082</x:t>
   </x:si>
   <x:si>
     <x:t>162</x:t>
@@ -358,10 +358,10 @@
     <x:t>22</x:t>
   </x:si>
   <x:si>
-    <x:t>947</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7945</x:t>
+    <x:t>949</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7953</x:t>
   </x:si>
   <x:si>
     <x:t>Embezzlement</x:t>
@@ -394,54 +394,57 @@
     <x:t>Fraud Offenses</x:t>
   </x:si>
   <x:si>
-    <x:t>1003</x:t>
+    <x:t>1005</x:t>
+  </x:si>
+  <x:si>
+    <x:t>760</x:t>
+  </x:si>
+  <x:si>
+    <x:t>159</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2292</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>88</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1036</x:t>
+  </x:si>
+  <x:si>
+    <x:t>795</x:t>
+  </x:si>
+  <x:si>
+    <x:t>165</x:t>
+  </x:si>
+  <x:si>
+    <x:t>310</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2380</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gambling Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Homicide Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36</x:t>
+  </x:si>
+  <x:si>
+    <x:t>82</x:t>
+  </x:si>
+  <x:si>
+    <x:t>144</x:t>
   </x:si>
   <x:si>
     <x:t>161</x:t>
   </x:si>
   <x:si>
-    <x:t>294</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2291</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35</x:t>
-  </x:si>
-  <x:si>
-    <x:t>88</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1034</x:t>
-  </x:si>
-  <x:si>
-    <x:t>794</x:t>
-  </x:si>
-  <x:si>
-    <x:t>167</x:t>
-  </x:si>
-  <x:si>
-    <x:t>310</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2379</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gambling Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Homicide Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>36</x:t>
-  </x:si>
-  <x:si>
-    <x:t>82</x:t>
-  </x:si>
-  <x:si>
-    <x:t>144</x:t>
-  </x:si>
-  <x:si>
     <x:t>Human Trafficking</x:t>
   </x:si>
   <x:si>
@@ -460,10 +463,10 @@
     <x:t>Larceny/Theft Offenses</x:t>
   </x:si>
   <x:si>
-    <x:t>7713</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5049</x:t>
+    <x:t>7716</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5050</x:t>
   </x:si>
   <x:si>
     <x:t>299</x:t>
@@ -475,7 +478,7 @@
     <x:t>1513</x:t>
   </x:si>
   <x:si>
-    <x:t>15435</x:t>
+    <x:t>15439</x:t>
   </x:si>
   <x:si>
     <x:t>715</x:t>
@@ -493,10 +496,10 @@
     <x:t>1589</x:t>
   </x:si>
   <x:si>
-    <x:t>8428</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5673</x:t>
+    <x:t>8431</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5674</x:t>
   </x:si>
   <x:si>
     <x:t>336</x:t>
@@ -508,7 +511,7 @@
     <x:t>1666</x:t>
   </x:si>
   <x:si>
-    <x:t>17024</x:t>
+    <x:t>17028</x:t>
   </x:si>
   <x:si>
     <x:t>Motor Vehicle Theft</x:t>
@@ -544,85 +547,85 @@
     <x:t>Pornography/Obscene Material</x:t>
   </x:si>
   <x:si>
+    <x:t>113</x:t>
+  </x:si>
+  <x:si>
+    <x:t>134</x:t>
+  </x:si>
+  <x:si>
+    <x:t>190</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Prostitution Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Robbery</x:t>
+  </x:si>
+  <x:si>
+    <x:t>96</x:t>
+  </x:si>
+  <x:si>
+    <x:t>374</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>157</x:t>
+  </x:si>
+  <x:si>
+    <x:t>205</x:t>
+  </x:si>
+  <x:si>
+    <x:t>115</x:t>
+  </x:si>
+  <x:si>
+    <x:t>531</x:t>
+  </x:si>
+  <x:si>
+    <x:t>731</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sex Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>453</x:t>
+  </x:si>
+  <x:si>
+    <x:t>218</x:t>
+  </x:si>
+  <x:si>
+    <x:t>117</x:t>
+  </x:si>
+  <x:si>
+    <x:t>834</x:t>
+  </x:si>
+  <x:si>
+    <x:t>41</x:t>
+  </x:si>
+  <x:si>
+    <x:t>522</x:t>
+  </x:si>
+  <x:si>
+    <x:t>245</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23</x:t>
+  </x:si>
+  <x:si>
     <x:t>158</x:t>
   </x:si>
   <x:si>
-    <x:t>133</x:t>
-  </x:si>
-  <x:si>
-    <x:t>189</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Prostitution Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Robbery</x:t>
-  </x:si>
-  <x:si>
-    <x:t>96</x:t>
-  </x:si>
-  <x:si>
-    <x:t>374</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>526</x:t>
-  </x:si>
-  <x:si>
-    <x:t>157</x:t>
-  </x:si>
-  <x:si>
-    <x:t>205</x:t>
-  </x:si>
-  <x:si>
-    <x:t>115</x:t>
-  </x:si>
-  <x:si>
-    <x:t>531</x:t>
-  </x:si>
-  <x:si>
-    <x:t>731</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sex Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>453</x:t>
-  </x:si>
-  <x:si>
-    <x:t>217</x:t>
-  </x:si>
-  <x:si>
-    <x:t>117</x:t>
-  </x:si>
-  <x:si>
-    <x:t>833</x:t>
-  </x:si>
-  <x:si>
-    <x:t>41</x:t>
-  </x:si>
-  <x:si>
-    <x:t>522</x:t>
-  </x:si>
-  <x:si>
-    <x:t>244</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23</x:t>
-  </x:si>
-  <x:si>
-    <x:t>975</x:t>
+    <x:t>976</x:t>
   </x:si>
   <x:si>
     <x:t>Stolen Property Offenses</x:t>
   </x:si>
   <x:si>
-    <x:t>536</x:t>
+    <x:t>537</x:t>
   </x:si>
   <x:si>
     <x:t>460</x:t>
@@ -634,7 +637,7 @@
     <x:t>79</x:t>
   </x:si>
   <x:si>
-    <x:t>1260</x:t>
+    <x:t>1261</x:t>
   </x:si>
   <x:si>
     <x:t>129</x:t>
@@ -643,9 +646,6 @@
     <x:t>191</x:t>
   </x:si>
   <x:si>
-    <x:t>560</x:t>
-  </x:si>
-  <x:si>
     <x:t>589</x:t>
   </x:si>
   <x:si>
@@ -655,7 +655,7 @@
     <x:t>160</x:t>
   </x:si>
   <x:si>
-    <x:t>1451</x:t>
+    <x:t>1452</x:t>
   </x:si>
   <x:si>
     <x:t>Weapon Law Violations</x:t>
@@ -1943,19 +1943,19 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="D30" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="E30" s="1" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="F30" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="G30" s="1" t="s">
         <x:v>29</x:v>
       </x:c>
       <x:c r="H30" s="1" t="s">
-        <x:v>128</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I30" s="1" t="s">
         <x:v>129</x:v>
@@ -2190,12 +2190,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I38" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>142</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:9">
       <x:c r="A39" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
         <x:v>10</x:v>
@@ -2204,7 +2204,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="D39" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="E39" s="1" t="s">
         <x:v>18</x:v>
@@ -2224,7 +2224,7 @@
     </x:row>
     <x:row r="40" spans="1:9">
       <x:c r="A40" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
         <x:v>21</x:v>
@@ -2233,7 +2233,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="D40" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="E40" s="1" t="s">
         <x:v>18</x:v>
@@ -2253,13 +2253,13 @@
     </x:row>
     <x:row r="41" spans="1:9">
       <x:c r="A41" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C41" s="1" t="s">
-        <x:v>145</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="D41" s="1" t="s">
         <x:v>70</x:v>
@@ -2277,18 +2277,18 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="I41" s="1" t="s">
-        <x:v>146</x:v>
+        <x:v>147</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9">
       <x:c r="A42" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C42" s="1" t="s">
-        <x:v>145</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="D42" s="1" t="s">
         <x:v>70</x:v>
@@ -2306,108 +2306,108 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="I42" s="1" t="s">
-        <x:v>146</x:v>
+        <x:v>147</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:9">
       <x:c r="A43" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C43" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="D43" s="1" t="s">
-        <x:v>149</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="E43" s="1" t="s">
-        <x:v>150</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="F43" s="1" t="s">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="G43" s="1" t="s">
         <x:v>66</x:v>
       </x:c>
       <x:c r="H43" s="1" t="s">
-        <x:v>152</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="I43" s="1" t="s">
-        <x:v>153</x:v>
+        <x:v>154</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:9">
       <x:c r="A44" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C44" s="1" t="s">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="D44" s="1" t="s">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="E44" s="1" t="s">
         <x:v>120</x:v>
       </x:c>
       <x:c r="F44" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="G44" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H44" s="1" t="s">
-        <x:v>157</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="I44" s="1" t="s">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:9">
       <x:c r="A45" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C45" s="1" t="s">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="D45" s="1" t="s">
-        <x:v>160</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="E45" s="1" t="s">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="F45" s="1" t="s">
-        <x:v>162</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="G45" s="1" t="s">
         <x:v>122</x:v>
       </x:c>
       <x:c r="H45" s="1" t="s">
-        <x:v>163</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="I45" s="1" t="s">
-        <x:v>164</x:v>
+        <x:v>165</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
       <x:c r="A46" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C46" s="1" t="s">
-        <x:v>166</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="D46" s="1" t="s">
-        <x:v>167</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="E46" s="1" t="s">
         <x:v>121</x:v>
@@ -2419,15 +2419,15 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="H46" s="1" t="s">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="I46" s="1" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
       <x:c r="A47" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
         <x:v>17</x:v>
@@ -2436,7 +2436,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="D47" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="E47" s="1" t="s">
         <x:v>30</x:v>
@@ -2448,30 +2448,30 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H47" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="I47" s="1" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
       <x:c r="A48" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C48" s="1" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="D48" s="1" t="s">
-        <x:v>173</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="E48" s="1" t="s">
         <x:v>117</x:v>
       </x:c>
       <x:c r="F48" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="G48" s="1" t="s">
         <x:v>18</x:v>
@@ -2480,18 +2480,18 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="I48" s="1" t="s">
-        <x:v>174</x:v>
+        <x:v>175</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:9">
       <x:c r="A49" s="0" t="s">
-        <x:v>175</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C49" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="D49" s="1" t="s">
         <x:v>76</x:v>
@@ -2509,12 +2509,12 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="I49" s="1" t="s">
-        <x:v>176</x:v>
+        <x:v>128</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:9">
       <x:c r="A50" s="0" t="s">
-        <x:v>175</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
         <x:v>17</x:v>
@@ -2543,13 +2543,13 @@
     </x:row>
     <x:row r="51" spans="1:9">
       <x:c r="A51" s="0" t="s">
-        <x:v>175</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C51" s="1" t="s">
-        <x:v>177</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="D51" s="1" t="s">
         <x:v>23</x:v>
@@ -2567,18 +2567,18 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="I51" s="1" t="s">
-        <x:v>178</x:v>
+        <x:v>179</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:9">
       <x:c r="A52" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C52" s="1" t="s">
-        <x:v>180</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="D52" s="1" t="s">
         <x:v>14</x:v>
@@ -2601,13 +2601,13 @@
     </x:row>
     <x:row r="53" spans="1:9">
       <x:c r="A53" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C53" s="1" t="s">
-        <x:v>180</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="D53" s="1" t="s">
         <x:v>14</x:v>
@@ -2630,16 +2630,16 @@
     </x:row>
     <x:row r="54" spans="1:9">
       <x:c r="A54" s="0" t="s">
-        <x:v>181</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C54" s="1" t="s">
-        <x:v>182</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="D54" s="1" t="s">
-        <x:v>183</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="E54" s="1" t="s">
         <x:v>29</x:v>
@@ -2651,15 +2651,15 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H54" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="I54" s="1" t="s">
-        <x:v>185</x:v>
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:9">
       <x:c r="A55" s="0" t="s">
-        <x:v>181</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
         <x:v>17</x:v>
@@ -2671,7 +2671,7 @@
         <x:v>186</x:v>
       </x:c>
       <x:c r="E55" s="1" t="s">
-        <x:v>180</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="F55" s="1" t="s">
         <x:v>32</x:v>
@@ -2688,7 +2688,7 @@
     </x:row>
     <x:row r="56" spans="1:9">
       <x:c r="A56" s="0" t="s">
-        <x:v>181</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
         <x:v>21</x:v>
@@ -2796,30 +2796,30 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="H59" s="1" t="s">
-        <x:v>176</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="I59" s="1" t="s">
-        <x:v>200</x:v>
+        <x:v>201</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9">
       <x:c r="A60" s="0" t="s">
-        <x:v>201</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C60" s="1" t="s">
-        <x:v>202</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="D60" s="1" t="s">
-        <x:v>203</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="E60" s="1" t="s">
-        <x:v>204</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="F60" s="1" t="s">
-        <x:v>205</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="G60" s="1" t="s">
         <x:v>18</x:v>
@@ -2828,12 +2828,12 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="I60" s="1" t="s">
-        <x:v>206</x:v>
+        <x:v>207</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">
       <x:c r="A61" s="0" t="s">
-        <x:v>201</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
         <x:v>17</x:v>
@@ -2842,7 +2842,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="D61" s="1" t="s">
-        <x:v>207</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="E61" s="1" t="s">
         <x:v>32</x:v>
@@ -2857,18 +2857,18 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="I61" s="1" t="s">
-        <x:v>208</x:v>
+        <x:v>209</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
       <x:c r="A62" s="0" t="s">
-        <x:v>201</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C62" s="1" t="s">
-        <x:v>209</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="D62" s="1" t="s">
         <x:v>210</x:v>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -322,7 +322,7 @@
     <x:t>4062</x:t>
   </x:si>
   <x:si>
-    <x:t>2051</x:t>
+    <x:t>2050</x:t>
   </x:si>
   <x:si>
     <x:t>154</x:t>
@@ -334,7 +334,7 @@
     <x:t>917</x:t>
   </x:si>
   <x:si>
-    <x:t>7774</x:t>
+    <x:t>7773</x:t>
   </x:si>
   <x:si>
     <x:t>31</x:t>
@@ -346,7 +346,7 @@
     <x:t>4167</x:t>
   </x:si>
   <x:si>
-    <x:t>2082</x:t>
+    <x:t>2081</x:t>
   </x:si>
   <x:si>
     <x:t>162</x:t>
@@ -361,7 +361,7 @@
     <x:t>949</x:t>
   </x:si>
   <x:si>
-    <x:t>7953</x:t>
+    <x:t>7952</x:t>
   </x:si>
   <x:si>
     <x:t>Embezzlement</x:t>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -133,16 +133,16 @@
     <x:t>Assault Offenses</x:t>
   </x:si>
   <x:si>
-    <x:t>7741</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4709</x:t>
+    <x:t>7744</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4708</x:t>
   </x:si>
   <x:si>
     <x:t>380</x:t>
   </x:si>
   <x:si>
-    <x:t>707</x:t>
+    <x:t>711</x:t>
   </x:si>
   <x:si>
     <x:t>28</x:t>
@@ -151,7 +151,7 @@
     <x:t>1512</x:t>
   </x:si>
   <x:si>
-    <x:t>15077</x:t>
+    <x:t>15083</x:t>
   </x:si>
   <x:si>
     <x:t>930</x:t>
@@ -169,16 +169,16 @@
     <x:t>2171</x:t>
   </x:si>
   <x:si>
-    <x:t>8671</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5468</x:t>
+    <x:t>8674</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5467</x:t>
   </x:si>
   <x:si>
     <x:t>414</x:t>
   </x:si>
   <x:si>
-    <x:t>871</x:t>
+    <x:t>875</x:t>
   </x:si>
   <x:si>
     <x:t>32</x:t>
@@ -187,7 +187,7 @@
     <x:t>1792</x:t>
   </x:si>
   <x:si>
-    <x:t>17248</x:t>
+    <x:t>17254</x:t>
   </x:si>
   <x:si>
     <x:t>Bribery</x:t>
@@ -196,7 +196,7 @@
     <x:t>Burglary/Breaking &amp; Entering</x:t>
   </x:si>
   <x:si>
-    <x:t>805</x:t>
+    <x:t>806</x:t>
   </x:si>
   <x:si>
     <x:t>588</x:t>
@@ -208,7 +208,7 @@
     <x:t>131</x:t>
   </x:si>
   <x:si>
-    <x:t>1678</x:t>
+    <x:t>1679</x:t>
   </x:si>
   <x:si>
     <x:t>43</x:t>
@@ -217,10 +217,13 @@
     <x:t>26</x:t>
   </x:si>
   <x:si>
-    <x:t>148</x:t>
-  </x:si>
-  <x:si>
-    <x:t>869</x:t>
+    <x:t>10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>147</x:t>
+  </x:si>
+  <x:si>
+    <x:t>870</x:t>
   </x:si>
   <x:si>
     <x:t>631</x:t>
@@ -229,384 +232,387 @@
     <x:t>51</x:t>
   </x:si>
   <x:si>
+    <x:t>141</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1826</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Counterfeiting/Forgery</x:t>
+  </x:si>
+  <x:si>
+    <x:t>294</x:t>
+  </x:si>
+  <x:si>
+    <x:t>146</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>49</x:t>
+  </x:si>
+  <x:si>
+    <x:t>526</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>297</x:t>
+  </x:si>
+  <x:si>
+    <x:t>156</x:t>
+  </x:si>
+  <x:si>
+    <x:t>541</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Destruction/Damage/Vandalism of Property</x:t>
+  </x:si>
+  <x:si>
+    <x:t>872</x:t>
+  </x:si>
+  <x:si>
+    <x:t>461</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>93</x:t>
+  </x:si>
+  <x:si>
+    <x:t>180</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1646</x:t>
+  </x:si>
+  <x:si>
+    <x:t>211</x:t>
+  </x:si>
+  <x:si>
+    <x:t>103</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>393</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1083</x:t>
+  </x:si>
+  <x:si>
+    <x:t>564</x:t>
+  </x:si>
+  <x:si>
+    <x:t>120</x:t>
+  </x:si>
+  <x:si>
+    <x:t>228</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2039</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Drug/Narcotic Violations</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4062</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2048</x:t>
+  </x:si>
+  <x:si>
+    <x:t>154</x:t>
+  </x:si>
+  <x:si>
+    <x:t>570</x:t>
+  </x:si>
+  <x:si>
+    <x:t>917</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7772</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>179</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4167</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2079</x:t>
+  </x:si>
+  <x:si>
+    <x:t>162</x:t>
+  </x:si>
+  <x:si>
+    <x:t>572</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>949</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7951</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Embezzlement</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>72</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>91</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Extortion/Blackmail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fraud Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1006</x:t>
+  </x:si>
+  <x:si>
+    <x:t>760</x:t>
+  </x:si>
+  <x:si>
+    <x:t>159</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2293</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>88</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1037</x:t>
+  </x:si>
+  <x:si>
+    <x:t>795</x:t>
+  </x:si>
+  <x:si>
+    <x:t>165</x:t>
+  </x:si>
+  <x:si>
+    <x:t>310</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2381</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gambling Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Homicide Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36</x:t>
+  </x:si>
+  <x:si>
+    <x:t>82</x:t>
+  </x:si>
+  <x:si>
+    <x:t>144</x:t>
+  </x:si>
+  <x:si>
+    <x:t>161</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Human Trafficking</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kidnapping/Abduction</x:t>
+  </x:si>
+  <x:si>
+    <x:t>45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>122</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Larceny/Theft Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7720</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5050</x:t>
+  </x:si>
+  <x:si>
+    <x:t>299</x:t>
+  </x:si>
+  <x:si>
+    <x:t>835</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1514</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15444</x:t>
+  </x:si>
+  <x:si>
+    <x:t>715</x:t>
+  </x:si>
+  <x:si>
+    <x:t>626</x:t>
+  </x:si>
+  <x:si>
+    <x:t>59</x:t>
+  </x:si>
+  <x:si>
+    <x:t>153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1591</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8435</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5676</x:t>
+  </x:si>
+  <x:si>
+    <x:t>336</x:t>
+  </x:si>
+  <x:si>
+    <x:t>894</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1667</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17035</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Motor Vehicle Theft</x:t>
+  </x:si>
+  <x:si>
+    <x:t>265</x:t>
+  </x:si>
+  <x:si>
+    <x:t>171</x:t>
+  </x:si>
+  <x:si>
+    <x:t>56</x:t>
+  </x:si>
+  <x:si>
+    <x:t>561</x:t>
+  </x:si>
+  <x:si>
+    <x:t>112</x:t>
+  </x:si>
+  <x:si>
+    <x:t>184</x:t>
+  </x:si>
+  <x:si>
+    <x:t>301</x:t>
+  </x:si>
+  <x:si>
+    <x:t>283</x:t>
+  </x:si>
+  <x:si>
+    <x:t>745</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pornography/Obscene Material</x:t>
+  </x:si>
+  <x:si>
+    <x:t>113</x:t>
+  </x:si>
+  <x:si>
+    <x:t>134</x:t>
+  </x:si>
+  <x:si>
+    <x:t>190</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Prostitution Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Robbery</x:t>
+  </x:si>
+  <x:si>
+    <x:t>96</x:t>
+  </x:si>
+  <x:si>
+    <x:t>374</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>157</x:t>
+  </x:si>
+  <x:si>
+    <x:t>205</x:t>
+  </x:si>
+  <x:si>
+    <x:t>115</x:t>
+  </x:si>
+  <x:si>
+    <x:t>531</x:t>
+  </x:si>
+  <x:si>
+    <x:t>731</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sex Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>453</x:t>
+  </x:si>
+  <x:si>
+    <x:t>218</x:t>
+  </x:si>
+  <x:si>
+    <x:t>117</x:t>
+  </x:si>
+  <x:si>
+    <x:t>834</x:t>
+  </x:si>
+  <x:si>
+    <x:t>41</x:t>
+  </x:si>
+  <x:si>
     <x:t>142</x:t>
   </x:si>
   <x:si>
-    <x:t>1826</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Counterfeiting/Forgery</x:t>
-  </x:si>
-  <x:si>
-    <x:t>294</x:t>
-  </x:si>
-  <x:si>
-    <x:t>146</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19</x:t>
-  </x:si>
-  <x:si>
-    <x:t>49</x:t>
-  </x:si>
-  <x:si>
-    <x:t>526</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>297</x:t>
-  </x:si>
-  <x:si>
-    <x:t>156</x:t>
-  </x:si>
-  <x:si>
-    <x:t>541</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Destruction/Damage/Vandalism of Property</x:t>
-  </x:si>
-  <x:si>
-    <x:t>872</x:t>
-  </x:si>
-  <x:si>
-    <x:t>461</x:t>
-  </x:si>
-  <x:si>
-    <x:t>39</x:t>
-  </x:si>
-  <x:si>
-    <x:t>93</x:t>
-  </x:si>
-  <x:si>
-    <x:t>180</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1646</x:t>
-  </x:si>
-  <x:si>
-    <x:t>211</x:t>
-  </x:si>
-  <x:si>
-    <x:t>103</x:t>
-  </x:si>
-  <x:si>
-    <x:t>48</x:t>
-  </x:si>
-  <x:si>
-    <x:t>394</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1083</x:t>
-  </x:si>
-  <x:si>
-    <x:t>564</x:t>
-  </x:si>
-  <x:si>
-    <x:t>228</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2040</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Drug/Narcotic Violations</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4062</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2050</x:t>
-  </x:si>
-  <x:si>
-    <x:t>154</x:t>
-  </x:si>
-  <x:si>
-    <x:t>569</x:t>
-  </x:si>
-  <x:si>
-    <x:t>917</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7773</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31</x:t>
-  </x:si>
-  <x:si>
-    <x:t>179</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4167</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2081</x:t>
-  </x:si>
-  <x:si>
-    <x:t>162</x:t>
-  </x:si>
-  <x:si>
-    <x:t>571</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>949</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7952</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Embezzlement</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>72</x:t>
-  </x:si>
-  <x:si>
-    <x:t>37</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27</x:t>
-  </x:si>
-  <x:si>
-    <x:t>91</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Extortion/Blackmail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fraud Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1005</x:t>
-  </x:si>
-  <x:si>
-    <x:t>760</x:t>
-  </x:si>
-  <x:si>
-    <x:t>159</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2292</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35</x:t>
-  </x:si>
-  <x:si>
-    <x:t>88</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1036</x:t>
-  </x:si>
-  <x:si>
-    <x:t>795</x:t>
-  </x:si>
-  <x:si>
-    <x:t>165</x:t>
-  </x:si>
-  <x:si>
-    <x:t>310</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2380</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gambling Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Homicide Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>36</x:t>
-  </x:si>
-  <x:si>
-    <x:t>82</x:t>
-  </x:si>
-  <x:si>
-    <x:t>144</x:t>
-  </x:si>
-  <x:si>
-    <x:t>161</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Human Trafficking</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kidnapping/Abduction</x:t>
-  </x:si>
-  <x:si>
-    <x:t>45</x:t>
-  </x:si>
-  <x:si>
-    <x:t>122</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Larceny/Theft Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7716</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5050</x:t>
-  </x:si>
-  <x:si>
-    <x:t>299</x:t>
-  </x:si>
-  <x:si>
-    <x:t>835</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1513</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15439</x:t>
-  </x:si>
-  <x:si>
-    <x:t>715</x:t>
-  </x:si>
-  <x:si>
-    <x:t>624</x:t>
-  </x:si>
-  <x:si>
-    <x:t>59</x:t>
-  </x:si>
-  <x:si>
-    <x:t>153</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1589</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8431</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5674</x:t>
-  </x:si>
-  <x:si>
-    <x:t>336</x:t>
-  </x:si>
-  <x:si>
-    <x:t>894</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1666</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17028</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Motor Vehicle Theft</x:t>
-  </x:si>
-  <x:si>
-    <x:t>265</x:t>
-  </x:si>
-  <x:si>
-    <x:t>171</x:t>
-  </x:si>
-  <x:si>
-    <x:t>56</x:t>
-  </x:si>
-  <x:si>
-    <x:t>561</x:t>
-  </x:si>
-  <x:si>
-    <x:t>112</x:t>
-  </x:si>
-  <x:si>
-    <x:t>184</x:t>
-  </x:si>
-  <x:si>
-    <x:t>301</x:t>
-  </x:si>
-  <x:si>
-    <x:t>283</x:t>
-  </x:si>
-  <x:si>
-    <x:t>745</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pornography/Obscene Material</x:t>
-  </x:si>
-  <x:si>
-    <x:t>113</x:t>
-  </x:si>
-  <x:si>
-    <x:t>134</x:t>
-  </x:si>
-  <x:si>
-    <x:t>190</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Prostitution Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Robbery</x:t>
-  </x:si>
-  <x:si>
-    <x:t>96</x:t>
-  </x:si>
-  <x:si>
-    <x:t>374</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>157</x:t>
-  </x:si>
-  <x:si>
-    <x:t>205</x:t>
-  </x:si>
-  <x:si>
-    <x:t>115</x:t>
-  </x:si>
-  <x:si>
-    <x:t>531</x:t>
-  </x:si>
-  <x:si>
-    <x:t>731</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sex Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>453</x:t>
-  </x:si>
-  <x:si>
-    <x:t>218</x:t>
-  </x:si>
-  <x:si>
-    <x:t>117</x:t>
-  </x:si>
-  <x:si>
-    <x:t>834</x:t>
-  </x:si>
-  <x:si>
-    <x:t>41</x:t>
-  </x:si>
-  <x:si>
     <x:t>522</x:t>
   </x:si>
   <x:si>
@@ -625,7 +631,7 @@
     <x:t>Stolen Property Offenses</x:t>
   </x:si>
   <x:si>
-    <x:t>537</x:t>
+    <x:t>538</x:t>
   </x:si>
   <x:si>
     <x:t>460</x:t>
@@ -637,7 +643,7 @@
     <x:t>79</x:t>
   </x:si>
   <x:si>
-    <x:t>1261</x:t>
+    <x:t>1262</x:t>
   </x:si>
   <x:si>
     <x:t>129</x:t>
@@ -646,6 +652,9 @@
     <x:t>191</x:t>
   </x:si>
   <x:si>
+    <x:t>562</x:t>
+  </x:si>
+  <x:si>
     <x:t>589</x:t>
   </x:si>
   <x:si>
@@ -655,7 +664,7 @@
     <x:t>160</x:t>
   </x:si>
   <x:si>
-    <x:t>1452</x:t>
+    <x:t>1453</x:t>
   </x:si>
   <x:si>
     <x:t>Weapon Law Violations</x:t>
@@ -664,7 +673,7 @@
     <x:t>702</x:t>
   </x:si>
   <x:si>
-    <x:t>956</x:t>
+    <x:t>959</x:t>
   </x:si>
   <x:si>
     <x:t>55</x:t>
@@ -676,7 +685,7 @@
     <x:t>371</x:t>
   </x:si>
   <x:si>
-    <x:t>2159</x:t>
+    <x:t>2162</x:t>
   </x:si>
   <x:si>
     <x:t>174</x:t>
@@ -688,7 +697,7 @@
     <x:t>763</x:t>
   </x:si>
   <x:si>
-    <x:t>1130</x:t>
+    <x:t>1133</x:t>
   </x:si>
   <x:si>
     <x:t>65</x:t>
@@ -700,7 +709,7 @@
     <x:t>398</x:t>
   </x:si>
   <x:si>
-    <x:t>2441</x:t>
+    <x:t>2444</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1491,10 +1500,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H14" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="I14" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
@@ -1505,13 +1514,13 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C15" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D15" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E15" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F15" s="1" t="s">
         <x:v>63</x:v>
@@ -1520,44 +1529,44 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="H15" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="I15" s="1" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
       <x:c r="A16" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D16" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E16" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F16" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G16" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="H16" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="I16" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
       <x:c r="A17" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
         <x:v>17</x:v>
@@ -1566,7 +1575,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="D17" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="E17" s="1" t="s">
         <x:v>19</x:v>
@@ -1586,7 +1595,7 @@
     </x:row>
     <x:row r="18" spans="1:9">
       <x:c r="A18" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
         <x:v>21</x:v>
@@ -1598,16 +1607,16 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="E18" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F18" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="G18" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="H18" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="I18" s="1" t="s">
         <x:v>84</x:v>
@@ -1659,16 +1668,16 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="F20" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="G20" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="H20" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="I20" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
@@ -1679,59 +1688,59 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C21" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D21" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="E21" s="1" t="s">
         <x:v>65</x:v>
       </x:c>
       <x:c r="F21" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="G21" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H21" s="1" t="s">
-        <x:v>98</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="I21" s="1" t="s">
-        <x:v>99</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
       <x:c r="A22" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="s">
-        <x:v>101</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="D22" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E22" s="1" t="s">
-        <x:v>103</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F22" s="1" t="s">
-        <x:v>104</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="G22" s="1" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="H22" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="I22" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
       <x:c r="A23" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
         <x:v>17</x:v>
@@ -1740,7 +1749,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="D23" s="1" t="s">
-        <x:v>107</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="E23" s="1" t="s">
         <x:v>28</x:v>
@@ -1755,50 +1764,50 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="I23" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
       <x:c r="A24" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C24" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="D24" s="1" t="s">
-        <x:v>110</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="E24" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="F24" s="1" t="s">
-        <x:v>112</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="G24" s="1" t="s">
-        <x:v>113</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="H24" s="1" t="s">
-        <x:v>114</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="I24" s="1" t="s">
-        <x:v>115</x:v>
+        <x:v>117</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
       <x:c r="A25" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C25" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D25" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="E25" s="1" t="s">
         <x:v>18</x:v>
@@ -1810,15 +1819,15 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H25" s="1" t="s">
-        <x:v>113</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="I25" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>121</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
       <x:c r="A26" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
         <x:v>17</x:v>
@@ -1842,21 +1851,21 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="I26" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:9">
       <x:c r="A27" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C27" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="D27" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="E27" s="1" t="s">
         <x:v>18</x:v>
@@ -1868,15 +1877,15 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H27" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="I27" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:9">
       <x:c r="A28" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
         <x:v>10</x:v>
@@ -1905,7 +1914,7 @@
     </x:row>
     <x:row r="29" spans="1:9">
       <x:c r="A29" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
         <x:v>21</x:v>
@@ -1934,45 +1943,45 @@
     </x:row>
     <x:row r="30" spans="1:9">
       <x:c r="A30" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C30" s="1" t="s">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="D30" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="E30" s="1" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="F30" s="1" t="s">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="G30" s="1" t="s">
         <x:v>29</x:v>
       </x:c>
       <x:c r="H30" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="I30" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>130</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:9">
       <x:c r="A31" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C31" s="1" t="s">
-        <x:v>107</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="D31" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="E31" s="1" t="s">
         <x:v>19</x:v>
@@ -1987,41 +1996,41 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="I31" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
       <x:c r="A32" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C32" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="D32" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="E32" s="1" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="F32" s="1" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="G32" s="1" t="s">
         <x:v>29</x:v>
       </x:c>
       <x:c r="H32" s="1" t="s">
-        <x:v>135</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="I32" s="1" t="s">
-        <x:v>136</x:v>
+        <x:v>137</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:9">
       <x:c r="A33" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
         <x:v>10</x:v>
@@ -2050,7 +2059,7 @@
     </x:row>
     <x:row r="34" spans="1:9">
       <x:c r="A34" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
         <x:v>17</x:v>
@@ -2079,7 +2088,7 @@
     </x:row>
     <x:row r="35" spans="1:9">
       <x:c r="A35" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
         <x:v>21</x:v>
@@ -2108,16 +2117,16 @@
     </x:row>
     <x:row r="36" spans="1:9">
       <x:c r="A36" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C36" s="1" t="s">
-        <x:v>139</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="D36" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="E36" s="1" t="s">
         <x:v>20</x:v>
@@ -2129,15 +2138,15 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H36" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I36" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>142</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:9">
       <x:c r="A37" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
         <x:v>17</x:v>
@@ -2161,12 +2170,12 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="I37" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:9">
       <x:c r="A38" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
         <x:v>21</x:v>
@@ -2175,7 +2184,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="D38" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="E38" s="1" t="s">
         <x:v>29</x:v>
@@ -2190,12 +2199,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I38" s="1" t="s">
-        <x:v>142</x:v>
+        <x:v>143</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:9">
       <x:c r="A39" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
         <x:v>10</x:v>
@@ -2204,7 +2213,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="D39" s="1" t="s">
-        <x:v>144</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="E39" s="1" t="s">
         <x:v>18</x:v>
@@ -2219,12 +2228,12 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="I39" s="1" t="s">
-        <x:v>139</x:v>
+        <x:v>140</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:9">
       <x:c r="A40" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
         <x:v>21</x:v>
@@ -2233,7 +2242,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="D40" s="1" t="s">
-        <x:v>144</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="E40" s="1" t="s">
         <x:v>18</x:v>
@@ -2248,21 +2257,21 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="I40" s="1" t="s">
-        <x:v>139</x:v>
+        <x:v>140</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:9">
       <x:c r="A41" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C41" s="1" t="s">
-        <x:v>146</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="D41" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E41" s="1" t="s">
         <x:v>30</x:v>
@@ -2277,21 +2286,21 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="I41" s="1" t="s">
-        <x:v>147</x:v>
+        <x:v>148</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9">
       <x:c r="A42" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C42" s="1" t="s">
-        <x:v>146</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="D42" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E42" s="1" t="s">
         <x:v>30</x:v>
@@ -2306,111 +2315,111 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="I42" s="1" t="s">
-        <x:v>147</x:v>
+        <x:v>148</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:9">
       <x:c r="A43" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C43" s="1" t="s">
-        <x:v>149</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="D43" s="1" t="s">
-        <x:v>150</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="E43" s="1" t="s">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="F43" s="1" t="s">
-        <x:v>152</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="G43" s="1" t="s">
         <x:v>66</x:v>
       </x:c>
       <x:c r="H43" s="1" t="s">
-        <x:v>153</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="I43" s="1" t="s">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:9">
       <x:c r="A44" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C44" s="1" t="s">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="D44" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="E44" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="F44" s="1" t="s">
-        <x:v>157</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="G44" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H44" s="1" t="s">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="I44" s="1" t="s">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:9">
       <x:c r="A45" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C45" s="1" t="s">
-        <x:v>160</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="D45" s="1" t="s">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="E45" s="1" t="s">
-        <x:v>162</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="F45" s="1" t="s">
-        <x:v>163</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="G45" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="H45" s="1" t="s">
-        <x:v>164</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="I45" s="1" t="s">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
       <x:c r="A46" s="0" t="s">
-        <x:v>166</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C46" s="1" t="s">
-        <x:v>167</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="D46" s="1" t="s">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="E46" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="F46" s="1" t="s">
         <x:v>65</x:v>
@@ -2419,24 +2428,24 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="H46" s="1" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="I46" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
       <x:c r="A47" s="0" t="s">
-        <x:v>166</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C47" s="1" t="s">
-        <x:v>139</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="D47" s="1" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="E47" s="1" t="s">
         <x:v>30</x:v>
@@ -2448,30 +2457,30 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H47" s="1" t="s">
-        <x:v>144</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="I47" s="1" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
       <x:c r="A48" s="0" t="s">
-        <x:v>166</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C48" s="1" t="s">
-        <x:v>173</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="D48" s="1" t="s">
-        <x:v>174</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="E48" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="F48" s="1" t="s">
-        <x:v>157</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="G48" s="1" t="s">
         <x:v>18</x:v>
@@ -2480,21 +2489,21 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="I48" s="1" t="s">
-        <x:v>175</x:v>
+        <x:v>176</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:9">
       <x:c r="A49" s="0" t="s">
-        <x:v>176</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C49" s="1" t="s">
-        <x:v>177</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="D49" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E49" s="1" t="s">
         <x:v>13</x:v>
@@ -2506,15 +2515,15 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H49" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="I49" s="1" t="s">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:9">
       <x:c r="A50" s="0" t="s">
-        <x:v>176</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
         <x:v>17</x:v>
@@ -2538,18 +2547,18 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="I50" s="1" t="s">
-        <x:v>107</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:9">
       <x:c r="A51" s="0" t="s">
-        <x:v>176</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C51" s="1" t="s">
-        <x:v>178</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="D51" s="1" t="s">
         <x:v>23</x:v>
@@ -2564,21 +2573,21 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H51" s="1" t="s">
-        <x:v>107</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="I51" s="1" t="s">
-        <x:v>179</x:v>
+        <x:v>180</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:9">
       <x:c r="A52" s="0" t="s">
-        <x:v>180</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C52" s="1" t="s">
-        <x:v>181</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="D52" s="1" t="s">
         <x:v>14</x:v>
@@ -2601,13 +2610,13 @@
     </x:row>
     <x:row r="53" spans="1:9">
       <x:c r="A53" s="0" t="s">
-        <x:v>180</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C53" s="1" t="s">
-        <x:v>181</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="D53" s="1" t="s">
         <x:v>14</x:v>
@@ -2630,16 +2639,16 @@
     </x:row>
     <x:row r="54" spans="1:9">
       <x:c r="A54" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C54" s="1" t="s">
-        <x:v>183</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="D54" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="E54" s="1" t="s">
         <x:v>29</x:v>
@@ -2651,27 +2660,27 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H54" s="1" t="s">
-        <x:v>185</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="I54" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:9">
       <x:c r="A55" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C55" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D55" s="1" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="E55" s="1" t="s">
-        <x:v>181</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="F55" s="1" t="s">
         <x:v>32</x:v>
@@ -2683,27 +2692,27 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="I55" s="1" t="s">
-        <x:v>187</x:v>
+        <x:v>188</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:9">
       <x:c r="A56" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C56" s="1" t="s">
-        <x:v>188</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="D56" s="1" t="s">
-        <x:v>189</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="E56" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="F56" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="G56" s="1" t="s">
         <x:v>19</x:v>
@@ -2712,24 +2721,24 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="I56" s="1" t="s">
-        <x:v>190</x:v>
+        <x:v>191</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:9">
       <x:c r="A57" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C57" s="1" t="s">
-        <x:v>192</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="D57" s="1" t="s">
-        <x:v>193</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="E57" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="F57" s="1" t="s">
         <x:v>12</x:v>
@@ -2738,15 +2747,15 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="H57" s="1" t="s">
-        <x:v>194</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="I57" s="1" t="s">
-        <x:v>195</x:v>
+        <x:v>196</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:9">
       <x:c r="A58" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
         <x:v>17</x:v>
@@ -2755,7 +2764,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="D58" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E58" s="1" t="s">
         <x:v>13</x:v>
@@ -2767,82 +2776,82 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H58" s="1" t="s">
-        <x:v>196</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="I58" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>198</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">
       <x:c r="A59" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C59" s="1" t="s">
-        <x:v>197</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="D59" s="1" t="s">
-        <x:v>198</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="E59" s="1" t="s">
         <x:v>66</x:v>
       </x:c>
       <x:c r="F59" s="1" t="s">
-        <x:v>199</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="G59" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H59" s="1" t="s">
-        <x:v>200</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="I59" s="1" t="s">
-        <x:v>201</x:v>
+        <x:v>203</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9">
       <x:c r="A60" s="0" t="s">
-        <x:v>202</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C60" s="1" t="s">
-        <x:v>203</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="D60" s="1" t="s">
-        <x:v>204</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="E60" s="1" t="s">
-        <x:v>205</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="F60" s="1" t="s">
-        <x:v>206</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="G60" s="1" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H60" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="I60" s="1" t="s">
-        <x:v>207</x:v>
+        <x:v>209</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">
       <x:c r="A61" s="0" t="s">
-        <x:v>202</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C61" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="D61" s="1" t="s">
-        <x:v>208</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="E61" s="1" t="s">
         <x:v>32</x:v>
@@ -2854,73 +2863,73 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H61" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="I61" s="1" t="s">
-        <x:v>209</x:v>
+        <x:v>211</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
       <x:c r="A62" s="0" t="s">
-        <x:v>202</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C62" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="D62" s="1" t="s">
-        <x:v>210</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="E62" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="F62" s="1" t="s">
-        <x:v>211</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="G62" s="1" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H62" s="1" t="s">
-        <x:v>212</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="I62" s="1" t="s">
-        <x:v>213</x:v>
+        <x:v>216</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:9">
       <x:c r="A63" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C63" s="1" t="s">
-        <x:v>215</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="D63" s="1" t="s">
-        <x:v>216</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="E63" s="1" t="s">
-        <x:v>217</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="F63" s="1" t="s">
-        <x:v>218</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="G63" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H63" s="1" t="s">
-        <x:v>219</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="I63" s="1" t="s">
-        <x:v>220</x:v>
+        <x:v>223</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:9">
       <x:c r="A64" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
         <x:v>17</x:v>
@@ -2929,51 +2938,51 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D64" s="1" t="s">
-        <x:v>221</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="E64" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F64" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="G64" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="H64" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="I64" s="1" t="s">
-        <x:v>222</x:v>
+        <x:v>225</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:9">
       <x:c r="A65" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C65" s="1" t="s">
-        <x:v>223</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="D65" s="1" t="s">
-        <x:v>224</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="E65" s="1" t="s">
-        <x:v>225</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="F65" s="1" t="s">
-        <x:v>226</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="G65" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H65" s="1" t="s">
-        <x:v>227</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="I65" s="1" t="s">
-        <x:v>228</x:v>
+        <x:v>231</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -133,10 +133,10 @@
     <x:t>Assault Offenses</x:t>
   </x:si>
   <x:si>
-    <x:t>7744</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4708</x:t>
+    <x:t>7743</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4709</x:t>
   </x:si>
   <x:si>
     <x:t>380</x:t>
@@ -154,7 +154,7 @@
     <x:t>15083</x:t>
   </x:si>
   <x:si>
-    <x:t>930</x:t>
+    <x:t>931</x:t>
   </x:si>
   <x:si>
     <x:t>759</x:t>
@@ -166,13 +166,13 @@
     <x:t>280</x:t>
   </x:si>
   <x:si>
-    <x:t>2171</x:t>
+    <x:t>2172</x:t>
   </x:si>
   <x:si>
     <x:t>8674</x:t>
   </x:si>
   <x:si>
-    <x:t>5467</x:t>
+    <x:t>5468</x:t>
   </x:si>
   <x:si>
     <x:t>414</x:t>
@@ -187,7 +187,7 @@
     <x:t>1792</x:t>
   </x:si>
   <x:si>
-    <x:t>17254</x:t>
+    <x:t>17255</x:t>
   </x:si>
   <x:si>
     <x:t>Bribery</x:t>
@@ -244,9 +244,6 @@
     <x:t>294</x:t>
   </x:si>
   <x:si>
-    <x:t>146</x:t>
-  </x:si>
-  <x:si>
     <x:t>18</x:t>
   </x:si>
   <x:si>
@@ -256,330 +253,336 @@
     <x:t>49</x:t>
   </x:si>
   <x:si>
+    <x:t>527</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>297</x:t>
+  </x:si>
+  <x:si>
+    <x:t>157</x:t>
+  </x:si>
+  <x:si>
+    <x:t>542</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Destruction/Damage/Vandalism of Property</x:t>
+  </x:si>
+  <x:si>
+    <x:t>872</x:t>
+  </x:si>
+  <x:si>
+    <x:t>461</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>93</x:t>
+  </x:si>
+  <x:si>
+    <x:t>180</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1646</x:t>
+  </x:si>
+  <x:si>
+    <x:t>213</x:t>
+  </x:si>
+  <x:si>
+    <x:t>103</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>395</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1085</x:t>
+  </x:si>
+  <x:si>
+    <x:t>564</x:t>
+  </x:si>
+  <x:si>
+    <x:t>120</x:t>
+  </x:si>
+  <x:si>
+    <x:t>228</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2041</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Drug/Narcotic Violations</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4063</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2048</x:t>
+  </x:si>
+  <x:si>
+    <x:t>154</x:t>
+  </x:si>
+  <x:si>
+    <x:t>570</x:t>
+  </x:si>
+  <x:si>
+    <x:t>918</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7774</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>179</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4168</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2079</x:t>
+  </x:si>
+  <x:si>
+    <x:t>162</x:t>
+  </x:si>
+  <x:si>
+    <x:t>572</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>950</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7953</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Embezzlement</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>72</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>91</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Extortion/Blackmail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fraud Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1006</x:t>
+  </x:si>
+  <x:si>
+    <x:t>762</x:t>
+  </x:si>
+  <x:si>
+    <x:t>68</x:t>
+  </x:si>
+  <x:si>
+    <x:t>160</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2295</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>88</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1037</x:t>
+  </x:si>
+  <x:si>
+    <x:t>797</x:t>
+  </x:si>
+  <x:si>
+    <x:t>166</x:t>
+  </x:si>
+  <x:si>
+    <x:t>310</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2383</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gambling Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Homicide Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36</x:t>
+  </x:si>
+  <x:si>
+    <x:t>82</x:t>
+  </x:si>
+  <x:si>
+    <x:t>144</x:t>
+  </x:si>
+  <x:si>
+    <x:t>161</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Human Trafficking</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kidnapping/Abduction</x:t>
+  </x:si>
+  <x:si>
+    <x:t>45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>122</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Larceny/Theft Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7725</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5050</x:t>
+  </x:si>
+  <x:si>
+    <x:t>299</x:t>
+  </x:si>
+  <x:si>
+    <x:t>835</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1514</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15449</x:t>
+  </x:si>
+  <x:si>
+    <x:t>715</x:t>
+  </x:si>
+  <x:si>
+    <x:t>626</x:t>
+  </x:si>
+  <x:si>
+    <x:t>59</x:t>
+  </x:si>
+  <x:si>
+    <x:t>153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1591</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8440</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5676</x:t>
+  </x:si>
+  <x:si>
+    <x:t>336</x:t>
+  </x:si>
+  <x:si>
+    <x:t>894</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1667</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17040</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Motor Vehicle Theft</x:t>
+  </x:si>
+  <x:si>
+    <x:t>265</x:t>
+  </x:si>
+  <x:si>
+    <x:t>171</x:t>
+  </x:si>
+  <x:si>
+    <x:t>56</x:t>
+  </x:si>
+  <x:si>
+    <x:t>561</x:t>
+  </x:si>
+  <x:si>
+    <x:t>112</x:t>
+  </x:si>
+  <x:si>
+    <x:t>184</x:t>
+  </x:si>
+  <x:si>
+    <x:t>301</x:t>
+  </x:si>
+  <x:si>
+    <x:t>283</x:t>
+  </x:si>
+  <x:si>
+    <x:t>745</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pornography/Obscene Material</x:t>
+  </x:si>
+  <x:si>
+    <x:t>113</x:t>
+  </x:si>
+  <x:si>
+    <x:t>159</x:t>
+  </x:si>
+  <x:si>
+    <x:t>134</x:t>
+  </x:si>
+  <x:si>
+    <x:t>190</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Prostitution Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Robbery</x:t>
+  </x:si>
+  <x:si>
+    <x:t>96</x:t>
+  </x:si>
+  <x:si>
+    <x:t>374</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25</x:t>
+  </x:si>
+  <x:si>
     <x:t>526</x:t>
   </x:si>
   <x:si>
-    <x:t>15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>297</x:t>
-  </x:si>
-  <x:si>
-    <x:t>156</x:t>
-  </x:si>
-  <x:si>
-    <x:t>541</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Destruction/Damage/Vandalism of Property</x:t>
-  </x:si>
-  <x:si>
-    <x:t>872</x:t>
-  </x:si>
-  <x:si>
-    <x:t>461</x:t>
-  </x:si>
-  <x:si>
-    <x:t>39</x:t>
-  </x:si>
-  <x:si>
-    <x:t>93</x:t>
-  </x:si>
-  <x:si>
-    <x:t>180</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1646</x:t>
-  </x:si>
-  <x:si>
-    <x:t>211</x:t>
-  </x:si>
-  <x:si>
-    <x:t>103</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27</x:t>
-  </x:si>
-  <x:si>
-    <x:t>48</x:t>
-  </x:si>
-  <x:si>
-    <x:t>393</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1083</x:t>
-  </x:si>
-  <x:si>
-    <x:t>564</x:t>
-  </x:si>
-  <x:si>
-    <x:t>120</x:t>
-  </x:si>
-  <x:si>
-    <x:t>228</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2039</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Drug/Narcotic Violations</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4062</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2048</x:t>
-  </x:si>
-  <x:si>
-    <x:t>154</x:t>
-  </x:si>
-  <x:si>
-    <x:t>570</x:t>
-  </x:si>
-  <x:si>
-    <x:t>917</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7772</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31</x:t>
-  </x:si>
-  <x:si>
-    <x:t>179</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4167</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2079</x:t>
-  </x:si>
-  <x:si>
-    <x:t>162</x:t>
-  </x:si>
-  <x:si>
-    <x:t>572</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>949</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7951</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Embezzlement</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>72</x:t>
-  </x:si>
-  <x:si>
-    <x:t>37</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24</x:t>
-  </x:si>
-  <x:si>
-    <x:t>91</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Extortion/Blackmail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fraud Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1006</x:t>
-  </x:si>
-  <x:si>
-    <x:t>760</x:t>
-  </x:si>
-  <x:si>
-    <x:t>159</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2293</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35</x:t>
-  </x:si>
-  <x:si>
-    <x:t>88</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1037</x:t>
-  </x:si>
-  <x:si>
-    <x:t>795</x:t>
-  </x:si>
-  <x:si>
-    <x:t>165</x:t>
-  </x:si>
-  <x:si>
-    <x:t>310</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2381</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gambling Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Homicide Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>36</x:t>
-  </x:si>
-  <x:si>
-    <x:t>82</x:t>
-  </x:si>
-  <x:si>
-    <x:t>144</x:t>
-  </x:si>
-  <x:si>
-    <x:t>161</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Human Trafficking</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kidnapping/Abduction</x:t>
-  </x:si>
-  <x:si>
-    <x:t>45</x:t>
-  </x:si>
-  <x:si>
-    <x:t>122</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Larceny/Theft Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7720</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5050</x:t>
-  </x:si>
-  <x:si>
-    <x:t>299</x:t>
-  </x:si>
-  <x:si>
-    <x:t>835</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1514</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15444</x:t>
-  </x:si>
-  <x:si>
-    <x:t>715</x:t>
-  </x:si>
-  <x:si>
-    <x:t>626</x:t>
-  </x:si>
-  <x:si>
-    <x:t>59</x:t>
-  </x:si>
-  <x:si>
-    <x:t>153</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1591</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8435</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5676</x:t>
-  </x:si>
-  <x:si>
-    <x:t>336</x:t>
-  </x:si>
-  <x:si>
-    <x:t>894</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1667</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17035</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Motor Vehicle Theft</x:t>
-  </x:si>
-  <x:si>
-    <x:t>265</x:t>
-  </x:si>
-  <x:si>
-    <x:t>171</x:t>
-  </x:si>
-  <x:si>
-    <x:t>56</x:t>
-  </x:si>
-  <x:si>
-    <x:t>561</x:t>
-  </x:si>
-  <x:si>
-    <x:t>112</x:t>
-  </x:si>
-  <x:si>
-    <x:t>184</x:t>
-  </x:si>
-  <x:si>
-    <x:t>301</x:t>
-  </x:si>
-  <x:si>
-    <x:t>283</x:t>
-  </x:si>
-  <x:si>
-    <x:t>745</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pornography/Obscene Material</x:t>
-  </x:si>
-  <x:si>
-    <x:t>113</x:t>
-  </x:si>
-  <x:si>
-    <x:t>134</x:t>
-  </x:si>
-  <x:si>
-    <x:t>190</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Prostitution Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Robbery</x:t>
-  </x:si>
-  <x:si>
-    <x:t>96</x:t>
-  </x:si>
-  <x:si>
-    <x:t>374</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>157</x:t>
-  </x:si>
-  <x:si>
     <x:t>205</x:t>
   </x:si>
   <x:si>
@@ -631,7 +634,7 @@
     <x:t>Stolen Property Offenses</x:t>
   </x:si>
   <x:si>
-    <x:t>538</x:t>
+    <x:t>539</x:t>
   </x:si>
   <x:si>
     <x:t>460</x:t>
@@ -643,7 +646,7 @@
     <x:t>79</x:t>
   </x:si>
   <x:si>
-    <x:t>1262</x:t>
+    <x:t>1263</x:t>
   </x:si>
   <x:si>
     <x:t>129</x:t>
@@ -652,7 +655,7 @@
     <x:t>191</x:t>
   </x:si>
   <x:si>
-    <x:t>562</x:t>
+    <x:t>563</x:t>
   </x:si>
   <x:si>
     <x:t>589</x:t>
@@ -661,10 +664,7 @@
     <x:t>90</x:t>
   </x:si>
   <x:si>
-    <x:t>160</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1453</x:t>
+    <x:t>1454</x:t>
   </x:si>
   <x:si>
     <x:t>Weapon Law Violations</x:t>
@@ -1546,22 +1546,22 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="D16" s="1" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="E16" s="1" t="s">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="E16" s="1" t="s">
+      <x:c r="F16" s="1" t="s">
         <x:v>77</x:v>
       </x:c>
-      <x:c r="F16" s="1" t="s">
+      <x:c r="G16" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H16" s="1" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="G16" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="H16" s="1" t="s">
+      <x:c r="I16" s="1" t="s">
         <x:v>79</x:v>
-      </x:c>
-      <x:c r="I16" s="1" t="s">
-        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -1590,7 +1590,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="I17" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
@@ -1601,16 +1601,16 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C18" s="1" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="D18" s="1" t="s">
         <x:v>82</x:v>
       </x:c>
-      <x:c r="D18" s="1" t="s">
-        <x:v>83</x:v>
-      </x:c>
       <x:c r="E18" s="1" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="F18" s="1" t="s">
         <x:v>77</x:v>
-      </x:c>
-      <x:c r="F18" s="1" t="s">
-        <x:v>78</x:v>
       </x:c>
       <x:c r="G18" s="1" t="s">
         <x:v>19</x:v>
@@ -1619,128 +1619,128 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="I18" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
       <x:c r="A19" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C19" s="1" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="D19" s="1" t="s">
         <x:v>86</x:v>
       </x:c>
-      <x:c r="D19" s="1" t="s">
+      <x:c r="E19" s="1" t="s">
         <x:v>87</x:v>
       </x:c>
-      <x:c r="E19" s="1" t="s">
+      <x:c r="F19" s="1" t="s">
         <x:v>88</x:v>
       </x:c>
-      <x:c r="F19" s="1" t="s">
+      <x:c r="G19" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H19" s="1" t="s">
         <x:v>89</x:v>
       </x:c>
-      <x:c r="G19" s="1" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="H19" s="1" t="s">
+      <x:c r="I19" s="1" t="s">
         <x:v>90</x:v>
-      </x:c>
-      <x:c r="I19" s="1" t="s">
-        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
       <x:c r="A20" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C20" s="1" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="D20" s="1" t="s">
         <x:v>92</x:v>
-      </x:c>
-      <x:c r="D20" s="1" t="s">
-        <x:v>93</x:v>
       </x:c>
       <x:c r="E20" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="F20" s="1" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="G20" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H20" s="1" t="s">
         <x:v>94</x:v>
       </x:c>
-      <x:c r="G20" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="H20" s="1" t="s">
+      <x:c r="I20" s="1" t="s">
         <x:v>95</x:v>
-      </x:c>
-      <x:c r="I20" s="1" t="s">
-        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
       <x:c r="A21" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C21" s="1" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="D21" s="1" t="s">
         <x:v>97</x:v>
-      </x:c>
-      <x:c r="D21" s="1" t="s">
-        <x:v>98</x:v>
       </x:c>
       <x:c r="E21" s="1" t="s">
         <x:v>65</x:v>
       </x:c>
       <x:c r="F21" s="1" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="G21" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H21" s="1" t="s">
         <x:v>99</x:v>
       </x:c>
-      <x:c r="G21" s="1" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="H21" s="1" t="s">
+      <x:c r="I21" s="1" t="s">
         <x:v>100</x:v>
-      </x:c>
-      <x:c r="I21" s="1" t="s">
-        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
       <x:c r="A22" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="D22" s="1" t="s">
         <x:v>103</x:v>
       </x:c>
-      <x:c r="D22" s="1" t="s">
+      <x:c r="E22" s="1" t="s">
         <x:v>104</x:v>
       </x:c>
-      <x:c r="E22" s="1" t="s">
+      <x:c r="F22" s="1" t="s">
         <x:v>105</x:v>
-      </x:c>
-      <x:c r="F22" s="1" t="s">
-        <x:v>106</x:v>
       </x:c>
       <x:c r="G22" s="1" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="H22" s="1" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="I22" s="1" t="s">
         <x:v>107</x:v>
-      </x:c>
-      <x:c r="I22" s="1" t="s">
-        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
       <x:c r="A23" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
         <x:v>17</x:v>
@@ -1749,7 +1749,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="D23" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="E23" s="1" t="s">
         <x:v>28</x:v>
@@ -1764,50 +1764,50 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="I23" s="1" t="s">
-        <x:v>110</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
       <x:c r="A24" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C24" s="1" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="D24" s="1" t="s">
         <x:v>111</x:v>
       </x:c>
-      <x:c r="D24" s="1" t="s">
+      <x:c r="E24" s="1" t="s">
         <x:v>112</x:v>
       </x:c>
-      <x:c r="E24" s="1" t="s">
+      <x:c r="F24" s="1" t="s">
         <x:v>113</x:v>
       </x:c>
-      <x:c r="F24" s="1" t="s">
+      <x:c r="G24" s="1" t="s">
         <x:v>114</x:v>
       </x:c>
-      <x:c r="G24" s="1" t="s">
+      <x:c r="H24" s="1" t="s">
         <x:v>115</x:v>
       </x:c>
-      <x:c r="H24" s="1" t="s">
+      <x:c r="I24" s="1" t="s">
         <x:v>116</x:v>
-      </x:c>
-      <x:c r="I24" s="1" t="s">
-        <x:v>117</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
       <x:c r="A25" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C25" s="1" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="D25" s="1" t="s">
         <x:v>119</x:v>
-      </x:c>
-      <x:c r="D25" s="1" t="s">
-        <x:v>120</x:v>
       </x:c>
       <x:c r="E25" s="1" t="s">
         <x:v>18</x:v>
@@ -1819,15 +1819,15 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H25" s="1" t="s">
-        <x:v>115</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="I25" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
       <x:c r="A26" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
         <x:v>17</x:v>
@@ -1851,21 +1851,21 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="I26" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:9">
       <x:c r="A27" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C27" s="1" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="D27" s="1" t="s">
         <x:v>122</x:v>
-      </x:c>
-      <x:c r="D27" s="1" t="s">
-        <x:v>123</x:v>
       </x:c>
       <x:c r="E27" s="1" t="s">
         <x:v>18</x:v>
@@ -1877,15 +1877,15 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H27" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="I27" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>123</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:9">
       <x:c r="A28" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
         <x:v>10</x:v>
@@ -1914,7 +1914,7 @@
     </x:row>
     <x:row r="29" spans="1:9">
       <x:c r="A29" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
         <x:v>21</x:v>
@@ -1943,19 +1943,19 @@
     </x:row>
     <x:row r="30" spans="1:9">
       <x:c r="A30" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C30" s="1" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="D30" s="1" t="s">
         <x:v>127</x:v>
       </x:c>
-      <x:c r="D30" s="1" t="s">
+      <x:c r="E30" s="1" t="s">
         <x:v>128</x:v>
-      </x:c>
-      <x:c r="E30" s="1" t="s">
-        <x:v>26</x:v>
       </x:c>
       <x:c r="F30" s="1" t="s">
         <x:v>129</x:v>
@@ -1972,13 +1972,13 @@
     </x:row>
     <x:row r="31" spans="1:9">
       <x:c r="A31" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C31" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="D31" s="1" t="s">
         <x:v>131</x:v>
@@ -2001,7 +2001,7 @@
     </x:row>
     <x:row r="32" spans="1:9">
       <x:c r="A32" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
         <x:v>21</x:v>
@@ -2013,7 +2013,7 @@
         <x:v>134</x:v>
       </x:c>
       <x:c r="E32" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="F32" s="1" t="s">
         <x:v>135</x:v>
@@ -2138,7 +2138,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H36" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="I36" s="1" t="s">
         <x:v>142</x:v>
@@ -2170,7 +2170,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="I37" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:9">
@@ -2181,10 +2181,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C38" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="D38" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="E38" s="1" t="s">
         <x:v>29</x:v>
@@ -2210,7 +2210,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C39" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D39" s="1" t="s">
         <x:v>145</x:v>
@@ -2239,7 +2239,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C40" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D40" s="1" t="s">
         <x:v>145</x:v>
@@ -2361,7 +2361,7 @@
         <x:v>157</x:v>
       </x:c>
       <x:c r="E44" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="F44" s="1" t="s">
         <x:v>158</x:v>
@@ -2396,7 +2396,7 @@
         <x:v>164</x:v>
       </x:c>
       <x:c r="G45" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="H45" s="1" t="s">
         <x:v>165</x:v>
@@ -2419,7 +2419,7 @@
         <x:v>169</x:v>
       </x:c>
       <x:c r="E46" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="F46" s="1" t="s">
         <x:v>65</x:v>
@@ -2477,7 +2477,7 @@
         <x:v>175</x:v>
       </x:c>
       <x:c r="E48" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="F48" s="1" t="s">
         <x:v>158</x:v>
@@ -2503,7 +2503,7 @@
         <x:v>178</x:v>
       </x:c>
       <x:c r="D49" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E49" s="1" t="s">
         <x:v>13</x:v>
@@ -2515,10 +2515,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H49" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="I49" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>179</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:9">
@@ -2547,7 +2547,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="I50" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:9">
@@ -2558,7 +2558,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C51" s="1" t="s">
-        <x:v>179</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="D51" s="1" t="s">
         <x:v>23</x:v>
@@ -2573,21 +2573,21 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H51" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="I51" s="1" t="s">
-        <x:v>180</x:v>
+        <x:v>181</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:9">
       <x:c r="A52" s="0" t="s">
-        <x:v>181</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C52" s="1" t="s">
-        <x:v>182</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="D52" s="1" t="s">
         <x:v>14</x:v>
@@ -2605,18 +2605,18 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="I52" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:9">
       <x:c r="A53" s="0" t="s">
-        <x:v>181</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C53" s="1" t="s">
-        <x:v>182</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="D53" s="1" t="s">
         <x:v>14</x:v>
@@ -2634,21 +2634,21 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="I53" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:9">
       <x:c r="A54" s="0" t="s">
-        <x:v>183</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C54" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="D54" s="1" t="s">
-        <x:v>185</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="E54" s="1" t="s">
         <x:v>29</x:v>
@@ -2660,27 +2660,27 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H54" s="1" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="I54" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>188</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:9">
       <x:c r="A55" s="0" t="s">
-        <x:v>183</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C55" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="D55" s="1" t="s">
-        <x:v>187</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E55" s="1" t="s">
-        <x:v>182</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="F55" s="1" t="s">
         <x:v>32</x:v>
@@ -2692,24 +2692,24 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="I55" s="1" t="s">
-        <x:v>188</x:v>
+        <x:v>189</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:9">
       <x:c r="A56" s="0" t="s">
-        <x:v>183</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C56" s="1" t="s">
-        <x:v>189</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="D56" s="1" t="s">
-        <x:v>190</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="E56" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="F56" s="1" t="s">
         <x:v>131</x:v>
@@ -2721,24 +2721,24 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="I56" s="1" t="s">
-        <x:v>191</x:v>
+        <x:v>192</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:9">
       <x:c r="A57" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C57" s="1" t="s">
-        <x:v>193</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="D57" s="1" t="s">
-        <x:v>194</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="E57" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="F57" s="1" t="s">
         <x:v>12</x:v>
@@ -2747,15 +2747,15 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="H57" s="1" t="s">
-        <x:v>195</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="I57" s="1" t="s">
-        <x:v>196</x:v>
+        <x:v>197</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:9">
       <x:c r="A58" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
         <x:v>17</x:v>
@@ -2764,7 +2764,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="D58" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="E58" s="1" t="s">
         <x:v>13</x:v>
@@ -2776,82 +2776,82 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H58" s="1" t="s">
-        <x:v>197</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="I58" s="1" t="s">
-        <x:v>198</x:v>
+        <x:v>199</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">
       <x:c r="A59" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C59" s="1" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="D59" s="1" t="s">
-        <x:v>200</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="E59" s="1" t="s">
         <x:v>66</x:v>
       </x:c>
       <x:c r="F59" s="1" t="s">
-        <x:v>201</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="G59" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H59" s="1" t="s">
-        <x:v>202</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="I59" s="1" t="s">
-        <x:v>203</x:v>
+        <x:v>204</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9">
       <x:c r="A60" s="0" t="s">
-        <x:v>204</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C60" s="1" t="s">
-        <x:v>205</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="D60" s="1" t="s">
-        <x:v>206</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="E60" s="1" t="s">
-        <x:v>207</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="F60" s="1" t="s">
-        <x:v>208</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="G60" s="1" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H60" s="1" t="s">
-        <x:v>198</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="I60" s="1" t="s">
-        <x:v>209</x:v>
+        <x:v>210</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">
       <x:c r="A61" s="0" t="s">
-        <x:v>204</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C61" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="D61" s="1" t="s">
-        <x:v>210</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="E61" s="1" t="s">
         <x:v>32</x:v>
@@ -2863,36 +2863,36 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H61" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="I61" s="1" t="s">
-        <x:v>211</x:v>
+        <x:v>212</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
       <x:c r="A62" s="0" t="s">
-        <x:v>204</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C62" s="1" t="s">
-        <x:v>212</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="D62" s="1" t="s">
-        <x:v>213</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="E62" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="F62" s="1" t="s">
-        <x:v>214</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="G62" s="1" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H62" s="1" t="s">
-        <x:v>215</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="I62" s="1" t="s">
         <x:v>216</x:v>
@@ -2950,7 +2950,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H64" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="I64" s="1" t="s">
         <x:v>225</x:v>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -133,61 +133,61 @@
     <x:t>Assault Offenses</x:t>
   </x:si>
   <x:si>
-    <x:t>7743</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4709</x:t>
+    <x:t>7752</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4712</x:t>
   </x:si>
   <x:si>
     <x:t>380</x:t>
   </x:si>
   <x:si>
-    <x:t>711</x:t>
+    <x:t>713</x:t>
   </x:si>
   <x:si>
     <x:t>28</x:t>
   </x:si>
   <x:si>
-    <x:t>1512</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15083</x:t>
-  </x:si>
-  <x:si>
-    <x:t>931</x:t>
+    <x:t>1513</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15098</x:t>
+  </x:si>
+  <x:si>
+    <x:t>932</x:t>
   </x:si>
   <x:si>
     <x:t>759</x:t>
   </x:si>
   <x:si>
-    <x:t>164</x:t>
+    <x:t>165</x:t>
   </x:si>
   <x:si>
     <x:t>280</x:t>
   </x:si>
   <x:si>
-    <x:t>2172</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8674</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5468</x:t>
+    <x:t>2174</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8684</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5471</x:t>
   </x:si>
   <x:si>
     <x:t>414</x:t>
   </x:si>
   <x:si>
-    <x:t>875</x:t>
+    <x:t>878</x:t>
   </x:si>
   <x:si>
     <x:t>32</x:t>
   </x:si>
   <x:si>
-    <x:t>1792</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17255</x:t>
+    <x:t>1793</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17272</x:t>
   </x:si>
   <x:si>
     <x:t>Bribery</x:t>
@@ -199,7 +199,7 @@
     <x:t>806</x:t>
   </x:si>
   <x:si>
-    <x:t>588</x:t>
+    <x:t>589</x:t>
   </x:si>
   <x:si>
     <x:t>47</x:t>
@@ -208,7 +208,10 @@
     <x:t>131</x:t>
   </x:si>
   <x:si>
-    <x:t>1679</x:t>
+    <x:t>1680</x:t>
+  </x:si>
+  <x:si>
+    <x:t>65</x:t>
   </x:si>
   <x:si>
     <x:t>43</x:t>
@@ -220,450 +223,450 @@
     <x:t>10</x:t>
   </x:si>
   <x:si>
+    <x:t>148</x:t>
+  </x:si>
+  <x:si>
+    <x:t>871</x:t>
+  </x:si>
+  <x:si>
+    <x:t>632</x:t>
+  </x:si>
+  <x:si>
+    <x:t>51</x:t>
+  </x:si>
+  <x:si>
+    <x:t>141</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1828</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Counterfeiting/Forgery</x:t>
+  </x:si>
+  <x:si>
+    <x:t>293</x:t>
+  </x:si>
+  <x:si>
     <x:t>147</x:t>
   </x:si>
   <x:si>
-    <x:t>870</x:t>
-  </x:si>
-  <x:si>
-    <x:t>631</x:t>
-  </x:si>
-  <x:si>
-    <x:t>51</x:t>
-  </x:si>
-  <x:si>
-    <x:t>141</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1826</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Counterfeiting/Forgery</x:t>
+    <x:t>18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>527</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>296</x:t>
+  </x:si>
+  <x:si>
+    <x:t>157</x:t>
+  </x:si>
+  <x:si>
+    <x:t>52</x:t>
+  </x:si>
+  <x:si>
+    <x:t>542</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Destruction/Damage/Vandalism of Property</x:t>
+  </x:si>
+  <x:si>
+    <x:t>872</x:t>
+  </x:si>
+  <x:si>
+    <x:t>461</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>93</x:t>
+  </x:si>
+  <x:si>
+    <x:t>180</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1646</x:t>
+  </x:si>
+  <x:si>
+    <x:t>213</x:t>
+  </x:si>
+  <x:si>
+    <x:t>103</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>395</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1085</x:t>
+  </x:si>
+  <x:si>
+    <x:t>564</x:t>
+  </x:si>
+  <x:si>
+    <x:t>120</x:t>
+  </x:si>
+  <x:si>
+    <x:t>228</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2041</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Drug/Narcotic Violations</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4068</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2048</x:t>
+  </x:si>
+  <x:si>
+    <x:t>154</x:t>
+  </x:si>
+  <x:si>
+    <x:t>570</x:t>
+  </x:si>
+  <x:si>
+    <x:t>918</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7779</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>179</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4173</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2079</x:t>
+  </x:si>
+  <x:si>
+    <x:t>162</x:t>
+  </x:si>
+  <x:si>
+    <x:t>572</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>950</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7958</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Embezzlement</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>72</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>91</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Extortion/Blackmail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fraud Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1005</x:t>
+  </x:si>
+  <x:si>
+    <x:t>762</x:t>
+  </x:si>
+  <x:si>
+    <x:t>68</x:t>
+  </x:si>
+  <x:si>
+    <x:t>161</x:t>
   </x:si>
   <x:si>
     <x:t>294</x:t>
   </x:si>
   <x:si>
-    <x:t>18</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19</x:t>
+    <x:t>2295</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>88</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1036</x:t>
+  </x:si>
+  <x:si>
+    <x:t>797</x:t>
+  </x:si>
+  <x:si>
+    <x:t>167</x:t>
+  </x:si>
+  <x:si>
+    <x:t>310</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2383</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gambling Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Homicide Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36</x:t>
+  </x:si>
+  <x:si>
+    <x:t>82</x:t>
+  </x:si>
+  <x:si>
+    <x:t>144</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Human Trafficking</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kidnapping/Abduction</x:t>
+  </x:si>
+  <x:si>
+    <x:t>45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>122</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Larceny/Theft Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7732</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5053</x:t>
+  </x:si>
+  <x:si>
+    <x:t>299</x:t>
+  </x:si>
+  <x:si>
+    <x:t>838</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1514</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15462</x:t>
+  </x:si>
+  <x:si>
+    <x:t>626</x:t>
+  </x:si>
+  <x:si>
+    <x:t>59</x:t>
+  </x:si>
+  <x:si>
+    <x:t>152</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1588</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8445</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5679</x:t>
+  </x:si>
+  <x:si>
+    <x:t>336</x:t>
+  </x:si>
+  <x:si>
+    <x:t>897</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1666</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17050</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Motor Vehicle Theft</x:t>
+  </x:si>
+  <x:si>
+    <x:t>265</x:t>
+  </x:si>
+  <x:si>
+    <x:t>171</x:t>
+  </x:si>
+  <x:si>
+    <x:t>56</x:t>
+  </x:si>
+  <x:si>
+    <x:t>561</x:t>
+  </x:si>
+  <x:si>
+    <x:t>112</x:t>
+  </x:si>
+  <x:si>
+    <x:t>184</x:t>
+  </x:si>
+  <x:si>
+    <x:t>301</x:t>
+  </x:si>
+  <x:si>
+    <x:t>283</x:t>
+  </x:si>
+  <x:si>
+    <x:t>745</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pornography/Obscene Material</x:t>
+  </x:si>
+  <x:si>
+    <x:t>113</x:t>
+  </x:si>
+  <x:si>
+    <x:t>159</x:t>
+  </x:si>
+  <x:si>
+    <x:t>134</x:t>
+  </x:si>
+  <x:si>
+    <x:t>190</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Prostitution Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Robbery</x:t>
+  </x:si>
+  <x:si>
+    <x:t>96</x:t>
+  </x:si>
+  <x:si>
+    <x:t>375</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>205</x:t>
+  </x:si>
+  <x:si>
+    <x:t>115</x:t>
+  </x:si>
+  <x:si>
+    <x:t>532</x:t>
+  </x:si>
+  <x:si>
+    <x:t>732</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sex Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>454</x:t>
+  </x:si>
+  <x:si>
+    <x:t>219</x:t>
+  </x:si>
+  <x:si>
+    <x:t>118</x:t>
+  </x:si>
+  <x:si>
+    <x:t>837</x:t>
+  </x:si>
+  <x:si>
+    <x:t>41</x:t>
+  </x:si>
+  <x:si>
+    <x:t>142</x:t>
+  </x:si>
+  <x:si>
+    <x:t>523</x:t>
+  </x:si>
+  <x:si>
+    <x:t>246</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>979</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stolen Property Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>539</x:t>
+  </x:si>
+  <x:si>
+    <x:t>460</x:t>
+  </x:si>
+  <x:si>
+    <x:t>40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>79</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1263</x:t>
+  </x:si>
+  <x:si>
+    <x:t>129</x:t>
+  </x:si>
+  <x:si>
+    <x:t>191</x:t>
+  </x:si>
+  <x:si>
+    <x:t>563</x:t>
   </x:si>
   <x:si>
     <x:t>49</x:t>
   </x:si>
   <x:si>
-    <x:t>527</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>297</x:t>
-  </x:si>
-  <x:si>
-    <x:t>157</x:t>
-  </x:si>
-  <x:si>
-    <x:t>542</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Destruction/Damage/Vandalism of Property</x:t>
-  </x:si>
-  <x:si>
-    <x:t>872</x:t>
-  </x:si>
-  <x:si>
-    <x:t>461</x:t>
-  </x:si>
-  <x:si>
-    <x:t>39</x:t>
-  </x:si>
-  <x:si>
-    <x:t>93</x:t>
-  </x:si>
-  <x:si>
-    <x:t>180</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1646</x:t>
-  </x:si>
-  <x:si>
-    <x:t>213</x:t>
-  </x:si>
-  <x:si>
-    <x:t>103</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27</x:t>
-  </x:si>
-  <x:si>
-    <x:t>48</x:t>
-  </x:si>
-  <x:si>
-    <x:t>395</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1085</x:t>
-  </x:si>
-  <x:si>
-    <x:t>564</x:t>
-  </x:si>
-  <x:si>
-    <x:t>120</x:t>
-  </x:si>
-  <x:si>
-    <x:t>228</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2041</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Drug/Narcotic Violations</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4063</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2048</x:t>
-  </x:si>
-  <x:si>
-    <x:t>154</x:t>
-  </x:si>
-  <x:si>
-    <x:t>570</x:t>
-  </x:si>
-  <x:si>
-    <x:t>918</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7774</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31</x:t>
-  </x:si>
-  <x:si>
-    <x:t>179</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4168</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2079</x:t>
-  </x:si>
-  <x:si>
-    <x:t>162</x:t>
-  </x:si>
-  <x:si>
-    <x:t>572</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>950</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7953</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Embezzlement</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>72</x:t>
-  </x:si>
-  <x:si>
-    <x:t>37</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24</x:t>
-  </x:si>
-  <x:si>
-    <x:t>91</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Extortion/Blackmail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fraud Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1006</x:t>
-  </x:si>
-  <x:si>
-    <x:t>762</x:t>
-  </x:si>
-  <x:si>
-    <x:t>68</x:t>
+    <x:t>90</x:t>
   </x:si>
   <x:si>
     <x:t>160</x:t>
   </x:si>
   <x:si>
-    <x:t>2295</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35</x:t>
-  </x:si>
-  <x:si>
-    <x:t>88</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1037</x:t>
-  </x:si>
-  <x:si>
-    <x:t>797</x:t>
-  </x:si>
-  <x:si>
-    <x:t>166</x:t>
-  </x:si>
-  <x:si>
-    <x:t>310</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2383</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gambling Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Homicide Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>36</x:t>
-  </x:si>
-  <x:si>
-    <x:t>82</x:t>
-  </x:si>
-  <x:si>
-    <x:t>144</x:t>
-  </x:si>
-  <x:si>
-    <x:t>161</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Human Trafficking</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kidnapping/Abduction</x:t>
-  </x:si>
-  <x:si>
-    <x:t>45</x:t>
-  </x:si>
-  <x:si>
-    <x:t>122</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Larceny/Theft Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7725</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5050</x:t>
-  </x:si>
-  <x:si>
-    <x:t>299</x:t>
-  </x:si>
-  <x:si>
-    <x:t>835</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1514</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15449</x:t>
-  </x:si>
-  <x:si>
-    <x:t>715</x:t>
-  </x:si>
-  <x:si>
-    <x:t>626</x:t>
-  </x:si>
-  <x:si>
-    <x:t>59</x:t>
-  </x:si>
-  <x:si>
-    <x:t>153</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1591</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8440</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5676</x:t>
-  </x:si>
-  <x:si>
-    <x:t>336</x:t>
-  </x:si>
-  <x:si>
-    <x:t>894</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1667</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17040</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Motor Vehicle Theft</x:t>
-  </x:si>
-  <x:si>
-    <x:t>265</x:t>
-  </x:si>
-  <x:si>
-    <x:t>171</x:t>
-  </x:si>
-  <x:si>
-    <x:t>56</x:t>
-  </x:si>
-  <x:si>
-    <x:t>561</x:t>
-  </x:si>
-  <x:si>
-    <x:t>112</x:t>
-  </x:si>
-  <x:si>
-    <x:t>184</x:t>
-  </x:si>
-  <x:si>
-    <x:t>301</x:t>
-  </x:si>
-  <x:si>
-    <x:t>283</x:t>
-  </x:si>
-  <x:si>
-    <x:t>745</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pornography/Obscene Material</x:t>
-  </x:si>
-  <x:si>
-    <x:t>113</x:t>
-  </x:si>
-  <x:si>
-    <x:t>159</x:t>
-  </x:si>
-  <x:si>
-    <x:t>134</x:t>
-  </x:si>
-  <x:si>
-    <x:t>190</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Prostitution Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Robbery</x:t>
-  </x:si>
-  <x:si>
-    <x:t>96</x:t>
-  </x:si>
-  <x:si>
-    <x:t>374</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>526</x:t>
-  </x:si>
-  <x:si>
-    <x:t>205</x:t>
-  </x:si>
-  <x:si>
-    <x:t>115</x:t>
-  </x:si>
-  <x:si>
-    <x:t>531</x:t>
-  </x:si>
-  <x:si>
-    <x:t>731</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sex Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>453</x:t>
-  </x:si>
-  <x:si>
-    <x:t>218</x:t>
-  </x:si>
-  <x:si>
-    <x:t>117</x:t>
-  </x:si>
-  <x:si>
-    <x:t>834</x:t>
-  </x:si>
-  <x:si>
-    <x:t>41</x:t>
-  </x:si>
-  <x:si>
-    <x:t>142</x:t>
-  </x:si>
-  <x:si>
-    <x:t>522</x:t>
-  </x:si>
-  <x:si>
-    <x:t>245</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23</x:t>
-  </x:si>
-  <x:si>
-    <x:t>158</x:t>
-  </x:si>
-  <x:si>
-    <x:t>976</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stolen Property Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>539</x:t>
-  </x:si>
-  <x:si>
-    <x:t>460</x:t>
-  </x:si>
-  <x:si>
-    <x:t>40</x:t>
-  </x:si>
-  <x:si>
-    <x:t>79</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1263</x:t>
-  </x:si>
-  <x:si>
-    <x:t>129</x:t>
-  </x:si>
-  <x:si>
-    <x:t>191</x:t>
-  </x:si>
-  <x:si>
-    <x:t>563</x:t>
-  </x:si>
-  <x:si>
-    <x:t>589</x:t>
-  </x:si>
-  <x:si>
-    <x:t>90</x:t>
-  </x:si>
-  <x:si>
     <x:t>1454</x:t>
   </x:si>
   <x:si>
@@ -682,10 +685,10 @@
     <x:t>73</x:t>
   </x:si>
   <x:si>
-    <x:t>371</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2162</x:t>
+    <x:t>372</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2163</x:t>
   </x:si>
   <x:si>
     <x:t>174</x:t>
@@ -700,16 +703,13 @@
     <x:t>1133</x:t>
   </x:si>
   <x:si>
-    <x:t>65</x:t>
-  </x:si>
-  <x:si>
     <x:t>83</x:t>
   </x:si>
   <x:si>
-    <x:t>398</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2444</x:t>
+    <x:t>399</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2445</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1485,25 +1485,25 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C14" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D14" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E14" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="F14" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="G14" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="H14" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="I14" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:9">
@@ -1514,13 +1514,13 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C15" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D15" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E15" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F15" s="1" t="s">
         <x:v>63</x:v>
@@ -1529,44 +1529,44 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="H15" s="1" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="I15" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
       <x:c r="A16" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D16" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E16" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="F16" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="G16" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="H16" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="I16" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
       <x:c r="A17" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
         <x:v>17</x:v>
@@ -1575,7 +1575,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="D17" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E17" s="1" t="s">
         <x:v>19</x:v>
@@ -1590,157 +1590,157 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="I17" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
       <x:c r="A18" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C18" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D18" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E18" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="F18" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="G18" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="H18" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="I18" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:9">
       <x:c r="A19" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C19" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D19" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E19" s="1" t="s">
-        <x:v>87</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="F19" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="G19" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H19" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="I19" s="1" t="s">
-        <x:v>90</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:9">
       <x:c r="A20" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C20" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="D20" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E20" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="F20" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="G20" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="H20" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="I20" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
       <x:c r="A21" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C21" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="D21" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="E21" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="F21" s="1" t="s">
-        <x:v>98</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G21" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H21" s="1" t="s">
-        <x:v>99</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I21" s="1" t="s">
-        <x:v>100</x:v>
+        <x:v>103</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
       <x:c r="A22" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D22" s="1" t="s">
-        <x:v>103</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="E22" s="1" t="s">
-        <x:v>104</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="F22" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="G22" s="1" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="H22" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="I22" s="1" t="s">
-        <x:v>107</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
       <x:c r="A23" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
         <x:v>17</x:v>
@@ -1749,7 +1749,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="D23" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="E23" s="1" t="s">
         <x:v>28</x:v>
@@ -1764,50 +1764,50 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="I23" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
       <x:c r="A24" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C24" s="1" t="s">
-        <x:v>110</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="D24" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="E24" s="1" t="s">
-        <x:v>112</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="F24" s="1" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="G24" s="1" t="s">
-        <x:v>114</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="H24" s="1" t="s">
-        <x:v>115</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="I24" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:9">
       <x:c r="A25" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C25" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="D25" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="E25" s="1" t="s">
         <x:v>18</x:v>
@@ -1819,15 +1819,15 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H25" s="1" t="s">
-        <x:v>114</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="I25" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>123</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:9">
       <x:c r="A26" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
         <x:v>17</x:v>
@@ -1851,21 +1851,21 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="I26" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:9">
       <x:c r="A27" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C27" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="D27" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="E27" s="1" t="s">
         <x:v>18</x:v>
@@ -1877,15 +1877,15 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H27" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="I27" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>126</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:9">
       <x:c r="A28" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
         <x:v>10</x:v>
@@ -1914,7 +1914,7 @@
     </x:row>
     <x:row r="29" spans="1:9">
       <x:c r="A29" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
         <x:v>21</x:v>
@@ -1943,45 +1943,45 @@
     </x:row>
     <x:row r="30" spans="1:9">
       <x:c r="A30" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C30" s="1" t="s">
-        <x:v>126</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="D30" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="E30" s="1" t="s">
-        <x:v>128</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="F30" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="G30" s="1" t="s">
         <x:v>29</x:v>
       </x:c>
       <x:c r="H30" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="I30" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:9">
       <x:c r="A31" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C31" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="D31" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="E31" s="1" t="s">
         <x:v>19</x:v>
@@ -1996,41 +1996,41 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="I31" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>136</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
       <x:c r="A32" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C32" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="D32" s="1" t="s">
-        <x:v>134</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="E32" s="1" t="s">
-        <x:v>128</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="F32" s="1" t="s">
-        <x:v>135</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="G32" s="1" t="s">
         <x:v>29</x:v>
       </x:c>
       <x:c r="H32" s="1" t="s">
-        <x:v>136</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="I32" s="1" t="s">
-        <x:v>137</x:v>
+        <x:v>141</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:9">
       <x:c r="A33" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
         <x:v>10</x:v>
@@ -2059,7 +2059,7 @@
     </x:row>
     <x:row r="34" spans="1:9">
       <x:c r="A34" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
         <x:v>17</x:v>
@@ -2088,7 +2088,7 @@
     </x:row>
     <x:row r="35" spans="1:9">
       <x:c r="A35" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
         <x:v>21</x:v>
@@ -2117,16 +2117,16 @@
     </x:row>
     <x:row r="36" spans="1:9">
       <x:c r="A36" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C36" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="D36" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="E36" s="1" t="s">
         <x:v>20</x:v>
@@ -2138,15 +2138,15 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H36" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="I36" s="1" t="s">
-        <x:v>142</x:v>
+        <x:v>146</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:9">
       <x:c r="A37" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
         <x:v>17</x:v>
@@ -2170,21 +2170,21 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="I37" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:9">
       <x:c r="A38" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C38" s="1" t="s">
-        <x:v>87</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D38" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="E38" s="1" t="s">
         <x:v>29</x:v>
@@ -2199,21 +2199,21 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I38" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:9">
       <x:c r="A39" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C39" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="D39" s="1" t="s">
-        <x:v>145</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="E39" s="1" t="s">
         <x:v>18</x:v>
@@ -2228,21 +2228,21 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="I39" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>144</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:9">
       <x:c r="A40" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C40" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="D40" s="1" t="s">
-        <x:v>145</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="E40" s="1" t="s">
         <x:v>18</x:v>
@@ -2257,21 +2257,21 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="I40" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>144</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:9">
       <x:c r="A41" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C41" s="1" t="s">
-        <x:v>147</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="D41" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E41" s="1" t="s">
         <x:v>30</x:v>
@@ -2286,21 +2286,21 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="I41" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>151</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:9">
       <x:c r="A42" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C42" s="1" t="s">
-        <x:v>147</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="D42" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E42" s="1" t="s">
         <x:v>30</x:v>
@@ -2315,137 +2315,137 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="I42" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>151</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:9">
       <x:c r="A43" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C43" s="1" t="s">
-        <x:v>150</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="D43" s="1" t="s">
-        <x:v>151</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="E43" s="1" t="s">
-        <x:v>152</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="F43" s="1" t="s">
-        <x:v>153</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="G43" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="H43" s="1" t="s">
-        <x:v>154</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="I43" s="1" t="s">
-        <x:v>155</x:v>
+        <x:v>158</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:9">
       <x:c r="A44" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C44" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D44" s="1" t="s">
-        <x:v>157</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="E44" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="F44" s="1" t="s">
-        <x:v>158</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="G44" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H44" s="1" t="s">
-        <x:v>159</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="I44" s="1" t="s">
-        <x:v>160</x:v>
+        <x:v>162</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:9">
       <x:c r="A45" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C45" s="1" t="s">
-        <x:v>161</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="D45" s="1" t="s">
-        <x:v>162</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="E45" s="1" t="s">
-        <x:v>163</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="F45" s="1" t="s">
-        <x:v>164</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="G45" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="H45" s="1" t="s">
-        <x:v>165</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="I45" s="1" t="s">
-        <x:v>166</x:v>
+        <x:v>168</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
       <x:c r="A46" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C46" s="1" t="s">
-        <x:v>168</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="D46" s="1" t="s">
-        <x:v>169</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="E46" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="F46" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="G46" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H46" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="I46" s="1" t="s">
-        <x:v>171</x:v>
+        <x:v>173</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
       <x:c r="A47" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C47" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="D47" s="1" t="s">
-        <x:v>172</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="E47" s="1" t="s">
         <x:v>30</x:v>
@@ -2457,30 +2457,30 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H47" s="1" t="s">
-        <x:v>145</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="I47" s="1" t="s">
-        <x:v>173</x:v>
+        <x:v>175</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
       <x:c r="A48" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C48" s="1" t="s">
-        <x:v>174</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="D48" s="1" t="s">
-        <x:v>175</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="E48" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="F48" s="1" t="s">
-        <x:v>158</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="G48" s="1" t="s">
         <x:v>18</x:v>
@@ -2489,21 +2489,21 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="I48" s="1" t="s">
-        <x:v>176</x:v>
+        <x:v>178</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:9">
       <x:c r="A49" s="0" t="s">
-        <x:v>177</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C49" s="1" t="s">
-        <x:v>178</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="D49" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E49" s="1" t="s">
         <x:v>13</x:v>
@@ -2515,15 +2515,15 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H49" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="I49" s="1" t="s">
-        <x:v>179</x:v>
+        <x:v>181</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:9">
       <x:c r="A50" s="0" t="s">
-        <x:v>177</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
         <x:v>17</x:v>
@@ -2547,18 +2547,18 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="I50" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:9">
       <x:c r="A51" s="0" t="s">
-        <x:v>177</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C51" s="1" t="s">
-        <x:v>180</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="D51" s="1" t="s">
         <x:v>23</x:v>
@@ -2573,21 +2573,21 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H51" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="I51" s="1" t="s">
-        <x:v>181</x:v>
+        <x:v>183</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:9">
       <x:c r="A52" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C52" s="1" t="s">
-        <x:v>183</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="D52" s="1" t="s">
         <x:v>14</x:v>
@@ -2605,18 +2605,18 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="I52" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:9">
       <x:c r="A53" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C53" s="1" t="s">
-        <x:v>183</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="D53" s="1" t="s">
         <x:v>14</x:v>
@@ -2634,53 +2634,53 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="I53" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:9">
       <x:c r="A54" s="0" t="s">
-        <x:v>184</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C54" s="1" t="s">
-        <x:v>185</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="D54" s="1" t="s">
-        <x:v>186</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="E54" s="1" t="s">
         <x:v>29</x:v>
       </x:c>
       <x:c r="F54" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="G54" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="H54" s="1" t="s">
-        <x:v>187</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="I54" s="1" t="s">
-        <x:v>188</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:9">
       <x:c r="A55" s="0" t="s">
-        <x:v>184</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="C55" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D55" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E55" s="1" t="s">
-        <x:v>183</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="F55" s="1" t="s">
         <x:v>32</x:v>
@@ -2692,27 +2692,27 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="I55" s="1" t="s">
-        <x:v>189</x:v>
+        <x:v>190</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:9">
       <x:c r="A56" s="0" t="s">
-        <x:v>184</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C56" s="1" t="s">
-        <x:v>190</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="D56" s="1" t="s">
-        <x:v>191</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="E56" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="F56" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="G56" s="1" t="s">
         <x:v>19</x:v>
@@ -2721,24 +2721,24 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="I56" s="1" t="s">
-        <x:v>192</x:v>
+        <x:v>193</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:9">
       <x:c r="A57" s="0" t="s">
-        <x:v>193</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C57" s="1" t="s">
-        <x:v>194</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="D57" s="1" t="s">
-        <x:v>195</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="E57" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="F57" s="1" t="s">
         <x:v>12</x:v>
@@ -2747,15 +2747,15 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="H57" s="1" t="s">
-        <x:v>196</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="I57" s="1" t="s">
-        <x:v>197</x:v>
+        <x:v>198</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:9">
       <x:c r="A58" s="0" t="s">
-        <x:v>193</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
         <x:v>17</x:v>
@@ -2764,7 +2764,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="D58" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="E58" s="1" t="s">
         <x:v>13</x:v>
@@ -2776,36 +2776,36 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H58" s="1" t="s">
-        <x:v>198</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="I58" s="1" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">
       <x:c r="A59" s="0" t="s">
-        <x:v>193</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C59" s="1" t="s">
-        <x:v>200</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="D59" s="1" t="s">
-        <x:v>201</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="E59" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F59" s="1" t="s">
-        <x:v>202</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="G59" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H59" s="1" t="s">
-        <x:v>203</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="I59" s="1" t="s">
         <x:v>204</x:v>
@@ -2834,7 +2834,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="H60" s="1" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="I60" s="1" t="s">
         <x:v>210</x:v>
@@ -2848,7 +2848,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C61" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="D61" s="1" t="s">
         <x:v>211</x:v>
@@ -2863,7 +2863,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H61" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I61" s="1" t="s">
         <x:v>212</x:v>
@@ -2880,10 +2880,10 @@
         <x:v>213</x:v>
       </x:c>
       <x:c r="D62" s="1" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="E62" s="1" t="s">
         <x:v>214</x:v>
-      </x:c>
-      <x:c r="E62" s="1" t="s">
-        <x:v>78</x:v>
       </x:c>
       <x:c r="F62" s="1" t="s">
         <x:v>215</x:v>
@@ -2892,44 +2892,44 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="H62" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="I62" s="1" t="s">
-        <x:v>216</x:v>
+        <x:v>217</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:9">
       <x:c r="A63" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C63" s="1" t="s">
-        <x:v>218</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="D63" s="1" t="s">
-        <x:v>219</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="E63" s="1" t="s">
-        <x:v>220</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="F63" s="1" t="s">
-        <x:v>221</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="G63" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H63" s="1" t="s">
-        <x:v>222</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="I63" s="1" t="s">
-        <x:v>223</x:v>
+        <x:v>224</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:9">
       <x:c r="A64" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
         <x:v>17</x:v>
@@ -2938,39 +2938,39 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D64" s="1" t="s">
-        <x:v>224</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="E64" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="F64" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="G64" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="H64" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="I64" s="1" t="s">
-        <x:v>225</x:v>
+        <x:v>226</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:9">
       <x:c r="A65" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C65" s="1" t="s">
-        <x:v>226</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="D65" s="1" t="s">
-        <x:v>227</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="E65" s="1" t="s">
-        <x:v>228</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F65" s="1" t="s">
         <x:v>229</x:v>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -136,10 +136,10 @@
     <x:t>7752</x:t>
   </x:si>
   <x:si>
-    <x:t>4712</x:t>
-  </x:si>
-  <x:si>
-    <x:t>380</x:t>
+    <x:t>4714</x:t>
+  </x:si>
+  <x:si>
+    <x:t>381</x:t>
   </x:si>
   <x:si>
     <x:t>713</x:t>
@@ -151,10 +151,10 @@
     <x:t>1513</x:t>
   </x:si>
   <x:si>
-    <x:t>15098</x:t>
-  </x:si>
-  <x:si>
-    <x:t>932</x:t>
+    <x:t>15101</x:t>
+  </x:si>
+  <x:si>
+    <x:t>933</x:t>
   </x:si>
   <x:si>
     <x:t>759</x:t>
@@ -166,16 +166,16 @@
     <x:t>280</x:t>
   </x:si>
   <x:si>
-    <x:t>2174</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8684</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5471</x:t>
-  </x:si>
-  <x:si>
-    <x:t>414</x:t>
+    <x:t>2175</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8685</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5473</x:t>
+  </x:si>
+  <x:si>
+    <x:t>415</x:t>
   </x:si>
   <x:si>
     <x:t>878</x:t>
@@ -187,7 +187,7 @@
     <x:t>1793</x:t>
   </x:si>
   <x:si>
-    <x:t>17272</x:t>
+    <x:t>17276</x:t>
   </x:si>
   <x:si>
     <x:t>Bribery</x:t>
@@ -199,463 +199,469 @@
     <x:t>806</x:t>
   </x:si>
   <x:si>
+    <x:t>590</x:t>
+  </x:si>
+  <x:si>
+    <x:t>47</x:t>
+  </x:si>
+  <x:si>
+    <x:t>131</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1681</x:t>
+  </x:si>
+  <x:si>
+    <x:t>65</x:t>
+  </x:si>
+  <x:si>
+    <x:t>43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>148</x:t>
+  </x:si>
+  <x:si>
+    <x:t>871</x:t>
+  </x:si>
+  <x:si>
+    <x:t>633</x:t>
+  </x:si>
+  <x:si>
+    <x:t>51</x:t>
+  </x:si>
+  <x:si>
+    <x:t>141</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1829</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Counterfeiting/Forgery</x:t>
+  </x:si>
+  <x:si>
+    <x:t>293</x:t>
+  </x:si>
+  <x:si>
+    <x:t>147</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>527</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>296</x:t>
+  </x:si>
+  <x:si>
+    <x:t>157</x:t>
+  </x:si>
+  <x:si>
+    <x:t>52</x:t>
+  </x:si>
+  <x:si>
+    <x:t>542</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Destruction/Damage/Vandalism of Property</x:t>
+  </x:si>
+  <x:si>
+    <x:t>872</x:t>
+  </x:si>
+  <x:si>
+    <x:t>461</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>93</x:t>
+  </x:si>
+  <x:si>
+    <x:t>180</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1646</x:t>
+  </x:si>
+  <x:si>
+    <x:t>213</x:t>
+  </x:si>
+  <x:si>
+    <x:t>103</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>395</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1085</x:t>
+  </x:si>
+  <x:si>
+    <x:t>564</x:t>
+  </x:si>
+  <x:si>
+    <x:t>120</x:t>
+  </x:si>
+  <x:si>
+    <x:t>228</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2041</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Drug/Narcotic Violations</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4068</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2050</x:t>
+  </x:si>
+  <x:si>
+    <x:t>154</x:t>
+  </x:si>
+  <x:si>
+    <x:t>570</x:t>
+  </x:si>
+  <x:si>
+    <x:t>918</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7781</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>179</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4173</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2081</x:t>
+  </x:si>
+  <x:si>
+    <x:t>162</x:t>
+  </x:si>
+  <x:si>
+    <x:t>572</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>950</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7960</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Embezzlement</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>72</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>91</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Extortion/Blackmail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fraud Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1005</x:t>
+  </x:si>
+  <x:si>
+    <x:t>762</x:t>
+  </x:si>
+  <x:si>
+    <x:t>68</x:t>
+  </x:si>
+  <x:si>
+    <x:t>161</x:t>
+  </x:si>
+  <x:si>
+    <x:t>294</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2295</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>88</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1036</x:t>
+  </x:si>
+  <x:si>
+    <x:t>797</x:t>
+  </x:si>
+  <x:si>
+    <x:t>167</x:t>
+  </x:si>
+  <x:si>
+    <x:t>310</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2383</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gambling Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Homicide Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36</x:t>
+  </x:si>
+  <x:si>
+    <x:t>82</x:t>
+  </x:si>
+  <x:si>
+    <x:t>144</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Human Trafficking</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kidnapping/Abduction</x:t>
+  </x:si>
+  <x:si>
+    <x:t>45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>122</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Larceny/Theft Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7739</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5053</x:t>
+  </x:si>
+  <x:si>
+    <x:t>299</x:t>
+  </x:si>
+  <x:si>
+    <x:t>838</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1514</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15469</x:t>
+  </x:si>
+  <x:si>
+    <x:t>714</x:t>
+  </x:si>
+  <x:si>
+    <x:t>627</x:t>
+  </x:si>
+  <x:si>
+    <x:t>59</x:t>
+  </x:si>
+  <x:si>
+    <x:t>152</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1590</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8453</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5680</x:t>
+  </x:si>
+  <x:si>
+    <x:t>336</x:t>
+  </x:si>
+  <x:si>
+    <x:t>897</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1666</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17059</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Motor Vehicle Theft</x:t>
+  </x:si>
+  <x:si>
+    <x:t>265</x:t>
+  </x:si>
+  <x:si>
+    <x:t>171</x:t>
+  </x:si>
+  <x:si>
+    <x:t>56</x:t>
+  </x:si>
+  <x:si>
+    <x:t>561</x:t>
+  </x:si>
+  <x:si>
+    <x:t>112</x:t>
+  </x:si>
+  <x:si>
+    <x:t>184</x:t>
+  </x:si>
+  <x:si>
+    <x:t>301</x:t>
+  </x:si>
+  <x:si>
+    <x:t>283</x:t>
+  </x:si>
+  <x:si>
+    <x:t>745</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pornography/Obscene Material</x:t>
+  </x:si>
+  <x:si>
+    <x:t>113</x:t>
+  </x:si>
+  <x:si>
+    <x:t>159</x:t>
+  </x:si>
+  <x:si>
+    <x:t>134</x:t>
+  </x:si>
+  <x:si>
+    <x:t>190</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Prostitution Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Robbery</x:t>
+  </x:si>
+  <x:si>
+    <x:t>96</x:t>
+  </x:si>
+  <x:si>
+    <x:t>376</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>528</x:t>
+  </x:si>
+  <x:si>
+    <x:t>205</x:t>
+  </x:si>
+  <x:si>
+    <x:t>115</x:t>
+  </x:si>
+  <x:si>
+    <x:t>533</x:t>
+  </x:si>
+  <x:si>
+    <x:t>733</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sex Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>454</x:t>
+  </x:si>
+  <x:si>
+    <x:t>220</x:t>
+  </x:si>
+  <x:si>
+    <x:t>118</x:t>
+  </x:si>
+  <x:si>
+    <x:t>41</x:t>
+  </x:si>
+  <x:si>
+    <x:t>142</x:t>
+  </x:si>
+  <x:si>
+    <x:t>523</x:t>
+  </x:si>
+  <x:si>
+    <x:t>247</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>980</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stolen Property Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>539</x:t>
+  </x:si>
+  <x:si>
+    <x:t>460</x:t>
+  </x:si>
+  <x:si>
+    <x:t>40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>79</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1263</x:t>
+  </x:si>
+  <x:si>
+    <x:t>129</x:t>
+  </x:si>
+  <x:si>
+    <x:t>191</x:t>
+  </x:si>
+  <x:si>
+    <x:t>563</x:t>
+  </x:si>
+  <x:si>
     <x:t>589</x:t>
-  </x:si>
-  <x:si>
-    <x:t>47</x:t>
-  </x:si>
-  <x:si>
-    <x:t>131</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1680</x:t>
-  </x:si>
-  <x:si>
-    <x:t>65</x:t>
-  </x:si>
-  <x:si>
-    <x:t>43</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>148</x:t>
-  </x:si>
-  <x:si>
-    <x:t>871</x:t>
-  </x:si>
-  <x:si>
-    <x:t>632</x:t>
-  </x:si>
-  <x:si>
-    <x:t>51</x:t>
-  </x:si>
-  <x:si>
-    <x:t>141</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1828</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Counterfeiting/Forgery</x:t>
-  </x:si>
-  <x:si>
-    <x:t>293</x:t>
-  </x:si>
-  <x:si>
-    <x:t>147</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19</x:t>
-  </x:si>
-  <x:si>
-    <x:t>50</x:t>
-  </x:si>
-  <x:si>
-    <x:t>527</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>296</x:t>
-  </x:si>
-  <x:si>
-    <x:t>157</x:t>
-  </x:si>
-  <x:si>
-    <x:t>52</x:t>
-  </x:si>
-  <x:si>
-    <x:t>542</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Destruction/Damage/Vandalism of Property</x:t>
-  </x:si>
-  <x:si>
-    <x:t>872</x:t>
-  </x:si>
-  <x:si>
-    <x:t>461</x:t>
-  </x:si>
-  <x:si>
-    <x:t>39</x:t>
-  </x:si>
-  <x:si>
-    <x:t>93</x:t>
-  </x:si>
-  <x:si>
-    <x:t>180</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1646</x:t>
-  </x:si>
-  <x:si>
-    <x:t>213</x:t>
-  </x:si>
-  <x:si>
-    <x:t>103</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27</x:t>
-  </x:si>
-  <x:si>
-    <x:t>48</x:t>
-  </x:si>
-  <x:si>
-    <x:t>395</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1085</x:t>
-  </x:si>
-  <x:si>
-    <x:t>564</x:t>
-  </x:si>
-  <x:si>
-    <x:t>120</x:t>
-  </x:si>
-  <x:si>
-    <x:t>228</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2041</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Drug/Narcotic Violations</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4068</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2048</x:t>
-  </x:si>
-  <x:si>
-    <x:t>154</x:t>
-  </x:si>
-  <x:si>
-    <x:t>570</x:t>
-  </x:si>
-  <x:si>
-    <x:t>918</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7779</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31</x:t>
-  </x:si>
-  <x:si>
-    <x:t>179</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4173</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2079</x:t>
-  </x:si>
-  <x:si>
-    <x:t>162</x:t>
-  </x:si>
-  <x:si>
-    <x:t>572</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>950</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7958</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Embezzlement</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>72</x:t>
-  </x:si>
-  <x:si>
-    <x:t>37</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24</x:t>
-  </x:si>
-  <x:si>
-    <x:t>91</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Extortion/Blackmail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fraud Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1005</x:t>
-  </x:si>
-  <x:si>
-    <x:t>762</x:t>
-  </x:si>
-  <x:si>
-    <x:t>68</x:t>
-  </x:si>
-  <x:si>
-    <x:t>161</x:t>
-  </x:si>
-  <x:si>
-    <x:t>294</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2295</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35</x:t>
-  </x:si>
-  <x:si>
-    <x:t>88</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1036</x:t>
-  </x:si>
-  <x:si>
-    <x:t>797</x:t>
-  </x:si>
-  <x:si>
-    <x:t>167</x:t>
-  </x:si>
-  <x:si>
-    <x:t>310</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2383</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gambling Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Homicide Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>36</x:t>
-  </x:si>
-  <x:si>
-    <x:t>82</x:t>
-  </x:si>
-  <x:si>
-    <x:t>144</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Human Trafficking</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kidnapping/Abduction</x:t>
-  </x:si>
-  <x:si>
-    <x:t>45</x:t>
-  </x:si>
-  <x:si>
-    <x:t>122</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Larceny/Theft Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7732</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5053</x:t>
-  </x:si>
-  <x:si>
-    <x:t>299</x:t>
-  </x:si>
-  <x:si>
-    <x:t>838</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1514</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15462</x:t>
-  </x:si>
-  <x:si>
-    <x:t>626</x:t>
-  </x:si>
-  <x:si>
-    <x:t>59</x:t>
-  </x:si>
-  <x:si>
-    <x:t>152</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1588</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8445</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5679</x:t>
-  </x:si>
-  <x:si>
-    <x:t>336</x:t>
-  </x:si>
-  <x:si>
-    <x:t>897</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1666</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17050</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Motor Vehicle Theft</x:t>
-  </x:si>
-  <x:si>
-    <x:t>265</x:t>
-  </x:si>
-  <x:si>
-    <x:t>171</x:t>
-  </x:si>
-  <x:si>
-    <x:t>56</x:t>
-  </x:si>
-  <x:si>
-    <x:t>561</x:t>
-  </x:si>
-  <x:si>
-    <x:t>112</x:t>
-  </x:si>
-  <x:si>
-    <x:t>184</x:t>
-  </x:si>
-  <x:si>
-    <x:t>301</x:t>
-  </x:si>
-  <x:si>
-    <x:t>283</x:t>
-  </x:si>
-  <x:si>
-    <x:t>745</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pornography/Obscene Material</x:t>
-  </x:si>
-  <x:si>
-    <x:t>113</x:t>
-  </x:si>
-  <x:si>
-    <x:t>159</x:t>
-  </x:si>
-  <x:si>
-    <x:t>134</x:t>
-  </x:si>
-  <x:si>
-    <x:t>190</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Prostitution Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Robbery</x:t>
-  </x:si>
-  <x:si>
-    <x:t>96</x:t>
-  </x:si>
-  <x:si>
-    <x:t>375</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>205</x:t>
-  </x:si>
-  <x:si>
-    <x:t>115</x:t>
-  </x:si>
-  <x:si>
-    <x:t>532</x:t>
-  </x:si>
-  <x:si>
-    <x:t>732</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sex Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>454</x:t>
-  </x:si>
-  <x:si>
-    <x:t>219</x:t>
-  </x:si>
-  <x:si>
-    <x:t>118</x:t>
-  </x:si>
-  <x:si>
-    <x:t>837</x:t>
-  </x:si>
-  <x:si>
-    <x:t>41</x:t>
-  </x:si>
-  <x:si>
-    <x:t>142</x:t>
-  </x:si>
-  <x:si>
-    <x:t>523</x:t>
-  </x:si>
-  <x:si>
-    <x:t>246</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23</x:t>
-  </x:si>
-  <x:si>
-    <x:t>979</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stolen Property Offenses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>539</x:t>
-  </x:si>
-  <x:si>
-    <x:t>460</x:t>
-  </x:si>
-  <x:si>
-    <x:t>40</x:t>
-  </x:si>
-  <x:si>
-    <x:t>79</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1263</x:t>
-  </x:si>
-  <x:si>
-    <x:t>129</x:t>
-  </x:si>
-  <x:si>
-    <x:t>191</x:t>
-  </x:si>
-  <x:si>
-    <x:t>563</x:t>
   </x:si>
   <x:si>
     <x:t>49</x:t>
@@ -2355,25 +2361,25 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C44" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="D44" s="1" t="s">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="E44" s="1" t="s">
         <x:v>124</x:v>
       </x:c>
       <x:c r="F44" s="1" t="s">
-        <x:v>160</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="G44" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="H44" s="1" t="s">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="I44" s="1" t="s">
-        <x:v>162</x:v>
+        <x:v>163</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:9">
@@ -2384,39 +2390,39 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C45" s="1" t="s">
-        <x:v>163</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="D45" s="1" t="s">
-        <x:v>164</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="E45" s="1" t="s">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="F45" s="1" t="s">
-        <x:v>166</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="G45" s="1" t="s">
         <x:v>96</x:v>
       </x:c>
       <x:c r="H45" s="1" t="s">
-        <x:v>167</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="I45" s="1" t="s">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
       <x:c r="A46" s="0" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C46" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="D46" s="1" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="E46" s="1" t="s">
         <x:v>125</x:v>
@@ -2428,15 +2434,15 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="H46" s="1" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="I46" s="1" t="s">
-        <x:v>173</x:v>
+        <x:v>174</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:9">
       <x:c r="A47" s="0" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
         <x:v>17</x:v>
@@ -2445,7 +2451,7 @@
         <x:v>144</x:v>
       </x:c>
       <x:c r="D47" s="1" t="s">
-        <x:v>174</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="E47" s="1" t="s">
         <x:v>30</x:v>
@@ -2460,27 +2466,27 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="I47" s="1" t="s">
-        <x:v>175</x:v>
+        <x:v>176</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:9">
       <x:c r="A48" s="0" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C48" s="1" t="s">
-        <x:v>176</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="D48" s="1" t="s">
-        <x:v>177</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="E48" s="1" t="s">
         <x:v>121</x:v>
       </x:c>
       <x:c r="F48" s="1" t="s">
-        <x:v>160</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="G48" s="1" t="s">
         <x:v>18</x:v>
@@ -2489,18 +2495,18 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="I48" s="1" t="s">
-        <x:v>178</x:v>
+        <x:v>179</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:9">
       <x:c r="A49" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C49" s="1" t="s">
-        <x:v>180</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="D49" s="1" t="s">
         <x:v>78</x:v>
@@ -2518,12 +2524,12 @@
         <x:v>125</x:v>
       </x:c>
       <x:c r="I49" s="1" t="s">
-        <x:v>181</x:v>
+        <x:v>182</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:9">
       <x:c r="A50" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
         <x:v>17</x:v>
@@ -2552,13 +2558,13 @@
     </x:row>
     <x:row r="51" spans="1:9">
       <x:c r="A51" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C51" s="1" t="s">
-        <x:v>182</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="D51" s="1" t="s">
         <x:v>23</x:v>
@@ -2576,18 +2582,18 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="I51" s="1" t="s">
-        <x:v>183</x:v>
+        <x:v>184</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:9">
       <x:c r="A52" s="0" t="s">
-        <x:v>184</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C52" s="1" t="s">
-        <x:v>185</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="D52" s="1" t="s">
         <x:v>14</x:v>
@@ -2610,13 +2616,13 @@
     </x:row>
     <x:row r="53" spans="1:9">
       <x:c r="A53" s="0" t="s">
-        <x:v>184</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C53" s="1" t="s">
-        <x:v>185</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="D53" s="1" t="s">
         <x:v>14</x:v>
@@ -2639,16 +2645,16 @@
     </x:row>
     <x:row r="54" spans="1:9">
       <x:c r="A54" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C54" s="1" t="s">
-        <x:v>187</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="D54" s="1" t="s">
-        <x:v>188</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="E54" s="1" t="s">
         <x:v>29</x:v>
@@ -2660,15 +2666,15 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H54" s="1" t="s">
-        <x:v>189</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="I54" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>191</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:9">
       <x:c r="A55" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
         <x:v>17</x:v>
@@ -2680,7 +2686,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E55" s="1" t="s">
-        <x:v>185</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="F55" s="1" t="s">
         <x:v>32</x:v>
@@ -2692,21 +2698,21 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="I55" s="1" t="s">
-        <x:v>190</x:v>
+        <x:v>192</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:9">
       <x:c r="A56" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C56" s="1" t="s">
-        <x:v>191</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="D56" s="1" t="s">
-        <x:v>192</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="E56" s="1" t="s">
         <x:v>122</x:v>
@@ -2721,21 +2727,21 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="I56" s="1" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:9">
       <x:c r="A57" s="0" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C57" s="1" t="s">
-        <x:v>195</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="D57" s="1" t="s">
-        <x:v>196</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="E57" s="1" t="s">
         <x:v>125</x:v>
@@ -2747,15 +2753,15 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="H57" s="1" t="s">
-        <x:v>197</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="I57" s="1" t="s">
-        <x:v>198</x:v>
+        <x:v>156</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:9">
       <x:c r="A58" s="0" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
         <x:v>17</x:v>
@@ -2776,73 +2782,73 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H58" s="1" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="I58" s="1" t="s">
-        <x:v>200</x:v>
+        <x:v>201</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:9">
       <x:c r="A59" s="0" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C59" s="1" t="s">
-        <x:v>201</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="D59" s="1" t="s">
-        <x:v>202</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="E59" s="1" t="s">
         <x:v>67</x:v>
       </x:c>
       <x:c r="F59" s="1" t="s">
-        <x:v>203</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="G59" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H59" s="1" t="s">
-        <x:v>181</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="I59" s="1" t="s">
-        <x:v>204</x:v>
+        <x:v>205</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:9">
       <x:c r="A60" s="0" t="s">
-        <x:v>205</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C60" s="1" t="s">
-        <x:v>206</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="D60" s="1" t="s">
-        <x:v>207</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="E60" s="1" t="s">
-        <x:v>208</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="F60" s="1" t="s">
-        <x:v>209</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="G60" s="1" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H60" s="1" t="s">
-        <x:v>200</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="I60" s="1" t="s">
-        <x:v>210</x:v>
+        <x:v>211</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">
       <x:c r="A61" s="0" t="s">
-        <x:v>205</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
         <x:v>17</x:v>
@@ -2851,7 +2857,7 @@
         <x:v>125</x:v>
       </x:c>
       <x:c r="D61" s="1" t="s">
-        <x:v>211</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="E61" s="1" t="s">
         <x:v>32</x:v>
@@ -2866,70 +2872,70 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="I61" s="1" t="s">
-        <x:v>212</x:v>
+        <x:v>213</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:9">
       <x:c r="A62" s="0" t="s">
-        <x:v>205</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C62" s="1" t="s">
-        <x:v>213</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="D62" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="E62" s="1" t="s">
-        <x:v>214</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="F62" s="1" t="s">
-        <x:v>215</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="G62" s="1" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="H62" s="1" t="s">
-        <x:v>216</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="I62" s="1" t="s">
-        <x:v>217</x:v>
+        <x:v>219</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:9">
       <x:c r="A63" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C63" s="1" t="s">
-        <x:v>219</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="D63" s="1" t="s">
-        <x:v>220</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="E63" s="1" t="s">
-        <x:v>221</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="F63" s="1" t="s">
-        <x:v>222</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="G63" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H63" s="1" t="s">
-        <x:v>223</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="I63" s="1" t="s">
-        <x:v>224</x:v>
+        <x:v>226</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:9">
       <x:c r="A64" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
         <x:v>17</x:v>
@@ -2938,7 +2944,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D64" s="1" t="s">
-        <x:v>225</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="E64" s="1" t="s">
         <x:v>68</x:v>
@@ -2953,36 +2959,36 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="I64" s="1" t="s">
-        <x:v>226</x:v>
+        <x:v>228</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:9">
       <x:c r="A65" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="C65" s="1" t="s">
-        <x:v>227</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="D65" s="1" t="s">
-        <x:v>228</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="E65" s="1" t="s">
         <x:v>65</x:v>
       </x:c>
       <x:c r="F65" s="1" t="s">
-        <x:v>229</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="G65" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="H65" s="1" t="s">
-        <x:v>230</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="I65" s="1" t="s">
-        <x:v>231</x:v>
+        <x:v>233</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsAdultJuvenileGroupAByAgeRaceDownloadData_ReportYear_2024.xlsx
@@ -133,7 +133,7 @@
     <x:t>Assault Offenses</x:t>
   </x:si>
   <x:si>
-    <x:t>7752</x:t>
+    <x:t>7753</x:t>
   </x:si>
   <x:si>
     <x:t>4714</x:t>
@@ -142,22 +142,22 @@
     <x:t>381</x:t>
   </x:si>
   <x:si>
-    <x:t>713</x:t>
+    <x:t>715</x:t>
   </x:si>
   <x:si>
     <x:t>28</x:t>
   </x:si>
   <x:si>
-    <x:t>1513</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15101</x:t>
-  </x:si>
-  <x:si>
-    <x:t>933</x:t>
-  </x:si>
-  <x:si>
-    <x:t>759</x:t>
+    <x:t>1515</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15106</x:t>
+  </x:si>
+  <x:si>
+    <x:t>934</x:t>
+  </x:si>
+  <x:si>
+    <x:t>760</x:t>
   </x:si>
   <x:si>
     <x:t>165</x:t>
@@ -166,28 +166,28 @@
     <x:t>280</x:t>
   </x:si>
   <x:si>
-    <x:t>2175</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8685</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5473</x:t>
+    <x:t>2177</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8687</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5474</x:t>
   </x:si>
   <x:si>
     <x:t>415</x:t>
   </x:si>
   <x:si>
-    <x:t>878</x:t>
+    <x:t>880</x:t>
   </x:si>
   <x:si>
     <x:t>32</x:t>
   </x:si>
   <x:si>
-    <x:t>1793</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17276</x:t>
+    <x:t>1795</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17283</x:t>
   </x:si>
   <x:si>
     <x:t>Bribery</x:t>
@@ -199,7 +199,7 @@
     <x:t>806</x:t>
   </x:si>
   <x:si>
-    <x:t>590</x:t>
+    <x:t>591</x:t>
   </x:si>
   <x:si>
     <x:t>47</x:t>
@@ -208,7 +208,7 @@
     <x:t>131</x:t>
   </x:si>
   <x:si>
-    <x:t>1681</x:t>
+    <x:t>1682</x:t>
   </x:si>
   <x:si>
     <x:t>65</x:t>
@@ -229,7 +229,7 @@
     <x:t>871</x:t>
   </x:si>
   <x:si>
-    <x:t>633</x:t>
+    <x:t>634</x:t>
   </x:si>
   <x:si>
     <x:t>51</x:t>
@@ -238,7 +238,7 @@
     <x:t>141</x:t>
   </x:si>
   <x:si>
-    <x:t>1829</x:t>
+    <x:t>1830</x:t>
   </x:si>
   <x:si>
     <x:t>Counterfeiting/Forgery</x:t>
@@ -247,7 +247,7 @@
     <x:t>293</x:t>
   </x:si>
   <x:si>
-    <x:t>147</x:t>
+    <x:t>149</x:t>
   </x:si>
   <x:si>
     <x:t>18</x:t>
@@ -259,7 +259,7 @@
     <x:t>50</x:t>
   </x:si>
   <x:si>
-    <x:t>527</x:t>
+    <x:t>529</x:t>
   </x:si>
   <x:si>
     <x:t>15</x:t>
@@ -268,330 +268,327 @@
     <x:t>296</x:t>
   </x:si>
   <x:si>
+    <x:t>159</x:t>
+  </x:si>
+  <x:si>
+    <x:t>52</x:t>
+  </x:si>
+  <x:si>
+    <x:t>544</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Destruction/Damage/Vandalism of Property</x:t>
+  </x:si>
+  <x:si>
+    <x:t>872</x:t>
+  </x:si>
+  <x:si>
+    <x:t>461</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>93</x:t>
+  </x:si>
+  <x:si>
+    <x:t>180</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1646</x:t>
+  </x:si>
+  <x:si>
+    <x:t>213</x:t>
+  </x:si>
+  <x:si>
+    <x:t>103</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>395</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1085</x:t>
+  </x:si>
+  <x:si>
+    <x:t>564</x:t>
+  </x:si>
+  <x:si>
+    <x:t>120</x:t>
+  </x:si>
+  <x:si>
+    <x:t>228</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2041</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Drug/Narcotic Violations</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4068</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2051</x:t>
+  </x:si>
+  <x:si>
+    <x:t>154</x:t>
+  </x:si>
+  <x:si>
+    <x:t>569</x:t>
+  </x:si>
+  <x:si>
+    <x:t>917</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7780</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>179</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4173</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2082</x:t>
+  </x:si>
+  <x:si>
+    <x:t>162</x:t>
+  </x:si>
+  <x:si>
+    <x:t>571</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>949</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7959</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Embezzlement</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>72</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>91</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Extortion/Blackmail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fraud Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1006</x:t>
+  </x:si>
+  <x:si>
+    <x:t>762</x:t>
+  </x:si>
+  <x:si>
+    <x:t>68</x:t>
+  </x:si>
+  <x:si>
+    <x:t>161</x:t>
+  </x:si>
+  <x:si>
+    <x:t>294</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2296</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>88</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1037</x:t>
+  </x:si>
+  <x:si>
+    <x:t>797</x:t>
+  </x:si>
+  <x:si>
+    <x:t>167</x:t>
+  </x:si>
+  <x:si>
+    <x:t>310</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2384</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gambling Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Homicide Offenses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36</x:t>
+  </x:si>
+  <x:si>
+    <x:t>82</x:t>
+  </x:si>
+  <x:si>
+    <x:t>144</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Human Trafficking</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kidnapping/Abduction</x:t>
+  </x:si>
+  <x:si>
+    <x:t>45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>122</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Larceny/Theft